--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197085</v>
+        <v>0.0648334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204564</v>
+        <v>0.163016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21324</v>
+        <v>0.16006</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190508</v>
+        <v>0.0644699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20538</v>
+        <v>0.162852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214318</v>
+        <v>0.160012</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186868</v>
+        <v>0.0640146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204857</v>
+        <v>0.163501</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213145</v>
+        <v>0.160113</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181859</v>
+        <v>0.0643875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205172</v>
+        <v>0.163312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212758</v>
+        <v>0.159032</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177036</v>
+        <v>0.063823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205409</v>
+        <v>0.164675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214249</v>
+        <v>0.159638</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169552</v>
+        <v>0.0640795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.20601</v>
+        <v>0.164081</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213164</v>
+        <v>0.158826</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161947</v>
+        <v>0.06419179999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204107</v>
+        <v>0.163632</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212506</v>
+        <v>0.159101</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150905</v>
+        <v>0.0651186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204306</v>
+        <v>0.163912</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228803</v>
+        <v>0.160608</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228846</v>
+        <v>0.0920478</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22276</v>
+        <v>0.171148</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227793</v>
+        <v>0.161841</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226873</v>
+        <v>0.09234879999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222659</v>
+        <v>0.170823</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227333</v>
+        <v>0.161325</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224452</v>
+        <v>0.0923692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221021</v>
+        <v>0.170484</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226075</v>
+        <v>0.161536</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220926</v>
+        <v>0.0903062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219787</v>
+        <v>0.169653</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225368</v>
+        <v>0.163156</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216458</v>
+        <v>0.0900029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218479</v>
+        <v>0.169455</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224216</v>
+        <v>0.162063</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212869</v>
+        <v>0.089451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217353</v>
+        <v>0.16962</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223126</v>
+        <v>0.163891</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209292</v>
+        <v>0.08953999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217059</v>
+        <v>0.169404</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22289</v>
+        <v>0.162864</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204564</v>
+        <v>0.0877362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215886</v>
+        <v>0.168831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221374</v>
+        <v>0.162257</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199305</v>
+        <v>0.0866773</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215183</v>
+        <v>0.16895</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22085</v>
+        <v>0.161672</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192592</v>
+        <v>0.0878874</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214412</v>
+        <v>0.170508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219784</v>
+        <v>0.165128</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187852</v>
+        <v>0.0866252</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215241</v>
+        <v>0.169915</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218957</v>
+        <v>0.163359</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180731</v>
+        <v>0.0848088</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214721</v>
+        <v>0.17126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218369</v>
+        <v>0.165833</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174028</v>
+        <v>0.08248999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212683</v>
+        <v>0.169959</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217548</v>
+        <v>0.165464</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164937</v>
+        <v>0.0803347</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211604</v>
+        <v>0.17038</v>
       </c>
       <c r="D23" t="n">
-        <v>0.232756</v>
+        <v>0.179635</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239598</v>
+        <v>0.131579</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226888</v>
+        <v>0.18257</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230659</v>
+        <v>0.177893</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235873</v>
+        <v>0.129339</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225234</v>
+        <v>0.182089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229496</v>
+        <v>0.181549</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233863</v>
+        <v>0.127385</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223308</v>
+        <v>0.18098</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227917</v>
+        <v>0.181501</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229454</v>
+        <v>0.124896</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222759</v>
+        <v>0.17936</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226164</v>
+        <v>0.180982</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225395</v>
+        <v>0.12139</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221272</v>
+        <v>0.176302</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225073</v>
+        <v>0.177103</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220136</v>
+        <v>0.118686</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21961</v>
+        <v>0.17799</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2242</v>
+        <v>0.175217</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215297</v>
+        <v>0.115895</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218889</v>
+        <v>0.177084</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222869</v>
+        <v>0.177026</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211458</v>
+        <v>0.113534</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217901</v>
+        <v>0.176523</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222018</v>
+        <v>0.175623</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206038</v>
+        <v>0.110653</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217668</v>
+        <v>0.174967</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221776</v>
+        <v>0.173604</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200201</v>
+        <v>0.107163</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216538</v>
+        <v>0.175916</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220911</v>
+        <v>0.171642</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195273</v>
+        <v>0.10389</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215939</v>
+        <v>0.175335</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220279</v>
+        <v>0.175009</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187287</v>
+        <v>0.0995969</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214957</v>
+        <v>0.174299</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219537</v>
+        <v>0.173683</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179984</v>
+        <v>0.0945944</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213341</v>
+        <v>0.172385</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218557</v>
+        <v>0.171555</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17029</v>
+        <v>0.09031400000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212566</v>
+        <v>0.1713</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232223</v>
+        <v>0.18875</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243915</v>
+        <v>0.150699</v>
       </c>
       <c r="C38" t="n">
-        <v>0.226876</v>
+        <v>0.187084</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230806</v>
+        <v>0.185139</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241442</v>
+        <v>0.14774</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22576</v>
+        <v>0.185391</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22966</v>
+        <v>0.186352</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237932</v>
+        <v>0.14434</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224784</v>
+        <v>0.183721</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228283</v>
+        <v>0.185197</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233808</v>
+        <v>0.140657</v>
       </c>
       <c r="C41" t="n">
-        <v>0.22366</v>
+        <v>0.182214</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227354</v>
+        <v>0.183797</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.23035</v>
+        <v>0.136705</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222345</v>
+        <v>0.182227</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226331</v>
+        <v>0.183138</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226017</v>
+        <v>0.132849</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2212</v>
+        <v>0.181103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225517</v>
+        <v>0.181845</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221208</v>
+        <v>0.128749</v>
       </c>
       <c r="C44" t="n">
-        <v>0.22023</v>
+        <v>0.180404</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224477</v>
+        <v>0.180253</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215941</v>
+        <v>0.124773</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219278</v>
+        <v>0.179626</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223379</v>
+        <v>0.179578</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209535</v>
+        <v>0.120778</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218323</v>
+        <v>0.178742</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222526</v>
+        <v>0.178328</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204328</v>
+        <v>0.116414</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217895</v>
+        <v>0.177341</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221877</v>
+        <v>0.177285</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198241</v>
+        <v>0.111774</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217027</v>
+        <v>0.176264</v>
       </c>
       <c r="D48" t="n">
-        <v>0.220869</v>
+        <v>0.175612</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191964</v>
+        <v>0.107099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215815</v>
+        <v>0.175071</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219848</v>
+        <v>0.175447</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184783</v>
+        <v>0.102675</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214669</v>
+        <v>0.174398</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219473</v>
+        <v>0.174856</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176519</v>
+        <v>0.0976897</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214192</v>
+        <v>0.173402</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234007</v>
+        <v>0.191757</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165754</v>
+        <v>0.0922427</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212624</v>
+        <v>0.171847</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232186</v>
+        <v>0.190148</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244814</v>
+        <v>0.155721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226794</v>
+        <v>0.187471</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230907</v>
+        <v>0.188696</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240717</v>
+        <v>0.151955</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225918</v>
+        <v>0.186392</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229676</v>
+        <v>0.187636</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237389</v>
+        <v>0.148132</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224651</v>
+        <v>0.185369</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228701</v>
+        <v>0.186743</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232891</v>
+        <v>0.143677</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223265</v>
+        <v>0.184229</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227225</v>
+        <v>0.184768</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227953</v>
+        <v>0.139381</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222297</v>
+        <v>0.182777</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226232</v>
+        <v>0.183906</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223353</v>
+        <v>0.134714</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221574</v>
+        <v>0.181944</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22527</v>
+        <v>0.182675</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218978</v>
+        <v>0.129942</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220397</v>
+        <v>0.180735</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224218</v>
+        <v>0.181887</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214048</v>
+        <v>0.125338</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219715</v>
+        <v>0.179916</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223553</v>
+        <v>0.180364</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207584</v>
+        <v>0.120667</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218682</v>
+        <v>0.17884</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2227</v>
+        <v>0.179934</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201676</v>
+        <v>0.11569</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21769</v>
+        <v>0.177522</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221646</v>
+        <v>0.178369</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194558</v>
+        <v>0.110565</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216461</v>
+        <v>0.176427</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220699</v>
+        <v>0.177548</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187288</v>
+        <v>0.105795</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215538</v>
+        <v>0.175244</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219864</v>
+        <v>0.17643</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178668</v>
+        <v>0.100933</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214795</v>
+        <v>0.174311</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219291</v>
+        <v>0.176026</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169281</v>
+        <v>0.0961365</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213576</v>
+        <v>0.172873</v>
       </c>
       <c r="D66" t="n">
-        <v>0.233037</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247102</v>
+        <v>0.160201</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228169</v>
+        <v>0.188887</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231861</v>
+        <v>0.190436</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243755</v>
+        <v>0.155926</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22671</v>
+        <v>0.187486</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230455</v>
+        <v>0.188668</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239852</v>
+        <v>0.151849</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225301</v>
+        <v>0.18615</v>
       </c>
       <c r="D69" t="n">
-        <v>0.22904</v>
+        <v>0.187149</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235403</v>
+        <v>0.147202</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224024</v>
+        <v>0.18497</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227948</v>
+        <v>0.185967</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230826</v>
+        <v>0.142142</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223108</v>
+        <v>0.183557</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226669</v>
+        <v>0.184435</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225689</v>
+        <v>0.137587</v>
       </c>
       <c r="C72" t="n">
-        <v>0.222101</v>
+        <v>0.182357</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225492</v>
+        <v>0.1831</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219848</v>
+        <v>0.132699</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220923</v>
+        <v>0.182264</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224412</v>
+        <v>0.182036</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214855</v>
+        <v>0.127684</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219958</v>
+        <v>0.179993</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223454</v>
+        <v>0.180833</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209292</v>
+        <v>0.122711</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218897</v>
+        <v>0.178874</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222589</v>
+        <v>0.179627</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203418</v>
+        <v>0.117747</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217986</v>
+        <v>0.177774</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221663</v>
+        <v>0.178542</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196555</v>
+        <v>0.112957</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216992</v>
+        <v>0.176777</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220896</v>
+        <v>0.177624</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189483</v>
+        <v>0.107983</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215923</v>
+        <v>0.175611</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220116</v>
+        <v>0.176781</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181572</v>
+        <v>0.103033</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214963</v>
+        <v>0.174489</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219392</v>
+        <v>0.176061</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171854</v>
+        <v>0.0980048</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214023</v>
+        <v>0.173344</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233617</v>
+        <v>0.192291</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248169</v>
+        <v>0.162043</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228538</v>
+        <v>0.189611</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232119</v>
+        <v>0.190642</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24491</v>
+        <v>0.158139</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227322</v>
+        <v>0.188258</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231146</v>
+        <v>0.189339</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240961</v>
+        <v>0.153959</v>
       </c>
       <c r="C83" t="n">
-        <v>0.22605</v>
+        <v>0.186944</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229718</v>
+        <v>0.187844</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236993</v>
+        <v>0.149337</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225033</v>
+        <v>0.185481</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228627</v>
+        <v>0.186451</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232481</v>
+        <v>0.144556</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223863</v>
+        <v>0.184333</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227547</v>
+        <v>0.185176</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227546</v>
+        <v>0.139884</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222967</v>
+        <v>0.183116</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226408</v>
+        <v>0.18386</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222337</v>
+        <v>0.134721</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221829</v>
+        <v>0.181777</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225347</v>
+        <v>0.182602</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216878</v>
+        <v>0.129844</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220886</v>
+        <v>0.180498</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224306</v>
+        <v>0.181363</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211197</v>
+        <v>0.124713</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219594</v>
+        <v>0.17932</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223221</v>
+        <v>0.18025</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204584</v>
+        <v>0.119631</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218787</v>
+        <v>0.178254</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222313</v>
+        <v>0.179146</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1982</v>
+        <v>0.114757</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217523</v>
+        <v>0.177059</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221358</v>
+        <v>0.178087</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191123</v>
+        <v>0.109746</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216524</v>
+        <v>0.175888</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2205</v>
+        <v>0.177235</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183353</v>
+        <v>0.104677</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21555</v>
+        <v>0.174679</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219629</v>
+        <v>0.176389</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174398</v>
+        <v>0.0997551</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214404</v>
+        <v>0.173583</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233938</v>
+        <v>0.192282</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248802</v>
+        <v>0.16228</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231937</v>
+        <v>0.18964</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232744</v>
+        <v>0.190857</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245923</v>
+        <v>0.158424</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230388</v>
+        <v>0.188303</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231672</v>
+        <v>0.189408</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241923</v>
+        <v>0.15418</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229255</v>
+        <v>0.186821</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230199</v>
+        <v>0.18778</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237913</v>
+        <v>0.149403</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226875</v>
+        <v>0.185481</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229369</v>
+        <v>0.186383</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233477</v>
+        <v>0.144929</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226756</v>
+        <v>0.184142</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227916</v>
+        <v>0.18502</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228823</v>
+        <v>0.13984</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224628</v>
+        <v>0.182881</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226781</v>
+        <v>0.18374</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223891</v>
+        <v>0.134852</v>
       </c>
       <c r="C101" t="n">
-        <v>0.22371</v>
+        <v>0.181565</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225825</v>
+        <v>0.182316</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218392</v>
+        <v>0.12962</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222727</v>
+        <v>0.180332</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224704</v>
+        <v>0.181383</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212982</v>
+        <v>0.125034</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221262</v>
+        <v>0.179358</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223656</v>
+        <v>0.180193</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206828</v>
+        <v>0.11979</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220276</v>
+        <v>0.178065</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222572</v>
+        <v>0.179124</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199981</v>
+        <v>0.114948</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218915</v>
+        <v>0.177056</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221814</v>
+        <v>0.17823</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193174</v>
+        <v>0.110075</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218051</v>
+        <v>0.175981</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221054</v>
+        <v>0.177381</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185647</v>
+        <v>0.105143</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216837</v>
+        <v>0.174854</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220153</v>
+        <v>0.176452</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176659</v>
+        <v>0.100262</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215483</v>
+        <v>0.173814</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234795</v>
+        <v>0.192888</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166093</v>
+        <v>0.0953132</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213676</v>
+        <v>0.172538</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233026</v>
+        <v>0.191221</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246047</v>
+        <v>0.159351</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228459</v>
+        <v>0.188545</v>
       </c>
       <c r="D110" t="n">
-        <v>0.231995</v>
+        <v>0.189756</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24269</v>
+        <v>0.155103</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227534</v>
+        <v>0.187125</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230792</v>
+        <v>0.188203</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238737</v>
+        <v>0.1505</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226742</v>
+        <v>0.185855</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229573</v>
+        <v>0.186724</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234028</v>
+        <v>0.145731</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226369</v>
+        <v>0.184454</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228716</v>
+        <v>0.185395</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229229</v>
+        <v>0.140799</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225542</v>
+        <v>0.18317</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227383</v>
+        <v>0.184061</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224501</v>
+        <v>0.135867</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224869</v>
+        <v>0.182038</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226595</v>
+        <v>0.182882</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219215</v>
+        <v>0.130962</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221425</v>
+        <v>0.180823</v>
       </c>
       <c r="D116" t="n">
-        <v>0.225288</v>
+        <v>0.18168</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213888</v>
+        <v>0.125908</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222016</v>
+        <v>0.179587</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224303</v>
+        <v>0.180625</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207952</v>
+        <v>0.120901</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221172</v>
+        <v>0.178527</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223442</v>
+        <v>0.179451</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201899</v>
+        <v>0.116041</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220054</v>
+        <v>0.177398</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222441</v>
+        <v>0.178486</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195002</v>
+        <v>0.111029</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218915</v>
+        <v>0.176171</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221453</v>
+        <v>0.177468</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187854</v>
+        <v>0.106132</v>
       </c>
       <c r="C121" t="n">
-        <v>0.217835</v>
+        <v>0.175116</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220578</v>
+        <v>0.176644</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178923</v>
+        <v>0.101246</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21676</v>
+        <v>0.173952</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219735</v>
+        <v>0.175711</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168336</v>
+        <v>0.0963812</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215329</v>
+        <v>0.172745</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233839</v>
+        <v>0.191453</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24689</v>
+        <v>0.160172</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22854</v>
+        <v>0.188848</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232547</v>
+        <v>0.189931</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243402</v>
+        <v>0.155769</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227267</v>
+        <v>0.187413</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231406</v>
+        <v>0.188311</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239793</v>
+        <v>0.151503</v>
       </c>
       <c r="C126" t="n">
-        <v>0.225684</v>
+        <v>0.186004</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230285</v>
+        <v>0.186961</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237956</v>
+        <v>0.146927</v>
       </c>
       <c r="C127" t="n">
-        <v>0.225436</v>
+        <v>0.184739</v>
       </c>
       <c r="D127" t="n">
-        <v>0.229083</v>
+        <v>0.185632</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232622</v>
+        <v>0.141754</v>
       </c>
       <c r="C128" t="n">
-        <v>0.22502</v>
+        <v>0.18342</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227747</v>
+        <v>0.184239</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226837</v>
+        <v>0.136853</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224176</v>
+        <v>0.182127</v>
       </c>
       <c r="D129" t="n">
-        <v>0.22671</v>
+        <v>0.183064</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222732</v>
+        <v>0.131908</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222922</v>
+        <v>0.180927</v>
       </c>
       <c r="D130" t="n">
-        <v>0.224695</v>
+        <v>0.181827</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216292</v>
+        <v>0.126683</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222044</v>
+        <v>0.179797</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224641</v>
+        <v>0.180751</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209423</v>
+        <v>0.121796</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22093</v>
+        <v>0.178592</v>
       </c>
       <c r="D132" t="n">
-        <v>0.22278</v>
+        <v>0.179654</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203543</v>
+        <v>0.116812</v>
       </c>
       <c r="C133" t="n">
-        <v>0.218198</v>
+        <v>0.177469</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222735</v>
+        <v>0.178583</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196695</v>
+        <v>0.111998</v>
       </c>
       <c r="C134" t="n">
-        <v>0.218924</v>
+        <v>0.176368</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221547</v>
+        <v>0.177612</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188989</v>
+        <v>0.107169</v>
       </c>
       <c r="C135" t="n">
-        <v>0.217648</v>
+        <v>0.175237</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22062</v>
+        <v>0.176673</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179536</v>
+        <v>0.102292</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216533</v>
+        <v>0.174174</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219915</v>
+        <v>0.175833</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169589</v>
+        <v>0.0974006</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215537</v>
+        <v>0.17295</v>
       </c>
       <c r="D137" t="n">
-        <v>0.234035</v>
+        <v>0.191696</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247316</v>
+        <v>0.166318</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228722</v>
+        <v>0.189281</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232741</v>
+        <v>0.190241</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244025</v>
+        <v>0.161741</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227726</v>
+        <v>0.187696</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231585</v>
+        <v>0.188641</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240436</v>
+        <v>0.157181</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227046</v>
+        <v>0.186303</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22999</v>
+        <v>0.187342</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235987</v>
+        <v>0.152134</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226447</v>
+        <v>0.185011</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229388</v>
+        <v>0.185863</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231338</v>
+        <v>0.146969</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225467</v>
+        <v>0.183604</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228229</v>
+        <v>0.184626</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226442</v>
+        <v>0.141916</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224989</v>
+        <v>0.182403</v>
       </c>
       <c r="D143" t="n">
-        <v>0.227079</v>
+        <v>0.183399</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0648334</v>
+        <v>0.0648734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.163016</v>
+        <v>0.16256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16006</v>
+        <v>0.15994</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0644699</v>
+        <v>0.0646288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.162852</v>
+        <v>0.162671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160012</v>
+        <v>0.160155</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0640146</v>
+        <v>0.06429120000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163501</v>
+        <v>0.163237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160113</v>
+        <v>0.160112</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0643875</v>
+        <v>0.0645217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.163312</v>
+        <v>0.162856</v>
       </c>
       <c r="D5" t="n">
-        <v>0.159032</v>
+        <v>0.15892</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.063823</v>
+        <v>0.06411509999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164675</v>
+        <v>0.163986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159638</v>
+        <v>0.159862</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0640795</v>
+        <v>0.06417150000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.164081</v>
+        <v>0.164412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158826</v>
+        <v>0.15961</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06419179999999999</v>
+        <v>0.0642966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163632</v>
+        <v>0.16367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159101</v>
+        <v>0.159084</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0651186</v>
+        <v>0.0648758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163912</v>
+        <v>0.164004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.160608</v>
+        <v>0.16036</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0920478</v>
+        <v>0.090348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.171148</v>
+        <v>0.170062</v>
       </c>
       <c r="D10" t="n">
-        <v>0.161841</v>
+        <v>0.161295</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09234879999999999</v>
+        <v>0.09157270000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.170823</v>
+        <v>0.17062</v>
       </c>
       <c r="D11" t="n">
-        <v>0.161325</v>
+        <v>0.161986</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0923692</v>
+        <v>0.0900157</v>
       </c>
       <c r="C12" t="n">
-        <v>0.170484</v>
+        <v>0.170467</v>
       </c>
       <c r="D12" t="n">
-        <v>0.161536</v>
+        <v>0.161156</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0903062</v>
+        <v>0.0909703</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169653</v>
+        <v>0.169776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.163156</v>
+        <v>0.161729</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0900029</v>
+        <v>0.0900297</v>
       </c>
       <c r="C14" t="n">
-        <v>0.169455</v>
+        <v>0.169576</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162063</v>
+        <v>0.161512</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.089451</v>
+        <v>0.0900151</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16962</v>
+        <v>0.169178</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163891</v>
+        <v>0.162044</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08953999999999999</v>
+        <v>0.08872430000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.169404</v>
+        <v>0.169654</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162864</v>
+        <v>0.162015</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0877362</v>
+        <v>0.0876851</v>
       </c>
       <c r="C17" t="n">
-        <v>0.168831</v>
+        <v>0.169039</v>
       </c>
       <c r="D17" t="n">
-        <v>0.162257</v>
+        <v>0.162135</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0866773</v>
+        <v>0.08632769999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.16895</v>
+        <v>0.169033</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161672</v>
+        <v>0.162307</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0878874</v>
+        <v>0.0850481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.170508</v>
+        <v>0.169044</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165128</v>
+        <v>0.162619</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0866252</v>
+        <v>0.0856842</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169915</v>
+        <v>0.170503</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163359</v>
+        <v>0.166564</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0848088</v>
+        <v>0.08394069999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.17126</v>
+        <v>0.170278</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165833</v>
+        <v>0.170521</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08248999999999999</v>
+        <v>0.0817407</v>
       </c>
       <c r="C22" t="n">
-        <v>0.169959</v>
+        <v>0.171471</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165464</v>
+        <v>0.16448</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0803347</v>
+        <v>0.08029840000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.17038</v>
+        <v>0.171113</v>
       </c>
       <c r="D23" t="n">
-        <v>0.179635</v>
+        <v>0.179271</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131579</v>
+        <v>0.132084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.18257</v>
+        <v>0.183541</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177893</v>
+        <v>0.18366</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129339</v>
+        <v>0.130183</v>
       </c>
       <c r="C25" t="n">
-        <v>0.182089</v>
+        <v>0.18154</v>
       </c>
       <c r="D25" t="n">
-        <v>0.181549</v>
+        <v>0.18358</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127385</v>
+        <v>0.127157</v>
       </c>
       <c r="C26" t="n">
-        <v>0.18098</v>
+        <v>0.18066</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181501</v>
+        <v>0.179947</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124896</v>
+        <v>0.124004</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17936</v>
+        <v>0.179846</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180982</v>
+        <v>0.177486</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.12139</v>
+        <v>0.121269</v>
       </c>
       <c r="C28" t="n">
-        <v>0.176302</v>
+        <v>0.179639</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177103</v>
+        <v>0.180517</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118686</v>
+        <v>0.118518</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17799</v>
+        <v>0.178699</v>
       </c>
       <c r="D29" t="n">
-        <v>0.175217</v>
+        <v>0.178287</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115895</v>
+        <v>0.1153</v>
       </c>
       <c r="C30" t="n">
-        <v>0.177084</v>
+        <v>0.176787</v>
       </c>
       <c r="D30" t="n">
-        <v>0.177026</v>
+        <v>0.177536</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113534</v>
+        <v>0.113357</v>
       </c>
       <c r="C31" t="n">
-        <v>0.176523</v>
+        <v>0.177732</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175623</v>
+        <v>0.178013</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110653</v>
+        <v>0.110138</v>
       </c>
       <c r="C32" t="n">
-        <v>0.174967</v>
+        <v>0.176487</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173604</v>
+        <v>0.174973</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107163</v>
+        <v>0.107289</v>
       </c>
       <c r="C33" t="n">
-        <v>0.175916</v>
+        <v>0.174499</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171642</v>
+        <v>0.174995</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.10389</v>
+        <v>0.104178</v>
       </c>
       <c r="C34" t="n">
-        <v>0.175335</v>
+        <v>0.17525</v>
       </c>
       <c r="D34" t="n">
-        <v>0.175009</v>
+        <v>0.172737</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0995969</v>
+        <v>0.100107</v>
       </c>
       <c r="C35" t="n">
-        <v>0.174299</v>
+        <v>0.174355</v>
       </c>
       <c r="D35" t="n">
-        <v>0.173683</v>
+        <v>0.171945</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0945944</v>
+        <v>0.09471789999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172385</v>
+        <v>0.171732</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171555</v>
+        <v>0.173448</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09031400000000001</v>
+        <v>0.09017699999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1713</v>
+        <v>0.1719</v>
       </c>
       <c r="D37" t="n">
-        <v>0.18875</v>
+        <v>0.187615</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150699</v>
+        <v>0.150243</v>
       </c>
       <c r="C38" t="n">
-        <v>0.187084</v>
+        <v>0.186879</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185139</v>
+        <v>0.187743</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14774</v>
+        <v>0.147596</v>
       </c>
       <c r="C39" t="n">
-        <v>0.185391</v>
+        <v>0.185322</v>
       </c>
       <c r="D39" t="n">
-        <v>0.186352</v>
+        <v>0.186203</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14434</v>
+        <v>0.144336</v>
       </c>
       <c r="C40" t="n">
-        <v>0.183721</v>
+        <v>0.183704</v>
       </c>
       <c r="D40" t="n">
-        <v>0.185197</v>
+        <v>0.184482</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140657</v>
+        <v>0.140716</v>
       </c>
       <c r="C41" t="n">
-        <v>0.182214</v>
+        <v>0.183296</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183797</v>
+        <v>0.184702</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.136705</v>
+        <v>0.136738</v>
       </c>
       <c r="C42" t="n">
-        <v>0.182227</v>
+        <v>0.182296</v>
       </c>
       <c r="D42" t="n">
-        <v>0.183138</v>
+        <v>0.18255</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.132849</v>
+        <v>0.133171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181103</v>
+        <v>0.180885</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181845</v>
+        <v>0.181485</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.128749</v>
+        <v>0.128918</v>
       </c>
       <c r="C44" t="n">
-        <v>0.180404</v>
+        <v>0.180516</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180253</v>
+        <v>0.180914</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.124773</v>
+        <v>0.124828</v>
       </c>
       <c r="C45" t="n">
-        <v>0.179626</v>
+        <v>0.179344</v>
       </c>
       <c r="D45" t="n">
-        <v>0.179578</v>
+        <v>0.17994</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120778</v>
+        <v>0.120767</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178742</v>
+        <v>0.178102</v>
       </c>
       <c r="D46" t="n">
-        <v>0.178328</v>
+        <v>0.177613</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116414</v>
+        <v>0.116302</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177341</v>
+        <v>0.177725</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177285</v>
+        <v>0.177201</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111774</v>
+        <v>0.111519</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176264</v>
+        <v>0.176459</v>
       </c>
       <c r="D48" t="n">
-        <v>0.175612</v>
+        <v>0.175769</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107099</v>
+        <v>0.107056</v>
       </c>
       <c r="C49" t="n">
-        <v>0.175071</v>
+        <v>0.174876</v>
       </c>
       <c r="D49" t="n">
-        <v>0.175447</v>
+        <v>0.175909</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102675</v>
+        <v>0.102734</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174398</v>
+        <v>0.17431</v>
       </c>
       <c r="D50" t="n">
-        <v>0.174856</v>
+        <v>0.174789</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0976897</v>
+        <v>0.0976254</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173402</v>
+        <v>0.173165</v>
       </c>
       <c r="D51" t="n">
-        <v>0.191757</v>
+        <v>0.192331</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0922427</v>
+        <v>0.0925246</v>
       </c>
       <c r="C52" t="n">
-        <v>0.171847</v>
+        <v>0.172163</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190148</v>
+        <v>0.190381</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.155721</v>
+        <v>0.155841</v>
       </c>
       <c r="C53" t="n">
-        <v>0.187471</v>
+        <v>0.18758</v>
       </c>
       <c r="D53" t="n">
-        <v>0.188696</v>
+        <v>0.189134</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.151955</v>
+        <v>0.152313</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186392</v>
+        <v>0.186505</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187636</v>
+        <v>0.187426</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148132</v>
+        <v>0.148324</v>
       </c>
       <c r="C55" t="n">
-        <v>0.185369</v>
+        <v>0.185259</v>
       </c>
       <c r="D55" t="n">
-        <v>0.186743</v>
+        <v>0.186601</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.143677</v>
+        <v>0.144124</v>
       </c>
       <c r="C56" t="n">
-        <v>0.184229</v>
+        <v>0.184133</v>
       </c>
       <c r="D56" t="n">
-        <v>0.184768</v>
+        <v>0.184899</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139381</v>
+        <v>0.139487</v>
       </c>
       <c r="C57" t="n">
-        <v>0.182777</v>
+        <v>0.182719</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183906</v>
+        <v>0.183954</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134714</v>
+        <v>0.134887</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181944</v>
+        <v>0.182014</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182675</v>
+        <v>0.182627</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.129942</v>
+        <v>0.130214</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180735</v>
+        <v>0.180844</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181887</v>
+        <v>0.181446</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125338</v>
+        <v>0.12565</v>
       </c>
       <c r="C60" t="n">
-        <v>0.179916</v>
+        <v>0.17986</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180364</v>
+        <v>0.180293</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120667</v>
+        <v>0.120694</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17884</v>
+        <v>0.178783</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179934</v>
+        <v>0.179529</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11569</v>
+        <v>0.115929</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177522</v>
+        <v>0.177666</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178369</v>
+        <v>0.178035</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110565</v>
+        <v>0.110971</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176427</v>
+        <v>0.176347</v>
       </c>
       <c r="D63" t="n">
-        <v>0.177548</v>
+        <v>0.177225</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.105795</v>
+        <v>0.106119</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175244</v>
+        <v>0.175315</v>
       </c>
       <c r="D64" t="n">
-        <v>0.17643</v>
+        <v>0.176339</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.100933</v>
+        <v>0.101111</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174311</v>
+        <v>0.174102</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176026</v>
+        <v>0.175671</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0961365</v>
+        <v>0.09618740000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.172873</v>
+        <v>0.172947</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1919</v>
+        <v>0.191438</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160201</v>
+        <v>0.159645</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188887</v>
+        <v>0.188799</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190436</v>
+        <v>0.190076</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.155926</v>
+        <v>0.155439</v>
       </c>
       <c r="C68" t="n">
-        <v>0.187486</v>
+        <v>0.187421</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188668</v>
+        <v>0.188479</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151849</v>
+        <v>0.151399</v>
       </c>
       <c r="C69" t="n">
-        <v>0.18615</v>
+        <v>0.18614</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187149</v>
+        <v>0.187215</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147202</v>
+        <v>0.146982</v>
       </c>
       <c r="C70" t="n">
-        <v>0.18497</v>
+        <v>0.184993</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185967</v>
+        <v>0.185909</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142142</v>
+        <v>0.142409</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183557</v>
+        <v>0.183553</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184435</v>
+        <v>0.184473</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137587</v>
+        <v>0.137507</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182357</v>
+        <v>0.182413</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1831</v>
+        <v>0.183057</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132699</v>
+        <v>0.132361</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182264</v>
+        <v>0.18101</v>
       </c>
       <c r="D73" t="n">
-        <v>0.182036</v>
+        <v>0.182082</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127684</v>
+        <v>0.127523</v>
       </c>
       <c r="C74" t="n">
-        <v>0.179993</v>
+        <v>0.180046</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180833</v>
+        <v>0.180896</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122711</v>
+        <v>0.12244</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178874</v>
+        <v>0.178891</v>
       </c>
       <c r="D75" t="n">
-        <v>0.179627</v>
+        <v>0.17955</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117747</v>
+        <v>0.117734</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177774</v>
+        <v>0.177735</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178542</v>
+        <v>0.178619</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112957</v>
+        <v>0.112845</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176777</v>
+        <v>0.176621</v>
       </c>
       <c r="D77" t="n">
-        <v>0.177624</v>
+        <v>0.177644</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107983</v>
+        <v>0.108047</v>
       </c>
       <c r="C78" t="n">
-        <v>0.175611</v>
+        <v>0.175587</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176781</v>
+        <v>0.17675</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103033</v>
+        <v>0.102986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174489</v>
+        <v>0.174457</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176061</v>
+        <v>0.175966</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0980048</v>
+        <v>0.0981189</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173344</v>
+        <v>0.173367</v>
       </c>
       <c r="D80" t="n">
-        <v>0.192291</v>
+        <v>0.192137</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.162043</v>
+        <v>0.16208</v>
       </c>
       <c r="C81" t="n">
-        <v>0.189611</v>
+        <v>0.189481</v>
       </c>
       <c r="D81" t="n">
-        <v>0.190642</v>
+        <v>0.190737</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158139</v>
+        <v>0.158299</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188258</v>
+        <v>0.188225</v>
       </c>
       <c r="D82" t="n">
-        <v>0.189339</v>
+        <v>0.18933</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153959</v>
+        <v>0.153958</v>
       </c>
       <c r="C83" t="n">
-        <v>0.186944</v>
+        <v>0.186953</v>
       </c>
       <c r="D83" t="n">
-        <v>0.187844</v>
+        <v>0.18771</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149337</v>
+        <v>0.14915</v>
       </c>
       <c r="C84" t="n">
-        <v>0.185481</v>
+        <v>0.185666</v>
       </c>
       <c r="D84" t="n">
-        <v>0.186451</v>
+        <v>0.186496</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144556</v>
+        <v>0.144405</v>
       </c>
       <c r="C85" t="n">
-        <v>0.184333</v>
+        <v>0.18432</v>
       </c>
       <c r="D85" t="n">
-        <v>0.185176</v>
+        <v>0.185198</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139884</v>
+        <v>0.139319</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183116</v>
+        <v>0.183062</v>
       </c>
       <c r="D86" t="n">
-        <v>0.18386</v>
+        <v>0.183904</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134721</v>
+        <v>0.134313</v>
       </c>
       <c r="C87" t="n">
-        <v>0.181777</v>
+        <v>0.18175</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182602</v>
+        <v>0.182576</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129844</v>
+        <v>0.129272</v>
       </c>
       <c r="C88" t="n">
-        <v>0.180498</v>
+        <v>0.180559</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181363</v>
+        <v>0.181403</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124713</v>
+        <v>0.124366</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17932</v>
+        <v>0.17931</v>
       </c>
       <c r="D89" t="n">
-        <v>0.18025</v>
+        <v>0.180233</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119631</v>
+        <v>0.119458</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178254</v>
+        <v>0.178177</v>
       </c>
       <c r="D90" t="n">
-        <v>0.179146</v>
+        <v>0.179127</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114757</v>
+        <v>0.114417</v>
       </c>
       <c r="C91" t="n">
-        <v>0.177059</v>
+        <v>0.177107</v>
       </c>
       <c r="D91" t="n">
-        <v>0.178087</v>
+        <v>0.178032</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109746</v>
+        <v>0.109511</v>
       </c>
       <c r="C92" t="n">
-        <v>0.175888</v>
+        <v>0.17581</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177235</v>
+        <v>0.177211</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104677</v>
+        <v>0.104533</v>
       </c>
       <c r="C93" t="n">
-        <v>0.174679</v>
+        <v>0.174672</v>
       </c>
       <c r="D93" t="n">
-        <v>0.176389</v>
+        <v>0.176279</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0997551</v>
+        <v>0.09963809999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.173583</v>
+        <v>0.173488</v>
       </c>
       <c r="D94" t="n">
-        <v>0.192282</v>
+        <v>0.192257</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.16228</v>
+        <v>0.162458</v>
       </c>
       <c r="C95" t="n">
-        <v>0.18964</v>
+        <v>0.18968</v>
       </c>
       <c r="D95" t="n">
-        <v>0.190857</v>
+        <v>0.190787</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158424</v>
+        <v>0.158395</v>
       </c>
       <c r="C96" t="n">
-        <v>0.188303</v>
+        <v>0.188279</v>
       </c>
       <c r="D96" t="n">
-        <v>0.189408</v>
+        <v>0.189405</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15418</v>
+        <v>0.154315</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186821</v>
+        <v>0.186967</v>
       </c>
       <c r="D97" t="n">
-        <v>0.18778</v>
+        <v>0.187874</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149403</v>
+        <v>0.149631</v>
       </c>
       <c r="C98" t="n">
-        <v>0.185481</v>
+        <v>0.185488</v>
       </c>
       <c r="D98" t="n">
-        <v>0.186383</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144929</v>
+        <v>0.14505</v>
       </c>
       <c r="C99" t="n">
-        <v>0.184142</v>
+        <v>0.184238</v>
       </c>
       <c r="D99" t="n">
-        <v>0.18502</v>
+        <v>0.185028</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.13984</v>
+        <v>0.13974</v>
       </c>
       <c r="C100" t="n">
-        <v>0.182881</v>
+        <v>0.18288</v>
       </c>
       <c r="D100" t="n">
-        <v>0.18374</v>
+        <v>0.183695</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134852</v>
+        <v>0.134854</v>
       </c>
       <c r="C101" t="n">
-        <v>0.181565</v>
+        <v>0.1817</v>
       </c>
       <c r="D101" t="n">
-        <v>0.182316</v>
+        <v>0.182511</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.12962</v>
+        <v>0.129802</v>
       </c>
       <c r="C102" t="n">
-        <v>0.180332</v>
+        <v>0.180409</v>
       </c>
       <c r="D102" t="n">
-        <v>0.181383</v>
+        <v>0.1813</v>
       </c>
     </row>
     <row r="103">
@@ -4663,10 +4663,10 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125034</v>
+        <v>0.124968</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179358</v>
+        <v>0.179311</v>
       </c>
       <c r="D103" t="n">
         <v>0.180193</v>
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11979</v>
+        <v>0.119928</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178065</v>
+        <v>0.178167</v>
       </c>
       <c r="D104" t="n">
-        <v>0.179124</v>
+        <v>0.179126</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114948</v>
+        <v>0.114954</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177056</v>
+        <v>0.177128</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17823</v>
+        <v>0.178242</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110075</v>
+        <v>0.110065</v>
       </c>
       <c r="C106" t="n">
-        <v>0.175981</v>
+        <v>0.175994</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177381</v>
+        <v>0.177265</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105143</v>
+        <v>0.105165</v>
       </c>
       <c r="C107" t="n">
-        <v>0.174854</v>
+        <v>0.174829</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176452</v>
+        <v>0.17639</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100262</v>
+        <v>0.100221</v>
       </c>
       <c r="C108" t="n">
-        <v>0.173814</v>
+        <v>0.173865</v>
       </c>
       <c r="D108" t="n">
-        <v>0.192888</v>
+        <v>0.192732</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0953132</v>
+        <v>0.0953456</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172538</v>
+        <v>0.172604</v>
       </c>
       <c r="D109" t="n">
-        <v>0.191221</v>
+        <v>0.191252</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159351</v>
+        <v>0.159223</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188545</v>
+        <v>0.188464</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189756</v>
+        <v>0.189583</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155103</v>
+        <v>0.154897</v>
       </c>
       <c r="C111" t="n">
-        <v>0.187125</v>
+        <v>0.187153</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188203</v>
+        <v>0.188136</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1505</v>
+        <v>0.15038</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185855</v>
+        <v>0.185825</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186724</v>
+        <v>0.18681</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145731</v>
+        <v>0.145999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184454</v>
+        <v>0.184501</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185395</v>
+        <v>0.185419</v>
       </c>
     </row>
     <row r="114">
@@ -4817,10 +4817,10 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140799</v>
+        <v>0.140802</v>
       </c>
       <c r="C114" t="n">
-        <v>0.18317</v>
+        <v>0.183257</v>
       </c>
       <c r="D114" t="n">
         <v>0.184061</v>
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135867</v>
+        <v>0.136104</v>
       </c>
       <c r="C115" t="n">
-        <v>0.182038</v>
+        <v>0.182084</v>
       </c>
       <c r="D115" t="n">
-        <v>0.182882</v>
+        <v>0.182833</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130962</v>
+        <v>0.130958</v>
       </c>
       <c r="C116" t="n">
-        <v>0.180823</v>
+        <v>0.180858</v>
       </c>
       <c r="D116" t="n">
-        <v>0.18168</v>
+        <v>0.18172</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125908</v>
+        <v>0.125949</v>
       </c>
       <c r="C117" t="n">
-        <v>0.179587</v>
+        <v>0.179663</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180625</v>
+        <v>0.180555</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120901</v>
+        <v>0.120963</v>
       </c>
       <c r="C118" t="n">
-        <v>0.178527</v>
+        <v>0.178579</v>
       </c>
       <c r="D118" t="n">
-        <v>0.179451</v>
+        <v>0.179493</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116041</v>
+        <v>0.116052</v>
       </c>
       <c r="C119" t="n">
-        <v>0.177398</v>
+        <v>0.177337</v>
       </c>
       <c r="D119" t="n">
-        <v>0.178486</v>
+        <v>0.178328</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111029</v>
+        <v>0.110867</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176171</v>
+        <v>0.176046</v>
       </c>
       <c r="D120" t="n">
-        <v>0.177468</v>
+        <v>0.177301</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106132</v>
+        <v>0.106021</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175116</v>
+        <v>0.175137</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176644</v>
+        <v>0.176637</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101246</v>
+        <v>0.101291</v>
       </c>
       <c r="C122" t="n">
-        <v>0.173952</v>
+        <v>0.173906</v>
       </c>
       <c r="D122" t="n">
-        <v>0.175711</v>
+        <v>0.175679</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0963812</v>
+        <v>0.0963734</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172745</v>
+        <v>0.172849</v>
       </c>
       <c r="D123" t="n">
-        <v>0.191453</v>
+        <v>0.191444</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160172</v>
+        <v>0.159936</v>
       </c>
       <c r="C124" t="n">
-        <v>0.188848</v>
+        <v>0.188928</v>
       </c>
       <c r="D124" t="n">
-        <v>0.189931</v>
+        <v>0.189884</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155769</v>
+        <v>0.156045</v>
       </c>
       <c r="C125" t="n">
-        <v>0.187413</v>
+        <v>0.187444</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188311</v>
+        <v>0.188417</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151503</v>
+        <v>0.151411</v>
       </c>
       <c r="C126" t="n">
-        <v>0.186004</v>
+        <v>0.186007</v>
       </c>
       <c r="D126" t="n">
-        <v>0.186961</v>
+        <v>0.187013</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146927</v>
+        <v>0.146385</v>
       </c>
       <c r="C127" t="n">
-        <v>0.184739</v>
+        <v>0.18466</v>
       </c>
       <c r="D127" t="n">
-        <v>0.185632</v>
+        <v>0.185547</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141754</v>
+        <v>0.141568</v>
       </c>
       <c r="C128" t="n">
-        <v>0.18342</v>
+        <v>0.183416</v>
       </c>
       <c r="D128" t="n">
-        <v>0.184239</v>
+        <v>0.184319</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136853</v>
+        <v>0.136886</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182127</v>
+        <v>0.182163</v>
       </c>
       <c r="D129" t="n">
-        <v>0.183064</v>
+        <v>0.183034</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131908</v>
+        <v>0.131759</v>
       </c>
       <c r="C130" t="n">
-        <v>0.180927</v>
+        <v>0.180865</v>
       </c>
       <c r="D130" t="n">
-        <v>0.181827</v>
+        <v>0.181828</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126683</v>
+        <v>0.126847</v>
       </c>
       <c r="C131" t="n">
-        <v>0.179797</v>
+        <v>0.179807</v>
       </c>
       <c r="D131" t="n">
-        <v>0.180751</v>
+        <v>0.180762</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121796</v>
+        <v>0.121723</v>
       </c>
       <c r="C132" t="n">
-        <v>0.178592</v>
+        <v>0.178606</v>
       </c>
       <c r="D132" t="n">
-        <v>0.179654</v>
+        <v>0.179695</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.116812</v>
+        <v>0.116798</v>
       </c>
       <c r="C133" t="n">
-        <v>0.177469</v>
+        <v>0.17748</v>
       </c>
       <c r="D133" t="n">
-        <v>0.178583</v>
+        <v>0.178567</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.111998</v>
+        <v>0.111883</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176368</v>
+        <v>0.176339</v>
       </c>
       <c r="D134" t="n">
-        <v>0.177612</v>
+        <v>0.17759</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107169</v>
+        <v>0.107067</v>
       </c>
       <c r="C135" t="n">
-        <v>0.175237</v>
+        <v>0.175267</v>
       </c>
       <c r="D135" t="n">
-        <v>0.176673</v>
+        <v>0.176691</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102292</v>
+        <v>0.102235</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174174</v>
+        <v>0.174143</v>
       </c>
       <c r="D136" t="n">
-        <v>0.175833</v>
+        <v>0.175775</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0974006</v>
+        <v>0.09730220000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.17295</v>
+        <v>0.17308</v>
       </c>
       <c r="D137" t="n">
-        <v>0.191696</v>
+        <v>0.191784</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166318</v>
+        <v>0.161116</v>
       </c>
       <c r="C138" t="n">
-        <v>0.189281</v>
+        <v>0.189142</v>
       </c>
       <c r="D138" t="n">
-        <v>0.190241</v>
+        <v>0.190237</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161741</v>
+        <v>0.161628</v>
       </c>
       <c r="C139" t="n">
-        <v>0.187696</v>
+        <v>0.187734</v>
       </c>
       <c r="D139" t="n">
-        <v>0.188641</v>
+        <v>0.188702</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157181</v>
+        <v>0.156998</v>
       </c>
       <c r="C140" t="n">
-        <v>0.186303</v>
+        <v>0.186269</v>
       </c>
       <c r="D140" t="n">
-        <v>0.187342</v>
+        <v>0.187287</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.152134</v>
+        <v>0.151979</v>
       </c>
       <c r="C141" t="n">
-        <v>0.185011</v>
+        <v>0.184981</v>
       </c>
       <c r="D141" t="n">
-        <v>0.185863</v>
+        <v>0.185962</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.146969</v>
+        <v>0.146778</v>
       </c>
       <c r="C142" t="n">
-        <v>0.183604</v>
+        <v>0.183631</v>
       </c>
       <c r="D142" t="n">
-        <v>0.184626</v>
+        <v>0.184575</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.141916</v>
+        <v>0.141745</v>
       </c>
       <c r="C143" t="n">
-        <v>0.182403</v>
+        <v>0.182384</v>
       </c>
       <c r="D143" t="n">
-        <v>0.183399</v>
+        <v>0.183393</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0648734</v>
+        <v>0.0649337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.16256</v>
+        <v>0.162759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15994</v>
+        <v>0.159966</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0646288</v>
+        <v>0.06448909999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.162671</v>
+        <v>0.162831</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160155</v>
+        <v>0.160315</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06429120000000001</v>
+        <v>0.0642162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163237</v>
+        <v>0.163719</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160112</v>
+        <v>0.160711</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0645217</v>
+        <v>0.0641669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162856</v>
+        <v>0.162922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15892</v>
+        <v>0.159974</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06411509999999999</v>
+        <v>0.0642595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163986</v>
+        <v>0.164189</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159862</v>
+        <v>0.159796</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06417150000000001</v>
+        <v>0.0641337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.164412</v>
+        <v>0.163753</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15961</v>
+        <v>0.159622</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0642966</v>
+        <v>0.064469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16367</v>
+        <v>0.164162</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159084</v>
+        <v>0.159561</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0648758</v>
+        <v>0.0653244</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164004</v>
+        <v>0.163956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16036</v>
+        <v>0.16066</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.090348</v>
+        <v>0.0904046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.170062</v>
+        <v>0.170258</v>
       </c>
       <c r="D10" t="n">
-        <v>0.161295</v>
+        <v>0.161077</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09157270000000001</v>
+        <v>0.0914576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17062</v>
+        <v>0.170269</v>
       </c>
       <c r="D11" t="n">
-        <v>0.161986</v>
+        <v>0.161586</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0900157</v>
+        <v>0.0905575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.170467</v>
+        <v>0.17017</v>
       </c>
       <c r="D12" t="n">
-        <v>0.161156</v>
+        <v>0.161068</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0909703</v>
+        <v>0.08937050000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169776</v>
+        <v>0.169908</v>
       </c>
       <c r="D13" t="n">
-        <v>0.161729</v>
+        <v>0.163602</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0900297</v>
+        <v>0.0881514</v>
       </c>
       <c r="C14" t="n">
-        <v>0.169576</v>
+        <v>0.169618</v>
       </c>
       <c r="D14" t="n">
-        <v>0.161512</v>
+        <v>0.162619</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0900151</v>
+        <v>0.0870344</v>
       </c>
       <c r="C15" t="n">
-        <v>0.169178</v>
+        <v>0.169573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.162044</v>
+        <v>0.161874</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08872430000000001</v>
+        <v>0.0871615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.169654</v>
+        <v>0.169436</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162015</v>
+        <v>0.161758</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0876851</v>
+        <v>0.08806219999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.169039</v>
+        <v>0.169165</v>
       </c>
       <c r="D17" t="n">
-        <v>0.162135</v>
+        <v>0.161808</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08632769999999999</v>
+        <v>0.08659799999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.169033</v>
+        <v>0.168833</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162307</v>
+        <v>0.162693</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0850481</v>
+        <v>0.0872265</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169044</v>
+        <v>0.172639</v>
       </c>
       <c r="D19" t="n">
-        <v>0.162619</v>
+        <v>0.16435</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0856842</v>
+        <v>0.086178</v>
       </c>
       <c r="C20" t="n">
-        <v>0.170503</v>
+        <v>0.17351</v>
       </c>
       <c r="D20" t="n">
-        <v>0.166564</v>
+        <v>0.165059</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08394069999999999</v>
+        <v>0.0841809</v>
       </c>
       <c r="C21" t="n">
-        <v>0.170278</v>
+        <v>0.171367</v>
       </c>
       <c r="D21" t="n">
-        <v>0.170521</v>
+        <v>0.16356</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0817407</v>
+        <v>0.0819033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.171471</v>
+        <v>0.171593</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16448</v>
+        <v>0.164603</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08029840000000001</v>
+        <v>0.0796274</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171113</v>
+        <v>0.16962</v>
       </c>
       <c r="D23" t="n">
-        <v>0.179271</v>
+        <v>0.186273</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132084</v>
+        <v>0.131994</v>
       </c>
       <c r="C24" t="n">
-        <v>0.183541</v>
+        <v>0.183575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18366</v>
+        <v>0.180834</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.130183</v>
+        <v>0.129228</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18154</v>
+        <v>0.181089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.18358</v>
+        <v>0.184557</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127157</v>
+        <v>0.12775</v>
       </c>
       <c r="C26" t="n">
-        <v>0.18066</v>
+        <v>0.181532</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179947</v>
+        <v>0.179296</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124004</v>
+        <v>0.124723</v>
       </c>
       <c r="C27" t="n">
-        <v>0.179846</v>
+        <v>0.180377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177486</v>
+        <v>0.17728</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121269</v>
+        <v>0.121345</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179639</v>
+        <v>0.177317</v>
       </c>
       <c r="D28" t="n">
-        <v>0.180517</v>
+        <v>0.177246</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118518</v>
+        <v>0.117741</v>
       </c>
       <c r="C29" t="n">
-        <v>0.178699</v>
+        <v>0.177889</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178287</v>
+        <v>0.180122</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1153</v>
+        <v>0.115486</v>
       </c>
       <c r="C30" t="n">
-        <v>0.176787</v>
+        <v>0.176306</v>
       </c>
       <c r="D30" t="n">
-        <v>0.177536</v>
+        <v>0.17628</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113357</v>
+        <v>0.112633</v>
       </c>
       <c r="C31" t="n">
-        <v>0.177732</v>
+        <v>0.175624</v>
       </c>
       <c r="D31" t="n">
-        <v>0.178013</v>
+        <v>0.177087</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110138</v>
+        <v>0.109805</v>
       </c>
       <c r="C32" t="n">
-        <v>0.176487</v>
+        <v>0.176764</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174973</v>
+        <v>0.172661</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107289</v>
+        <v>0.107229</v>
       </c>
       <c r="C33" t="n">
-        <v>0.174499</v>
+        <v>0.175118</v>
       </c>
       <c r="D33" t="n">
-        <v>0.174995</v>
+        <v>0.17697</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104178</v>
+        <v>0.10387</v>
       </c>
       <c r="C34" t="n">
-        <v>0.17525</v>
+        <v>0.175161</v>
       </c>
       <c r="D34" t="n">
-        <v>0.172737</v>
+        <v>0.17435</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100107</v>
+        <v>0.09967529999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.174355</v>
+        <v>0.17319</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171945</v>
+        <v>0.171687</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09471789999999999</v>
+        <v>0.0947337</v>
       </c>
       <c r="C36" t="n">
-        <v>0.171732</v>
+        <v>0.172884</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173448</v>
+        <v>0.172802</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09017699999999999</v>
+        <v>0.090473</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1719</v>
+        <v>0.172333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187615</v>
+        <v>0.187598</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150243</v>
+        <v>0.150644</v>
       </c>
       <c r="C38" t="n">
-        <v>0.186879</v>
+        <v>0.187156</v>
       </c>
       <c r="D38" t="n">
-        <v>0.187743</v>
+        <v>0.185365</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147596</v>
+        <v>0.147514</v>
       </c>
       <c r="C39" t="n">
-        <v>0.185322</v>
+        <v>0.185791</v>
       </c>
       <c r="D39" t="n">
-        <v>0.186203</v>
+        <v>0.187835</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144336</v>
+        <v>0.144242</v>
       </c>
       <c r="C40" t="n">
-        <v>0.183704</v>
+        <v>0.184949</v>
       </c>
       <c r="D40" t="n">
-        <v>0.184482</v>
+        <v>0.185376</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140716</v>
+        <v>0.140726</v>
       </c>
       <c r="C41" t="n">
-        <v>0.183296</v>
+        <v>0.182943</v>
       </c>
       <c r="D41" t="n">
-        <v>0.184702</v>
+        <v>0.182907</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.136738</v>
+        <v>0.136282</v>
       </c>
       <c r="C42" t="n">
-        <v>0.182296</v>
+        <v>0.181654</v>
       </c>
       <c r="D42" t="n">
-        <v>0.18255</v>
+        <v>0.182927</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133171</v>
+        <v>0.132866</v>
       </c>
       <c r="C43" t="n">
-        <v>0.180885</v>
+        <v>0.181526</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181485</v>
+        <v>0.180866</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.128918</v>
+        <v>0.129375</v>
       </c>
       <c r="C44" t="n">
-        <v>0.180516</v>
+        <v>0.179716</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180914</v>
+        <v>0.18094</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.124828</v>
+        <v>0.125022</v>
       </c>
       <c r="C45" t="n">
-        <v>0.179344</v>
+        <v>0.179095</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17994</v>
+        <v>0.180587</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120767</v>
+        <v>0.120846</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178102</v>
+        <v>0.178507</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177613</v>
+        <v>0.178202</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116302</v>
+        <v>0.116275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177725</v>
+        <v>0.177377</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177201</v>
+        <v>0.177066</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111519</v>
+        <v>0.111726</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176459</v>
+        <v>0.176294</v>
       </c>
       <c r="D48" t="n">
-        <v>0.175769</v>
+        <v>0.176175</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107056</v>
+        <v>0.107228</v>
       </c>
       <c r="C49" t="n">
-        <v>0.174876</v>
+        <v>0.174996</v>
       </c>
       <c r="D49" t="n">
-        <v>0.175909</v>
+        <v>0.175258</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102734</v>
+        <v>0.102636</v>
       </c>
       <c r="C50" t="n">
-        <v>0.17431</v>
+        <v>0.174152</v>
       </c>
       <c r="D50" t="n">
-        <v>0.174789</v>
+        <v>0.174919</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0976254</v>
+        <v>0.0969933</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173165</v>
+        <v>0.173073</v>
       </c>
       <c r="D51" t="n">
-        <v>0.192331</v>
+        <v>0.192333</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0925246</v>
+        <v>0.09214260000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172163</v>
+        <v>0.171925</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190381</v>
+        <v>0.190713</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.155841</v>
+        <v>0.156269</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18758</v>
+        <v>0.18731</v>
       </c>
       <c r="D53" t="n">
-        <v>0.189134</v>
+        <v>0.188929</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152313</v>
+        <v>0.152281</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186505</v>
+        <v>0.186401</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187426</v>
+        <v>0.187336</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148324</v>
+        <v>0.148926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.185259</v>
+        <v>0.184768</v>
       </c>
       <c r="D55" t="n">
-        <v>0.186601</v>
+        <v>0.186773</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144124</v>
+        <v>0.144302</v>
       </c>
       <c r="C56" t="n">
-        <v>0.184133</v>
+        <v>0.184046</v>
       </c>
       <c r="D56" t="n">
-        <v>0.184899</v>
+        <v>0.184741</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139487</v>
+        <v>0.139238</v>
       </c>
       <c r="C57" t="n">
-        <v>0.182719</v>
+        <v>0.183022</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183954</v>
+        <v>0.183873</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134887</v>
+        <v>0.134787</v>
       </c>
       <c r="C58" t="n">
-        <v>0.182014</v>
+        <v>0.181865</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182627</v>
+        <v>0.182614</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130214</v>
+        <v>0.130025</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180844</v>
+        <v>0.180743</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181446</v>
+        <v>0.181624</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12565</v>
+        <v>0.125523</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17986</v>
+        <v>0.179982</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180293</v>
+        <v>0.180425</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120694</v>
+        <v>0.120685</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178783</v>
+        <v>0.178723</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179529</v>
+        <v>0.179473</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115929</v>
+        <v>0.115572</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177666</v>
+        <v>0.177523</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178035</v>
+        <v>0.17821</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110971</v>
+        <v>0.111</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176347</v>
+        <v>0.176393</v>
       </c>
       <c r="D63" t="n">
-        <v>0.177225</v>
+        <v>0.177846</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106119</v>
+        <v>0.106089</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175315</v>
+        <v>0.175293</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176339</v>
+        <v>0.176326</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101111</v>
+        <v>0.101104</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174102</v>
+        <v>0.174187</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175671</v>
+        <v>0.175718</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09618740000000001</v>
+        <v>0.0962901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.172947</v>
+        <v>0.172986</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191438</v>
+        <v>0.191443</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159645</v>
+        <v>0.15999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188799</v>
+        <v>0.188841</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190076</v>
+        <v>0.190124</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.155439</v>
+        <v>0.155845</v>
       </c>
       <c r="C68" t="n">
-        <v>0.187421</v>
+        <v>0.187511</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188479</v>
+        <v>0.188585</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151399</v>
+        <v>0.151578</v>
       </c>
       <c r="C69" t="n">
-        <v>0.18614</v>
+        <v>0.186126</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187215</v>
+        <v>0.187208</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.146982</v>
+        <v>0.147261</v>
       </c>
       <c r="C70" t="n">
-        <v>0.184993</v>
+        <v>0.18477</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185909</v>
+        <v>0.186018</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142409</v>
+        <v>0.142436</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183553</v>
+        <v>0.183987</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184473</v>
+        <v>0.184405</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137507</v>
+        <v>0.137485</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182413</v>
+        <v>0.182349</v>
       </c>
       <c r="D72" t="n">
-        <v>0.183057</v>
+        <v>0.183101</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132361</v>
+        <v>0.132478</v>
       </c>
       <c r="C73" t="n">
-        <v>0.18101</v>
+        <v>0.181091</v>
       </c>
       <c r="D73" t="n">
-        <v>0.182082</v>
+        <v>0.181969</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127523</v>
+        <v>0.127749</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180046</v>
+        <v>0.180029</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180896</v>
+        <v>0.180755</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.12244</v>
+        <v>0.122683</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178891</v>
+        <v>0.178876</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17955</v>
+        <v>0.179524</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117734</v>
+        <v>0.117807</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177735</v>
+        <v>0.177741</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178619</v>
+        <v>0.178539</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112845</v>
+        <v>0.112927</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176621</v>
+        <v>0.176673</v>
       </c>
       <c r="D77" t="n">
-        <v>0.177644</v>
+        <v>0.177726</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108047</v>
+        <v>0.108065</v>
       </c>
       <c r="C78" t="n">
-        <v>0.175587</v>
+        <v>0.175761</v>
       </c>
       <c r="D78" t="n">
-        <v>0.17675</v>
+        <v>0.176797</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.102986</v>
+        <v>0.103123</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174457</v>
+        <v>0.174448</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175966</v>
+        <v>0.176146</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0981189</v>
+        <v>0.0981342</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173367</v>
+        <v>0.173375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.192137</v>
+        <v>0.192213</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.16208</v>
+        <v>0.162242</v>
       </c>
       <c r="C81" t="n">
-        <v>0.189481</v>
+        <v>0.189687</v>
       </c>
       <c r="D81" t="n">
-        <v>0.190737</v>
+        <v>0.190883</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158299</v>
+        <v>0.158399</v>
       </c>
       <c r="C82" t="n">
         <v>0.188225</v>
       </c>
       <c r="D82" t="n">
-        <v>0.18933</v>
+        <v>0.189353</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153958</v>
+        <v>0.154292</v>
       </c>
       <c r="C83" t="n">
-        <v>0.186953</v>
+        <v>0.186888</v>
       </c>
       <c r="D83" t="n">
-        <v>0.18771</v>
+        <v>0.187851</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14915</v>
+        <v>0.149645</v>
       </c>
       <c r="C84" t="n">
-        <v>0.185666</v>
+        <v>0.18558</v>
       </c>
       <c r="D84" t="n">
-        <v>0.186496</v>
+        <v>0.186391</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144405</v>
+        <v>0.14464</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18432</v>
+        <v>0.184224</v>
       </c>
       <c r="D85" t="n">
-        <v>0.185198</v>
+        <v>0.185121</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139319</v>
+        <v>0.139776</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183062</v>
+        <v>0.183054</v>
       </c>
       <c r="D86" t="n">
-        <v>0.183904</v>
+        <v>0.183894</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134313</v>
+        <v>0.134783</v>
       </c>
       <c r="C87" t="n">
-        <v>0.18175</v>
+        <v>0.181863</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182576</v>
+        <v>0.182551</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129272</v>
+        <v>0.129731</v>
       </c>
       <c r="C88" t="n">
-        <v>0.180559</v>
+        <v>0.180623</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181403</v>
+        <v>0.181344</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124366</v>
+        <v>0.124869</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17931</v>
+        <v>0.179262</v>
       </c>
       <c r="D89" t="n">
-        <v>0.180233</v>
+        <v>0.180263</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119458</v>
+        <v>0.119667</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178177</v>
+        <v>0.178328</v>
       </c>
       <c r="D90" t="n">
-        <v>0.179127</v>
+        <v>0.179126</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114417</v>
+        <v>0.114678</v>
       </c>
       <c r="C91" t="n">
-        <v>0.177107</v>
+        <v>0.177027</v>
       </c>
       <c r="D91" t="n">
-        <v>0.178032</v>
+        <v>0.178159</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109511</v>
+        <v>0.109827</v>
       </c>
       <c r="C92" t="n">
-        <v>0.17581</v>
+        <v>0.175856</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177211</v>
+        <v>0.177123</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104533</v>
+        <v>0.104795</v>
       </c>
       <c r="C93" t="n">
-        <v>0.174672</v>
+        <v>0.174791</v>
       </c>
       <c r="D93" t="n">
-        <v>0.176279</v>
+        <v>0.176224</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09963809999999999</v>
+        <v>0.09978769999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.173488</v>
+        <v>0.173569</v>
       </c>
       <c r="D94" t="n">
-        <v>0.192257</v>
+        <v>0.192281</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162458</v>
+        <v>0.162196</v>
       </c>
       <c r="C95" t="n">
-        <v>0.18968</v>
+        <v>0.18967</v>
       </c>
       <c r="D95" t="n">
-        <v>0.190787</v>
+        <v>0.190555</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158395</v>
+        <v>0.158151</v>
       </c>
       <c r="C96" t="n">
-        <v>0.188279</v>
+        <v>0.188056</v>
       </c>
       <c r="D96" t="n">
-        <v>0.189405</v>
+        <v>0.18906</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154315</v>
+        <v>0.154172</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186967</v>
+        <v>0.186732</v>
       </c>
       <c r="D97" t="n">
-        <v>0.187874</v>
+        <v>0.187633</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149631</v>
+        <v>0.149573</v>
       </c>
       <c r="C98" t="n">
-        <v>0.185488</v>
+        <v>0.185448</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1864</v>
+        <v>0.186366</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14505</v>
+        <v>0.144994</v>
       </c>
       <c r="C99" t="n">
-        <v>0.184238</v>
+        <v>0.184207</v>
       </c>
       <c r="D99" t="n">
-        <v>0.185028</v>
+        <v>0.185202</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.13974</v>
+        <v>0.13987</v>
       </c>
       <c r="C100" t="n">
-        <v>0.18288</v>
+        <v>0.182848</v>
       </c>
       <c r="D100" t="n">
-        <v>0.183695</v>
+        <v>0.183736</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134854</v>
+        <v>0.135033</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1817</v>
+        <v>0.181567</v>
       </c>
       <c r="D101" t="n">
-        <v>0.182511</v>
+        <v>0.182487</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129802</v>
+        <v>0.129925</v>
       </c>
       <c r="C102" t="n">
-        <v>0.180409</v>
+        <v>0.180479</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1813</v>
+        <v>0.181323</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124968</v>
+        <v>0.124984</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179311</v>
+        <v>0.179264</v>
       </c>
       <c r="D103" t="n">
-        <v>0.180193</v>
+        <v>0.18023</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119928</v>
+        <v>0.119918</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178167</v>
+        <v>0.178122</v>
       </c>
       <c r="D104" t="n">
-        <v>0.179126</v>
+        <v>0.179144</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114954</v>
+        <v>0.115021</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177128</v>
+        <v>0.177036</v>
       </c>
       <c r="D105" t="n">
-        <v>0.178242</v>
+        <v>0.178231</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110065</v>
+        <v>0.110088</v>
       </c>
       <c r="C106" t="n">
-        <v>0.175994</v>
+        <v>0.176044</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177265</v>
+        <v>0.177277</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105165</v>
+        <v>0.105125</v>
       </c>
       <c r="C107" t="n">
-        <v>0.174829</v>
+        <v>0.174822</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17639</v>
+        <v>0.176296</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100221</v>
+        <v>0.100294</v>
       </c>
       <c r="C108" t="n">
-        <v>0.173865</v>
+        <v>0.173706</v>
       </c>
       <c r="D108" t="n">
-        <v>0.192732</v>
+        <v>0.192832</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0953456</v>
+        <v>0.0953489</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172604</v>
+        <v>0.172602</v>
       </c>
       <c r="D109" t="n">
-        <v>0.191252</v>
+        <v>0.19126</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159223</v>
+        <v>0.159323</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188464</v>
+        <v>0.188518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189583</v>
+        <v>0.189535</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.154897</v>
+        <v>0.155204</v>
       </c>
       <c r="C111" t="n">
-        <v>0.187153</v>
+        <v>0.187219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188136</v>
+        <v>0.188195</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15038</v>
+        <v>0.15051</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185825</v>
+        <v>0.185845</v>
       </c>
       <c r="D112" t="n">
-        <v>0.18681</v>
+        <v>0.186778</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145999</v>
+        <v>0.145871</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184501</v>
+        <v>0.184484</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185419</v>
+        <v>0.185357</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140802</v>
+        <v>0.140654</v>
       </c>
       <c r="C114" t="n">
-        <v>0.183257</v>
+        <v>0.183201</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184061</v>
+        <v>0.184077</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136104</v>
+        <v>0.135843</v>
       </c>
       <c r="C115" t="n">
-        <v>0.182084</v>
+        <v>0.182066</v>
       </c>
       <c r="D115" t="n">
-        <v>0.182833</v>
+        <v>0.182862</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130958</v>
+        <v>0.130843</v>
       </c>
       <c r="C116" t="n">
         <v>0.180858</v>
       </c>
       <c r="D116" t="n">
-        <v>0.18172</v>
+        <v>0.181709</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125949</v>
+        <v>0.125899</v>
       </c>
       <c r="C117" t="n">
-        <v>0.179663</v>
+        <v>0.179738</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180555</v>
+        <v>0.180595</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120963</v>
+        <v>0.120785</v>
       </c>
       <c r="C118" t="n">
-        <v>0.178579</v>
+        <v>0.178502</v>
       </c>
       <c r="D118" t="n">
-        <v>0.179493</v>
+        <v>0.179481</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116052</v>
+        <v>0.115935</v>
       </c>
       <c r="C119" t="n">
-        <v>0.177337</v>
+        <v>0.177343</v>
       </c>
       <c r="D119" t="n">
-        <v>0.178328</v>
+        <v>0.178485</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.110867</v>
+        <v>0.111032</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176046</v>
+        <v>0.176233</v>
       </c>
       <c r="D120" t="n">
-        <v>0.177301</v>
+        <v>0.177513</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106021</v>
+        <v>0.106088</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175137</v>
+        <v>0.175106</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176637</v>
+        <v>0.176581</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101291</v>
+        <v>0.101256</v>
       </c>
       <c r="C122" t="n">
-        <v>0.173906</v>
+        <v>0.17386</v>
       </c>
       <c r="D122" t="n">
-        <v>0.175679</v>
+        <v>0.17566</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0963734</v>
+        <v>0.0963123</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172849</v>
+        <v>0.172782</v>
       </c>
       <c r="D123" t="n">
-        <v>0.191444</v>
+        <v>0.191393</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.159936</v>
+        <v>0.159919</v>
       </c>
       <c r="C124" t="n">
-        <v>0.188928</v>
+        <v>0.188913</v>
       </c>
       <c r="D124" t="n">
-        <v>0.189884</v>
+        <v>0.189871</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.156045</v>
+        <v>0.155809</v>
       </c>
       <c r="C125" t="n">
-        <v>0.187444</v>
+        <v>0.187431</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188417</v>
+        <v>0.188272</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151411</v>
+        <v>0.151654</v>
       </c>
       <c r="C126" t="n">
-        <v>0.186007</v>
+        <v>0.186004</v>
       </c>
       <c r="D126" t="n">
-        <v>0.187013</v>
+        <v>0.186905</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146385</v>
+        <v>0.146808</v>
       </c>
       <c r="C127" t="n">
-        <v>0.18466</v>
+        <v>0.184647</v>
       </c>
       <c r="D127" t="n">
-        <v>0.185547</v>
+        <v>0.185521</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141568</v>
+        <v>0.141936</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183416</v>
+        <v>0.183347</v>
       </c>
       <c r="D128" t="n">
-        <v>0.184319</v>
+        <v>0.184285</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136886</v>
+        <v>0.136638</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182163</v>
+        <v>0.182143</v>
       </c>
       <c r="D129" t="n">
-        <v>0.183034</v>
+        <v>0.182946</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131759</v>
+        <v>0.131543</v>
       </c>
       <c r="C130" t="n">
-        <v>0.180865</v>
+        <v>0.180903</v>
       </c>
       <c r="D130" t="n">
-        <v>0.181828</v>
+        <v>0.181859</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126847</v>
+        <v>0.12663</v>
       </c>
       <c r="C131" t="n">
-        <v>0.179807</v>
+        <v>0.179773</v>
       </c>
       <c r="D131" t="n">
-        <v>0.180762</v>
+        <v>0.180823</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121723</v>
+        <v>0.121726</v>
       </c>
       <c r="C132" t="n">
-        <v>0.178606</v>
+        <v>0.178679</v>
       </c>
       <c r="D132" t="n">
-        <v>0.179695</v>
+        <v>0.17964</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.116798</v>
+        <v>0.11682</v>
       </c>
       <c r="C133" t="n">
-        <v>0.17748</v>
+        <v>0.177469</v>
       </c>
       <c r="D133" t="n">
-        <v>0.178567</v>
+        <v>0.17865</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.111883</v>
+        <v>0.112024</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176339</v>
+        <v>0.176357</v>
       </c>
       <c r="D134" t="n">
-        <v>0.17759</v>
+        <v>0.177596</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107067</v>
+        <v>0.107139</v>
       </c>
       <c r="C135" t="n">
-        <v>0.175267</v>
+        <v>0.175227</v>
       </c>
       <c r="D135" t="n">
-        <v>0.176691</v>
+        <v>0.176672</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102235</v>
+        <v>0.102246</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174143</v>
+        <v>0.174108</v>
       </c>
       <c r="D136" t="n">
-        <v>0.175775</v>
+        <v>0.175839</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.09730220000000001</v>
+        <v>0.0972397</v>
       </c>
       <c r="C137" t="n">
-        <v>0.17308</v>
+        <v>0.172946</v>
       </c>
       <c r="D137" t="n">
-        <v>0.191784</v>
+        <v>0.191757</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161116</v>
+        <v>0.166097</v>
       </c>
       <c r="C138" t="n">
-        <v>0.189142</v>
+        <v>0.18932</v>
       </c>
       <c r="D138" t="n">
-        <v>0.190237</v>
+        <v>0.190181</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161628</v>
+        <v>0.161632</v>
       </c>
       <c r="C139" t="n">
-        <v>0.187734</v>
+        <v>0.187654</v>
       </c>
       <c r="D139" t="n">
-        <v>0.188702</v>
+        <v>0.188798</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.156998</v>
+        <v>0.15702</v>
       </c>
       <c r="C140" t="n">
-        <v>0.186269</v>
+        <v>0.18631</v>
       </c>
       <c r="D140" t="n">
-        <v>0.187287</v>
+        <v>0.18732</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.151979</v>
+        <v>0.152319</v>
       </c>
       <c r="C141" t="n">
-        <v>0.184981</v>
+        <v>0.184985</v>
       </c>
       <c r="D141" t="n">
-        <v>0.185962</v>
+        <v>0.185901</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.146778</v>
+        <v>0.147167</v>
       </c>
       <c r="C142" t="n">
-        <v>0.183631</v>
+        <v>0.183654</v>
       </c>
       <c r="D142" t="n">
-        <v>0.184575</v>
+        <v>0.18459</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.141745</v>
+        <v>0.141208</v>
       </c>
       <c r="C143" t="n">
-        <v>0.182384</v>
+        <v>0.182281</v>
       </c>
       <c r="D143" t="n">
-        <v>0.183393</v>
+        <v>0.183212</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0649337</v>
+        <v>0.0649042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162759</v>
+        <v>0.162173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159966</v>
+        <v>0.160052</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06448909999999999</v>
+        <v>0.064169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.162831</v>
+        <v>0.16274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160315</v>
+        <v>0.160737</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0642162</v>
+        <v>0.0642972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163719</v>
+        <v>0.163507</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160711</v>
+        <v>0.159715</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0641669</v>
+        <v>0.0643024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162922</v>
+        <v>0.162973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.159974</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0642595</v>
+        <v>0.0639289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164189</v>
+        <v>0.164028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159796</v>
+        <v>0.159578</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0641337</v>
+        <v>0.0641128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163753</v>
+        <v>0.163608</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159622</v>
+        <v>0.159219</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.064469</v>
+        <v>0.0645334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.164162</v>
+        <v>0.163814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159561</v>
+        <v>0.15888</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0653244</v>
+        <v>0.0649319</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163956</v>
+        <v>0.16382</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16066</v>
+        <v>0.160784</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0904046</v>
+        <v>0.0891614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.170258</v>
+        <v>0.170728</v>
       </c>
       <c r="D10" t="n">
-        <v>0.161077</v>
+        <v>0.162399</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0914576</v>
+        <v>0.09028600000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.170269</v>
+        <v>0.170684</v>
       </c>
       <c r="D11" t="n">
-        <v>0.161586</v>
+        <v>0.161999</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0905575</v>
+        <v>0.0895677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.17017</v>
+        <v>0.170195</v>
       </c>
       <c r="D12" t="n">
-        <v>0.161068</v>
+        <v>0.161855</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08937050000000001</v>
+        <v>0.09021999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169908</v>
+        <v>0.169767</v>
       </c>
       <c r="D13" t="n">
-        <v>0.163602</v>
+        <v>0.162877</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0881514</v>
+        <v>0.0895468</v>
       </c>
       <c r="C14" t="n">
-        <v>0.169618</v>
+        <v>0.169678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162619</v>
+        <v>0.161995</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0870344</v>
+        <v>0.0892573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.169573</v>
+        <v>0.169944</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161874</v>
+        <v>0.162484</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0871615</v>
+        <v>0.0874656</v>
       </c>
       <c r="C16" t="n">
-        <v>0.169436</v>
+        <v>0.17001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161758</v>
+        <v>0.162477</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08806219999999999</v>
+        <v>0.0866074</v>
       </c>
       <c r="C17" t="n">
-        <v>0.169165</v>
+        <v>0.169142</v>
       </c>
       <c r="D17" t="n">
-        <v>0.161808</v>
+        <v>0.162352</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08659799999999999</v>
+        <v>0.0872754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.168833</v>
+        <v>0.169043</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162693</v>
+        <v>0.162299</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0872265</v>
+        <v>0.0872291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.172639</v>
+        <v>0.170745</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16435</v>
+        <v>0.170958</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.086178</v>
+        <v>0.085483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.17351</v>
+        <v>0.169625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165059</v>
+        <v>0.170849</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0841809</v>
+        <v>0.0834213</v>
       </c>
       <c r="C21" t="n">
-        <v>0.171367</v>
+        <v>0.172951</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16356</v>
+        <v>0.168168</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0819033</v>
+        <v>0.0813827</v>
       </c>
       <c r="C22" t="n">
-        <v>0.171593</v>
+        <v>0.170123</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164603</v>
+        <v>0.16396</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0796274</v>
+        <v>0.080259</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16962</v>
+        <v>0.168948</v>
       </c>
       <c r="D23" t="n">
-        <v>0.186273</v>
+        <v>0.181185</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131994</v>
+        <v>0.131659</v>
       </c>
       <c r="C24" t="n">
-        <v>0.183575</v>
+        <v>0.183061</v>
       </c>
       <c r="D24" t="n">
-        <v>0.180834</v>
+        <v>0.184007</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129228</v>
+        <v>0.128946</v>
       </c>
       <c r="C25" t="n">
-        <v>0.181089</v>
+        <v>0.180847</v>
       </c>
       <c r="D25" t="n">
-        <v>0.184557</v>
+        <v>0.179494</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.12775</v>
+        <v>0.127182</v>
       </c>
       <c r="C26" t="n">
-        <v>0.181532</v>
+        <v>0.182003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179296</v>
+        <v>0.182419</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124723</v>
+        <v>0.123931</v>
       </c>
       <c r="C27" t="n">
-        <v>0.180377</v>
+        <v>0.180276</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17728</v>
+        <v>0.183902</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121345</v>
+        <v>0.121234</v>
       </c>
       <c r="C28" t="n">
-        <v>0.177317</v>
+        <v>0.180995</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177246</v>
+        <v>0.181846</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.117741</v>
+        <v>0.118275</v>
       </c>
       <c r="C29" t="n">
-        <v>0.177889</v>
+        <v>0.179154</v>
       </c>
       <c r="D29" t="n">
-        <v>0.180122</v>
+        <v>0.178861</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115486</v>
+        <v>0.115263</v>
       </c>
       <c r="C30" t="n">
-        <v>0.176306</v>
+        <v>0.177424</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17628</v>
+        <v>0.177113</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112633</v>
+        <v>0.113033</v>
       </c>
       <c r="C31" t="n">
-        <v>0.175624</v>
+        <v>0.17813</v>
       </c>
       <c r="D31" t="n">
-        <v>0.177087</v>
+        <v>0.174652</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.109805</v>
+        <v>0.110298</v>
       </c>
       <c r="C32" t="n">
-        <v>0.176764</v>
+        <v>0.176109</v>
       </c>
       <c r="D32" t="n">
-        <v>0.172661</v>
+        <v>0.173589</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107229</v>
+        <v>0.10685</v>
       </c>
       <c r="C33" t="n">
-        <v>0.175118</v>
+        <v>0.17608</v>
       </c>
       <c r="D33" t="n">
-        <v>0.17697</v>
+        <v>0.17318</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.10387</v>
+        <v>0.103851</v>
       </c>
       <c r="C34" t="n">
-        <v>0.175161</v>
+        <v>0.175265</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17435</v>
+        <v>0.176057</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09967529999999999</v>
+        <v>0.0997514</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17319</v>
+        <v>0.174038</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171687</v>
+        <v>0.176134</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0947337</v>
+        <v>0.09415320000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172884</v>
+        <v>0.171803</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172802</v>
+        <v>0.174692</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.090473</v>
+        <v>0.0896996</v>
       </c>
       <c r="C37" t="n">
-        <v>0.172333</v>
+        <v>0.171914</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187598</v>
+        <v>0.18763</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150644</v>
+        <v>0.151102</v>
       </c>
       <c r="C38" t="n">
-        <v>0.187156</v>
+        <v>0.187262</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185365</v>
+        <v>0.188011</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147514</v>
+        <v>0.147395</v>
       </c>
       <c r="C39" t="n">
-        <v>0.185791</v>
+        <v>0.18533</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187835</v>
+        <v>0.187218</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144242</v>
+        <v>0.143862</v>
       </c>
       <c r="C40" t="n">
-        <v>0.184949</v>
+        <v>0.184015</v>
       </c>
       <c r="D40" t="n">
-        <v>0.185376</v>
+        <v>0.185859</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140726</v>
+        <v>0.140612</v>
       </c>
       <c r="C41" t="n">
-        <v>0.182943</v>
+        <v>0.182659</v>
       </c>
       <c r="D41" t="n">
-        <v>0.182907</v>
+        <v>0.183759</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.136282</v>
+        <v>0.137243</v>
       </c>
       <c r="C42" t="n">
-        <v>0.181654</v>
+        <v>0.182467</v>
       </c>
       <c r="D42" t="n">
-        <v>0.182927</v>
+        <v>0.183302</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.132866</v>
+        <v>0.133179</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181526</v>
+        <v>0.181173</v>
       </c>
       <c r="D43" t="n">
-        <v>0.180866</v>
+        <v>0.182292</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129375</v>
+        <v>0.129236</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179716</v>
+        <v>0.179989</v>
       </c>
       <c r="D44" t="n">
-        <v>0.18094</v>
+        <v>0.180016</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125022</v>
+        <v>0.125334</v>
       </c>
       <c r="C45" t="n">
-        <v>0.179095</v>
+        <v>0.179441</v>
       </c>
       <c r="D45" t="n">
-        <v>0.180587</v>
+        <v>0.17907</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120846</v>
+        <v>0.120845</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178507</v>
+        <v>0.17845</v>
       </c>
       <c r="D46" t="n">
-        <v>0.178202</v>
+        <v>0.179916</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116275</v>
+        <v>0.116396</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177377</v>
+        <v>0.17742</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177066</v>
+        <v>0.179061</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111726</v>
+        <v>0.111916</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176294</v>
+        <v>0.176339</v>
       </c>
       <c r="D48" t="n">
-        <v>0.176175</v>
+        <v>0.176206</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107228</v>
+        <v>0.107059</v>
       </c>
       <c r="C49" t="n">
-        <v>0.174996</v>
+        <v>0.174809</v>
       </c>
       <c r="D49" t="n">
-        <v>0.175258</v>
+        <v>0.17525</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102636</v>
+        <v>0.102817</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174152</v>
+        <v>0.17418</v>
       </c>
       <c r="D50" t="n">
-        <v>0.174919</v>
+        <v>0.175541</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0969933</v>
+        <v>0.0975948</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173073</v>
+        <v>0.172866</v>
       </c>
       <c r="D51" t="n">
-        <v>0.192333</v>
+        <v>0.191362</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09214260000000001</v>
+        <v>0.09235069999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.171925</v>
+        <v>0.171934</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190713</v>
+        <v>0.190025</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156269</v>
+        <v>0.156175</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18731</v>
+        <v>0.187539</v>
       </c>
       <c r="D53" t="n">
-        <v>0.188929</v>
+        <v>0.189096</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152281</v>
+        <v>0.15256</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186401</v>
+        <v>0.186367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187336</v>
+        <v>0.187657</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148926</v>
+        <v>0.148791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.184768</v>
+        <v>0.185221</v>
       </c>
       <c r="D55" t="n">
-        <v>0.186773</v>
+        <v>0.186429</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144302</v>
+        <v>0.144305</v>
       </c>
       <c r="C56" t="n">
-        <v>0.184046</v>
+        <v>0.1841</v>
       </c>
       <c r="D56" t="n">
-        <v>0.184741</v>
+        <v>0.184807</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139238</v>
+        <v>0.13974</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183022</v>
+        <v>0.182911</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183873</v>
+        <v>0.183494</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134787</v>
+        <v>0.135059</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181865</v>
+        <v>0.181878</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182614</v>
+        <v>0.182414</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130025</v>
+        <v>0.130639</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180743</v>
+        <v>0.180756</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181624</v>
+        <v>0.181996</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125523</v>
+        <v>0.12595</v>
       </c>
       <c r="C60" t="n">
-        <v>0.179982</v>
+        <v>0.179957</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180425</v>
+        <v>0.180299</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120685</v>
+        <v>0.121058</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178723</v>
+        <v>0.17892</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179473</v>
+        <v>0.179269</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115572</v>
+        <v>0.116073</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177523</v>
+        <v>0.177757</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17821</v>
+        <v>0.178161</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111</v>
+        <v>0.111011</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176393</v>
+        <v>0.176434</v>
       </c>
       <c r="D63" t="n">
-        <v>0.177846</v>
+        <v>0.177068</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106089</v>
+        <v>0.106104</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175293</v>
+        <v>0.17519</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176326</v>
+        <v>0.176348</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101104</v>
+        <v>0.1011</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174187</v>
+        <v>0.174173</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175718</v>
+        <v>0.175659</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0962901</v>
+        <v>0.0964038</v>
       </c>
       <c r="C66" t="n">
-        <v>0.172986</v>
+        <v>0.172953</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191443</v>
+        <v>0.191418</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.15999</v>
+        <v>0.16015</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188841</v>
+        <v>0.188999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190124</v>
+        <v>0.190097</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.155845</v>
+        <v>0.156243</v>
       </c>
       <c r="C68" t="n">
-        <v>0.187511</v>
+        <v>0.187545</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188585</v>
+        <v>0.188773</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151578</v>
+        <v>0.152023</v>
       </c>
       <c r="C69" t="n">
-        <v>0.186126</v>
+        <v>0.186094</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187208</v>
+        <v>0.187106</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147261</v>
+        <v>0.14744</v>
       </c>
       <c r="C70" t="n">
-        <v>0.18477</v>
+        <v>0.184924</v>
       </c>
       <c r="D70" t="n">
-        <v>0.186018</v>
+        <v>0.185772</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142436</v>
+        <v>0.14258</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183987</v>
+        <v>0.183513</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184405</v>
+        <v>0.184517</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137485</v>
+        <v>0.137604</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182349</v>
+        <v>0.182392</v>
       </c>
       <c r="D72" t="n">
-        <v>0.183101</v>
+        <v>0.183294</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132478</v>
+        <v>0.13256</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181091</v>
+        <v>0.181085</v>
       </c>
       <c r="D73" t="n">
-        <v>0.181969</v>
+        <v>0.181937</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127749</v>
+        <v>0.127589</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180029</v>
+        <v>0.180095</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180755</v>
+        <v>0.180708</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122683</v>
+        <v>0.122823</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178876</v>
+        <v>0.178873</v>
       </c>
       <c r="D75" t="n">
-        <v>0.179524</v>
+        <v>0.179889</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117807</v>
+        <v>0.117929</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177741</v>
+        <v>0.177654</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178539</v>
+        <v>0.178629</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112927</v>
+        <v>0.112925</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176673</v>
+        <v>0.176629</v>
       </c>
       <c r="D77" t="n">
-        <v>0.177726</v>
+        <v>0.177719</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108065</v>
+        <v>0.108061</v>
       </c>
       <c r="C78" t="n">
-        <v>0.175761</v>
+        <v>0.175604</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176797</v>
+        <v>0.176848</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103123</v>
+        <v>0.103142</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174448</v>
+        <v>0.174592</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176146</v>
+        <v>0.175922</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0981342</v>
+        <v>0.0981113</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173375</v>
+        <v>0.173326</v>
       </c>
       <c r="D80" t="n">
-        <v>0.192213</v>
+        <v>0.19216</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.162242</v>
+        <v>0.162026</v>
       </c>
       <c r="C81" t="n">
-        <v>0.189687</v>
+        <v>0.189699</v>
       </c>
       <c r="D81" t="n">
-        <v>0.190883</v>
+        <v>0.190628</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158399</v>
+        <v>0.158378</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188225</v>
+        <v>0.188346</v>
       </c>
       <c r="D82" t="n">
-        <v>0.189353</v>
+        <v>0.189444</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.154292</v>
+        <v>0.153914</v>
       </c>
       <c r="C83" t="n">
-        <v>0.186888</v>
+        <v>0.186851</v>
       </c>
       <c r="D83" t="n">
-        <v>0.187851</v>
+        <v>0.187825</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149645</v>
+        <v>0.1497</v>
       </c>
       <c r="C84" t="n">
-        <v>0.18558</v>
+        <v>0.185517</v>
       </c>
       <c r="D84" t="n">
-        <v>0.186391</v>
+        <v>0.186357</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.14464</v>
+        <v>0.144805</v>
       </c>
       <c r="C85" t="n">
-        <v>0.184224</v>
+        <v>0.184249</v>
       </c>
       <c r="D85" t="n">
-        <v>0.185121</v>
+        <v>0.185082</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139776</v>
+        <v>0.139923</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183054</v>
+        <v>0.182989</v>
       </c>
       <c r="D86" t="n">
-        <v>0.183894</v>
+        <v>0.183841</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134783</v>
+        <v>0.135035</v>
       </c>
       <c r="C87" t="n">
-        <v>0.181863</v>
+        <v>0.181752</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182551</v>
+        <v>0.182527</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129731</v>
+        <v>0.129971</v>
       </c>
       <c r="C88" t="n">
-        <v>0.180623</v>
+        <v>0.180507</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181344</v>
+        <v>0.181459</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124869</v>
+        <v>0.124908</v>
       </c>
       <c r="C89" t="n">
-        <v>0.179262</v>
+        <v>0.179333</v>
       </c>
       <c r="D89" t="n">
-        <v>0.180263</v>
+        <v>0.180231</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119667</v>
+        <v>0.119947</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178328</v>
+        <v>0.178242</v>
       </c>
       <c r="D90" t="n">
-        <v>0.179126</v>
+        <v>0.179204</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114678</v>
+        <v>0.11477</v>
       </c>
       <c r="C91" t="n">
-        <v>0.177027</v>
+        <v>0.176984</v>
       </c>
       <c r="D91" t="n">
-        <v>0.178159</v>
+        <v>0.178108</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109827</v>
+        <v>0.10978</v>
       </c>
       <c r="C92" t="n">
-        <v>0.175856</v>
+        <v>0.175882</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177123</v>
+        <v>0.177107</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104795</v>
+        <v>0.104737</v>
       </c>
       <c r="C93" t="n">
-        <v>0.174791</v>
+        <v>0.174761</v>
       </c>
       <c r="D93" t="n">
-        <v>0.176224</v>
+        <v>0.176131</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09978769999999999</v>
+        <v>0.09975050000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.173569</v>
+        <v>0.17356</v>
       </c>
       <c r="D94" t="n">
-        <v>0.192281</v>
+        <v>0.19234</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162196</v>
+        <v>0.162503</v>
       </c>
       <c r="C95" t="n">
-        <v>0.18967</v>
+        <v>0.189685</v>
       </c>
       <c r="D95" t="n">
-        <v>0.190555</v>
+        <v>0.190726</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158151</v>
+        <v>0.158526</v>
       </c>
       <c r="C96" t="n">
-        <v>0.188056</v>
+        <v>0.188298</v>
       </c>
       <c r="D96" t="n">
-        <v>0.18906</v>
+        <v>0.189261</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154172</v>
+        <v>0.15441</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186732</v>
+        <v>0.186853</v>
       </c>
       <c r="D97" t="n">
-        <v>0.187633</v>
+        <v>0.187801</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149573</v>
+        <v>0.1497</v>
       </c>
       <c r="C98" t="n">
-        <v>0.185448</v>
+        <v>0.185403</v>
       </c>
       <c r="D98" t="n">
-        <v>0.186366</v>
+        <v>0.186352</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144994</v>
+        <v>0.144995</v>
       </c>
       <c r="C99" t="n">
-        <v>0.184207</v>
+        <v>0.184239</v>
       </c>
       <c r="D99" t="n">
-        <v>0.185202</v>
+        <v>0.185052</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.13987</v>
+        <v>0.13971</v>
       </c>
       <c r="C100" t="n">
-        <v>0.182848</v>
+        <v>0.182799</v>
       </c>
       <c r="D100" t="n">
-        <v>0.183736</v>
+        <v>0.18371</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135033</v>
+        <v>0.134769</v>
       </c>
       <c r="C101" t="n">
-        <v>0.181567</v>
+        <v>0.181614</v>
       </c>
       <c r="D101" t="n">
-        <v>0.182487</v>
+        <v>0.182504</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129925</v>
+        <v>0.129767</v>
       </c>
       <c r="C102" t="n">
-        <v>0.180479</v>
+        <v>0.180293</v>
       </c>
       <c r="D102" t="n">
-        <v>0.181323</v>
+        <v>0.181133</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124984</v>
+        <v>0.124657</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179264</v>
+        <v>0.179133</v>
       </c>
       <c r="D103" t="n">
-        <v>0.18023</v>
+        <v>0.180052</v>
       </c>
     </row>
     <row r="104">
@@ -4677,10 +4677,10 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119918</v>
+        <v>0.1198</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178122</v>
+        <v>0.178096</v>
       </c>
       <c r="D104" t="n">
         <v>0.179144</v>
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115021</v>
+        <v>0.115034</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177036</v>
+        <v>0.177049</v>
       </c>
       <c r="D105" t="n">
-        <v>0.178231</v>
+        <v>0.178178</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110088</v>
+        <v>0.110103</v>
       </c>
       <c r="C106" t="n">
-        <v>0.176044</v>
+        <v>0.176016</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177277</v>
+        <v>0.177233</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105125</v>
+        <v>0.105235</v>
       </c>
       <c r="C107" t="n">
-        <v>0.174822</v>
+        <v>0.17497</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176296</v>
+        <v>0.176355</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100294</v>
+        <v>0.100291</v>
       </c>
       <c r="C108" t="n">
-        <v>0.173706</v>
+        <v>0.173715</v>
       </c>
       <c r="D108" t="n">
-        <v>0.192832</v>
+        <v>0.192869</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0953489</v>
+        <v>0.09535639999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172602</v>
+        <v>0.172617</v>
       </c>
       <c r="D109" t="n">
-        <v>0.19126</v>
+        <v>0.191174</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159323</v>
+        <v>0.159071</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188518</v>
+        <v>0.188572</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189535</v>
+        <v>0.189613</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155204</v>
+        <v>0.154899</v>
       </c>
       <c r="C111" t="n">
-        <v>0.187219</v>
+        <v>0.18716</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188195</v>
+        <v>0.188166</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15051</v>
+        <v>0.150558</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185845</v>
+        <v>0.185899</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186778</v>
+        <v>0.18676</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145871</v>
+        <v>0.145688</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184484</v>
+        <v>0.184513</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185357</v>
+        <v>0.185329</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140654</v>
+        <v>0.141011</v>
       </c>
       <c r="C114" t="n">
-        <v>0.183201</v>
+        <v>0.183248</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184077</v>
+        <v>0.184054</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135843</v>
+        <v>0.135885</v>
       </c>
       <c r="C115" t="n">
-        <v>0.182066</v>
+        <v>0.181994</v>
       </c>
       <c r="D115" t="n">
-        <v>0.182862</v>
+        <v>0.182844</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130843</v>
+        <v>0.130862</v>
       </c>
       <c r="C116" t="n">
-        <v>0.180858</v>
+        <v>0.180775</v>
       </c>
       <c r="D116" t="n">
-        <v>0.181709</v>
+        <v>0.181642</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125899</v>
+        <v>0.125847</v>
       </c>
       <c r="C117" t="n">
-        <v>0.179738</v>
+        <v>0.179659</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180595</v>
+        <v>0.180567</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120785</v>
+        <v>0.120826</v>
       </c>
       <c r="C118" t="n">
-        <v>0.178502</v>
+        <v>0.178409</v>
       </c>
       <c r="D118" t="n">
-        <v>0.179481</v>
+        <v>0.179543</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115935</v>
+        <v>0.115938</v>
       </c>
       <c r="C119" t="n">
-        <v>0.177343</v>
+        <v>0.177376</v>
       </c>
       <c r="D119" t="n">
-        <v>0.178485</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111032</v>
+        <v>0.111033</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176233</v>
+        <v>0.176208</v>
       </c>
       <c r="D120" t="n">
-        <v>0.177513</v>
+        <v>0.177503</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106088</v>
+        <v>0.106124</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175106</v>
+        <v>0.175087</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176581</v>
+        <v>0.176578</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101256</v>
+        <v>0.101309</v>
       </c>
       <c r="C122" t="n">
-        <v>0.17386</v>
+        <v>0.173891</v>
       </c>
       <c r="D122" t="n">
-        <v>0.17566</v>
+        <v>0.175697</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0963123</v>
+        <v>0.0963543</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172782</v>
+        <v>0.172774</v>
       </c>
       <c r="D123" t="n">
-        <v>0.191393</v>
+        <v>0.191505</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.159919</v>
+        <v>0.160132</v>
       </c>
       <c r="C124" t="n">
-        <v>0.188913</v>
+        <v>0.188862</v>
       </c>
       <c r="D124" t="n">
-        <v>0.189871</v>
+        <v>0.189841</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155809</v>
+        <v>0.155756</v>
       </c>
       <c r="C125" t="n">
-        <v>0.187431</v>
+        <v>0.18738</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188272</v>
+        <v>0.188337</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151654</v>
+        <v>0.151215</v>
       </c>
       <c r="C126" t="n">
-        <v>0.186004</v>
+        <v>0.186061</v>
       </c>
       <c r="D126" t="n">
-        <v>0.186905</v>
+        <v>0.18694</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146808</v>
+        <v>0.146744</v>
       </c>
       <c r="C127" t="n">
-        <v>0.184647</v>
+        <v>0.184716</v>
       </c>
       <c r="D127" t="n">
-        <v>0.185521</v>
+        <v>0.185533</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141936</v>
+        <v>0.141649</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183347</v>
+        <v>0.183359</v>
       </c>
       <c r="D128" t="n">
-        <v>0.184285</v>
+        <v>0.184321</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136638</v>
+        <v>0.136631</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182143</v>
+        <v>0.182159</v>
       </c>
       <c r="D129" t="n">
-        <v>0.182946</v>
+        <v>0.183083</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131543</v>
+        <v>0.131644</v>
       </c>
       <c r="C130" t="n">
-        <v>0.180903</v>
+        <v>0.180901</v>
       </c>
       <c r="D130" t="n">
-        <v>0.181859</v>
+        <v>0.181844</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.12663</v>
+        <v>0.126908</v>
       </c>
       <c r="C131" t="n">
-        <v>0.179773</v>
+        <v>0.179794</v>
       </c>
       <c r="D131" t="n">
-        <v>0.180823</v>
+        <v>0.180729</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121726</v>
+        <v>0.121865</v>
       </c>
       <c r="C132" t="n">
-        <v>0.178679</v>
+        <v>0.178636</v>
       </c>
       <c r="D132" t="n">
-        <v>0.17964</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.11682</v>
+        <v>0.116876</v>
       </c>
       <c r="C133" t="n">
-        <v>0.177469</v>
+        <v>0.177528</v>
       </c>
       <c r="D133" t="n">
-        <v>0.17865</v>
+        <v>0.17854</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112024</v>
+        <v>0.111962</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176357</v>
+        <v>0.176446</v>
       </c>
       <c r="D134" t="n">
-        <v>0.177596</v>
+        <v>0.177551</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107139</v>
+        <v>0.107131</v>
       </c>
       <c r="C135" t="n">
-        <v>0.175227</v>
+        <v>0.175252</v>
       </c>
       <c r="D135" t="n">
-        <v>0.176672</v>
+        <v>0.176638</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102246</v>
+        <v>0.102278</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174108</v>
+        <v>0.174107</v>
       </c>
       <c r="D136" t="n">
-        <v>0.175839</v>
+        <v>0.175851</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0972397</v>
+        <v>0.0973874</v>
       </c>
       <c r="C137" t="n">
-        <v>0.172946</v>
+        <v>0.173104</v>
       </c>
       <c r="D137" t="n">
-        <v>0.191757</v>
+        <v>0.191827</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166097</v>
+        <v>0.165615</v>
       </c>
       <c r="C138" t="n">
-        <v>0.18932</v>
+        <v>0.1891</v>
       </c>
       <c r="D138" t="n">
-        <v>0.190181</v>
+        <v>0.190259</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161632</v>
+        <v>0.161638</v>
       </c>
       <c r="C139" t="n">
-        <v>0.187654</v>
+        <v>0.187689</v>
       </c>
       <c r="D139" t="n">
-        <v>0.188798</v>
+        <v>0.188738</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15702</v>
+        <v>0.157317</v>
       </c>
       <c r="C140" t="n">
-        <v>0.18631</v>
+        <v>0.186303</v>
       </c>
       <c r="D140" t="n">
-        <v>0.18732</v>
+        <v>0.187308</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.152319</v>
+        <v>0.152172</v>
       </c>
       <c r="C141" t="n">
-        <v>0.184985</v>
+        <v>0.184909</v>
       </c>
       <c r="D141" t="n">
-        <v>0.185901</v>
+        <v>0.185864</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.147167</v>
+        <v>0.147227</v>
       </c>
       <c r="C142" t="n">
-        <v>0.183654</v>
+        <v>0.183684</v>
       </c>
       <c r="D142" t="n">
-        <v>0.18459</v>
+        <v>0.184564</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.141208</v>
+        <v>0.141942</v>
       </c>
       <c r="C143" t="n">
-        <v>0.182281</v>
+        <v>0.182395</v>
       </c>
       <c r="D143" t="n">
-        <v>0.183212</v>
+        <v>0.18332</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0649042</v>
+        <v>0.0643625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162173</v>
+        <v>0.169923</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160052</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.064169</v>
+        <v>0.0638647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16274</v>
+        <v>0.169892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160737</v>
+        <v>0.165164</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0642972</v>
+        <v>0.0640479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163507</v>
+        <v>0.169823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159715</v>
+        <v>0.165817</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0643024</v>
+        <v>0.0640973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162973</v>
+        <v>0.168986</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1589</v>
+        <v>0.166626</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0639289</v>
+        <v>0.0646293</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164028</v>
+        <v>0.169151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159578</v>
+        <v>0.166946</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0641128</v>
+        <v>0.0649124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163608</v>
+        <v>0.16824</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159219</v>
+        <v>0.167813</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0645334</v>
+        <v>0.0653622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163814</v>
+        <v>0.167669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15888</v>
+        <v>0.166852</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0649319</v>
+        <v>0.0665998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16382</v>
+        <v>0.16721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.160784</v>
+        <v>0.176374</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0891614</v>
+        <v>0.08837490000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.170728</v>
+        <v>0.181663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.162399</v>
+        <v>0.177316</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09028600000000001</v>
+        <v>0.0915222</v>
       </c>
       <c r="C11" t="n">
-        <v>0.170684</v>
+        <v>0.18178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.161999</v>
+        <v>0.177248</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0895677</v>
+        <v>0.0903929</v>
       </c>
       <c r="C12" t="n">
-        <v>0.170195</v>
+        <v>0.180241</v>
       </c>
       <c r="D12" t="n">
-        <v>0.161855</v>
+        <v>0.177688</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09021999999999999</v>
+        <v>0.08933530000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169767</v>
+        <v>0.179259</v>
       </c>
       <c r="D13" t="n">
-        <v>0.162877</v>
+        <v>0.177049</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0895468</v>
+        <v>0.0896127</v>
       </c>
       <c r="C14" t="n">
-        <v>0.169678</v>
+        <v>0.177842</v>
       </c>
       <c r="D14" t="n">
-        <v>0.161995</v>
+        <v>0.176041</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0892573</v>
+        <v>0.08912630000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.169944</v>
+        <v>0.177284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.162484</v>
+        <v>0.176567</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0874656</v>
+        <v>0.0876106</v>
       </c>
       <c r="C16" t="n">
-        <v>0.17001</v>
+        <v>0.176824</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162477</v>
+        <v>0.176319</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0866074</v>
+        <v>0.0868159</v>
       </c>
       <c r="C17" t="n">
-        <v>0.169142</v>
+        <v>0.17622</v>
       </c>
       <c r="D17" t="n">
-        <v>0.162352</v>
+        <v>0.175869</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0872754</v>
+        <v>0.08527270000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.169043</v>
+        <v>0.175155</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162299</v>
+        <v>0.176761</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0872291</v>
+        <v>0.08750289999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.170745</v>
+        <v>0.176028</v>
       </c>
       <c r="D19" t="n">
-        <v>0.170958</v>
+        <v>0.176357</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.085483</v>
+        <v>0.0848025</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169625</v>
+        <v>0.174083</v>
       </c>
       <c r="D20" t="n">
-        <v>0.170849</v>
+        <v>0.175147</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0834213</v>
+        <v>0.0838829</v>
       </c>
       <c r="C21" t="n">
-        <v>0.172951</v>
+        <v>0.173337</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168168</v>
+        <v>0.17364</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0813827</v>
+        <v>0.08194419999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.170123</v>
+        <v>0.172433</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16396</v>
+        <v>0.174755</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.080259</v>
+        <v>0.0803741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.168948</v>
+        <v>0.172005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.181185</v>
+        <v>0.188834</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131659</v>
+        <v>0.131478</v>
       </c>
       <c r="C24" t="n">
-        <v>0.183061</v>
+        <v>0.186888</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184007</v>
+        <v>0.188748</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.128946</v>
+        <v>0.130528</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180847</v>
+        <v>0.185947</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179494</v>
+        <v>0.185611</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127182</v>
+        <v>0.127776</v>
       </c>
       <c r="C26" t="n">
-        <v>0.182003</v>
+        <v>0.183926</v>
       </c>
       <c r="D26" t="n">
-        <v>0.182419</v>
+        <v>0.184922</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.123931</v>
+        <v>0.125719</v>
       </c>
       <c r="C27" t="n">
-        <v>0.180276</v>
+        <v>0.182437</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183902</v>
+        <v>0.183353</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121234</v>
+        <v>0.123485</v>
       </c>
       <c r="C28" t="n">
-        <v>0.180995</v>
+        <v>0.181731</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181846</v>
+        <v>0.18296</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118275</v>
+        <v>0.11976</v>
       </c>
       <c r="C29" t="n">
-        <v>0.179154</v>
+        <v>0.180627</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178861</v>
+        <v>0.181572</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115263</v>
+        <v>0.116433</v>
       </c>
       <c r="C30" t="n">
-        <v>0.177424</v>
+        <v>0.179546</v>
       </c>
       <c r="D30" t="n">
-        <v>0.177113</v>
+        <v>0.180025</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113033</v>
+        <v>0.113108</v>
       </c>
       <c r="C31" t="n">
-        <v>0.17813</v>
+        <v>0.178735</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174652</v>
+        <v>0.180076</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110298</v>
+        <v>0.109818</v>
       </c>
       <c r="C32" t="n">
-        <v>0.176109</v>
+        <v>0.177947</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173589</v>
+        <v>0.178771</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.10685</v>
+        <v>0.106151</v>
       </c>
       <c r="C33" t="n">
-        <v>0.17608</v>
+        <v>0.176696</v>
       </c>
       <c r="D33" t="n">
-        <v>0.17318</v>
+        <v>0.178103</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103851</v>
+        <v>0.101679</v>
       </c>
       <c r="C34" t="n">
-        <v>0.175265</v>
+        <v>0.176209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176057</v>
+        <v>0.177275</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0997514</v>
+        <v>0.098082</v>
       </c>
       <c r="C35" t="n">
-        <v>0.174038</v>
+        <v>0.175121</v>
       </c>
       <c r="D35" t="n">
-        <v>0.176134</v>
+        <v>0.17649</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09415320000000001</v>
+        <v>0.0937402</v>
       </c>
       <c r="C36" t="n">
-        <v>0.171803</v>
+        <v>0.173412</v>
       </c>
       <c r="D36" t="n">
-        <v>0.174692</v>
+        <v>0.175289</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0896996</v>
+        <v>0.09001729999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.171914</v>
+        <v>0.172601</v>
       </c>
       <c r="D37" t="n">
-        <v>0.18763</v>
+        <v>0.19083</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.151102</v>
+        <v>0.152815</v>
       </c>
       <c r="C38" t="n">
-        <v>0.187262</v>
+        <v>0.188061</v>
       </c>
       <c r="D38" t="n">
-        <v>0.188011</v>
+        <v>0.189316</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147395</v>
+        <v>0.149061</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18533</v>
+        <v>0.186922</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187218</v>
+        <v>0.187901</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.143862</v>
+        <v>0.145667</v>
       </c>
       <c r="C40" t="n">
-        <v>0.184015</v>
+        <v>0.185383</v>
       </c>
       <c r="D40" t="n">
-        <v>0.185859</v>
+        <v>0.186684</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140612</v>
+        <v>0.142296</v>
       </c>
       <c r="C41" t="n">
-        <v>0.182659</v>
+        <v>0.184179</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183759</v>
+        <v>0.185247</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.137243</v>
+        <v>0.138409</v>
       </c>
       <c r="C42" t="n">
-        <v>0.182467</v>
+        <v>0.183326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.183302</v>
+        <v>0.184384</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133179</v>
+        <v>0.134485</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181173</v>
+        <v>0.182239</v>
       </c>
       <c r="D43" t="n">
-        <v>0.182292</v>
+        <v>0.182981</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129236</v>
+        <v>0.130096</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179989</v>
+        <v>0.181182</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180016</v>
+        <v>0.182084</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125334</v>
+        <v>0.125638</v>
       </c>
       <c r="C45" t="n">
-        <v>0.179441</v>
+        <v>0.180101</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17907</v>
+        <v>0.181002</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120845</v>
+        <v>0.121083</v>
       </c>
       <c r="C46" t="n">
-        <v>0.17845</v>
+        <v>0.179004</v>
       </c>
       <c r="D46" t="n">
-        <v>0.179916</v>
+        <v>0.180015</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116396</v>
+        <v>0.116658</v>
       </c>
       <c r="C47" t="n">
-        <v>0.17742</v>
+        <v>0.178171</v>
       </c>
       <c r="D47" t="n">
-        <v>0.179061</v>
+        <v>0.17895</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111916</v>
+        <v>0.111805</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176339</v>
+        <v>0.17685</v>
       </c>
       <c r="D48" t="n">
-        <v>0.176206</v>
+        <v>0.178068</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107059</v>
+        <v>0.106445</v>
       </c>
       <c r="C49" t="n">
-        <v>0.174809</v>
+        <v>0.175623</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17525</v>
+        <v>0.176943</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102817</v>
+        <v>0.101612</v>
       </c>
       <c r="C50" t="n">
-        <v>0.17418</v>
+        <v>0.174781</v>
       </c>
       <c r="D50" t="n">
-        <v>0.175541</v>
+        <v>0.177465</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0975948</v>
+        <v>0.09682449999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172866</v>
+        <v>0.173735</v>
       </c>
       <c r="D51" t="n">
-        <v>0.191362</v>
+        <v>0.192666</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09235069999999999</v>
+        <v>0.0920496</v>
       </c>
       <c r="C52" t="n">
-        <v>0.171934</v>
+        <v>0.172587</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190025</v>
+        <v>0.19098</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156175</v>
+        <v>0.156441</v>
       </c>
       <c r="C53" t="n">
-        <v>0.187539</v>
+        <v>0.188078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.189096</v>
+        <v>0.189484</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.15256</v>
+        <v>0.152504</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186367</v>
+        <v>0.186858</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187657</v>
+        <v>0.188245</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148791</v>
+        <v>0.148615</v>
       </c>
       <c r="C55" t="n">
-        <v>0.185221</v>
+        <v>0.185846</v>
       </c>
       <c r="D55" t="n">
-        <v>0.186429</v>
+        <v>0.187005</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144305</v>
+        <v>0.144167</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1841</v>
+        <v>0.1843</v>
       </c>
       <c r="D56" t="n">
-        <v>0.184807</v>
+        <v>0.185708</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.13974</v>
+        <v>0.139531</v>
       </c>
       <c r="C57" t="n">
-        <v>0.182911</v>
+        <v>0.183338</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183494</v>
+        <v>0.184204</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135059</v>
+        <v>0.134942</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181878</v>
+        <v>0.182203</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182414</v>
+        <v>0.183213</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130639</v>
+        <v>0.130211</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180756</v>
+        <v>0.18111</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181996</v>
+        <v>0.182058</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12595</v>
+        <v>0.125404</v>
       </c>
       <c r="C60" t="n">
-        <v>0.179957</v>
+        <v>0.1801</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180299</v>
+        <v>0.181067</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121058</v>
+        <v>0.120746</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17892</v>
+        <v>0.179037</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179269</v>
+        <v>0.180004</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116073</v>
+        <v>0.115614</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177757</v>
+        <v>0.177835</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178161</v>
+        <v>0.178833</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111011</v>
+        <v>0.110808</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176434</v>
+        <v>0.176477</v>
       </c>
       <c r="D63" t="n">
-        <v>0.177068</v>
+        <v>0.177673</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106104</v>
+        <v>0.106065</v>
       </c>
       <c r="C64" t="n">
-        <v>0.17519</v>
+        <v>0.175363</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176348</v>
+        <v>0.177081</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1011</v>
+        <v>0.10079</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174173</v>
+        <v>0.174324</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175659</v>
+        <v>0.176346</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0964038</v>
+        <v>0.0961065</v>
       </c>
       <c r="C66" t="n">
-        <v>0.172953</v>
+        <v>0.173185</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191418</v>
+        <v>0.191921</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.16015</v>
+        <v>0.159595</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188999</v>
+        <v>0.189277</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190097</v>
+        <v>0.190679</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156243</v>
+        <v>0.155723</v>
       </c>
       <c r="C68" t="n">
-        <v>0.187545</v>
+        <v>0.187612</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188773</v>
+        <v>0.189108</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152023</v>
+        <v>0.151556</v>
       </c>
       <c r="C69" t="n">
-        <v>0.186094</v>
+        <v>0.18634</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187106</v>
+        <v>0.187585</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.14744</v>
+        <v>0.146924</v>
       </c>
       <c r="C70" t="n">
-        <v>0.184924</v>
+        <v>0.185106</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185772</v>
+        <v>0.186179</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14258</v>
+        <v>0.142068</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183513</v>
+        <v>0.183773</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184517</v>
+        <v>0.18484</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137604</v>
+        <v>0.137116</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182392</v>
+        <v>0.182585</v>
       </c>
       <c r="D72" t="n">
-        <v>0.183294</v>
+        <v>0.183575</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.13256</v>
+        <v>0.132244</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181085</v>
+        <v>0.181174</v>
       </c>
       <c r="D73" t="n">
-        <v>0.181937</v>
+        <v>0.182255</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127589</v>
+        <v>0.127401</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180095</v>
+        <v>0.180026</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180708</v>
+        <v>0.180975</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122823</v>
+        <v>0.122366</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178873</v>
+        <v>0.178721</v>
       </c>
       <c r="D75" t="n">
-        <v>0.179889</v>
+        <v>0.17986</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117929</v>
+        <v>0.117472</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177654</v>
+        <v>0.177658</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178629</v>
+        <v>0.178863</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112925</v>
+        <v>0.112578</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176629</v>
+        <v>0.176593</v>
       </c>
       <c r="D77" t="n">
-        <v>0.177719</v>
+        <v>0.177939</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108061</v>
+        <v>0.107662</v>
       </c>
       <c r="C78" t="n">
-        <v>0.175604</v>
+        <v>0.175541</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176848</v>
+        <v>0.177031</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103142</v>
+        <v>0.102894</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174592</v>
+        <v>0.174542</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175922</v>
+        <v>0.176475</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0981113</v>
+        <v>0.09793209999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173326</v>
+        <v>0.173497</v>
       </c>
       <c r="D80" t="n">
-        <v>0.19216</v>
+        <v>0.192559</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.162026</v>
+        <v>0.16205</v>
       </c>
       <c r="C81" t="n">
-        <v>0.189699</v>
+        <v>0.189841</v>
       </c>
       <c r="D81" t="n">
-        <v>0.190628</v>
+        <v>0.191056</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158378</v>
+        <v>0.158213</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188346</v>
+        <v>0.188342</v>
       </c>
       <c r="D82" t="n">
-        <v>0.189444</v>
+        <v>0.189645</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153914</v>
+        <v>0.153735</v>
       </c>
       <c r="C83" t="n">
-        <v>0.186851</v>
+        <v>0.186877</v>
       </c>
       <c r="D83" t="n">
-        <v>0.187825</v>
+        <v>0.188215</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1497</v>
+        <v>0.149156</v>
       </c>
       <c r="C84" t="n">
-        <v>0.185517</v>
+        <v>0.18556</v>
       </c>
       <c r="D84" t="n">
-        <v>0.186357</v>
+        <v>0.186734</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144805</v>
+        <v>0.144492</v>
       </c>
       <c r="C85" t="n">
-        <v>0.184249</v>
+        <v>0.184362</v>
       </c>
       <c r="D85" t="n">
-        <v>0.185082</v>
+        <v>0.185378</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139923</v>
+        <v>0.139859</v>
       </c>
       <c r="C86" t="n">
-        <v>0.182989</v>
+        <v>0.183028</v>
       </c>
       <c r="D86" t="n">
-        <v>0.183841</v>
+        <v>0.184171</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135035</v>
+        <v>0.134617</v>
       </c>
       <c r="C87" t="n">
-        <v>0.181752</v>
+        <v>0.181874</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182527</v>
+        <v>0.182858</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129971</v>
+        <v>0.129672</v>
       </c>
       <c r="C88" t="n">
-        <v>0.180507</v>
+        <v>0.180668</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181459</v>
+        <v>0.181678</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124908</v>
+        <v>0.124779</v>
       </c>
       <c r="C89" t="n">
-        <v>0.179333</v>
+        <v>0.179344</v>
       </c>
       <c r="D89" t="n">
-        <v>0.180231</v>
+        <v>0.18045</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119947</v>
+        <v>0.119663</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178242</v>
+        <v>0.178229</v>
       </c>
       <c r="D90" t="n">
-        <v>0.179204</v>
+        <v>0.179426</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.11477</v>
+        <v>0.114788</v>
       </c>
       <c r="C91" t="n">
-        <v>0.176984</v>
+        <v>0.177067</v>
       </c>
       <c r="D91" t="n">
-        <v>0.178108</v>
+        <v>0.178317</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10978</v>
+        <v>0.109768</v>
       </c>
       <c r="C92" t="n">
-        <v>0.175882</v>
+        <v>0.175957</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177107</v>
+        <v>0.177413</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104737</v>
+        <v>0.10483</v>
       </c>
       <c r="C93" t="n">
-        <v>0.174761</v>
+        <v>0.17472</v>
       </c>
       <c r="D93" t="n">
-        <v>0.176131</v>
+        <v>0.176551</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09975050000000001</v>
+        <v>0.0997967</v>
       </c>
       <c r="C94" t="n">
-        <v>0.17356</v>
+        <v>0.173699</v>
       </c>
       <c r="D94" t="n">
-        <v>0.19234</v>
+        <v>0.192548</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162503</v>
+        <v>0.162282</v>
       </c>
       <c r="C95" t="n">
-        <v>0.189685</v>
+        <v>0.189857</v>
       </c>
       <c r="D95" t="n">
-        <v>0.190726</v>
+        <v>0.191103</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158526</v>
+        <v>0.158475</v>
       </c>
       <c r="C96" t="n">
-        <v>0.188298</v>
+        <v>0.188289</v>
       </c>
       <c r="D96" t="n">
-        <v>0.189261</v>
+        <v>0.18957</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15441</v>
+        <v>0.154202</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186853</v>
+        <v>0.186969</v>
       </c>
       <c r="D97" t="n">
-        <v>0.187801</v>
+        <v>0.188062</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1497</v>
+        <v>0.149258</v>
       </c>
       <c r="C98" t="n">
-        <v>0.185403</v>
+        <v>0.185494</v>
       </c>
       <c r="D98" t="n">
-        <v>0.186352</v>
+        <v>0.186599</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144995</v>
+        <v>0.144632</v>
       </c>
       <c r="C99" t="n">
-        <v>0.184239</v>
+        <v>0.184271</v>
       </c>
       <c r="D99" t="n">
-        <v>0.185052</v>
+        <v>0.185294</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.13971</v>
+        <v>0.13981</v>
       </c>
       <c r="C100" t="n">
-        <v>0.182799</v>
+        <v>0.18295</v>
       </c>
       <c r="D100" t="n">
-        <v>0.18371</v>
+        <v>0.183876</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134769</v>
+        <v>0.134749</v>
       </c>
       <c r="C101" t="n">
-        <v>0.181614</v>
+        <v>0.181585</v>
       </c>
       <c r="D101" t="n">
-        <v>0.182504</v>
+        <v>0.182677</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129767</v>
+        <v>0.129734</v>
       </c>
       <c r="C102" t="n">
-        <v>0.180293</v>
+        <v>0.180483</v>
       </c>
       <c r="D102" t="n">
-        <v>0.181133</v>
+        <v>0.18163</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124657</v>
+        <v>0.124839</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179133</v>
+        <v>0.179236</v>
       </c>
       <c r="D103" t="n">
-        <v>0.180052</v>
+        <v>0.180404</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1198</v>
+        <v>0.119921</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178096</v>
+        <v>0.178165</v>
       </c>
       <c r="D104" t="n">
-        <v>0.179144</v>
+        <v>0.179349</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115034</v>
+        <v>0.115057</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177049</v>
+        <v>0.177081</v>
       </c>
       <c r="D105" t="n">
-        <v>0.178178</v>
+        <v>0.17839</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110103</v>
+        <v>0.110063</v>
       </c>
       <c r="C106" t="n">
-        <v>0.176016</v>
+        <v>0.176024</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177233</v>
+        <v>0.177416</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105235</v>
+        <v>0.105132</v>
       </c>
       <c r="C107" t="n">
-        <v>0.17497</v>
+        <v>0.174863</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176355</v>
+        <v>0.1765</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100291</v>
+        <v>0.100239</v>
       </c>
       <c r="C108" t="n">
-        <v>0.173715</v>
+        <v>0.17376</v>
       </c>
       <c r="D108" t="n">
-        <v>0.192869</v>
+        <v>0.193007</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09535639999999999</v>
+        <v>0.0953552</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172617</v>
+        <v>0.172512</v>
       </c>
       <c r="D109" t="n">
-        <v>0.191174</v>
+        <v>0.191396</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159071</v>
+        <v>0.159097</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188572</v>
+        <v>0.188613</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189613</v>
+        <v>0.189927</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.154899</v>
+        <v>0.155192</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18716</v>
+        <v>0.1872</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188166</v>
+        <v>0.188349</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150558</v>
+        <v>0.150613</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185899</v>
+        <v>0.185889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.18676</v>
+        <v>0.186938</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145688</v>
+        <v>0.145896</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184513</v>
+        <v>0.184481</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185329</v>
+        <v>0.185489</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141011</v>
+        <v>0.140947</v>
       </c>
       <c r="C114" t="n">
-        <v>0.183248</v>
+        <v>0.183118</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184054</v>
+        <v>0.184127</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135885</v>
+        <v>0.13603</v>
       </c>
       <c r="C115" t="n">
-        <v>0.181994</v>
+        <v>0.181953</v>
       </c>
       <c r="D115" t="n">
-        <v>0.182844</v>
+        <v>0.182965</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130862</v>
+        <v>0.131077</v>
       </c>
       <c r="C116" t="n">
-        <v>0.180775</v>
+        <v>0.180723</v>
       </c>
       <c r="D116" t="n">
-        <v>0.181642</v>
+        <v>0.181799</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125847</v>
+        <v>0.125873</v>
       </c>
       <c r="C117" t="n">
-        <v>0.179659</v>
+        <v>0.179576</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180567</v>
+        <v>0.180663</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120826</v>
+        <v>0.120856</v>
       </c>
       <c r="C118" t="n">
-        <v>0.178409</v>
+        <v>0.178413</v>
       </c>
       <c r="D118" t="n">
-        <v>0.179543</v>
+        <v>0.179647</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115938</v>
+        <v>0.115909</v>
       </c>
       <c r="C119" t="n">
-        <v>0.177376</v>
+        <v>0.177387</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1785</v>
+        <v>0.178542</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111033</v>
+        <v>0.110995</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176208</v>
+        <v>0.176188</v>
       </c>
       <c r="D120" t="n">
-        <v>0.177503</v>
+        <v>0.177609</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106124</v>
+        <v>0.106184</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175087</v>
+        <v>0.175116</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176578</v>
+        <v>0.176594</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101309</v>
+        <v>0.101253</v>
       </c>
       <c r="C122" t="n">
-        <v>0.173891</v>
+        <v>0.173844</v>
       </c>
       <c r="D122" t="n">
-        <v>0.175697</v>
+        <v>0.175795</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0963543</v>
+        <v>0.09637850000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172774</v>
+        <v>0.172704</v>
       </c>
       <c r="D123" t="n">
-        <v>0.191505</v>
+        <v>0.191701</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160132</v>
+        <v>0.159933</v>
       </c>
       <c r="C124" t="n">
-        <v>0.188862</v>
+        <v>0.188847</v>
       </c>
       <c r="D124" t="n">
-        <v>0.189841</v>
+        <v>0.190039</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155756</v>
+        <v>0.155608</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18738</v>
+        <v>0.187461</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188337</v>
+        <v>0.188471</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151215</v>
+        <v>0.151233</v>
       </c>
       <c r="C126" t="n">
-        <v>0.186061</v>
+        <v>0.185772</v>
       </c>
       <c r="D126" t="n">
-        <v>0.18694</v>
+        <v>0.186892</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146744</v>
+        <v>0.146377</v>
       </c>
       <c r="C127" t="n">
-        <v>0.184716</v>
+        <v>0.184473</v>
       </c>
       <c r="D127" t="n">
-        <v>0.185533</v>
+        <v>0.185548</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141649</v>
+        <v>0.141415</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183359</v>
+        <v>0.183185</v>
       </c>
       <c r="D128" t="n">
-        <v>0.184321</v>
+        <v>0.184224</v>
       </c>
     </row>
     <row r="129">
@@ -5030,10 +5030,10 @@
         <v>0.136631</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182159</v>
+        <v>0.182022</v>
       </c>
       <c r="D129" t="n">
-        <v>0.183083</v>
+        <v>0.18312</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131644</v>
+        <v>0.131723</v>
       </c>
       <c r="C130" t="n">
-        <v>0.180901</v>
+        <v>0.180795</v>
       </c>
       <c r="D130" t="n">
-        <v>0.181844</v>
+        <v>0.181945</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126908</v>
+        <v>0.126671</v>
       </c>
       <c r="C131" t="n">
-        <v>0.179794</v>
+        <v>0.179727</v>
       </c>
       <c r="D131" t="n">
-        <v>0.180729</v>
+        <v>0.180797</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121865</v>
+        <v>0.121722</v>
       </c>
       <c r="C132" t="n">
-        <v>0.178636</v>
+        <v>0.178458</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1796</v>
+        <v>0.179698</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.116876</v>
+        <v>0.116832</v>
       </c>
       <c r="C133" t="n">
-        <v>0.177528</v>
+        <v>0.177435</v>
       </c>
       <c r="D133" t="n">
-        <v>0.17854</v>
+        <v>0.178679</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.111962</v>
+        <v>0.111967</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176446</v>
+        <v>0.176292</v>
       </c>
       <c r="D134" t="n">
-        <v>0.177551</v>
+        <v>0.177628</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107131</v>
+        <v>0.107076</v>
       </c>
       <c r="C135" t="n">
-        <v>0.175252</v>
+        <v>0.175272</v>
       </c>
       <c r="D135" t="n">
-        <v>0.176638</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102278</v>
+        <v>0.102211</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174107</v>
+        <v>0.174063</v>
       </c>
       <c r="D136" t="n">
-        <v>0.175851</v>
+        <v>0.175852</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0973874</v>
+        <v>0.09733070000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.173104</v>
+        <v>0.173015</v>
       </c>
       <c r="D137" t="n">
-        <v>0.191827</v>
+        <v>0.191902</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.165615</v>
+        <v>0.16583</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1891</v>
+        <v>0.189156</v>
       </c>
       <c r="D138" t="n">
-        <v>0.190259</v>
+        <v>0.190341</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161638</v>
+        <v>0.161884</v>
       </c>
       <c r="C139" t="n">
-        <v>0.187689</v>
+        <v>0.187606</v>
       </c>
       <c r="D139" t="n">
-        <v>0.188738</v>
+        <v>0.188862</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157317</v>
+        <v>0.156971</v>
       </c>
       <c r="C140" t="n">
-        <v>0.186303</v>
+        <v>0.186312</v>
       </c>
       <c r="D140" t="n">
-        <v>0.187308</v>
+        <v>0.187371</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.152172</v>
+        <v>0.15239</v>
       </c>
       <c r="C141" t="n">
-        <v>0.184909</v>
+        <v>0.18496</v>
       </c>
       <c r="D141" t="n">
-        <v>0.185864</v>
+        <v>0.186011</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.147227</v>
+        <v>0.147325</v>
       </c>
       <c r="C142" t="n">
-        <v>0.183684</v>
+        <v>0.183576</v>
       </c>
       <c r="D142" t="n">
-        <v>0.184564</v>
+        <v>0.184695</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.141942</v>
+        <v>0.142112</v>
       </c>
       <c r="C143" t="n">
-        <v>0.182395</v>
+        <v>0.182437</v>
       </c>
       <c r="D143" t="n">
-        <v>0.18332</v>
+        <v>0.183448</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0643625</v>
+        <v>0.0650553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.169923</v>
+        <v>0.169674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1646</v>
+        <v>0.159876</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0638647</v>
+        <v>0.0647807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.169892</v>
+        <v>0.167094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.165164</v>
+        <v>0.160533</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0640479</v>
+        <v>0.06452189999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.169823</v>
+        <v>0.168218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.165817</v>
+        <v>0.160337</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0640973</v>
+        <v>0.0647383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168986</v>
+        <v>0.166751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.166626</v>
+        <v>0.159107</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0646293</v>
+        <v>0.0645617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.169151</v>
+        <v>0.168543</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166946</v>
+        <v>0.160376</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0649124</v>
+        <v>0.0645371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16824</v>
+        <v>0.168054</v>
       </c>
       <c r="D7" t="n">
-        <v>0.167813</v>
+        <v>0.15988</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0653622</v>
+        <v>0.0644125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.167669</v>
+        <v>0.166704</v>
       </c>
       <c r="D8" t="n">
-        <v>0.166852</v>
+        <v>0.158893</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0665998</v>
+        <v>0.06564830000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16721</v>
+        <v>0.166827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176374</v>
+        <v>0.15985</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08837490000000001</v>
+        <v>0.0909867</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181663</v>
+        <v>0.178312</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177316</v>
+        <v>0.161226</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0915222</v>
+        <v>0.09142889999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18178</v>
+        <v>0.179235</v>
       </c>
       <c r="D11" t="n">
-        <v>0.177248</v>
+        <v>0.16179</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0903929</v>
+        <v>0.09023340000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180241</v>
+        <v>0.178641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.177688</v>
+        <v>0.161879</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08933530000000001</v>
+        <v>0.0890305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.179259</v>
+        <v>0.177672</v>
       </c>
       <c r="D13" t="n">
-        <v>0.177049</v>
+        <v>0.162272</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0896127</v>
+        <v>0.088916</v>
       </c>
       <c r="C14" t="n">
-        <v>0.177842</v>
+        <v>0.176328</v>
       </c>
       <c r="D14" t="n">
-        <v>0.176041</v>
+        <v>0.162414</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08912630000000001</v>
+        <v>0.0881294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.177284</v>
+        <v>0.175787</v>
       </c>
       <c r="D15" t="n">
-        <v>0.176567</v>
+        <v>0.162301</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0876106</v>
+        <v>0.0872507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.176824</v>
+        <v>0.175539</v>
       </c>
       <c r="D16" t="n">
-        <v>0.176319</v>
+        <v>0.162308</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0868159</v>
+        <v>0.0865286</v>
       </c>
       <c r="C17" t="n">
-        <v>0.17622</v>
+        <v>0.174978</v>
       </c>
       <c r="D17" t="n">
-        <v>0.175869</v>
+        <v>0.162724</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08527270000000001</v>
+        <v>0.085745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.175155</v>
+        <v>0.17464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.176761</v>
+        <v>0.162508</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08750289999999999</v>
+        <v>0.083867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.176028</v>
+        <v>0.173746</v>
       </c>
       <c r="D19" t="n">
-        <v>0.176357</v>
+        <v>0.164236</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0848025</v>
+        <v>0.08455600000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.174083</v>
+        <v>0.173902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.175147</v>
+        <v>0.172265</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0838829</v>
+        <v>0.08237750000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.173337</v>
+        <v>0.173118</v>
       </c>
       <c r="D21" t="n">
-        <v>0.17364</v>
+        <v>0.164251</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08194419999999999</v>
+        <v>0.0815232</v>
       </c>
       <c r="C22" t="n">
-        <v>0.172433</v>
+        <v>0.17274</v>
       </c>
       <c r="D22" t="n">
-        <v>0.174755</v>
+        <v>0.164864</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0803741</v>
+        <v>0.0784392</v>
       </c>
       <c r="C23" t="n">
-        <v>0.172005</v>
+        <v>0.171282</v>
       </c>
       <c r="D23" t="n">
-        <v>0.188834</v>
+        <v>0.187719</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131478</v>
+        <v>0.131926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.186888</v>
+        <v>0.187008</v>
       </c>
       <c r="D24" t="n">
-        <v>0.188748</v>
+        <v>0.185147</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.130528</v>
+        <v>0.131066</v>
       </c>
       <c r="C25" t="n">
-        <v>0.185947</v>
+        <v>0.185146</v>
       </c>
       <c r="D25" t="n">
-        <v>0.185611</v>
+        <v>0.178839</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127776</v>
+        <v>0.128113</v>
       </c>
       <c r="C26" t="n">
-        <v>0.183926</v>
+        <v>0.184068</v>
       </c>
       <c r="D26" t="n">
-        <v>0.184922</v>
+        <v>0.178405</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.125719</v>
+        <v>0.124776</v>
       </c>
       <c r="C27" t="n">
-        <v>0.182437</v>
+        <v>0.182635</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183353</v>
+        <v>0.181875</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.123485</v>
+        <v>0.121442</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181731</v>
+        <v>0.181684</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18296</v>
+        <v>0.179714</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.11976</v>
+        <v>0.118745</v>
       </c>
       <c r="C29" t="n">
-        <v>0.180627</v>
+        <v>0.18034</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181572</v>
+        <v>0.178403</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116433</v>
+        <v>0.116332</v>
       </c>
       <c r="C30" t="n">
-        <v>0.179546</v>
+        <v>0.179186</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180025</v>
+        <v>0.175556</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113108</v>
+        <v>0.113606</v>
       </c>
       <c r="C31" t="n">
-        <v>0.178735</v>
+        <v>0.178629</v>
       </c>
       <c r="D31" t="n">
-        <v>0.180076</v>
+        <v>0.175849</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.109818</v>
+        <v>0.110659</v>
       </c>
       <c r="C32" t="n">
-        <v>0.177947</v>
+        <v>0.177468</v>
       </c>
       <c r="D32" t="n">
-        <v>0.178771</v>
+        <v>0.173769</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106151</v>
+        <v>0.107522</v>
       </c>
       <c r="C33" t="n">
-        <v>0.176696</v>
+        <v>0.176434</v>
       </c>
       <c r="D33" t="n">
-        <v>0.178103</v>
+        <v>0.173974</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.101679</v>
+        <v>0.104029</v>
       </c>
       <c r="C34" t="n">
-        <v>0.176209</v>
+        <v>0.175968</v>
       </c>
       <c r="D34" t="n">
-        <v>0.177275</v>
+        <v>0.175168</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.098082</v>
+        <v>0.09990010000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.175121</v>
+        <v>0.17471</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17649</v>
+        <v>0.172088</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937402</v>
+        <v>0.09503780000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.173412</v>
+        <v>0.173402</v>
       </c>
       <c r="D36" t="n">
-        <v>0.175289</v>
+        <v>0.172716</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09001729999999999</v>
+        <v>0.0901931</v>
       </c>
       <c r="C37" t="n">
-        <v>0.172601</v>
+        <v>0.172553</v>
       </c>
       <c r="D37" t="n">
-        <v>0.19083</v>
+        <v>0.189916</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152815</v>
+        <v>0.150071</v>
       </c>
       <c r="C38" t="n">
-        <v>0.188061</v>
+        <v>0.187797</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189316</v>
+        <v>0.187973</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149061</v>
+        <v>0.146891</v>
       </c>
       <c r="C39" t="n">
-        <v>0.186922</v>
+        <v>0.18614</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187901</v>
+        <v>0.185403</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145667</v>
+        <v>0.143731</v>
       </c>
       <c r="C40" t="n">
-        <v>0.185383</v>
+        <v>0.185275</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186684</v>
+        <v>0.183844</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142296</v>
+        <v>0.140334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.184179</v>
+        <v>0.183976</v>
       </c>
       <c r="D41" t="n">
-        <v>0.185247</v>
+        <v>0.183132</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138409</v>
+        <v>0.1365</v>
       </c>
       <c r="C42" t="n">
-        <v>0.183326</v>
+        <v>0.182947</v>
       </c>
       <c r="D42" t="n">
-        <v>0.184384</v>
+        <v>0.183921</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134485</v>
+        <v>0.13298</v>
       </c>
       <c r="C43" t="n">
-        <v>0.182239</v>
+        <v>0.181961</v>
       </c>
       <c r="D43" t="n">
-        <v>0.182981</v>
+        <v>0.181281</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130096</v>
+        <v>0.12962</v>
       </c>
       <c r="C44" t="n">
-        <v>0.181182</v>
+        <v>0.181043</v>
       </c>
       <c r="D44" t="n">
-        <v>0.182084</v>
+        <v>0.180202</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125638</v>
+        <v>0.125249</v>
       </c>
       <c r="C45" t="n">
-        <v>0.180101</v>
+        <v>0.179895</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181002</v>
+        <v>0.178869</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121083</v>
+        <v>0.120941</v>
       </c>
       <c r="C46" t="n">
-        <v>0.179004</v>
+        <v>0.178922</v>
       </c>
       <c r="D46" t="n">
-        <v>0.180015</v>
+        <v>0.178194</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116658</v>
+        <v>0.116139</v>
       </c>
       <c r="C47" t="n">
-        <v>0.178171</v>
+        <v>0.177778</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17895</v>
+        <v>0.178409</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111805</v>
+        <v>0.111819</v>
       </c>
       <c r="C48" t="n">
-        <v>0.17685</v>
+        <v>0.176606</v>
       </c>
       <c r="D48" t="n">
-        <v>0.178068</v>
+        <v>0.175855</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106445</v>
+        <v>0.107281</v>
       </c>
       <c r="C49" t="n">
-        <v>0.175623</v>
+        <v>0.175549</v>
       </c>
       <c r="D49" t="n">
-        <v>0.176943</v>
+        <v>0.174812</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.101612</v>
+        <v>0.102986</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174781</v>
+        <v>0.174494</v>
       </c>
       <c r="D50" t="n">
-        <v>0.177465</v>
+        <v>0.174372</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09682449999999999</v>
+        <v>0.09749529999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173735</v>
+        <v>0.173661</v>
       </c>
       <c r="D51" t="n">
-        <v>0.192666</v>
+        <v>0.191746</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0920496</v>
+        <v>0.09226520000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172587</v>
+        <v>0.172479</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19098</v>
+        <v>0.190315</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156441</v>
+        <v>0.155795</v>
       </c>
       <c r="C53" t="n">
-        <v>0.188078</v>
+        <v>0.187936</v>
       </c>
       <c r="D53" t="n">
-        <v>0.189484</v>
+        <v>0.188269</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152504</v>
+        <v>0.152035</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186858</v>
+        <v>0.186702</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188245</v>
+        <v>0.187794</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148615</v>
+        <v>0.148376</v>
       </c>
       <c r="C55" t="n">
-        <v>0.185846</v>
+        <v>0.185662</v>
       </c>
       <c r="D55" t="n">
-        <v>0.187005</v>
+        <v>0.186189</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144167</v>
+        <v>0.143889</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1843</v>
+        <v>0.184142</v>
       </c>
       <c r="D56" t="n">
-        <v>0.185708</v>
+        <v>0.185236</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139531</v>
+        <v>0.139418</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183338</v>
+        <v>0.183193</v>
       </c>
       <c r="D57" t="n">
-        <v>0.184204</v>
+        <v>0.183634</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134942</v>
+        <v>0.135069</v>
       </c>
       <c r="C58" t="n">
-        <v>0.182203</v>
+        <v>0.182013</v>
       </c>
       <c r="D58" t="n">
-        <v>0.183213</v>
+        <v>0.182886</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130211</v>
+        <v>0.130582</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18111</v>
+        <v>0.180977</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182058</v>
+        <v>0.181586</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125404</v>
+        <v>0.125473</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1801</v>
+        <v>0.180025</v>
       </c>
       <c r="D60" t="n">
-        <v>0.181067</v>
+        <v>0.180262</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120746</v>
+        <v>0.120759</v>
       </c>
       <c r="C61" t="n">
-        <v>0.179037</v>
+        <v>0.178941</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180004</v>
+        <v>0.179242</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115614</v>
+        <v>0.115855</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177835</v>
+        <v>0.177631</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178833</v>
+        <v>0.178567</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110808</v>
+        <v>0.110815</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176477</v>
+        <v>0.176358</v>
       </c>
       <c r="D63" t="n">
-        <v>0.177673</v>
+        <v>0.177053</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106065</v>
+        <v>0.106064</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175363</v>
+        <v>0.175334</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177081</v>
+        <v>0.176149</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.10079</v>
+        <v>0.101193</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174324</v>
+        <v>0.174188</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176346</v>
+        <v>0.175641</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0961065</v>
+        <v>0.0962973</v>
       </c>
       <c r="C66" t="n">
-        <v>0.173185</v>
+        <v>0.173058</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191921</v>
+        <v>0.191569</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159595</v>
+        <v>0.159933</v>
       </c>
       <c r="C67" t="n">
-        <v>0.189277</v>
+        <v>0.18915</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190679</v>
+        <v>0.190188</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.155723</v>
+        <v>0.156404</v>
       </c>
       <c r="C68" t="n">
-        <v>0.187612</v>
+        <v>0.187644</v>
       </c>
       <c r="D68" t="n">
-        <v>0.189108</v>
+        <v>0.188891</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151556</v>
+        <v>0.152101</v>
       </c>
       <c r="C69" t="n">
-        <v>0.18634</v>
+        <v>0.186372</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187585</v>
+        <v>0.187134</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.146924</v>
+        <v>0.147329</v>
       </c>
       <c r="C70" t="n">
-        <v>0.185106</v>
+        <v>0.185022</v>
       </c>
       <c r="D70" t="n">
-        <v>0.186179</v>
+        <v>0.185888</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142068</v>
+        <v>0.14237</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183773</v>
+        <v>0.18353</v>
       </c>
       <c r="D71" t="n">
-        <v>0.18484</v>
+        <v>0.183947</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137116</v>
+        <v>0.137343</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182585</v>
+        <v>0.182187</v>
       </c>
       <c r="D72" t="n">
-        <v>0.183575</v>
+        <v>0.182751</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132244</v>
+        <v>0.132358</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181174</v>
+        <v>0.180901</v>
       </c>
       <c r="D73" t="n">
-        <v>0.182255</v>
+        <v>0.18158</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127401</v>
+        <v>0.12777</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180026</v>
+        <v>0.180121</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180975</v>
+        <v>0.180757</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122366</v>
+        <v>0.122703</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178721</v>
+        <v>0.178909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17986</v>
+        <v>0.180067</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117472</v>
+        <v>0.117827</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177658</v>
+        <v>0.177691</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178863</v>
+        <v>0.17873</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112578</v>
+        <v>0.112867</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176593</v>
+        <v>0.176633</v>
       </c>
       <c r="D77" t="n">
-        <v>0.177939</v>
+        <v>0.177706</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107662</v>
+        <v>0.107931</v>
       </c>
       <c r="C78" t="n">
-        <v>0.175541</v>
+        <v>0.175624</v>
       </c>
       <c r="D78" t="n">
-        <v>0.177031</v>
+        <v>0.176833</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.102894</v>
+        <v>0.103137</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174542</v>
+        <v>0.174494</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176475</v>
+        <v>0.176133</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09793209999999999</v>
+        <v>0.098139</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173497</v>
+        <v>0.173425</v>
       </c>
       <c r="D80" t="n">
-        <v>0.192559</v>
+        <v>0.192238</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.16205</v>
+        <v>0.161873</v>
       </c>
       <c r="C81" t="n">
-        <v>0.189841</v>
+        <v>0.189742</v>
       </c>
       <c r="D81" t="n">
-        <v>0.191056</v>
+        <v>0.190771</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158213</v>
+        <v>0.158015</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188342</v>
+        <v>0.188267</v>
       </c>
       <c r="D82" t="n">
-        <v>0.189645</v>
+        <v>0.189385</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153735</v>
+        <v>0.153745</v>
       </c>
       <c r="C83" t="n">
-        <v>0.186877</v>
+        <v>0.186826</v>
       </c>
       <c r="D83" t="n">
-        <v>0.188215</v>
+        <v>0.187909</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149156</v>
+        <v>0.149148</v>
       </c>
       <c r="C84" t="n">
-        <v>0.18556</v>
+        <v>0.185441</v>
       </c>
       <c r="D84" t="n">
-        <v>0.186734</v>
+        <v>0.186516</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144492</v>
+        <v>0.144486</v>
       </c>
       <c r="C85" t="n">
-        <v>0.184362</v>
+        <v>0.184265</v>
       </c>
       <c r="D85" t="n">
-        <v>0.185378</v>
+        <v>0.185209</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139859</v>
+        <v>0.139371</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183028</v>
+        <v>0.182921</v>
       </c>
       <c r="D86" t="n">
-        <v>0.184171</v>
+        <v>0.183898</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134617</v>
+        <v>0.134339</v>
       </c>
       <c r="C87" t="n">
-        <v>0.181874</v>
+        <v>0.181697</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182858</v>
+        <v>0.182654</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129672</v>
+        <v>0.129394</v>
       </c>
       <c r="C88" t="n">
-        <v>0.180668</v>
+        <v>0.18041</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181678</v>
+        <v>0.181454</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124779</v>
+        <v>0.124547</v>
       </c>
       <c r="C89" t="n">
-        <v>0.179344</v>
+        <v>0.179222</v>
       </c>
       <c r="D89" t="n">
-        <v>0.18045</v>
+        <v>0.180206</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119663</v>
+        <v>0.119535</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178229</v>
+        <v>0.178043</v>
       </c>
       <c r="D90" t="n">
-        <v>0.179426</v>
+        <v>0.179194</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114788</v>
+        <v>0.114453</v>
       </c>
       <c r="C91" t="n">
-        <v>0.177067</v>
+        <v>0.176909</v>
       </c>
       <c r="D91" t="n">
-        <v>0.178317</v>
+        <v>0.178119</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109768</v>
+        <v>0.109477</v>
       </c>
       <c r="C92" t="n">
-        <v>0.175957</v>
+        <v>0.175815</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177413</v>
+        <v>0.177341</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10483</v>
+        <v>0.104532</v>
       </c>
       <c r="C93" t="n">
-        <v>0.17472</v>
+        <v>0.174704</v>
       </c>
       <c r="D93" t="n">
-        <v>0.176551</v>
+        <v>0.176317</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0997967</v>
+        <v>0.0996866</v>
       </c>
       <c r="C94" t="n">
-        <v>0.173699</v>
+        <v>0.173444</v>
       </c>
       <c r="D94" t="n">
-        <v>0.192548</v>
+        <v>0.192398</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162282</v>
+        <v>0.162223</v>
       </c>
       <c r="C95" t="n">
-        <v>0.189857</v>
+        <v>0.189648</v>
       </c>
       <c r="D95" t="n">
-        <v>0.191103</v>
+        <v>0.190917</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158475</v>
+        <v>0.158519</v>
       </c>
       <c r="C96" t="n">
-        <v>0.188289</v>
+        <v>0.188209</v>
       </c>
       <c r="D96" t="n">
-        <v>0.18957</v>
+        <v>0.189351</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154202</v>
+        <v>0.154169</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186969</v>
+        <v>0.186751</v>
       </c>
       <c r="D97" t="n">
-        <v>0.188062</v>
+        <v>0.187891</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149258</v>
+        <v>0.149269</v>
       </c>
       <c r="C98" t="n">
-        <v>0.185494</v>
+        <v>0.185439</v>
       </c>
       <c r="D98" t="n">
-        <v>0.186599</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144632</v>
+        <v>0.144591</v>
       </c>
       <c r="C99" t="n">
-        <v>0.184271</v>
+        <v>0.184044</v>
       </c>
       <c r="D99" t="n">
-        <v>0.185294</v>
+        <v>0.185059</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.13981</v>
+        <v>0.139883</v>
       </c>
       <c r="C100" t="n">
-        <v>0.18295</v>
+        <v>0.182614</v>
       </c>
       <c r="D100" t="n">
-        <v>0.183876</v>
+        <v>0.18376</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134749</v>
+        <v>0.134824</v>
       </c>
       <c r="C101" t="n">
-        <v>0.181585</v>
+        <v>0.18147</v>
       </c>
       <c r="D101" t="n">
-        <v>0.182677</v>
+        <v>0.182572</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129734</v>
+        <v>0.129869</v>
       </c>
       <c r="C102" t="n">
-        <v>0.180483</v>
+        <v>0.180377</v>
       </c>
       <c r="D102" t="n">
-        <v>0.18163</v>
+        <v>0.181334</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124839</v>
+        <v>0.124856</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179236</v>
+        <v>0.179143</v>
       </c>
       <c r="D103" t="n">
-        <v>0.180404</v>
+        <v>0.180237</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119921</v>
+        <v>0.119831</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178165</v>
+        <v>0.178003</v>
       </c>
       <c r="D104" t="n">
-        <v>0.179349</v>
+        <v>0.179225</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115057</v>
+        <v>0.114991</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177081</v>
+        <v>0.176942</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17839</v>
+        <v>0.178251</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110063</v>
+        <v>0.110088</v>
       </c>
       <c r="C106" t="n">
-        <v>0.176024</v>
+        <v>0.175863</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177416</v>
+        <v>0.177373</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105132</v>
+        <v>0.105254</v>
       </c>
       <c r="C107" t="n">
-        <v>0.174863</v>
+        <v>0.174805</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1765</v>
+        <v>0.176396</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100239</v>
+        <v>0.100364</v>
       </c>
       <c r="C108" t="n">
-        <v>0.17376</v>
+        <v>0.173676</v>
       </c>
       <c r="D108" t="n">
-        <v>0.193007</v>
+        <v>0.192865</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0953552</v>
+        <v>0.0954217</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172512</v>
+        <v>0.172484</v>
       </c>
       <c r="D109" t="n">
-        <v>0.191396</v>
+        <v>0.191274</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159097</v>
+        <v>0.159401</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188613</v>
+        <v>0.188458</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189927</v>
+        <v>0.189701</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155192</v>
+        <v>0.155228</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1872</v>
+        <v>0.187118</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188349</v>
+        <v>0.188311</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150613</v>
+        <v>0.150667</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185889</v>
+        <v>0.185649</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186938</v>
+        <v>0.18682</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145896</v>
+        <v>0.145997</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184481</v>
+        <v>0.184355</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185489</v>
+        <v>0.185453</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140947</v>
+        <v>0.140794</v>
       </c>
       <c r="C114" t="n">
-        <v>0.183118</v>
+        <v>0.183029</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184127</v>
+        <v>0.184086</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.13603</v>
+        <v>0.136119</v>
       </c>
       <c r="C115" t="n">
-        <v>0.181953</v>
+        <v>0.181763</v>
       </c>
       <c r="D115" t="n">
-        <v>0.182965</v>
+        <v>0.182854</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131077</v>
+        <v>0.130898</v>
       </c>
       <c r="C116" t="n">
-        <v>0.180723</v>
+        <v>0.180747</v>
       </c>
       <c r="D116" t="n">
-        <v>0.181799</v>
+        <v>0.181732</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125873</v>
+        <v>0.12575</v>
       </c>
       <c r="C117" t="n">
-        <v>0.179576</v>
+        <v>0.17949</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180663</v>
+        <v>0.180687</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120856</v>
+        <v>0.120819</v>
       </c>
       <c r="C118" t="n">
-        <v>0.178413</v>
+        <v>0.178378</v>
       </c>
       <c r="D118" t="n">
-        <v>0.179647</v>
+        <v>0.179553</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115909</v>
+        <v>0.115989</v>
       </c>
       <c r="C119" t="n">
-        <v>0.177387</v>
+        <v>0.17721</v>
       </c>
       <c r="D119" t="n">
-        <v>0.178542</v>
+        <v>0.17854</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.110995</v>
+        <v>0.111018</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176188</v>
+        <v>0.176046</v>
       </c>
       <c r="D120" t="n">
-        <v>0.177609</v>
+        <v>0.177591</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106184</v>
+        <v>0.106113</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175116</v>
+        <v>0.175054</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176594</v>
+        <v>0.176604</v>
       </c>
     </row>
     <row r="122">
@@ -4932,10 +4932,10 @@
         <v>0.101253</v>
       </c>
       <c r="C122" t="n">
-        <v>0.173844</v>
+        <v>0.173802</v>
       </c>
       <c r="D122" t="n">
-        <v>0.175795</v>
+        <v>0.175685</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09637850000000001</v>
+        <v>0.09628249999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172704</v>
+        <v>0.172453</v>
       </c>
       <c r="D123" t="n">
-        <v>0.191701</v>
+        <v>0.191217</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.159933</v>
+        <v>0.159675</v>
       </c>
       <c r="C124" t="n">
-        <v>0.188847</v>
+        <v>0.188507</v>
       </c>
       <c r="D124" t="n">
-        <v>0.190039</v>
+        <v>0.189697</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155608</v>
+        <v>0.155851</v>
       </c>
       <c r="C125" t="n">
-        <v>0.187461</v>
+        <v>0.187324</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188471</v>
+        <v>0.188335</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151233</v>
+        <v>0.151485</v>
       </c>
       <c r="C126" t="n">
-        <v>0.185772</v>
+        <v>0.185901</v>
       </c>
       <c r="D126" t="n">
-        <v>0.186892</v>
+        <v>0.18696</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146377</v>
+        <v>0.146481</v>
       </c>
       <c r="C127" t="n">
-        <v>0.184473</v>
+        <v>0.18459</v>
       </c>
       <c r="D127" t="n">
-        <v>0.185548</v>
+        <v>0.185736</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141415</v>
+        <v>0.141781</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183185</v>
+        <v>0.183222</v>
       </c>
       <c r="D128" t="n">
-        <v>0.184224</v>
+        <v>0.184349</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136631</v>
+        <v>0.136719</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182022</v>
+        <v>0.182004</v>
       </c>
       <c r="D129" t="n">
-        <v>0.18312</v>
+        <v>0.183142</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131723</v>
+        <v>0.131714</v>
       </c>
       <c r="C130" t="n">
-        <v>0.180795</v>
+        <v>0.180862</v>
       </c>
       <c r="D130" t="n">
-        <v>0.181945</v>
+        <v>0.181925</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126671</v>
+        <v>0.126672</v>
       </c>
       <c r="C131" t="n">
-        <v>0.179727</v>
+        <v>0.179619</v>
       </c>
       <c r="D131" t="n">
-        <v>0.180797</v>
+        <v>0.180816</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121722</v>
+        <v>0.121767</v>
       </c>
       <c r="C132" t="n">
-        <v>0.178458</v>
+        <v>0.178437</v>
       </c>
       <c r="D132" t="n">
-        <v>0.179698</v>
+        <v>0.179692</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.116832</v>
+        <v>0.116861</v>
       </c>
       <c r="C133" t="n">
-        <v>0.177435</v>
+        <v>0.177342</v>
       </c>
       <c r="D133" t="n">
-        <v>0.178679</v>
+        <v>0.178638</v>
       </c>
     </row>
     <row r="134">
@@ -5100,10 +5100,10 @@
         <v>0.111967</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176292</v>
+        <v>0.176325</v>
       </c>
       <c r="D134" t="n">
-        <v>0.177628</v>
+        <v>0.177663</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107076</v>
+        <v>0.107108</v>
       </c>
       <c r="C135" t="n">
-        <v>0.175272</v>
+        <v>0.175143</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1767</v>
+        <v>0.176739</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102211</v>
+        <v>0.102288</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174063</v>
+        <v>0.174064</v>
       </c>
       <c r="D136" t="n">
-        <v>0.175852</v>
+        <v>0.175802</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.09733070000000001</v>
+        <v>0.097418</v>
       </c>
       <c r="C137" t="n">
-        <v>0.173015</v>
+        <v>0.172918</v>
       </c>
       <c r="D137" t="n">
-        <v>0.191902</v>
+        <v>0.19178</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.16583</v>
+        <v>0.165864</v>
       </c>
       <c r="C138" t="n">
-        <v>0.189156</v>
+        <v>0.189115</v>
       </c>
       <c r="D138" t="n">
-        <v>0.190341</v>
+        <v>0.190368</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161884</v>
+        <v>0.161377</v>
       </c>
       <c r="C139" t="n">
-        <v>0.187606</v>
+        <v>0.187515</v>
       </c>
       <c r="D139" t="n">
-        <v>0.188862</v>
+        <v>0.18876</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.156971</v>
+        <v>0.156692</v>
       </c>
       <c r="C140" t="n">
-        <v>0.186312</v>
+        <v>0.186196</v>
       </c>
       <c r="D140" t="n">
-        <v>0.187371</v>
+        <v>0.18738</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15239</v>
+        <v>0.152127</v>
       </c>
       <c r="C141" t="n">
-        <v>0.18496</v>
+        <v>0.18483</v>
       </c>
       <c r="D141" t="n">
-        <v>0.186011</v>
+        <v>0.186103</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.147325</v>
+        <v>0.14698</v>
       </c>
       <c r="C142" t="n">
-        <v>0.183576</v>
+        <v>0.183559</v>
       </c>
       <c r="D142" t="n">
-        <v>0.184695</v>
+        <v>0.184676</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.142112</v>
+        <v>0.141816</v>
       </c>
       <c r="C143" t="n">
-        <v>0.182437</v>
+        <v>0.182338</v>
       </c>
       <c r="D143" t="n">
-        <v>0.183448</v>
+        <v>0.183415</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0650553</v>
+        <v>0.0642817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.169674</v>
+        <v>0.171199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159876</v>
+        <v>0.1856</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0647807</v>
+        <v>0.063801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167094</v>
+        <v>0.171933</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160533</v>
+        <v>0.185953</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06452189999999999</v>
+        <v>0.06347369999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.168218</v>
+        <v>0.170546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160337</v>
+        <v>0.186013</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0647383</v>
+        <v>0.0638398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.166751</v>
+        <v>0.170508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.159107</v>
+        <v>0.185398</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0645617</v>
+        <v>0.0638703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.168543</v>
+        <v>0.170476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160376</v>
+        <v>0.186474</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0645371</v>
+        <v>0.064586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.168054</v>
+        <v>0.169459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15988</v>
+        <v>0.185297</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0644125</v>
+        <v>0.0656355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166704</v>
+        <v>0.168618</v>
       </c>
       <c r="D8" t="n">
-        <v>0.158893</v>
+        <v>0.186017</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06564830000000001</v>
+        <v>0.06626369999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166827</v>
+        <v>0.167862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.15985</v>
+        <v>0.189981</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0909867</v>
+        <v>0.0903597</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178312</v>
+        <v>0.182426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.161226</v>
+        <v>0.19135</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09142889999999999</v>
+        <v>0.08987050000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179235</v>
+        <v>0.182027</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16179</v>
+        <v>0.190854</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09023340000000001</v>
+        <v>0.09037000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.178641</v>
+        <v>0.181027</v>
       </c>
       <c r="D12" t="n">
-        <v>0.161879</v>
+        <v>0.19062</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0890305</v>
+        <v>0.0909635</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177672</v>
+        <v>0.180142</v>
       </c>
       <c r="D13" t="n">
-        <v>0.162272</v>
+        <v>0.190273</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.088916</v>
+        <v>0.0890454</v>
       </c>
       <c r="C14" t="n">
-        <v>0.176328</v>
+        <v>0.178899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162414</v>
+        <v>0.190425</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0881294</v>
+        <v>0.0882228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.175787</v>
+        <v>0.178535</v>
       </c>
       <c r="D15" t="n">
-        <v>0.162301</v>
+        <v>0.190391</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0872507</v>
+        <v>0.0869248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.175539</v>
+        <v>0.177475</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162308</v>
+        <v>0.190027</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0865286</v>
+        <v>0.085526</v>
       </c>
       <c r="C17" t="n">
-        <v>0.174978</v>
+        <v>0.177001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.162724</v>
+        <v>0.190099</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.085745</v>
+        <v>0.08425820000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.17464</v>
+        <v>0.176464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162508</v>
+        <v>0.189433</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.083867</v>
+        <v>0.0858083</v>
       </c>
       <c r="C19" t="n">
-        <v>0.173746</v>
+        <v>0.176294</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164236</v>
+        <v>0.192486</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08455600000000001</v>
+        <v>0.0843264</v>
       </c>
       <c r="C20" t="n">
-        <v>0.173902</v>
+        <v>0.175314</v>
       </c>
       <c r="D20" t="n">
-        <v>0.172265</v>
+        <v>0.189865</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08237750000000001</v>
+        <v>0.0836684</v>
       </c>
       <c r="C21" t="n">
-        <v>0.173118</v>
+        <v>0.174485</v>
       </c>
       <c r="D21" t="n">
-        <v>0.164251</v>
+        <v>0.190304</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0815232</v>
+        <v>0.0830089</v>
       </c>
       <c r="C22" t="n">
-        <v>0.17274</v>
+        <v>0.173819</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164864</v>
+        <v>0.189802</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0784392</v>
+        <v>0.0817562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171282</v>
+        <v>0.172716</v>
       </c>
       <c r="D23" t="n">
-        <v>0.187719</v>
+        <v>0.20294</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131926</v>
+        <v>0.13114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.187008</v>
+        <v>0.187743</v>
       </c>
       <c r="D24" t="n">
-        <v>0.185147</v>
+        <v>0.204974</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131066</v>
+        <v>0.129627</v>
       </c>
       <c r="C25" t="n">
-        <v>0.185146</v>
+        <v>0.186368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178839</v>
+        <v>0.203679</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.128113</v>
+        <v>0.127322</v>
       </c>
       <c r="C26" t="n">
-        <v>0.184068</v>
+        <v>0.185169</v>
       </c>
       <c r="D26" t="n">
-        <v>0.178405</v>
+        <v>0.203343</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124776</v>
+        <v>0.125051</v>
       </c>
       <c r="C27" t="n">
-        <v>0.182635</v>
+        <v>0.183275</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181875</v>
+        <v>0.199037</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121442</v>
+        <v>0.122639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181684</v>
+        <v>0.182828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179714</v>
+        <v>0.200579</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118745</v>
+        <v>0.119203</v>
       </c>
       <c r="C29" t="n">
-        <v>0.18034</v>
+        <v>0.181587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178403</v>
+        <v>0.197326</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116332</v>
+        <v>0.116415</v>
       </c>
       <c r="C30" t="n">
-        <v>0.179186</v>
+        <v>0.180376</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175556</v>
+        <v>0.196348</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113606</v>
+        <v>0.113727</v>
       </c>
       <c r="C31" t="n">
-        <v>0.178629</v>
+        <v>0.179582</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175849</v>
+        <v>0.195094</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110659</v>
+        <v>0.109924</v>
       </c>
       <c r="C32" t="n">
-        <v>0.177468</v>
+        <v>0.178564</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173769</v>
+        <v>0.196904</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107522</v>
+        <v>0.106147</v>
       </c>
       <c r="C33" t="n">
-        <v>0.176434</v>
+        <v>0.177386</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173974</v>
+        <v>0.195823</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104029</v>
+        <v>0.101861</v>
       </c>
       <c r="C34" t="n">
-        <v>0.175968</v>
+        <v>0.1768</v>
       </c>
       <c r="D34" t="n">
-        <v>0.175168</v>
+        <v>0.194407</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09990010000000001</v>
+        <v>0.0981316</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17471</v>
+        <v>0.175491</v>
       </c>
       <c r="D35" t="n">
-        <v>0.172088</v>
+        <v>0.193681</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09503780000000001</v>
+        <v>0.0941394</v>
       </c>
       <c r="C36" t="n">
-        <v>0.173402</v>
+        <v>0.174127</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172716</v>
+        <v>0.191815</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0901931</v>
+        <v>0.0898463</v>
       </c>
       <c r="C37" t="n">
-        <v>0.172553</v>
+        <v>0.173055</v>
       </c>
       <c r="D37" t="n">
-        <v>0.189916</v>
+        <v>0.20841</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150071</v>
+        <v>0.152617</v>
       </c>
       <c r="C38" t="n">
-        <v>0.187797</v>
+        <v>0.189</v>
       </c>
       <c r="D38" t="n">
-        <v>0.187973</v>
+        <v>0.209392</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146891</v>
+        <v>0.149118</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18614</v>
+        <v>0.187545</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185403</v>
+        <v>0.206315</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.143731</v>
+        <v>0.146121</v>
       </c>
       <c r="C40" t="n">
-        <v>0.185275</v>
+        <v>0.186451</v>
       </c>
       <c r="D40" t="n">
-        <v>0.183844</v>
+        <v>0.205799</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140334</v>
+        <v>0.142583</v>
       </c>
       <c r="C41" t="n">
-        <v>0.183976</v>
+        <v>0.184824</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183132</v>
+        <v>0.204587</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1365</v>
+        <v>0.138512</v>
       </c>
       <c r="C42" t="n">
-        <v>0.182947</v>
+        <v>0.183547</v>
       </c>
       <c r="D42" t="n">
-        <v>0.183921</v>
+        <v>0.202777</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.13298</v>
+        <v>0.134171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181961</v>
+        <v>0.182534</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181281</v>
+        <v>0.201441</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12962</v>
+        <v>0.13</v>
       </c>
       <c r="C44" t="n">
-        <v>0.181043</v>
+        <v>0.182011</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180202</v>
+        <v>0.200952</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125249</v>
+        <v>0.125739</v>
       </c>
       <c r="C45" t="n">
-        <v>0.179895</v>
+        <v>0.18073</v>
       </c>
       <c r="D45" t="n">
-        <v>0.178869</v>
+        <v>0.20023</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120941</v>
+        <v>0.121054</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178922</v>
+        <v>0.179697</v>
       </c>
       <c r="D46" t="n">
-        <v>0.178194</v>
+        <v>0.198871</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116139</v>
+        <v>0.116663</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177778</v>
+        <v>0.178714</v>
       </c>
       <c r="D47" t="n">
-        <v>0.178409</v>
+        <v>0.198004</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111819</v>
+        <v>0.111835</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176606</v>
+        <v>0.177458</v>
       </c>
       <c r="D48" t="n">
-        <v>0.175855</v>
+        <v>0.197024</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107281</v>
+        <v>0.106687</v>
       </c>
       <c r="C49" t="n">
-        <v>0.175549</v>
+        <v>0.176222</v>
       </c>
       <c r="D49" t="n">
-        <v>0.174812</v>
+        <v>0.196174</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102986</v>
+        <v>0.10156</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174494</v>
+        <v>0.175251</v>
       </c>
       <c r="D50" t="n">
-        <v>0.174372</v>
+        <v>0.195419</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09749529999999999</v>
+        <v>0.0968373</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173661</v>
+        <v>0.174259</v>
       </c>
       <c r="D51" t="n">
-        <v>0.191746</v>
+        <v>0.213044</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09226520000000001</v>
+        <v>0.0921066</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172479</v>
+        <v>0.172943</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190315</v>
+        <v>0.211652</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.155795</v>
+        <v>0.15618</v>
       </c>
       <c r="C53" t="n">
-        <v>0.187936</v>
+        <v>0.189158</v>
       </c>
       <c r="D53" t="n">
-        <v>0.188269</v>
+        <v>0.210163</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152035</v>
+        <v>0.152451</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186702</v>
+        <v>0.187905</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187794</v>
+        <v>0.208549</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148376</v>
+        <v>0.148392</v>
       </c>
       <c r="C55" t="n">
-        <v>0.185662</v>
+        <v>0.186629</v>
       </c>
       <c r="D55" t="n">
-        <v>0.186189</v>
+        <v>0.207518</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.143889</v>
+        <v>0.143916</v>
       </c>
       <c r="C56" t="n">
-        <v>0.184142</v>
+        <v>0.185213</v>
       </c>
       <c r="D56" t="n">
-        <v>0.185236</v>
+        <v>0.205892</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139418</v>
+        <v>0.139586</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183193</v>
+        <v>0.183992</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183634</v>
+        <v>0.204737</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135069</v>
+        <v>0.134779</v>
       </c>
       <c r="C58" t="n">
-        <v>0.182013</v>
+        <v>0.182815</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182886</v>
+        <v>0.20362</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130582</v>
+        <v>0.130035</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180977</v>
+        <v>0.181765</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181586</v>
+        <v>0.202518</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125473</v>
+        <v>0.125449</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180025</v>
+        <v>0.180796</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180262</v>
+        <v>0.201438</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120759</v>
+        <v>0.120527</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178941</v>
+        <v>0.179667</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179242</v>
+        <v>0.20048</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115855</v>
+        <v>0.115652</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177631</v>
+        <v>0.178353</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178567</v>
+        <v>0.199483</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110815</v>
+        <v>0.110829</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176358</v>
+        <v>0.177044</v>
       </c>
       <c r="D63" t="n">
-        <v>0.177053</v>
+        <v>0.198733</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106064</v>
+        <v>0.106102</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175334</v>
+        <v>0.175919</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176149</v>
+        <v>0.198065</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101193</v>
+        <v>0.100825</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174188</v>
+        <v>0.174857</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175641</v>
+        <v>0.197422</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0962973</v>
+        <v>0.0959763</v>
       </c>
       <c r="C66" t="n">
-        <v>0.173058</v>
+        <v>0.173615</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191569</v>
+        <v>0.212714</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159933</v>
+        <v>0.159879</v>
       </c>
       <c r="C67" t="n">
-        <v>0.18915</v>
+        <v>0.190067</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190188</v>
+        <v>0.21111</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156404</v>
+        <v>0.156109</v>
       </c>
       <c r="C68" t="n">
-        <v>0.187644</v>
+        <v>0.188717</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188891</v>
+        <v>0.209846</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152101</v>
+        <v>0.151328</v>
       </c>
       <c r="C69" t="n">
-        <v>0.186372</v>
+        <v>0.187182</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187134</v>
+        <v>0.208131</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147329</v>
+        <v>0.146794</v>
       </c>
       <c r="C70" t="n">
-        <v>0.185022</v>
+        <v>0.185812</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185888</v>
+        <v>0.206944</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14237</v>
+        <v>0.142175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.18353</v>
+        <v>0.184505</v>
       </c>
       <c r="D71" t="n">
-        <v>0.183947</v>
+        <v>0.205332</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137343</v>
+        <v>0.137227</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182187</v>
+        <v>0.183187</v>
       </c>
       <c r="D72" t="n">
-        <v>0.182751</v>
+        <v>0.204318</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132358</v>
+        <v>0.13219</v>
       </c>
       <c r="C73" t="n">
-        <v>0.180901</v>
+        <v>0.181913</v>
       </c>
       <c r="D73" t="n">
-        <v>0.18158</v>
+        <v>0.20295</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.12777</v>
+        <v>0.127338</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180121</v>
+        <v>0.180793</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180757</v>
+        <v>0.201887</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122703</v>
+        <v>0.122323</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178909</v>
+        <v>0.179473</v>
       </c>
       <c r="D75" t="n">
-        <v>0.180067</v>
+        <v>0.200876</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117827</v>
+        <v>0.117592</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177691</v>
+        <v>0.178427</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17873</v>
+        <v>0.200067</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112867</v>
+        <v>0.112699</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176633</v>
+        <v>0.177294</v>
       </c>
       <c r="D77" t="n">
-        <v>0.177706</v>
+        <v>0.199136</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107931</v>
+        <v>0.107837</v>
       </c>
       <c r="C78" t="n">
-        <v>0.175624</v>
+        <v>0.176218</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176833</v>
+        <v>0.198437</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103137</v>
+        <v>0.102908</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174494</v>
+        <v>0.175087</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176133</v>
+        <v>0.197806</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.098139</v>
+        <v>0.0980543</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173425</v>
+        <v>0.173887</v>
       </c>
       <c r="D80" t="n">
-        <v>0.192238</v>
+        <v>0.213314</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161873</v>
+        <v>0.161867</v>
       </c>
       <c r="C81" t="n">
-        <v>0.189742</v>
+        <v>0.19062</v>
       </c>
       <c r="D81" t="n">
-        <v>0.190771</v>
+        <v>0.211791</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158015</v>
+        <v>0.158232</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188267</v>
+        <v>0.189154</v>
       </c>
       <c r="D82" t="n">
-        <v>0.189385</v>
+        <v>0.210347</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153745</v>
+        <v>0.153957</v>
       </c>
       <c r="C83" t="n">
-        <v>0.186826</v>
+        <v>0.187798</v>
       </c>
       <c r="D83" t="n">
-        <v>0.187909</v>
+        <v>0.208843</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149148</v>
+        <v>0.149474</v>
       </c>
       <c r="C84" t="n">
-        <v>0.185441</v>
+        <v>0.18638</v>
       </c>
       <c r="D84" t="n">
-        <v>0.186516</v>
+        <v>0.207527</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144486</v>
+        <v>0.144624</v>
       </c>
       <c r="C85" t="n">
-        <v>0.184265</v>
+        <v>0.185047</v>
       </c>
       <c r="D85" t="n">
-        <v>0.185209</v>
+        <v>0.206181</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139371</v>
+        <v>0.139725</v>
       </c>
       <c r="C86" t="n">
-        <v>0.182921</v>
+        <v>0.183848</v>
       </c>
       <c r="D86" t="n">
-        <v>0.183898</v>
+        <v>0.205045</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134339</v>
+        <v>0.134687</v>
       </c>
       <c r="C87" t="n">
-        <v>0.181697</v>
+        <v>0.182593</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182654</v>
+        <v>0.203872</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129394</v>
+        <v>0.129565</v>
       </c>
       <c r="C88" t="n">
-        <v>0.18041</v>
+        <v>0.18126</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181454</v>
+        <v>0.202752</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124547</v>
+        <v>0.124585</v>
       </c>
       <c r="C89" t="n">
-        <v>0.179222</v>
+        <v>0.180074</v>
       </c>
       <c r="D89" t="n">
-        <v>0.180206</v>
+        <v>0.201564</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119535</v>
+        <v>0.119663</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178043</v>
+        <v>0.178924</v>
       </c>
       <c r="D90" t="n">
-        <v>0.179194</v>
+        <v>0.200437</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114453</v>
+        <v>0.114582</v>
       </c>
       <c r="C91" t="n">
-        <v>0.176909</v>
+        <v>0.177649</v>
       </c>
       <c r="D91" t="n">
-        <v>0.178119</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109477</v>
+        <v>0.109652</v>
       </c>
       <c r="C92" t="n">
-        <v>0.175815</v>
+        <v>0.176503</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177341</v>
+        <v>0.198541</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104532</v>
+        <v>0.104683</v>
       </c>
       <c r="C93" t="n">
-        <v>0.174704</v>
+        <v>0.17534</v>
       </c>
       <c r="D93" t="n">
-        <v>0.176317</v>
+        <v>0.197754</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0996866</v>
+        <v>0.0997309</v>
       </c>
       <c r="C94" t="n">
-        <v>0.173444</v>
+        <v>0.174115</v>
       </c>
       <c r="D94" t="n">
-        <v>0.192398</v>
+        <v>0.213318</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162223</v>
+        <v>0.16201</v>
       </c>
       <c r="C95" t="n">
-        <v>0.189648</v>
+        <v>0.19068</v>
       </c>
       <c r="D95" t="n">
-        <v>0.190917</v>
+        <v>0.211613</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158519</v>
+        <v>0.158015</v>
       </c>
       <c r="C96" t="n">
-        <v>0.188209</v>
+        <v>0.188972</v>
       </c>
       <c r="D96" t="n">
-        <v>0.189351</v>
+        <v>0.210078</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154169</v>
+        <v>0.153909</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186751</v>
+        <v>0.187544</v>
       </c>
       <c r="D97" t="n">
-        <v>0.187891</v>
+        <v>0.208605</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149269</v>
+        <v>0.149401</v>
       </c>
       <c r="C98" t="n">
-        <v>0.185439</v>
+        <v>0.186061</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1864</v>
+        <v>0.207139</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144591</v>
+        <v>0.144824</v>
       </c>
       <c r="C99" t="n">
-        <v>0.184044</v>
+        <v>0.184744</v>
       </c>
       <c r="D99" t="n">
-        <v>0.185059</v>
+        <v>0.205899</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139883</v>
+        <v>0.139746</v>
       </c>
       <c r="C100" t="n">
-        <v>0.182614</v>
+        <v>0.183441</v>
       </c>
       <c r="D100" t="n">
-        <v>0.18376</v>
+        <v>0.204775</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134824</v>
+        <v>0.134854</v>
       </c>
       <c r="C101" t="n">
-        <v>0.18147</v>
+        <v>0.182297</v>
       </c>
       <c r="D101" t="n">
-        <v>0.182572</v>
+        <v>0.203559</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129869</v>
+        <v>0.129724</v>
       </c>
       <c r="C102" t="n">
-        <v>0.180377</v>
+        <v>0.181153</v>
       </c>
       <c r="D102" t="n">
-        <v>0.181334</v>
+        <v>0.202479</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124856</v>
+        <v>0.124865</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179143</v>
+        <v>0.179939</v>
       </c>
       <c r="D103" t="n">
-        <v>0.180237</v>
+        <v>0.201262</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119831</v>
+        <v>0.119857</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178003</v>
+        <v>0.178718</v>
       </c>
       <c r="D104" t="n">
-        <v>0.179225</v>
+        <v>0.200177</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114991</v>
+        <v>0.114879</v>
       </c>
       <c r="C105" t="n">
-        <v>0.176942</v>
+        <v>0.177677</v>
       </c>
       <c r="D105" t="n">
-        <v>0.178251</v>
+        <v>0.199277</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110088</v>
+        <v>0.110009</v>
       </c>
       <c r="C106" t="n">
-        <v>0.175863</v>
+        <v>0.176558</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177373</v>
+        <v>0.198427</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105254</v>
+        <v>0.105086</v>
       </c>
       <c r="C107" t="n">
-        <v>0.174805</v>
+        <v>0.175388</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176396</v>
+        <v>0.197599</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100364</v>
+        <v>0.100213</v>
       </c>
       <c r="C108" t="n">
-        <v>0.173676</v>
+        <v>0.174214</v>
       </c>
       <c r="D108" t="n">
-        <v>0.192865</v>
+        <v>0.21375</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0954217</v>
+        <v>0.0952798</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172484</v>
+        <v>0.173044</v>
       </c>
       <c r="D109" t="n">
-        <v>0.191274</v>
+        <v>0.212011</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159401</v>
+        <v>0.159219</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188458</v>
+        <v>0.189424</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189701</v>
+        <v>0.210604</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155228</v>
+        <v>0.154913</v>
       </c>
       <c r="C111" t="n">
-        <v>0.187118</v>
+        <v>0.188012</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188311</v>
+        <v>0.209143</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150667</v>
+        <v>0.150303</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185649</v>
+        <v>0.186543</v>
       </c>
       <c r="D112" t="n">
-        <v>0.18682</v>
+        <v>0.207682</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145997</v>
+        <v>0.14552</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184355</v>
+        <v>0.185136</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185453</v>
+        <v>0.206357</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140794</v>
+        <v>0.140722</v>
       </c>
       <c r="C114" t="n">
-        <v>0.183029</v>
+        <v>0.183906</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184086</v>
+        <v>0.205013</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136119</v>
+        <v>0.135928</v>
       </c>
       <c r="C115" t="n">
-        <v>0.181763</v>
+        <v>0.182617</v>
       </c>
       <c r="D115" t="n">
-        <v>0.182854</v>
+        <v>0.203874</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130898</v>
+        <v>0.130815</v>
       </c>
       <c r="C116" t="n">
-        <v>0.180747</v>
+        <v>0.181487</v>
       </c>
       <c r="D116" t="n">
-        <v>0.181732</v>
+        <v>0.202687</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12575</v>
+        <v>0.125981</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17949</v>
+        <v>0.180269</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180687</v>
+        <v>0.201657</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120819</v>
+        <v>0.120892</v>
       </c>
       <c r="C118" t="n">
-        <v>0.178378</v>
+        <v>0.179059</v>
       </c>
       <c r="D118" t="n">
-        <v>0.179553</v>
+        <v>0.200579</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115989</v>
+        <v>0.115951</v>
       </c>
       <c r="C119" t="n">
-        <v>0.17721</v>
+        <v>0.177916</v>
       </c>
       <c r="D119" t="n">
-        <v>0.17854</v>
+        <v>0.199515</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111018</v>
+        <v>0.111034</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176046</v>
+        <v>0.176683</v>
       </c>
       <c r="D120" t="n">
-        <v>0.177591</v>
+        <v>0.19854</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106113</v>
+        <v>0.106155</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175054</v>
+        <v>0.175587</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176604</v>
+        <v>0.197639</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101253</v>
+        <v>0.101291</v>
       </c>
       <c r="C122" t="n">
-        <v>0.173802</v>
+        <v>0.174398</v>
       </c>
       <c r="D122" t="n">
-        <v>0.175685</v>
+        <v>0.196848</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09628249999999999</v>
+        <v>0.09636</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172453</v>
+        <v>0.173147</v>
       </c>
       <c r="D123" t="n">
-        <v>0.191217</v>
+        <v>0.212394</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.159675</v>
+        <v>0.159923</v>
       </c>
       <c r="C124" t="n">
-        <v>0.188507</v>
+        <v>0.189617</v>
       </c>
       <c r="D124" t="n">
-        <v>0.189697</v>
+        <v>0.210881</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155851</v>
+        <v>0.155862</v>
       </c>
       <c r="C125" t="n">
-        <v>0.187324</v>
+        <v>0.188232</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188335</v>
+        <v>0.209357</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151485</v>
+        <v>0.151554</v>
       </c>
       <c r="C126" t="n">
-        <v>0.185901</v>
+        <v>0.186755</v>
       </c>
       <c r="D126" t="n">
-        <v>0.18696</v>
+        <v>0.207814</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146481</v>
+        <v>0.146872</v>
       </c>
       <c r="C127" t="n">
-        <v>0.18459</v>
+        <v>0.185362</v>
       </c>
       <c r="D127" t="n">
-        <v>0.185736</v>
+        <v>0.206422</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141781</v>
+        <v>0.141634</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183222</v>
+        <v>0.183961</v>
       </c>
       <c r="D128" t="n">
-        <v>0.184349</v>
+        <v>0.205238</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136719</v>
+        <v>0.136746</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182004</v>
+        <v>0.182785</v>
       </c>
       <c r="D129" t="n">
-        <v>0.183142</v>
+        <v>0.203928</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131714</v>
+        <v>0.131773</v>
       </c>
       <c r="C130" t="n">
-        <v>0.180862</v>
+        <v>0.181499</v>
       </c>
       <c r="D130" t="n">
-        <v>0.181925</v>
+        <v>0.202762</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126672</v>
+        <v>0.126822</v>
       </c>
       <c r="C131" t="n">
-        <v>0.179619</v>
+        <v>0.180362</v>
       </c>
       <c r="D131" t="n">
-        <v>0.180816</v>
+        <v>0.201591</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121767</v>
+        <v>0.121805</v>
       </c>
       <c r="C132" t="n">
-        <v>0.178437</v>
+        <v>0.179231</v>
       </c>
       <c r="D132" t="n">
-        <v>0.179692</v>
+        <v>0.200581</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.116861</v>
+        <v>0.116873</v>
       </c>
       <c r="C133" t="n">
-        <v>0.177342</v>
+        <v>0.178048</v>
       </c>
       <c r="D133" t="n">
-        <v>0.178638</v>
+        <v>0.199562</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.111967</v>
+        <v>0.112049</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176325</v>
+        <v>0.176882</v>
       </c>
       <c r="D134" t="n">
-        <v>0.177663</v>
+        <v>0.198596</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107108</v>
+        <v>0.107075</v>
       </c>
       <c r="C135" t="n">
-        <v>0.175143</v>
+        <v>0.175754</v>
       </c>
       <c r="D135" t="n">
-        <v>0.176739</v>
+        <v>0.197672</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102288</v>
+        <v>0.1022</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174064</v>
+        <v>0.174588</v>
       </c>
       <c r="D136" t="n">
-        <v>0.175802</v>
+        <v>0.1968</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.097418</v>
+        <v>0.0973609</v>
       </c>
       <c r="C137" t="n">
-        <v>0.172918</v>
+        <v>0.173433</v>
       </c>
       <c r="D137" t="n">
-        <v>0.19178</v>
+        <v>0.212672</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.165864</v>
+        <v>0.160765</v>
       </c>
       <c r="C138" t="n">
-        <v>0.189115</v>
+        <v>0.189932</v>
       </c>
       <c r="D138" t="n">
-        <v>0.190368</v>
+        <v>0.211142</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161377</v>
+        <v>0.157514</v>
       </c>
       <c r="C139" t="n">
-        <v>0.187515</v>
+        <v>0.188469</v>
       </c>
       <c r="D139" t="n">
-        <v>0.18876</v>
+        <v>0.209616</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.156692</v>
+        <v>0.153064</v>
       </c>
       <c r="C140" t="n">
-        <v>0.186196</v>
+        <v>0.187052</v>
       </c>
       <c r="D140" t="n">
-        <v>0.18738</v>
+        <v>0.208219</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.152127</v>
+        <v>0.148462</v>
       </c>
       <c r="C141" t="n">
-        <v>0.18483</v>
+        <v>0.185646</v>
       </c>
       <c r="D141" t="n">
-        <v>0.186103</v>
+        <v>0.206834</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.14698</v>
+        <v>0.143997</v>
       </c>
       <c r="C142" t="n">
-        <v>0.183559</v>
+        <v>0.184294</v>
       </c>
       <c r="D142" t="n">
-        <v>0.184676</v>
+        <v>0.205483</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.141816</v>
+        <v>0.139056</v>
       </c>
       <c r="C143" t="n">
-        <v>0.182338</v>
+        <v>0.183006</v>
       </c>
       <c r="D143" t="n">
-        <v>0.183415</v>
+        <v>0.2041</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0642817</v>
+        <v>0.064011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.171199</v>
+        <v>0.171376</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1856</v>
+        <v>0.185385</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.063801</v>
+        <v>0.06376510000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.171933</v>
+        <v>0.171087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185953</v>
+        <v>0.185933</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06347369999999999</v>
+        <v>0.0635204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.170546</v>
+        <v>0.171588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186013</v>
+        <v>0.186094</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0638398</v>
+        <v>0.0642307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.170508</v>
+        <v>0.170019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185398</v>
+        <v>0.185419</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0638703</v>
+        <v>0.064508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.170476</v>
+        <v>0.171518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.186474</v>
+        <v>0.185935</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.064586</v>
+        <v>0.06529500000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.169459</v>
+        <v>0.169725</v>
       </c>
       <c r="D7" t="n">
-        <v>0.185297</v>
+        <v>0.186041</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0656355</v>
+        <v>0.0656925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.168618</v>
+        <v>0.168404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.186017</v>
+        <v>0.186157</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06626369999999999</v>
+        <v>0.0666273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.167862</v>
+        <v>0.167778</v>
       </c>
       <c r="D9" t="n">
-        <v>0.189981</v>
+        <v>0.191342</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0903597</v>
+        <v>0.0908283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182426</v>
+        <v>0.182896</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19135</v>
+        <v>0.19089</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08987050000000001</v>
+        <v>0.0907302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182027</v>
+        <v>0.182284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.190854</v>
+        <v>0.190755</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09037000000000001</v>
+        <v>0.090725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.181027</v>
+        <v>0.181323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19062</v>
+        <v>0.190863</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0909635</v>
+        <v>0.090043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.180142</v>
+        <v>0.180348</v>
       </c>
       <c r="D13" t="n">
-        <v>0.190273</v>
+        <v>0.190545</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0890454</v>
+        <v>0.08977209999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.178899</v>
+        <v>0.179048</v>
       </c>
       <c r="D14" t="n">
-        <v>0.190425</v>
+        <v>0.190871</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0882228</v>
+        <v>0.0892546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.178535</v>
+        <v>0.17817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.190391</v>
+        <v>0.190592</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0869248</v>
+        <v>0.0876326</v>
       </c>
       <c r="C16" t="n">
-        <v>0.177475</v>
+        <v>0.177564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.190027</v>
+        <v>0.190327</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.085526</v>
+        <v>0.0856087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.177001</v>
+        <v>0.176997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.190099</v>
+        <v>0.190037</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08425820000000001</v>
+        <v>0.0850178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.176464</v>
+        <v>0.176241</v>
       </c>
       <c r="D18" t="n">
-        <v>0.189433</v>
+        <v>0.189895</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0858083</v>
+        <v>0.0831939</v>
       </c>
       <c r="C19" t="n">
-        <v>0.176294</v>
+        <v>0.175323</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192486</v>
+        <v>0.189955</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0843264</v>
+        <v>0.0841935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.175314</v>
+        <v>0.175471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189865</v>
+        <v>0.191736</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0836684</v>
+        <v>0.0838911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.174485</v>
+        <v>0.174576</v>
       </c>
       <c r="D21" t="n">
-        <v>0.190304</v>
+        <v>0.191177</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0830089</v>
+        <v>0.08225590000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.173819</v>
+        <v>0.173677</v>
       </c>
       <c r="D22" t="n">
-        <v>0.189802</v>
+        <v>0.18972</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0817562</v>
+        <v>0.0812826</v>
       </c>
       <c r="C23" t="n">
-        <v>0.172716</v>
+        <v>0.172691</v>
       </c>
       <c r="D23" t="n">
-        <v>0.20294</v>
+        <v>0.202471</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13114</v>
+        <v>0.131101</v>
       </c>
       <c r="C24" t="n">
-        <v>0.187743</v>
+        <v>0.187742</v>
       </c>
       <c r="D24" t="n">
-        <v>0.204974</v>
+        <v>0.205614</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129627</v>
+        <v>0.129978</v>
       </c>
       <c r="C25" t="n">
-        <v>0.186368</v>
+        <v>0.185975</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203679</v>
+        <v>0.204427</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127322</v>
+        <v>0.127454</v>
       </c>
       <c r="C26" t="n">
-        <v>0.185169</v>
+        <v>0.184602</v>
       </c>
       <c r="D26" t="n">
-        <v>0.203343</v>
+        <v>0.200949</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.125051</v>
+        <v>0.12449</v>
       </c>
       <c r="C27" t="n">
-        <v>0.183275</v>
+        <v>0.184159</v>
       </c>
       <c r="D27" t="n">
-        <v>0.199037</v>
+        <v>0.20279</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122639</v>
+        <v>0.121742</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182828</v>
+        <v>0.182637</v>
       </c>
       <c r="D28" t="n">
-        <v>0.200579</v>
+        <v>0.197655</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.119203</v>
+        <v>0.118797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181587</v>
+        <v>0.181756</v>
       </c>
       <c r="D29" t="n">
-        <v>0.197326</v>
+        <v>0.197382</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116415</v>
+        <v>0.116669</v>
       </c>
       <c r="C30" t="n">
-        <v>0.180376</v>
+        <v>0.180455</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196348</v>
+        <v>0.197736</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113727</v>
+        <v>0.112777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.179582</v>
+        <v>0.179566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195094</v>
+        <v>0.196055</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.109924</v>
+        <v>0.109812</v>
       </c>
       <c r="C32" t="n">
-        <v>0.178564</v>
+        <v>0.178487</v>
       </c>
       <c r="D32" t="n">
-        <v>0.196904</v>
+        <v>0.195322</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106147</v>
+        <v>0.106265</v>
       </c>
       <c r="C33" t="n">
-        <v>0.177386</v>
+        <v>0.177439</v>
       </c>
       <c r="D33" t="n">
-        <v>0.195823</v>
+        <v>0.195473</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.101861</v>
+        <v>0.102013</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1768</v>
+        <v>0.176698</v>
       </c>
       <c r="D34" t="n">
-        <v>0.194407</v>
+        <v>0.194049</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0981316</v>
+        <v>0.0981291</v>
       </c>
       <c r="C35" t="n">
-        <v>0.175491</v>
+        <v>0.175568</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193681</v>
+        <v>0.192832</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0941394</v>
+        <v>0.0937332</v>
       </c>
       <c r="C36" t="n">
-        <v>0.174127</v>
+        <v>0.17409</v>
       </c>
       <c r="D36" t="n">
-        <v>0.191815</v>
+        <v>0.192078</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0898463</v>
+        <v>0.0901917</v>
       </c>
       <c r="C37" t="n">
-        <v>0.173055</v>
+        <v>0.173004</v>
       </c>
       <c r="D37" t="n">
-        <v>0.20841</v>
+        <v>0.209249</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152617</v>
+        <v>0.152721</v>
       </c>
       <c r="C38" t="n">
-        <v>0.189</v>
+        <v>0.1889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.209392</v>
+        <v>0.20797</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149118</v>
+        <v>0.149613</v>
       </c>
       <c r="C39" t="n">
-        <v>0.187545</v>
+        <v>0.18728</v>
       </c>
       <c r="D39" t="n">
-        <v>0.206315</v>
+        <v>0.207532</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146121</v>
+        <v>0.145764</v>
       </c>
       <c r="C40" t="n">
-        <v>0.186451</v>
+        <v>0.186585</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205799</v>
+        <v>0.205861</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142583</v>
+        <v>0.141733</v>
       </c>
       <c r="C41" t="n">
-        <v>0.184824</v>
+        <v>0.185042</v>
       </c>
       <c r="D41" t="n">
-        <v>0.204587</v>
+        <v>0.204771</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138512</v>
+        <v>0.138395</v>
       </c>
       <c r="C42" t="n">
-        <v>0.183547</v>
+        <v>0.18392</v>
       </c>
       <c r="D42" t="n">
-        <v>0.202777</v>
+        <v>0.203423</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134171</v>
+        <v>0.134331</v>
       </c>
       <c r="C43" t="n">
-        <v>0.182534</v>
+        <v>0.182938</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201441</v>
+        <v>0.202122</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.13</v>
+        <v>0.130004</v>
       </c>
       <c r="C44" t="n">
-        <v>0.182011</v>
+        <v>0.181939</v>
       </c>
       <c r="D44" t="n">
-        <v>0.200952</v>
+        <v>0.201335</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125739</v>
+        <v>0.125604</v>
       </c>
       <c r="C45" t="n">
-        <v>0.18073</v>
+        <v>0.180646</v>
       </c>
       <c r="D45" t="n">
-        <v>0.20023</v>
+        <v>0.200548</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121054</v>
+        <v>0.121209</v>
       </c>
       <c r="C46" t="n">
-        <v>0.179697</v>
+        <v>0.179603</v>
       </c>
       <c r="D46" t="n">
-        <v>0.198871</v>
+        <v>0.199058</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116663</v>
+        <v>0.11653</v>
       </c>
       <c r="C47" t="n">
-        <v>0.178714</v>
+        <v>0.178793</v>
       </c>
       <c r="D47" t="n">
-        <v>0.198004</v>
+        <v>0.198098</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111835</v>
+        <v>0.111391</v>
       </c>
       <c r="C48" t="n">
-        <v>0.177458</v>
+        <v>0.177491</v>
       </c>
       <c r="D48" t="n">
-        <v>0.197024</v>
+        <v>0.197252</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106687</v>
+        <v>0.106351</v>
       </c>
       <c r="C49" t="n">
-        <v>0.176222</v>
+        <v>0.176175</v>
       </c>
       <c r="D49" t="n">
-        <v>0.196174</v>
+        <v>0.196127</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10156</v>
+        <v>0.101488</v>
       </c>
       <c r="C50" t="n">
-        <v>0.175251</v>
+        <v>0.175238</v>
       </c>
       <c r="D50" t="n">
-        <v>0.195419</v>
+        <v>0.195715</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0968373</v>
+        <v>0.0968758</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174259</v>
+        <v>0.174176</v>
       </c>
       <c r="D51" t="n">
-        <v>0.213044</v>
+        <v>0.212997</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0921066</v>
+        <v>0.09218170000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172943</v>
+        <v>0.17295</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211652</v>
+        <v>0.211645</v>
       </c>
     </row>
     <row r="53">
@@ -3963,10 +3963,10 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15618</v>
+        <v>0.1561</v>
       </c>
       <c r="C53" t="n">
-        <v>0.189158</v>
+        <v>0.189006</v>
       </c>
       <c r="D53" t="n">
         <v>0.210163</v>
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152451</v>
+        <v>0.152261</v>
       </c>
       <c r="C54" t="n">
-        <v>0.187905</v>
+        <v>0.18751</v>
       </c>
       <c r="D54" t="n">
-        <v>0.208549</v>
+        <v>0.208184</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148392</v>
+        <v>0.148174</v>
       </c>
       <c r="C55" t="n">
-        <v>0.186629</v>
+        <v>0.186378</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207518</v>
+        <v>0.207098</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.143916</v>
+        <v>0.143744</v>
       </c>
       <c r="C56" t="n">
-        <v>0.185213</v>
+        <v>0.184822</v>
       </c>
       <c r="D56" t="n">
-        <v>0.205892</v>
+        <v>0.205578</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139586</v>
+        <v>0.138981</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183992</v>
+        <v>0.183664</v>
       </c>
       <c r="D57" t="n">
-        <v>0.204737</v>
+        <v>0.204389</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134779</v>
+        <v>0.134515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.182815</v>
+        <v>0.182611</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20362</v>
+        <v>0.203197</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130035</v>
+        <v>0.12993</v>
       </c>
       <c r="C59" t="n">
-        <v>0.181765</v>
+        <v>0.181493</v>
       </c>
       <c r="D59" t="n">
-        <v>0.202518</v>
+        <v>0.202247</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125449</v>
+        <v>0.125399</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180796</v>
+        <v>0.180711</v>
       </c>
       <c r="D60" t="n">
-        <v>0.201438</v>
+        <v>0.201447</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120527</v>
+        <v>0.120455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.179667</v>
+        <v>0.17963</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20048</v>
+        <v>0.200475</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115652</v>
+        <v>0.115588</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178353</v>
+        <v>0.178402</v>
       </c>
       <c r="D62" t="n">
-        <v>0.199483</v>
+        <v>0.199582</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110829</v>
+        <v>0.110693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.177044</v>
+        <v>0.177062</v>
       </c>
       <c r="D63" t="n">
-        <v>0.198733</v>
+        <v>0.198677</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106102</v>
+        <v>0.106029</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175919</v>
+        <v>0.175857</v>
       </c>
       <c r="D64" t="n">
-        <v>0.198065</v>
+        <v>0.198142</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.100825</v>
+        <v>0.101029</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174857</v>
+        <v>0.17473</v>
       </c>
       <c r="D65" t="n">
-        <v>0.197422</v>
+        <v>0.197392</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0959763</v>
+        <v>0.0960414</v>
       </c>
       <c r="C66" t="n">
-        <v>0.173615</v>
+        <v>0.173569</v>
       </c>
       <c r="D66" t="n">
-        <v>0.212714</v>
+        <v>0.212568</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159879</v>
+        <v>0.15998</v>
       </c>
       <c r="C67" t="n">
-        <v>0.190067</v>
+        <v>0.190022</v>
       </c>
       <c r="D67" t="n">
-        <v>0.21111</v>
+        <v>0.211287</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156109</v>
+        <v>0.156124</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188717</v>
+        <v>0.188676</v>
       </c>
       <c r="D68" t="n">
-        <v>0.209846</v>
+        <v>0.20987</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151328</v>
+        <v>0.151327</v>
       </c>
       <c r="C69" t="n">
-        <v>0.187182</v>
+        <v>0.187153</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208131</v>
+        <v>0.208183</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.146794</v>
+        <v>0.146954</v>
       </c>
       <c r="C70" t="n">
-        <v>0.185812</v>
+        <v>0.185824</v>
       </c>
       <c r="D70" t="n">
-        <v>0.206944</v>
+        <v>0.206924</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142175</v>
+        <v>0.142355</v>
       </c>
       <c r="C71" t="n">
-        <v>0.184505</v>
+        <v>0.184465</v>
       </c>
       <c r="D71" t="n">
-        <v>0.205332</v>
+        <v>0.205559</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137227</v>
+        <v>0.137216</v>
       </c>
       <c r="C72" t="n">
-        <v>0.183187</v>
+        <v>0.183209</v>
       </c>
       <c r="D72" t="n">
-        <v>0.204318</v>
+        <v>0.204256</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.13219</v>
+        <v>0.132263</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181913</v>
+        <v>0.182059</v>
       </c>
       <c r="D73" t="n">
-        <v>0.20295</v>
+        <v>0.202962</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127338</v>
+        <v>0.127387</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180793</v>
+        <v>0.180721</v>
       </c>
       <c r="D74" t="n">
-        <v>0.201887</v>
+        <v>0.202079</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122323</v>
+        <v>0.122433</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179473</v>
+        <v>0.179582</v>
       </c>
       <c r="D75" t="n">
-        <v>0.200876</v>
+        <v>0.201056</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117592</v>
+        <v>0.117606</v>
       </c>
       <c r="C76" t="n">
-        <v>0.178427</v>
+        <v>0.178418</v>
       </c>
       <c r="D76" t="n">
-        <v>0.200067</v>
+        <v>0.200003</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112699</v>
+        <v>0.112744</v>
       </c>
       <c r="C77" t="n">
-        <v>0.177294</v>
+        <v>0.17731</v>
       </c>
       <c r="D77" t="n">
-        <v>0.199136</v>
+        <v>0.199248</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107837</v>
+        <v>0.107851</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176218</v>
+        <v>0.176274</v>
       </c>
       <c r="D78" t="n">
-        <v>0.198437</v>
+        <v>0.198499</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.102908</v>
+        <v>0.102986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175087</v>
+        <v>0.175115</v>
       </c>
       <c r="D79" t="n">
-        <v>0.197806</v>
+        <v>0.197811</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0980543</v>
+        <v>0.0980664</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173887</v>
+        <v>0.173898</v>
       </c>
       <c r="D80" t="n">
-        <v>0.213314</v>
+        <v>0.21326</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161867</v>
+        <v>0.162286</v>
       </c>
       <c r="C81" t="n">
-        <v>0.19062</v>
+        <v>0.190666</v>
       </c>
       <c r="D81" t="n">
-        <v>0.211791</v>
+        <v>0.211831</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158232</v>
+        <v>0.158405</v>
       </c>
       <c r="C82" t="n">
-        <v>0.189154</v>
+        <v>0.189305</v>
       </c>
       <c r="D82" t="n">
-        <v>0.210347</v>
+        <v>0.210321</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153957</v>
+        <v>0.154188</v>
       </c>
       <c r="C83" t="n">
-        <v>0.187798</v>
+        <v>0.187777</v>
       </c>
       <c r="D83" t="n">
-        <v>0.208843</v>
+        <v>0.208894</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149474</v>
+        <v>0.149697</v>
       </c>
       <c r="C84" t="n">
-        <v>0.18638</v>
+        <v>0.186437</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207527</v>
+        <v>0.207455</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144624</v>
+        <v>0.144673</v>
       </c>
       <c r="C85" t="n">
-        <v>0.185047</v>
+        <v>0.18513</v>
       </c>
       <c r="D85" t="n">
-        <v>0.206181</v>
+        <v>0.206204</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139725</v>
+        <v>0.139659</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183848</v>
+        <v>0.183831</v>
       </c>
       <c r="D86" t="n">
-        <v>0.205045</v>
+        <v>0.2049</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134687</v>
+        <v>0.134536</v>
       </c>
       <c r="C87" t="n">
-        <v>0.182593</v>
+        <v>0.182596</v>
       </c>
       <c r="D87" t="n">
-        <v>0.203872</v>
+        <v>0.203897</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129565</v>
+        <v>0.129391</v>
       </c>
       <c r="C88" t="n">
-        <v>0.18126</v>
+        <v>0.181359</v>
       </c>
       <c r="D88" t="n">
-        <v>0.202752</v>
+        <v>0.202718</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124585</v>
+        <v>0.124354</v>
       </c>
       <c r="C89" t="n">
-        <v>0.180074</v>
+        <v>0.180083</v>
       </c>
       <c r="D89" t="n">
-        <v>0.201564</v>
+        <v>0.201474</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119663</v>
+        <v>0.119449</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178924</v>
+        <v>0.178887</v>
       </c>
       <c r="D90" t="n">
-        <v>0.200437</v>
+        <v>0.200446</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114582</v>
+        <v>0.114405</v>
       </c>
       <c r="C91" t="n">
-        <v>0.177649</v>
+        <v>0.17769</v>
       </c>
       <c r="D91" t="n">
-        <v>0.199391</v>
+        <v>0.199464</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109652</v>
+        <v>0.109426</v>
       </c>
       <c r="C92" t="n">
-        <v>0.176503</v>
+        <v>0.176505</v>
       </c>
       <c r="D92" t="n">
-        <v>0.198541</v>
+        <v>0.1985</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104683</v>
+        <v>0.104442</v>
       </c>
       <c r="C93" t="n">
-        <v>0.17534</v>
+        <v>0.175411</v>
       </c>
       <c r="D93" t="n">
-        <v>0.197754</v>
+        <v>0.197831</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0997309</v>
+        <v>0.09948709999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.174115</v>
+        <v>0.174125</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213318</v>
+        <v>0.213288</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.16201</v>
+        <v>0.16199</v>
       </c>
       <c r="C95" t="n">
-        <v>0.19068</v>
+        <v>0.190821</v>
       </c>
       <c r="D95" t="n">
-        <v>0.211613</v>
+        <v>0.211894</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158015</v>
+        <v>0.158409</v>
       </c>
       <c r="C96" t="n">
-        <v>0.188972</v>
+        <v>0.189158</v>
       </c>
       <c r="D96" t="n">
-        <v>0.210078</v>
+        <v>0.21028</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153909</v>
+        <v>0.154162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.187544</v>
+        <v>0.187836</v>
       </c>
       <c r="D97" t="n">
-        <v>0.208605</v>
+        <v>0.208807</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149401</v>
+        <v>0.149294</v>
       </c>
       <c r="C98" t="n">
-        <v>0.186061</v>
+        <v>0.186324</v>
       </c>
       <c r="D98" t="n">
-        <v>0.207139</v>
+        <v>0.207493</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144824</v>
+        <v>0.144434</v>
       </c>
       <c r="C99" t="n">
-        <v>0.184744</v>
+        <v>0.185016</v>
       </c>
       <c r="D99" t="n">
-        <v>0.205899</v>
+        <v>0.206102</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139746</v>
+        <v>0.13981</v>
       </c>
       <c r="C100" t="n">
-        <v>0.183441</v>
+        <v>0.183661</v>
       </c>
       <c r="D100" t="n">
-        <v>0.204775</v>
+        <v>0.204698</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134854</v>
+        <v>0.134906</v>
       </c>
       <c r="C101" t="n">
-        <v>0.182297</v>
+        <v>0.182393</v>
       </c>
       <c r="D101" t="n">
-        <v>0.203559</v>
+        <v>0.203604</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129724</v>
+        <v>0.129851</v>
       </c>
       <c r="C102" t="n">
-        <v>0.181153</v>
+        <v>0.181152</v>
       </c>
       <c r="D102" t="n">
-        <v>0.202479</v>
+        <v>0.202449</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124865</v>
+        <v>0.124785</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179939</v>
+        <v>0.179951</v>
       </c>
       <c r="D103" t="n">
-        <v>0.201262</v>
+        <v>0.201244</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119857</v>
+        <v>0.119868</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178718</v>
+        <v>0.178741</v>
       </c>
       <c r="D104" t="n">
-        <v>0.200177</v>
+        <v>0.20022</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114879</v>
+        <v>0.114862</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177677</v>
+        <v>0.177638</v>
       </c>
       <c r="D105" t="n">
-        <v>0.199277</v>
+        <v>0.199345</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110009</v>
+        <v>0.109985</v>
       </c>
       <c r="C106" t="n">
-        <v>0.176558</v>
+        <v>0.176656</v>
       </c>
       <c r="D106" t="n">
-        <v>0.198427</v>
+        <v>0.198493</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105086</v>
+        <v>0.105071</v>
       </c>
       <c r="C107" t="n">
-        <v>0.175388</v>
+        <v>0.175397</v>
       </c>
       <c r="D107" t="n">
-        <v>0.197599</v>
+        <v>0.197547</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100213</v>
+        <v>0.100166</v>
       </c>
       <c r="C108" t="n">
-        <v>0.174214</v>
+        <v>0.174101</v>
       </c>
       <c r="D108" t="n">
-        <v>0.21375</v>
+        <v>0.213551</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0952798</v>
+        <v>0.0951766</v>
       </c>
       <c r="C109" t="n">
-        <v>0.173044</v>
+        <v>0.172921</v>
       </c>
       <c r="D109" t="n">
-        <v>0.212011</v>
+        <v>0.212031</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159219</v>
+        <v>0.159157</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189424</v>
+        <v>0.189429</v>
       </c>
       <c r="D110" t="n">
-        <v>0.210604</v>
+        <v>0.210614</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.154913</v>
+        <v>0.154965</v>
       </c>
       <c r="C111" t="n">
-        <v>0.188012</v>
+        <v>0.187951</v>
       </c>
       <c r="D111" t="n">
-        <v>0.209143</v>
+        <v>0.209218</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150303</v>
+        <v>0.150377</v>
       </c>
       <c r="C112" t="n">
-        <v>0.186543</v>
+        <v>0.186486</v>
       </c>
       <c r="D112" t="n">
-        <v>0.207682</v>
+        <v>0.207778</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14552</v>
+        <v>0.145666</v>
       </c>
       <c r="C113" t="n">
-        <v>0.185136</v>
+        <v>0.185146</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206357</v>
+        <v>0.206327</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140722</v>
+        <v>0.140571</v>
       </c>
       <c r="C114" t="n">
-        <v>0.183906</v>
+        <v>0.183873</v>
       </c>
       <c r="D114" t="n">
-        <v>0.205013</v>
+        <v>0.205056</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135928</v>
+        <v>0.135834</v>
       </c>
       <c r="C115" t="n">
-        <v>0.182617</v>
+        <v>0.182576</v>
       </c>
       <c r="D115" t="n">
-        <v>0.203874</v>
+        <v>0.203857</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130815</v>
+        <v>0.130959</v>
       </c>
       <c r="C116" t="n">
-        <v>0.181487</v>
+        <v>0.181475</v>
       </c>
       <c r="D116" t="n">
-        <v>0.202687</v>
+        <v>0.202709</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125981</v>
+        <v>0.125911</v>
       </c>
       <c r="C117" t="n">
-        <v>0.180269</v>
+        <v>0.180334</v>
       </c>
       <c r="D117" t="n">
-        <v>0.201657</v>
+        <v>0.201622</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120892</v>
+        <v>0.12084</v>
       </c>
       <c r="C118" t="n">
-        <v>0.179059</v>
+        <v>0.179006</v>
       </c>
       <c r="D118" t="n">
-        <v>0.200579</v>
+        <v>0.200461</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115951</v>
+        <v>0.115931</v>
       </c>
       <c r="C119" t="n">
-        <v>0.177916</v>
+        <v>0.177851</v>
       </c>
       <c r="D119" t="n">
-        <v>0.199515</v>
+        <v>0.199493</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111034</v>
+        <v>0.11106</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176683</v>
+        <v>0.176694</v>
       </c>
       <c r="D120" t="n">
-        <v>0.19854</v>
+        <v>0.198488</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106155</v>
+        <v>0.106129</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175587</v>
+        <v>0.175576</v>
       </c>
       <c r="D121" t="n">
-        <v>0.197639</v>
+        <v>0.197696</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101291</v>
+        <v>0.101287</v>
       </c>
       <c r="C122" t="n">
-        <v>0.174398</v>
+        <v>0.174428</v>
       </c>
       <c r="D122" t="n">
-        <v>0.196848</v>
+        <v>0.196799</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09636</v>
+        <v>0.09632449999999999</v>
       </c>
       <c r="C123" t="n">
         <v>0.173147</v>
       </c>
       <c r="D123" t="n">
-        <v>0.212394</v>
+        <v>0.212513</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.159923</v>
+        <v>0.160078</v>
       </c>
       <c r="C124" t="n">
-        <v>0.189617</v>
+        <v>0.189701</v>
       </c>
       <c r="D124" t="n">
-        <v>0.210881</v>
+        <v>0.21082</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155862</v>
+        <v>0.155835</v>
       </c>
       <c r="C125" t="n">
-        <v>0.188232</v>
+        <v>0.188177</v>
       </c>
       <c r="D125" t="n">
-        <v>0.209357</v>
+        <v>0.209237</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151554</v>
+        <v>0.151527</v>
       </c>
       <c r="C126" t="n">
-        <v>0.186755</v>
+        <v>0.186742</v>
       </c>
       <c r="D126" t="n">
-        <v>0.207814</v>
+        <v>0.207897</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146872</v>
+        <v>0.146628</v>
       </c>
       <c r="C127" t="n">
-        <v>0.185362</v>
+        <v>0.185378</v>
       </c>
       <c r="D127" t="n">
-        <v>0.206422</v>
+        <v>0.206492</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141634</v>
+        <v>0.141653</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183961</v>
+        <v>0.18401</v>
       </c>
       <c r="D128" t="n">
-        <v>0.205238</v>
+        <v>0.205168</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136746</v>
+        <v>0.136686</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182785</v>
+        <v>0.182727</v>
       </c>
       <c r="D129" t="n">
-        <v>0.203928</v>
+        <v>0.203898</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131773</v>
+        <v>0.131686</v>
       </c>
       <c r="C130" t="n">
-        <v>0.181499</v>
+        <v>0.181502</v>
       </c>
       <c r="D130" t="n">
-        <v>0.202762</v>
+        <v>0.202777</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126822</v>
+        <v>0.126669</v>
       </c>
       <c r="C131" t="n">
-        <v>0.180362</v>
+        <v>0.180373</v>
       </c>
       <c r="D131" t="n">
-        <v>0.201591</v>
+        <v>0.201707</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121805</v>
+        <v>0.121769</v>
       </c>
       <c r="C132" t="n">
-        <v>0.179231</v>
+        <v>0.179188</v>
       </c>
       <c r="D132" t="n">
-        <v>0.200581</v>
+        <v>0.200533</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.116873</v>
+        <v>0.116775</v>
       </c>
       <c r="C133" t="n">
-        <v>0.178048</v>
+        <v>0.178016</v>
       </c>
       <c r="D133" t="n">
-        <v>0.199562</v>
+        <v>0.199543</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112049</v>
+        <v>0.111923</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176882</v>
+        <v>0.176852</v>
       </c>
       <c r="D134" t="n">
-        <v>0.198596</v>
+        <v>0.19858</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107075</v>
+        <v>0.107119</v>
       </c>
       <c r="C135" t="n">
-        <v>0.175754</v>
+        <v>0.17568</v>
       </c>
       <c r="D135" t="n">
-        <v>0.197672</v>
+        <v>0.197685</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1022</v>
+        <v>0.102233</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174588</v>
+        <v>0.174587</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1968</v>
+        <v>0.196831</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0973609</v>
+        <v>0.09740020000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.173433</v>
+        <v>0.17341</v>
       </c>
       <c r="D137" t="n">
-        <v>0.212672</v>
+        <v>0.212829</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.160765</v>
+        <v>0.165567</v>
       </c>
       <c r="C138" t="n">
-        <v>0.189932</v>
+        <v>0.190053</v>
       </c>
       <c r="D138" t="n">
-        <v>0.211142</v>
+        <v>0.211137</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157514</v>
+        <v>0.159031</v>
       </c>
       <c r="C139" t="n">
-        <v>0.188469</v>
+        <v>0.188524</v>
       </c>
       <c r="D139" t="n">
-        <v>0.209616</v>
+        <v>0.209566</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.153064</v>
+        <v>0.154937</v>
       </c>
       <c r="C140" t="n">
-        <v>0.187052</v>
+        <v>0.187081</v>
       </c>
       <c r="D140" t="n">
-        <v>0.208219</v>
+        <v>0.208236</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.148462</v>
+        <v>0.14994</v>
       </c>
       <c r="C141" t="n">
-        <v>0.185646</v>
+        <v>0.185645</v>
       </c>
       <c r="D141" t="n">
-        <v>0.206834</v>
+        <v>0.206785</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143997</v>
+        <v>0.144779</v>
       </c>
       <c r="C142" t="n">
-        <v>0.184294</v>
+        <v>0.184348</v>
       </c>
       <c r="D142" t="n">
-        <v>0.205483</v>
+        <v>0.205525</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.139056</v>
+        <v>0.139957</v>
       </c>
       <c r="C143" t="n">
-        <v>0.183006</v>
+        <v>0.183073</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2041</v>
+        <v>0.204329</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.064011</v>
+        <v>0.064272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.171376</v>
+        <v>0.161235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185385</v>
+        <v>0.156274</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06376510000000001</v>
+        <v>0.0638452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.171087</v>
+        <v>0.161112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185933</v>
+        <v>0.157652</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0635204</v>
+        <v>0.06358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.171588</v>
+        <v>0.161776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186094</v>
+        <v>0.158894</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0642307</v>
+        <v>0.0643557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.170019</v>
+        <v>0.161448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185419</v>
+        <v>0.158531</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.064508</v>
+        <v>0.06425690000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.171518</v>
+        <v>0.160866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.185935</v>
+        <v>0.158034</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06529500000000001</v>
+        <v>0.06480030000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.169725</v>
+        <v>0.161379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186041</v>
+        <v>0.157962</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0656925</v>
+        <v>0.065327</v>
       </c>
       <c r="C8" t="n">
-        <v>0.168404</v>
+        <v>0.161053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.186157</v>
+        <v>0.158592</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0666273</v>
+        <v>0.0661539</v>
       </c>
       <c r="C9" t="n">
-        <v>0.167778</v>
+        <v>0.160776</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191342</v>
+        <v>0.164645</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0908283</v>
+        <v>0.08973059999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182896</v>
+        <v>0.172242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19089</v>
+        <v>0.164473</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0907302</v>
+        <v>0.09066490000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182284</v>
+        <v>0.17302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.190755</v>
+        <v>0.164916</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.090725</v>
+        <v>0.0909683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.181323</v>
+        <v>0.172534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.190863</v>
+        <v>0.166192</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.090043</v>
+        <v>0.0912969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.180348</v>
+        <v>0.172564</v>
       </c>
       <c r="D13" t="n">
-        <v>0.190545</v>
+        <v>0.166201</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08977209999999999</v>
+        <v>0.0902929</v>
       </c>
       <c r="C14" t="n">
-        <v>0.179048</v>
+        <v>0.171721</v>
       </c>
       <c r="D14" t="n">
-        <v>0.190871</v>
+        <v>0.168435</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0892546</v>
+        <v>0.08979910000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.17817</v>
+        <v>0.171552</v>
       </c>
       <c r="D15" t="n">
-        <v>0.190592</v>
+        <v>0.167072</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0876326</v>
+        <v>0.08806020000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.177564</v>
+        <v>0.171275</v>
       </c>
       <c r="D16" t="n">
-        <v>0.190327</v>
+        <v>0.165247</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0856087</v>
+        <v>0.08651250000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.176997</v>
+        <v>0.170337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.190037</v>
+        <v>0.165635</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0850178</v>
+        <v>0.0857755</v>
       </c>
       <c r="C18" t="n">
-        <v>0.176241</v>
+        <v>0.169701</v>
       </c>
       <c r="D18" t="n">
-        <v>0.189895</v>
+        <v>0.165387</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0831939</v>
+        <v>0.08424429999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.175323</v>
+        <v>0.168721</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189955</v>
+        <v>0.165325</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0841935</v>
+        <v>0.08475050000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.175471</v>
+        <v>0.169492</v>
       </c>
       <c r="D20" t="n">
-        <v>0.191736</v>
+        <v>0.167798</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0838911</v>
+        <v>0.0841742</v>
       </c>
       <c r="C21" t="n">
-        <v>0.174576</v>
+        <v>0.168251</v>
       </c>
       <c r="D21" t="n">
-        <v>0.191177</v>
+        <v>0.165553</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08225590000000001</v>
+        <v>0.081737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.173677</v>
+        <v>0.167293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.18972</v>
+        <v>0.167084</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0812826</v>
+        <v>0.07940510000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.172691</v>
+        <v>0.164721</v>
       </c>
       <c r="D23" t="n">
-        <v>0.202471</v>
+        <v>0.18055</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131101</v>
+        <v>0.131377</v>
       </c>
       <c r="C24" t="n">
-        <v>0.187742</v>
+        <v>0.18051</v>
       </c>
       <c r="D24" t="n">
-        <v>0.205614</v>
+        <v>0.177283</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129978</v>
+        <v>0.129387</v>
       </c>
       <c r="C25" t="n">
-        <v>0.185975</v>
+        <v>0.179203</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204427</v>
+        <v>0.177149</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127454</v>
+        <v>0.128122</v>
       </c>
       <c r="C26" t="n">
-        <v>0.184602</v>
+        <v>0.177606</v>
       </c>
       <c r="D26" t="n">
-        <v>0.200949</v>
+        <v>0.176211</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.12449</v>
+        <v>0.12708</v>
       </c>
       <c r="C27" t="n">
-        <v>0.184159</v>
+        <v>0.177764</v>
       </c>
       <c r="D27" t="n">
-        <v>0.20279</v>
+        <v>0.175931</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121742</v>
+        <v>0.123447</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182637</v>
+        <v>0.177481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.197655</v>
+        <v>0.17719</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118797</v>
+        <v>0.120656</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181756</v>
+        <v>0.175935</v>
       </c>
       <c r="D29" t="n">
-        <v>0.197382</v>
+        <v>0.174098</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116669</v>
+        <v>0.117465</v>
       </c>
       <c r="C30" t="n">
-        <v>0.180455</v>
+        <v>0.174259</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197736</v>
+        <v>0.173431</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112777</v>
+        <v>0.11378</v>
       </c>
       <c r="C31" t="n">
-        <v>0.179566</v>
+        <v>0.17316</v>
       </c>
       <c r="D31" t="n">
-        <v>0.196055</v>
+        <v>0.172713</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.109812</v>
+        <v>0.111638</v>
       </c>
       <c r="C32" t="n">
-        <v>0.178487</v>
+        <v>0.172711</v>
       </c>
       <c r="D32" t="n">
-        <v>0.195322</v>
+        <v>0.173929</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106265</v>
+        <v>0.106257</v>
       </c>
       <c r="C33" t="n">
-        <v>0.177439</v>
+        <v>0.172353</v>
       </c>
       <c r="D33" t="n">
-        <v>0.195473</v>
+        <v>0.17099</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102013</v>
+        <v>0.102047</v>
       </c>
       <c r="C34" t="n">
-        <v>0.176698</v>
+        <v>0.170852</v>
       </c>
       <c r="D34" t="n">
-        <v>0.194049</v>
+        <v>0.169945</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0981291</v>
+        <v>0.09863860000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.175568</v>
+        <v>0.169426</v>
       </c>
       <c r="D35" t="n">
-        <v>0.192832</v>
+        <v>0.169805</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937332</v>
+        <v>0.09383859999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.17409</v>
+        <v>0.168505</v>
       </c>
       <c r="D36" t="n">
-        <v>0.192078</v>
+        <v>0.168689</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0901917</v>
+        <v>0.0901066</v>
       </c>
       <c r="C37" t="n">
-        <v>0.173004</v>
+        <v>0.167007</v>
       </c>
       <c r="D37" t="n">
-        <v>0.209249</v>
+        <v>0.183729</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152721</v>
+        <v>0.151072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1889</v>
+        <v>0.183106</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20797</v>
+        <v>0.183106</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149613</v>
+        <v>0.148593</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18728</v>
+        <v>0.181523</v>
       </c>
       <c r="D39" t="n">
-        <v>0.207532</v>
+        <v>0.182048</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145764</v>
+        <v>0.145172</v>
       </c>
       <c r="C40" t="n">
-        <v>0.186585</v>
+        <v>0.180455</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205861</v>
+        <v>0.180121</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.141733</v>
+        <v>0.141261</v>
       </c>
       <c r="C41" t="n">
-        <v>0.185042</v>
+        <v>0.179157</v>
       </c>
       <c r="D41" t="n">
-        <v>0.204771</v>
+        <v>0.178969</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138395</v>
+        <v>0.137258</v>
       </c>
       <c r="C42" t="n">
-        <v>0.18392</v>
+        <v>0.177641</v>
       </c>
       <c r="D42" t="n">
-        <v>0.203423</v>
+        <v>0.177628</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134331</v>
+        <v>0.133377</v>
       </c>
       <c r="C43" t="n">
-        <v>0.182938</v>
+        <v>0.176425</v>
       </c>
       <c r="D43" t="n">
-        <v>0.202122</v>
+        <v>0.177356</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130004</v>
+        <v>0.129627</v>
       </c>
       <c r="C44" t="n">
-        <v>0.181939</v>
+        <v>0.175678</v>
       </c>
       <c r="D44" t="n">
-        <v>0.201335</v>
+        <v>0.176135</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125604</v>
+        <v>0.125381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.180646</v>
+        <v>0.174612</v>
       </c>
       <c r="D45" t="n">
-        <v>0.200548</v>
+        <v>0.175337</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121209</v>
+        <v>0.120902</v>
       </c>
       <c r="C46" t="n">
-        <v>0.179603</v>
+        <v>0.173413</v>
       </c>
       <c r="D46" t="n">
-        <v>0.199058</v>
+        <v>0.174073</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11653</v>
+        <v>0.116189</v>
       </c>
       <c r="C47" t="n">
-        <v>0.178793</v>
+        <v>0.172204</v>
       </c>
       <c r="D47" t="n">
-        <v>0.198098</v>
+        <v>0.172396</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111391</v>
+        <v>0.11184</v>
       </c>
       <c r="C48" t="n">
-        <v>0.177491</v>
+        <v>0.171361</v>
       </c>
       <c r="D48" t="n">
-        <v>0.197252</v>
+        <v>0.171438</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106351</v>
+        <v>0.10706</v>
       </c>
       <c r="C49" t="n">
-        <v>0.176175</v>
+        <v>0.170341</v>
       </c>
       <c r="D49" t="n">
-        <v>0.196127</v>
+        <v>0.170744</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.101488</v>
+        <v>0.101894</v>
       </c>
       <c r="C50" t="n">
-        <v>0.175238</v>
+        <v>0.169108</v>
       </c>
       <c r="D50" t="n">
-        <v>0.195715</v>
+        <v>0.168999</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0968758</v>
+        <v>0.0969088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174176</v>
+        <v>0.168218</v>
       </c>
       <c r="D51" t="n">
-        <v>0.212997</v>
+        <v>0.186673</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09218170000000001</v>
+        <v>0.0921869</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17295</v>
+        <v>0.167381</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211645</v>
+        <v>0.185266</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1561</v>
+        <v>0.156135</v>
       </c>
       <c r="C53" t="n">
-        <v>0.189006</v>
+        <v>0.183283</v>
       </c>
       <c r="D53" t="n">
-        <v>0.210163</v>
+        <v>0.183972</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152261</v>
+        <v>0.1523</v>
       </c>
       <c r="C54" t="n">
-        <v>0.18751</v>
+        <v>0.181793</v>
       </c>
       <c r="D54" t="n">
-        <v>0.208184</v>
+        <v>0.18278</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148174</v>
+        <v>0.148799</v>
       </c>
       <c r="C55" t="n">
-        <v>0.186378</v>
+        <v>0.180664</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207098</v>
+        <v>0.18143</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.143744</v>
+        <v>0.144363</v>
       </c>
       <c r="C56" t="n">
-        <v>0.184822</v>
+        <v>0.179353</v>
       </c>
       <c r="D56" t="n">
-        <v>0.205578</v>
+        <v>0.180028</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.138981</v>
+        <v>0.139714</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183664</v>
+        <v>0.178116</v>
       </c>
       <c r="D57" t="n">
-        <v>0.204389</v>
+        <v>0.178905</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134515</v>
+        <v>0.134364</v>
       </c>
       <c r="C58" t="n">
-        <v>0.182611</v>
+        <v>0.176741</v>
       </c>
       <c r="D58" t="n">
-        <v>0.203197</v>
+        <v>0.177655</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.12993</v>
+        <v>0.130055</v>
       </c>
       <c r="C59" t="n">
-        <v>0.181493</v>
+        <v>0.175672</v>
       </c>
       <c r="D59" t="n">
-        <v>0.202247</v>
+        <v>0.176302</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125399</v>
+        <v>0.125175</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180711</v>
+        <v>0.174491</v>
       </c>
       <c r="D60" t="n">
-        <v>0.201447</v>
+        <v>0.175311</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120455</v>
+        <v>0.120263</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17963</v>
+        <v>0.173397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.200475</v>
+        <v>0.174095</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115588</v>
+        <v>0.115377</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178402</v>
+        <v>0.172562</v>
       </c>
       <c r="D62" t="n">
-        <v>0.199582</v>
+        <v>0.172912</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110693</v>
+        <v>0.110655</v>
       </c>
       <c r="C63" t="n">
-        <v>0.177062</v>
+        <v>0.171462</v>
       </c>
       <c r="D63" t="n">
-        <v>0.198677</v>
+        <v>0.171795</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106029</v>
+        <v>0.106031</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175857</v>
+        <v>0.170557</v>
       </c>
       <c r="D64" t="n">
-        <v>0.198142</v>
+        <v>0.170914</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101029</v>
+        <v>0.101211</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17473</v>
+        <v>0.169549</v>
       </c>
       <c r="D65" t="n">
-        <v>0.197392</v>
+        <v>0.169509</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0960414</v>
+        <v>0.0964555</v>
       </c>
       <c r="C66" t="n">
-        <v>0.173569</v>
+        <v>0.1684</v>
       </c>
       <c r="D66" t="n">
-        <v>0.212568</v>
+        <v>0.186897</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.15998</v>
+        <v>0.159611</v>
       </c>
       <c r="C67" t="n">
-        <v>0.190022</v>
+        <v>0.183907</v>
       </c>
       <c r="D67" t="n">
-        <v>0.211287</v>
+        <v>0.184968</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156124</v>
+        <v>0.155712</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188676</v>
+        <v>0.182543</v>
       </c>
       <c r="D68" t="n">
-        <v>0.20987</v>
+        <v>0.183496</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151327</v>
+        <v>0.151305</v>
       </c>
       <c r="C69" t="n">
-        <v>0.187153</v>
+        <v>0.181166</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208183</v>
+        <v>0.18226</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.146954</v>
+        <v>0.146831</v>
       </c>
       <c r="C70" t="n">
-        <v>0.185824</v>
+        <v>0.179734</v>
       </c>
       <c r="D70" t="n">
-        <v>0.206924</v>
+        <v>0.18073</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142355</v>
+        <v>0.141996</v>
       </c>
       <c r="C71" t="n">
-        <v>0.184465</v>
+        <v>0.178653</v>
       </c>
       <c r="D71" t="n">
-        <v>0.205559</v>
+        <v>0.179631</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137216</v>
+        <v>0.137331</v>
       </c>
       <c r="C72" t="n">
-        <v>0.183209</v>
+        <v>0.177533</v>
       </c>
       <c r="D72" t="n">
-        <v>0.204256</v>
+        <v>0.178416</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132263</v>
+        <v>0.132432</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182059</v>
+        <v>0.176433</v>
       </c>
       <c r="D73" t="n">
-        <v>0.202962</v>
+        <v>0.177299</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127387</v>
+        <v>0.127396</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180721</v>
+        <v>0.175285</v>
       </c>
       <c r="D74" t="n">
-        <v>0.202079</v>
+        <v>0.176018</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122433</v>
+        <v>0.122665</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179582</v>
+        <v>0.174216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.201056</v>
+        <v>0.174914</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117606</v>
+        <v>0.11774</v>
       </c>
       <c r="C76" t="n">
-        <v>0.178418</v>
+        <v>0.173055</v>
       </c>
       <c r="D76" t="n">
-        <v>0.200003</v>
+        <v>0.173676</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112744</v>
+        <v>0.112653</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17731</v>
+        <v>0.171889</v>
       </c>
       <c r="D77" t="n">
-        <v>0.199248</v>
+        <v>0.172356</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107851</v>
+        <v>0.107632</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176274</v>
+        <v>0.170769</v>
       </c>
       <c r="D78" t="n">
-        <v>0.198499</v>
+        <v>0.171153</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.102986</v>
+        <v>0.102717</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175115</v>
+        <v>0.169601</v>
       </c>
       <c r="D79" t="n">
-        <v>0.197811</v>
+        <v>0.169871</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0980664</v>
+        <v>0.0979091</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173898</v>
+        <v>0.168487</v>
       </c>
       <c r="D80" t="n">
-        <v>0.21326</v>
+        <v>0.187202</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.162286</v>
+        <v>0.162059</v>
       </c>
       <c r="C81" t="n">
-        <v>0.190666</v>
+        <v>0.186507</v>
       </c>
       <c r="D81" t="n">
-        <v>0.211831</v>
+        <v>0.185671</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158405</v>
+        <v>0.158037</v>
       </c>
       <c r="C82" t="n">
-        <v>0.189305</v>
+        <v>0.182981</v>
       </c>
       <c r="D82" t="n">
-        <v>0.210321</v>
+        <v>0.184233</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.154188</v>
+        <v>0.153822</v>
       </c>
       <c r="C83" t="n">
-        <v>0.187777</v>
+        <v>0.181716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.208894</v>
+        <v>0.182951</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149697</v>
+        <v>0.149048</v>
       </c>
       <c r="C84" t="n">
-        <v>0.186437</v>
+        <v>0.180491</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207455</v>
+        <v>0.181595</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144673</v>
+        <v>0.144089</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18513</v>
+        <v>0.179156</v>
       </c>
       <c r="D85" t="n">
-        <v>0.206204</v>
+        <v>0.180386</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139659</v>
+        <v>0.13977</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183831</v>
+        <v>0.177873</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2049</v>
+        <v>0.178854</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134536</v>
+        <v>0.134323</v>
       </c>
       <c r="C87" t="n">
-        <v>0.182596</v>
+        <v>0.176847</v>
       </c>
       <c r="D87" t="n">
-        <v>0.203897</v>
+        <v>0.177735</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129391</v>
+        <v>0.129656</v>
       </c>
       <c r="C88" t="n">
-        <v>0.181359</v>
+        <v>0.175619</v>
       </c>
       <c r="D88" t="n">
-        <v>0.202718</v>
+        <v>0.176333</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124354</v>
+        <v>0.124611</v>
       </c>
       <c r="C89" t="n">
-        <v>0.180083</v>
+        <v>0.174492</v>
       </c>
       <c r="D89" t="n">
-        <v>0.201474</v>
+        <v>0.175122</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119449</v>
+        <v>0.119694</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178887</v>
+        <v>0.173359</v>
       </c>
       <c r="D90" t="n">
-        <v>0.200446</v>
+        <v>0.173995</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114405</v>
+        <v>0.114631</v>
       </c>
       <c r="C91" t="n">
-        <v>0.17769</v>
+        <v>0.172237</v>
       </c>
       <c r="D91" t="n">
-        <v>0.199464</v>
+        <v>0.172731</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109426</v>
+        <v>0.109707</v>
       </c>
       <c r="C92" t="n">
-        <v>0.176505</v>
+        <v>0.171084</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1985</v>
+        <v>0.171499</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104442</v>
+        <v>0.104618</v>
       </c>
       <c r="C93" t="n">
-        <v>0.175411</v>
+        <v>0.170013</v>
       </c>
       <c r="D93" t="n">
-        <v>0.197831</v>
+        <v>0.17029</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09948709999999999</v>
+        <v>0.0996104</v>
       </c>
       <c r="C94" t="n">
-        <v>0.174125</v>
+        <v>0.168827</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213288</v>
+        <v>0.187347</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.16199</v>
+        <v>0.162394</v>
       </c>
       <c r="C95" t="n">
-        <v>0.190821</v>
+        <v>0.184568</v>
       </c>
       <c r="D95" t="n">
-        <v>0.211894</v>
+        <v>0.185928</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158409</v>
+        <v>0.158474</v>
       </c>
       <c r="C96" t="n">
-        <v>0.189158</v>
+        <v>0.183142</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21028</v>
+        <v>0.184489</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154162</v>
+        <v>0.154265</v>
       </c>
       <c r="C97" t="n">
-        <v>0.187836</v>
+        <v>0.181799</v>
       </c>
       <c r="D97" t="n">
-        <v>0.208807</v>
+        <v>0.183063</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149294</v>
+        <v>0.149814</v>
       </c>
       <c r="C98" t="n">
-        <v>0.186324</v>
+        <v>0.180376</v>
       </c>
       <c r="D98" t="n">
-        <v>0.207493</v>
+        <v>0.181627</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144434</v>
+        <v>0.144483</v>
       </c>
       <c r="C99" t="n">
-        <v>0.185016</v>
+        <v>0.179149</v>
       </c>
       <c r="D99" t="n">
-        <v>0.206102</v>
+        <v>0.180394</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.13981</v>
+        <v>0.139859</v>
       </c>
       <c r="C100" t="n">
-        <v>0.183661</v>
+        <v>0.177931</v>
       </c>
       <c r="D100" t="n">
-        <v>0.204698</v>
+        <v>0.179029</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134906</v>
+        <v>0.134832</v>
       </c>
       <c r="C101" t="n">
-        <v>0.182393</v>
+        <v>0.176712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.203604</v>
+        <v>0.177598</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129851</v>
+        <v>0.129829</v>
       </c>
       <c r="C102" t="n">
-        <v>0.181152</v>
+        <v>0.175528</v>
       </c>
       <c r="D102" t="n">
-        <v>0.202449</v>
+        <v>0.176417</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124785</v>
+        <v>0.124897</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179951</v>
+        <v>0.174418</v>
       </c>
       <c r="D103" t="n">
-        <v>0.201244</v>
+        <v>0.175241</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119868</v>
+        <v>0.119854</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178741</v>
+        <v>0.173331</v>
       </c>
       <c r="D104" t="n">
-        <v>0.20022</v>
+        <v>0.173966</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114862</v>
+        <v>0.114901</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177638</v>
+        <v>0.172173</v>
       </c>
       <c r="D105" t="n">
-        <v>0.199345</v>
+        <v>0.172733</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.109985</v>
+        <v>0.109984</v>
       </c>
       <c r="C106" t="n">
-        <v>0.176656</v>
+        <v>0.171032</v>
       </c>
       <c r="D106" t="n">
-        <v>0.198493</v>
+        <v>0.171515</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105071</v>
+        <v>0.105112</v>
       </c>
       <c r="C107" t="n">
-        <v>0.175397</v>
+        <v>0.169969</v>
       </c>
       <c r="D107" t="n">
-        <v>0.197547</v>
+        <v>0.170289</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100166</v>
+        <v>0.100331</v>
       </c>
       <c r="C108" t="n">
-        <v>0.174101</v>
+        <v>0.16899</v>
       </c>
       <c r="D108" t="n">
-        <v>0.213551</v>
+        <v>0.187859</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0951766</v>
+        <v>0.09559620000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.172921</v>
+        <v>0.167965</v>
       </c>
       <c r="D109" t="n">
-        <v>0.212031</v>
+        <v>0.186166</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159157</v>
+        <v>0.159213</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189429</v>
+        <v>0.18345</v>
       </c>
       <c r="D110" t="n">
-        <v>0.210614</v>
+        <v>0.184864</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.154965</v>
+        <v>0.155254</v>
       </c>
       <c r="C111" t="n">
-        <v>0.187951</v>
+        <v>0.182084</v>
       </c>
       <c r="D111" t="n">
-        <v>0.209218</v>
+        <v>0.183616</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150377</v>
+        <v>0.150614</v>
       </c>
       <c r="C112" t="n">
-        <v>0.186486</v>
+        <v>0.180653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.207778</v>
+        <v>0.182034</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145666</v>
+        <v>0.145782</v>
       </c>
       <c r="C113" t="n">
-        <v>0.185146</v>
+        <v>0.179424</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206327</v>
+        <v>0.180817</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140571</v>
+        <v>0.141079</v>
       </c>
       <c r="C114" t="n">
-        <v>0.183873</v>
+        <v>0.178065</v>
       </c>
       <c r="D114" t="n">
-        <v>0.205056</v>
+        <v>0.179402</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135834</v>
+        <v>0.135974</v>
       </c>
       <c r="C115" t="n">
-        <v>0.182576</v>
+        <v>0.176957</v>
       </c>
       <c r="D115" t="n">
-        <v>0.203857</v>
+        <v>0.178192</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130959</v>
+        <v>0.130773</v>
       </c>
       <c r="C116" t="n">
-        <v>0.181475</v>
+        <v>0.175854</v>
       </c>
       <c r="D116" t="n">
-        <v>0.202709</v>
+        <v>0.176978</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125911</v>
+        <v>0.125836</v>
       </c>
       <c r="C117" t="n">
-        <v>0.180334</v>
+        <v>0.174797</v>
       </c>
       <c r="D117" t="n">
-        <v>0.201622</v>
+        <v>0.175628</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12084</v>
+        <v>0.120985</v>
       </c>
       <c r="C118" t="n">
-        <v>0.179006</v>
+        <v>0.173664</v>
       </c>
       <c r="D118" t="n">
-        <v>0.200461</v>
+        <v>0.174387</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115931</v>
+        <v>0.115991</v>
       </c>
       <c r="C119" t="n">
-        <v>0.177851</v>
+        <v>0.172487</v>
       </c>
       <c r="D119" t="n">
-        <v>0.199493</v>
+        <v>0.173137</v>
       </c>
     </row>
     <row r="120">
@@ -4904,10 +4904,10 @@
         <v>0.11106</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176694</v>
+        <v>0.171373</v>
       </c>
       <c r="D120" t="n">
-        <v>0.198488</v>
+        <v>0.171939</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106129</v>
+        <v>0.106223</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175576</v>
+        <v>0.17045</v>
       </c>
       <c r="D121" t="n">
-        <v>0.197696</v>
+        <v>0.170683</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101287</v>
+        <v>0.10134</v>
       </c>
       <c r="C122" t="n">
-        <v>0.174428</v>
+        <v>0.169237</v>
       </c>
       <c r="D122" t="n">
-        <v>0.196799</v>
+        <v>0.169417</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09632449999999999</v>
+        <v>0.0964194</v>
       </c>
       <c r="C123" t="n">
-        <v>0.173147</v>
+        <v>0.168284</v>
       </c>
       <c r="D123" t="n">
-        <v>0.212513</v>
+        <v>0.186777</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160078</v>
+        <v>0.160346</v>
       </c>
       <c r="C124" t="n">
-        <v>0.189701</v>
+        <v>0.183756</v>
       </c>
       <c r="D124" t="n">
-        <v>0.21082</v>
+        <v>0.185363</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155835</v>
+        <v>0.15618</v>
       </c>
       <c r="C125" t="n">
-        <v>0.188177</v>
+        <v>0.182363</v>
       </c>
       <c r="D125" t="n">
-        <v>0.209237</v>
+        <v>0.183805</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151527</v>
+        <v>0.151426</v>
       </c>
       <c r="C126" t="n">
-        <v>0.186742</v>
+        <v>0.18095</v>
       </c>
       <c r="D126" t="n">
-        <v>0.207897</v>
+        <v>0.182353</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146628</v>
+        <v>0.146801</v>
       </c>
       <c r="C127" t="n">
-        <v>0.185378</v>
+        <v>0.17968</v>
       </c>
       <c r="D127" t="n">
-        <v>0.206492</v>
+        <v>0.181083</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141653</v>
+        <v>0.141884</v>
       </c>
       <c r="C128" t="n">
-        <v>0.18401</v>
+        <v>0.178439</v>
       </c>
       <c r="D128" t="n">
-        <v>0.205168</v>
+        <v>0.179803</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136686</v>
+        <v>0.136872</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182727</v>
+        <v>0.1772</v>
       </c>
       <c r="D129" t="n">
-        <v>0.203898</v>
+        <v>0.178384</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131686</v>
+        <v>0.132035</v>
       </c>
       <c r="C130" t="n">
-        <v>0.181502</v>
+        <v>0.175914</v>
       </c>
       <c r="D130" t="n">
-        <v>0.202777</v>
+        <v>0.176981</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126669</v>
+        <v>0.126936</v>
       </c>
       <c r="C131" t="n">
-        <v>0.180373</v>
+        <v>0.174743</v>
       </c>
       <c r="D131" t="n">
-        <v>0.201707</v>
+        <v>0.175705</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121769</v>
+        <v>0.121992</v>
       </c>
       <c r="C132" t="n">
-        <v>0.179188</v>
+        <v>0.173643</v>
       </c>
       <c r="D132" t="n">
-        <v>0.200533</v>
+        <v>0.174418</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.116775</v>
+        <v>0.117028</v>
       </c>
       <c r="C133" t="n">
-        <v>0.178016</v>
+        <v>0.172614</v>
       </c>
       <c r="D133" t="n">
-        <v>0.199543</v>
+        <v>0.173378</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.111923</v>
+        <v>0.112162</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176852</v>
+        <v>0.171665</v>
       </c>
       <c r="D134" t="n">
-        <v>0.19858</v>
+        <v>0.172115</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107119</v>
+        <v>0.107225</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17568</v>
+        <v>0.17063</v>
       </c>
       <c r="D135" t="n">
-        <v>0.197685</v>
+        <v>0.170927</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102233</v>
+        <v>0.102248</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174587</v>
+        <v>0.169508</v>
       </c>
       <c r="D136" t="n">
-        <v>0.196831</v>
+        <v>0.169676</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.09740020000000001</v>
+        <v>0.0973502</v>
       </c>
       <c r="C137" t="n">
-        <v>0.17341</v>
+        <v>0.168422</v>
       </c>
       <c r="D137" t="n">
-        <v>0.212829</v>
+        <v>0.187253</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.165567</v>
+        <v>0.165835</v>
       </c>
       <c r="C138" t="n">
-        <v>0.190053</v>
+        <v>0.184053</v>
       </c>
       <c r="D138" t="n">
-        <v>0.211137</v>
+        <v>0.185555</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.159031</v>
+        <v>0.161717</v>
       </c>
       <c r="C139" t="n">
-        <v>0.188524</v>
+        <v>0.182557</v>
       </c>
       <c r="D139" t="n">
-        <v>0.209566</v>
+        <v>0.184008</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.154937</v>
+        <v>0.157045</v>
       </c>
       <c r="C140" t="n">
-        <v>0.187081</v>
+        <v>0.181164</v>
       </c>
       <c r="D140" t="n">
-        <v>0.208236</v>
+        <v>0.182686</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.14994</v>
+        <v>0.152321</v>
       </c>
       <c r="C141" t="n">
-        <v>0.185645</v>
+        <v>0.179906</v>
       </c>
       <c r="D141" t="n">
-        <v>0.206785</v>
+        <v>0.181225</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.144779</v>
+        <v>0.146918</v>
       </c>
       <c r="C142" t="n">
-        <v>0.184348</v>
+        <v>0.178698</v>
       </c>
       <c r="D142" t="n">
-        <v>0.205525</v>
+        <v>0.179931</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.139957</v>
+        <v>0.141813</v>
       </c>
       <c r="C143" t="n">
-        <v>0.183073</v>
+        <v>0.177429</v>
       </c>
       <c r="D143" t="n">
-        <v>0.204329</v>
+        <v>0.178555</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.064272</v>
+        <v>0.0654444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.161235</v>
+        <v>0.156042</v>
       </c>
       <c r="D2" t="n">
-        <v>0.156274</v>
+        <v>0.16202</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0638452</v>
+        <v>0.0662601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.161112</v>
+        <v>0.157801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.157652</v>
+        <v>0.16087</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06358</v>
+        <v>0.0664896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161776</v>
+        <v>0.157874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158894</v>
+        <v>0.161261</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0643557</v>
+        <v>0.06610199999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.161448</v>
+        <v>0.158683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.158531</v>
+        <v>0.161544</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06425690000000001</v>
+        <v>0.0664565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160866</v>
+        <v>0.158069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.158034</v>
+        <v>0.160627</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06480030000000001</v>
+        <v>0.0661688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161379</v>
+        <v>0.158046</v>
       </c>
       <c r="D7" t="n">
-        <v>0.157962</v>
+        <v>0.160763</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.065327</v>
+        <v>0.0661791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.161053</v>
+        <v>0.158402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.158592</v>
+        <v>0.159891</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0661539</v>
+        <v>0.0666124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160776</v>
+        <v>0.158917</v>
       </c>
       <c r="D9" t="n">
-        <v>0.164645</v>
+        <v>0.174377</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08973059999999999</v>
+        <v>0.0954058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.172242</v>
+        <v>0.163367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.164473</v>
+        <v>0.172721</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09066490000000001</v>
+        <v>0.0953421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17302</v>
+        <v>0.164135</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164916</v>
+        <v>0.176293</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0909683</v>
+        <v>0.0952968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.172534</v>
+        <v>0.164804</v>
       </c>
       <c r="D12" t="n">
-        <v>0.166192</v>
+        <v>0.174009</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0912969</v>
+        <v>0.09403499999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.172564</v>
+        <v>0.166547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166201</v>
+        <v>0.173508</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0902929</v>
+        <v>0.093416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.171721</v>
+        <v>0.166081</v>
       </c>
       <c r="D14" t="n">
-        <v>0.168435</v>
+        <v>0.172466</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08979910000000001</v>
+        <v>0.0921579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.171552</v>
+        <v>0.165056</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167072</v>
+        <v>0.172113</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08806020000000001</v>
+        <v>0.0910565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.171275</v>
+        <v>0.165956</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165247</v>
+        <v>0.171089</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08651250000000001</v>
+        <v>0.0890842</v>
       </c>
       <c r="C17" t="n">
-        <v>0.170337</v>
+        <v>0.16495</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165635</v>
+        <v>0.170345</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0857755</v>
+        <v>0.0870172</v>
       </c>
       <c r="C18" t="n">
-        <v>0.169701</v>
+        <v>0.16442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165387</v>
+        <v>0.170047</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08424429999999999</v>
+        <v>0.0853887</v>
       </c>
       <c r="C19" t="n">
-        <v>0.168721</v>
+        <v>0.164352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165325</v>
+        <v>0.168631</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08475050000000001</v>
+        <v>0.0844467</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169492</v>
+        <v>0.165653</v>
       </c>
       <c r="D20" t="n">
-        <v>0.167798</v>
+        <v>0.168856</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0841742</v>
+        <v>0.08560189999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.168251</v>
+        <v>0.168635</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165553</v>
+        <v>0.168675</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.081737</v>
+        <v>0.0836319</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167293</v>
+        <v>0.167234</v>
       </c>
       <c r="D22" t="n">
-        <v>0.167084</v>
+        <v>0.166886</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07940510000000001</v>
+        <v>0.0821056</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164721</v>
+        <v>0.165121</v>
       </c>
       <c r="D23" t="n">
-        <v>0.18055</v>
+        <v>0.184938</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131377</v>
+        <v>0.128474</v>
       </c>
       <c r="C24" t="n">
-        <v>0.18051</v>
+        <v>0.177385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177283</v>
+        <v>0.183391</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129387</v>
+        <v>0.128386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.179203</v>
+        <v>0.176441</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177149</v>
+        <v>0.180855</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.128122</v>
+        <v>0.126821</v>
       </c>
       <c r="C26" t="n">
-        <v>0.177606</v>
+        <v>0.175045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176211</v>
+        <v>0.180016</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.12708</v>
+        <v>0.124346</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177764</v>
+        <v>0.17483</v>
       </c>
       <c r="D27" t="n">
-        <v>0.175931</v>
+        <v>0.179025</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.123447</v>
+        <v>0.122265</v>
       </c>
       <c r="C28" t="n">
-        <v>0.177481</v>
+        <v>0.176686</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17719</v>
+        <v>0.177916</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120656</v>
+        <v>0.118508</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175935</v>
+        <v>0.173034</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174098</v>
+        <v>0.177041</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117465</v>
+        <v>0.115061</v>
       </c>
       <c r="C30" t="n">
-        <v>0.174259</v>
+        <v>0.174599</v>
       </c>
       <c r="D30" t="n">
-        <v>0.173431</v>
+        <v>0.175489</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11378</v>
+        <v>0.112468</v>
       </c>
       <c r="C31" t="n">
-        <v>0.17316</v>
+        <v>0.171912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.172713</v>
+        <v>0.174659</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111638</v>
+        <v>0.108648</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172711</v>
+        <v>0.170821</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173929</v>
+        <v>0.17375</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106257</v>
+        <v>0.105089</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172353</v>
+        <v>0.170365</v>
       </c>
       <c r="D33" t="n">
-        <v>0.17099</v>
+        <v>0.172431</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102047</v>
+        <v>0.100844</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170852</v>
+        <v>0.169026</v>
       </c>
       <c r="D34" t="n">
-        <v>0.169945</v>
+        <v>0.171291</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09863860000000001</v>
+        <v>0.0963971</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169426</v>
+        <v>0.168694</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169805</v>
+        <v>0.170596</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09383859999999999</v>
+        <v>0.0931138</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168505</v>
+        <v>0.167915</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168689</v>
+        <v>0.168662</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0901066</v>
+        <v>0.08989469999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167007</v>
+        <v>0.166773</v>
       </c>
       <c r="D37" t="n">
-        <v>0.183729</v>
+        <v>0.185376</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.151072</v>
+        <v>0.148986</v>
       </c>
       <c r="C38" t="n">
-        <v>0.183106</v>
+        <v>0.182306</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183106</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148593</v>
+        <v>0.147333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181523</v>
+        <v>0.180137</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182048</v>
+        <v>0.183185</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145172</v>
+        <v>0.143329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180455</v>
+        <v>0.179076</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180121</v>
+        <v>0.181863</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.141261</v>
+        <v>0.140414</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179157</v>
+        <v>0.177463</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178969</v>
+        <v>0.180392</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.137258</v>
+        <v>0.135968</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177641</v>
+        <v>0.175819</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177628</v>
+        <v>0.178466</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133377</v>
+        <v>0.131931</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176425</v>
+        <v>0.174665</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177356</v>
+        <v>0.177595</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129627</v>
+        <v>0.128078</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175678</v>
+        <v>0.174741</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176135</v>
+        <v>0.176605</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125381</v>
+        <v>0.123781</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174612</v>
+        <v>0.173995</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175337</v>
+        <v>0.175698</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120902</v>
+        <v>0.119853</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173413</v>
+        <v>0.173255</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174073</v>
+        <v>0.173866</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116189</v>
+        <v>0.115803</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172204</v>
+        <v>0.171443</v>
       </c>
       <c r="D47" t="n">
-        <v>0.172396</v>
+        <v>0.173107</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.11184</v>
+        <v>0.111473</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171361</v>
+        <v>0.17044</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171438</v>
+        <v>0.171641</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10706</v>
+        <v>0.106548</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170341</v>
+        <v>0.169865</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170744</v>
+        <v>0.17019</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.101894</v>
+        <v>0.101335</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169108</v>
+        <v>0.168761</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168999</v>
+        <v>0.169055</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0969088</v>
+        <v>0.0962248</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168218</v>
+        <v>0.167717</v>
       </c>
       <c r="D51" t="n">
-        <v>0.186673</v>
+        <v>0.187082</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0921869</v>
+        <v>0.0919756</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167381</v>
+        <v>0.167079</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185266</v>
+        <v>0.18551</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156135</v>
+        <v>0.155154</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183283</v>
+        <v>0.18283</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183972</v>
+        <v>0.184657</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1523</v>
+        <v>0.151521</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181793</v>
+        <v>0.181198</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18278</v>
+        <v>0.183158</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148799</v>
+        <v>0.147682</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180664</v>
+        <v>0.180028</v>
       </c>
       <c r="D55" t="n">
-        <v>0.18143</v>
+        <v>0.181781</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144363</v>
+        <v>0.143275</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179353</v>
+        <v>0.17886</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180028</v>
+        <v>0.180482</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139714</v>
+        <v>0.138787</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178116</v>
+        <v>0.177721</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178905</v>
+        <v>0.179463</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134364</v>
+        <v>0.134083</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176741</v>
+        <v>0.176362</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177655</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130055</v>
+        <v>0.129521</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175672</v>
+        <v>0.175532</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176302</v>
+        <v>0.176383</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125175</v>
+        <v>0.124873</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174491</v>
+        <v>0.174413</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175311</v>
+        <v>0.175365</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120263</v>
+        <v>0.120219</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173397</v>
+        <v>0.173257</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174095</v>
+        <v>0.174278</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115377</v>
+        <v>0.115745</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172562</v>
+        <v>0.172298</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172912</v>
+        <v>0.17298</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110655</v>
+        <v>0.110862</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171462</v>
+        <v>0.171322</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171795</v>
+        <v>0.171858</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106031</v>
+        <v>0.106104</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170557</v>
+        <v>0.170482</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170914</v>
+        <v>0.170616</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101211</v>
+        <v>0.101353</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169549</v>
+        <v>0.169525</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169509</v>
+        <v>0.16968</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0964555</v>
+        <v>0.0961714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1684</v>
+        <v>0.168445</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186897</v>
+        <v>0.186654</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159611</v>
+        <v>0.15933</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183907</v>
+        <v>0.183668</v>
       </c>
       <c r="D67" t="n">
-        <v>0.184968</v>
+        <v>0.18538</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.155712</v>
+        <v>0.155533</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182543</v>
+        <v>0.182265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183496</v>
+        <v>0.18376</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151305</v>
+        <v>0.151255</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181166</v>
+        <v>0.180922</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18226</v>
+        <v>0.182485</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.146831</v>
+        <v>0.146682</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179734</v>
+        <v>0.17968</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18073</v>
+        <v>0.180938</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.141996</v>
+        <v>0.142013</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178653</v>
+        <v>0.178612</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179631</v>
+        <v>0.179852</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137331</v>
+        <v>0.13729</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177533</v>
+        <v>0.17737</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178416</v>
+        <v>0.178572</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132432</v>
+        <v>0.132557</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176433</v>
+        <v>0.176436</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177299</v>
+        <v>0.17735</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127396</v>
+        <v>0.127746</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175285</v>
+        <v>0.17511</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176018</v>
+        <v>0.176183</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122665</v>
+        <v>0.122863</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174216</v>
+        <v>0.174305</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174914</v>
+        <v>0.174966</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.11774</v>
+        <v>0.117889</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173055</v>
+        <v>0.173038</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173676</v>
+        <v>0.173666</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112653</v>
+        <v>0.112916</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171889</v>
+        <v>0.17204</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172356</v>
+        <v>0.172411</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107632</v>
+        <v>0.108073</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170769</v>
+        <v>0.170906</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171153</v>
+        <v>0.171142</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.102717</v>
+        <v>0.10312</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169601</v>
+        <v>0.169847</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169871</v>
+        <v>0.169853</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0979091</v>
+        <v>0.09823949999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168487</v>
+        <v>0.168724</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187202</v>
+        <v>0.187447</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.162059</v>
+        <v>0.161894</v>
       </c>
       <c r="C81" t="n">
-        <v>0.186507</v>
+        <v>0.184426</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185671</v>
+        <v>0.186022</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.158037</v>
+        <v>0.157869</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182981</v>
+        <v>0.182995</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184233</v>
+        <v>0.184466</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153822</v>
+        <v>0.153647</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181716</v>
+        <v>0.181719</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182951</v>
+        <v>0.183015</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149048</v>
+        <v>0.148907</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180491</v>
+        <v>0.180382</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181595</v>
+        <v>0.181626</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144089</v>
+        <v>0.144238</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179156</v>
+        <v>0.179153</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180386</v>
+        <v>0.180305</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13977</v>
+        <v>0.139356</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177873</v>
+        <v>0.17777</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178854</v>
+        <v>0.178869</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134323</v>
+        <v>0.134378</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176847</v>
+        <v>0.176828</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177735</v>
+        <v>0.177732</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129656</v>
+        <v>0.129372</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175619</v>
+        <v>0.175571</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176333</v>
+        <v>0.176324</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124611</v>
+        <v>0.12454</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174492</v>
+        <v>0.174409</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175122</v>
+        <v>0.175132</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119694</v>
+        <v>0.119662</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173359</v>
+        <v>0.173422</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173995</v>
+        <v>0.173852</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114631</v>
+        <v>0.114528</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172237</v>
+        <v>0.172267</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172731</v>
+        <v>0.172599</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109707</v>
+        <v>0.109529</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171084</v>
+        <v>0.171085</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171499</v>
+        <v>0.171239</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104618</v>
+        <v>0.104548</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170013</v>
+        <v>0.170034</v>
       </c>
       <c r="D93" t="n">
-        <v>0.17029</v>
+        <v>0.170055</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0996104</v>
+        <v>0.0995844</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168827</v>
+        <v>0.168919</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187347</v>
+        <v>0.187567</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162394</v>
+        <v>0.162006</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184568</v>
+        <v>0.184401</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185928</v>
+        <v>0.185912</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158474</v>
+        <v>0.15826</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183142</v>
+        <v>0.183002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184489</v>
+        <v>0.184442</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154265</v>
+        <v>0.153958</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181799</v>
+        <v>0.181726</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183063</v>
+        <v>0.18306</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149814</v>
+        <v>0.149522</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180376</v>
+        <v>0.180302</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181627</v>
+        <v>0.181531</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144483</v>
+        <v>0.144687</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179149</v>
+        <v>0.179043</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180394</v>
+        <v>0.180206</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139859</v>
+        <v>0.139801</v>
       </c>
       <c r="C100" t="n">
-        <v>0.177931</v>
+        <v>0.177891</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179029</v>
+        <v>0.178964</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134832</v>
+        <v>0.134904</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176712</v>
+        <v>0.17667</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177598</v>
+        <v>0.177594</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129829</v>
+        <v>0.129847</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175528</v>
+        <v>0.175502</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176417</v>
+        <v>0.17641</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124897</v>
+        <v>0.124999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174418</v>
+        <v>0.174486</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175241</v>
+        <v>0.175163</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119854</v>
+        <v>0.119985</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173331</v>
+        <v>0.173312</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173966</v>
+        <v>0.173766</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114901</v>
+        <v>0.114915</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172173</v>
+        <v>0.171989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172733</v>
+        <v>0.17244</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.109984</v>
+        <v>0.109926</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171032</v>
+        <v>0.170886</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171515</v>
+        <v>0.171209</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105112</v>
+        <v>0.105117</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169969</v>
+        <v>0.16989</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170289</v>
+        <v>0.169922</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100331</v>
+        <v>0.100229</v>
       </c>
       <c r="C108" t="n">
-        <v>0.16899</v>
+        <v>0.168872</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187859</v>
+        <v>0.187801</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09559620000000001</v>
+        <v>0.09542490000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.167965</v>
+        <v>0.167983</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186166</v>
+        <v>0.186275</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159213</v>
+        <v>0.159233</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18345</v>
+        <v>0.18349</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184864</v>
+        <v>0.185159</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155254</v>
+        <v>0.154976</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182084</v>
+        <v>0.182094</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183616</v>
+        <v>0.183331</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150614</v>
+        <v>0.15038</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180653</v>
+        <v>0.18068</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182034</v>
+        <v>0.181936</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145782</v>
+        <v>0.145626</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179424</v>
+        <v>0.179477</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180817</v>
+        <v>0.180406</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141079</v>
+        <v>0.140869</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178065</v>
+        <v>0.178217</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179402</v>
+        <v>0.179079</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135974</v>
+        <v>0.135951</v>
       </c>
       <c r="C115" t="n">
-        <v>0.176957</v>
+        <v>0.17703</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178192</v>
+        <v>0.177818</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130773</v>
+        <v>0.13097</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175854</v>
+        <v>0.175899</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176978</v>
+        <v>0.176627</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125836</v>
+        <v>0.12597</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174797</v>
+        <v>0.174777</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175628</v>
+        <v>0.175431</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120985</v>
+        <v>0.121067</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173664</v>
+        <v>0.173793</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174387</v>
+        <v>0.174141</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115991</v>
+        <v>0.116012</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172487</v>
+        <v>0.172536</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173137</v>
+        <v>0.172994</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11106</v>
+        <v>0.111118</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171373</v>
+        <v>0.171379</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171939</v>
+        <v>0.171742</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106223</v>
+        <v>0.106203</v>
       </c>
       <c r="C121" t="n">
-        <v>0.17045</v>
+        <v>0.170396</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170683</v>
+        <v>0.170452</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.10134</v>
+        <v>0.101374</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169237</v>
+        <v>0.169289</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169417</v>
+        <v>0.169194</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0964194</v>
+        <v>0.0965462</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168284</v>
+        <v>0.168228</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186777</v>
+        <v>0.186692</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160346</v>
+        <v>0.160101</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183756</v>
+        <v>0.183764</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185363</v>
+        <v>0.1852</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.15618</v>
+        <v>0.155843</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182363</v>
+        <v>0.182311</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183805</v>
+        <v>0.183565</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151426</v>
+        <v>0.151357</v>
       </c>
       <c r="C126" t="n">
-        <v>0.18095</v>
+        <v>0.181075</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182353</v>
+        <v>0.182206</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146801</v>
+        <v>0.14669</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17968</v>
+        <v>0.179691</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181083</v>
+        <v>0.180867</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141884</v>
+        <v>0.141832</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178439</v>
+        <v>0.178456</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179803</v>
+        <v>0.179448</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136872</v>
+        <v>0.136857</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1772</v>
+        <v>0.177186</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178384</v>
+        <v>0.178224</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.132035</v>
+        <v>0.13187</v>
       </c>
       <c r="C130" t="n">
-        <v>0.175914</v>
+        <v>0.176062</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176981</v>
+        <v>0.17689</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126936</v>
+        <v>0.126847</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174743</v>
+        <v>0.174879</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175705</v>
+        <v>0.175689</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121992</v>
+        <v>0.121872</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173643</v>
+        <v>0.173843</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174418</v>
+        <v>0.174393</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117028</v>
+        <v>0.117031</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172614</v>
+        <v>0.172795</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173378</v>
+        <v>0.173209</v>
       </c>
     </row>
     <row r="134">
@@ -5100,10 +5100,10 @@
         <v>0.112162</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171665</v>
+        <v>0.171756</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172115</v>
+        <v>0.172054</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107225</v>
+        <v>0.107236</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17063</v>
+        <v>0.170642</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170927</v>
+        <v>0.170795</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102248</v>
+        <v>0.102409</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169508</v>
+        <v>0.169627</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169676</v>
+        <v>0.169493</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0973502</v>
+        <v>0.0975303</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168422</v>
+        <v>0.168489</v>
       </c>
       <c r="D137" t="n">
-        <v>0.187253</v>
+        <v>0.187036</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.165835</v>
+        <v>0.165455</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184053</v>
+        <v>0.184013</v>
       </c>
       <c r="D138" t="n">
-        <v>0.185555</v>
+        <v>0.185422</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161717</v>
+        <v>0.161597</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182557</v>
+        <v>0.182543</v>
       </c>
       <c r="D139" t="n">
-        <v>0.184008</v>
+        <v>0.183931</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157045</v>
+        <v>0.156985</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181164</v>
+        <v>0.181181</v>
       </c>
       <c r="D140" t="n">
-        <v>0.182686</v>
+        <v>0.182491</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.152321</v>
+        <v>0.152169</v>
       </c>
       <c r="C141" t="n">
-        <v>0.179906</v>
+        <v>0.179885</v>
       </c>
       <c r="D141" t="n">
-        <v>0.181225</v>
+        <v>0.181079</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.146918</v>
+        <v>0.147349</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178698</v>
+        <v>0.1787</v>
       </c>
       <c r="D142" t="n">
-        <v>0.179931</v>
+        <v>0.179737</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.141813</v>
+        <v>0.141901</v>
       </c>
       <c r="C143" t="n">
-        <v>0.177429</v>
+        <v>0.177537</v>
       </c>
       <c r="D143" t="n">
-        <v>0.178555</v>
+        <v>0.178478</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0654444</v>
+        <v>0.06795039999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.156042</v>
+        <v>0.156598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16202</v>
+        <v>0.161257</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0662601</v>
+        <v>0.06827279999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157801</v>
+        <v>0.156379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16087</v>
+        <v>0.161477</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0664896</v>
+        <v>0.0680007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.157874</v>
+        <v>0.156976</v>
       </c>
       <c r="D4" t="n">
-        <v>0.161261</v>
+        <v>0.161607</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06610199999999999</v>
+        <v>0.0681293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158683</v>
+        <v>0.156984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161544</v>
+        <v>0.161822</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0664565</v>
+        <v>0.06829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158069</v>
+        <v>0.15742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160627</v>
+        <v>0.161767</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0661688</v>
+        <v>0.0682403</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158046</v>
+        <v>0.156745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160763</v>
+        <v>0.160888</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0661791</v>
+        <v>0.0681573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158402</v>
+        <v>0.157753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159891</v>
+        <v>0.161166</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0666124</v>
+        <v>0.0686599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158917</v>
+        <v>0.157483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.174377</v>
+        <v>0.173452</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0954058</v>
+        <v>0.111712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.163367</v>
+        <v>0.16343</v>
       </c>
       <c r="D10" t="n">
-        <v>0.172721</v>
+        <v>0.173001</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0953421</v>
+        <v>0.111347</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164135</v>
+        <v>0.164029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176293</v>
+        <v>0.173378</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0952968</v>
+        <v>0.111724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164804</v>
+        <v>0.165122</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174009</v>
+        <v>0.173303</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09403499999999999</v>
+        <v>0.110099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.166547</v>
+        <v>0.165315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173508</v>
+        <v>0.173602</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.093416</v>
+        <v>0.108433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.166081</v>
+        <v>0.16487</v>
       </c>
       <c r="D14" t="n">
-        <v>0.172466</v>
+        <v>0.173148</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0921579</v>
+        <v>0.10635</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165056</v>
+        <v>0.164946</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172113</v>
+        <v>0.172604</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0910565</v>
+        <v>0.103879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165956</v>
+        <v>0.164281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171089</v>
+        <v>0.171424</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0890842</v>
+        <v>0.10157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.16495</v>
+        <v>0.164198</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170345</v>
+        <v>0.17123</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0870172</v>
+        <v>0.0978899</v>
       </c>
       <c r="C18" t="n">
-        <v>0.16442</v>
+        <v>0.164636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170047</v>
+        <v>0.170497</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0853887</v>
+        <v>0.0940434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164352</v>
+        <v>0.163569</v>
       </c>
       <c r="D19" t="n">
-        <v>0.168631</v>
+        <v>0.169536</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0844467</v>
+        <v>0.09468799999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165653</v>
+        <v>0.168224</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168856</v>
+        <v>0.171458</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08560189999999999</v>
+        <v>0.09315809999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.168635</v>
+        <v>0.166277</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168675</v>
+        <v>0.169868</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0836319</v>
+        <v>0.0899025</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167234</v>
+        <v>0.16521</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166886</v>
+        <v>0.168611</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0821056</v>
+        <v>0.0863177</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165121</v>
+        <v>0.163865</v>
       </c>
       <c r="D23" t="n">
-        <v>0.184938</v>
+        <v>0.183484</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.128474</v>
+        <v>0.145562</v>
       </c>
       <c r="C24" t="n">
-        <v>0.177385</v>
+        <v>0.17778</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183391</v>
+        <v>0.18327</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.128386</v>
+        <v>0.14407</v>
       </c>
       <c r="C25" t="n">
-        <v>0.176441</v>
+        <v>0.177022</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180855</v>
+        <v>0.181222</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.126821</v>
+        <v>0.141533</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175045</v>
+        <v>0.17503</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180016</v>
+        <v>0.18095</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124346</v>
+        <v>0.13764</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17483</v>
+        <v>0.174742</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179025</v>
+        <v>0.178653</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122265</v>
+        <v>0.133966</v>
       </c>
       <c r="C28" t="n">
-        <v>0.176686</v>
+        <v>0.174528</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177916</v>
+        <v>0.177589</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118508</v>
+        <v>0.129852</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173034</v>
+        <v>0.173383</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177041</v>
+        <v>0.175883</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115061</v>
+        <v>0.124907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.174599</v>
+        <v>0.171853</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175489</v>
+        <v>0.174606</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112468</v>
+        <v>0.121082</v>
       </c>
       <c r="C31" t="n">
-        <v>0.171912</v>
+        <v>0.171715</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174659</v>
+        <v>0.174492</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.108648</v>
+        <v>0.117099</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170821</v>
+        <v>0.170541</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17375</v>
+        <v>0.173058</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.105089</v>
+        <v>0.112754</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170365</v>
+        <v>0.169681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172431</v>
+        <v>0.173062</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.100844</v>
+        <v>0.108505</v>
       </c>
       <c r="C34" t="n">
-        <v>0.169026</v>
+        <v>0.169098</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171291</v>
+        <v>0.171915</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0963971</v>
+        <v>0.103664</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168694</v>
+        <v>0.167555</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170596</v>
+        <v>0.170777</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0931138</v>
+        <v>0.09816270000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167915</v>
+        <v>0.167386</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168662</v>
+        <v>0.170501</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08989469999999999</v>
+        <v>0.0940757</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166773</v>
+        <v>0.165858</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185376</v>
+        <v>0.18535</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148986</v>
+        <v>0.156006</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182306</v>
+        <v>0.180382</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18421</v>
+        <v>0.184179</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147333</v>
+        <v>0.152802</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180137</v>
+        <v>0.179984</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183185</v>
+        <v>0.182484</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.143329</v>
+        <v>0.148841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179076</v>
+        <v>0.178776</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181863</v>
+        <v>0.181663</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140414</v>
+        <v>0.144533</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177463</v>
+        <v>0.177798</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180392</v>
+        <v>0.180078</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.135968</v>
+        <v>0.140497</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175819</v>
+        <v>0.176084</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178466</v>
+        <v>0.178678</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.131931</v>
+        <v>0.136097</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174665</v>
+        <v>0.174696</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177595</v>
+        <v>0.177427</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.128078</v>
+        <v>0.131581</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174741</v>
+        <v>0.174235</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176605</v>
+        <v>0.176617</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.123781</v>
+        <v>0.127412</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173995</v>
+        <v>0.17338</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175698</v>
+        <v>0.175715</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119853</v>
+        <v>0.122459</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173255</v>
+        <v>0.172314</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173866</v>
+        <v>0.174308</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.115803</v>
+        <v>0.118144</v>
       </c>
       <c r="C47" t="n">
-        <v>0.171443</v>
+        <v>0.171042</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173107</v>
+        <v>0.17274</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111473</v>
+        <v>0.113229</v>
       </c>
       <c r="C48" t="n">
-        <v>0.17044</v>
+        <v>0.170383</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171641</v>
+        <v>0.171948</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106548</v>
+        <v>0.108556</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169865</v>
+        <v>0.169165</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17019</v>
+        <v>0.170785</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.101335</v>
+        <v>0.103512</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168761</v>
+        <v>0.168435</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169055</v>
+        <v>0.169466</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0962248</v>
+        <v>0.0985523</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167717</v>
+        <v>0.16696</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187082</v>
+        <v>0.187098</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0919756</v>
+        <v>0.0935385</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167079</v>
+        <v>0.166617</v>
       </c>
       <c r="D52" t="n">
-        <v>0.18551</v>
+        <v>0.185471</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.155154</v>
+        <v>0.157795</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18283</v>
+        <v>0.18126</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184657</v>
+        <v>0.184539</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.151521</v>
+        <v>0.153717</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181198</v>
+        <v>0.180378</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183158</v>
+        <v>0.182765</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.147682</v>
+        <v>0.14969</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180028</v>
+        <v>0.179133</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181781</v>
+        <v>0.181659</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.143275</v>
+        <v>0.145079</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17886</v>
+        <v>0.178114</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180482</v>
+        <v>0.180471</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.138787</v>
+        <v>0.140479</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177721</v>
+        <v>0.176806</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179463</v>
+        <v>0.17925</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134083</v>
+        <v>0.135604</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176362</v>
+        <v>0.175614</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1778</v>
+        <v>0.177919</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.129521</v>
+        <v>0.130919</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175532</v>
+        <v>0.174673</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176383</v>
+        <v>0.176495</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.124873</v>
+        <v>0.126098</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174413</v>
+        <v>0.173696</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175365</v>
+        <v>0.175546</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120219</v>
+        <v>0.121298</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173257</v>
+        <v>0.172679</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174278</v>
+        <v>0.174216</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115745</v>
+        <v>0.116287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172298</v>
+        <v>0.171661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17298</v>
+        <v>0.173345</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110862</v>
+        <v>0.111413</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171322</v>
+        <v>0.170735</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171858</v>
+        <v>0.172011</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106104</v>
+        <v>0.106463</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170482</v>
+        <v>0.169821</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170616</v>
+        <v>0.170781</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101353</v>
+        <v>0.101739</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169525</v>
+        <v>0.168897</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16968</v>
+        <v>0.169644</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0961714</v>
+        <v>0.0966955</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168445</v>
+        <v>0.167849</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186654</v>
+        <v>0.186595</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.15933</v>
+        <v>0.160463</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183668</v>
+        <v>0.183034</v>
       </c>
       <c r="D67" t="n">
-        <v>0.18538</v>
+        <v>0.185238</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.155533</v>
+        <v>0.156102</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182265</v>
+        <v>0.181476</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18376</v>
+        <v>0.183736</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151255</v>
+        <v>0.1516</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180922</v>
+        <v>0.180206</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182485</v>
+        <v>0.182578</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.146682</v>
+        <v>0.1471</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17968</v>
+        <v>0.178822</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180938</v>
+        <v>0.180912</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142013</v>
+        <v>0.14266</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178612</v>
+        <v>0.177851</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179852</v>
+        <v>0.179857</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.13729</v>
+        <v>0.137808</v>
       </c>
       <c r="C72" t="n">
-        <v>0.17737</v>
+        <v>0.176798</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178572</v>
+        <v>0.178408</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132557</v>
+        <v>0.132919</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176436</v>
+        <v>0.175581</v>
       </c>
       <c r="D73" t="n">
-        <v>0.17735</v>
+        <v>0.177349</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127746</v>
+        <v>0.127719</v>
       </c>
       <c r="C74" t="n">
-        <v>0.17511</v>
+        <v>0.174507</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176183</v>
+        <v>0.176242</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122863</v>
+        <v>0.122822</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174305</v>
+        <v>0.173469</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174966</v>
+        <v>0.174856</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117889</v>
+        <v>0.117853</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173038</v>
+        <v>0.172395</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173666</v>
+        <v>0.173649</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112916</v>
+        <v>0.113072</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17204</v>
+        <v>0.17136</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172411</v>
+        <v>0.172408</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108073</v>
+        <v>0.10806</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170906</v>
+        <v>0.17025</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171142</v>
+        <v>0.171342</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10312</v>
+        <v>0.103134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169847</v>
+        <v>0.169182</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169853</v>
+        <v>0.169998</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09823949999999999</v>
+        <v>0.0982794</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168724</v>
+        <v>0.168151</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187447</v>
+        <v>0.187396</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161894</v>
+        <v>0.162305</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184426</v>
+        <v>0.183507</v>
       </c>
       <c r="D81" t="n">
-        <v>0.186022</v>
+        <v>0.186003</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157869</v>
+        <v>0.15852</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182995</v>
+        <v>0.182173</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184466</v>
+        <v>0.184481</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153647</v>
+        <v>0.154091</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181719</v>
+        <v>0.18089</v>
       </c>
       <c r="D83" t="n">
-        <v>0.183015</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148907</v>
+        <v>0.149244</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180382</v>
+        <v>0.179463</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181626</v>
+        <v>0.181499</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144238</v>
+        <v>0.143901</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179153</v>
+        <v>0.178168</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180305</v>
+        <v>0.180089</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139356</v>
+        <v>0.139158</v>
       </c>
       <c r="C86" t="n">
-        <v>0.17777</v>
+        <v>0.176941</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178869</v>
+        <v>0.178688</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134378</v>
+        <v>0.134111</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176828</v>
+        <v>0.175892</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177732</v>
+        <v>0.177519</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129372</v>
+        <v>0.12901</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175571</v>
+        <v>0.174805</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176324</v>
+        <v>0.176331</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.12454</v>
+        <v>0.124792</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174409</v>
+        <v>0.173715</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175132</v>
+        <v>0.175052</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119662</v>
+        <v>0.119812</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173422</v>
+        <v>0.172699</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173852</v>
+        <v>0.173868</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114528</v>
+        <v>0.114761</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172267</v>
+        <v>0.171569</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172599</v>
+        <v>0.172572</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109529</v>
+        <v>0.109723</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171085</v>
+        <v>0.170403</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171239</v>
+        <v>0.171348</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104548</v>
+        <v>0.104725</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170034</v>
+        <v>0.169372</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170055</v>
+        <v>0.170073</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0995844</v>
+        <v>0.09972449999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168919</v>
+        <v>0.168304</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187567</v>
+        <v>0.187526</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162006</v>
+        <v>0.162009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184401</v>
+        <v>0.183595</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185912</v>
+        <v>0.185845</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.15826</v>
+        <v>0.158583</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183002</v>
+        <v>0.182212</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184442</v>
+        <v>0.184358</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153958</v>
+        <v>0.154446</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181726</v>
+        <v>0.180873</v>
       </c>
       <c r="D97" t="n">
-        <v>0.18306</v>
+        <v>0.182952</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149522</v>
+        <v>0.149552</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180302</v>
+        <v>0.179558</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181531</v>
+        <v>0.181568</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144687</v>
+        <v>0.144987</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179043</v>
+        <v>0.178369</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180206</v>
+        <v>0.18025</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139801</v>
+        <v>0.140204</v>
       </c>
       <c r="C100" t="n">
-        <v>0.177891</v>
+        <v>0.177147</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178964</v>
+        <v>0.178943</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134904</v>
+        <v>0.134975</v>
       </c>
       <c r="C101" t="n">
-        <v>0.17667</v>
+        <v>0.176031</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177594</v>
+        <v>0.177522</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129847</v>
+        <v>0.129979</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175502</v>
+        <v>0.174838</v>
       </c>
       <c r="D102" t="n">
-        <v>0.17641</v>
+        <v>0.176228</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124999</v>
+        <v>0.124991</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174486</v>
+        <v>0.173777</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175163</v>
+        <v>0.175147</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119985</v>
+        <v>0.119818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173312</v>
+        <v>0.172687</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173766</v>
+        <v>0.173827</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114915</v>
+        <v>0.114946</v>
       </c>
       <c r="C105" t="n">
-        <v>0.171989</v>
+        <v>0.171481</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17244</v>
+        <v>0.172612</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.109926</v>
+        <v>0.11015</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170886</v>
+        <v>0.170375</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171209</v>
+        <v>0.171364</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105117</v>
+        <v>0.105131</v>
       </c>
       <c r="C107" t="n">
-        <v>0.16989</v>
+        <v>0.169444</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169922</v>
+        <v>0.170158</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100229</v>
+        <v>0.100291</v>
       </c>
       <c r="C108" t="n">
-        <v>0.168872</v>
+        <v>0.168449</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187801</v>
+        <v>0.187773</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09542490000000001</v>
+        <v>0.09551220000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.167983</v>
+        <v>0.167363</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186275</v>
+        <v>0.186228</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159233</v>
+        <v>0.159429</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18349</v>
+        <v>0.1826</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185159</v>
+        <v>0.184701</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.154976</v>
+        <v>0.155116</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182094</v>
+        <v>0.181309</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183331</v>
+        <v>0.183168</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15038</v>
+        <v>0.150537</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18068</v>
+        <v>0.179961</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181936</v>
+        <v>0.181781</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145626</v>
+        <v>0.145899</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179477</v>
+        <v>0.17865</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180406</v>
+        <v>0.180344</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140869</v>
+        <v>0.140824</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178217</v>
+        <v>0.177524</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179079</v>
+        <v>0.179143</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135951</v>
+        <v>0.135978</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17703</v>
+        <v>0.176254</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177818</v>
+        <v>0.177774</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.13097</v>
+        <v>0.131008</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175899</v>
+        <v>0.175296</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176627</v>
+        <v>0.176563</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12597</v>
+        <v>0.125774</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174777</v>
+        <v>0.17403</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175431</v>
+        <v>0.175391</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121067</v>
+        <v>0.120808</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173793</v>
+        <v>0.172992</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174141</v>
+        <v>0.174103</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116012</v>
+        <v>0.116014</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172536</v>
+        <v>0.171815</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172994</v>
+        <v>0.173013</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111118</v>
+        <v>0.111027</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171379</v>
+        <v>0.17079</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171742</v>
+        <v>0.171685</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106203</v>
+        <v>0.106174</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170396</v>
+        <v>0.169795</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170452</v>
+        <v>0.170434</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101374</v>
+        <v>0.101271</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169289</v>
+        <v>0.168627</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169194</v>
+        <v>0.169231</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965462</v>
+        <v>0.0964695</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168228</v>
+        <v>0.167584</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186692</v>
+        <v>0.186602</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160101</v>
+        <v>0.159944</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183764</v>
+        <v>0.182924</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1852</v>
+        <v>0.185119</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155843</v>
+        <v>0.155947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182311</v>
+        <v>0.181592</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183565</v>
+        <v>0.183575</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151357</v>
+        <v>0.151444</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181075</v>
+        <v>0.180267</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182206</v>
+        <v>0.182152</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.14669</v>
+        <v>0.146596</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179691</v>
+        <v>0.178999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180867</v>
+        <v>0.180819</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141832</v>
+        <v>0.14173</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178456</v>
+        <v>0.17776</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179448</v>
+        <v>0.179439</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136857</v>
+        <v>0.13681</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177186</v>
+        <v>0.176582</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178224</v>
+        <v>0.17818</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.13187</v>
+        <v>0.131801</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176062</v>
+        <v>0.175416</v>
       </c>
       <c r="D130" t="n">
-        <v>0.17689</v>
+        <v>0.176885</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126847</v>
+        <v>0.126783</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174879</v>
+        <v>0.174246</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175689</v>
+        <v>0.175544</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121872</v>
+        <v>0.121831</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173843</v>
+        <v>0.173157</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174393</v>
+        <v>0.174366</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117031</v>
+        <v>0.117083</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172795</v>
+        <v>0.172159</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173209</v>
+        <v>0.173259</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112162</v>
+        <v>0.112217</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171756</v>
+        <v>0.171024</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172054</v>
+        <v>0.171966</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107236</v>
+        <v>0.107315</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170642</v>
+        <v>0.169962</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170795</v>
+        <v>0.170692</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102409</v>
+        <v>0.102347</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169627</v>
+        <v>0.168806</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169493</v>
+        <v>0.169354</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0975303</v>
+        <v>0.0973866</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168489</v>
+        <v>0.167706</v>
       </c>
       <c r="D137" t="n">
-        <v>0.187036</v>
+        <v>0.186909</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.165455</v>
+        <v>0.166108</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184013</v>
+        <v>0.183253</v>
       </c>
       <c r="D138" t="n">
-        <v>0.185422</v>
+        <v>0.185274</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.161597</v>
+        <v>0.16217</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182543</v>
+        <v>0.181806</v>
       </c>
       <c r="D139" t="n">
-        <v>0.183931</v>
+        <v>0.183791</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.156985</v>
+        <v>0.157356</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181181</v>
+        <v>0.180445</v>
       </c>
       <c r="D140" t="n">
-        <v>0.182491</v>
+        <v>0.182413</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.152169</v>
+        <v>0.15246</v>
       </c>
       <c r="C141" t="n">
-        <v>0.179885</v>
+        <v>0.179214</v>
       </c>
       <c r="D141" t="n">
-        <v>0.181079</v>
+        <v>0.180958</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.147349</v>
+        <v>0.147076</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1787</v>
+        <v>0.177922</v>
       </c>
       <c r="D142" t="n">
-        <v>0.179737</v>
+        <v>0.179682</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.141901</v>
+        <v>0.142115</v>
       </c>
       <c r="C143" t="n">
-        <v>0.177537</v>
+        <v>0.176809</v>
       </c>
       <c r="D143" t="n">
-        <v>0.178478</v>
+        <v>0.178343</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06795039999999999</v>
+        <v>0.07298259999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.156598</v>
+        <v>0.159279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161257</v>
+        <v>0.160451</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06827279999999999</v>
+        <v>0.0712097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.156379</v>
+        <v>0.159531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161477</v>
+        <v>0.15984</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0680007</v>
+        <v>0.0720215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.156976</v>
+        <v>0.159916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.161607</v>
+        <v>0.161571</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0681293</v>
+        <v>0.07002460000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.156984</v>
+        <v>0.160172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161822</v>
+        <v>0.160516</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06829</v>
+        <v>0.07065929999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15742</v>
+        <v>0.159857</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161767</v>
+        <v>0.161304</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0682403</v>
+        <v>0.0691763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.156745</v>
+        <v>0.160431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160888</v>
+        <v>0.16031</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0681573</v>
+        <v>0.069092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.157753</v>
+        <v>0.160459</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161166</v>
+        <v>0.160728</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0686599</v>
+        <v>0.0684944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.157483</v>
+        <v>0.1601</v>
       </c>
       <c r="D9" t="n">
-        <v>0.173452</v>
+        <v>0.16767</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.111712</v>
+        <v>0.115878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.16343</v>
+        <v>0.166565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.173001</v>
+        <v>0.167619</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.111347</v>
+        <v>0.117685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164029</v>
+        <v>0.166562</v>
       </c>
       <c r="D11" t="n">
-        <v>0.173378</v>
+        <v>0.167533</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.111724</v>
+        <v>0.1186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165122</v>
+        <v>0.16622</v>
       </c>
       <c r="D12" t="n">
-        <v>0.173303</v>
+        <v>0.167202</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.110099</v>
+        <v>0.1155</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165315</v>
+        <v>0.165699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173602</v>
+        <v>0.16666</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.108433</v>
+        <v>0.113595</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16487</v>
+        <v>0.165521</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173148</v>
+        <v>0.166507</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10635</v>
+        <v>0.112053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164946</v>
+        <v>0.165454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172604</v>
+        <v>0.166204</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.103879</v>
+        <v>0.109475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164281</v>
+        <v>0.165168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171424</v>
+        <v>0.166124</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10157</v>
+        <v>0.104355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164198</v>
+        <v>0.164658</v>
       </c>
       <c r="D17" t="n">
-        <v>0.17123</v>
+        <v>0.165371</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0978899</v>
+        <v>0.103223</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164636</v>
+        <v>0.164322</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170497</v>
+        <v>0.165339</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0940434</v>
+        <v>0.100759</v>
       </c>
       <c r="C19" t="n">
-        <v>0.163569</v>
+        <v>0.163931</v>
       </c>
       <c r="D19" t="n">
-        <v>0.169536</v>
+        <v>0.164874</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09468799999999999</v>
+        <v>0.100441</v>
       </c>
       <c r="C20" t="n">
-        <v>0.168224</v>
+        <v>0.165298</v>
       </c>
       <c r="D20" t="n">
-        <v>0.171458</v>
+        <v>0.165097</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09315809999999999</v>
+        <v>0.0955406</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166277</v>
+        <v>0.164945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169868</v>
+        <v>0.164838</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0899025</v>
+        <v>0.0911791</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16521</v>
+        <v>0.163782</v>
       </c>
       <c r="D22" t="n">
-        <v>0.168611</v>
+        <v>0.164653</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0863177</v>
+        <v>0.08682579999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.163865</v>
+        <v>0.164364</v>
       </c>
       <c r="D23" t="n">
-        <v>0.183484</v>
+        <v>0.173555</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.145562</v>
+        <v>0.148212</v>
       </c>
       <c r="C24" t="n">
-        <v>0.17778</v>
+        <v>0.172161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18327</v>
+        <v>0.176318</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.14407</v>
+        <v>0.145319</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177022</v>
+        <v>0.171462</v>
       </c>
       <c r="D25" t="n">
-        <v>0.181222</v>
+        <v>0.172962</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141533</v>
+        <v>0.141998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17503</v>
+        <v>0.170652</v>
       </c>
       <c r="D26" t="n">
-        <v>0.18095</v>
+        <v>0.176583</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13764</v>
+        <v>0.138009</v>
       </c>
       <c r="C27" t="n">
-        <v>0.174742</v>
+        <v>0.169522</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178653</v>
+        <v>0.176767</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133966</v>
+        <v>0.134231</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174528</v>
+        <v>0.17035</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177589</v>
+        <v>0.169927</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.129852</v>
+        <v>0.130514</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173383</v>
+        <v>0.170091</v>
       </c>
       <c r="D29" t="n">
-        <v>0.175883</v>
+        <v>0.173282</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.124907</v>
+        <v>0.126506</v>
       </c>
       <c r="C30" t="n">
-        <v>0.171853</v>
+        <v>0.169297</v>
       </c>
       <c r="D30" t="n">
-        <v>0.174606</v>
+        <v>0.170005</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.121082</v>
+        <v>0.122291</v>
       </c>
       <c r="C31" t="n">
-        <v>0.171715</v>
+        <v>0.168455</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174492</v>
+        <v>0.171421</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.117099</v>
+        <v>0.11783</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170541</v>
+        <v>0.167498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173058</v>
+        <v>0.167568</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.112754</v>
+        <v>0.114431</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169681</v>
+        <v>0.167514</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173062</v>
+        <v>0.166847</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.108505</v>
+        <v>0.109948</v>
       </c>
       <c r="C34" t="n">
-        <v>0.169098</v>
+        <v>0.167451</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171915</v>
+        <v>0.168985</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.103664</v>
+        <v>0.105186</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167555</v>
+        <v>0.167303</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170777</v>
+        <v>0.166699</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09816270000000001</v>
+        <v>0.100624</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167386</v>
+        <v>0.166371</v>
       </c>
       <c r="D36" t="n">
-        <v>0.170501</v>
+        <v>0.16564</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0940757</v>
+        <v>0.0959555</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165858</v>
+        <v>0.166033</v>
       </c>
       <c r="D37" t="n">
-        <v>0.18535</v>
+        <v>0.182958</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156006</v>
+        <v>0.157587</v>
       </c>
       <c r="C38" t="n">
-        <v>0.180382</v>
+        <v>0.17866</v>
       </c>
       <c r="D38" t="n">
-        <v>0.184179</v>
+        <v>0.180524</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.152802</v>
+        <v>0.153443</v>
       </c>
       <c r="C39" t="n">
-        <v>0.179984</v>
+        <v>0.177651</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182484</v>
+        <v>0.180934</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148841</v>
+        <v>0.149937</v>
       </c>
       <c r="C40" t="n">
-        <v>0.178776</v>
+        <v>0.177156</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181663</v>
+        <v>0.178236</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144533</v>
+        <v>0.146009</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177798</v>
+        <v>0.176345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180078</v>
+        <v>0.179629</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140497</v>
+        <v>0.14224</v>
       </c>
       <c r="C42" t="n">
-        <v>0.176084</v>
+        <v>0.176385</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178678</v>
+        <v>0.175988</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136097</v>
+        <v>0.137723</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174696</v>
+        <v>0.174149</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177427</v>
+        <v>0.176036</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131581</v>
+        <v>0.133037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174235</v>
+        <v>0.173298</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176617</v>
+        <v>0.174811</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.127412</v>
+        <v>0.128788</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17338</v>
+        <v>0.17212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175715</v>
+        <v>0.174144</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122459</v>
+        <v>0.123822</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172314</v>
+        <v>0.171601</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174308</v>
+        <v>0.17122</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118144</v>
+        <v>0.118769</v>
       </c>
       <c r="C47" t="n">
-        <v>0.171042</v>
+        <v>0.170988</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17274</v>
+        <v>0.171525</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113229</v>
+        <v>0.114002</v>
       </c>
       <c r="C48" t="n">
-        <v>0.170383</v>
+        <v>0.170721</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171948</v>
+        <v>0.171157</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108556</v>
+        <v>0.109192</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169165</v>
+        <v>0.169977</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170785</v>
+        <v>0.168175</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103512</v>
+        <v>0.104531</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168435</v>
+        <v>0.168594</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169466</v>
+        <v>0.167485</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0985523</v>
+        <v>0.0996165</v>
       </c>
       <c r="C51" t="n">
-        <v>0.16696</v>
+        <v>0.168177</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187098</v>
+        <v>0.185418</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0935385</v>
+        <v>0.0948362</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166617</v>
+        <v>0.167535</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185471</v>
+        <v>0.183989</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.157795</v>
+        <v>0.157976</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18126</v>
+        <v>0.181227</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184539</v>
+        <v>0.183393</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153717</v>
+        <v>0.153996</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180378</v>
+        <v>0.180451</v>
       </c>
       <c r="D54" t="n">
-        <v>0.182765</v>
+        <v>0.182403</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14969</v>
+        <v>0.149528</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179133</v>
+        <v>0.179182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181659</v>
+        <v>0.180173</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145079</v>
+        <v>0.145596</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178114</v>
+        <v>0.178048</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180471</v>
+        <v>0.178858</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140479</v>
+        <v>0.140822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.176806</v>
+        <v>0.176419</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17925</v>
+        <v>0.178373</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135604</v>
+        <v>0.135951</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175614</v>
+        <v>0.176194</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177919</v>
+        <v>0.176503</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130919</v>
+        <v>0.131123</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174673</v>
+        <v>0.174844</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176495</v>
+        <v>0.175602</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126098</v>
+        <v>0.126374</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173696</v>
+        <v>0.173852</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175546</v>
+        <v>0.174485</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121298</v>
+        <v>0.121305</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172679</v>
+        <v>0.173038</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174216</v>
+        <v>0.173374</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116287</v>
+        <v>0.116495</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171661</v>
+        <v>0.172028</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173345</v>
+        <v>0.172095</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111413</v>
+        <v>0.111464</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170735</v>
+        <v>0.170938</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172011</v>
+        <v>0.170832</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106463</v>
+        <v>0.106716</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169821</v>
+        <v>0.170107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170781</v>
+        <v>0.169611</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101739</v>
+        <v>0.101772</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168897</v>
+        <v>0.169121</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169644</v>
+        <v>0.168477</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0966955</v>
+        <v>0.0969164</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167849</v>
+        <v>0.168199</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186595</v>
+        <v>0.186075</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160463</v>
+        <v>0.160412</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183034</v>
+        <v>0.182993</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185238</v>
+        <v>0.184581</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156102</v>
+        <v>0.156466</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181476</v>
+        <v>0.181934</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183736</v>
+        <v>0.183152</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1516</v>
+        <v>0.152037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180206</v>
+        <v>0.180638</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182578</v>
+        <v>0.181904</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1471</v>
+        <v>0.14759</v>
       </c>
       <c r="C70" t="n">
-        <v>0.178822</v>
+        <v>0.179527</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180912</v>
+        <v>0.180499</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14266</v>
+        <v>0.142785</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177851</v>
+        <v>0.178266</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179857</v>
+        <v>0.179412</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137808</v>
+        <v>0.138176</v>
       </c>
       <c r="C72" t="n">
-        <v>0.176798</v>
+        <v>0.177121</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178408</v>
+        <v>0.178134</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132919</v>
+        <v>0.133128</v>
       </c>
       <c r="C73" t="n">
-        <v>0.175581</v>
+        <v>0.176114</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177349</v>
+        <v>0.176731</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127719</v>
+        <v>0.128401</v>
       </c>
       <c r="C74" t="n">
-        <v>0.174507</v>
+        <v>0.174714</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176242</v>
+        <v>0.175547</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122822</v>
+        <v>0.123305</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173469</v>
+        <v>0.173737</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174856</v>
+        <v>0.174379</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.117853</v>
+        <v>0.11846</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172395</v>
+        <v>0.172755</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173649</v>
+        <v>0.173069</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113072</v>
+        <v>0.113486</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17136</v>
+        <v>0.171706</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172408</v>
+        <v>0.172081</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.10806</v>
+        <v>0.108753</v>
       </c>
       <c r="C78" t="n">
-        <v>0.17025</v>
+        <v>0.170994</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171342</v>
+        <v>0.171065</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103134</v>
+        <v>0.103937</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169182</v>
+        <v>0.169972</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169998</v>
+        <v>0.169639</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0982794</v>
+        <v>0.09895329999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168151</v>
+        <v>0.168926</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187396</v>
+        <v>0.187025</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.162305</v>
+        <v>0.161644</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183507</v>
+        <v>0.183782</v>
       </c>
       <c r="D81" t="n">
-        <v>0.186003</v>
+        <v>0.18549</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.15852</v>
+        <v>0.157522</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182173</v>
+        <v>0.182529</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184481</v>
+        <v>0.18413</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.154091</v>
+        <v>0.153763</v>
       </c>
       <c r="C83" t="n">
-        <v>0.18089</v>
+        <v>0.181218</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182909</v>
+        <v>0.182823</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149244</v>
+        <v>0.148679</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179463</v>
+        <v>0.179982</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181499</v>
+        <v>0.181306</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143901</v>
+        <v>0.143658</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178168</v>
+        <v>0.178765</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180089</v>
+        <v>0.179973</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139158</v>
+        <v>0.138768</v>
       </c>
       <c r="C86" t="n">
-        <v>0.176941</v>
+        <v>0.177541</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178688</v>
+        <v>0.178672</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134111</v>
+        <v>0.133847</v>
       </c>
       <c r="C87" t="n">
-        <v>0.175892</v>
+        <v>0.1765</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177519</v>
+        <v>0.177535</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.12901</v>
+        <v>0.128948</v>
       </c>
       <c r="C88" t="n">
-        <v>0.174805</v>
+        <v>0.175436</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176331</v>
+        <v>0.176267</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124792</v>
+        <v>0.123949</v>
       </c>
       <c r="C89" t="n">
-        <v>0.173715</v>
+        <v>0.174395</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175052</v>
+        <v>0.175118</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119812</v>
+        <v>0.118963</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172699</v>
+        <v>0.173401</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173868</v>
+        <v>0.173816</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114761</v>
+        <v>0.114122</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171569</v>
+        <v>0.172322</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172572</v>
+        <v>0.172616</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109723</v>
+        <v>0.109185</v>
       </c>
       <c r="C92" t="n">
-        <v>0.170403</v>
+        <v>0.171258</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171348</v>
+        <v>0.171558</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104725</v>
+        <v>0.10437</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169372</v>
+        <v>0.170221</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170073</v>
+        <v>0.170172</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09972449999999999</v>
+        <v>0.0993728</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168304</v>
+        <v>0.169131</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187526</v>
+        <v>0.187555</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162009</v>
+        <v>0.162574</v>
       </c>
       <c r="C95" t="n">
-        <v>0.183595</v>
+        <v>0.184458</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185845</v>
+        <v>0.186034</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158583</v>
+        <v>0.158918</v>
       </c>
       <c r="C96" t="n">
-        <v>0.182212</v>
+        <v>0.18311</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184358</v>
+        <v>0.184566</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154446</v>
+        <v>0.154482</v>
       </c>
       <c r="C97" t="n">
-        <v>0.180873</v>
+        <v>0.181756</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182952</v>
+        <v>0.183157</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149552</v>
+        <v>0.149841</v>
       </c>
       <c r="C98" t="n">
-        <v>0.179558</v>
+        <v>0.180597</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181568</v>
+        <v>0.181734</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144987</v>
+        <v>0.14528</v>
       </c>
       <c r="C99" t="n">
-        <v>0.178369</v>
+        <v>0.179423</v>
       </c>
       <c r="D99" t="n">
-        <v>0.18025</v>
+        <v>0.180416</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140204</v>
+        <v>0.140161</v>
       </c>
       <c r="C100" t="n">
-        <v>0.177147</v>
+        <v>0.178165</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178943</v>
+        <v>0.17923</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134975</v>
+        <v>0.135249</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176031</v>
+        <v>0.176992</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177522</v>
+        <v>0.177932</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129979</v>
+        <v>0.13029</v>
       </c>
       <c r="C102" t="n">
-        <v>0.174838</v>
+        <v>0.175876</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176228</v>
+        <v>0.176684</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124991</v>
+        <v>0.125136</v>
       </c>
       <c r="C103" t="n">
-        <v>0.173777</v>
+        <v>0.174754</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175147</v>
+        <v>0.175445</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119818</v>
+        <v>0.120032</v>
       </c>
       <c r="C104" t="n">
-        <v>0.172687</v>
+        <v>0.173655</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173827</v>
+        <v>0.174226</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114946</v>
+        <v>0.115112</v>
       </c>
       <c r="C105" t="n">
-        <v>0.171481</v>
+        <v>0.172532</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172612</v>
+        <v>0.173033</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.11015</v>
+        <v>0.110139</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170375</v>
+        <v>0.17148</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171364</v>
+        <v>0.17175</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105131</v>
+        <v>0.105322</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169444</v>
+        <v>0.170395</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170158</v>
+        <v>0.170555</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100291</v>
+        <v>0.100479</v>
       </c>
       <c r="C108" t="n">
-        <v>0.168449</v>
+        <v>0.169389</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187773</v>
+        <v>0.188015</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09551220000000001</v>
+        <v>0.0955894</v>
       </c>
       <c r="C109" t="n">
-        <v>0.167363</v>
+        <v>0.16831</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186228</v>
+        <v>0.186469</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159429</v>
+        <v>0.159496</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1826</v>
+        <v>0.183651</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184701</v>
+        <v>0.185059</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155116</v>
+        <v>0.155377</v>
       </c>
       <c r="C111" t="n">
-        <v>0.181309</v>
+        <v>0.18219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183168</v>
+        <v>0.183606</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150537</v>
+        <v>0.150752</v>
       </c>
       <c r="C112" t="n">
-        <v>0.179961</v>
+        <v>0.180908</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181781</v>
+        <v>0.18225</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145899</v>
+        <v>0.145881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.17865</v>
+        <v>0.179663</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180344</v>
+        <v>0.180794</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140824</v>
+        <v>0.140855</v>
       </c>
       <c r="C114" t="n">
-        <v>0.177524</v>
+        <v>0.178378</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179143</v>
+        <v>0.179529</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135978</v>
+        <v>0.135861</v>
       </c>
       <c r="C115" t="n">
-        <v>0.176254</v>
+        <v>0.177238</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177774</v>
+        <v>0.178203</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131008</v>
+        <v>0.130875</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175296</v>
+        <v>0.176057</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176563</v>
+        <v>0.17689</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125774</v>
+        <v>0.125921</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17403</v>
+        <v>0.17496</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175391</v>
+        <v>0.17571</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120808</v>
+        <v>0.121079</v>
       </c>
       <c r="C118" t="n">
-        <v>0.172992</v>
+        <v>0.173839</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174103</v>
+        <v>0.174486</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116014</v>
+        <v>0.116102</v>
       </c>
       <c r="C119" t="n">
-        <v>0.171815</v>
+        <v>0.172867</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173013</v>
+        <v>0.173255</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111027</v>
+        <v>0.111233</v>
       </c>
       <c r="C120" t="n">
-        <v>0.17079</v>
+        <v>0.171748</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171685</v>
+        <v>0.172019</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106174</v>
+        <v>0.106304</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169795</v>
+        <v>0.17071</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170434</v>
+        <v>0.170723</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101271</v>
+        <v>0.101443</v>
       </c>
       <c r="C122" t="n">
-        <v>0.168627</v>
+        <v>0.169544</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169231</v>
+        <v>0.169479</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0964695</v>
+        <v>0.09654890000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.167584</v>
+        <v>0.168514</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186602</v>
+        <v>0.186924</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.159944</v>
+        <v>0.168509</v>
       </c>
       <c r="C124" t="n">
-        <v>0.182924</v>
+        <v>0.183801</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185119</v>
+        <v>0.185162</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.155947</v>
+        <v>0.15894</v>
       </c>
       <c r="C125" t="n">
-        <v>0.181592</v>
+        <v>0.182276</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183575</v>
+        <v>0.183692</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151444</v>
+        <v>0.159678</v>
       </c>
       <c r="C126" t="n">
-        <v>0.180267</v>
+        <v>0.180973</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182152</v>
+        <v>0.18229</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146596</v>
+        <v>0.154228</v>
       </c>
       <c r="C127" t="n">
-        <v>0.178999</v>
+        <v>0.179958</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180819</v>
+        <v>0.181036</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14173</v>
+        <v>0.149536</v>
       </c>
       <c r="C128" t="n">
-        <v>0.17776</v>
+        <v>0.178678</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179439</v>
+        <v>0.179695</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.13681</v>
+        <v>0.144239</v>
       </c>
       <c r="C129" t="n">
-        <v>0.176582</v>
+        <v>0.177433</v>
       </c>
       <c r="D129" t="n">
-        <v>0.17818</v>
+        <v>0.178428</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.131801</v>
+        <v>0.138932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.175416</v>
+        <v>0.176289</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176885</v>
+        <v>0.17726</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126783</v>
+        <v>0.133429</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174246</v>
+        <v>0.175285</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175544</v>
+        <v>0.175945</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.121831</v>
+        <v>0.128395</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173157</v>
+        <v>0.17403</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174366</v>
+        <v>0.174664</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117083</v>
+        <v>0.123232</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172159</v>
+        <v>0.173003</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173259</v>
+        <v>0.173481</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112217</v>
+        <v>0.118089</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171024</v>
+        <v>0.17193</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171966</v>
+        <v>0.172301</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107315</v>
+        <v>0.113005</v>
       </c>
       <c r="C135" t="n">
-        <v>0.169962</v>
+        <v>0.170909</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170692</v>
+        <v>0.171083</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102347</v>
+        <v>0.107832</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168806</v>
+        <v>0.169769</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169354</v>
+        <v>0.169795</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0973866</v>
+        <v>0.102694</v>
       </c>
       <c r="C137" t="n">
-        <v>0.167706</v>
+        <v>0.168699</v>
       </c>
       <c r="D137" t="n">
-        <v>0.186909</v>
+        <v>0.196592</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166108</v>
+        <v>0.170691</v>
       </c>
       <c r="C138" t="n">
-        <v>0.183253</v>
+        <v>0.194357</v>
       </c>
       <c r="D138" t="n">
-        <v>0.185274</v>
+        <v>0.194563</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16217</v>
+        <v>0.166121</v>
       </c>
       <c r="C139" t="n">
-        <v>0.181806</v>
+        <v>0.192211</v>
       </c>
       <c r="D139" t="n">
-        <v>0.183791</v>
+        <v>0.192833</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157356</v>
+        <v>0.161407</v>
       </c>
       <c r="C140" t="n">
-        <v>0.180445</v>
+        <v>0.191134</v>
       </c>
       <c r="D140" t="n">
-        <v>0.182413</v>
+        <v>0.190933</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15246</v>
+        <v>0.156126</v>
       </c>
       <c r="C141" t="n">
-        <v>0.179214</v>
+        <v>0.188527</v>
       </c>
       <c r="D141" t="n">
-        <v>0.180958</v>
+        <v>0.189234</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.147076</v>
+        <v>0.151131</v>
       </c>
       <c r="C142" t="n">
-        <v>0.177922</v>
+        <v>0.186944</v>
       </c>
       <c r="D142" t="n">
-        <v>0.179682</v>
+        <v>0.187425</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.142115</v>
+        <v>0.145778</v>
       </c>
       <c r="C143" t="n">
-        <v>0.176809</v>
+        <v>0.185369</v>
       </c>
       <c r="D143" t="n">
-        <v>0.178343</v>
+        <v>0.185808</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.194612</v>
+                  <v>0.07298259999999999</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.191638</v>
+                  <v>0.0712097</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.185948</v>
+                  <v>0.0720215</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.181213</v>
+                  <v>0.07002460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.176405</v>
+                  <v>0.07065929999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.168787</v>
+                  <v>0.0691763</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.161006</v>
+                  <v>0.069092</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150825</v>
+                  <v>0.0684944</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.228826</v>
+                  <v>0.115878</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226788</v>
+                  <v>0.117685</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224044</v>
+                  <v>0.1186</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.220862</v>
+                  <v>0.1155</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.216427</v>
+                  <v>0.113595</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212846</v>
+                  <v>0.112053</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.208735</v>
+                  <v>0.109475</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.203903</v>
+                  <v>0.104355</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.199642</v>
+                  <v>0.103223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.194027</v>
+                  <v>0.100759</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.188103</v>
+                  <v>0.100441</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.180311</v>
+                  <v>0.0955406</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.17321</v>
+                  <v>0.0911791</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164054</v>
+                  <v>0.08682579999999999</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.239603</v>
+                  <v>0.148212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.236062</v>
+                  <v>0.145319</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.233229</v>
+                  <v>0.141998</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229128</v>
+                  <v>0.138009</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.22522</v>
+                  <v>0.134231</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.21992</v>
+                  <v>0.130514</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215386</v>
+                  <v>0.126506</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.211557</v>
+                  <v>0.122291</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.206831</v>
+                  <v>0.11783</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.200459</v>
+                  <v>0.114431</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194838</v>
+                  <v>0.109948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.1876</v>
+                  <v>0.105186</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.180276</v>
+                  <v>0.100624</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171747</v>
+                  <v>0.0959555</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243193</v>
+                  <v>0.157587</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.241149</v>
+                  <v>0.153443</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.237429</v>
+                  <v>0.149937</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.23329</v>
+                  <v>0.146009</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.230414</v>
+                  <v>0.14224</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.22565</v>
+                  <v>0.137723</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.220718</v>
+                  <v>0.133037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216313</v>
+                  <v>0.128788</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.210133</v>
+                  <v>0.123822</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204258</v>
+                  <v>0.118769</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198303</v>
+                  <v>0.114002</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.192364</v>
+                  <v>0.109192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.185475</v>
+                  <v>0.104531</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.177313</v>
+                  <v>0.0996165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.165935</v>
+                  <v>0.0948362</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.244443</v>
+                  <v>0.157976</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.24075</v>
+                  <v>0.153996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.237198</v>
+                  <v>0.149528</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.232552</v>
+                  <v>0.145596</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.227956</v>
+                  <v>0.140822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223337</v>
+                  <v>0.135951</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218764</v>
+                  <v>0.131123</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21417</v>
+                  <v>0.126374</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.207987</v>
+                  <v>0.121305</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.201565</v>
+                  <v>0.116495</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.194506</v>
+                  <v>0.111464</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.187368</v>
+                  <v>0.106716</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.179344</v>
+                  <v>0.101772</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.169953</v>
+                  <v>0.0969164</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246575</v>
+                  <v>0.160412</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.243515</v>
+                  <v>0.156466</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.239984</v>
+                  <v>0.152037</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.235197</v>
+                  <v>0.14759</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230719</v>
+                  <v>0.142785</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.225781</v>
+                  <v>0.138176</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.220304</v>
+                  <v>0.133128</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214988</v>
+                  <v>0.128401</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209112</v>
+                  <v>0.123305</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.203632</v>
+                  <v>0.11846</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196996</v>
+                  <v>0.113486</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.1892</v>
+                  <v>0.108753</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181456</v>
+                  <v>0.103937</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.17154</v>
+                  <v>0.09895329999999999</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.248397</v>
+                  <v>0.161644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.244699</v>
+                  <v>0.157522</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.240805</v>
+                  <v>0.153763</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236921</v>
+                  <v>0.148679</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.23242</v>
+                  <v>0.143658</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.227354</v>
+                  <v>0.138768</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.222391</v>
+                  <v>0.133847</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217037</v>
+                  <v>0.128948</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211349</v>
+                  <v>0.123949</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.205524</v>
+                  <v>0.118963</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.198702</v>
+                  <v>0.114122</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191964</v>
+                  <v>0.109185</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183929</v>
+                  <v>0.10437</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.17547</v>
+                  <v>0.0993728</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248616</v>
+                  <v>0.162574</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.245787</v>
+                  <v>0.158918</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.242009</v>
+                  <v>0.154482</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.238089</v>
+                  <v>0.149841</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23324</v>
+                  <v>0.14528</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.228697</v>
+                  <v>0.140161</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223516</v>
+                  <v>0.135249</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21841</v>
+                  <v>0.13029</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.213314</v>
+                  <v>0.125136</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.207162</v>
+                  <v>0.120032</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.200421</v>
+                  <v>0.115112</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.193599</v>
+                  <v>0.110139</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.185725</v>
+                  <v>0.105322</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.176764</v>
+                  <v>0.100479</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.166714</v>
+                  <v>0.0955894</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.245794</v>
+                  <v>0.159496</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.242525</v>
+                  <v>0.155377</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.238424</v>
+                  <v>0.150752</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234103</v>
+                  <v>0.145881</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229231</v>
+                  <v>0.140855</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.224664</v>
+                  <v>0.135861</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219304</v>
+                  <v>0.130875</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214252</v>
+                  <v>0.125921</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.208518</v>
+                  <v>0.121079</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202065</v>
+                  <v>0.116102</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.195244</v>
+                  <v>0.111233</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.187756</v>
+                  <v>0.106304</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.179133</v>
+                  <v>0.101443</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169207</v>
+                  <v>0.09654890000000001</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.246917</v>
+                  <v>0.168509</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.246332</v>
+                  <v>0.15894</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.242585</v>
+                  <v>0.159678</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.238219</v>
+                  <v>0.154228</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232265</v>
+                  <v>0.149536</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228123</v>
+                  <v>0.144239</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222635</v>
+                  <v>0.138932</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216763</v>
+                  <v>0.133429</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.210668</v>
+                  <v>0.128395</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.204186</v>
+                  <v>0.123232</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.196987</v>
+                  <v>0.118089</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.189119</v>
+                  <v>0.113005</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.180213</v>
+                  <v>0.107832</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.169992</v>
+                  <v>0.102694</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.247592</v>
+                  <v>0.170691</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.244288</v>
+                  <v>0.166121</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.240723</v>
+                  <v>0.161407</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236424</v>
+                  <v>0.156126</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.231662</v>
+                  <v>0.151131</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.226876</v>
+                  <v>0.145778</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.201291</v>
+                  <v>0.159279</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.201516</v>
+                  <v>0.159531</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.200249</v>
+                  <v>0.159916</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.200249</v>
+                  <v>0.160172</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.200505</v>
+                  <v>0.159857</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.199087</v>
+                  <v>0.160431</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198418</v>
+                  <v>0.160459</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198247</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221437</v>
+                  <v>0.166565</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.219922</v>
+                  <v>0.166562</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.218528</v>
+                  <v>0.16622</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.2171</v>
+                  <v>0.165699</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.215463</v>
+                  <v>0.165521</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214955</v>
+                  <v>0.165454</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.213377</v>
+                  <v>0.165168</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212913</v>
+                  <v>0.164658</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211602</v>
+                  <v>0.164322</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.210815</v>
+                  <v>0.163931</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.207504</v>
+                  <v>0.165298</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.207086</v>
+                  <v>0.164945</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.205552</v>
+                  <v>0.163782</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.204648</v>
+                  <v>0.164364</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.224703</v>
+                  <v>0.172161</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.223023</v>
+                  <v>0.171462</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.220848</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218965</v>
+                  <v>0.169522</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.217972</v>
+                  <v>0.17035</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.215821</v>
+                  <v>0.170091</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.214615</v>
+                  <v>0.169297</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213219</v>
+                  <v>0.168455</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.211578</v>
+                  <v>0.167498</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.210634</v>
+                  <v>0.167514</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.210872</v>
+                  <v>0.167451</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.208499</v>
+                  <v>0.167303</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.206422</v>
+                  <v>0.166371</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.206007</v>
+                  <v>0.166033</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.2255</v>
+                  <v>0.17866</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.223422</v>
+                  <v>0.177651</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.221975</v>
+                  <v>0.177156</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220213</v>
+                  <v>0.176345</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.218556</v>
+                  <v>0.176385</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217427</v>
+                  <v>0.174149</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216138</v>
+                  <v>0.173298</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.214962</v>
+                  <v>0.17212</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2136</v>
+                  <v>0.171601</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213041</v>
+                  <v>0.170988</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.211832</v>
+                  <v>0.170721</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.209509</v>
+                  <v>0.169977</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.208684</v>
+                  <v>0.168594</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.207132</v>
+                  <v>0.168177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.205146</v>
+                  <v>0.167535</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.225152</v>
+                  <v>0.181227</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.222728</v>
+                  <v>0.180451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221529</v>
+                  <v>0.179182</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219913</v>
+                  <v>0.178048</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.218323</v>
+                  <v>0.176419</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.217431</v>
+                  <v>0.176194</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215819</v>
+                  <v>0.174844</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.215038</v>
+                  <v>0.173852</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213131</v>
+                  <v>0.173038</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.212027</v>
+                  <v>0.172028</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.210712</v>
+                  <v>0.170938</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.208761</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.207429</v>
+                  <v>0.169121</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.20611</v>
+                  <v>0.168199</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.226496</v>
+                  <v>0.182993</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224306</v>
+                  <v>0.181934</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22236</v>
+                  <v>0.180638</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220723</v>
+                  <v>0.179527</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.219672</v>
+                  <v>0.178266</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.217845</v>
+                  <v>0.177121</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.216338</v>
+                  <v>0.176114</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215434</v>
+                  <v>0.174714</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21392</v>
+                  <v>0.173737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.212572</v>
+                  <v>0.172755</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.211105</v>
+                  <v>0.171706</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.209406</v>
+                  <v>0.170994</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.207868</v>
+                  <v>0.169972</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.20659</v>
+                  <v>0.168926</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.226701</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225122</v>
+                  <v>0.182529</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.223251</v>
+                  <v>0.181218</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.221644</v>
+                  <v>0.179982</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.220299</v>
+                  <v>0.178765</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.218858</v>
+                  <v>0.177541</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.217246</v>
+                  <v>0.1765</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.215881</v>
+                  <v>0.175436</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214362</v>
+                  <v>0.174395</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.212958</v>
+                  <v>0.173401</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.211369</v>
+                  <v>0.172322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.209912</v>
+                  <v>0.171258</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.20825</v>
+                  <v>0.170221</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.206617</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.228183</v>
+                  <v>0.184458</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.227169</v>
+                  <v>0.18311</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.22497</v>
+                  <v>0.181756</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222703</v>
+                  <v>0.180597</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.221276</v>
+                  <v>0.179423</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.219577</v>
+                  <v>0.178165</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.218228</v>
+                  <v>0.176992</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21622</v>
+                  <v>0.175876</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214969</v>
+                  <v>0.174754</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213557</v>
+                  <v>0.173655</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.212248</v>
+                  <v>0.172532</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210401</v>
+                  <v>0.17148</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208988</v>
+                  <v>0.170395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207346</v>
+                  <v>0.169389</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.205767</v>
+                  <v>0.16831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225906</v>
+                  <v>0.183651</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.224097</v>
+                  <v>0.18219</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.222728</v>
+                  <v>0.180908</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.221308</v>
+                  <v>0.179663</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.220196</v>
+                  <v>0.178378</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21862</v>
+                  <v>0.177238</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.21655</v>
+                  <v>0.176057</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.215537</v>
+                  <v>0.17496</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214238</v>
+                  <v>0.173839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.212117</v>
+                  <v>0.172867</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.210881</v>
+                  <v>0.171748</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.209702</v>
+                  <v>0.17071</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.208043</v>
+                  <v>0.169544</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.206454</v>
+                  <v>0.168514</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226329</v>
+                  <v>0.183801</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.224658</v>
+                  <v>0.182276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.222948</v>
+                  <v>0.180973</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.221866</v>
+                  <v>0.179958</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.220554</v>
+                  <v>0.178678</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.218875</v>
+                  <v>0.177433</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.216964</v>
+                  <v>0.176289</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216028</v>
+                  <v>0.175285</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214504</v>
+                  <v>0.17403</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.212833</v>
+                  <v>0.173003</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.211468</v>
+                  <v>0.17193</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209966</v>
+                  <v>0.170909</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.208345</v>
+                  <v>0.169769</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.206874</v>
+                  <v>0.168699</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.226779</v>
+                  <v>0.194357</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224795</v>
+                  <v>0.192211</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.223089</v>
+                  <v>0.191134</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.222063</v>
+                  <v>0.188527</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.220921</v>
+                  <v>0.186944</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.219072</v>
+                  <v>0.185369</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.208606</v>
+                  <v>0.160451</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.209511</v>
+                  <v>0.15984</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208379</v>
+                  <v>0.161571</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.207471</v>
+                  <v>0.160516</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.208052</v>
+                  <v>0.161304</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.207445</v>
+                  <v>0.16031</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206031</v>
+                  <v>0.160728</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227022</v>
+                  <v>0.16767</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.225902</v>
+                  <v>0.167619</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225349</v>
+                  <v>0.167533</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224759</v>
+                  <v>0.167202</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222172</v>
+                  <v>0.16666</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.220768</v>
+                  <v>0.166507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220222</v>
+                  <v>0.166204</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219154</v>
+                  <v>0.166124</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218249</v>
+                  <v>0.165371</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217496</v>
+                  <v>0.165339</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.21592</v>
+                  <v>0.164874</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215069</v>
+                  <v>0.165097</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.214014</v>
+                  <v>0.164838</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.213713</v>
+                  <v>0.164653</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.231544</v>
+                  <v>0.173555</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.229919</v>
+                  <v>0.176318</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.228007</v>
+                  <v>0.172962</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.225997</v>
+                  <v>0.176583</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224769</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.222897</v>
+                  <v>0.169927</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221417</v>
+                  <v>0.173282</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.220399</v>
+                  <v>0.170005</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.219409</v>
+                  <v>0.171421</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.218654</v>
+                  <v>0.167568</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.2176</v>
+                  <v>0.166847</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.216706</v>
+                  <v>0.168985</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.215503</v>
+                  <v>0.166699</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.21437</v>
+                  <v>0.16564</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.232848</v>
+                  <v>0.182958</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.230791</v>
+                  <v>0.180524</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228567</v>
+                  <v>0.180934</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.227428</v>
+                  <v>0.178236</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225946</v>
+                  <v>0.179629</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224501</v>
+                  <v>0.175988</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223499</v>
+                  <v>0.176036</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.221763</v>
+                  <v>0.174811</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.220712</v>
+                  <v>0.174144</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.219726</v>
+                  <v>0.17122</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.218625</v>
+                  <v>0.171525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.217414</v>
+                  <v>0.171157</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.216309</v>
+                  <v>0.168175</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.215473</v>
+                  <v>0.167485</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.234185</v>
+                  <v>0.185418</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.231995</v>
+                  <v>0.183989</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.230333</v>
+                  <v>0.183393</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.228753</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.227289</v>
+                  <v>0.180173</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225584</v>
+                  <v>0.178858</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224278</v>
+                  <v>0.178373</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223081</v>
+                  <v>0.176503</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.221831</v>
+                  <v>0.175602</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221009</v>
+                  <v>0.174485</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.219558</v>
+                  <v>0.173374</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.218221</v>
+                  <v>0.172095</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.216985</v>
+                  <v>0.170832</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.215766</v>
+                  <v>0.169611</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.215022</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.232794</v>
+                  <v>0.186075</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231625</v>
+                  <v>0.184581</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229878</v>
+                  <v>0.183152</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.227973</v>
+                  <v>0.181904</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226546</v>
+                  <v>0.180499</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224849</v>
+                  <v>0.179412</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.223557</v>
+                  <v>0.178134</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222089</v>
+                  <v>0.176731</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.220911</v>
+                  <v>0.175547</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.219549</v>
+                  <v>0.174379</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.218464</v>
+                  <v>0.173069</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.217405</v>
+                  <v>0.172081</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.216331</v>
+                  <v>0.171065</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.215458</v>
+                  <v>0.169639</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.233837</v>
+                  <v>0.187025</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.232005</v>
+                  <v>0.18549</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.230439</v>
+                  <v>0.18413</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.228893</v>
+                  <v>0.182823</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227426</v>
+                  <v>0.181306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225865</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224498</v>
+                  <v>0.178672</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223047</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.221774</v>
+                  <v>0.176267</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.22041</v>
+                  <v>0.175118</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.219137</v>
+                  <v>0.173816</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.217886</v>
+                  <v>0.172616</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.216679</v>
+                  <v>0.171558</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.215674</v>
+                  <v>0.170172</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.234727</v>
+                  <v>0.187555</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.232964</v>
+                  <v>0.186034</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.231308</v>
+                  <v>0.184566</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229417</v>
+                  <v>0.183157</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227967</v>
+                  <v>0.181734</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226301</v>
+                  <v>0.180416</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224841</v>
+                  <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223213</v>
+                  <v>0.177932</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222211</v>
+                  <v>0.176684</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.220851</v>
+                  <v>0.175445</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.219426</v>
+                  <v>0.174226</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.218379</v>
+                  <v>0.173033</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217286</v>
+                  <v>0.17175</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.216168</v>
+                  <v>0.170555</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.235399</v>
+                  <v>0.188015</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.233298</v>
+                  <v>0.186469</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.231768</v>
+                  <v>0.185059</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.22999</v>
+                  <v>0.183606</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.228418</v>
+                  <v>0.18225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.22708</v>
+                  <v>0.180794</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.225417</v>
+                  <v>0.179529</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22423</v>
+                  <v>0.178203</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223036</v>
+                  <v>0.17689</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221508</v>
+                  <v>0.17571</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.22016</v>
+                  <v>0.174486</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.219138</v>
+                  <v>0.173255</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.217869</v>
+                  <v>0.172019</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.216605</v>
+                  <v>0.170723</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.215346</v>
+                  <v>0.169479</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.233921</v>
+                  <v>0.186924</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.23228</v>
+                  <v>0.185162</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.229977</v>
+                  <v>0.183692</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.229139</v>
+                  <v>0.18229</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.227523</v>
+                  <v>0.181036</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.226097</v>
+                  <v>0.179695</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.224516</v>
+                  <v>0.178428</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.223005</v>
+                  <v>0.17726</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221893</v>
+                  <v>0.175945</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220026</v>
+                  <v>0.174664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219126</v>
+                  <v>0.173481</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.217574</v>
+                  <v>0.172301</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.216965</v>
+                  <v>0.171083</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.215759</v>
+                  <v>0.169795</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.233797</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.23263</v>
+                  <v>0.194563</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231029</v>
+                  <v>0.192833</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229376</v>
+                  <v>0.190933</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.22777</v>
+                  <v>0.189234</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2262</v>
+                  <v>0.187425</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.224234</v>
+                  <v>0.185808</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2825,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
+          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,30 +3217,30 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="4" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07298259999999999</v>
+        <v>0.07250280000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159279</v>
+        <v>0.16017</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160451</v>
+        <v>0.159616</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0712097</v>
+        <v>0.0718312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159531</v>
+        <v>0.15958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15984</v>
+        <v>0.160293</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0720215</v>
+        <v>0.0701094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.159916</v>
+        <v>0.159598</v>
       </c>
       <c r="D4" t="n">
-        <v>0.161571</v>
+        <v>0.161349</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07002460000000001</v>
+        <v>0.070258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160172</v>
+        <v>0.16043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160516</v>
+        <v>0.160711</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07065929999999999</v>
+        <v>0.07048649999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159857</v>
+        <v>0.159842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161304</v>
+        <v>0.160591</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0691763</v>
+        <v>0.0697029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160431</v>
+        <v>0.160043</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16031</v>
+        <v>0.160489</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.069092</v>
+        <v>0.06902510000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160459</v>
+        <v>0.160765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160728</v>
+        <v>0.16077</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0684944</v>
+        <v>0.06795039999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1601</v>
+        <v>0.160391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16767</v>
+        <v>0.167312</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.115878</v>
+        <v>0.11948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166565</v>
+        <v>0.169428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167619</v>
+        <v>0.167905</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.117685</v>
+        <v>0.116971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.166562</v>
+        <v>0.166673</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167533</v>
+        <v>0.167505</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1186</v>
+        <v>0.114793</v>
       </c>
       <c r="C12" t="n">
-        <v>0.16622</v>
+        <v>0.166191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167202</v>
+        <v>0.167239</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1155</v>
+        <v>0.114812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165699</v>
+        <v>0.165709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16666</v>
+        <v>0.166406</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.113595</v>
+        <v>0.111881</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165521</v>
+        <v>0.165442</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166507</v>
+        <v>0.16645</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.112053</v>
+        <v>0.111917</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165454</v>
+        <v>0.165248</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166204</v>
+        <v>0.165956</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.109475</v>
+        <v>0.10804</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165168</v>
+        <v>0.164962</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166124</v>
+        <v>0.166324</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.104355</v>
+        <v>0.104666</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164658</v>
+        <v>0.164465</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165371</v>
+        <v>0.165504</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.103223</v>
+        <v>0.103381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164322</v>
+        <v>0.164466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165339</v>
+        <v>0.165366</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.100759</v>
+        <v>0.100503</v>
       </c>
       <c r="C19" t="n">
-        <v>0.163931</v>
+        <v>0.16433</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164874</v>
+        <v>0.164928</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.100441</v>
+        <v>0.09730030000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165298</v>
+        <v>0.163732</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165097</v>
+        <v>0.165145</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0955406</v>
+        <v>0.0960362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.164945</v>
+        <v>0.164984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.164838</v>
+        <v>0.166235</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0911791</v>
+        <v>0.0911247</v>
       </c>
       <c r="C22" t="n">
-        <v>0.163782</v>
+        <v>0.1647</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164653</v>
+        <v>0.164429</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08682579999999999</v>
+        <v>0.0866242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164364</v>
+        <v>0.164971</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173555</v>
+        <v>0.175201</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.148212</v>
+        <v>0.150159</v>
       </c>
       <c r="C24" t="n">
-        <v>0.172161</v>
+        <v>0.172869</v>
       </c>
       <c r="D24" t="n">
-        <v>0.176318</v>
+        <v>0.173162</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145319</v>
+        <v>0.146885</v>
       </c>
       <c r="C25" t="n">
-        <v>0.171462</v>
+        <v>0.17209</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172962</v>
+        <v>0.172526</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141998</v>
+        <v>0.142841</v>
       </c>
       <c r="C26" t="n">
-        <v>0.170652</v>
+        <v>0.170386</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176583</v>
+        <v>0.175177</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138009</v>
+        <v>0.138644</v>
       </c>
       <c r="C27" t="n">
-        <v>0.169522</v>
+        <v>0.170184</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176767</v>
+        <v>0.172628</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134231</v>
+        <v>0.134374</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17035</v>
+        <v>0.169592</v>
       </c>
       <c r="D28" t="n">
-        <v>0.169927</v>
+        <v>0.174968</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.130514</v>
+        <v>0.129672</v>
       </c>
       <c r="C29" t="n">
-        <v>0.170091</v>
+        <v>0.169248</v>
       </c>
       <c r="D29" t="n">
-        <v>0.173282</v>
+        <v>0.169711</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126506</v>
+        <v>0.12571</v>
       </c>
       <c r="C30" t="n">
-        <v>0.169297</v>
+        <v>0.16889</v>
       </c>
       <c r="D30" t="n">
-        <v>0.170005</v>
+        <v>0.169168</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122291</v>
+        <v>0.122111</v>
       </c>
       <c r="C31" t="n">
-        <v>0.168455</v>
+        <v>0.168305</v>
       </c>
       <c r="D31" t="n">
-        <v>0.171421</v>
+        <v>0.167878</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.11783</v>
+        <v>0.118349</v>
       </c>
       <c r="C32" t="n">
-        <v>0.167498</v>
+        <v>0.167978</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167568</v>
+        <v>0.168755</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114431</v>
+        <v>0.114292</v>
       </c>
       <c r="C33" t="n">
-        <v>0.167514</v>
+        <v>0.167303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166847</v>
+        <v>0.16676</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109948</v>
+        <v>0.109705</v>
       </c>
       <c r="C34" t="n">
-        <v>0.167451</v>
+        <v>0.167067</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168985</v>
+        <v>0.166836</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105186</v>
+        <v>0.105345</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167303</v>
+        <v>0.167193</v>
       </c>
       <c r="D35" t="n">
-        <v>0.166699</v>
+        <v>0.168621</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100624</v>
+        <v>0.100814</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166371</v>
+        <v>0.167382</v>
       </c>
       <c r="D36" t="n">
-        <v>0.16564</v>
+        <v>0.165879</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0959555</v>
+        <v>0.095827</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166033</v>
+        <v>0.166718</v>
       </c>
       <c r="D37" t="n">
-        <v>0.182958</v>
+        <v>0.183993</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157587</v>
+        <v>0.157863</v>
       </c>
       <c r="C38" t="n">
-        <v>0.17866</v>
+        <v>0.178285</v>
       </c>
       <c r="D38" t="n">
-        <v>0.180524</v>
+        <v>0.179735</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153443</v>
+        <v>0.154654</v>
       </c>
       <c r="C39" t="n">
-        <v>0.177651</v>
+        <v>0.177292</v>
       </c>
       <c r="D39" t="n">
-        <v>0.180934</v>
+        <v>0.179249</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149937</v>
+        <v>0.150605</v>
       </c>
       <c r="C40" t="n">
-        <v>0.177156</v>
+        <v>0.177386</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178236</v>
+        <v>0.177484</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146009</v>
+        <v>0.146261</v>
       </c>
       <c r="C41" t="n">
-        <v>0.176345</v>
+        <v>0.175656</v>
       </c>
       <c r="D41" t="n">
-        <v>0.179629</v>
+        <v>0.177229</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14224</v>
+        <v>0.141933</v>
       </c>
       <c r="C42" t="n">
-        <v>0.176385</v>
+        <v>0.17489</v>
       </c>
       <c r="D42" t="n">
-        <v>0.175988</v>
+        <v>0.178188</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137723</v>
+        <v>0.137654</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174149</v>
+        <v>0.174545</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176036</v>
+        <v>0.176218</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133037</v>
+        <v>0.133003</v>
       </c>
       <c r="C44" t="n">
-        <v>0.173298</v>
+        <v>0.173427</v>
       </c>
       <c r="D44" t="n">
-        <v>0.174811</v>
+        <v>0.175641</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128788</v>
+        <v>0.128308</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17212</v>
+        <v>0.172907</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174144</v>
+        <v>0.172417</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123822</v>
+        <v>0.123653</v>
       </c>
       <c r="C46" t="n">
-        <v>0.171601</v>
+        <v>0.171658</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17122</v>
+        <v>0.171891</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118769</v>
+        <v>0.118936</v>
       </c>
       <c r="C47" t="n">
-        <v>0.170988</v>
+        <v>0.171726</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171525</v>
+        <v>0.170572</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114002</v>
+        <v>0.114224</v>
       </c>
       <c r="C48" t="n">
-        <v>0.170721</v>
+        <v>0.170196</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171157</v>
+        <v>0.169873</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109192</v>
+        <v>0.109284</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169977</v>
+        <v>0.169423</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168175</v>
+        <v>0.168478</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104531</v>
+        <v>0.104488</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168594</v>
+        <v>0.168873</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167485</v>
+        <v>0.167543</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0996165</v>
+        <v>0.09970619999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168177</v>
+        <v>0.168327</v>
       </c>
       <c r="D51" t="n">
-        <v>0.185418</v>
+        <v>0.186723</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0948362</v>
+        <v>0.0949608</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167535</v>
+        <v>0.167356</v>
       </c>
       <c r="D52" t="n">
-        <v>0.183989</v>
+        <v>0.184172</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.157976</v>
+        <v>0.157648</v>
       </c>
       <c r="C53" t="n">
-        <v>0.181227</v>
+        <v>0.181416</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183393</v>
+        <v>0.182963</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153996</v>
+        <v>0.154197</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180451</v>
+        <v>0.180333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.182403</v>
+        <v>0.181308</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149528</v>
+        <v>0.149999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179182</v>
+        <v>0.178903</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180173</v>
+        <v>0.181291</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145596</v>
+        <v>0.145523</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178048</v>
+        <v>0.177856</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178858</v>
+        <v>0.179323</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140822</v>
+        <v>0.140803</v>
       </c>
       <c r="C57" t="n">
-        <v>0.176419</v>
+        <v>0.176948</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178373</v>
+        <v>0.177985</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135951</v>
+        <v>0.135906</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176194</v>
+        <v>0.175907</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176503</v>
+        <v>0.176832</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131123</v>
+        <v>0.131097</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174844</v>
+        <v>0.174984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175602</v>
+        <v>0.175446</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126374</v>
+        <v>0.126268</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173852</v>
+        <v>0.173819</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174485</v>
+        <v>0.174478</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121305</v>
+        <v>0.121532</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173038</v>
+        <v>0.172962</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173374</v>
+        <v>0.173394</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116495</v>
+        <v>0.116605</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172028</v>
+        <v>0.172113</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172095</v>
+        <v>0.172193</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111464</v>
+        <v>0.111759</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170938</v>
+        <v>0.171134</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170832</v>
+        <v>0.170918</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106716</v>
+        <v>0.106789</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170107</v>
+        <v>0.170219</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169611</v>
+        <v>0.169421</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101772</v>
+        <v>0.102002</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169121</v>
+        <v>0.16915</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168477</v>
+        <v>0.168515</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0969164</v>
+        <v>0.09704599999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168199</v>
+        <v>0.168358</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186075</v>
+        <v>0.186234</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160412</v>
+        <v>0.160492</v>
       </c>
       <c r="C67" t="n">
-        <v>0.182993</v>
+        <v>0.183277</v>
       </c>
       <c r="D67" t="n">
-        <v>0.184581</v>
+        <v>0.185155</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156466</v>
+        <v>0.156817</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181934</v>
+        <v>0.182016</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183152</v>
+        <v>0.183365</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152037</v>
+        <v>0.152462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180638</v>
+        <v>0.180851</v>
       </c>
       <c r="D69" t="n">
-        <v>0.181904</v>
+        <v>0.181954</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.14759</v>
+        <v>0.147662</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179527</v>
+        <v>0.17948</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180499</v>
+        <v>0.180525</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142785</v>
+        <v>0.143122</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178266</v>
+        <v>0.178282</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179412</v>
+        <v>0.179402</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138176</v>
+        <v>0.138391</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177121</v>
+        <v>0.177071</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178134</v>
+        <v>0.178095</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133128</v>
+        <v>0.133226</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176114</v>
+        <v>0.176111</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176731</v>
+        <v>0.176919</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128401</v>
+        <v>0.128073</v>
       </c>
       <c r="C74" t="n">
-        <v>0.174714</v>
+        <v>0.17499</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175547</v>
+        <v>0.177338</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123305</v>
+        <v>0.123134</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173737</v>
+        <v>0.173961</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174379</v>
+        <v>0.174587</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.11846</v>
+        <v>0.118395</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172755</v>
+        <v>0.172917</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173069</v>
+        <v>0.173284</v>
       </c>
     </row>
     <row r="77">
@@ -4302,10 +4302,10 @@
         <v>0.113486</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171706</v>
+        <v>0.171918</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172081</v>
+        <v>0.172194</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108753</v>
+        <v>0.108582</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170994</v>
+        <v>0.170929</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171065</v>
+        <v>0.170973</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103937</v>
+        <v>0.103714</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169972</v>
+        <v>0.169964</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169639</v>
+        <v>0.169739</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09895329999999999</v>
+        <v>0.0989179</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168926</v>
+        <v>0.168947</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187025</v>
+        <v>0.18698</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161644</v>
+        <v>0.161375</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183782</v>
+        <v>0.183744</v>
       </c>
       <c r="D81" t="n">
-        <v>0.18549</v>
+        <v>0.185347</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157522</v>
+        <v>0.157576</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182529</v>
+        <v>0.182414</v>
       </c>
       <c r="D82" t="n">
-        <v>0.18413</v>
+        <v>0.184005</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153763</v>
+        <v>0.153231</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181218</v>
+        <v>0.181185</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182823</v>
+        <v>0.182527</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148679</v>
+        <v>0.148476</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179982</v>
+        <v>0.179946</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181306</v>
+        <v>0.181313</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143658</v>
+        <v>0.143662</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178765</v>
+        <v>0.178727</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179973</v>
+        <v>0.179876</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138768</v>
+        <v>0.138847</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177541</v>
+        <v>0.177532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178672</v>
+        <v>0.178692</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133847</v>
+        <v>0.133896</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1765</v>
+        <v>0.176337</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177535</v>
+        <v>0.177387</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128948</v>
+        <v>0.128978</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175436</v>
+        <v>0.175377</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176267</v>
+        <v>0.176155</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123949</v>
+        <v>0.123857</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174395</v>
+        <v>0.174294</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175118</v>
+        <v>0.174972</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.118963</v>
+        <v>0.119059</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173401</v>
+        <v>0.173421</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173816</v>
+        <v>0.173801</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114122</v>
+        <v>0.114225</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172322</v>
+        <v>0.172341</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172616</v>
+        <v>0.17257</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109185</v>
+        <v>0.10937</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171258</v>
+        <v>0.171264</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171558</v>
+        <v>0.171459</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10437</v>
+        <v>0.104416</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170221</v>
+        <v>0.170249</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170172</v>
+        <v>0.170239</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993728</v>
+        <v>0.09948029999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169131</v>
+        <v>0.16921</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187555</v>
+        <v>0.187598</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162574</v>
+        <v>0.162563</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184458</v>
+        <v>0.18453</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186034</v>
+        <v>0.18602</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158918</v>
+        <v>0.158659</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18311</v>
+        <v>0.183138</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184566</v>
+        <v>0.184563</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154482</v>
+        <v>0.154705</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181756</v>
+        <v>0.181773</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183157</v>
+        <v>0.183141</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149841</v>
+        <v>0.150276</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180597</v>
+        <v>0.180491</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181734</v>
+        <v>0.181705</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14528</v>
+        <v>0.145086</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179423</v>
+        <v>0.179434</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180416</v>
+        <v>0.180488</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140161</v>
+        <v>0.140179</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178165</v>
+        <v>0.178208</v>
       </c>
       <c r="D100" t="n">
-        <v>0.17923</v>
+        <v>0.179228</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135249</v>
+        <v>0.135232</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176992</v>
+        <v>0.177034</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177932</v>
+        <v>0.177915</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13029</v>
+        <v>0.130112</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175876</v>
+        <v>0.175849</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176684</v>
+        <v>0.176703</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125136</v>
+        <v>0.124958</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174754</v>
+        <v>0.174699</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175445</v>
+        <v>0.175475</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120032</v>
+        <v>0.120058</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173655</v>
+        <v>0.17365</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174226</v>
+        <v>0.174191</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115112</v>
+        <v>0.11516</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172532</v>
+        <v>0.172534</v>
       </c>
       <c r="D105" t="n">
-        <v>0.173033</v>
+        <v>0.173011</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110139</v>
+        <v>0.110216</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17148</v>
+        <v>0.171414</v>
       </c>
       <c r="D106" t="n">
-        <v>0.17175</v>
+        <v>0.171673</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105322</v>
+        <v>0.105231</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170395</v>
+        <v>0.170257</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170555</v>
+        <v>0.170376</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100479</v>
+        <v>0.100304</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169389</v>
+        <v>0.169205</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188015</v>
+        <v>0.187949</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955894</v>
+        <v>0.09542879999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.16831</v>
+        <v>0.168069</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186469</v>
+        <v>0.186491</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159496</v>
+        <v>0.159579</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183651</v>
+        <v>0.183493</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185059</v>
+        <v>0.185044</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155377</v>
+        <v>0.155285</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18219</v>
+        <v>0.182168</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183606</v>
+        <v>0.183604</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150752</v>
+        <v>0.151026</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180908</v>
+        <v>0.180897</v>
       </c>
       <c r="D112" t="n">
-        <v>0.18225</v>
+        <v>0.182252</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145881</v>
+        <v>0.145997</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179663</v>
+        <v>0.179675</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180794</v>
+        <v>0.180777</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140855</v>
+        <v>0.14082</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178378</v>
+        <v>0.178384</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179529</v>
+        <v>0.179539</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135861</v>
+        <v>0.135914</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177238</v>
+        <v>0.177224</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178203</v>
+        <v>0.178179</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130875</v>
+        <v>0.131264</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176057</v>
+        <v>0.176083</v>
       </c>
       <c r="D116" t="n">
-        <v>0.17689</v>
+        <v>0.176971</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125921</v>
+        <v>0.125934</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17496</v>
+        <v>0.174936</v>
       </c>
       <c r="D117" t="n">
-        <v>0.17571</v>
+        <v>0.175671</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121079</v>
+        <v>0.120999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173839</v>
+        <v>0.173868</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174486</v>
+        <v>0.174509</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116102</v>
+        <v>0.116109</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172867</v>
+        <v>0.172854</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173255</v>
+        <v>0.173216</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111233</v>
+        <v>0.111209</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171748</v>
+        <v>0.17179</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172019</v>
+        <v>0.172049</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106304</v>
+        <v>0.10633</v>
       </c>
       <c r="C121" t="n">
-        <v>0.17071</v>
+        <v>0.170708</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170723</v>
+        <v>0.170814</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101443</v>
+        <v>0.101425</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169544</v>
+        <v>0.169583</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169479</v>
+        <v>0.169505</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09654890000000001</v>
+        <v>0.09652570000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168514</v>
+        <v>0.168475</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186924</v>
+        <v>0.186922</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.168509</v>
+        <v>0.169698</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183801</v>
+        <v>0.183845</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185162</v>
+        <v>0.185297</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.15894</v>
+        <v>0.164968</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182276</v>
+        <v>0.182489</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183692</v>
+        <v>0.183911</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.159678</v>
+        <v>0.160337</v>
       </c>
       <c r="C126" t="n">
-        <v>0.180973</v>
+        <v>0.181074</v>
       </c>
       <c r="D126" t="n">
-        <v>0.18229</v>
+        <v>0.182452</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154228</v>
+        <v>0.155276</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179958</v>
+        <v>0.179912</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181036</v>
+        <v>0.181076</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149536</v>
+        <v>0.149747</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178678</v>
+        <v>0.17872</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179695</v>
+        <v>0.179679</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144239</v>
+        <v>0.144468</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177433</v>
+        <v>0.177454</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178428</v>
+        <v>0.178448</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138932</v>
+        <v>0.138989</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176289</v>
+        <v>0.176308</v>
       </c>
       <c r="D130" t="n">
-        <v>0.17726</v>
+        <v>0.177249</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133429</v>
+        <v>0.133722</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175285</v>
+        <v>0.175169</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175945</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128395</v>
+        <v>0.128474</v>
       </c>
       <c r="C132" t="n">
-        <v>0.17403</v>
+        <v>0.174104</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174664</v>
+        <v>0.174667</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123232</v>
+        <v>0.12371</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173003</v>
+        <v>0.173032</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173481</v>
+        <v>0.173486</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118089</v>
+        <v>0.11822</v>
       </c>
       <c r="C134" t="n">
-        <v>0.17193</v>
+        <v>0.171962</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172301</v>
+        <v>0.172369</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113005</v>
+        <v>0.113087</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170909</v>
+        <v>0.170891</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171083</v>
+        <v>0.170979</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107832</v>
+        <v>0.107998</v>
       </c>
       <c r="C136" t="n">
+        <v>0.169788</v>
+      </c>
+      <c r="D136" t="n">
         <v>0.169769</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.169795</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102694</v>
+        <v>0.102822</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168699</v>
+        <v>0.16874</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196592</v>
+        <v>0.196512</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170691</v>
+        <v>0.170614</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194357</v>
+        <v>0.194089</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194563</v>
+        <v>0.194431</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166121</v>
+        <v>0.165818</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192211</v>
+        <v>0.19217</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192833</v>
+        <v>0.192567</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161407</v>
+        <v>0.16112</v>
       </c>
       <c r="C140" t="n">
-        <v>0.191134</v>
+        <v>0.19021</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190933</v>
+        <v>0.190831</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156126</v>
+        <v>0.156023</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188527</v>
+        <v>0.188583</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189234</v>
+        <v>0.189105</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151131</v>
+        <v>0.150965</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186944</v>
+        <v>0.18701</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187425</v>
+        <v>0.187391</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145778</v>
+        <v>0.145572</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185369</v>
+        <v>0.185225</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185808</v>
+        <v>0.185809</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07250280000000001</v>
+        <v>0.0722677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.16017</v>
+        <v>0.159625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159616</v>
+        <v>0.160627</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0718312</v>
+        <v>0.072369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15958</v>
+        <v>0.159362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160293</v>
+        <v>0.159876</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0701094</v>
+        <v>0.073023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.159598</v>
+        <v>0.15985</v>
       </c>
       <c r="D4" t="n">
-        <v>0.161349</v>
+        <v>0.161002</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.070258</v>
+        <v>0.0718892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16043</v>
+        <v>0.160797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160711</v>
+        <v>0.160508</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07048649999999999</v>
+        <v>0.0702348</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159842</v>
+        <v>0.160019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160591</v>
+        <v>0.160867</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0697029</v>
+        <v>0.0697041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160043</v>
+        <v>0.16106</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160489</v>
+        <v>0.160853</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06902510000000001</v>
+        <v>0.06869889999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160765</v>
+        <v>0.160345</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16077</v>
+        <v>0.160958</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06795039999999999</v>
+        <v>0.0680651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160391</v>
+        <v>0.159658</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167312</v>
+        <v>0.167628</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.11948</v>
+        <v>0.116768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169428</v>
+        <v>0.166186</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167905</v>
+        <v>0.167438</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.116971</v>
+        <v>0.118776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.166673</v>
+        <v>0.16656</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167505</v>
+        <v>0.16716</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.114793</v>
+        <v>0.116725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.166191</v>
+        <v>0.166295</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167239</v>
+        <v>0.167524</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114812</v>
+        <v>0.115775</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165709</v>
+        <v>0.165787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166406</v>
+        <v>0.166475</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.111881</v>
+        <v>0.113202</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165442</v>
+        <v>0.16551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16645</v>
+        <v>0.166515</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.111917</v>
+        <v>0.110942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165248</v>
+        <v>0.165233</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165956</v>
+        <v>0.166069</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.10804</v>
+        <v>0.1088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164962</v>
+        <v>0.165076</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166324</v>
+        <v>0.166131</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.104666</v>
+        <v>0.104637</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164465</v>
+        <v>0.164754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165504</v>
+        <v>0.165309</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.103381</v>
+        <v>0.103123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164466</v>
+        <v>0.164384</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165366</v>
+        <v>0.165219</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.100503</v>
+        <v>0.100176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.16433</v>
+        <v>0.164312</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164928</v>
+        <v>0.165182</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09730030000000001</v>
+        <v>0.09721929999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.163732</v>
+        <v>0.165162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165145</v>
+        <v>0.165716</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0960362</v>
+        <v>0.0956644</v>
       </c>
       <c r="C21" t="n">
-        <v>0.164984</v>
+        <v>0.165153</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166235</v>
+        <v>0.166544</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0911247</v>
+        <v>0.0910228</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1647</v>
+        <v>0.165237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164429</v>
+        <v>0.164692</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0866242</v>
+        <v>0.0868804</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164971</v>
+        <v>0.165033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.175201</v>
+        <v>0.174221</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.150159</v>
+        <v>0.149786</v>
       </c>
       <c r="C24" t="n">
-        <v>0.172869</v>
+        <v>0.171991</v>
       </c>
       <c r="D24" t="n">
-        <v>0.173162</v>
+        <v>0.173522</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.146885</v>
+        <v>0.146332</v>
       </c>
       <c r="C25" t="n">
-        <v>0.17209</v>
+        <v>0.171808</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172526</v>
+        <v>0.179475</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142841</v>
+        <v>0.142838</v>
       </c>
       <c r="C26" t="n">
-        <v>0.170386</v>
+        <v>0.170785</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175177</v>
+        <v>0.175521</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138644</v>
+        <v>0.138692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.170184</v>
+        <v>0.170285</v>
       </c>
       <c r="D27" t="n">
-        <v>0.172628</v>
+        <v>0.17085</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134374</v>
+        <v>0.134342</v>
       </c>
       <c r="C28" t="n">
-        <v>0.169592</v>
+        <v>0.17022</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174968</v>
+        <v>0.17264</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.129672</v>
+        <v>0.130729</v>
       </c>
       <c r="C29" t="n">
-        <v>0.169248</v>
+        <v>0.169142</v>
       </c>
       <c r="D29" t="n">
-        <v>0.169711</v>
+        <v>0.174334</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.12571</v>
+        <v>0.126427</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16889</v>
+        <v>0.16887</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169168</v>
+        <v>0.168817</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122111</v>
+        <v>0.122791</v>
       </c>
       <c r="C31" t="n">
-        <v>0.168305</v>
+        <v>0.168896</v>
       </c>
       <c r="D31" t="n">
-        <v>0.167878</v>
+        <v>0.169707</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118349</v>
+        <v>0.118574</v>
       </c>
       <c r="C32" t="n">
-        <v>0.167978</v>
+        <v>0.16802</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168755</v>
+        <v>0.167474</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114292</v>
+        <v>0.11428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.167303</v>
+        <v>0.167185</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16676</v>
+        <v>0.167497</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109705</v>
+        <v>0.11018</v>
       </c>
       <c r="C34" t="n">
-        <v>0.167067</v>
+        <v>0.167418</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166836</v>
+        <v>0.170391</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105345</v>
+        <v>0.105619</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167193</v>
+        <v>0.166502</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168621</v>
+        <v>0.16589</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100814</v>
+        <v>0.101102</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167382</v>
+        <v>0.167633</v>
       </c>
       <c r="D36" t="n">
-        <v>0.165879</v>
+        <v>0.165733</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.095827</v>
+        <v>0.09579840000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166718</v>
+        <v>0.165716</v>
       </c>
       <c r="D37" t="n">
-        <v>0.183993</v>
+        <v>0.181153</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157863</v>
+        <v>0.157205</v>
       </c>
       <c r="C38" t="n">
-        <v>0.178285</v>
+        <v>0.178488</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179735</v>
+        <v>0.179972</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154654</v>
+        <v>0.153864</v>
       </c>
       <c r="C39" t="n">
-        <v>0.177292</v>
+        <v>0.177706</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179249</v>
+        <v>0.18009</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150605</v>
+        <v>0.150498</v>
       </c>
       <c r="C40" t="n">
-        <v>0.177386</v>
+        <v>0.177691</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177484</v>
+        <v>0.180793</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146261</v>
+        <v>0.146398</v>
       </c>
       <c r="C41" t="n">
-        <v>0.175656</v>
+        <v>0.175443</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177229</v>
+        <v>0.17842</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.141933</v>
+        <v>0.141892</v>
       </c>
       <c r="C42" t="n">
-        <v>0.17489</v>
+        <v>0.175187</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178188</v>
+        <v>0.177814</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137654</v>
+        <v>0.138003</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174545</v>
+        <v>0.175011</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176218</v>
+        <v>0.176918</v>
       </c>
     </row>
     <row r="44">
@@ -3840,10 +3840,10 @@
         <v>0.133003</v>
       </c>
       <c r="C44" t="n">
-        <v>0.173427</v>
+        <v>0.173777</v>
       </c>
       <c r="D44" t="n">
-        <v>0.175641</v>
+        <v>0.175338</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128308</v>
+        <v>0.128279</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172907</v>
+        <v>0.172623</v>
       </c>
       <c r="D45" t="n">
-        <v>0.172417</v>
+        <v>0.174076</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123653</v>
+        <v>0.123235</v>
       </c>
       <c r="C46" t="n">
-        <v>0.171658</v>
+        <v>0.172016</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171891</v>
+        <v>0.171951</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118936</v>
+        <v>0.118137</v>
       </c>
       <c r="C47" t="n">
-        <v>0.171726</v>
+        <v>0.170714</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170572</v>
+        <v>0.172034</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114224</v>
+        <v>0.11371</v>
       </c>
       <c r="C48" t="n">
-        <v>0.170196</v>
+        <v>0.169705</v>
       </c>
       <c r="D48" t="n">
-        <v>0.169873</v>
+        <v>0.169906</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109284</v>
+        <v>0.109173</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169423</v>
+        <v>0.169706</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168478</v>
+        <v>0.168557</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104488</v>
+        <v>0.104201</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168873</v>
+        <v>0.16862</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167543</v>
+        <v>0.167359</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09970619999999999</v>
+        <v>0.0995061</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168327</v>
+        <v>0.168686</v>
       </c>
       <c r="D51" t="n">
-        <v>0.186723</v>
+        <v>0.186864</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0949608</v>
+        <v>0.0951507</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167356</v>
+        <v>0.167322</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184172</v>
+        <v>0.184318</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.157648</v>
+        <v>0.158046</v>
       </c>
       <c r="C53" t="n">
-        <v>0.181416</v>
+        <v>0.181757</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182963</v>
+        <v>0.182973</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154197</v>
+        <v>0.15445</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180333</v>
+        <v>0.180373</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181308</v>
+        <v>0.181968</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149999</v>
+        <v>0.150173</v>
       </c>
       <c r="C55" t="n">
-        <v>0.178903</v>
+        <v>0.17904</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181291</v>
+        <v>0.18137</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145523</v>
+        <v>0.146089</v>
       </c>
       <c r="C56" t="n">
-        <v>0.177856</v>
+        <v>0.178087</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179323</v>
+        <v>0.179123</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140803</v>
+        <v>0.141366</v>
       </c>
       <c r="C57" t="n">
-        <v>0.176948</v>
+        <v>0.176878</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177985</v>
+        <v>0.178069</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135906</v>
+        <v>0.136344</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175907</v>
+        <v>0.175691</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176832</v>
+        <v>0.17666</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131097</v>
+        <v>0.131317</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174984</v>
+        <v>0.17483</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175446</v>
+        <v>0.175414</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126268</v>
+        <v>0.126394</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173819</v>
+        <v>0.173634</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174478</v>
+        <v>0.174389</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121532</v>
+        <v>0.121546</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172962</v>
+        <v>0.172646</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173394</v>
+        <v>0.172915</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116605</v>
+        <v>0.116484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172113</v>
+        <v>0.171932</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172193</v>
+        <v>0.172051</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111759</v>
+        <v>0.11188</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171134</v>
+        <v>0.170994</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170918</v>
+        <v>0.170796</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106789</v>
+        <v>0.106864</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170219</v>
+        <v>0.169942</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169421</v>
+        <v>0.169457</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102002</v>
+        <v>0.101939</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16915</v>
+        <v>0.16919</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168515</v>
+        <v>0.168406</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09704599999999999</v>
+        <v>0.0970082</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168358</v>
+        <v>0.168226</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186234</v>
+        <v>0.185988</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160492</v>
+        <v>0.160571</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183277</v>
+        <v>0.183272</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185155</v>
+        <v>0.185027</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156817</v>
+        <v>0.156964</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182016</v>
+        <v>0.181923</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183365</v>
+        <v>0.18332</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152462</v>
+        <v>0.152287</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180851</v>
+        <v>0.180742</v>
       </c>
       <c r="D69" t="n">
-        <v>0.181954</v>
+        <v>0.182076</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147662</v>
+        <v>0.147619</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17948</v>
+        <v>0.179312</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180525</v>
+        <v>0.180369</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143122</v>
+        <v>0.142878</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178282</v>
+        <v>0.178242</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179402</v>
+        <v>0.179297</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138391</v>
+        <v>0.137809</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177071</v>
+        <v>0.177117</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178095</v>
+        <v>0.178022</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133226</v>
+        <v>0.133188</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176111</v>
+        <v>0.176145</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176919</v>
+        <v>0.176861</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128073</v>
+        <v>0.128426</v>
       </c>
       <c r="C74" t="n">
-        <v>0.17499</v>
+        <v>0.175009</v>
       </c>
       <c r="D74" t="n">
-        <v>0.177338</v>
+        <v>0.175676</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123134</v>
+        <v>0.123361</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173961</v>
+        <v>0.173916</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174587</v>
+        <v>0.174569</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118395</v>
+        <v>0.118461</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172917</v>
+        <v>0.172966</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173284</v>
+        <v>0.173328</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113486</v>
+        <v>0.113515</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171918</v>
+        <v>0.171898</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172194</v>
+        <v>0.172172</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108582</v>
+        <v>0.108717</v>
       </c>
       <c r="C78" t="n">
+        <v>0.170958</v>
+      </c>
+      <c r="D78" t="n">
         <v>0.170929</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.170973</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103714</v>
+        <v>0.103871</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169964</v>
+        <v>0.16999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169739</v>
+        <v>0.169811</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0989179</v>
+        <v>0.098846</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168947</v>
+        <v>0.168867</v>
       </c>
       <c r="D80" t="n">
-        <v>0.18698</v>
+        <v>0.186908</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161375</v>
+        <v>0.161753</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183744</v>
+        <v>0.183865</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185347</v>
+        <v>0.185411</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157576</v>
+        <v>0.157638</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182414</v>
+        <v>0.18246</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184005</v>
+        <v>0.184018</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153231</v>
+        <v>0.153238</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181185</v>
+        <v>0.181234</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182527</v>
+        <v>0.182606</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148476</v>
+        <v>0.148981</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179946</v>
+        <v>0.179913</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181313</v>
+        <v>0.181257</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143662</v>
+        <v>0.144031</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178727</v>
+        <v>0.17875</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179876</v>
+        <v>0.179997</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138847</v>
+        <v>0.139391</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177532</v>
+        <v>0.177569</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178692</v>
+        <v>0.178644</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133896</v>
+        <v>0.134292</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176337</v>
+        <v>0.176479</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177387</v>
+        <v>0.177486</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128978</v>
+        <v>0.129355</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175377</v>
+        <v>0.175359</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176155</v>
+        <v>0.176325</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123857</v>
+        <v>0.124015</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174294</v>
+        <v>0.174298</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174972</v>
+        <v>0.175013</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119059</v>
+        <v>0.119034</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173421</v>
+        <v>0.173371</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173801</v>
+        <v>0.173841</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114225</v>
+        <v>0.114138</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172341</v>
+        <v>0.172411</v>
       </c>
       <c r="D91" t="n">
-        <v>0.17257</v>
+        <v>0.172602</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10937</v>
+        <v>0.109179</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171264</v>
+        <v>0.171253</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171459</v>
+        <v>0.171571</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104416</v>
+        <v>0.104354</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170249</v>
+        <v>0.17024</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170239</v>
+        <v>0.170225</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09948029999999999</v>
+        <v>0.0994599</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16921</v>
+        <v>0.169169</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187598</v>
+        <v>0.187562</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162563</v>
+        <v>0.162537</v>
       </c>
       <c r="C95" t="n">
-        <v>0.18453</v>
+        <v>0.184512</v>
       </c>
       <c r="D95" t="n">
-        <v>0.18602</v>
+        <v>0.185974</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158659</v>
+        <v>0.158671</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183138</v>
+        <v>0.183214</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184563</v>
+        <v>0.184539</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154705</v>
+        <v>0.154374</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181773</v>
+        <v>0.181798</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183141</v>
+        <v>0.18313</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150276</v>
+        <v>0.14968</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180491</v>
+        <v>0.180551</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181705</v>
+        <v>0.181753</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145086</v>
+        <v>0.145078</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179434</v>
+        <v>0.179409</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180488</v>
+        <v>0.180358</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140179</v>
+        <v>0.139873</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178208</v>
+        <v>0.178166</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179228</v>
+        <v>0.179189</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135232</v>
+        <v>0.134858</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177034</v>
+        <v>0.17699</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177915</v>
+        <v>0.177957</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130112</v>
+        <v>0.129972</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175849</v>
+        <v>0.175889</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176703</v>
+        <v>0.176714</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124958</v>
+        <v>0.124974</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174699</v>
+        <v>0.174736</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175475</v>
+        <v>0.175409</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120058</v>
+        <v>0.119939</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17365</v>
+        <v>0.173629</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174191</v>
+        <v>0.174198</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11516</v>
+        <v>0.11507</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172534</v>
+        <v>0.172507</v>
       </c>
       <c r="D105" t="n">
-        <v>0.173011</v>
+        <v>0.172934</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110216</v>
+        <v>0.110219</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171414</v>
+        <v>0.171467</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171673</v>
+        <v>0.171733</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105231</v>
+        <v>0.105359</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170257</v>
+        <v>0.170451</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170376</v>
+        <v>0.170515</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100304</v>
+        <v>0.100462</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169205</v>
+        <v>0.169329</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187949</v>
+        <v>0.188137</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09542879999999999</v>
+        <v>0.09559670000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168069</v>
+        <v>0.168245</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186491</v>
+        <v>0.186443</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159579</v>
+        <v>0.159551</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183493</v>
+        <v>0.183527</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185044</v>
+        <v>0.185038</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155285</v>
+        <v>0.155328</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182168</v>
+        <v>0.182022</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183604</v>
+        <v>0.183414</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.151026</v>
+        <v>0.150684</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180897</v>
+        <v>0.180722</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182252</v>
+        <v>0.182013</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145997</v>
+        <v>0.145622</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179675</v>
+        <v>0.179439</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180777</v>
+        <v>0.180648</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14082</v>
+        <v>0.140875</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178384</v>
+        <v>0.17818</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179539</v>
+        <v>0.179336</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135914</v>
+        <v>0.135872</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177224</v>
+        <v>0.177045</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178179</v>
+        <v>0.178069</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131264</v>
+        <v>0.130987</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176083</v>
+        <v>0.176128</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176971</v>
+        <v>0.176959</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125934</v>
+        <v>0.125984</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174936</v>
+        <v>0.174931</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175671</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120999</v>
+        <v>0.121251</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173868</v>
+        <v>0.173849</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174509</v>
+        <v>0.174501</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116109</v>
+        <v>0.116201</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172854</v>
+        <v>0.17272</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173216</v>
+        <v>0.173313</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111209</v>
+        <v>0.111233</v>
       </c>
       <c r="C120" t="n">
-        <v>0.17179</v>
+        <v>0.171805</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172049</v>
+        <v>0.172073</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10633</v>
+        <v>0.106354</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170708</v>
+        <v>0.170678</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170814</v>
+        <v>0.170753</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101425</v>
+        <v>0.101512</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169583</v>
+        <v>0.169598</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169505</v>
+        <v>0.169483</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09652570000000001</v>
+        <v>0.0965853</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168475</v>
+        <v>0.168439</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186922</v>
+        <v>0.186898</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169698</v>
+        <v>0.169681</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183845</v>
+        <v>0.183867</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185297</v>
+        <v>0.185385</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.164968</v>
+        <v>0.165277</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182489</v>
+        <v>0.182518</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183911</v>
+        <v>0.183853</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160337</v>
+        <v>0.160462</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181074</v>
+        <v>0.181166</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182452</v>
+        <v>0.182445</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155276</v>
+        <v>0.154952</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179912</v>
+        <v>0.179853</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181076</v>
+        <v>0.181087</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149747</v>
+        <v>0.149831</v>
       </c>
       <c r="C128" t="n">
-        <v>0.17872</v>
+        <v>0.178706</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179679</v>
+        <v>0.179725</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144468</v>
+        <v>0.144781</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177454</v>
+        <v>0.177393</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178448</v>
+        <v>0.178405</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138989</v>
+        <v>0.139046</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176308</v>
+        <v>0.176295</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177249</v>
+        <v>0.177153</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133722</v>
+        <v>0.134046</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175169</v>
+        <v>0.175204</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175965</v>
+        <v>0.175981</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128474</v>
+        <v>0.128588</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174104</v>
+        <v>0.174061</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174667</v>
+        <v>0.174638</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12371</v>
+        <v>0.123296</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173032</v>
+        <v>0.172989</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173486</v>
+        <v>0.173433</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.11822</v>
+        <v>0.118445</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171962</v>
+        <v>0.171904</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172369</v>
+        <v>0.172265</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113087</v>
+        <v>0.11321</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170891</v>
+        <v>0.170822</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170979</v>
+        <v>0.171048</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107998</v>
+        <v>0.107985</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169788</v>
+        <v>0.169779</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169769</v>
+        <v>0.169751</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102822</v>
+        <v>0.102899</v>
       </c>
       <c r="C137" t="n">
-        <v>0.16874</v>
+        <v>0.168687</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196512</v>
+        <v>0.197147</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170614</v>
+        <v>0.170745</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194089</v>
+        <v>0.194084</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194431</v>
+        <v>0.194487</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165818</v>
+        <v>0.166189</v>
       </c>
       <c r="C139" t="n">
-        <v>0.19217</v>
+        <v>0.192144</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192567</v>
+        <v>0.192598</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16112</v>
+        <v>0.161177</v>
       </c>
       <c r="C140" t="n">
-        <v>0.19021</v>
+        <v>0.19022</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190831</v>
+        <v>0.190882</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156023</v>
+        <v>0.156311</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188583</v>
+        <v>0.188726</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189105</v>
+        <v>0.189271</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150965</v>
+        <v>0.151215</v>
       </c>
       <c r="C142" t="n">
-        <v>0.18701</v>
+        <v>0.186795</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187391</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145572</v>
+        <v>0.145992</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185225</v>
+        <v>0.185331</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185809</v>
+        <v>0.185807</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0722677</v>
+        <v>0.0660342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159625</v>
+        <v>0.160785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160627</v>
+        <v>0.164987</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.072369</v>
+        <v>0.0661717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159362</v>
+        <v>0.161777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.159876</v>
+        <v>0.164241</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.073023</v>
+        <v>0.0666867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15985</v>
+        <v>0.161912</v>
       </c>
       <c r="D4" t="n">
-        <v>0.161002</v>
+        <v>0.165317</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0718892</v>
+        <v>0.0661458</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160797</v>
+        <v>0.16213</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160508</v>
+        <v>0.164935</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0702348</v>
+        <v>0.0662204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160019</v>
+        <v>0.161899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160867</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0697041</v>
+        <v>0.0664112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16106</v>
+        <v>0.161669</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160853</v>
+        <v>0.163882</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06869889999999999</v>
+        <v>0.0664619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160345</v>
+        <v>0.161614</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160958</v>
+        <v>0.163706</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0680651</v>
+        <v>0.06680120000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159658</v>
+        <v>0.160455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167628</v>
+        <v>0.177895</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.116768</v>
+        <v>0.0954832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166186</v>
+        <v>0.173447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167438</v>
+        <v>0.17763</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.118776</v>
+        <v>0.0950777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16656</v>
+        <v>0.173463</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16716</v>
+        <v>0.176541</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.116725</v>
+        <v>0.09505189999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.166295</v>
+        <v>0.172545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167524</v>
+        <v>0.176318</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.115775</v>
+        <v>0.09432219999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165787</v>
+        <v>0.172465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166475</v>
+        <v>0.175284</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.113202</v>
+        <v>0.093301</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16551</v>
+        <v>0.171627</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166515</v>
+        <v>0.174338</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.110942</v>
+        <v>0.0932838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165233</v>
+        <v>0.171576</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166069</v>
+        <v>0.173971</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1088</v>
+        <v>0.0916545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165076</v>
+        <v>0.171164</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166131</v>
+        <v>0.173166</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.104637</v>
+        <v>0.0895999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164754</v>
+        <v>0.17044</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165309</v>
+        <v>0.172313</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.103123</v>
+        <v>0.08740729999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164384</v>
+        <v>0.16969</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165219</v>
+        <v>0.171521</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.100176</v>
+        <v>0.08565109999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164312</v>
+        <v>0.16904</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165182</v>
+        <v>0.172243</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09721929999999999</v>
+        <v>0.0862841</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165162</v>
+        <v>0.170116</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165716</v>
+        <v>0.171292</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0956644</v>
+        <v>0.08438039999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165153</v>
+        <v>0.170019</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166544</v>
+        <v>0.169546</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0910228</v>
+        <v>0.08246680000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.165237</v>
+        <v>0.16881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164692</v>
+        <v>0.168456</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0868804</v>
+        <v>0.08096780000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165033</v>
+        <v>0.167099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174221</v>
+        <v>0.187054</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.149786</v>
+        <v>0.131926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.171991</v>
+        <v>0.181996</v>
       </c>
       <c r="D24" t="n">
-        <v>0.173522</v>
+        <v>0.185214</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.146332</v>
+        <v>0.129749</v>
       </c>
       <c r="C25" t="n">
-        <v>0.171808</v>
+        <v>0.180372</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179475</v>
+        <v>0.183029</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142838</v>
+        <v>0.127969</v>
       </c>
       <c r="C26" t="n">
-        <v>0.170785</v>
+        <v>0.179803</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175521</v>
+        <v>0.181245</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138692</v>
+        <v>0.123168</v>
       </c>
       <c r="C27" t="n">
-        <v>0.170285</v>
+        <v>0.178355</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17085</v>
+        <v>0.181027</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134342</v>
+        <v>0.122687</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17022</v>
+        <v>0.177341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17264</v>
+        <v>0.17845</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.130729</v>
+        <v>0.118849</v>
       </c>
       <c r="C29" t="n">
-        <v>0.169142</v>
+        <v>0.176354</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174334</v>
+        <v>0.177694</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126427</v>
+        <v>0.116283</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16887</v>
+        <v>0.175128</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168817</v>
+        <v>0.176782</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122791</v>
+        <v>0.112952</v>
       </c>
       <c r="C31" t="n">
-        <v>0.168896</v>
+        <v>0.174431</v>
       </c>
       <c r="D31" t="n">
-        <v>0.169707</v>
+        <v>0.175933</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118574</v>
+        <v>0.109597</v>
       </c>
       <c r="C32" t="n">
-        <v>0.16802</v>
+        <v>0.173586</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167474</v>
+        <v>0.174336</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.11428</v>
+        <v>0.105576</v>
       </c>
       <c r="C33" t="n">
-        <v>0.167185</v>
+        <v>0.172606</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167497</v>
+        <v>0.172734</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.11018</v>
+        <v>0.100728</v>
       </c>
       <c r="C34" t="n">
-        <v>0.167418</v>
+        <v>0.171225</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170391</v>
+        <v>0.172369</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105619</v>
+        <v>0.09748080000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166502</v>
+        <v>0.170034</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16589</v>
+        <v>0.171252</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101102</v>
+        <v>0.093378</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167633</v>
+        <v>0.168807</v>
       </c>
       <c r="D36" t="n">
-        <v>0.165733</v>
+        <v>0.16954</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09579840000000001</v>
+        <v>0.0894054</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165716</v>
+        <v>0.16719</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181153</v>
+        <v>0.186989</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157205</v>
+        <v>0.149749</v>
       </c>
       <c r="C38" t="n">
-        <v>0.178488</v>
+        <v>0.18335</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179972</v>
+        <v>0.185735</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153864</v>
+        <v>0.14739</v>
       </c>
       <c r="C39" t="n">
-        <v>0.177706</v>
+        <v>0.181985</v>
       </c>
       <c r="D39" t="n">
-        <v>0.18009</v>
+        <v>0.184517</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150498</v>
+        <v>0.144</v>
       </c>
       <c r="C40" t="n">
-        <v>0.177691</v>
+        <v>0.181103</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180793</v>
+        <v>0.182633</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146398</v>
+        <v>0.140944</v>
       </c>
       <c r="C41" t="n">
-        <v>0.175443</v>
+        <v>0.17996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.17842</v>
+        <v>0.181677</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.141892</v>
+        <v>0.136008</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175187</v>
+        <v>0.178892</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177814</v>
+        <v>0.18023</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.138003</v>
+        <v>0.132587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.175011</v>
+        <v>0.177746</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176918</v>
+        <v>0.17895</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133003</v>
+        <v>0.128024</v>
       </c>
       <c r="C44" t="n">
-        <v>0.173777</v>
+        <v>0.1763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.175338</v>
+        <v>0.177872</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128279</v>
+        <v>0.123816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172623</v>
+        <v>0.175356</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174076</v>
+        <v>0.176666</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123235</v>
+        <v>0.119733</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172016</v>
+        <v>0.174485</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171951</v>
+        <v>0.175235</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118137</v>
+        <v>0.115764</v>
       </c>
       <c r="C47" t="n">
-        <v>0.170714</v>
+        <v>0.173509</v>
       </c>
       <c r="D47" t="n">
-        <v>0.172034</v>
+        <v>0.174186</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.11371</v>
+        <v>0.111086</v>
       </c>
       <c r="C48" t="n">
-        <v>0.169705</v>
+        <v>0.172256</v>
       </c>
       <c r="D48" t="n">
-        <v>0.169906</v>
+        <v>0.172982</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109173</v>
+        <v>0.106598</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169706</v>
+        <v>0.171217</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168557</v>
+        <v>0.171635</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104201</v>
+        <v>0.102607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.16862</v>
+        <v>0.170061</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167359</v>
+        <v>0.170346</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0995061</v>
+        <v>0.0975152</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168686</v>
+        <v>0.169454</v>
       </c>
       <c r="D51" t="n">
-        <v>0.186864</v>
+        <v>0.188122</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0951507</v>
+        <v>0.0930455</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167322</v>
+        <v>0.167831</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184318</v>
+        <v>0.186499</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158046</v>
+        <v>0.155945</v>
       </c>
       <c r="C53" t="n">
-        <v>0.181757</v>
+        <v>0.183236</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182973</v>
+        <v>0.185147</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.15445</v>
+        <v>0.152247</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180373</v>
+        <v>0.181885</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181968</v>
+        <v>0.183627</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150173</v>
+        <v>0.147895</v>
       </c>
       <c r="C55" t="n">
-        <v>0.17904</v>
+        <v>0.180637</v>
       </c>
       <c r="D55" t="n">
-        <v>0.18137</v>
+        <v>0.182117</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146089</v>
+        <v>0.143504</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178087</v>
+        <v>0.17947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179123</v>
+        <v>0.18098</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141366</v>
+        <v>0.139191</v>
       </c>
       <c r="C57" t="n">
-        <v>0.176878</v>
+        <v>0.178394</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178069</v>
+        <v>0.179579</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136344</v>
+        <v>0.134601</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175691</v>
+        <v>0.177118</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17666</v>
+        <v>0.178428</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131317</v>
+        <v>0.129903</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17483</v>
+        <v>0.175923</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175414</v>
+        <v>0.177127</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126394</v>
+        <v>0.125023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173634</v>
+        <v>0.174887</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174389</v>
+        <v>0.175829</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121546</v>
+        <v>0.120386</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172646</v>
+        <v>0.173746</v>
       </c>
       <c r="D61" t="n">
-        <v>0.172915</v>
+        <v>0.174606</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116484</v>
+        <v>0.115884</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171932</v>
+        <v>0.17269</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172051</v>
+        <v>0.173468</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11188</v>
+        <v>0.111061</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170994</v>
+        <v>0.171885</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170796</v>
+        <v>0.172154</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106864</v>
+        <v>0.106232</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169942</v>
+        <v>0.170585</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169457</v>
+        <v>0.170884</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101939</v>
+        <v>0.101418</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16919</v>
+        <v>0.16955</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168406</v>
+        <v>0.169599</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0970082</v>
+        <v>0.0966851</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168226</v>
+        <v>0.168542</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185988</v>
+        <v>0.18717</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160571</v>
+        <v>0.160206</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183272</v>
+        <v>0.183926</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185027</v>
+        <v>0.185753</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156964</v>
+        <v>0.156277</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181923</v>
+        <v>0.18265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18332</v>
+        <v>0.184352</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152287</v>
+        <v>0.152002</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180742</v>
+        <v>0.181355</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182076</v>
+        <v>0.182836</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147619</v>
+        <v>0.147882</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179312</v>
+        <v>0.180082</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180369</v>
+        <v>0.181457</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142878</v>
+        <v>0.143223</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178242</v>
+        <v>0.178752</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179297</v>
+        <v>0.180119</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137809</v>
+        <v>0.138219</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177117</v>
+        <v>0.177635</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178022</v>
+        <v>0.178894</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133188</v>
+        <v>0.133343</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176145</v>
+        <v>0.17651</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176861</v>
+        <v>0.177596</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128426</v>
+        <v>0.12844</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175009</v>
+        <v>0.175412</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175676</v>
+        <v>0.176381</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123361</v>
+        <v>0.123613</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173916</v>
+        <v>0.174411</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174569</v>
+        <v>0.175046</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118461</v>
+        <v>0.118752</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172966</v>
+        <v>0.173119</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173328</v>
+        <v>0.173874</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113515</v>
+        <v>0.113523</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171898</v>
+        <v>0.172096</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172172</v>
+        <v>0.172656</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108717</v>
+        <v>0.108636</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170958</v>
+        <v>0.171144</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170929</v>
+        <v>0.171377</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103871</v>
+        <v>0.10387</v>
       </c>
       <c r="C79" t="n">
-        <v>0.16999</v>
+        <v>0.169992</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169811</v>
+        <v>0.17008</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.098846</v>
+        <v>0.0991142</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168867</v>
+        <v>0.168895</v>
       </c>
       <c r="D80" t="n">
-        <v>0.186908</v>
+        <v>0.187645</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161753</v>
+        <v>0.161468</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183865</v>
+        <v>0.184173</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185411</v>
+        <v>0.186133</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157638</v>
+        <v>0.157363</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18246</v>
+        <v>0.182796</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184018</v>
+        <v>0.184642</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153238</v>
+        <v>0.153123</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181234</v>
+        <v>0.181539</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182606</v>
+        <v>0.183247</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148981</v>
+        <v>0.148627</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179913</v>
+        <v>0.180275</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181257</v>
+        <v>0.181797</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144031</v>
+        <v>0.143789</v>
       </c>
       <c r="C85" t="n">
-        <v>0.17875</v>
+        <v>0.179009</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179997</v>
+        <v>0.180496</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139391</v>
+        <v>0.138824</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177569</v>
+        <v>0.177784</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178644</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134292</v>
+        <v>0.133969</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176479</v>
+        <v>0.176645</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177486</v>
+        <v>0.177898</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129355</v>
+        <v>0.128882</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175359</v>
+        <v>0.175472</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176325</v>
+        <v>0.176649</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124015</v>
+        <v>0.123964</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174298</v>
+        <v>0.174419</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175013</v>
+        <v>0.175396</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119034</v>
+        <v>0.118933</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173371</v>
+        <v>0.173152</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173841</v>
+        <v>0.174095</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114138</v>
+        <v>0.113866</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172411</v>
+        <v>0.172081</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172602</v>
+        <v>0.172811</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109179</v>
+        <v>0.108969</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171253</v>
+        <v>0.170991</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171571</v>
+        <v>0.171575</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104354</v>
+        <v>0.104083</v>
       </c>
       <c r="C93" t="n">
-        <v>0.17024</v>
+        <v>0.16995</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170225</v>
+        <v>0.170165</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994599</v>
+        <v>0.09920519999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169169</v>
+        <v>0.168845</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187562</v>
+        <v>0.187896</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162537</v>
+        <v>0.162432</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184512</v>
+        <v>0.184409</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185974</v>
+        <v>0.186523</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158671</v>
+        <v>0.158629</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183214</v>
+        <v>0.18332</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184539</v>
+        <v>0.185065</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154374</v>
+        <v>0.154412</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181798</v>
+        <v>0.181942</v>
       </c>
       <c r="D97" t="n">
-        <v>0.18313</v>
+        <v>0.183578</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14968</v>
+        <v>0.149655</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180551</v>
+        <v>0.180615</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181753</v>
+        <v>0.182165</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145078</v>
+        <v>0.145205</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179409</v>
+        <v>0.17936</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180358</v>
+        <v>0.180774</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139873</v>
+        <v>0.140135</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178166</v>
+        <v>0.178167</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179189</v>
+        <v>0.179453</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134858</v>
+        <v>0.135124</v>
       </c>
       <c r="C101" t="n">
-        <v>0.17699</v>
+        <v>0.176959</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177957</v>
+        <v>0.178116</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129972</v>
+        <v>0.130023</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175889</v>
+        <v>0.175813</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176714</v>
+        <v>0.176812</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124974</v>
+        <v>0.125044</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174736</v>
+        <v>0.174672</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175409</v>
+        <v>0.175635</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119939</v>
+        <v>0.120008</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173629</v>
+        <v>0.173602</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174198</v>
+        <v>0.174422</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11507</v>
+        <v>0.115075</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172507</v>
+        <v>0.172458</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172934</v>
+        <v>0.173115</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110219</v>
+        <v>0.110114</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171467</v>
+        <v>0.17143</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171733</v>
+        <v>0.171802</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105359</v>
+        <v>0.10525</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170451</v>
+        <v>0.17036</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170515</v>
+        <v>0.170562</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100462</v>
+        <v>0.100345</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169329</v>
+        <v>0.169248</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188137</v>
+        <v>0.188439</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09559670000000001</v>
+        <v>0.0954362</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168245</v>
+        <v>0.168204</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186443</v>
+        <v>0.186876</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159551</v>
+        <v>0.159572</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183527</v>
+        <v>0.183565</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185038</v>
+        <v>0.18534</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155328</v>
+        <v>0.155255</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182022</v>
+        <v>0.182231</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183414</v>
+        <v>0.183843</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150684</v>
+        <v>0.150799</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180722</v>
+        <v>0.180908</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182013</v>
+        <v>0.182425</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145622</v>
+        <v>0.145939</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179439</v>
+        <v>0.179624</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180648</v>
+        <v>0.181036</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140875</v>
+        <v>0.141088</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17818</v>
+        <v>0.178356</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179336</v>
+        <v>0.179741</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135872</v>
+        <v>0.136029</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177045</v>
+        <v>0.177171</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178069</v>
+        <v>0.178418</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130987</v>
+        <v>0.13105</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176128</v>
+        <v>0.176059</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176959</v>
+        <v>0.177119</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125984</v>
+        <v>0.126051</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174931</v>
+        <v>0.17499</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175695</v>
+        <v>0.175907</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121251</v>
+        <v>0.121079</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173849</v>
+        <v>0.17391</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174501</v>
+        <v>0.174641</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116201</v>
+        <v>0.116184</v>
       </c>
       <c r="C119" t="n">
-        <v>0.17272</v>
+        <v>0.172725</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173313</v>
+        <v>0.173365</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111233</v>
+        <v>0.111226</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171805</v>
+        <v>0.171764</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172073</v>
+        <v>0.172207</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106354</v>
+        <v>0.106383</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170678</v>
+        <v>0.170595</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170753</v>
+        <v>0.17087</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101512</v>
+        <v>0.101464</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169598</v>
+        <v>0.169478</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169483</v>
+        <v>0.169558</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965853</v>
+        <v>0.0965714</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168439</v>
+        <v>0.168417</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186898</v>
+        <v>0.18725</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169681</v>
+        <v>0.169653</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183867</v>
+        <v>0.183883</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185385</v>
+        <v>0.185605</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165277</v>
+        <v>0.164729</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182518</v>
+        <v>0.182403</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183853</v>
+        <v>0.184158</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160462</v>
+        <v>0.160225</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181166</v>
+        <v>0.181265</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182445</v>
+        <v>0.182681</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154952</v>
+        <v>0.154991</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179853</v>
+        <v>0.17988</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181087</v>
+        <v>0.181238</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149831</v>
+        <v>0.149647</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178706</v>
+        <v>0.178743</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179725</v>
+        <v>0.179935</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144781</v>
+        <v>0.144265</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177393</v>
+        <v>0.177435</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178405</v>
+        <v>0.178612</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139046</v>
+        <v>0.138878</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176295</v>
+        <v>0.176322</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177153</v>
+        <v>0.177433</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.134046</v>
+        <v>0.13358</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175204</v>
+        <v>0.175163</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175981</v>
+        <v>0.176137</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128588</v>
+        <v>0.128513</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174061</v>
+        <v>0.174041</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174638</v>
+        <v>0.174863</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123296</v>
+        <v>0.123181</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172989</v>
+        <v>0.172985</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173433</v>
+        <v>0.173566</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118445</v>
+        <v>0.118181</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171904</v>
+        <v>0.171948</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172265</v>
+        <v>0.172474</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.11321</v>
+        <v>0.113009</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170822</v>
+        <v>0.170817</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171048</v>
+        <v>0.17117</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107985</v>
+        <v>0.107883</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169779</v>
+        <v>0.169754</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169751</v>
+        <v>0.169854</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102899</v>
+        <v>0.102608</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168687</v>
+        <v>0.168573</v>
       </c>
       <c r="D137" t="n">
-        <v>0.197147</v>
+        <v>0.196207</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170745</v>
+        <v>0.168138</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194084</v>
+        <v>0.193892</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194487</v>
+        <v>0.194409</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166189</v>
+        <v>0.165449</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192144</v>
+        <v>0.191912</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192598</v>
+        <v>0.192446</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161177</v>
+        <v>0.160607</v>
       </c>
       <c r="C140" t="n">
-        <v>0.19022</v>
+        <v>0.189881</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190882</v>
+        <v>0.190676</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156311</v>
+        <v>0.155935</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188726</v>
+        <v>0.188654</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189271</v>
+        <v>0.189435</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151215</v>
+        <v>0.150903</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186795</v>
+        <v>0.18683</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1876</v>
+        <v>0.187547</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145992</v>
+        <v>0.145429</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185331</v>
+        <v>0.185269</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185807</v>
+        <v>0.186192</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0660342</v>
+        <v>0.0659351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160785</v>
+        <v>0.161441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164987</v>
+        <v>0.15826</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0661717</v>
+        <v>0.0657954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.161777</v>
+        <v>0.162518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164241</v>
+        <v>0.157967</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0666867</v>
+        <v>0.0663656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161912</v>
+        <v>0.162752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.165317</v>
+        <v>0.158725</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0661458</v>
+        <v>0.0662973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16213</v>
+        <v>0.162521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164935</v>
+        <v>0.15895</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0662204</v>
+        <v>0.0661466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.161899</v>
+        <v>0.162048</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1642</v>
+        <v>0.159081</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0664112</v>
+        <v>0.0666481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161669</v>
+        <v>0.163397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163882</v>
+        <v>0.160267</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0664619</v>
+        <v>0.0663649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.161614</v>
+        <v>0.163287</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163706</v>
+        <v>0.160047</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06680120000000001</v>
+        <v>0.06726790000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160455</v>
+        <v>0.162149</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177895</v>
+        <v>0.166098</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0954832</v>
+        <v>0.100125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173447</v>
+        <v>0.173676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17763</v>
+        <v>0.166491</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0950777</v>
+        <v>0.0973648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173463</v>
+        <v>0.173729</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176541</v>
+        <v>0.165536</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09505189999999999</v>
+        <v>0.09727429999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.172545</v>
+        <v>0.172501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176318</v>
+        <v>0.167071</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09432219999999999</v>
+        <v>0.09434969999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.172465</v>
+        <v>0.172444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175284</v>
+        <v>0.165855</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.093301</v>
+        <v>0.0938517</v>
       </c>
       <c r="C14" t="n">
-        <v>0.171627</v>
+        <v>0.171783</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174338</v>
+        <v>0.16725</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0932838</v>
+        <v>0.09301429999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.171576</v>
+        <v>0.171658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173971</v>
+        <v>0.165829</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0916545</v>
+        <v>0.0905898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.171164</v>
+        <v>0.170994</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173166</v>
+        <v>0.166415</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0895999</v>
+        <v>0.089839</v>
       </c>
       <c r="C17" t="n">
-        <v>0.17044</v>
+        <v>0.170641</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172313</v>
+        <v>0.165696</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08740729999999999</v>
+        <v>0.0875734</v>
       </c>
       <c r="C18" t="n">
-        <v>0.16969</v>
+        <v>0.17011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171521</v>
+        <v>0.166173</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08565109999999999</v>
+        <v>0.0873525</v>
       </c>
       <c r="C19" t="n">
-        <v>0.16904</v>
+        <v>0.169406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.172243</v>
+        <v>0.167244</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0862841</v>
+        <v>0.0876287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.170116</v>
+        <v>0.170505</v>
       </c>
       <c r="D20" t="n">
-        <v>0.171292</v>
+        <v>0.167025</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08438039999999999</v>
+        <v>0.0854062</v>
       </c>
       <c r="C21" t="n">
-        <v>0.170019</v>
+        <v>0.169673</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169546</v>
+        <v>0.167081</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08246680000000001</v>
+        <v>0.0841628</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16881</v>
+        <v>0.168577</v>
       </c>
       <c r="D22" t="n">
-        <v>0.168456</v>
+        <v>0.166143</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08096780000000001</v>
+        <v>0.0820297</v>
       </c>
       <c r="C23" t="n">
-        <v>0.167099</v>
+        <v>0.167293</v>
       </c>
       <c r="D23" t="n">
-        <v>0.187054</v>
+        <v>0.18164</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131926</v>
+        <v>0.131905</v>
       </c>
       <c r="C24" t="n">
-        <v>0.181996</v>
+        <v>0.181411</v>
       </c>
       <c r="D24" t="n">
-        <v>0.185214</v>
+        <v>0.180218</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129749</v>
+        <v>0.130303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180372</v>
+        <v>0.180748</v>
       </c>
       <c r="D25" t="n">
-        <v>0.183029</v>
+        <v>0.179337</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127969</v>
+        <v>0.127219</v>
       </c>
       <c r="C26" t="n">
-        <v>0.179803</v>
+        <v>0.179265</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181245</v>
+        <v>0.179082</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.123168</v>
+        <v>0.123965</v>
       </c>
       <c r="C27" t="n">
-        <v>0.178355</v>
+        <v>0.177989</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181027</v>
+        <v>0.176545</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122687</v>
+        <v>0.121094</v>
       </c>
       <c r="C28" t="n">
-        <v>0.177341</v>
+        <v>0.176925</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17845</v>
+        <v>0.175777</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118849</v>
+        <v>0.118716</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176354</v>
+        <v>0.176</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177694</v>
+        <v>0.174654</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116283</v>
+        <v>0.115765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175128</v>
+        <v>0.175004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176782</v>
+        <v>0.175147</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112952</v>
+        <v>0.112857</v>
       </c>
       <c r="C31" t="n">
-        <v>0.174431</v>
+        <v>0.174174</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175933</v>
+        <v>0.172668</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.109597</v>
+        <v>0.108851</v>
       </c>
       <c r="C32" t="n">
-        <v>0.173586</v>
+        <v>0.173019</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174336</v>
+        <v>0.17314</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.105576</v>
+        <v>0.105485</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172606</v>
+        <v>0.171868</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172734</v>
+        <v>0.171578</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.100728</v>
+        <v>0.101673</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171225</v>
+        <v>0.171002</v>
       </c>
       <c r="D34" t="n">
-        <v>0.172369</v>
+        <v>0.170047</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09748080000000001</v>
+        <v>0.0971678</v>
       </c>
       <c r="C35" t="n">
-        <v>0.170034</v>
+        <v>0.170265</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171252</v>
+        <v>0.16908</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.093378</v>
+        <v>0.0930619</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168807</v>
+        <v>0.168943</v>
       </c>
       <c r="D36" t="n">
-        <v>0.16954</v>
+        <v>0.168075</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0894054</v>
+        <v>0.08929620000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.16719</v>
+        <v>0.167926</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186989</v>
+        <v>0.186375</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.149749</v>
+        <v>0.150646</v>
       </c>
       <c r="C38" t="n">
-        <v>0.18335</v>
+        <v>0.183312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185735</v>
+        <v>0.184153</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14739</v>
+        <v>0.147516</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181985</v>
+        <v>0.182157</v>
       </c>
       <c r="D39" t="n">
-        <v>0.184517</v>
+        <v>0.183356</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144</v>
+        <v>0.144719</v>
       </c>
       <c r="C40" t="n">
-        <v>0.181103</v>
+        <v>0.180737</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182633</v>
+        <v>0.180401</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140944</v>
+        <v>0.140391</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17996</v>
+        <v>0.179497</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181677</v>
+        <v>0.180851</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.136008</v>
+        <v>0.137162</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178892</v>
+        <v>0.178555</v>
       </c>
       <c r="D42" t="n">
-        <v>0.18023</v>
+        <v>0.179397</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.132587</v>
+        <v>0.132947</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177746</v>
+        <v>0.1772</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17895</v>
+        <v>0.177165</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.128024</v>
+        <v>0.12853</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1763</v>
+        <v>0.175945</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177872</v>
+        <v>0.177089</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.123816</v>
+        <v>0.123997</v>
       </c>
       <c r="C45" t="n">
-        <v>0.175356</v>
+        <v>0.175023</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176666</v>
+        <v>0.175594</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119733</v>
+        <v>0.119695</v>
       </c>
       <c r="C46" t="n">
-        <v>0.174485</v>
+        <v>0.17391</v>
       </c>
       <c r="D46" t="n">
-        <v>0.175235</v>
+        <v>0.174917</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.115764</v>
+        <v>0.115542</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173509</v>
+        <v>0.172968</v>
       </c>
       <c r="D47" t="n">
-        <v>0.174186</v>
+        <v>0.173047</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111086</v>
+        <v>0.111471</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172256</v>
+        <v>0.172</v>
       </c>
       <c r="D48" t="n">
-        <v>0.172982</v>
+        <v>0.172115</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106598</v>
+        <v>0.106711</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171217</v>
+        <v>0.170945</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171635</v>
+        <v>0.171248</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102607</v>
+        <v>0.101944</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170061</v>
+        <v>0.169762</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170346</v>
+        <v>0.169997</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0975152</v>
+        <v>0.0976749</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169454</v>
+        <v>0.168733</v>
       </c>
       <c r="D51" t="n">
-        <v>0.188122</v>
+        <v>0.187271</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0930455</v>
+        <v>0.0926881</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167831</v>
+        <v>0.167804</v>
       </c>
       <c r="D52" t="n">
-        <v>0.186499</v>
+        <v>0.185548</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.155945</v>
+        <v>0.155912</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183236</v>
+        <v>0.182609</v>
       </c>
       <c r="D53" t="n">
-        <v>0.185147</v>
+        <v>0.184581</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152247</v>
+        <v>0.151652</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181885</v>
+        <v>0.181424</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183627</v>
+        <v>0.182844</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.147895</v>
+        <v>0.147569</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180637</v>
+        <v>0.18015</v>
       </c>
       <c r="D55" t="n">
-        <v>0.182117</v>
+        <v>0.181463</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.143504</v>
+        <v>0.143235</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17947</v>
+        <v>0.179007</v>
       </c>
       <c r="D56" t="n">
-        <v>0.18098</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139191</v>
+        <v>0.138933</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178394</v>
+        <v>0.17776</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179579</v>
+        <v>0.179197</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134601</v>
+        <v>0.134378</v>
       </c>
       <c r="C58" t="n">
-        <v>0.177118</v>
+        <v>0.176651</v>
       </c>
       <c r="D58" t="n">
-        <v>0.178428</v>
+        <v>0.177804</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.129903</v>
+        <v>0.12991</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175923</v>
+        <v>0.17548</v>
       </c>
       <c r="D59" t="n">
-        <v>0.177127</v>
+        <v>0.176648</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125023</v>
+        <v>0.125224</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174887</v>
+        <v>0.174317</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175829</v>
+        <v>0.175402</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120386</v>
+        <v>0.120483</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173746</v>
+        <v>0.173291</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174606</v>
+        <v>0.174197</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115884</v>
+        <v>0.115622</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17269</v>
+        <v>0.172306</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173468</v>
+        <v>0.173204</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111061</v>
+        <v>0.110819</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171885</v>
+        <v>0.171177</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172154</v>
+        <v>0.171643</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106232</v>
+        <v>0.106183</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170585</v>
+        <v>0.170162</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170884</v>
+        <v>0.170704</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101418</v>
+        <v>0.101328</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16955</v>
+        <v>0.169159</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169599</v>
+        <v>0.169468</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0966851</v>
+        <v>0.0966322</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168542</v>
+        <v>0.168038</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18717</v>
+        <v>0.186666</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160206</v>
+        <v>0.159822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183926</v>
+        <v>0.183537</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185753</v>
+        <v>0.185258</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156277</v>
+        <v>0.15572</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18265</v>
+        <v>0.182218</v>
       </c>
       <c r="D68" t="n">
-        <v>0.184352</v>
+        <v>0.184018</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152002</v>
+        <v>0.151712</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181355</v>
+        <v>0.18096</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182836</v>
+        <v>0.182593</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147882</v>
+        <v>0.147433</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180082</v>
+        <v>0.179747</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181457</v>
+        <v>0.181275</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143223</v>
+        <v>0.142753</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178752</v>
+        <v>0.178446</v>
       </c>
       <c r="D71" t="n">
-        <v>0.180119</v>
+        <v>0.179834</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138219</v>
+        <v>0.137778</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177635</v>
+        <v>0.177209</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178894</v>
+        <v>0.178662</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133343</v>
+        <v>0.132934</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17651</v>
+        <v>0.176133</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177596</v>
+        <v>0.177377</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.12844</v>
+        <v>0.12799</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175412</v>
+        <v>0.175077</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176381</v>
+        <v>0.1762</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123613</v>
+        <v>0.12326</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174411</v>
+        <v>0.173821</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175046</v>
+        <v>0.175038</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118752</v>
+        <v>0.118474</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173119</v>
+        <v>0.172783</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173874</v>
+        <v>0.173764</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113523</v>
+        <v>0.113634</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172096</v>
+        <v>0.171754</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172656</v>
+        <v>0.172536</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108636</v>
+        <v>0.108672</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171144</v>
+        <v>0.170502</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171377</v>
+        <v>0.171169</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10387</v>
+        <v>0.103853</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169992</v>
+        <v>0.169412</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17008</v>
+        <v>0.16989</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0991142</v>
+        <v>0.0988796</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168895</v>
+        <v>0.168151</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187645</v>
+        <v>0.187073</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161468</v>
+        <v>0.161174</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184173</v>
+        <v>0.183753</v>
       </c>
       <c r="D81" t="n">
-        <v>0.186133</v>
+        <v>0.185824</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157363</v>
+        <v>0.157239</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182796</v>
+        <v>0.182278</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184642</v>
+        <v>0.184342</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153123</v>
+        <v>0.15307</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181539</v>
+        <v>0.180963</v>
       </c>
       <c r="D83" t="n">
-        <v>0.183247</v>
+        <v>0.182874</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148627</v>
+        <v>0.148437</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180275</v>
+        <v>0.179638</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181797</v>
+        <v>0.181609</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143789</v>
+        <v>0.143503</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179009</v>
+        <v>0.178405</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180496</v>
+        <v>0.180238</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138824</v>
+        <v>0.138796</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177784</v>
+        <v>0.17723</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1792</v>
+        <v>0.178839</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133969</v>
+        <v>0.134043</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176645</v>
+        <v>0.176135</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177898</v>
+        <v>0.177632</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128882</v>
+        <v>0.128934</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175472</v>
+        <v>0.174944</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176649</v>
+        <v>0.176456</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123964</v>
+        <v>0.123823</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174419</v>
+        <v>0.173847</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175396</v>
+        <v>0.1753</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.118933</v>
+        <v>0.118912</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173152</v>
+        <v>0.172847</v>
       </c>
       <c r="D90" t="n">
-        <v>0.174095</v>
+        <v>0.17403</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.113866</v>
+        <v>0.114055</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172081</v>
+        <v>0.171731</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172811</v>
+        <v>0.172768</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108969</v>
+        <v>0.109118</v>
       </c>
       <c r="C92" t="n">
-        <v>0.170991</v>
+        <v>0.170647</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171575</v>
+        <v>0.171544</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104083</v>
+        <v>0.104254</v>
       </c>
       <c r="C93" t="n">
-        <v>0.16995</v>
+        <v>0.169545</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170165</v>
+        <v>0.170256</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09920519999999999</v>
+        <v>0.0993757</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168845</v>
+        <v>0.168449</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187896</v>
+        <v>0.187774</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162432</v>
+        <v>0.162309</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184409</v>
+        <v>0.184302</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186523</v>
+        <v>0.186262</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158629</v>
+        <v>0.158394</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18332</v>
+        <v>0.182854</v>
       </c>
       <c r="D96" t="n">
-        <v>0.185065</v>
+        <v>0.184661</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154412</v>
+        <v>0.154313</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181942</v>
+        <v>0.181492</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183578</v>
+        <v>0.183262</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149655</v>
+        <v>0.149653</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180615</v>
+        <v>0.180165</v>
       </c>
       <c r="D98" t="n">
-        <v>0.182165</v>
+        <v>0.181804</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145205</v>
+        <v>0.144863</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17936</v>
+        <v>0.178909</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180774</v>
+        <v>0.18051</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140135</v>
+        <v>0.139969</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178167</v>
+        <v>0.177702</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179453</v>
+        <v>0.179192</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135124</v>
+        <v>0.134908</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176959</v>
+        <v>0.176502</v>
       </c>
       <c r="D101" t="n">
-        <v>0.178116</v>
+        <v>0.177908</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130023</v>
+        <v>0.130126</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175813</v>
+        <v>0.175336</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176812</v>
+        <v>0.176664</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125044</v>
+        <v>0.12503</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174672</v>
+        <v>0.174119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175635</v>
+        <v>0.175451</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120008</v>
+        <v>0.120025</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173602</v>
+        <v>0.17306</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174422</v>
+        <v>0.174161</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115075</v>
+        <v>0.115149</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172458</v>
+        <v>0.171971</v>
       </c>
       <c r="D105" t="n">
-        <v>0.173115</v>
+        <v>0.172998</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110114</v>
+        <v>0.110214</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17143</v>
+        <v>0.170927</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171802</v>
+        <v>0.171747</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10525</v>
+        <v>0.105421</v>
       </c>
       <c r="C107" t="n">
-        <v>0.17036</v>
+        <v>0.169792</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170562</v>
+        <v>0.170576</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100345</v>
+        <v>0.100488</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169248</v>
+        <v>0.168732</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188439</v>
+        <v>0.188626</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0954362</v>
+        <v>0.0955667</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168204</v>
+        <v>0.167556</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186876</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159572</v>
+        <v>0.159464</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183565</v>
+        <v>0.183139</v>
       </c>
       <c r="D110" t="n">
-        <v>0.18534</v>
+        <v>0.185083</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155255</v>
+        <v>0.155205</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182231</v>
+        <v>0.18178</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183843</v>
+        <v>0.183598</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150799</v>
+        <v>0.150697</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180908</v>
+        <v>0.180406</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182425</v>
+        <v>0.182206</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145939</v>
+        <v>0.146051</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179624</v>
+        <v>0.179136</v>
       </c>
       <c r="D113" t="n">
-        <v>0.181036</v>
+        <v>0.180861</v>
       </c>
     </row>
     <row r="114">
@@ -4820,10 +4820,10 @@
         <v>0.141088</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178356</v>
+        <v>0.177832</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179741</v>
+        <v>0.17955</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136029</v>
+        <v>0.136098</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177171</v>
+        <v>0.176643</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178418</v>
+        <v>0.178306</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.13105</v>
+        <v>0.131044</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176059</v>
+        <v>0.175511</v>
       </c>
       <c r="D116" t="n">
-        <v>0.177119</v>
+        <v>0.17699</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126051</v>
+        <v>0.12596</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17499</v>
+        <v>0.174412</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175907</v>
+        <v>0.175767</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121079</v>
+        <v>0.121062</v>
       </c>
       <c r="C118" t="n">
-        <v>0.17391</v>
+        <v>0.173283</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174641</v>
+        <v>0.174543</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116184</v>
+        <v>0.11613</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172725</v>
+        <v>0.172181</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173365</v>
+        <v>0.173265</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111226</v>
+        <v>0.111244</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171764</v>
+        <v>0.171119</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172207</v>
+        <v>0.172164</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106383</v>
+        <v>0.106393</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170595</v>
+        <v>0.170061</v>
       </c>
       <c r="D121" t="n">
-        <v>0.17087</v>
+        <v>0.170913</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101464</v>
+        <v>0.101494</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169478</v>
+        <v>0.168954</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169558</v>
+        <v>0.169645</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965714</v>
+        <v>0.09658609999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168417</v>
+        <v>0.167835</v>
       </c>
       <c r="D123" t="n">
-        <v>0.18725</v>
+        <v>0.187006</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169653</v>
+        <v>0.169552</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183883</v>
+        <v>0.183461</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185605</v>
+        <v>0.185403</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.164729</v>
+        <v>0.162684</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182403</v>
+        <v>0.181986</v>
       </c>
       <c r="D125" t="n">
-        <v>0.184158</v>
+        <v>0.183999</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160225</v>
+        <v>0.159233</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181265</v>
+        <v>0.180576</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182681</v>
+        <v>0.182615</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154991</v>
+        <v>0.155005</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17988</v>
+        <v>0.179353</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181238</v>
+        <v>0.181116</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149647</v>
+        <v>0.147082</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178743</v>
+        <v>0.177951</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179935</v>
+        <v>0.179706</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144265</v>
+        <v>0.143898</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177435</v>
+        <v>0.176729</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178612</v>
+        <v>0.178373</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138878</v>
+        <v>0.138517</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176322</v>
+        <v>0.17557</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177433</v>
+        <v>0.177272</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13358</v>
+        <v>0.133739</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175163</v>
+        <v>0.174586</v>
       </c>
       <c r="D131" t="n">
-        <v>0.176137</v>
+        <v>0.175997</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128513</v>
+        <v>0.12848</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174041</v>
+        <v>0.173472</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174863</v>
+        <v>0.174747</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123181</v>
+        <v>0.123331</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172985</v>
+        <v>0.172366</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173566</v>
+        <v>0.173593</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118181</v>
+        <v>0.118131</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171948</v>
+        <v>0.1713</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172474</v>
+        <v>0.172299</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113009</v>
+        <v>0.113051</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170817</v>
+        <v>0.17026</v>
       </c>
       <c r="D135" t="n">
-        <v>0.17117</v>
+        <v>0.171098</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107883</v>
+        <v>0.10796</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169754</v>
+        <v>0.169159</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169854</v>
+        <v>0.169804</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102608</v>
+        <v>0.102736</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168573</v>
+        <v>0.168014</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196207</v>
+        <v>0.196595</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168138</v>
+        <v>0.170513</v>
       </c>
       <c r="C138" t="n">
-        <v>0.193892</v>
+        <v>0.193744</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194409</v>
+        <v>0.194468</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165449</v>
+        <v>0.166284</v>
       </c>
       <c r="C139" t="n">
-        <v>0.191912</v>
+        <v>0.191895</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192446</v>
+        <v>0.192733</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.160607</v>
+        <v>0.161249</v>
       </c>
       <c r="C140" t="n">
-        <v>0.189881</v>
+        <v>0.189814</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190676</v>
+        <v>0.190862</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.155935</v>
+        <v>0.156256</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188654</v>
+        <v>0.187957</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189435</v>
+        <v>0.18934</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150903</v>
+        <v>0.150891</v>
       </c>
       <c r="C142" t="n">
-        <v>0.18683</v>
+        <v>0.186341</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187547</v>
+        <v>0.187546</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145429</v>
+        <v>0.145585</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185269</v>
+        <v>0.184682</v>
       </c>
       <c r="D143" t="n">
-        <v>0.186192</v>
+        <v>0.185733</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0659351</v>
+        <v>0.0650529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.161441</v>
+        <v>0.159842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15826</v>
+        <v>0.164862</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0657954</v>
+        <v>0.0648017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.162518</v>
+        <v>0.159937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.157967</v>
+        <v>0.164842</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0663656</v>
+        <v>0.0643343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.162752</v>
+        <v>0.160446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158725</v>
+        <v>0.164693</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0662973</v>
+        <v>0.06457060000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162521</v>
+        <v>0.160131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15895</v>
+        <v>0.164922</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0661466</v>
+        <v>0.06444039999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162048</v>
+        <v>0.160285</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159081</v>
+        <v>0.164201</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0666481</v>
+        <v>0.0645331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163397</v>
+        <v>0.160575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160267</v>
+        <v>0.164372</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0663649</v>
+        <v>0.06477289999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163287</v>
+        <v>0.159664</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160047</v>
+        <v>0.163681</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06726790000000001</v>
+        <v>0.0656379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162149</v>
+        <v>0.159571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166098</v>
+        <v>0.177551</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100125</v>
+        <v>0.09243759999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173676</v>
+        <v>0.166698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166491</v>
+        <v>0.176637</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0973648</v>
+        <v>0.0906299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173729</v>
+        <v>0.166909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.165536</v>
+        <v>0.17654</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09727429999999999</v>
+        <v>0.09187099999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.172501</v>
+        <v>0.166422</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167071</v>
+        <v>0.176038</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09434969999999999</v>
+        <v>0.0914003</v>
       </c>
       <c r="C13" t="n">
-        <v>0.172444</v>
+        <v>0.165785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.165855</v>
+        <v>0.17529</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0938517</v>
+        <v>0.0901738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.171783</v>
+        <v>0.16574</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16725</v>
+        <v>0.174619</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09301429999999999</v>
+        <v>0.089824</v>
       </c>
       <c r="C15" t="n">
-        <v>0.171658</v>
+        <v>0.165391</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165829</v>
+        <v>0.173817</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0905898</v>
+        <v>0.0892599</v>
       </c>
       <c r="C16" t="n">
-        <v>0.170994</v>
+        <v>0.165162</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166415</v>
+        <v>0.173246</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.089839</v>
+        <v>0.08660900000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.170641</v>
+        <v>0.164367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165696</v>
+        <v>0.172402</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0875734</v>
+        <v>0.0873659</v>
       </c>
       <c r="C18" t="n">
-        <v>0.17011</v>
+        <v>0.164155</v>
       </c>
       <c r="D18" t="n">
-        <v>0.166173</v>
+        <v>0.171557</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0873525</v>
+        <v>0.0883318</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169406</v>
+        <v>0.165534</v>
       </c>
       <c r="D19" t="n">
-        <v>0.167244</v>
+        <v>0.17219</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0876287</v>
+        <v>0.0862531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.170505</v>
+        <v>0.167076</v>
       </c>
       <c r="D20" t="n">
-        <v>0.167025</v>
+        <v>0.170562</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0854062</v>
+        <v>0.0834145</v>
       </c>
       <c r="C21" t="n">
-        <v>0.169673</v>
+        <v>0.165993</v>
       </c>
       <c r="D21" t="n">
-        <v>0.167081</v>
+        <v>0.170272</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0841628</v>
+        <v>0.0825058</v>
       </c>
       <c r="C22" t="n">
-        <v>0.168577</v>
+        <v>0.166453</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166143</v>
+        <v>0.168714</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0820297</v>
+        <v>0.07995720000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.167293</v>
+        <v>0.165673</v>
       </c>
       <c r="D23" t="n">
-        <v>0.18164</v>
+        <v>0.185141</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131905</v>
+        <v>0.135074</v>
       </c>
       <c r="C24" t="n">
-        <v>0.181411</v>
+        <v>0.172551</v>
       </c>
       <c r="D24" t="n">
-        <v>0.180218</v>
+        <v>0.183591</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.130303</v>
+        <v>0.131589</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180748</v>
+        <v>0.171784</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179337</v>
+        <v>0.182354</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127219</v>
+        <v>0.128386</v>
       </c>
       <c r="C26" t="n">
-        <v>0.179265</v>
+        <v>0.172052</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179082</v>
+        <v>0.181231</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.123965</v>
+        <v>0.125917</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177989</v>
+        <v>0.171134</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176545</v>
+        <v>0.179642</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121094</v>
+        <v>0.122857</v>
       </c>
       <c r="C28" t="n">
-        <v>0.176925</v>
+        <v>0.169392</v>
       </c>
       <c r="D28" t="n">
-        <v>0.175777</v>
+        <v>0.178361</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118716</v>
+        <v>0.120191</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176</v>
+        <v>0.16884</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174654</v>
+        <v>0.177673</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115765</v>
+        <v>0.117168</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175004</v>
+        <v>0.168123</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175147</v>
+        <v>0.176529</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112857</v>
+        <v>0.114183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.174174</v>
+        <v>0.170955</v>
       </c>
       <c r="D31" t="n">
-        <v>0.172668</v>
+        <v>0.175321</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.108851</v>
+        <v>0.111237</v>
       </c>
       <c r="C32" t="n">
-        <v>0.173019</v>
+        <v>0.169895</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17314</v>
+        <v>0.174262</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.105485</v>
+        <v>0.108079</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171868</v>
+        <v>0.169658</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171578</v>
+        <v>0.173174</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.101673</v>
+        <v>0.104761</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171002</v>
+        <v>0.166335</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170047</v>
+        <v>0.17224</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0971678</v>
+        <v>0.0996215</v>
       </c>
       <c r="C35" t="n">
-        <v>0.170265</v>
+        <v>0.165685</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16908</v>
+        <v>0.17116</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0930619</v>
+        <v>0.0955247</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168943</v>
+        <v>0.167942</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168075</v>
+        <v>0.169517</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08929620000000001</v>
+        <v>0.0916372</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167926</v>
+        <v>0.16712</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186375</v>
+        <v>0.186945</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150646</v>
+        <v>0.152499</v>
       </c>
       <c r="C38" t="n">
-        <v>0.183312</v>
+        <v>0.178487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.184153</v>
+        <v>0.185304</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147516</v>
+        <v>0.149323</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182157</v>
+        <v>0.178508</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183356</v>
+        <v>0.184043</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144719</v>
+        <v>0.145493</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180737</v>
+        <v>0.176857</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180401</v>
+        <v>0.182417</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140391</v>
+        <v>0.142266</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179497</v>
+        <v>0.17528</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180851</v>
+        <v>0.181287</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.137162</v>
+        <v>0.138201</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178555</v>
+        <v>0.175505</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179397</v>
+        <v>0.180157</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.132947</v>
+        <v>0.1348</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1772</v>
+        <v>0.174081</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177165</v>
+        <v>0.178767</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12853</v>
+        <v>0.130599</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175945</v>
+        <v>0.173269</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177089</v>
+        <v>0.177778</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.123997</v>
+        <v>0.126066</v>
       </c>
       <c r="C45" t="n">
-        <v>0.175023</v>
+        <v>0.173376</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175594</v>
+        <v>0.176675</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119695</v>
+        <v>0.121617</v>
       </c>
       <c r="C46" t="n">
-        <v>0.17391</v>
+        <v>0.171413</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174917</v>
+        <v>0.175442</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.115542</v>
+        <v>0.11708</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172968</v>
+        <v>0.171013</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173047</v>
+        <v>0.173994</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.111471</v>
+        <v>0.112408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172</v>
+        <v>0.169688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.172115</v>
+        <v>0.172752</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106711</v>
+        <v>0.107712</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170945</v>
+        <v>0.169112</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171248</v>
+        <v>0.171522</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.101944</v>
+        <v>0.103085</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169762</v>
+        <v>0.168633</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169997</v>
+        <v>0.170328</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0976749</v>
+        <v>0.09786889999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168733</v>
+        <v>0.166833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187271</v>
+        <v>0.187772</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0926881</v>
+        <v>0.0928248</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167804</v>
+        <v>0.166467</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185548</v>
+        <v>0.186238</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.155912</v>
+        <v>0.156636</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182609</v>
+        <v>0.181528</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184581</v>
+        <v>0.184893</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.151652</v>
+        <v>0.153081</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181424</v>
+        <v>0.180137</v>
       </c>
       <c r="D54" t="n">
-        <v>0.182844</v>
+        <v>0.183659</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.147569</v>
+        <v>0.148791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.18015</v>
+        <v>0.179077</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181463</v>
+        <v>0.182172</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.143235</v>
+        <v>0.144823</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179007</v>
+        <v>0.178014</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180165</v>
+        <v>0.180979</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.138933</v>
+        <v>0.140352</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17776</v>
+        <v>0.177126</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179197</v>
+        <v>0.179572</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134378</v>
+        <v>0.135677</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176651</v>
+        <v>0.17597</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177804</v>
+        <v>0.178287</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.12991</v>
+        <v>0.130486</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17548</v>
+        <v>0.174881</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176648</v>
+        <v>0.177204</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125224</v>
+        <v>0.125492</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174317</v>
+        <v>0.173947</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175402</v>
+        <v>0.176051</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120483</v>
+        <v>0.120643</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173291</v>
+        <v>0.172939</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174197</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115622</v>
+        <v>0.11585</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172306</v>
+        <v>0.171967</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173204</v>
+        <v>0.173444</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110819</v>
+        <v>0.11115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171177</v>
+        <v>0.170919</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171643</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106183</v>
+        <v>0.106194</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170162</v>
+        <v>0.169928</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170704</v>
+        <v>0.171045</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101328</v>
+        <v>0.101459</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169159</v>
+        <v>0.16899</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169468</v>
+        <v>0.16975</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0966322</v>
+        <v>0.0965514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168038</v>
+        <v>0.167965</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186666</v>
+        <v>0.187059</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159822</v>
+        <v>0.160064</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183537</v>
+        <v>0.183251</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185258</v>
+        <v>0.185636</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.15572</v>
+        <v>0.156362</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182218</v>
+        <v>0.181914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.184018</v>
+        <v>0.184169</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151712</v>
+        <v>0.15223</v>
       </c>
       <c r="C69" t="n">
-        <v>0.18096</v>
+        <v>0.180701</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182593</v>
+        <v>0.182729</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147433</v>
+        <v>0.147519</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179747</v>
+        <v>0.179411</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181275</v>
+        <v>0.181405</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142753</v>
+        <v>0.142728</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178446</v>
+        <v>0.178228</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179834</v>
+        <v>0.180099</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137778</v>
+        <v>0.138134</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177209</v>
+        <v>0.177151</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178662</v>
+        <v>0.178871</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132934</v>
+        <v>0.133307</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176133</v>
+        <v>0.176022</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177377</v>
+        <v>0.177599</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.12799</v>
+        <v>0.128524</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175077</v>
+        <v>0.175057</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1762</v>
+        <v>0.176367</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.12326</v>
+        <v>0.123676</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173821</v>
+        <v>0.173957</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175038</v>
+        <v>0.175099</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118474</v>
+        <v>0.118688</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172783</v>
+        <v>0.172996</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173764</v>
+        <v>0.173893</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113634</v>
+        <v>0.113712</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171754</v>
+        <v>0.171968</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172536</v>
+        <v>0.172642</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108672</v>
+        <v>0.108785</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170502</v>
+        <v>0.17091</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171169</v>
+        <v>0.171521</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103853</v>
+        <v>0.10394</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169412</v>
+        <v>0.169777</v>
       </c>
       <c r="D79" t="n">
-        <v>0.16989</v>
+        <v>0.170273</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0988796</v>
+        <v>0.0988897</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168151</v>
+        <v>0.168776</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187073</v>
+        <v>0.187544</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161174</v>
+        <v>0.161446</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183753</v>
+        <v>0.183975</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185824</v>
+        <v>0.185984</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157239</v>
+        <v>0.157593</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182278</v>
+        <v>0.182568</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184342</v>
+        <v>0.184561</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.15307</v>
+        <v>0.153209</v>
       </c>
       <c r="C83" t="n">
-        <v>0.180963</v>
+        <v>0.181245</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182874</v>
+        <v>0.183107</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148437</v>
+        <v>0.148713</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179638</v>
+        <v>0.18001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181609</v>
+        <v>0.181727</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143503</v>
+        <v>0.144122</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178405</v>
+        <v>0.178764</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180238</v>
+        <v>0.180361</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138796</v>
+        <v>0.139309</v>
       </c>
       <c r="C86" t="n">
-        <v>0.17723</v>
+        <v>0.177645</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178839</v>
+        <v>0.179093</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134043</v>
+        <v>0.134075</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176135</v>
+        <v>0.176535</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177632</v>
+        <v>0.177839</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128934</v>
+        <v>0.129116</v>
       </c>
       <c r="C88" t="n">
-        <v>0.174944</v>
+        <v>0.175455</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176456</v>
+        <v>0.17656</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123823</v>
+        <v>0.124112</v>
       </c>
       <c r="C89" t="n">
-        <v>0.173847</v>
+        <v>0.17447</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1753</v>
+        <v>0.175396</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.118912</v>
+        <v>0.119251</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172847</v>
+        <v>0.173488</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17403</v>
+        <v>0.174091</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114055</v>
+        <v>0.114246</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171731</v>
+        <v>0.172312</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172768</v>
+        <v>0.17291</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109118</v>
+        <v>0.109304</v>
       </c>
       <c r="C92" t="n">
-        <v>0.170647</v>
+        <v>0.171303</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171544</v>
+        <v>0.171739</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104254</v>
+        <v>0.104257</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169545</v>
+        <v>0.170207</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170256</v>
+        <v>0.170439</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993757</v>
+        <v>0.0993965</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168449</v>
+        <v>0.16913</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187774</v>
+        <v>0.188002</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162309</v>
+        <v>0.162254</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184302</v>
+        <v>0.184641</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186262</v>
+        <v>0.186306</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158394</v>
+        <v>0.158351</v>
       </c>
       <c r="C96" t="n">
-        <v>0.182854</v>
+        <v>0.183235</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184661</v>
+        <v>0.184861</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154313</v>
+        <v>0.154266</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181492</v>
+        <v>0.181897</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183262</v>
+        <v>0.183376</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149653</v>
+        <v>0.149334</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180165</v>
+        <v>0.180724</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181804</v>
+        <v>0.182225</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144863</v>
+        <v>0.144945</v>
       </c>
       <c r="C99" t="n">
-        <v>0.178909</v>
+        <v>0.179534</v>
       </c>
       <c r="D99" t="n">
-        <v>0.18051</v>
+        <v>0.180585</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139969</v>
+        <v>0.139939</v>
       </c>
       <c r="C100" t="n">
-        <v>0.177702</v>
+        <v>0.178187</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179192</v>
+        <v>0.179227</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134908</v>
+        <v>0.134863</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176502</v>
+        <v>0.176874</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177908</v>
+        <v>0.177888</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130126</v>
+        <v>0.130057</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175336</v>
+        <v>0.175765</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176664</v>
+        <v>0.176616</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.12503</v>
+        <v>0.125031</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174119</v>
+        <v>0.174645</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175451</v>
+        <v>0.175415</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120025</v>
+        <v>0.120082</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17306</v>
+        <v>0.173712</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174161</v>
+        <v>0.17441</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115149</v>
+        <v>0.115298</v>
       </c>
       <c r="C105" t="n">
-        <v>0.171971</v>
+        <v>0.172657</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172998</v>
+        <v>0.173109</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110214</v>
+        <v>0.110324</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170927</v>
+        <v>0.171595</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171747</v>
+        <v>0.171884</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105421</v>
+        <v>0.105444</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169792</v>
+        <v>0.170485</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170576</v>
+        <v>0.170627</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100488</v>
+        <v>0.100425</v>
       </c>
       <c r="C108" t="n">
-        <v>0.168732</v>
+        <v>0.169431</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188626</v>
+        <v>0.188272</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955667</v>
+        <v>0.09546209999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.167556</v>
+        <v>0.168286</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186621</v>
+        <v>0.186716</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159464</v>
+        <v>0.159309</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183139</v>
+        <v>0.183665</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185083</v>
+        <v>0.185144</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155205</v>
+        <v>0.1552</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18178</v>
+        <v>0.182339</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183598</v>
+        <v>0.183655</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150697</v>
+        <v>0.150821</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180406</v>
+        <v>0.180997</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182206</v>
+        <v>0.182301</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146051</v>
+        <v>0.146271</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179136</v>
+        <v>0.17974</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180861</v>
+        <v>0.180869</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141088</v>
+        <v>0.141246</v>
       </c>
       <c r="C114" t="n">
-        <v>0.177832</v>
+        <v>0.178507</v>
       </c>
       <c r="D114" t="n">
-        <v>0.17955</v>
+        <v>0.179659</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136098</v>
+        <v>0.136162</v>
       </c>
       <c r="C115" t="n">
-        <v>0.176643</v>
+        <v>0.177272</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178306</v>
+        <v>0.178274</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131044</v>
+        <v>0.131035</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175511</v>
+        <v>0.176141</v>
       </c>
       <c r="D116" t="n">
-        <v>0.17699</v>
+        <v>0.176971</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12596</v>
+        <v>0.125924</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174412</v>
+        <v>0.175045</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175767</v>
+        <v>0.175737</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121062</v>
+        <v>0.120981</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173283</v>
+        <v>0.173984</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174543</v>
+        <v>0.174599</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11613</v>
+        <v>0.116153</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172181</v>
+        <v>0.172884</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173265</v>
+        <v>0.17337</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111244</v>
+        <v>0.111235</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171119</v>
+        <v>0.17177</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172164</v>
+        <v>0.172113</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106393</v>
+        <v>0.10636</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170061</v>
+        <v>0.170686</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170913</v>
+        <v>0.170921</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101494</v>
+        <v>0.101457</v>
       </c>
       <c r="C122" t="n">
-        <v>0.168954</v>
+        <v>0.169673</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169645</v>
+        <v>0.169726</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09658609999999999</v>
+        <v>0.0965154</v>
       </c>
       <c r="C123" t="n">
-        <v>0.167835</v>
+        <v>0.168561</v>
       </c>
       <c r="D123" t="n">
-        <v>0.187006</v>
+        <v>0.187063</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169552</v>
+        <v>0.169467</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183461</v>
+        <v>0.183956</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185403</v>
+        <v>0.185424</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.162684</v>
+        <v>0.165237</v>
       </c>
       <c r="C125" t="n">
-        <v>0.181986</v>
+        <v>0.18249</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183999</v>
+        <v>0.184038</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.159233</v>
+        <v>0.160348</v>
       </c>
       <c r="C126" t="n">
-        <v>0.180576</v>
+        <v>0.181275</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182615</v>
+        <v>0.182497</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155005</v>
+        <v>0.155079</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179353</v>
+        <v>0.179933</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181116</v>
+        <v>0.181242</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.147082</v>
+        <v>0.149797</v>
       </c>
       <c r="C128" t="n">
-        <v>0.177951</v>
+        <v>0.178704</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179706</v>
+        <v>0.179863</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.143898</v>
+        <v>0.144242</v>
       </c>
       <c r="C129" t="n">
-        <v>0.176729</v>
+        <v>0.177563</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178373</v>
+        <v>0.178574</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138517</v>
+        <v>0.139082</v>
       </c>
       <c r="C130" t="n">
-        <v>0.17557</v>
+        <v>0.176413</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177272</v>
+        <v>0.177279</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133739</v>
+        <v>0.133608</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174586</v>
+        <v>0.175257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175997</v>
+        <v>0.176006</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.12848</v>
+        <v>0.128338</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173472</v>
+        <v>0.174203</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174747</v>
+        <v>0.174806</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123331</v>
+        <v>0.1232</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172366</v>
+        <v>0.173192</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173593</v>
+        <v>0.173613</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118131</v>
+        <v>0.11803</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1713</v>
+        <v>0.171969</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172299</v>
+        <v>0.172386</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113051</v>
+        <v>0.11292</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17026</v>
+        <v>0.170969</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171098</v>
+        <v>0.171078</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10796</v>
+        <v>0.107812</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169159</v>
+        <v>0.169855</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169804</v>
+        <v>0.169883</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102736</v>
+        <v>0.102763</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168014</v>
+        <v>0.168802</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196595</v>
+        <v>0.196548</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170513</v>
+        <v>0.170563</v>
       </c>
       <c r="C138" t="n">
-        <v>0.193744</v>
+        <v>0.194062</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194468</v>
+        <v>0.194538</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166284</v>
+        <v>0.16611</v>
       </c>
       <c r="C139" t="n">
-        <v>0.191895</v>
+        <v>0.192154</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192733</v>
+        <v>0.192538</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161249</v>
+        <v>0.161544</v>
       </c>
       <c r="C140" t="n">
-        <v>0.189814</v>
+        <v>0.190502</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190862</v>
+        <v>0.190723</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156256</v>
+        <v>0.155987</v>
       </c>
       <c r="C141" t="n">
-        <v>0.187957</v>
+        <v>0.188638</v>
       </c>
       <c r="D141" t="n">
-        <v>0.18934</v>
+        <v>0.189073</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150891</v>
+        <v>0.150776</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186341</v>
+        <v>0.18699</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187546</v>
+        <v>0.187479</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145585</v>
+        <v>0.145532</v>
       </c>
       <c r="C143" t="n">
-        <v>0.184682</v>
+        <v>0.185261</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185733</v>
+        <v>0.185769</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0650529</v>
+        <v>0.07188940000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159842</v>
+        <v>0.157943</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164862</v>
+        <v>0.161337</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0648017</v>
+        <v>0.07139860000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159937</v>
+        <v>0.158125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164842</v>
+        <v>0.162596</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0643343</v>
+        <v>0.0720103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160446</v>
+        <v>0.158509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164693</v>
+        <v>0.163033</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06457060000000001</v>
+        <v>0.0701051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160131</v>
+        <v>0.158476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164922</v>
+        <v>0.162068</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06444039999999999</v>
+        <v>0.0689042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160285</v>
+        <v>0.158432</v>
       </c>
       <c r="D6" t="n">
-        <v>0.164201</v>
+        <v>0.162025</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0645331</v>
+        <v>0.0683758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160575</v>
+        <v>0.159208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.164372</v>
+        <v>0.162371</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06477289999999999</v>
+        <v>0.06894790000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159664</v>
+        <v>0.159304</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163681</v>
+        <v>0.161442</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0656379</v>
+        <v>0.0687719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159571</v>
+        <v>0.15961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177551</v>
+        <v>0.175321</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09243759999999999</v>
+        <v>0.120349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166698</v>
+        <v>0.16482</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176637</v>
+        <v>0.174451</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0906299</v>
+        <v>0.11978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.166909</v>
+        <v>0.165655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17654</v>
+        <v>0.174402</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09187099999999999</v>
+        <v>0.117739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.166422</v>
+        <v>0.165561</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176038</v>
+        <v>0.174251</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0914003</v>
+        <v>0.113552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165785</v>
+        <v>0.165913</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17529</v>
+        <v>0.174315</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0901738</v>
+        <v>0.110754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16574</v>
+        <v>0.164774</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174619</v>
+        <v>0.173126</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.089824</v>
+        <v>0.11076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165391</v>
+        <v>0.165191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173817</v>
+        <v>0.172728</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0892599</v>
+        <v>0.107129</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165162</v>
+        <v>0.165356</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173246</v>
+        <v>0.172255</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08660900000000001</v>
+        <v>0.105843</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164367</v>
+        <v>0.16469</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172402</v>
+        <v>0.171714</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0873659</v>
+        <v>0.102519</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164155</v>
+        <v>0.165114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171557</v>
+        <v>0.170494</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0883318</v>
+        <v>0.0979899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.165534</v>
+        <v>0.164925</v>
       </c>
       <c r="D19" t="n">
-        <v>0.17219</v>
+        <v>0.16931</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0862531</v>
+        <v>0.0971336</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167076</v>
+        <v>0.168967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.170562</v>
+        <v>0.169661</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0834145</v>
+        <v>0.0930535</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165993</v>
+        <v>0.168292</v>
       </c>
       <c r="D21" t="n">
-        <v>0.170272</v>
+        <v>0.169426</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0825058</v>
+        <v>0.08877839999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166453</v>
+        <v>0.167326</v>
       </c>
       <c r="D22" t="n">
-        <v>0.168714</v>
+        <v>0.166978</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07995720000000001</v>
+        <v>0.08548509999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165673</v>
+        <v>0.164114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.185141</v>
+        <v>0.184293</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135074</v>
+        <v>0.148713</v>
       </c>
       <c r="C24" t="n">
-        <v>0.172551</v>
+        <v>0.178995</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183591</v>
+        <v>0.184411</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131589</v>
+        <v>0.145131</v>
       </c>
       <c r="C25" t="n">
-        <v>0.171784</v>
+        <v>0.177042</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182354</v>
+        <v>0.184106</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.128386</v>
+        <v>0.141438</v>
       </c>
       <c r="C26" t="n">
-        <v>0.172052</v>
+        <v>0.176586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181231</v>
+        <v>0.181211</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.125917</v>
+        <v>0.137321</v>
       </c>
       <c r="C27" t="n">
-        <v>0.171134</v>
+        <v>0.175529</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179642</v>
+        <v>0.180502</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122857</v>
+        <v>0.133418</v>
       </c>
       <c r="C28" t="n">
-        <v>0.169392</v>
+        <v>0.174178</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178361</v>
+        <v>0.179092</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120191</v>
+        <v>0.129842</v>
       </c>
       <c r="C29" t="n">
-        <v>0.16884</v>
+        <v>0.174134</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177673</v>
+        <v>0.178602</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117168</v>
+        <v>0.126219</v>
       </c>
       <c r="C30" t="n">
-        <v>0.168123</v>
+        <v>0.173479</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176529</v>
+        <v>0.17849</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114183</v>
+        <v>0.122673</v>
       </c>
       <c r="C31" t="n">
-        <v>0.170955</v>
+        <v>0.173455</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175321</v>
+        <v>0.175409</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111237</v>
+        <v>0.118458</v>
       </c>
       <c r="C32" t="n">
-        <v>0.169895</v>
+        <v>0.171296</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174262</v>
+        <v>0.17405</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.108079</v>
+        <v>0.11405</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169658</v>
+        <v>0.171179</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173174</v>
+        <v>0.173736</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104761</v>
+        <v>0.109745</v>
       </c>
       <c r="C34" t="n">
-        <v>0.166335</v>
+        <v>0.170442</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17224</v>
+        <v>0.173075</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0996215</v>
+        <v>0.104787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.165685</v>
+        <v>0.169711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17116</v>
+        <v>0.171046</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0955247</v>
+        <v>0.0994437</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167942</v>
+        <v>0.16925</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169517</v>
+        <v>0.170603</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0916372</v>
+        <v>0.09443600000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.16712</v>
+        <v>0.167479</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186945</v>
+        <v>0.188423</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152499</v>
+        <v>0.156726</v>
       </c>
       <c r="C38" t="n">
-        <v>0.178487</v>
+        <v>0.182406</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185304</v>
+        <v>0.185592</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149323</v>
+        <v>0.153774</v>
       </c>
       <c r="C39" t="n">
-        <v>0.178508</v>
+        <v>0.181068</v>
       </c>
       <c r="D39" t="n">
-        <v>0.184043</v>
+        <v>0.185203</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145493</v>
+        <v>0.150103</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176857</v>
+        <v>0.180315</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182417</v>
+        <v>0.183308</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142266</v>
+        <v>0.14617</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17528</v>
+        <v>0.178994</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181287</v>
+        <v>0.181803</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138201</v>
+        <v>0.141788</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175505</v>
+        <v>0.178405</v>
       </c>
       <c r="D42" t="n">
-        <v>0.180157</v>
+        <v>0.182291</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1348</v>
+        <v>0.137645</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174081</v>
+        <v>0.177015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178767</v>
+        <v>0.179002</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130599</v>
+        <v>0.132993</v>
       </c>
       <c r="C44" t="n">
-        <v>0.173269</v>
+        <v>0.176192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177778</v>
+        <v>0.178288</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126066</v>
+        <v>0.128622</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173376</v>
+        <v>0.174507</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176675</v>
+        <v>0.17762</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121617</v>
+        <v>0.123514</v>
       </c>
       <c r="C46" t="n">
-        <v>0.171413</v>
+        <v>0.173487</v>
       </c>
       <c r="D46" t="n">
-        <v>0.175442</v>
+        <v>0.176245</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11708</v>
+        <v>0.118723</v>
       </c>
       <c r="C47" t="n">
-        <v>0.171013</v>
+        <v>0.173</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173994</v>
+        <v>0.174822</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112408</v>
+        <v>0.113821</v>
       </c>
       <c r="C48" t="n">
-        <v>0.169688</v>
+        <v>0.171999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.172752</v>
+        <v>0.172876</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107712</v>
+        <v>0.108988</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169112</v>
+        <v>0.171173</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171522</v>
+        <v>0.172181</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103085</v>
+        <v>0.10448</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168633</v>
+        <v>0.169897</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170328</v>
+        <v>0.171603</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09786889999999999</v>
+        <v>0.09919020000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166833</v>
+        <v>0.169009</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187772</v>
+        <v>0.187879</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0928248</v>
+        <v>0.0938514</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166467</v>
+        <v>0.167504</v>
       </c>
       <c r="D52" t="n">
-        <v>0.186238</v>
+        <v>0.187172</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156636</v>
+        <v>0.158157</v>
       </c>
       <c r="C53" t="n">
-        <v>0.181528</v>
+        <v>0.182588</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184893</v>
+        <v>0.185296</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153081</v>
+        <v>0.154339</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180137</v>
+        <v>0.180906</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183659</v>
+        <v>0.184047</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148791</v>
+        <v>0.149785</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179077</v>
+        <v>0.180155</v>
       </c>
       <c r="D55" t="n">
-        <v>0.182172</v>
+        <v>0.182964</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144823</v>
+        <v>0.145606</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178014</v>
+        <v>0.17887</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180979</v>
+        <v>0.182274</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140352</v>
+        <v>0.140726</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177126</v>
+        <v>0.17818</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179572</v>
+        <v>0.180257</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135677</v>
+        <v>0.13571</v>
       </c>
       <c r="C58" t="n">
-        <v>0.17597</v>
+        <v>0.176671</v>
       </c>
       <c r="D58" t="n">
-        <v>0.178287</v>
+        <v>0.18044</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130486</v>
+        <v>0.130833</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174881</v>
+        <v>0.17584</v>
       </c>
       <c r="D59" t="n">
-        <v>0.177204</v>
+        <v>0.177891</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125492</v>
+        <v>0.126098</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173947</v>
+        <v>0.174708</v>
       </c>
       <c r="D60" t="n">
-        <v>0.176051</v>
+        <v>0.176507</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120643</v>
+        <v>0.121242</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172939</v>
+        <v>0.17365</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174625</v>
+        <v>0.175993</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11585</v>
+        <v>0.116311</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171967</v>
+        <v>0.172648</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173444</v>
+        <v>0.17429</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11115</v>
+        <v>0.111466</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170919</v>
+        <v>0.171458</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172235</v>
+        <v>0.172843</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106194</v>
+        <v>0.106432</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169928</v>
+        <v>0.170669</v>
       </c>
       <c r="D64" t="n">
-        <v>0.171045</v>
+        <v>0.171589</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101459</v>
+        <v>0.10177</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16899</v>
+        <v>0.169595</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16975</v>
+        <v>0.170896</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0965514</v>
+        <v>0.0968741</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167965</v>
+        <v>0.168531</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187059</v>
+        <v>0.187869</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160064</v>
+        <v>0.160979</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183251</v>
+        <v>0.183677</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185636</v>
+        <v>0.187146</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156362</v>
+        <v>0.157087</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181914</v>
+        <v>0.182453</v>
       </c>
       <c r="D68" t="n">
-        <v>0.184169</v>
+        <v>0.185491</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.15223</v>
+        <v>0.152894</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180701</v>
+        <v>0.181259</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182729</v>
+        <v>0.184831</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147519</v>
+        <v>0.148324</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179411</v>
+        <v>0.179997</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181405</v>
+        <v>0.182306</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142728</v>
+        <v>0.143226</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178228</v>
+        <v>0.17866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.180099</v>
+        <v>0.180996</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138134</v>
+        <v>0.138458</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177151</v>
+        <v>0.177514</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178871</v>
+        <v>0.181237</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133307</v>
+        <v>0.133576</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176022</v>
+        <v>0.176461</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177599</v>
+        <v>0.178346</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128524</v>
+        <v>0.128426</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175057</v>
+        <v>0.17543</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176367</v>
+        <v>0.177033</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123676</v>
+        <v>0.123668</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173957</v>
+        <v>0.174363</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175099</v>
+        <v>0.175895</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118688</v>
+        <v>0.118624</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172996</v>
+        <v>0.173036</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173893</v>
+        <v>0.174378</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113712</v>
+        <v>0.113533</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171968</v>
+        <v>0.171969</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172642</v>
+        <v>0.173023</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108785</v>
+        <v>0.108793</v>
       </c>
       <c r="C78" t="n">
-        <v>0.17091</v>
+        <v>0.170941</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171521</v>
+        <v>0.171726</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10394</v>
+        <v>0.103633</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169777</v>
+        <v>0.169904</v>
       </c>
       <c r="D79" t="n">
-        <v>0.170273</v>
+        <v>0.170358</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0988897</v>
+        <v>0.0990924</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168776</v>
+        <v>0.169086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187544</v>
+        <v>0.188927</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161446</v>
+        <v>0.161242</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183975</v>
+        <v>0.184122</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185984</v>
+        <v>0.186343</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157593</v>
+        <v>0.157607</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182568</v>
+        <v>0.182695</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184561</v>
+        <v>0.184872</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153209</v>
+        <v>0.153243</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181245</v>
+        <v>0.181421</v>
       </c>
       <c r="D83" t="n">
-        <v>0.183107</v>
+        <v>0.183533</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148713</v>
+        <v>0.148722</v>
       </c>
       <c r="C84" t="n">
-        <v>0.18001</v>
+        <v>0.180305</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181727</v>
+        <v>0.182212</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144122</v>
+        <v>0.1439</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178764</v>
+        <v>0.178883</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180361</v>
+        <v>0.180925</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139309</v>
+        <v>0.138919</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177645</v>
+        <v>0.177817</v>
       </c>
       <c r="D86" t="n">
-        <v>0.179093</v>
+        <v>0.179678</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134075</v>
+        <v>0.134261</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176535</v>
+        <v>0.176726</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177839</v>
+        <v>0.178251</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129116</v>
+        <v>0.129244</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175455</v>
+        <v>0.175548</v>
       </c>
       <c r="D88" t="n">
-        <v>0.17656</v>
+        <v>0.177028</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124112</v>
+        <v>0.124183</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17447</v>
+        <v>0.174349</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175396</v>
+        <v>0.17593</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119251</v>
+        <v>0.119055</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173488</v>
+        <v>0.173374</v>
       </c>
       <c r="D90" t="n">
-        <v>0.174091</v>
+        <v>0.174872</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114246</v>
+        <v>0.11419</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172312</v>
+        <v>0.172291</v>
       </c>
       <c r="D91" t="n">
-        <v>0.17291</v>
+        <v>0.173641</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109304</v>
+        <v>0.109417</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171303</v>
+        <v>0.171228</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171739</v>
+        <v>0.172166</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104257</v>
+        <v>0.104439</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170207</v>
+        <v>0.170129</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170439</v>
+        <v>0.170934</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993965</v>
+        <v>0.0994932</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16913</v>
+        <v>0.16909</v>
       </c>
       <c r="D94" t="n">
-        <v>0.188002</v>
+        <v>0.188325</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162254</v>
+        <v>0.162544</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184641</v>
+        <v>0.184616</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186306</v>
+        <v>0.186903</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158351</v>
+        <v>0.158588</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183235</v>
+        <v>0.183224</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184861</v>
+        <v>0.185199</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154266</v>
+        <v>0.154279</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181897</v>
+        <v>0.181944</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183376</v>
+        <v>0.183766</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149334</v>
+        <v>0.149635</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180724</v>
+        <v>0.180609</v>
       </c>
       <c r="D98" t="n">
-        <v>0.182225</v>
+        <v>0.182522</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144945</v>
+        <v>0.145018</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179534</v>
+        <v>0.17938</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180585</v>
+        <v>0.18111</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139939</v>
+        <v>0.140153</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178187</v>
+        <v>0.178183</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179227</v>
+        <v>0.179977</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134863</v>
+        <v>0.135194</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176874</v>
+        <v>0.177039</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177888</v>
+        <v>0.178595</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130057</v>
+        <v>0.130087</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175765</v>
+        <v>0.175854</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176616</v>
+        <v>0.17762</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125031</v>
+        <v>0.125142</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174645</v>
+        <v>0.174723</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175415</v>
+        <v>0.176334</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120082</v>
+        <v>0.120073</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173712</v>
+        <v>0.173651</v>
       </c>
       <c r="D104" t="n">
-        <v>0.17441</v>
+        <v>0.175123</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115298</v>
+        <v>0.115052</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172657</v>
+        <v>0.172586</v>
       </c>
       <c r="D105" t="n">
-        <v>0.173109</v>
+        <v>0.173661</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110324</v>
+        <v>0.110246</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171595</v>
+        <v>0.171523</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171884</v>
+        <v>0.172551</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105444</v>
+        <v>0.105186</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170485</v>
+        <v>0.170498</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170627</v>
+        <v>0.17135</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100425</v>
+        <v>0.100398</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169431</v>
+        <v>0.169364</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188272</v>
+        <v>0.188658</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09546209999999999</v>
+        <v>0.0955295</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168286</v>
+        <v>0.168278</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186716</v>
+        <v>0.187093</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159309</v>
+        <v>0.15953</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183665</v>
+        <v>0.183584</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185144</v>
+        <v>0.185661</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1552</v>
+        <v>0.155184</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182339</v>
+        <v>0.182268</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183655</v>
+        <v>0.184234</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150821</v>
+        <v>0.150642</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180997</v>
+        <v>0.180907</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182301</v>
+        <v>0.182643</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146271</v>
+        <v>0.145937</v>
       </c>
       <c r="C113" t="n">
-        <v>0.17974</v>
+        <v>0.179648</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180869</v>
+        <v>0.181535</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141246</v>
+        <v>0.141081</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178507</v>
+        <v>0.178419</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179659</v>
+        <v>0.180136</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136162</v>
+        <v>0.13625</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177272</v>
+        <v>0.17734</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178274</v>
+        <v>0.178943</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131035</v>
+        <v>0.131026</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176141</v>
+        <v>0.176148</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176971</v>
+        <v>0.17759</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125924</v>
+        <v>0.125946</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175045</v>
+        <v>0.175035</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175737</v>
+        <v>0.176492</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120981</v>
+        <v>0.121063</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173984</v>
+        <v>0.173943</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174599</v>
+        <v>0.175015</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116153</v>
+        <v>0.116189</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172884</v>
+        <v>0.172878</v>
       </c>
       <c r="D119" t="n">
-        <v>0.17337</v>
+        <v>0.173829</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111235</v>
+        <v>0.111268</v>
       </c>
       <c r="C120" t="n">
-        <v>0.17177</v>
+        <v>0.171803</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172113</v>
+        <v>0.172566</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10636</v>
+        <v>0.106316</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170686</v>
+        <v>0.170768</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170921</v>
+        <v>0.171306</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101457</v>
+        <v>0.101464</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169673</v>
+        <v>0.169716</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169726</v>
+        <v>0.170108</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965154</v>
+        <v>0.0965456</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168561</v>
+        <v>0.168506</v>
       </c>
       <c r="D123" t="n">
-        <v>0.187063</v>
+        <v>0.187242</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169467</v>
+        <v>0.169698</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183956</v>
+        <v>0.183989</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185424</v>
+        <v>0.185716</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165237</v>
+        <v>0.165189</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18249</v>
+        <v>0.182632</v>
       </c>
       <c r="D125" t="n">
-        <v>0.184038</v>
+        <v>0.184263</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160348</v>
+        <v>0.159721</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181275</v>
+        <v>0.18108</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182497</v>
+        <v>0.182815</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155079</v>
+        <v>0.154349</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179933</v>
+        <v>0.179834</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181242</v>
+        <v>0.181503</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149797</v>
+        <v>0.1492</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178704</v>
+        <v>0.178586</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179863</v>
+        <v>0.180399</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144242</v>
+        <v>0.144271</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177563</v>
+        <v>0.177589</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178574</v>
+        <v>0.179144</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139082</v>
+        <v>0.138926</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176413</v>
+        <v>0.176452</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177279</v>
+        <v>0.177732</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133608</v>
+        <v>0.133563</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175257</v>
+        <v>0.17529</v>
       </c>
       <c r="D131" t="n">
-        <v>0.176006</v>
+        <v>0.176462</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128338</v>
+        <v>0.128576</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174203</v>
+        <v>0.174223</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174806</v>
+        <v>0.175365</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1232</v>
+        <v>0.123259</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173192</v>
+        <v>0.173048</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173613</v>
+        <v>0.174068</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.11803</v>
+        <v>0.118255</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171969</v>
+        <v>0.172035</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172386</v>
+        <v>0.172763</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.11292</v>
+        <v>0.113051</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170969</v>
+        <v>0.17095</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171078</v>
+        <v>0.171674</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107812</v>
+        <v>0.107894</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169855</v>
+        <v>0.169851</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169883</v>
+        <v>0.170355</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102763</v>
+        <v>0.102817</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168802</v>
+        <v>0.168756</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196548</v>
+        <v>0.196881</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170563</v>
+        <v>0.170379</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194062</v>
+        <v>0.19425</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194538</v>
+        <v>0.194804</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16611</v>
+        <v>0.165981</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192154</v>
+        <v>0.192233</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192538</v>
+        <v>0.193391</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161544</v>
+        <v>0.161317</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190502</v>
+        <v>0.190304</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190723</v>
+        <v>0.191182</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.155987</v>
+        <v>0.156638</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188638</v>
+        <v>0.188644</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189073</v>
+        <v>0.189556</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150776</v>
+        <v>0.151001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.18699</v>
+        <v>0.186923</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187479</v>
+        <v>0.187988</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145532</v>
+        <v>0.145502</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185261</v>
+        <v>0.185235</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185769</v>
+        <v>0.186229</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07188940000000001</v>
+        <v>0.0646663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157943</v>
+        <v>0.160036</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161337</v>
+        <v>0.160326</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07139860000000001</v>
+        <v>0.0643971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.158125</v>
+        <v>0.159684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.162596</v>
+        <v>0.159424</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0720103</v>
+        <v>0.0643918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158509</v>
+        <v>0.160253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.163033</v>
+        <v>0.160261</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0701051</v>
+        <v>0.064402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158476</v>
+        <v>0.15986</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162068</v>
+        <v>0.16044</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0689042</v>
+        <v>0.0641944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158432</v>
+        <v>0.160069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162025</v>
+        <v>0.159752</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0683758</v>
+        <v>0.06441669999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159208</v>
+        <v>0.159937</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162371</v>
+        <v>0.159696</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06894790000000001</v>
+        <v>0.0643967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159304</v>
+        <v>0.16018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161442</v>
+        <v>0.159399</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0687719</v>
+        <v>0.0653041</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15961</v>
+        <v>0.158857</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175321</v>
+        <v>0.167724</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.120349</v>
+        <v>0.0914652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.16482</v>
+        <v>0.167289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.174451</v>
+        <v>0.167341</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.11978</v>
+        <v>0.0909179</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165655</v>
+        <v>0.167198</v>
       </c>
       <c r="D11" t="n">
-        <v>0.174402</v>
+        <v>0.167208</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117739</v>
+        <v>0.090305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165561</v>
+        <v>0.166459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174251</v>
+        <v>0.16707</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.113552</v>
+        <v>0.09046659999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165913</v>
+        <v>0.165898</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174315</v>
+        <v>0.166451</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.110754</v>
+        <v>0.0900208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164774</v>
+        <v>0.165517</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173126</v>
+        <v>0.166391</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.11076</v>
+        <v>0.089058</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165191</v>
+        <v>0.165378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172728</v>
+        <v>0.165964</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.107129</v>
+        <v>0.0868886</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165356</v>
+        <v>0.165156</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172255</v>
+        <v>0.165674</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.105843</v>
+        <v>0.08658250000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.16469</v>
+        <v>0.164526</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171714</v>
+        <v>0.165034</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.102519</v>
+        <v>0.0862947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.165114</v>
+        <v>0.164411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170494</v>
+        <v>0.164993</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0979899</v>
+        <v>0.0858409</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164925</v>
+        <v>0.16548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16931</v>
+        <v>0.166138</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0971336</v>
+        <v>0.08578189999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.168967</v>
+        <v>0.167155</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169661</v>
+        <v>0.165965</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0930535</v>
+        <v>0.0829901</v>
       </c>
       <c r="C21" t="n">
-        <v>0.168292</v>
+        <v>0.163989</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169426</v>
+        <v>0.163701</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08877839999999999</v>
+        <v>0.0810303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167326</v>
+        <v>0.164568</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166978</v>
+        <v>0.163018</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08548509999999999</v>
+        <v>0.0785252</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164114</v>
+        <v>0.16222</v>
       </c>
       <c r="D23" t="n">
-        <v>0.184293</v>
+        <v>0.17368</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.148713</v>
+        <v>0.133308</v>
       </c>
       <c r="C24" t="n">
-        <v>0.178995</v>
+        <v>0.173819</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184411</v>
+        <v>0.177104</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145131</v>
+        <v>0.13181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177042</v>
+        <v>0.171592</v>
       </c>
       <c r="D25" t="n">
-        <v>0.184106</v>
+        <v>0.175442</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141438</v>
+        <v>0.128096</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176586</v>
+        <v>0.170035</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181211</v>
+        <v>0.17948</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137321</v>
+        <v>0.124848</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175529</v>
+        <v>0.171841</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180502</v>
+        <v>0.17353</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133418</v>
+        <v>0.121856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174178</v>
+        <v>0.169092</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179092</v>
+        <v>0.172836</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.129842</v>
+        <v>0.119072</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174134</v>
+        <v>0.169472</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178602</v>
+        <v>0.172552</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126219</v>
+        <v>0.116148</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173479</v>
+        <v>0.16813</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17849</v>
+        <v>0.169437</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122673</v>
+        <v>0.113548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173455</v>
+        <v>0.167777</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175409</v>
+        <v>0.168907</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118458</v>
+        <v>0.110342</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171296</v>
+        <v>0.167055</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17405</v>
+        <v>0.169742</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.11405</v>
+        <v>0.107048</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171179</v>
+        <v>0.169025</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173736</v>
+        <v>0.167388</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109745</v>
+        <v>0.103176</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170442</v>
+        <v>0.168601</v>
       </c>
       <c r="D34" t="n">
-        <v>0.173075</v>
+        <v>0.166005</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.104787</v>
+        <v>0.0992611</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169711</v>
+        <v>0.168315</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171046</v>
+        <v>0.165544</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0994437</v>
+        <v>0.09614789999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.16925</v>
+        <v>0.16578</v>
       </c>
       <c r="D36" t="n">
-        <v>0.170603</v>
+        <v>0.165455</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09443600000000001</v>
+        <v>0.0908779</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167479</v>
+        <v>0.16502</v>
       </c>
       <c r="D37" t="n">
-        <v>0.188423</v>
+        <v>0.185586</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156726</v>
+        <v>0.152199</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182406</v>
+        <v>0.178349</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185592</v>
+        <v>0.182158</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153774</v>
+        <v>0.149139</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181068</v>
+        <v>0.178351</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185203</v>
+        <v>0.178608</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150103</v>
+        <v>0.145586</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180315</v>
+        <v>0.176806</v>
       </c>
       <c r="D40" t="n">
-        <v>0.183308</v>
+        <v>0.177939</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14617</v>
+        <v>0.14169</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178994</v>
+        <v>0.175633</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181803</v>
+        <v>0.177401</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.141788</v>
+        <v>0.138096</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178405</v>
+        <v>0.175255</v>
       </c>
       <c r="D42" t="n">
-        <v>0.182291</v>
+        <v>0.179402</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137645</v>
+        <v>0.134235</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177015</v>
+        <v>0.174163</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179002</v>
+        <v>0.178492</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.132993</v>
+        <v>0.130087</v>
       </c>
       <c r="C44" t="n">
-        <v>0.176192</v>
+        <v>0.173441</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178288</v>
+        <v>0.175977</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128622</v>
+        <v>0.12578</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174507</v>
+        <v>0.172756</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17762</v>
+        <v>0.173063</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123514</v>
+        <v>0.12151</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173487</v>
+        <v>0.171291</v>
       </c>
       <c r="D46" t="n">
-        <v>0.176245</v>
+        <v>0.171762</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118723</v>
+        <v>0.116856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173</v>
+        <v>0.170137</v>
       </c>
       <c r="D47" t="n">
-        <v>0.174822</v>
+        <v>0.171298</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113821</v>
+        <v>0.112325</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171999</v>
+        <v>0.169588</v>
       </c>
       <c r="D48" t="n">
-        <v>0.172876</v>
+        <v>0.169941</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108988</v>
+        <v>0.107545</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171173</v>
+        <v>0.168712</v>
       </c>
       <c r="D49" t="n">
-        <v>0.172181</v>
+        <v>0.168986</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10448</v>
+        <v>0.102981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169897</v>
+        <v>0.167959</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171603</v>
+        <v>0.168144</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09919020000000001</v>
+        <v>0.0982929</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169009</v>
+        <v>0.166942</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187879</v>
+        <v>0.186122</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0938514</v>
+        <v>0.093192</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167504</v>
+        <v>0.166524</v>
       </c>
       <c r="D52" t="n">
-        <v>0.187172</v>
+        <v>0.18403</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158157</v>
+        <v>0.156383</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182588</v>
+        <v>0.181896</v>
       </c>
       <c r="D53" t="n">
-        <v>0.185296</v>
+        <v>0.182939</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154339</v>
+        <v>0.152967</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180906</v>
+        <v>0.18039</v>
       </c>
       <c r="D54" t="n">
-        <v>0.184047</v>
+        <v>0.181359</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149785</v>
+        <v>0.149024</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180155</v>
+        <v>0.178919</v>
       </c>
       <c r="D55" t="n">
-        <v>0.182964</v>
+        <v>0.180692</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145606</v>
+        <v>0.144691</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17887</v>
+        <v>0.178266</v>
       </c>
       <c r="D56" t="n">
-        <v>0.182274</v>
+        <v>0.179174</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140726</v>
+        <v>0.140155</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17818</v>
+        <v>0.176993</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180257</v>
+        <v>0.177925</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.13571</v>
+        <v>0.135216</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176671</v>
+        <v>0.175958</v>
       </c>
       <c r="D58" t="n">
-        <v>0.18044</v>
+        <v>0.176686</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130833</v>
+        <v>0.130206</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17584</v>
+        <v>0.174858</v>
       </c>
       <c r="D59" t="n">
-        <v>0.177891</v>
+        <v>0.175632</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126098</v>
+        <v>0.125539</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174708</v>
+        <v>0.173721</v>
       </c>
       <c r="D60" t="n">
-        <v>0.176507</v>
+        <v>0.174452</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121242</v>
+        <v>0.120684</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17365</v>
+        <v>0.172822</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175993</v>
+        <v>0.173095</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116311</v>
+        <v>0.115739</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172648</v>
+        <v>0.171811</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17429</v>
+        <v>0.171864</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111466</v>
+        <v>0.110946</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171458</v>
+        <v>0.170765</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172843</v>
+        <v>0.17108</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106432</v>
+        <v>0.106196</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170669</v>
+        <v>0.16998</v>
       </c>
       <c r="D64" t="n">
-        <v>0.171589</v>
+        <v>0.170011</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.10177</v>
+        <v>0.101248</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169595</v>
+        <v>0.169126</v>
       </c>
       <c r="D65" t="n">
-        <v>0.170896</v>
+        <v>0.168763</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0968741</v>
+        <v>0.096411</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168531</v>
+        <v>0.167801</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187869</v>
+        <v>0.186258</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160979</v>
+        <v>0.159628</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183677</v>
+        <v>0.183108</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187146</v>
+        <v>0.185499</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.157087</v>
+        <v>0.156042</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182453</v>
+        <v>0.18187</v>
       </c>
       <c r="D68" t="n">
-        <v>0.185491</v>
+        <v>0.18314</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152894</v>
+        <v>0.151682</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181259</v>
+        <v>0.180533</v>
       </c>
       <c r="D69" t="n">
-        <v>0.184831</v>
+        <v>0.182057</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.148324</v>
+        <v>0.147175</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179997</v>
+        <v>0.179336</v>
       </c>
       <c r="D70" t="n">
-        <v>0.182306</v>
+        <v>0.180723</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143226</v>
+        <v>0.14226</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17866</v>
+        <v>0.17837</v>
       </c>
       <c r="D71" t="n">
-        <v>0.180996</v>
+        <v>0.179611</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138458</v>
+        <v>0.137814</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177514</v>
+        <v>0.177305</v>
       </c>
       <c r="D72" t="n">
-        <v>0.181237</v>
+        <v>0.178256</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133576</v>
+        <v>0.132997</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176461</v>
+        <v>0.176084</v>
       </c>
       <c r="D73" t="n">
-        <v>0.178346</v>
+        <v>0.176949</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128426</v>
+        <v>0.127876</v>
       </c>
       <c r="C74" t="n">
-        <v>0.17543</v>
+        <v>0.175102</v>
       </c>
       <c r="D74" t="n">
-        <v>0.177033</v>
+        <v>0.175614</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123668</v>
+        <v>0.123077</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174363</v>
+        <v>0.173995</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175895</v>
+        <v>0.174534</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118624</v>
+        <v>0.118168</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173036</v>
+        <v>0.172946</v>
       </c>
       <c r="D76" t="n">
-        <v>0.174378</v>
+        <v>0.173303</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113533</v>
+        <v>0.11323</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171969</v>
+        <v>0.171989</v>
       </c>
       <c r="D77" t="n">
-        <v>0.173023</v>
+        <v>0.172191</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108793</v>
+        <v>0.108186</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170941</v>
+        <v>0.170888</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171726</v>
+        <v>0.170808</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103633</v>
+        <v>0.103374</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169904</v>
+        <v>0.169949</v>
       </c>
       <c r="D79" t="n">
-        <v>0.170358</v>
+        <v>0.16968</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0990924</v>
+        <v>0.0985588</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169086</v>
+        <v>0.168801</v>
       </c>
       <c r="D80" t="n">
-        <v>0.188927</v>
+        <v>0.187188</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161242</v>
+        <v>0.161271</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184122</v>
+        <v>0.183956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.186343</v>
+        <v>0.18581</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157607</v>
+        <v>0.157269</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182695</v>
+        <v>0.182483</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184872</v>
+        <v>0.18435</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153243</v>
+        <v>0.153209</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181421</v>
+        <v>0.181312</v>
       </c>
       <c r="D83" t="n">
-        <v>0.183533</v>
+        <v>0.182886</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148722</v>
+        <v>0.148588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180305</v>
+        <v>0.180138</v>
       </c>
       <c r="D84" t="n">
-        <v>0.182212</v>
+        <v>0.181526</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1439</v>
+        <v>0.144005</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178883</v>
+        <v>0.178772</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180925</v>
+        <v>0.180223</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138919</v>
+        <v>0.138946</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177817</v>
+        <v>0.177734</v>
       </c>
       <c r="D86" t="n">
-        <v>0.179678</v>
+        <v>0.17888</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134261</v>
+        <v>0.133931</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176726</v>
+        <v>0.176581</v>
       </c>
       <c r="D87" t="n">
-        <v>0.178251</v>
+        <v>0.177606</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129244</v>
+        <v>0.128895</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175548</v>
+        <v>0.175506</v>
       </c>
       <c r="D88" t="n">
-        <v>0.177028</v>
+        <v>0.176339</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124183</v>
+        <v>0.123995</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174349</v>
+        <v>0.174472</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17593</v>
+        <v>0.175173</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119055</v>
+        <v>0.118957</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173374</v>
+        <v>0.173443</v>
       </c>
       <c r="D90" t="n">
-        <v>0.174872</v>
+        <v>0.173946</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.11419</v>
+        <v>0.11413</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172291</v>
+        <v>0.17237</v>
       </c>
       <c r="D91" t="n">
-        <v>0.173641</v>
+        <v>0.172665</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109417</v>
+        <v>0.10923</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171228</v>
+        <v>0.171374</v>
       </c>
       <c r="D92" t="n">
-        <v>0.172166</v>
+        <v>0.171564</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104439</v>
+        <v>0.10447</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170129</v>
+        <v>0.170202</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170934</v>
+        <v>0.170349</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994932</v>
+        <v>0.099456</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16909</v>
+        <v>0.169178</v>
       </c>
       <c r="D94" t="n">
-        <v>0.188325</v>
+        <v>0.187792</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162544</v>
+        <v>0.162275</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184616</v>
+        <v>0.184541</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186903</v>
+        <v>0.186298</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158588</v>
+        <v>0.158394</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183224</v>
+        <v>0.183234</v>
       </c>
       <c r="D96" t="n">
-        <v>0.185199</v>
+        <v>0.184807</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154279</v>
+        <v>0.154435</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181944</v>
+        <v>0.181924</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183766</v>
+        <v>0.183331</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149635</v>
+        <v>0.149644</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180609</v>
+        <v>0.18068</v>
       </c>
       <c r="D98" t="n">
-        <v>0.182522</v>
+        <v>0.181818</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145018</v>
+        <v>0.144848</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17938</v>
+        <v>0.179583</v>
       </c>
       <c r="D99" t="n">
-        <v>0.18111</v>
+        <v>0.180522</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140153</v>
+        <v>0.140067</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178183</v>
+        <v>0.178283</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179977</v>
+        <v>0.17933</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135194</v>
+        <v>0.135026</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177039</v>
+        <v>0.177078</v>
       </c>
       <c r="D101" t="n">
-        <v>0.178595</v>
+        <v>0.178028</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130087</v>
+        <v>0.12996</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175854</v>
+        <v>0.176006</v>
       </c>
       <c r="D102" t="n">
-        <v>0.17762</v>
+        <v>0.176765</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125142</v>
+        <v>0.125036</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174723</v>
+        <v>0.174866</v>
       </c>
       <c r="D103" t="n">
-        <v>0.176334</v>
+        <v>0.175491</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120073</v>
+        <v>0.120102</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173651</v>
+        <v>0.173768</v>
       </c>
       <c r="D104" t="n">
-        <v>0.175123</v>
+        <v>0.174216</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115052</v>
+        <v>0.115089</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172586</v>
+        <v>0.172735</v>
       </c>
       <c r="D105" t="n">
-        <v>0.173661</v>
+        <v>0.17307</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110246</v>
+        <v>0.110156</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171523</v>
+        <v>0.171602</v>
       </c>
       <c r="D106" t="n">
-        <v>0.172551</v>
+        <v>0.171819</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105186</v>
+        <v>0.105181</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170498</v>
+        <v>0.170523</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17135</v>
+        <v>0.170559</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100398</v>
+        <v>0.10025</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169364</v>
+        <v>0.169476</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188658</v>
+        <v>0.188368</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955295</v>
+        <v>0.09554319999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168278</v>
+        <v>0.16834</v>
       </c>
       <c r="D109" t="n">
-        <v>0.187093</v>
+        <v>0.186704</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.15953</v>
+        <v>0.159381</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183584</v>
+        <v>0.183735</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185661</v>
+        <v>0.185189</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155184</v>
+        <v>0.155166</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182268</v>
+        <v>0.182278</v>
       </c>
       <c r="D111" t="n">
-        <v>0.184234</v>
+        <v>0.183731</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150642</v>
+        <v>0.150621</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180907</v>
+        <v>0.180996</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182643</v>
+        <v>0.182354</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145937</v>
+        <v>0.145678</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179648</v>
+        <v>0.179715</v>
       </c>
       <c r="D113" t="n">
-        <v>0.181535</v>
+        <v>0.181016</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141081</v>
+        <v>0.1409</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178419</v>
+        <v>0.178506</v>
       </c>
       <c r="D114" t="n">
-        <v>0.180136</v>
+        <v>0.179616</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.13625</v>
+        <v>0.136022</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17734</v>
+        <v>0.177299</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178943</v>
+        <v>0.178363</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131026</v>
+        <v>0.131074</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176148</v>
+        <v>0.17629</v>
       </c>
       <c r="D116" t="n">
-        <v>0.17759</v>
+        <v>0.176963</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125946</v>
+        <v>0.126112</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175035</v>
+        <v>0.174949</v>
       </c>
       <c r="D117" t="n">
-        <v>0.176492</v>
+        <v>0.175631</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121063</v>
+        <v>0.121024</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173943</v>
+        <v>0.173807</v>
       </c>
       <c r="D118" t="n">
-        <v>0.175015</v>
+        <v>0.174406</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116189</v>
+        <v>0.11591</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172878</v>
+        <v>0.172693</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173829</v>
+        <v>0.173114</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111268</v>
+        <v>0.111068</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171803</v>
+        <v>0.171647</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172566</v>
+        <v>0.172005</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106316</v>
+        <v>0.106455</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170768</v>
+        <v>0.170772</v>
       </c>
       <c r="D121" t="n">
-        <v>0.171306</v>
+        <v>0.170804</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101464</v>
+        <v>0.101455</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169716</v>
+        <v>0.169684</v>
       </c>
       <c r="D122" t="n">
-        <v>0.170108</v>
+        <v>0.169474</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965456</v>
+        <v>0.09656770000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168506</v>
+        <v>0.168625</v>
       </c>
       <c r="D123" t="n">
-        <v>0.187242</v>
+        <v>0.187188</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169698</v>
+        <v>0.169387</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183989</v>
+        <v>0.18388</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185716</v>
+        <v>0.185551</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165189</v>
+        <v>0.165053</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182632</v>
+        <v>0.182488</v>
       </c>
       <c r="D125" t="n">
-        <v>0.184263</v>
+        <v>0.184062</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.159721</v>
+        <v>0.159995</v>
       </c>
       <c r="C126" t="n">
-        <v>0.18108</v>
+        <v>0.181188</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182815</v>
+        <v>0.182678</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154349</v>
+        <v>0.15516</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179834</v>
+        <v>0.179982</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181503</v>
+        <v>0.181249</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1492</v>
+        <v>0.149712</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178586</v>
+        <v>0.178745</v>
       </c>
       <c r="D128" t="n">
-        <v>0.180399</v>
+        <v>0.179871</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144271</v>
+        <v>0.14429</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177589</v>
+        <v>0.177616</v>
       </c>
       <c r="D129" t="n">
-        <v>0.179144</v>
+        <v>0.178639</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138926</v>
+        <v>0.138927</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176452</v>
+        <v>0.176491</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177732</v>
+        <v>0.177289</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133563</v>
+        <v>0.133699</v>
       </c>
       <c r="C131" t="n">
-        <v>0.17529</v>
+        <v>0.175306</v>
       </c>
       <c r="D131" t="n">
-        <v>0.176462</v>
+        <v>0.176017</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128576</v>
+        <v>0.128477</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174223</v>
+        <v>0.174263</v>
       </c>
       <c r="D132" t="n">
-        <v>0.175365</v>
+        <v>0.174838</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123259</v>
+        <v>0.123233</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173048</v>
+        <v>0.173148</v>
       </c>
       <c r="D133" t="n">
-        <v>0.174068</v>
+        <v>0.173572</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118255</v>
+        <v>0.118292</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172035</v>
+        <v>0.172074</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172763</v>
+        <v>0.172403</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113051</v>
+        <v>0.113058</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17095</v>
+        <v>0.170958</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171674</v>
+        <v>0.171041</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107894</v>
+        <v>0.107939</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169851</v>
+        <v>0.169904</v>
       </c>
       <c r="D136" t="n">
-        <v>0.170355</v>
+        <v>0.169813</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102817</v>
+        <v>0.102718</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168756</v>
+        <v>0.168814</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196881</v>
+        <v>0.196639</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170379</v>
+        <v>0.170271</v>
       </c>
       <c r="C138" t="n">
-        <v>0.19425</v>
+        <v>0.19422</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194804</v>
+        <v>0.194637</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165981</v>
+        <v>0.166271</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192233</v>
+        <v>0.192167</v>
       </c>
       <c r="D139" t="n">
-        <v>0.193391</v>
+        <v>0.1927</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161317</v>
+        <v>0.161282</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190304</v>
+        <v>0.190085</v>
       </c>
       <c r="D140" t="n">
-        <v>0.191182</v>
+        <v>0.190903</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156638</v>
+        <v>0.156129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188644</v>
+        <v>0.188475</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189556</v>
+        <v>0.189078</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151001</v>
+        <v>0.151177</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186923</v>
+        <v>0.18702</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187988</v>
+        <v>0.187537</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145502</v>
+        <v>0.145623</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185235</v>
+        <v>0.185315</v>
       </c>
       <c r="D143" t="n">
-        <v>0.186229</v>
+        <v>0.185827</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0646663</v>
+        <v>0.0649869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160036</v>
+        <v>0.159988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160326</v>
+        <v>0.159666</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0643971</v>
+        <v>0.0645237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159684</v>
+        <v>0.159478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.159424</v>
+        <v>0.160085</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0643918</v>
+        <v>0.0641999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160253</v>
+        <v>0.16089</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160261</v>
+        <v>0.160834</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.064402</v>
+        <v>0.06440170000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15986</v>
+        <v>0.160022</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16044</v>
+        <v>0.160198</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0641944</v>
+        <v>0.0645336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160069</v>
+        <v>0.160084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159752</v>
+        <v>0.159894</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06441669999999999</v>
+        <v>0.0643567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159937</v>
+        <v>0.160024</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159696</v>
+        <v>0.159507</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0643967</v>
+        <v>0.0645411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16018</v>
+        <v>0.159998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159399</v>
+        <v>0.159657</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0653041</v>
+        <v>0.0651028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158857</v>
+        <v>0.158925</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167724</v>
+        <v>0.167106</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0914652</v>
+        <v>0.0911291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.167289</v>
+        <v>0.166389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167341</v>
+        <v>0.167686</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0909179</v>
+        <v>0.0906493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.167198</v>
+        <v>0.166982</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167208</v>
+        <v>0.167483</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.090305</v>
+        <v>0.09121170000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.166459</v>
+        <v>0.166401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.16707</v>
+        <v>0.166911</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09046659999999999</v>
+        <v>0.0896049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165898</v>
+        <v>0.165813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166451</v>
+        <v>0.166067</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0900208</v>
+        <v>0.0893101</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165517</v>
+        <v>0.165903</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166391</v>
+        <v>0.16645</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.089058</v>
+        <v>0.0890493</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165378</v>
+        <v>0.165294</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165964</v>
+        <v>0.165912</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0868886</v>
+        <v>0.0880112</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165156</v>
+        <v>0.16507</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165674</v>
+        <v>0.165456</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08658250000000001</v>
+        <v>0.08711190000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164526</v>
+        <v>0.164684</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165034</v>
+        <v>0.165344</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0862947</v>
+        <v>0.0856586</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164411</v>
+        <v>0.164187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.164993</v>
+        <v>0.164858</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0858409</v>
+        <v>0.08670899999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.16548</v>
+        <v>0.164446</v>
       </c>
       <c r="D19" t="n">
-        <v>0.166138</v>
+        <v>0.164437</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08578189999999999</v>
+        <v>0.08650869999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167155</v>
+        <v>0.164664</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165965</v>
+        <v>0.163998</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0829901</v>
+        <v>0.0834917</v>
       </c>
       <c r="C21" t="n">
-        <v>0.163989</v>
+        <v>0.165953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163701</v>
+        <v>0.163909</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0810303</v>
+        <v>0.0802139</v>
       </c>
       <c r="C22" t="n">
-        <v>0.164568</v>
+        <v>0.163667</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163018</v>
+        <v>0.162921</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0785252</v>
+        <v>0.0784711</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16222</v>
+        <v>0.162774</v>
       </c>
       <c r="D23" t="n">
-        <v>0.17368</v>
+        <v>0.174115</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133308</v>
+        <v>0.132647</v>
       </c>
       <c r="C24" t="n">
-        <v>0.173819</v>
+        <v>0.171491</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177104</v>
+        <v>0.174507</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13181</v>
+        <v>0.131154</v>
       </c>
       <c r="C25" t="n">
-        <v>0.171592</v>
+        <v>0.172882</v>
       </c>
       <c r="D25" t="n">
-        <v>0.175442</v>
+        <v>0.172463</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.128096</v>
+        <v>0.128202</v>
       </c>
       <c r="C26" t="n">
-        <v>0.170035</v>
+        <v>0.172816</v>
       </c>
       <c r="D26" t="n">
-        <v>0.17948</v>
+        <v>0.171672</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124848</v>
+        <v>0.123988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.171841</v>
+        <v>0.170606</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17353</v>
+        <v>0.171062</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121856</v>
+        <v>0.121251</v>
       </c>
       <c r="C28" t="n">
-        <v>0.169092</v>
+        <v>0.17013</v>
       </c>
       <c r="D28" t="n">
-        <v>0.172836</v>
+        <v>0.170769</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.119072</v>
+        <v>0.118751</v>
       </c>
       <c r="C29" t="n">
-        <v>0.169472</v>
+        <v>0.169769</v>
       </c>
       <c r="D29" t="n">
-        <v>0.172552</v>
+        <v>0.169568</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116148</v>
+        <v>0.116015</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16813</v>
+        <v>0.168484</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169437</v>
+        <v>0.169729</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113548</v>
+        <v>0.113114</v>
       </c>
       <c r="C31" t="n">
-        <v>0.167777</v>
+        <v>0.171727</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168907</v>
+        <v>0.167959</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110342</v>
+        <v>0.109998</v>
       </c>
       <c r="C32" t="n">
-        <v>0.167055</v>
+        <v>0.169725</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169742</v>
+        <v>0.167665</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107048</v>
+        <v>0.106149</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169025</v>
+        <v>0.167569</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167388</v>
+        <v>0.169275</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103176</v>
+        <v>0.103131</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168601</v>
+        <v>0.168844</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166005</v>
+        <v>0.166401</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0992611</v>
+        <v>0.0994211</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168315</v>
+        <v>0.16574</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165544</v>
+        <v>0.165914</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09614789999999999</v>
+        <v>0.09522170000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.16578</v>
+        <v>0.167749</v>
       </c>
       <c r="D36" t="n">
-        <v>0.165455</v>
+        <v>0.16449</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0908779</v>
+        <v>0.0908732</v>
       </c>
       <c r="C37" t="n">
-        <v>0.16502</v>
+        <v>0.165061</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185586</v>
+        <v>0.183306</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152199</v>
+        <v>0.151918</v>
       </c>
       <c r="C38" t="n">
-        <v>0.178349</v>
+        <v>0.178556</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182158</v>
+        <v>0.180722</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149139</v>
+        <v>0.148537</v>
       </c>
       <c r="C39" t="n">
-        <v>0.178351</v>
+        <v>0.178104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178608</v>
+        <v>0.181563</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145586</v>
+        <v>0.145352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176806</v>
+        <v>0.176911</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177939</v>
+        <v>0.180187</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14169</v>
+        <v>0.140836</v>
       </c>
       <c r="C41" t="n">
-        <v>0.175633</v>
+        <v>0.17528</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177401</v>
+        <v>0.181085</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138096</v>
+        <v>0.137473</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175255</v>
+        <v>0.175447</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179402</v>
+        <v>0.177411</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134235</v>
+        <v>0.133492</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174163</v>
+        <v>0.173637</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178492</v>
+        <v>0.174774</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130087</v>
+        <v>0.129476</v>
       </c>
       <c r="C44" t="n">
-        <v>0.173441</v>
+        <v>0.173838</v>
       </c>
       <c r="D44" t="n">
-        <v>0.175977</v>
+        <v>0.174987</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.12578</v>
+        <v>0.125395</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172756</v>
+        <v>0.173078</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173063</v>
+        <v>0.172961</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12151</v>
+        <v>0.120662</v>
       </c>
       <c r="C46" t="n">
-        <v>0.171291</v>
+        <v>0.171109</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171762</v>
+        <v>0.17166</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116856</v>
+        <v>0.116436</v>
       </c>
       <c r="C47" t="n">
-        <v>0.170137</v>
+        <v>0.170476</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171298</v>
+        <v>0.170738</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112325</v>
+        <v>0.112065</v>
       </c>
       <c r="C48" t="n">
-        <v>0.169588</v>
+        <v>0.169835</v>
       </c>
       <c r="D48" t="n">
-        <v>0.169941</v>
+        <v>0.169697</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107545</v>
+        <v>0.10729</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168712</v>
+        <v>0.168924</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168986</v>
+        <v>0.169311</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102981</v>
+        <v>0.102732</v>
       </c>
       <c r="C50" t="n">
-        <v>0.167959</v>
+        <v>0.16846</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168144</v>
+        <v>0.167987</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0982929</v>
+        <v>0.0985796</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166942</v>
+        <v>0.167405</v>
       </c>
       <c r="D51" t="n">
-        <v>0.186122</v>
+        <v>0.186294</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.093192</v>
+        <v>0.0932385</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166524</v>
+        <v>0.166335</v>
       </c>
       <c r="D52" t="n">
-        <v>0.18403</v>
+        <v>0.18518</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156383</v>
+        <v>0.15644</v>
       </c>
       <c r="C53" t="n">
-        <v>0.181896</v>
+        <v>0.181631</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182939</v>
+        <v>0.183216</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152967</v>
+        <v>0.152428</v>
       </c>
       <c r="C54" t="n">
-        <v>0.18039</v>
+        <v>0.180289</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181359</v>
+        <v>0.181789</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149024</v>
+        <v>0.148457</v>
       </c>
       <c r="C55" t="n">
-        <v>0.178919</v>
+        <v>0.179354</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180692</v>
+        <v>0.180755</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144691</v>
+        <v>0.144018</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178266</v>
+        <v>0.178312</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179174</v>
+        <v>0.179394</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140155</v>
+        <v>0.139767</v>
       </c>
       <c r="C57" t="n">
-        <v>0.176993</v>
+        <v>0.176945</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177925</v>
+        <v>0.178596</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135216</v>
+        <v>0.134864</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175958</v>
+        <v>0.176107</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176686</v>
+        <v>0.177175</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130206</v>
+        <v>0.130238</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174858</v>
+        <v>0.174949</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175632</v>
+        <v>0.175766</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125539</v>
+        <v>0.12509</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173721</v>
+        <v>0.173685</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174452</v>
+        <v>0.174472</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120684</v>
+        <v>0.120542</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172822</v>
+        <v>0.172516</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173095</v>
+        <v>0.173214</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115739</v>
+        <v>0.115572</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171811</v>
+        <v>0.171723</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171864</v>
+        <v>0.171957</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110946</v>
+        <v>0.110805</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170765</v>
+        <v>0.17081</v>
       </c>
       <c r="D63" t="n">
-        <v>0.17108</v>
+        <v>0.171351</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106196</v>
+        <v>0.106054</v>
       </c>
       <c r="C64" t="n">
-        <v>0.16998</v>
+        <v>0.16997</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170011</v>
+        <v>0.169944</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101248</v>
+        <v>0.101366</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169126</v>
+        <v>0.168935</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168763</v>
+        <v>0.16883</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.096411</v>
+        <v>0.0964092</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167801</v>
+        <v>0.167984</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186258</v>
+        <v>0.186477</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159628</v>
+        <v>0.160211</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183108</v>
+        <v>0.18343</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185499</v>
+        <v>0.185375</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156042</v>
+        <v>0.156478</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18187</v>
+        <v>0.181999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18314</v>
+        <v>0.18358</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151682</v>
+        <v>0.152386</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180533</v>
+        <v>0.180743</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182057</v>
+        <v>0.182247</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147175</v>
+        <v>0.147629</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179336</v>
+        <v>0.179562</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180723</v>
+        <v>0.180828</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14226</v>
+        <v>0.143006</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17837</v>
+        <v>0.178318</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179611</v>
+        <v>0.179549</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137814</v>
+        <v>0.138361</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177305</v>
+        <v>0.177153</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178256</v>
+        <v>0.178248</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132997</v>
+        <v>0.133356</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176084</v>
+        <v>0.176129</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176949</v>
+        <v>0.17695</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127876</v>
+        <v>0.128277</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175102</v>
+        <v>0.174999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175614</v>
+        <v>0.175821</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123077</v>
+        <v>0.123322</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173995</v>
+        <v>0.174065</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174534</v>
+        <v>0.174605</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118168</v>
+        <v>0.118467</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172946</v>
+        <v>0.173002</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173303</v>
+        <v>0.17339</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.11323</v>
+        <v>0.113623</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171989</v>
+        <v>0.171992</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172191</v>
+        <v>0.172125</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108186</v>
+        <v>0.108626</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170888</v>
+        <v>0.170959</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170808</v>
+        <v>0.170914</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103374</v>
+        <v>0.103786</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169949</v>
+        <v>0.16983</v>
       </c>
       <c r="D79" t="n">
-        <v>0.16968</v>
+        <v>0.169613</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0985588</v>
+        <v>0.09886449999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168801</v>
+        <v>0.168884</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187188</v>
+        <v>0.187264</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161271</v>
+        <v>0.161395</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183956</v>
+        <v>0.183953</v>
       </c>
       <c r="D81" t="n">
-        <v>0.18581</v>
+        <v>0.185591</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157269</v>
+        <v>0.157433</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182483</v>
+        <v>0.18255</v>
       </c>
       <c r="D82" t="n">
-        <v>0.18435</v>
+        <v>0.184249</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153209</v>
+        <v>0.153301</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181312</v>
+        <v>0.181251</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182886</v>
+        <v>0.182765</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148588</v>
+        <v>0.148625</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180138</v>
+        <v>0.180022</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181526</v>
+        <v>0.181461</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144005</v>
+        <v>0.144066</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178772</v>
+        <v>0.178865</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180223</v>
+        <v>0.180183</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138946</v>
+        <v>0.13915</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177734</v>
+        <v>0.177713</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17888</v>
+        <v>0.17883</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133931</v>
+        <v>0.134069</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176581</v>
+        <v>0.176528</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177606</v>
+        <v>0.177527</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128895</v>
+        <v>0.128901</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175506</v>
+        <v>0.175525</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176339</v>
+        <v>0.176347</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123995</v>
+        <v>0.124005</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174472</v>
+        <v>0.174438</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175173</v>
+        <v>0.175169</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.118957</v>
+        <v>0.119136</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173443</v>
+        <v>0.173396</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173946</v>
+        <v>0.173856</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.11413</v>
+        <v>0.114114</v>
       </c>
       <c r="C91" t="n">
-        <v>0.17237</v>
+        <v>0.172315</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172665</v>
+        <v>0.172602</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10923</v>
+        <v>0.109189</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171374</v>
+        <v>0.171353</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171564</v>
+        <v>0.171488</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10447</v>
+        <v>0.1043</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170202</v>
+        <v>0.170218</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170349</v>
+        <v>0.170181</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.099456</v>
+        <v>0.0994023</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169178</v>
+        <v>0.16922</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187792</v>
+        <v>0.187828</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162275</v>
+        <v>0.16261</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184541</v>
+        <v>0.184575</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186298</v>
+        <v>0.186266</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158394</v>
+        <v>0.158652</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183234</v>
+        <v>0.183268</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184807</v>
+        <v>0.184787</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154435</v>
+        <v>0.154315</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181924</v>
+        <v>0.181901</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183331</v>
+        <v>0.183319</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149644</v>
+        <v>0.149711</v>
       </c>
       <c r="C98" t="n">
-        <v>0.18068</v>
+        <v>0.1807</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181818</v>
+        <v>0.181901</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144848</v>
+        <v>0.144986</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179583</v>
+        <v>0.179568</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180522</v>
+        <v>0.180571</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140067</v>
+        <v>0.140009</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178283</v>
+        <v>0.178349</v>
       </c>
       <c r="D100" t="n">
-        <v>0.17933</v>
+        <v>0.179349</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135026</v>
+        <v>0.135137</v>
       </c>
       <c r="C101" t="n">
         <v>0.177078</v>
       </c>
       <c r="D101" t="n">
-        <v>0.178028</v>
+        <v>0.178083</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.12996</v>
+        <v>0.130295</v>
       </c>
       <c r="C102" t="n">
-        <v>0.176006</v>
+        <v>0.175964</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176765</v>
+        <v>0.176818</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125036</v>
+        <v>0.125218</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174866</v>
+        <v>0.17484</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175491</v>
+        <v>0.175554</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120102</v>
+        <v>0.120061</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173768</v>
+        <v>0.173741</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174216</v>
+        <v>0.174269</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115089</v>
+        <v>0.115154</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172735</v>
+        <v>0.172645</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17307</v>
+        <v>0.173089</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110156</v>
+        <v>0.110322</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171602</v>
+        <v>0.171622</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171819</v>
+        <v>0.171831</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105181</v>
+        <v>0.105358</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170523</v>
+        <v>0.170444</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170559</v>
+        <v>0.170566</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.10025</v>
+        <v>0.100437</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169476</v>
+        <v>0.169442</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188368</v>
+        <v>0.188428</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09554319999999999</v>
+        <v>0.0954897</v>
       </c>
       <c r="C109" t="n">
-        <v>0.16834</v>
+        <v>0.168385</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186704</v>
+        <v>0.186687</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159381</v>
+        <v>0.159564</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183735</v>
+        <v>0.18368</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185189</v>
+        <v>0.185228</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155166</v>
+        <v>0.15519</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182278</v>
+        <v>0.18215</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183731</v>
+        <v>0.183558</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150621</v>
+        <v>0.150405</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180996</v>
+        <v>0.180816</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182354</v>
+        <v>0.182208</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145678</v>
+        <v>0.145663</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179715</v>
+        <v>0.179519</v>
       </c>
       <c r="D113" t="n">
-        <v>0.181016</v>
+        <v>0.180828</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1409</v>
+        <v>0.140739</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178506</v>
+        <v>0.17834</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179616</v>
+        <v>0.179447</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136022</v>
+        <v>0.135895</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177299</v>
+        <v>0.177129</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178363</v>
+        <v>0.178216</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131074</v>
+        <v>0.131226</v>
       </c>
       <c r="C116" t="n">
-        <v>0.17629</v>
+        <v>0.17628</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176963</v>
+        <v>0.177053</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126112</v>
+        <v>0.12625</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174949</v>
+        <v>0.175067</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175631</v>
+        <v>0.175755</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121024</v>
+        <v>0.121129</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173807</v>
+        <v>0.173979</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174406</v>
+        <v>0.174543</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11591</v>
+        <v>0.116125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172693</v>
+        <v>0.172929</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173114</v>
+        <v>0.173304</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111068</v>
+        <v>0.111284</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171647</v>
+        <v>0.171918</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172005</v>
+        <v>0.17208</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106455</v>
+        <v>0.106239</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170772</v>
+        <v>0.17077</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170804</v>
+        <v>0.170831</v>
       </c>
     </row>
     <row r="122">
@@ -4932,10 +4932,10 @@
         <v>0.101455</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169684</v>
+        <v>0.169682</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169474</v>
+        <v>0.169502</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09656770000000001</v>
+        <v>0.09655909999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168625</v>
+        <v>0.168628</v>
       </c>
       <c r="D123" t="n">
-        <v>0.187188</v>
+        <v>0.187147</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169387</v>
+        <v>0.169681</v>
       </c>
       <c r="C124" t="n">
-        <v>0.18388</v>
+        <v>0.183957</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185551</v>
+        <v>0.185543</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165053</v>
+        <v>0.165</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182488</v>
+        <v>0.182506</v>
       </c>
       <c r="D125" t="n">
-        <v>0.184062</v>
+        <v>0.18411</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.159995</v>
+        <v>0.160253</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181188</v>
+        <v>0.181316</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182678</v>
+        <v>0.182583</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15516</v>
+        <v>0.154972</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179982</v>
+        <v>0.17998</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181249</v>
+        <v>0.181274</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149712</v>
+        <v>0.149966</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178745</v>
+        <v>0.178758</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179871</v>
+        <v>0.179917</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14429</v>
+        <v>0.144457</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177616</v>
+        <v>0.177581</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178639</v>
+        <v>0.178614</v>
       </c>
     </row>
     <row r="130">
@@ -5041,10 +5041,10 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138927</v>
+        <v>0.139</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176491</v>
+        <v>0.176481</v>
       </c>
       <c r="D130" t="n">
         <v>0.177289</v>
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133699</v>
+        <v>0.133728</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175306</v>
+        <v>0.175408</v>
       </c>
       <c r="D131" t="n">
-        <v>0.176017</v>
+        <v>0.176028</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128477</v>
+        <v>0.128672</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174263</v>
+        <v>0.174304</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174838</v>
+        <v>0.174823</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123233</v>
+        <v>0.123544</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173148</v>
+        <v>0.173128</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173572</v>
+        <v>0.173578</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118292</v>
+        <v>0.118248</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172074</v>
+        <v>0.172034</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172403</v>
+        <v>0.17228</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113058</v>
+        <v>0.113096</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170958</v>
+        <v>0.170995</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171041</v>
+        <v>0.171142</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107939</v>
+        <v>0.107911</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169904</v>
+        <v>0.169946</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169813</v>
+        <v>0.169831</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102718</v>
+        <v>0.102743</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168814</v>
+        <v>0.168797</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196639</v>
+        <v>0.196839</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170271</v>
+        <v>0.170472</v>
       </c>
       <c r="C138" t="n">
         <v>0.19422</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194637</v>
+        <v>0.194674</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166271</v>
+        <v>0.165984</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192167</v>
+        <v>0.192346</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1927</v>
+        <v>0.19278</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161282</v>
+        <v>0.161122</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190085</v>
+        <v>0.190335</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190903</v>
+        <v>0.190914</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156129</v>
+        <v>0.156293</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188475</v>
+        <v>0.188654</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189078</v>
+        <v>0.189344</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151177</v>
+        <v>0.15118</v>
       </c>
       <c r="C142" t="n">
-        <v>0.18702</v>
+        <v>0.187092</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187537</v>
+        <v>0.187644</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145623</v>
+        <v>0.14562</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185315</v>
+        <v>0.185528</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185827</v>
+        <v>0.185796</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0649869</v>
+        <v>0.07070410000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159988</v>
+        <v>0.160535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159666</v>
+        <v>0.160594</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0645237</v>
+        <v>0.0711908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159478</v>
+        <v>0.16097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160085</v>
+        <v>0.16003</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0641999</v>
+        <v>0.0709337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16089</v>
+        <v>0.162965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160834</v>
+        <v>0.160555</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06440170000000001</v>
+        <v>0.0708545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160022</v>
+        <v>0.162588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160198</v>
+        <v>0.160274</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0645336</v>
+        <v>0.069128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160084</v>
+        <v>0.162721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159894</v>
+        <v>0.160202</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0643567</v>
+        <v>0.068814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160024</v>
+        <v>0.162106</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159507</v>
+        <v>0.159822</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0645411</v>
+        <v>0.0687059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159998</v>
+        <v>0.163169</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159657</v>
+        <v>0.15991</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0651028</v>
+        <v>0.0689435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158925</v>
+        <v>0.161937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167106</v>
+        <v>0.167826</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0911291</v>
+        <v>0.120042</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166389</v>
+        <v>0.173941</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167686</v>
+        <v>0.166975</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0906493</v>
+        <v>0.120674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.166982</v>
+        <v>0.173176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167483</v>
+        <v>0.168715</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09121170000000001</v>
+        <v>0.117361</v>
       </c>
       <c r="C12" t="n">
-        <v>0.166401</v>
+        <v>0.173331</v>
       </c>
       <c r="D12" t="n">
-        <v>0.166911</v>
+        <v>0.166931</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0896049</v>
+        <v>0.114677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165813</v>
+        <v>0.172323</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166067</v>
+        <v>0.166259</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0893101</v>
+        <v>0.114419</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165903</v>
+        <v>0.172239</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16645</v>
+        <v>0.166356</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0890493</v>
+        <v>0.111986</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165294</v>
+        <v>0.171787</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165912</v>
+        <v>0.16636</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0880112</v>
+        <v>0.108719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.16507</v>
+        <v>0.171123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165456</v>
+        <v>0.165895</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08711190000000001</v>
+        <v>0.10684</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164684</v>
+        <v>0.171165</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165344</v>
+        <v>0.165539</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0856586</v>
+        <v>0.104049</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164187</v>
+        <v>0.17011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.164858</v>
+        <v>0.165167</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08670899999999999</v>
+        <v>0.100336</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164446</v>
+        <v>0.169589</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164437</v>
+        <v>0.164204</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08650869999999999</v>
+        <v>0.0981373</v>
       </c>
       <c r="C20" t="n">
-        <v>0.164664</v>
+        <v>0.170557</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163998</v>
+        <v>0.166445</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0834917</v>
+        <v>0.0939792</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165953</v>
+        <v>0.169695</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163909</v>
+        <v>0.163873</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0802139</v>
+        <v>0.08960890000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.163667</v>
+        <v>0.168763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.162921</v>
+        <v>0.163225</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0784711</v>
+        <v>0.0865404</v>
       </c>
       <c r="C23" t="n">
-        <v>0.162774</v>
+        <v>0.167195</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174115</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132647</v>
+        <v>0.149389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.171491</v>
+        <v>0.1821</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174507</v>
+        <v>0.175683</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131154</v>
+        <v>0.145787</v>
       </c>
       <c r="C25" t="n">
-        <v>0.172882</v>
+        <v>0.180674</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172463</v>
+        <v>0.172165</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.128202</v>
+        <v>0.142511</v>
       </c>
       <c r="C26" t="n">
-        <v>0.172816</v>
+        <v>0.178575</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171672</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.123988</v>
+        <v>0.138245</v>
       </c>
       <c r="C27" t="n">
-        <v>0.170606</v>
+        <v>0.178069</v>
       </c>
       <c r="D27" t="n">
-        <v>0.171062</v>
+        <v>0.17325</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121251</v>
+        <v>0.134931</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17013</v>
+        <v>0.177195</v>
       </c>
       <c r="D28" t="n">
-        <v>0.170769</v>
+        <v>0.171392</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118751</v>
+        <v>0.130822</v>
       </c>
       <c r="C29" t="n">
-        <v>0.169769</v>
+        <v>0.176118</v>
       </c>
       <c r="D29" t="n">
-        <v>0.169568</v>
+        <v>0.174004</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116015</v>
+        <v>0.126912</v>
       </c>
       <c r="C30" t="n">
-        <v>0.168484</v>
+        <v>0.175176</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169729</v>
+        <v>0.168215</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113114</v>
+        <v>0.122844</v>
       </c>
       <c r="C31" t="n">
-        <v>0.171727</v>
+        <v>0.173901</v>
       </c>
       <c r="D31" t="n">
-        <v>0.167959</v>
+        <v>0.169567</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.109998</v>
+        <v>0.119424</v>
       </c>
       <c r="C32" t="n">
-        <v>0.169725</v>
+        <v>0.173532</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167665</v>
+        <v>0.167591</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106149</v>
+        <v>0.115033</v>
       </c>
       <c r="C33" t="n">
-        <v>0.167569</v>
+        <v>0.17214</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169275</v>
+        <v>0.167775</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103131</v>
+        <v>0.109998</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168844</v>
+        <v>0.171634</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166401</v>
+        <v>0.166003</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0994211</v>
+        <v>0.105596</v>
       </c>
       <c r="C35" t="n">
-        <v>0.16574</v>
+        <v>0.170554</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165914</v>
+        <v>0.165598</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09522170000000001</v>
+        <v>0.100234</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167749</v>
+        <v>0.169597</v>
       </c>
       <c r="D36" t="n">
-        <v>0.16449</v>
+        <v>0.168476</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0908732</v>
+        <v>0.09484910000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165061</v>
+        <v>0.168555</v>
       </c>
       <c r="D37" t="n">
-        <v>0.183306</v>
+        <v>0.182045</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.151918</v>
+        <v>0.157649</v>
       </c>
       <c r="C38" t="n">
-        <v>0.178556</v>
+        <v>0.183524</v>
       </c>
       <c r="D38" t="n">
-        <v>0.180722</v>
+        <v>0.18448</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148537</v>
+        <v>0.154369</v>
       </c>
       <c r="C39" t="n">
-        <v>0.178104</v>
+        <v>0.182713</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181563</v>
+        <v>0.179572</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145352</v>
+        <v>0.150834</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176911</v>
+        <v>0.181226</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180187</v>
+        <v>0.177564</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.140836</v>
+        <v>0.146785</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17528</v>
+        <v>0.180029</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181085</v>
+        <v>0.176262</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.137473</v>
+        <v>0.142138</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175447</v>
+        <v>0.178849</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177411</v>
+        <v>0.175506</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133492</v>
+        <v>0.138101</v>
       </c>
       <c r="C43" t="n">
-        <v>0.173637</v>
+        <v>0.177711</v>
       </c>
       <c r="D43" t="n">
-        <v>0.174774</v>
+        <v>0.175366</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129476</v>
+        <v>0.13371</v>
       </c>
       <c r="C44" t="n">
-        <v>0.173838</v>
+        <v>0.17651</v>
       </c>
       <c r="D44" t="n">
-        <v>0.174987</v>
+        <v>0.173139</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125395</v>
+        <v>0.128635</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173078</v>
+        <v>0.17551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.172961</v>
+        <v>0.173865</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120662</v>
+        <v>0.123569</v>
       </c>
       <c r="C46" t="n">
-        <v>0.171109</v>
+        <v>0.174486</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17166</v>
+        <v>0.171428</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116436</v>
+        <v>0.118947</v>
       </c>
       <c r="C47" t="n">
-        <v>0.170476</v>
+        <v>0.173389</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170738</v>
+        <v>0.170952</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112065</v>
+        <v>0.114064</v>
       </c>
       <c r="C48" t="n">
-        <v>0.169835</v>
+        <v>0.172501</v>
       </c>
       <c r="D48" t="n">
-        <v>0.169697</v>
+        <v>0.17078</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10729</v>
+        <v>0.109264</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168924</v>
+        <v>0.171337</v>
       </c>
       <c r="D49" t="n">
-        <v>0.169311</v>
+        <v>0.168445</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102732</v>
+        <v>0.104603</v>
       </c>
       <c r="C50" t="n">
-        <v>0.16846</v>
+        <v>0.170285</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167987</v>
+        <v>0.167677</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0985796</v>
+        <v>0.0994086</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167405</v>
+        <v>0.169241</v>
       </c>
       <c r="D51" t="n">
-        <v>0.186294</v>
+        <v>0.18572</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0932385</v>
+        <v>0.09419</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166335</v>
+        <v>0.168036</v>
       </c>
       <c r="D52" t="n">
-        <v>0.18518</v>
+        <v>0.184909</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15644</v>
+        <v>0.158529</v>
       </c>
       <c r="C53" t="n">
-        <v>0.181631</v>
+        <v>0.183265</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183216</v>
+        <v>0.183676</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152428</v>
+        <v>0.154444</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180289</v>
+        <v>0.181765</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181789</v>
+        <v>0.182301</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148457</v>
+        <v>0.150678</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179354</v>
+        <v>0.180744</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180755</v>
+        <v>0.180251</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144018</v>
+        <v>0.146118</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178312</v>
+        <v>0.179577</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179394</v>
+        <v>0.178986</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139767</v>
+        <v>0.141525</v>
       </c>
       <c r="C57" t="n">
-        <v>0.176945</v>
+        <v>0.178383</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178596</v>
+        <v>0.178155</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134864</v>
+        <v>0.136443</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176107</v>
+        <v>0.177182</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177175</v>
+        <v>0.176698</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130238</v>
+        <v>0.131305</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174949</v>
+        <v>0.17609</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175766</v>
+        <v>0.17584</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12509</v>
+        <v>0.126021</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173685</v>
+        <v>0.175018</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174472</v>
+        <v>0.174322</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120542</v>
+        <v>0.121144</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172516</v>
+        <v>0.173952</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173214</v>
+        <v>0.173248</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115572</v>
+        <v>0.11647</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171723</v>
+        <v>0.172905</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171957</v>
+        <v>0.172098</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110805</v>
+        <v>0.111482</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17081</v>
+        <v>0.171789</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171351</v>
+        <v>0.171006</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106054</v>
+        <v>0.106535</v>
       </c>
       <c r="C64" t="n">
-        <v>0.16997</v>
+        <v>0.170699</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169944</v>
+        <v>0.169828</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101366</v>
+        <v>0.10181</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168935</v>
+        <v>0.169613</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16883</v>
+        <v>0.168517</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0964092</v>
+        <v>0.09695819999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167984</v>
+        <v>0.168583</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186477</v>
+        <v>0.18595</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160211</v>
+        <v>0.160754</v>
       </c>
       <c r="C67" t="n">
-        <v>0.18343</v>
+        <v>0.184139</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185375</v>
+        <v>0.184785</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156478</v>
+        <v>0.156688</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181999</v>
+        <v>0.182674</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18358</v>
+        <v>0.183109</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152386</v>
+        <v>0.152838</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180743</v>
+        <v>0.181466</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182247</v>
+        <v>0.182345</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147629</v>
+        <v>0.147986</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179562</v>
+        <v>0.18021</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180828</v>
+        <v>0.180451</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143006</v>
+        <v>0.143421</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178318</v>
+        <v>0.178926</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179549</v>
+        <v>0.179439</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138361</v>
+        <v>0.138286</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177153</v>
+        <v>0.177799</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178248</v>
+        <v>0.17801</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133356</v>
+        <v>0.133532</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176129</v>
+        <v>0.176674</v>
       </c>
       <c r="D73" t="n">
-        <v>0.17695</v>
+        <v>0.176718</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128277</v>
+        <v>0.128651</v>
       </c>
       <c r="C74" t="n">
-        <v>0.174999</v>
+        <v>0.175503</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175821</v>
+        <v>0.175507</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123322</v>
+        <v>0.123601</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174065</v>
+        <v>0.174382</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174605</v>
+        <v>0.174453</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118467</v>
+        <v>0.118597</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173002</v>
+        <v>0.173248</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17339</v>
+        <v>0.172915</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113623</v>
+        <v>0.11347</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171992</v>
+        <v>0.172125</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172125</v>
+        <v>0.17177</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108626</v>
+        <v>0.108475</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170959</v>
+        <v>0.171046</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170914</v>
+        <v>0.170494</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103786</v>
+        <v>0.103631</v>
       </c>
       <c r="C79" t="n">
-        <v>0.16983</v>
+        <v>0.169991</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169613</v>
+        <v>0.169206</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09886449999999999</v>
+        <v>0.0987056</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168884</v>
+        <v>0.168946</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187264</v>
+        <v>0.186679</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161395</v>
+        <v>0.161558</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183953</v>
+        <v>0.184293</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185591</v>
+        <v>0.185188</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157433</v>
+        <v>0.157704</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18255</v>
+        <v>0.183033</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184249</v>
+        <v>0.18392</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153301</v>
+        <v>0.153329</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181251</v>
+        <v>0.181656</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182765</v>
+        <v>0.182455</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148625</v>
+        <v>0.148925</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180022</v>
+        <v>0.180331</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181461</v>
+        <v>0.181137</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144066</v>
+        <v>0.144269</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178865</v>
+        <v>0.179178</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180183</v>
+        <v>0.179903</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13915</v>
+        <v>0.13892</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177713</v>
+        <v>0.177922</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17883</v>
+        <v>0.178519</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134069</v>
+        <v>0.134087</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176528</v>
+        <v>0.176798</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177527</v>
+        <v>0.177236</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128901</v>
+        <v>0.129035</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175525</v>
+        <v>0.175637</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176347</v>
+        <v>0.176089</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124005</v>
+        <v>0.124084</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174438</v>
+        <v>0.174565</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175169</v>
+        <v>0.1748</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119136</v>
+        <v>0.119053</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173396</v>
+        <v>0.173553</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173856</v>
+        <v>0.173658</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114114</v>
+        <v>0.114168</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172315</v>
+        <v>0.172345</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172602</v>
+        <v>0.172387</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109189</v>
+        <v>0.109258</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171353</v>
+        <v>0.171337</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171488</v>
+        <v>0.171203</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1043</v>
+        <v>0.104447</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170218</v>
+        <v>0.170236</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170181</v>
+        <v>0.170027</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994023</v>
+        <v>0.099469</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16922</v>
+        <v>0.169181</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187828</v>
+        <v>0.187434</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.16261</v>
+        <v>0.162528</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184575</v>
+        <v>0.184773</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186266</v>
+        <v>0.185843</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158652</v>
+        <v>0.158976</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183268</v>
+        <v>0.183332</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184787</v>
+        <v>0.184436</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154315</v>
+        <v>0.154464</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181901</v>
+        <v>0.181959</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183319</v>
+        <v>0.182939</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149711</v>
+        <v>0.150176</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1807</v>
+        <v>0.180679</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181901</v>
+        <v>0.181559</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144986</v>
+        <v>0.145124</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179568</v>
+        <v>0.179506</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180571</v>
+        <v>0.180276</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140009</v>
+        <v>0.140471</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178349</v>
+        <v>0.178295</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179349</v>
+        <v>0.179031</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135137</v>
+        <v>0.135051</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177078</v>
+        <v>0.176978</v>
       </c>
       <c r="D101" t="n">
-        <v>0.178083</v>
+        <v>0.177839</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130295</v>
+        <v>0.130039</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175964</v>
+        <v>0.175898</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176818</v>
+        <v>0.176461</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125218</v>
+        <v>0.125053</v>
       </c>
       <c r="C103" t="n">
-        <v>0.17484</v>
+        <v>0.174933</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175554</v>
+        <v>0.175246</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120061</v>
+        <v>0.120201</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173741</v>
+        <v>0.173667</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174269</v>
+        <v>0.173971</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115154</v>
+        <v>0.115151</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172645</v>
+        <v>0.172657</v>
       </c>
       <c r="D105" t="n">
-        <v>0.173089</v>
+        <v>0.172784</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110322</v>
+        <v>0.110199</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171622</v>
+        <v>0.171446</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171831</v>
+        <v>0.171474</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105358</v>
+        <v>0.10531</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170444</v>
+        <v>0.170438</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170566</v>
+        <v>0.170259</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100437</v>
+        <v>0.100357</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169442</v>
+        <v>0.169404</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188428</v>
+        <v>0.187987</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0954897</v>
+        <v>0.0955164</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168385</v>
+        <v>0.168261</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186687</v>
+        <v>0.186335</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159564</v>
+        <v>0.159796</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18368</v>
+        <v>0.183626</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185228</v>
+        <v>0.184858</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15519</v>
+        <v>0.15562</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18215</v>
+        <v>0.182353</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183558</v>
+        <v>0.183393</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150405</v>
+        <v>0.150947</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180816</v>
+        <v>0.180963</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182208</v>
+        <v>0.182064</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145663</v>
+        <v>0.146147</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179519</v>
+        <v>0.179673</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180828</v>
+        <v>0.180673</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140739</v>
+        <v>0.14105</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17834</v>
+        <v>0.178491</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179447</v>
+        <v>0.179294</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135895</v>
+        <v>0.136018</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177129</v>
+        <v>0.17733</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178216</v>
+        <v>0.177991</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131226</v>
+        <v>0.130993</v>
       </c>
       <c r="C116" t="n">
-        <v>0.17628</v>
+        <v>0.176181</v>
       </c>
       <c r="D116" t="n">
-        <v>0.177053</v>
+        <v>0.176701</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12625</v>
+        <v>0.126074</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175067</v>
+        <v>0.174979</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175755</v>
+        <v>0.175416</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121129</v>
+        <v>0.121033</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173979</v>
+        <v>0.173949</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174543</v>
+        <v>0.174267</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116125</v>
+        <v>0.116092</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172929</v>
+        <v>0.172865</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173304</v>
+        <v>0.17302</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111284</v>
+        <v>0.111099</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171918</v>
+        <v>0.171887</v>
       </c>
       <c r="D120" t="n">
-        <v>0.17208</v>
+        <v>0.171789</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106239</v>
+        <v>0.106298</v>
       </c>
       <c r="C121" t="n">
-        <v>0.17077</v>
+        <v>0.170782</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170831</v>
+        <v>0.170495</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101455</v>
+        <v>0.101421</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169682</v>
+        <v>0.169609</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169502</v>
+        <v>0.169105</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09655909999999999</v>
+        <v>0.09655030000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168628</v>
+        <v>0.16859</v>
       </c>
       <c r="D123" t="n">
-        <v>0.187147</v>
+        <v>0.186871</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169681</v>
+        <v>0.169752</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183957</v>
+        <v>0.18401</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185543</v>
+        <v>0.185506</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165</v>
+        <v>0.165325</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182506</v>
+        <v>0.182524</v>
       </c>
       <c r="D125" t="n">
-        <v>0.18411</v>
+        <v>0.183699</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160253</v>
+        <v>0.159022</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181316</v>
+        <v>0.181159</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182583</v>
+        <v>0.182097</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154972</v>
+        <v>0.155543</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17998</v>
+        <v>0.179832</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181274</v>
+        <v>0.180784</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149966</v>
+        <v>0.14902</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178758</v>
+        <v>0.178699</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179917</v>
+        <v>0.179551</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144457</v>
+        <v>0.144416</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177581</v>
+        <v>0.177566</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178614</v>
+        <v>0.178213</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139</v>
+        <v>0.139014</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176481</v>
+        <v>0.17638</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177289</v>
+        <v>0.176957</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133728</v>
+        <v>0.133916</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175408</v>
+        <v>0.175311</v>
       </c>
       <c r="D131" t="n">
-        <v>0.176028</v>
+        <v>0.17569</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128672</v>
+        <v>0.128448</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174304</v>
+        <v>0.174135</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174823</v>
+        <v>0.174517</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123544</v>
+        <v>0.123523</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173128</v>
+        <v>0.173072</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173578</v>
+        <v>0.173187</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118248</v>
+        <v>0.118278</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172034</v>
+        <v>0.172004</v>
       </c>
       <c r="D134" t="n">
-        <v>0.17228</v>
+        <v>0.172003</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113096</v>
+        <v>0.113137</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170995</v>
+        <v>0.170966</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171142</v>
+        <v>0.17076</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107911</v>
+        <v>0.10804</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169946</v>
+        <v>0.169839</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169831</v>
+        <v>0.169518</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102743</v>
+        <v>0.102979</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168797</v>
+        <v>0.168795</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196839</v>
+        <v>0.196159</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170472</v>
+        <v>0.170973</v>
       </c>
       <c r="C138" t="n">
-        <v>0.19422</v>
+        <v>0.194365</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194674</v>
+        <v>0.194324</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165984</v>
+        <v>0.166357</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192346</v>
+        <v>0.192298</v>
       </c>
       <c r="D139" t="n">
-        <v>0.19278</v>
+        <v>0.192314</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161122</v>
+        <v>0.16127</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190335</v>
+        <v>0.190369</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190914</v>
+        <v>0.190541</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156293</v>
+        <v>0.156222</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188654</v>
+        <v>0.188567</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189344</v>
+        <v>0.188851</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15118</v>
+        <v>0.15095</v>
       </c>
       <c r="C142" t="n">
-        <v>0.187092</v>
+        <v>0.186878</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187644</v>
+        <v>0.187258</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14562</v>
+        <v>0.145429</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185528</v>
+        <v>0.185396</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185796</v>
+        <v>0.185497</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07070410000000001</v>
+        <v>0.0641531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160535</v>
+        <v>0.0575077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160594</v>
+        <v>0.157822</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0711908</v>
+        <v>0.0641417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16097</v>
+        <v>0.0598211</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16003</v>
+        <v>0.158856</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0709337</v>
+        <v>0.0639055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.162965</v>
+        <v>0.0649882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160555</v>
+        <v>0.159729</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0708545</v>
+        <v>0.0642133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162588</v>
+        <v>0.07328460000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160274</v>
+        <v>0.15887</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.069128</v>
+        <v>0.06474820000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162721</v>
+        <v>0.09369329999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160202</v>
+        <v>0.160271</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.068814</v>
+        <v>0.06536599999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162106</v>
+        <v>0.111546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159822</v>
+        <v>0.159772</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0687059</v>
+        <v>0.0651717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163169</v>
+        <v>0.06318840000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15991</v>
+        <v>0.159948</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0689435</v>
+        <v>0.06583840000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161937</v>
+        <v>0.06369279999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167826</v>
+        <v>0.164801</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.120042</v>
+        <v>0.0890715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173941</v>
+        <v>0.064666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166975</v>
+        <v>0.165641</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.120674</v>
+        <v>0.0891439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173176</v>
+        <v>0.0662118</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168715</v>
+        <v>0.165795</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117361</v>
+        <v>0.088877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.173331</v>
+        <v>0.0703285</v>
       </c>
       <c r="D12" t="n">
-        <v>0.166931</v>
+        <v>0.166284</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114677</v>
+        <v>0.0889416</v>
       </c>
       <c r="C13" t="n">
-        <v>0.172323</v>
+        <v>0.0767543</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166259</v>
+        <v>0.166196</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.114419</v>
+        <v>0.0880235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.172239</v>
+        <v>0.0847386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166356</v>
+        <v>0.166822</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.111986</v>
+        <v>0.0873052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.171787</v>
+        <v>0.0924473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16636</v>
+        <v>0.16633</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.108719</v>
+        <v>0.08651929999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.171123</v>
+        <v>0.103137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165895</v>
+        <v>0.166022</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10684</v>
+        <v>0.08555</v>
       </c>
       <c r="C17" t="n">
-        <v>0.171165</v>
+        <v>0.117766</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165539</v>
+        <v>0.165367</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.104049</v>
+        <v>0.08422979999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.17011</v>
+        <v>0.138113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165167</v>
+        <v>0.165413</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.100336</v>
+        <v>0.08232540000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169589</v>
+        <v>0.157701</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164204</v>
+        <v>0.165358</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0981373</v>
+        <v>0.0812894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.170557</v>
+        <v>0.183703</v>
       </c>
       <c r="D20" t="n">
-        <v>0.166445</v>
+        <v>0.165959</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0939792</v>
+        <v>0.0828969</v>
       </c>
       <c r="C21" t="n">
-        <v>0.169695</v>
+        <v>0.219332</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163873</v>
+        <v>0.165915</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08960890000000001</v>
+        <v>0.08242620000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.168763</v>
+        <v>0.0967408</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163225</v>
+        <v>0.167046</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0865404</v>
+        <v>0.0803682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.167195</v>
+        <v>0.101705</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1739</v>
+        <v>0.182004</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.149389</v>
+        <v>0.130945</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1821</v>
+        <v>0.110323</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175683</v>
+        <v>0.179886</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145787</v>
+        <v>0.13039</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180674</v>
+        <v>0.118336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172165</v>
+        <v>0.176643</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142511</v>
+        <v>0.128396</v>
       </c>
       <c r="C26" t="n">
-        <v>0.178575</v>
+        <v>0.125077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172569</v>
+        <v>0.176678</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138245</v>
+        <v>0.126</v>
       </c>
       <c r="C27" t="n">
-        <v>0.178069</v>
+        <v>0.131743</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17325</v>
+        <v>0.175759</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134931</v>
+        <v>0.122747</v>
       </c>
       <c r="C28" t="n">
-        <v>0.177195</v>
+        <v>0.136642</v>
       </c>
       <c r="D28" t="n">
-        <v>0.171392</v>
+        <v>0.175754</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.130822</v>
+        <v>0.120164</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176118</v>
+        <v>0.159372</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174004</v>
+        <v>0.176854</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126912</v>
+        <v>0.117158</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175176</v>
+        <v>0.164708</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168215</v>
+        <v>0.175894</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122844</v>
+        <v>0.114482</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173901</v>
+        <v>0.180538</v>
       </c>
       <c r="D31" t="n">
-        <v>0.169567</v>
+        <v>0.172402</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.119424</v>
+        <v>0.110654</v>
       </c>
       <c r="C32" t="n">
-        <v>0.173532</v>
+        <v>0.189276</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167591</v>
+        <v>0.17302</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.115033</v>
+        <v>0.106787</v>
       </c>
       <c r="C33" t="n">
-        <v>0.17214</v>
+        <v>0.205969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167775</v>
+        <v>0.17105</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109998</v>
+        <v>0.10302</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171634</v>
+        <v>0.226981</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166003</v>
+        <v>0.170195</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105596</v>
+        <v>0.09905659999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.170554</v>
+        <v>0.25275</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165598</v>
+        <v>0.169719</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100234</v>
+        <v>0.0947708</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169597</v>
+        <v>0.280765</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168476</v>
+        <v>0.168159</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09484910000000001</v>
+        <v>0.0912707</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168555</v>
+        <v>0.125211</v>
       </c>
       <c r="D37" t="n">
-        <v>0.182045</v>
+        <v>0.184916</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157649</v>
+        <v>0.15299</v>
       </c>
       <c r="C38" t="n">
-        <v>0.183524</v>
+        <v>0.128879</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18448</v>
+        <v>0.183052</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154369</v>
+        <v>0.149699</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182713</v>
+        <v>0.139033</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179572</v>
+        <v>0.182508</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150834</v>
+        <v>0.145819</v>
       </c>
       <c r="C40" t="n">
-        <v>0.181226</v>
+        <v>0.143689</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177564</v>
+        <v>0.181083</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146785</v>
+        <v>0.142408</v>
       </c>
       <c r="C41" t="n">
-        <v>0.180029</v>
+        <v>0.153829</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176262</v>
+        <v>0.17982</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142138</v>
+        <v>0.138561</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178849</v>
+        <v>0.162005</v>
       </c>
       <c r="D42" t="n">
-        <v>0.175506</v>
+        <v>0.178386</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.138101</v>
+        <v>0.134735</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177711</v>
+        <v>0.17317</v>
       </c>
       <c r="D43" t="n">
-        <v>0.175366</v>
+        <v>0.178092</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.13371</v>
+        <v>0.13049</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17651</v>
+        <v>0.180018</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173139</v>
+        <v>0.176222</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128635</v>
+        <v>0.126237</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17551</v>
+        <v>0.189111</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173865</v>
+        <v>0.175981</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123569</v>
+        <v>0.121969</v>
       </c>
       <c r="C46" t="n">
-        <v>0.174486</v>
+        <v>0.20117</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171428</v>
+        <v>0.174595</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118947</v>
+        <v>0.117384</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173389</v>
+        <v>0.218393</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170952</v>
+        <v>0.173326</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114064</v>
+        <v>0.112872</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172501</v>
+        <v>0.234699</v>
       </c>
       <c r="D48" t="n">
-        <v>0.17078</v>
+        <v>0.171569</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109264</v>
+        <v>0.107687</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171337</v>
+        <v>0.256116</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168445</v>
+        <v>0.171515</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104603</v>
+        <v>0.102518</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170285</v>
+        <v>0.28101</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167677</v>
+        <v>0.169954</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0994086</v>
+        <v>0.097793</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169241</v>
+        <v>0.134014</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18572</v>
+        <v>0.186997</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09419</v>
+        <v>0.0929044</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168036</v>
+        <v>0.138441</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184909</v>
+        <v>0.185308</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158529</v>
+        <v>0.156627</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183265</v>
+        <v>0.144747</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183676</v>
+        <v>0.183876</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154444</v>
+        <v>0.152789</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181765</v>
+        <v>0.151243</v>
       </c>
       <c r="D54" t="n">
-        <v>0.182301</v>
+        <v>0.182684</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150678</v>
+        <v>0.148886</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180744</v>
+        <v>0.158688</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180251</v>
+        <v>0.181455</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146118</v>
+        <v>0.14427</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179577</v>
+        <v>0.168342</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178986</v>
+        <v>0.180231</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141525</v>
+        <v>0.139987</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178383</v>
+        <v>0.174264</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178155</v>
+        <v>0.179365</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136443</v>
+        <v>0.135316</v>
       </c>
       <c r="C58" t="n">
-        <v>0.177182</v>
+        <v>0.18304</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176698</v>
+        <v>0.177796</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131305</v>
+        <v>0.130625</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17609</v>
+        <v>0.195721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.17584</v>
+        <v>0.176715</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126021</v>
+        <v>0.125715</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175018</v>
+        <v>0.209809</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174322</v>
+        <v>0.175502</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121144</v>
+        <v>0.120655</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173952</v>
+        <v>0.221223</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173248</v>
+        <v>0.174353</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11647</v>
+        <v>0.115997</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172905</v>
+        <v>0.238103</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172098</v>
+        <v>0.173807</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111482</v>
+        <v>0.11107</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171789</v>
+        <v>0.256781</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171006</v>
+        <v>0.17214</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106535</v>
+        <v>0.105984</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170699</v>
+        <v>0.278367</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169828</v>
+        <v>0.170786</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.10181</v>
+        <v>0.101445</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169613</v>
+        <v>0.142277</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168517</v>
+        <v>0.169619</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09695819999999999</v>
+        <v>0.0964059</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168583</v>
+        <v>0.147209</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18595</v>
+        <v>0.186654</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160754</v>
+        <v>0.160513</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184139</v>
+        <v>0.153107</v>
       </c>
       <c r="D67" t="n">
-        <v>0.184785</v>
+        <v>0.185313</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156688</v>
+        <v>0.156502</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182674</v>
+        <v>0.15876</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183109</v>
+        <v>0.183854</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152838</v>
+        <v>0.152045</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181466</v>
+        <v>0.165429</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182345</v>
+        <v>0.182476</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147986</v>
+        <v>0.147806</v>
       </c>
       <c r="C70" t="n">
-        <v>0.18021</v>
+        <v>0.172505</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180451</v>
+        <v>0.181164</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143421</v>
+        <v>0.143057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178926</v>
+        <v>0.180261</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179439</v>
+        <v>0.179912</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138286</v>
+        <v>0.138315</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177799</v>
+        <v>0.189204</v>
       </c>
       <c r="D72" t="n">
-        <v>0.17801</v>
+        <v>0.178749</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133532</v>
+        <v>0.133812</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176674</v>
+        <v>0.200303</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176718</v>
+        <v>0.177311</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128651</v>
+        <v>0.1287</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175503</v>
+        <v>0.212441</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175507</v>
+        <v>0.176193</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123601</v>
+        <v>0.123811</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174382</v>
+        <v>0.227473</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174453</v>
+        <v>0.174878</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118597</v>
+        <v>0.118628</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173248</v>
+        <v>0.24306</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172915</v>
+        <v>0.173741</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.11347</v>
+        <v>0.11366</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172125</v>
+        <v>0.261431</v>
       </c>
       <c r="D77" t="n">
-        <v>0.17177</v>
+        <v>0.172506</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108475</v>
+        <v>0.108714</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171046</v>
+        <v>0.283264</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170494</v>
+        <v>0.171313</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103631</v>
+        <v>0.1037</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169991</v>
+        <v>0.170899</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169206</v>
+        <v>0.170248</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0987056</v>
+        <v>0.0989589</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168946</v>
+        <v>0.176969</v>
       </c>
       <c r="D80" t="n">
-        <v>0.186679</v>
+        <v>0.187436</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161558</v>
+        <v>0.16153</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184293</v>
+        <v>0.182018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185188</v>
+        <v>0.185778</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157704</v>
+        <v>0.157354</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183033</v>
+        <v>0.187372</v>
       </c>
       <c r="D82" t="n">
-        <v>0.18392</v>
+        <v>0.184273</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153329</v>
+        <v>0.153056</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181656</v>
+        <v>0.194064</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182455</v>
+        <v>0.182842</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148925</v>
+        <v>0.148496</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180331</v>
+        <v>0.200521</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181137</v>
+        <v>0.181428</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144269</v>
+        <v>0.143805</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179178</v>
+        <v>0.208855</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179903</v>
+        <v>0.180248</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13892</v>
+        <v>0.138941</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177922</v>
+        <v>0.217776</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178519</v>
+        <v>0.17884</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134087</v>
+        <v>0.134036</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176798</v>
+        <v>0.228866</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177236</v>
+        <v>0.177651</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129035</v>
+        <v>0.12898</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175637</v>
+        <v>0.241842</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176089</v>
+        <v>0.176506</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124084</v>
+        <v>0.124047</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174565</v>
+        <v>0.253365</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1748</v>
+        <v>0.175158</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119053</v>
+        <v>0.119119</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173553</v>
+        <v>0.270187</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173658</v>
+        <v>0.17393</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114168</v>
+        <v>0.114214</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172345</v>
+        <v>0.291567</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172387</v>
+        <v>0.172921</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109258</v>
+        <v>0.109355</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171337</v>
+        <v>0.313726</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171203</v>
+        <v>0.171658</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104447</v>
+        <v>0.104326</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170236</v>
+        <v>0.340231</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170027</v>
+        <v>0.170365</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.099469</v>
+        <v>0.0995196</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169181</v>
+        <v>0.247908</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187434</v>
+        <v>0.187853</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162528</v>
+        <v>0.162541</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184773</v>
+        <v>0.254082</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185843</v>
+        <v>0.186208</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158976</v>
+        <v>0.158578</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183332</v>
+        <v>0.259408</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184436</v>
+        <v>0.18493</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154464</v>
+        <v>0.154191</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181959</v>
+        <v>0.265515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182939</v>
+        <v>0.183349</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150176</v>
+        <v>0.149705</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180679</v>
+        <v>0.271721</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181559</v>
+        <v>0.181904</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145124</v>
+        <v>0.144991</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179506</v>
+        <v>0.280084</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180276</v>
+        <v>0.180677</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140471</v>
+        <v>0.140036</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178295</v>
+        <v>0.290491</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179031</v>
+        <v>0.17923</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135051</v>
+        <v>0.135058</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176978</v>
+        <v>0.300365</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177839</v>
+        <v>0.178029</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130039</v>
+        <v>0.130142</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175898</v>
+        <v>0.313845</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176461</v>
+        <v>0.17673</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125053</v>
+        <v>0.12503</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174933</v>
+        <v>0.32929</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175246</v>
+        <v>0.175554</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120201</v>
+        <v>0.120231</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173667</v>
+        <v>0.348304</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173971</v>
+        <v>0.174295</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115151</v>
+        <v>0.115215</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172657</v>
+        <v>0.371064</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172784</v>
+        <v>0.173194</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110199</v>
+        <v>0.110352</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171446</v>
+        <v>0.399163</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171474</v>
+        <v>0.17194</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10531</v>
+        <v>0.105395</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170438</v>
+        <v>0.429455</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170259</v>
+        <v>0.170673</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100357</v>
+        <v>0.100493</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169404</v>
+        <v>0.346596</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187987</v>
+        <v>0.18821</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955164</v>
+        <v>0.0955453</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168261</v>
+        <v>0.351235</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186335</v>
+        <v>0.18648</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159796</v>
+        <v>0.159334</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183626</v>
+        <v>0.354989</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184858</v>
+        <v>0.185181</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15562</v>
+        <v>0.155161</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182353</v>
+        <v>0.36553</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183393</v>
+        <v>0.183927</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150947</v>
+        <v>0.150658</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180963</v>
+        <v>0.367381</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182064</v>
+        <v>0.18249</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146147</v>
+        <v>0.145997</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179673</v>
+        <v>0.377436</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180673</v>
+        <v>0.18114</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14105</v>
+        <v>0.141009</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178491</v>
+        <v>0.385652</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179294</v>
+        <v>0.179757</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136018</v>
+        <v>0.136065</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17733</v>
+        <v>0.39901</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177991</v>
+        <v>0.178537</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130993</v>
+        <v>0.131067</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176181</v>
+        <v>0.414407</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176701</v>
+        <v>0.177269</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126074</v>
+        <v>0.126055</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174979</v>
+        <v>0.432204</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175416</v>
+        <v>0.175893</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121033</v>
+        <v>0.121106</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173949</v>
+        <v>0.460297</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174267</v>
+        <v>0.174715</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116092</v>
+        <v>0.116169</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172865</v>
+        <v>0.491839</v>
       </c>
       <c r="D119" t="n">
-        <v>0.17302</v>
+        <v>0.173489</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111099</v>
+        <v>0.11124</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171887</v>
+        <v>0.5331669999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171789</v>
+        <v>0.172158</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106298</v>
+        <v>0.106338</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170782</v>
+        <v>0.583111</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170495</v>
+        <v>0.170948</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101421</v>
+        <v>0.10148</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169609</v>
+        <v>0.423701</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169105</v>
+        <v>0.169715</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09655030000000001</v>
+        <v>0.0966804</v>
       </c>
       <c r="C123" t="n">
-        <v>0.16859</v>
+        <v>0.425895</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186871</v>
+        <v>0.187153</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169752</v>
+        <v>0.162912</v>
       </c>
       <c r="C124" t="n">
-        <v>0.18401</v>
+        <v>0.42969</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185506</v>
+        <v>0.185547</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165325</v>
+        <v>0.158517</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182524</v>
+        <v>0.434953</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183699</v>
+        <v>0.184049</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.159022</v>
+        <v>0.1538</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181159</v>
+        <v>0.442049</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182097</v>
+        <v>0.182769</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155543</v>
+        <v>0.148946</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179832</v>
+        <v>0.449396</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180784</v>
+        <v>0.181451</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14902</v>
+        <v>0.149784</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178699</v>
+        <v>0.461779</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179551</v>
+        <v>0.180103</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144416</v>
+        <v>0.144275</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177566</v>
+        <v>0.47465</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178213</v>
+        <v>0.178785</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139014</v>
+        <v>0.138341</v>
       </c>
       <c r="C130" t="n">
-        <v>0.17638</v>
+        <v>0.495717</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176957</v>
+        <v>0.177335</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133916</v>
+        <v>0.133876</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175311</v>
+        <v>0.512256</v>
       </c>
       <c r="D131" t="n">
-        <v>0.17569</v>
+        <v>0.176054</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128448</v>
+        <v>0.127861</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174135</v>
+        <v>0.54552</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174517</v>
+        <v>0.174854</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123523</v>
+        <v>0.123254</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173072</v>
+        <v>0.582205</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173187</v>
+        <v>0.173636</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118278</v>
+        <v>0.118096</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172004</v>
+        <v>0.630783</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172003</v>
+        <v>0.172385</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113137</v>
+        <v>0.112946</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170966</v>
+        <v>0.693116</v>
       </c>
       <c r="D135" t="n">
-        <v>0.17076</v>
+        <v>0.171224</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10804</v>
+        <v>0.107887</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169839</v>
+        <v>0.478361</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169518</v>
+        <v>0.170001</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102979</v>
+        <v>0.10276</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168795</v>
+        <v>0.479962</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196159</v>
+        <v>0.196784</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170973</v>
+        <v>0.170386</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194365</v>
+        <v>0.483763</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194324</v>
+        <v>0.194704</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166357</v>
+        <v>0.165981</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192298</v>
+        <v>0.488763</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192314</v>
+        <v>0.192719</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16127</v>
+        <v>0.161275</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190369</v>
+        <v>0.490947</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190541</v>
+        <v>0.191072</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156222</v>
+        <v>0.1562</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188567</v>
+        <v>0.518307</v>
       </c>
       <c r="D141" t="n">
-        <v>0.188851</v>
+        <v>0.189256</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15095</v>
+        <v>0.150804</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186878</v>
+        <v>0.52015</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187258</v>
+        <v>0.187704</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145429</v>
+        <v>0.145563</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185396</v>
+        <v>0.53886</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185497</v>
+        <v>0.185987</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.07298259999999999</v>
+                  <v>0.0641531</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0712097</v>
+                  <v>0.0641417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0720215</v>
+                  <v>0.0639055</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07002460000000001</v>
+                  <v>0.0642133</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.07065929999999999</v>
+                  <v>0.06474820000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0691763</v>
+                  <v>0.06536599999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.069092</v>
+                  <v>0.0651717</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0684944</v>
+                  <v>0.06583840000000001</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.115878</v>
+                  <v>0.0890715</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.117685</v>
+                  <v>0.0891439</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.1186</v>
+                  <v>0.088877</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.1155</v>
+                  <v>0.0889416</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.113595</v>
+                  <v>0.0880235</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.112053</v>
+                  <v>0.0873052</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.109475</v>
+                  <v>0.08651929999999999</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.104355</v>
+                  <v>0.08555</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.103223</v>
+                  <v>0.08422979999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.100759</v>
+                  <v>0.08232540000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.100441</v>
+                  <v>0.0812894</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0955406</v>
+                  <v>0.0828969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0911791</v>
+                  <v>0.08242620000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.08682579999999999</v>
+                  <v>0.0803682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.148212</v>
+                  <v>0.130945</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.145319</v>
+                  <v>0.13039</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.141998</v>
+                  <v>0.128396</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.138009</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.134231</v>
+                  <v>0.122747</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.130514</v>
+                  <v>0.120164</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.126506</v>
+                  <v>0.117158</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.122291</v>
+                  <v>0.114482</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.11783</v>
+                  <v>0.110654</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.114431</v>
+                  <v>0.106787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.109948</v>
+                  <v>0.10302</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.105186</v>
+                  <v>0.09905659999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.100624</v>
+                  <v>0.0947708</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0959555</v>
+                  <v>0.0912707</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.157587</v>
+                  <v>0.15299</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.153443</v>
+                  <v>0.149699</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.149937</v>
+                  <v>0.145819</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.146009</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.14224</v>
+                  <v>0.138561</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.137723</v>
+                  <v>0.134735</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.133037</v>
+                  <v>0.13049</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.128788</v>
+                  <v>0.126237</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.123822</v>
+                  <v>0.121969</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.118769</v>
+                  <v>0.117384</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.114002</v>
+                  <v>0.112872</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109192</v>
+                  <v>0.107687</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.104531</v>
+                  <v>0.102518</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0996165</v>
+                  <v>0.097793</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0948362</v>
+                  <v>0.0929044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.157976</v>
+                  <v>0.156627</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.153996</v>
+                  <v>0.152789</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.149528</v>
+                  <v>0.148886</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.145596</v>
+                  <v>0.14427</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.140822</v>
+                  <v>0.139987</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.135951</v>
+                  <v>0.135316</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.131123</v>
+                  <v>0.130625</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.126374</v>
+                  <v>0.125715</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.121305</v>
+                  <v>0.120655</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.116495</v>
+                  <v>0.115997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.111464</v>
+                  <v>0.11107</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.106716</v>
+                  <v>0.105984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.101772</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0969164</v>
+                  <v>0.0964059</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.160412</v>
+                  <v>0.160513</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.156466</v>
+                  <v>0.156502</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.152037</v>
+                  <v>0.152045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.14759</v>
+                  <v>0.147806</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.142785</v>
+                  <v>0.143057</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.138176</v>
+                  <v>0.138315</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.133128</v>
+                  <v>0.133812</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128401</v>
+                  <v>0.1287</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.123305</v>
+                  <v>0.123811</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.11846</v>
+                  <v>0.118628</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.113486</v>
+                  <v>0.11366</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.108753</v>
+                  <v>0.108714</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103937</v>
+                  <v>0.1037</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.09895329999999999</v>
+                  <v>0.0989589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.161644</v>
+                  <v>0.16153</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.157522</v>
+                  <v>0.157354</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.153763</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.148679</v>
+                  <v>0.148496</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.143658</v>
+                  <v>0.143805</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.138768</v>
+                  <v>0.138941</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.133847</v>
+                  <v>0.134036</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.128948</v>
+                  <v>0.12898</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.123949</v>
+                  <v>0.124047</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.118963</v>
+                  <v>0.119119</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.114122</v>
+                  <v>0.114214</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.109185</v>
+                  <v>0.109355</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.10437</v>
+                  <v>0.104326</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0993728</v>
+                  <v>0.0995196</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.162574</v>
+                  <v>0.162541</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.158918</v>
+                  <v>0.158578</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.154482</v>
+                  <v>0.154191</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.149841</v>
+                  <v>0.149705</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.14528</v>
+                  <v>0.144991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.140161</v>
+                  <v>0.140036</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.135249</v>
+                  <v>0.135058</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.13029</v>
+                  <v>0.130142</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.125136</v>
+                  <v>0.12503</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.120032</v>
+                  <v>0.120231</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.115112</v>
+                  <v>0.115215</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.110139</v>
+                  <v>0.110352</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.105322</v>
+                  <v>0.105395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.100479</v>
+                  <v>0.100493</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0955894</v>
+                  <v>0.0955453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.159496</v>
+                  <v>0.159334</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.155377</v>
+                  <v>0.155161</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.150752</v>
+                  <v>0.150658</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.145881</v>
+                  <v>0.145997</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.140855</v>
+                  <v>0.141009</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.135861</v>
+                  <v>0.136065</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.130875</v>
+                  <v>0.131067</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.125921</v>
+                  <v>0.126055</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.121079</v>
+                  <v>0.121106</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116102</v>
+                  <v>0.116169</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.111233</v>
+                  <v>0.11124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106304</v>
+                  <v>0.106338</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.101443</v>
+                  <v>0.10148</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.09654890000000001</v>
+                  <v>0.0966804</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.168509</v>
+                  <v>0.162912</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.15894</v>
+                  <v>0.158517</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.159678</v>
+                  <v>0.1538</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.154228</v>
+                  <v>0.148946</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.149536</v>
+                  <v>0.149784</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.144239</v>
+                  <v>0.144275</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.138932</v>
+                  <v>0.138341</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.133429</v>
+                  <v>0.133876</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.128395</v>
+                  <v>0.127861</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.123232</v>
+                  <v>0.123254</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.118089</v>
+                  <v>0.118096</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.113005</v>
+                  <v>0.112946</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.107832</v>
+                  <v>0.107887</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.102694</v>
+                  <v>0.10276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.170691</v>
+                  <v>0.170386</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.166121</v>
+                  <v>0.165981</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.161407</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.156126</v>
+                  <v>0.1562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.151131</v>
+                  <v>0.150804</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.145778</v>
+                  <v>0.145563</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.159279</v>
+                  <v>0.0575077</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.159531</v>
+                  <v>0.0598211</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159916</v>
+                  <v>0.0649882</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.160172</v>
+                  <v>0.07328460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159857</v>
+                  <v>0.09369329999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.160431</v>
+                  <v>0.111546</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160459</v>
+                  <v>0.06318840000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1601</v>
+                  <v>0.06369279999999999</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.166565</v>
+                  <v>0.064666</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.166562</v>
+                  <v>0.0662118</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.16622</v>
+                  <v>0.0703285</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.165699</v>
+                  <v>0.0767543</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.165521</v>
+                  <v>0.0847386</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.165454</v>
+                  <v>0.0924473</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.165168</v>
+                  <v>0.103137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.164658</v>
+                  <v>0.117766</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164322</v>
+                  <v>0.138113</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.163931</v>
+                  <v>0.157701</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165298</v>
+                  <v>0.183703</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.164945</v>
+                  <v>0.219332</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163782</v>
+                  <v>0.0967408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164364</v>
+                  <v>0.101705</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.172161</v>
+                  <v>0.110323</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.171462</v>
+                  <v>0.118336</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.170652</v>
+                  <v>0.125077</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.169522</v>
+                  <v>0.131743</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.17035</v>
+                  <v>0.136642</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.170091</v>
+                  <v>0.159372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.169297</v>
+                  <v>0.164708</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168455</v>
+                  <v>0.180538</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.167498</v>
+                  <v>0.189276</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.167514</v>
+                  <v>0.205969</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.167451</v>
+                  <v>0.226981</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167303</v>
+                  <v>0.25275</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.166371</v>
+                  <v>0.280765</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.166033</v>
+                  <v>0.125211</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.17866</v>
+                  <v>0.128879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.177651</v>
+                  <v>0.139033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.177156</v>
+                  <v>0.143689</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.176345</v>
+                  <v>0.153829</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.176385</v>
+                  <v>0.162005</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.174149</v>
+                  <v>0.17317</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.173298</v>
+                  <v>0.180018</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.17212</v>
+                  <v>0.189111</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.171601</v>
+                  <v>0.20117</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.170988</v>
+                  <v>0.218393</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.170721</v>
+                  <v>0.234699</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.169977</v>
+                  <v>0.256116</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.168594</v>
+                  <v>0.28101</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.168177</v>
+                  <v>0.134014</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167535</v>
+                  <v>0.138441</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.181227</v>
+                  <v>0.144747</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.180451</v>
+                  <v>0.151243</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.179182</v>
+                  <v>0.158688</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178048</v>
+                  <v>0.168342</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.176419</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176194</v>
+                  <v>0.18304</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.174844</v>
+                  <v>0.195721</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.173852</v>
+                  <v>0.209809</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.173038</v>
+                  <v>0.221223</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.172028</v>
+                  <v>0.238103</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170938</v>
+                  <v>0.256781</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.170107</v>
+                  <v>0.278367</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.169121</v>
+                  <v>0.142277</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.168199</v>
+                  <v>0.147209</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.182993</v>
+                  <v>0.153107</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.181934</v>
+                  <v>0.15876</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.180638</v>
+                  <v>0.165429</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.179527</v>
+                  <v>0.172505</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178266</v>
+                  <v>0.180261</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177121</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176114</v>
+                  <v>0.200303</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174714</v>
+                  <v>0.212441</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.173737</v>
+                  <v>0.227473</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.172755</v>
+                  <v>0.24306</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171706</v>
+                  <v>0.261431</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170994</v>
+                  <v>0.283264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.169972</v>
+                  <v>0.170899</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.168926</v>
+                  <v>0.176969</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.183782</v>
+                  <v>0.182018</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.182529</v>
+                  <v>0.187372</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181218</v>
+                  <v>0.194064</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.179982</v>
+                  <v>0.200521</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.178765</v>
+                  <v>0.208855</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.177541</v>
+                  <v>0.217776</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.1765</v>
+                  <v>0.228866</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.175436</v>
+                  <v>0.241842</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174395</v>
+                  <v>0.253365</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173401</v>
+                  <v>0.270187</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.172322</v>
+                  <v>0.291567</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.171258</v>
+                  <v>0.313726</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.170221</v>
+                  <v>0.340231</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.169131</v>
+                  <v>0.247908</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184458</v>
+                  <v>0.254082</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.18311</v>
+                  <v>0.259408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.181756</v>
+                  <v>0.265515</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.180597</v>
+                  <v>0.271721</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179423</v>
+                  <v>0.280084</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.178165</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.176992</v>
+                  <v>0.300365</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.175876</v>
+                  <v>0.313845</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.174754</v>
+                  <v>0.32929</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.173655</v>
+                  <v>0.348304</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.172532</v>
+                  <v>0.371064</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.17148</v>
+                  <v>0.399163</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.170395</v>
+                  <v>0.429455</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.169389</v>
+                  <v>0.346596</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.16831</v>
+                  <v>0.351235</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.183651</v>
+                  <v>0.354989</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.18219</v>
+                  <v>0.36553</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180908</v>
+                  <v>0.367381</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.179663</v>
+                  <v>0.377436</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.178378</v>
+                  <v>0.385652</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177238</v>
+                  <v>0.39901</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.176057</v>
+                  <v>0.414407</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.17496</v>
+                  <v>0.432204</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173839</v>
+                  <v>0.460297</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172867</v>
+                  <v>0.491839</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171748</v>
+                  <v>0.5331669999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.17071</v>
+                  <v>0.583111</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.169544</v>
+                  <v>0.423701</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.168514</v>
+                  <v>0.425895</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.183801</v>
+                  <v>0.42969</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182276</v>
+                  <v>0.434953</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.180973</v>
+                  <v>0.442049</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.179958</v>
+                  <v>0.449396</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.178678</v>
+                  <v>0.461779</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.177433</v>
+                  <v>0.47465</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176289</v>
+                  <v>0.495717</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.175285</v>
+                  <v>0.512256</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.17403</v>
+                  <v>0.54552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.173003</v>
+                  <v>0.582205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.17193</v>
+                  <v>0.630783</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170909</v>
+                  <v>0.693116</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.169769</v>
+                  <v>0.478361</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.168699</v>
+                  <v>0.479962</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.194357</v>
+                  <v>0.483763</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.192211</v>
+                  <v>0.488763</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.191134</v>
+                  <v>0.490947</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.188527</v>
+                  <v>0.518307</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.186944</v>
+                  <v>0.52015</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.185369</v>
+                  <v>0.53886</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.160451</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.15984</v>
+                  <v>0.158856</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.161571</v>
+                  <v>0.159729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.160516</v>
+                  <v>0.15887</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.161304</v>
+                  <v>0.160271</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.16031</v>
+                  <v>0.159772</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160728</v>
+                  <v>0.159948</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.16767</v>
+                  <v>0.164801</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.167619</v>
+                  <v>0.165641</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167533</v>
+                  <v>0.165795</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.167202</v>
+                  <v>0.166284</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.16666</v>
+                  <v>0.166196</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.166507</v>
+                  <v>0.166822</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.166204</v>
+                  <v>0.16633</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.166124</v>
+                  <v>0.166022</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.165371</v>
+                  <v>0.165367</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.165339</v>
+                  <v>0.165413</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164874</v>
+                  <v>0.165358</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165097</v>
+                  <v>0.165959</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.164838</v>
+                  <v>0.165915</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.164653</v>
+                  <v>0.167046</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.173555</v>
+                  <v>0.182004</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.176318</v>
+                  <v>0.179886</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.172962</v>
+                  <v>0.176643</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.176583</v>
+                  <v>0.176678</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.176767</v>
+                  <v>0.175759</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.169927</v>
+                  <v>0.175754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.173282</v>
+                  <v>0.176854</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170005</v>
+                  <v>0.175894</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.171421</v>
+                  <v>0.172402</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.167568</v>
+                  <v>0.17302</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.166847</v>
+                  <v>0.17105</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.168985</v>
+                  <v>0.170195</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.166699</v>
+                  <v>0.169719</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.16564</v>
+                  <v>0.168159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.182958</v>
+                  <v>0.184916</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.180524</v>
+                  <v>0.183052</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.180934</v>
+                  <v>0.182508</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.178236</v>
+                  <v>0.181083</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.179629</v>
+                  <v>0.17982</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.175988</v>
+                  <v>0.178386</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.176036</v>
+                  <v>0.178092</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.174811</v>
+                  <v>0.176222</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174144</v>
+                  <v>0.175981</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.17122</v>
+                  <v>0.174595</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.171525</v>
+                  <v>0.173326</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.171157</v>
+                  <v>0.171569</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.168175</v>
+                  <v>0.171515</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.167485</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.185418</v>
+                  <v>0.186997</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.183989</v>
+                  <v>0.185308</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.183393</v>
+                  <v>0.183876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.182403</v>
+                  <v>0.182684</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.180173</v>
+                  <v>0.181455</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178858</v>
+                  <v>0.180231</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.178373</v>
+                  <v>0.179365</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176503</v>
+                  <v>0.177796</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.175602</v>
+                  <v>0.176715</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.174485</v>
+                  <v>0.175502</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.173374</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.172095</v>
+                  <v>0.173807</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170832</v>
+                  <v>0.17214</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.169611</v>
+                  <v>0.170786</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168477</v>
+                  <v>0.169619</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.186075</v>
+                  <v>0.186654</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.184581</v>
+                  <v>0.185313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.183152</v>
+                  <v>0.183854</v>
                 </pt>
                 <pt idx="67">
+                  <v>0.182476</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.181164</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.179912</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.178749</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.177311</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.176193</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.174878</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.173741</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.172506</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.171313</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.170248</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.187436</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.185778</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.184273</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.182842</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.181428</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.180248</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.17884</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.177651</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.176506</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.175158</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.17393</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.172921</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.171658</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.170365</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.187853</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.186208</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.18493</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.183349</v>
+                </pt>
+                <pt idx="96">
                   <v>0.181904</v>
                 </pt>
-                <pt idx="68">
-                  <v>0.180499</v>
-                </pt>
-                <pt idx="69">
-                  <v>0.179412</v>
-                </pt>
-                <pt idx="70">
-                  <v>0.178134</v>
-                </pt>
-                <pt idx="71">
-                  <v>0.176731</v>
-                </pt>
-                <pt idx="72">
-                  <v>0.175547</v>
-                </pt>
-                <pt idx="73">
-                  <v>0.174379</v>
-                </pt>
-                <pt idx="74">
-                  <v>0.173069</v>
-                </pt>
-                <pt idx="75">
-                  <v>0.172081</v>
-                </pt>
-                <pt idx="76">
-                  <v>0.171065</v>
-                </pt>
-                <pt idx="77">
-                  <v>0.169639</v>
-                </pt>
-                <pt idx="78">
-                  <v>0.187025</v>
-                </pt>
-                <pt idx="79">
-                  <v>0.18549</v>
-                </pt>
-                <pt idx="80">
-                  <v>0.18413</v>
-                </pt>
-                <pt idx="81">
-                  <v>0.182823</v>
-                </pt>
-                <pt idx="82">
-                  <v>0.181306</v>
-                </pt>
-                <pt idx="83">
-                  <v>0.179973</v>
-                </pt>
-                <pt idx="84">
-                  <v>0.178672</v>
-                </pt>
-                <pt idx="85">
-                  <v>0.177535</v>
-                </pt>
-                <pt idx="86">
-                  <v>0.176267</v>
-                </pt>
-                <pt idx="87">
-                  <v>0.175118</v>
-                </pt>
-                <pt idx="88">
-                  <v>0.173816</v>
-                </pt>
-                <pt idx="89">
-                  <v>0.172616</v>
-                </pt>
-                <pt idx="90">
-                  <v>0.171558</v>
-                </pt>
-                <pt idx="91">
-                  <v>0.170172</v>
-                </pt>
-                <pt idx="92">
-                  <v>0.187555</v>
-                </pt>
-                <pt idx="93">
-                  <v>0.186034</v>
-                </pt>
-                <pt idx="94">
-                  <v>0.184566</v>
-                </pt>
-                <pt idx="95">
-                  <v>0.183157</v>
-                </pt>
-                <pt idx="96">
-                  <v>0.181734</v>
-                </pt>
                 <pt idx="97">
-                  <v>0.180416</v>
+                  <v>0.180677</v>
                 </pt>
                 <pt idx="98">
                   <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.177932</v>
+                  <v>0.178029</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.176684</v>
+                  <v>0.17673</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.175445</v>
+                  <v>0.175554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.174226</v>
+                  <v>0.174295</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.173033</v>
+                  <v>0.173194</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.17175</v>
+                  <v>0.17194</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.170555</v>
+                  <v>0.170673</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.188015</v>
+                  <v>0.18821</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.186469</v>
+                  <v>0.18648</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.185059</v>
+                  <v>0.185181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.183606</v>
+                  <v>0.183927</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.18225</v>
+                  <v>0.18249</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.180794</v>
+                  <v>0.18114</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.179529</v>
+                  <v>0.179757</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.178203</v>
+                  <v>0.178537</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.17689</v>
+                  <v>0.177269</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.17571</v>
+                  <v>0.175893</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.174486</v>
+                  <v>0.174715</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.173255</v>
+                  <v>0.173489</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.172019</v>
+                  <v>0.172158</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.170723</v>
+                  <v>0.170948</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.169479</v>
+                  <v>0.169715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.186924</v>
+                  <v>0.187153</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.185162</v>
+                  <v>0.185547</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.183692</v>
+                  <v>0.184049</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.18229</v>
+                  <v>0.182769</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.181036</v>
+                  <v>0.181451</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.179695</v>
+                  <v>0.180103</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.178428</v>
+                  <v>0.178785</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.17726</v>
+                  <v>0.177335</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.175945</v>
+                  <v>0.176054</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.174664</v>
+                  <v>0.174854</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.173481</v>
+                  <v>0.173636</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.172301</v>
+                  <v>0.172385</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.171083</v>
+                  <v>0.171224</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.169795</v>
+                  <v>0.170001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.196592</v>
+                  <v>0.196784</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.194563</v>
+                  <v>0.194704</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.192833</v>
+                  <v>0.192719</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.190933</v>
+                  <v>0.191072</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.189234</v>
+                  <v>0.189256</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.187425</v>
+                  <v>0.187704</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.185808</v>
+                  <v>0.185987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2849,6 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3235,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07070410000000001</v>
+        <v>0.0713969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160535</v>
+        <v>0.164954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160594</v>
+        <v>0.163602</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0711908</v>
+        <v>0.0720826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16097</v>
+        <v>0.16516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16003</v>
+        <v>0.163451</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0709337</v>
+        <v>0.07208100000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.162965</v>
+        <v>0.165072</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160555</v>
+        <v>0.164081</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0708545</v>
+        <v>0.0716039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162588</v>
+        <v>0.164546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160274</v>
+        <v>0.16412</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.069128</v>
+        <v>0.0707832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162721</v>
+        <v>0.164593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160202</v>
+        <v>0.163759</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.068814</v>
+        <v>0.06911109999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162106</v>
+        <v>0.164302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159822</v>
+        <v>0.163654</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0687059</v>
+        <v>0.0684174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163169</v>
+        <v>0.164155</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15991</v>
+        <v>0.163411</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0689435</v>
+        <v>0.06827569999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161937</v>
+        <v>0.163652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167826</v>
+        <v>0.170716</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.120042</v>
+        <v>0.118928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173941</v>
+        <v>0.171966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166975</v>
+        <v>0.171061</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.120674</v>
+        <v>0.120116</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173176</v>
+        <v>0.171842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168715</v>
+        <v>0.170815</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117361</v>
+        <v>0.118511</v>
       </c>
       <c r="C12" t="n">
-        <v>0.173331</v>
+        <v>0.171602</v>
       </c>
       <c r="D12" t="n">
-        <v>0.166931</v>
+        <v>0.171493</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114677</v>
+        <v>0.116151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.172323</v>
+        <v>0.171186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166259</v>
+        <v>0.171348</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.114419</v>
+        <v>0.112195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.172239</v>
+        <v>0.170987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166356</v>
+        <v>0.17106</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.111986</v>
+        <v>0.10915</v>
       </c>
       <c r="C15" t="n">
-        <v>0.171787</v>
+        <v>0.170719</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16636</v>
+        <v>0.171007</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.108719</v>
+        <v>0.108882</v>
       </c>
       <c r="C16" t="n">
-        <v>0.171123</v>
+        <v>0.17044</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165895</v>
+        <v>0.170825</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10684</v>
+        <v>0.107361</v>
       </c>
       <c r="C17" t="n">
-        <v>0.171165</v>
+        <v>0.169445</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165539</v>
+        <v>0.170175</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.104049</v>
+        <v>0.103577</v>
       </c>
       <c r="C18" t="n">
-        <v>0.17011</v>
+        <v>0.169314</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165167</v>
+        <v>0.16975</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.100336</v>
+        <v>0.100763</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169589</v>
+        <v>0.168965</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164204</v>
+        <v>0.171579</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0981373</v>
+        <v>0.09945469999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.170557</v>
+        <v>0.168867</v>
       </c>
       <c r="D20" t="n">
-        <v>0.166445</v>
+        <v>0.17055</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0939792</v>
+        <v>0.09435590000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.169695</v>
+        <v>0.169019</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163873</v>
+        <v>0.169501</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08960890000000001</v>
+        <v>0.0907964</v>
       </c>
       <c r="C22" t="n">
-        <v>0.168763</v>
+        <v>0.168953</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163225</v>
+        <v>0.169018</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0865404</v>
+        <v>0.0869823</v>
       </c>
       <c r="C23" t="n">
-        <v>0.167195</v>
+        <v>0.168635</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1739</v>
+        <v>0.182505</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.149389</v>
+        <v>0.149359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1821</v>
+        <v>0.17855</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175683</v>
+        <v>0.185502</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145787</v>
+        <v>0.145921</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180674</v>
+        <v>0.177019</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172165</v>
+        <v>0.183753</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142511</v>
+        <v>0.141337</v>
       </c>
       <c r="C26" t="n">
-        <v>0.178575</v>
+        <v>0.175785</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172569</v>
+        <v>0.180511</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138245</v>
+        <v>0.137739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.178069</v>
+        <v>0.175297</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17325</v>
+        <v>0.18077</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134931</v>
+        <v>0.134215</v>
       </c>
       <c r="C28" t="n">
-        <v>0.177195</v>
+        <v>0.174492</v>
       </c>
       <c r="D28" t="n">
-        <v>0.171392</v>
+        <v>0.179303</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.130822</v>
+        <v>0.129758</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176118</v>
+        <v>0.173979</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174004</v>
+        <v>0.178096</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126912</v>
+        <v>0.126027</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175176</v>
+        <v>0.173489</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168215</v>
+        <v>0.17868</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122844</v>
+        <v>0.121921</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173901</v>
+        <v>0.173474</v>
       </c>
       <c r="D31" t="n">
-        <v>0.169567</v>
+        <v>0.177549</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.119424</v>
+        <v>0.118529</v>
       </c>
       <c r="C32" t="n">
-        <v>0.173532</v>
+        <v>0.172438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167591</v>
+        <v>0.176389</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.115033</v>
+        <v>0.114065</v>
       </c>
       <c r="C33" t="n">
-        <v>0.17214</v>
+        <v>0.172338</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167775</v>
+        <v>0.174745</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109998</v>
+        <v>0.109822</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171634</v>
+        <v>0.172377</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166003</v>
+        <v>0.174893</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105596</v>
+        <v>0.105586</v>
       </c>
       <c r="C35" t="n">
-        <v>0.170554</v>
+        <v>0.17208</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165598</v>
+        <v>0.173486</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100234</v>
+        <v>0.100659</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169597</v>
+        <v>0.172314</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168476</v>
+        <v>0.174107</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09484910000000001</v>
+        <v>0.0956161</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168555</v>
+        <v>0.171684</v>
       </c>
       <c r="D37" t="n">
-        <v>0.182045</v>
+        <v>0.190504</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157649</v>
+        <v>0.156686</v>
       </c>
       <c r="C38" t="n">
-        <v>0.183524</v>
+        <v>0.185296</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18448</v>
+        <v>0.188346</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154369</v>
+        <v>0.153966</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182713</v>
+        <v>0.183046</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179572</v>
+        <v>0.187182</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150834</v>
+        <v>0.14986</v>
       </c>
       <c r="C40" t="n">
-        <v>0.181226</v>
+        <v>0.182893</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177564</v>
+        <v>0.186188</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146785</v>
+        <v>0.146062</v>
       </c>
       <c r="C41" t="n">
-        <v>0.180029</v>
+        <v>0.181909</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176262</v>
+        <v>0.184818</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142138</v>
+        <v>0.141504</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178849</v>
+        <v>0.181415</v>
       </c>
       <c r="D42" t="n">
-        <v>0.175506</v>
+        <v>0.183454</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.138101</v>
+        <v>0.137016</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177711</v>
+        <v>0.179932</v>
       </c>
       <c r="D43" t="n">
-        <v>0.175366</v>
+        <v>0.182256</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.13371</v>
+        <v>0.132842</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17651</v>
+        <v>0.179347</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173139</v>
+        <v>0.181394</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128635</v>
+        <v>0.128137</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17551</v>
+        <v>0.178284</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173865</v>
+        <v>0.180297</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123569</v>
+        <v>0.123525</v>
       </c>
       <c r="C46" t="n">
-        <v>0.174486</v>
+        <v>0.176799</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171428</v>
+        <v>0.17861</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118947</v>
+        <v>0.118929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173389</v>
+        <v>0.176794</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170952</v>
+        <v>0.177626</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114064</v>
+        <v>0.114121</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172501</v>
+        <v>0.175516</v>
       </c>
       <c r="D48" t="n">
-        <v>0.17078</v>
+        <v>0.176399</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109264</v>
+        <v>0.109246</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171337</v>
+        <v>0.174755</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168445</v>
+        <v>0.175511</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104603</v>
+        <v>0.104417</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170285</v>
+        <v>0.174257</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167677</v>
+        <v>0.175027</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0994086</v>
+        <v>0.09970710000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169241</v>
+        <v>0.173227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18572</v>
+        <v>0.191121</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09419</v>
+        <v>0.0948722</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168036</v>
+        <v>0.172247</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184909</v>
+        <v>0.190468</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158529</v>
+        <v>0.157206</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183265</v>
+        <v>0.187707</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183676</v>
+        <v>0.188361</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154444</v>
+        <v>0.153585</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181765</v>
+        <v>0.186558</v>
       </c>
       <c r="D54" t="n">
-        <v>0.182301</v>
+        <v>0.187763</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150678</v>
+        <v>0.149482</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180744</v>
+        <v>0.185202</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180251</v>
+        <v>0.186387</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146118</v>
+        <v>0.14502</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179577</v>
+        <v>0.184155</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178986</v>
+        <v>0.184901</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141525</v>
+        <v>0.140409</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178383</v>
+        <v>0.183122</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178155</v>
+        <v>0.183363</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136443</v>
+        <v>0.135569</v>
       </c>
       <c r="C58" t="n">
-        <v>0.177182</v>
+        <v>0.181711</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176698</v>
+        <v>0.182306</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131305</v>
+        <v>0.13089</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17609</v>
+        <v>0.180709</v>
       </c>
       <c r="D59" t="n">
-        <v>0.17584</v>
+        <v>0.180925</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126021</v>
+        <v>0.126171</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175018</v>
+        <v>0.179526</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174322</v>
+        <v>0.17968</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121144</v>
+        <v>0.120975</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173952</v>
+        <v>0.178552</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173248</v>
+        <v>0.178836</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11647</v>
+        <v>0.116241</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172905</v>
+        <v>0.177692</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172098</v>
+        <v>0.177765</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111482</v>
+        <v>0.111405</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171789</v>
+        <v>0.17645</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171006</v>
+        <v>0.176509</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106535</v>
+        <v>0.106527</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170699</v>
+        <v>0.175438</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169828</v>
+        <v>0.175139</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.10181</v>
+        <v>0.102461</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169613</v>
+        <v>0.174492</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168517</v>
+        <v>0.173982</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09695819999999999</v>
+        <v>0.0968826</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168583</v>
+        <v>0.173294</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18595</v>
+        <v>0.191273</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160754</v>
+        <v>0.160942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184139</v>
+        <v>0.189435</v>
       </c>
       <c r="D67" t="n">
-        <v>0.184785</v>
+        <v>0.189803</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156688</v>
+        <v>0.156841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182674</v>
+        <v>0.188286</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183109</v>
+        <v>0.188281</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152838</v>
+        <v>0.152431</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181466</v>
+        <v>0.186914</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182345</v>
+        <v>0.18691</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147986</v>
+        <v>0.147891</v>
       </c>
       <c r="C70" t="n">
-        <v>0.18021</v>
+        <v>0.185609</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180451</v>
+        <v>0.185708</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143421</v>
+        <v>0.143071</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178926</v>
+        <v>0.184285</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179439</v>
+        <v>0.184245</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138286</v>
+        <v>0.138262</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177799</v>
+        <v>0.182972</v>
       </c>
       <c r="D72" t="n">
-        <v>0.17801</v>
+        <v>0.183121</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133532</v>
+        <v>0.133284</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176674</v>
+        <v>0.181927</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176718</v>
+        <v>0.181908</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128651</v>
+        <v>0.128361</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175503</v>
+        <v>0.180723</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175507</v>
+        <v>0.1806</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123601</v>
+        <v>0.123528</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174382</v>
+        <v>0.179615</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174453</v>
+        <v>0.179284</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118597</v>
+        <v>0.118544</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173248</v>
+        <v>0.178372</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172915</v>
+        <v>0.178093</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.11347</v>
+        <v>0.113689</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172125</v>
+        <v>0.177409</v>
       </c>
       <c r="D77" t="n">
-        <v>0.17177</v>
+        <v>0.177031</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108475</v>
+        <v>0.108759</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171046</v>
+        <v>0.176202</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170494</v>
+        <v>0.175759</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103631</v>
+        <v>0.103831</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169991</v>
+        <v>0.175077</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169206</v>
+        <v>0.174415</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0987056</v>
+        <v>0.0989805</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168946</v>
+        <v>0.17399</v>
       </c>
       <c r="D80" t="n">
-        <v>0.186679</v>
+        <v>0.191999</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161558</v>
+        <v>0.161654</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184293</v>
+        <v>0.190346</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185188</v>
+        <v>0.190437</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157704</v>
+        <v>0.157699</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183033</v>
+        <v>0.18878</v>
       </c>
       <c r="D82" t="n">
-        <v>0.18392</v>
+        <v>0.188909</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153329</v>
+        <v>0.153341</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181656</v>
+        <v>0.187623</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182455</v>
+        <v>0.187431</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148925</v>
+        <v>0.148705</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180331</v>
+        <v>0.186122</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181137</v>
+        <v>0.186086</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144269</v>
+        <v>0.14397</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179178</v>
+        <v>0.18492</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179903</v>
+        <v>0.184646</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13892</v>
+        <v>0.13906</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177922</v>
+        <v>0.183655</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178519</v>
+        <v>0.183401</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134087</v>
+        <v>0.133987</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176798</v>
+        <v>0.182399</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177236</v>
+        <v>0.182071</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129035</v>
+        <v>0.129034</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175637</v>
+        <v>0.181305</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176089</v>
+        <v>0.180909</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124084</v>
+        <v>0.124005</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174565</v>
+        <v>0.180154</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1748</v>
+        <v>0.179719</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119053</v>
+        <v>0.119081</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173553</v>
+        <v>0.178977</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173658</v>
+        <v>0.178489</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114168</v>
+        <v>0.114159</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172345</v>
+        <v>0.177897</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172387</v>
+        <v>0.177298</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109258</v>
+        <v>0.109284</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171337</v>
+        <v>0.176674</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171203</v>
+        <v>0.176008</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104447</v>
+        <v>0.104399</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170236</v>
+        <v>0.175489</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170027</v>
+        <v>0.174728</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.099469</v>
+        <v>0.0994096</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169181</v>
+        <v>0.174254</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187434</v>
+        <v>0.192204</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162528</v>
+        <v>0.162416</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184773</v>
+        <v>0.19072</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185843</v>
+        <v>0.190654</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158976</v>
+        <v>0.15881</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183332</v>
+        <v>0.189304</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184436</v>
+        <v>0.18919</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154464</v>
+        <v>0.154113</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181959</v>
+        <v>0.188009</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182939</v>
+        <v>0.187589</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150176</v>
+        <v>0.149646</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180679</v>
+        <v>0.186816</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181559</v>
+        <v>0.186347</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145124</v>
+        <v>0.145077</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179506</v>
+        <v>0.18554</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180276</v>
+        <v>0.185001</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140471</v>
+        <v>0.140173</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178295</v>
+        <v>0.184287</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179031</v>
+        <v>0.183641</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135051</v>
+        <v>0.135007</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176978</v>
+        <v>0.183096</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177839</v>
+        <v>0.18232</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130039</v>
+        <v>0.130196</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175898</v>
+        <v>0.181761</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176461</v>
+        <v>0.181177</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125053</v>
+        <v>0.125312</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174933</v>
+        <v>0.180478</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175246</v>
+        <v>0.179861</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120201</v>
+        <v>0.120048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173667</v>
+        <v>0.179312</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173971</v>
+        <v>0.178711</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115151</v>
+        <v>0.115259</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172657</v>
+        <v>0.178086</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172784</v>
+        <v>0.177495</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110199</v>
+        <v>0.110319</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171446</v>
+        <v>0.17696</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171474</v>
+        <v>0.176232</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10531</v>
+        <v>0.105344</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170438</v>
+        <v>0.175773</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170259</v>
+        <v>0.17503</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100357</v>
+        <v>0.100388</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169404</v>
+        <v>0.17449</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187987</v>
+        <v>0.192815</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955164</v>
+        <v>0.0955889</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168261</v>
+        <v>0.173313</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186335</v>
+        <v>0.191194</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159796</v>
+        <v>0.159812</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183626</v>
+        <v>0.190079</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184858</v>
+        <v>0.189668</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15562</v>
+        <v>0.155307</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182353</v>
+        <v>0.18861</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183393</v>
+        <v>0.188136</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150947</v>
+        <v>0.150939</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180963</v>
+        <v>0.18719</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182064</v>
+        <v>0.186738</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146147</v>
+        <v>0.146451</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179673</v>
+        <v>0.185747</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180673</v>
+        <v>0.185329</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14105</v>
+        <v>0.14137</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178491</v>
+        <v>0.184437</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179294</v>
+        <v>0.184001</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136018</v>
+        <v>0.136048</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17733</v>
+        <v>0.18317</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177991</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130993</v>
+        <v>0.131113</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176181</v>
+        <v>0.18199</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176701</v>
+        <v>0.181451</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126074</v>
+        <v>0.126111</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174979</v>
+        <v>0.180808</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175416</v>
+        <v>0.180171</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121033</v>
+        <v>0.121131</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173949</v>
+        <v>0.179643</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174267</v>
+        <v>0.179029</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116092</v>
+        <v>0.116364</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172865</v>
+        <v>0.178414</v>
       </c>
       <c r="D119" t="n">
-        <v>0.17302</v>
+        <v>0.177692</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111099</v>
+        <v>0.111265</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171887</v>
+        <v>0.177209</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171789</v>
+        <v>0.176543</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106298</v>
+        <v>0.106372</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170782</v>
+        <v>0.175997</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170495</v>
+        <v>0.175268</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101421</v>
+        <v>0.101559</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169609</v>
+        <v>0.174808</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169105</v>
+        <v>0.174032</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09655030000000001</v>
+        <v>0.0966255</v>
       </c>
       <c r="C123" t="n">
-        <v>0.16859</v>
+        <v>0.173586</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186871</v>
+        <v>0.191777</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169752</v>
+        <v>0.169883</v>
       </c>
       <c r="C124" t="n">
-        <v>0.18401</v>
+        <v>0.190263</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185506</v>
+        <v>0.190015</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165325</v>
+        <v>0.165224</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182524</v>
+        <v>0.188817</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183699</v>
+        <v>0.18854</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.159022</v>
+        <v>0.160063</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181159</v>
+        <v>0.187411</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182097</v>
+        <v>0.186988</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155543</v>
+        <v>0.154862</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179832</v>
+        <v>0.186009</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180784</v>
+        <v>0.185627</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14902</v>
+        <v>0.149637</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178699</v>
+        <v>0.184741</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179551</v>
+        <v>0.184241</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144416</v>
+        <v>0.144147</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177566</v>
+        <v>0.183451</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178213</v>
+        <v>0.183001</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139014</v>
+        <v>0.138873</v>
       </c>
       <c r="C130" t="n">
-        <v>0.17638</v>
+        <v>0.182196</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176957</v>
+        <v>0.181755</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133916</v>
+        <v>0.133506</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175311</v>
+        <v>0.181009</v>
       </c>
       <c r="D131" t="n">
-        <v>0.17569</v>
+        <v>0.180434</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128448</v>
+        <v>0.128305</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174135</v>
+        <v>0.179866</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174517</v>
+        <v>0.179254</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123523</v>
+        <v>0.123176</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173072</v>
+        <v>0.178691</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173187</v>
+        <v>0.17807</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118278</v>
+        <v>0.117996</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172004</v>
+        <v>0.177439</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172003</v>
+        <v>0.176805</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113137</v>
+        <v>0.112992</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170966</v>
+        <v>0.176255</v>
       </c>
       <c r="D135" t="n">
-        <v>0.17076</v>
+        <v>0.17561</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10804</v>
+        <v>0.107892</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169839</v>
+        <v>0.174983</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169518</v>
+        <v>0.174271</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102979</v>
+        <v>0.102841</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168795</v>
+        <v>0.173768</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196159</v>
+        <v>0.201255</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170973</v>
+        <v>0.17047</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194365</v>
+        <v>0.200795</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194324</v>
+        <v>0.199204</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166357</v>
+        <v>0.166072</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192298</v>
+        <v>0.198554</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192314</v>
+        <v>0.197228</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16127</v>
+        <v>0.161427</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190369</v>
+        <v>0.196048</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190541</v>
+        <v>0.194583</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156222</v>
+        <v>0.157747</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188567</v>
+        <v>0.192626</v>
       </c>
       <c r="D141" t="n">
-        <v>0.188851</v>
+        <v>0.191907</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15095</v>
+        <v>0.14892</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186878</v>
+        <v>0.192767</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187258</v>
+        <v>0.191128</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145429</v>
+        <v>0.14364</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185396</v>
+        <v>0.191069</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185497</v>
+        <v>0.189786</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0713969</v>
+        <v>0.0691726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164954</v>
+        <v>0.157348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163602</v>
+        <v>0.164565</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0720826</v>
+        <v>0.07133050000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16516</v>
+        <v>0.158306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.163451</v>
+        <v>0.164514</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07208100000000001</v>
+        <v>0.0712338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.165072</v>
+        <v>0.158537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164081</v>
+        <v>0.165333</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716039</v>
+        <v>0.0704921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.164546</v>
+        <v>0.158974</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16412</v>
+        <v>0.164241</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0707832</v>
+        <v>0.07027310000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164593</v>
+        <v>0.159149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163759</v>
+        <v>0.163865</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06911109999999999</v>
+        <v>0.06935769999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.164302</v>
+        <v>0.158858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163654</v>
+        <v>0.162742</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0684174</v>
+        <v>0.0690036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.164155</v>
+        <v>0.159067</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163411</v>
+        <v>0.162019</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06827569999999999</v>
+        <v>0.0687596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163652</v>
+        <v>0.15939</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170716</v>
+        <v>0.176877</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.118928</v>
+        <v>0.118799</v>
       </c>
       <c r="C10" t="n">
-        <v>0.171966</v>
+        <v>0.164413</v>
       </c>
       <c r="D10" t="n">
-        <v>0.171061</v>
+        <v>0.17707</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.120116</v>
+        <v>0.117913</v>
       </c>
       <c r="C11" t="n">
-        <v>0.171842</v>
+        <v>0.165737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170815</v>
+        <v>0.17663</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.118511</v>
+        <v>0.117473</v>
       </c>
       <c r="C12" t="n">
-        <v>0.171602</v>
+        <v>0.164833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.171493</v>
+        <v>0.175492</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.116151</v>
+        <v>0.11446</v>
       </c>
       <c r="C13" t="n">
-        <v>0.171186</v>
+        <v>0.164788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.171348</v>
+        <v>0.174759</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.112195</v>
+        <v>0.113608</v>
       </c>
       <c r="C14" t="n">
-        <v>0.170987</v>
+        <v>0.164817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.17106</v>
+        <v>0.173832</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10915</v>
+        <v>0.110998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.170719</v>
+        <v>0.165419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171007</v>
+        <v>0.173208</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.108882</v>
+        <v>0.107845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.17044</v>
+        <v>0.165253</v>
       </c>
       <c r="D16" t="n">
-        <v>0.170825</v>
+        <v>0.172758</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107361</v>
+        <v>0.1061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.169445</v>
+        <v>0.164929</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170175</v>
+        <v>0.171943</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.103577</v>
+        <v>0.103778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.169314</v>
+        <v>0.164408</v>
       </c>
       <c r="D18" t="n">
-        <v>0.16975</v>
+        <v>0.171416</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.100763</v>
+        <v>0.09948559999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.168965</v>
+        <v>0.164909</v>
       </c>
       <c r="D19" t="n">
-        <v>0.171579</v>
+        <v>0.169816</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09945469999999999</v>
+        <v>0.0945087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.168867</v>
+        <v>0.165619</v>
       </c>
       <c r="D20" t="n">
-        <v>0.17055</v>
+        <v>0.169068</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09435590000000001</v>
+        <v>0.0936669</v>
       </c>
       <c r="C21" t="n">
-        <v>0.169019</v>
+        <v>0.167244</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169501</v>
+        <v>0.167629</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0907964</v>
+        <v>0.0901576</v>
       </c>
       <c r="C22" t="n">
-        <v>0.168953</v>
+        <v>0.167112</v>
       </c>
       <c r="D22" t="n">
-        <v>0.169018</v>
+        <v>0.166175</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0869823</v>
+        <v>0.0865134</v>
       </c>
       <c r="C23" t="n">
-        <v>0.168635</v>
+        <v>0.165086</v>
       </c>
       <c r="D23" t="n">
-        <v>0.182505</v>
+        <v>0.184583</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.149359</v>
+        <v>0.147336</v>
       </c>
       <c r="C24" t="n">
-        <v>0.17855</v>
+        <v>0.178577</v>
       </c>
       <c r="D24" t="n">
-        <v>0.185502</v>
+        <v>0.184414</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145921</v>
+        <v>0.144618</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177019</v>
+        <v>0.175807</v>
       </c>
       <c r="D25" t="n">
-        <v>0.183753</v>
+        <v>0.182657</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141337</v>
+        <v>0.141783</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175785</v>
+        <v>0.176924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180511</v>
+        <v>0.180929</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137739</v>
+        <v>0.138568</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175297</v>
+        <v>0.175625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.18077</v>
+        <v>0.180277</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134215</v>
+        <v>0.135049</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174492</v>
+        <v>0.174155</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179303</v>
+        <v>0.178848</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.129758</v>
+        <v>0.130719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173979</v>
+        <v>0.174387</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178096</v>
+        <v>0.17802</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126027</v>
+        <v>0.126883</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173489</v>
+        <v>0.173315</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17868</v>
+        <v>0.175958</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.121921</v>
+        <v>0.122694</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173474</v>
+        <v>0.172481</v>
       </c>
       <c r="D31" t="n">
-        <v>0.177549</v>
+        <v>0.174697</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118529</v>
+        <v>0.118608</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172438</v>
+        <v>0.172209</v>
       </c>
       <c r="D32" t="n">
-        <v>0.176389</v>
+        <v>0.173525</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114065</v>
+        <v>0.114304</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172338</v>
+        <v>0.171245</v>
       </c>
       <c r="D33" t="n">
-        <v>0.174745</v>
+        <v>0.172408</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109822</v>
+        <v>0.109528</v>
       </c>
       <c r="C34" t="n">
-        <v>0.172377</v>
+        <v>0.173254</v>
       </c>
       <c r="D34" t="n">
-        <v>0.174893</v>
+        <v>0.170873</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105586</v>
+        <v>0.105415</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17208</v>
+        <v>0.169681</v>
       </c>
       <c r="D35" t="n">
-        <v>0.173486</v>
+        <v>0.170792</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100659</v>
+        <v>0.099745</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172314</v>
+        <v>0.168394</v>
       </c>
       <c r="D36" t="n">
-        <v>0.174107</v>
+        <v>0.168822</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0956161</v>
+        <v>0.09459190000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.171684</v>
+        <v>0.167518</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190504</v>
+        <v>0.187209</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156686</v>
+        <v>0.157473</v>
       </c>
       <c r="C38" t="n">
-        <v>0.185296</v>
+        <v>0.182184</v>
       </c>
       <c r="D38" t="n">
-        <v>0.188346</v>
+        <v>0.18573</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153966</v>
+        <v>0.154532</v>
       </c>
       <c r="C39" t="n">
-        <v>0.183046</v>
+        <v>0.181103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187182</v>
+        <v>0.18369</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14986</v>
+        <v>0.150725</v>
       </c>
       <c r="C40" t="n">
-        <v>0.182893</v>
+        <v>0.180506</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186188</v>
+        <v>0.182628</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146062</v>
+        <v>0.146382</v>
       </c>
       <c r="C41" t="n">
-        <v>0.181909</v>
+        <v>0.178539</v>
       </c>
       <c r="D41" t="n">
-        <v>0.184818</v>
+        <v>0.181183</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.141504</v>
+        <v>0.142457</v>
       </c>
       <c r="C42" t="n">
-        <v>0.181415</v>
+        <v>0.178312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.183454</v>
+        <v>0.179778</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137016</v>
+        <v>0.138083</v>
       </c>
       <c r="C43" t="n">
-        <v>0.179932</v>
+        <v>0.176876</v>
       </c>
       <c r="D43" t="n">
-        <v>0.182256</v>
+        <v>0.178443</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.132842</v>
+        <v>0.133424</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179347</v>
+        <v>0.175697</v>
       </c>
       <c r="D44" t="n">
-        <v>0.181394</v>
+        <v>0.177202</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128137</v>
+        <v>0.128663</v>
       </c>
       <c r="C45" t="n">
-        <v>0.178284</v>
+        <v>0.174831</v>
       </c>
       <c r="D45" t="n">
-        <v>0.180297</v>
+        <v>0.175963</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123525</v>
+        <v>0.123853</v>
       </c>
       <c r="C46" t="n">
-        <v>0.176799</v>
+        <v>0.173732</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17861</v>
+        <v>0.174715</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118929</v>
+        <v>0.119051</v>
       </c>
       <c r="C47" t="n">
-        <v>0.176794</v>
+        <v>0.172822</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177626</v>
+        <v>0.17324</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114121</v>
+        <v>0.114172</v>
       </c>
       <c r="C48" t="n">
-        <v>0.175516</v>
+        <v>0.172004</v>
       </c>
       <c r="D48" t="n">
-        <v>0.176399</v>
+        <v>0.171974</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109246</v>
+        <v>0.109457</v>
       </c>
       <c r="C49" t="n">
-        <v>0.174755</v>
+        <v>0.171207</v>
       </c>
       <c r="D49" t="n">
-        <v>0.175511</v>
+        <v>0.170868</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104417</v>
+        <v>0.104645</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174257</v>
+        <v>0.170025</v>
       </c>
       <c r="D50" t="n">
-        <v>0.175027</v>
+        <v>0.168861</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09970710000000001</v>
+        <v>0.099402</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173227</v>
+        <v>0.169521</v>
       </c>
       <c r="D51" t="n">
-        <v>0.191121</v>
+        <v>0.187679</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0948722</v>
+        <v>0.0941143</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172247</v>
+        <v>0.167645</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190468</v>
+        <v>0.186219</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.157206</v>
+        <v>0.158165</v>
       </c>
       <c r="C53" t="n">
-        <v>0.187707</v>
+        <v>0.18242</v>
       </c>
       <c r="D53" t="n">
-        <v>0.188361</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153585</v>
+        <v>0.154393</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186558</v>
+        <v>0.181461</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187763</v>
+        <v>0.183026</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149482</v>
+        <v>0.149987</v>
       </c>
       <c r="C55" t="n">
-        <v>0.185202</v>
+        <v>0.180336</v>
       </c>
       <c r="D55" t="n">
-        <v>0.186387</v>
+        <v>0.181733</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.14502</v>
+        <v>0.145756</v>
       </c>
       <c r="C56" t="n">
-        <v>0.184155</v>
+        <v>0.179125</v>
       </c>
       <c r="D56" t="n">
-        <v>0.184901</v>
+        <v>0.180262</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140409</v>
+        <v>0.141425</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183122</v>
+        <v>0.177842</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183363</v>
+        <v>0.179046</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135569</v>
+        <v>0.1364</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181711</v>
+        <v>0.176988</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182306</v>
+        <v>0.177812</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13089</v>
+        <v>0.1314</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180709</v>
+        <v>0.17576</v>
       </c>
       <c r="D59" t="n">
-        <v>0.180925</v>
+        <v>0.176407</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126171</v>
+        <v>0.126589</v>
       </c>
       <c r="C60" t="n">
-        <v>0.179526</v>
+        <v>0.174784</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17968</v>
+        <v>0.175123</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120975</v>
+        <v>0.121574</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178552</v>
+        <v>0.173761</v>
       </c>
       <c r="D61" t="n">
-        <v>0.178836</v>
+        <v>0.173668</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116241</v>
+        <v>0.116746</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177692</v>
+        <v>0.172979</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177765</v>
+        <v>0.172306</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111405</v>
+        <v>0.111853</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17645</v>
+        <v>0.17149</v>
       </c>
       <c r="D63" t="n">
-        <v>0.176509</v>
+        <v>0.170936</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106527</v>
+        <v>0.106753</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175438</v>
+        <v>0.170394</v>
       </c>
       <c r="D64" t="n">
-        <v>0.175139</v>
+        <v>0.169735</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102461</v>
+        <v>0.101812</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174492</v>
+        <v>0.169524</v>
       </c>
       <c r="D65" t="n">
-        <v>0.173982</v>
+        <v>0.168268</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0968826</v>
+        <v>0.0968706</v>
       </c>
       <c r="C66" t="n">
-        <v>0.173294</v>
+        <v>0.16801</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191273</v>
+        <v>0.186607</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160942</v>
+        <v>0.160267</v>
       </c>
       <c r="C67" t="n">
-        <v>0.189435</v>
+        <v>0.183318</v>
       </c>
       <c r="D67" t="n">
-        <v>0.189803</v>
+        <v>0.185036</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156841</v>
+        <v>0.156292</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188286</v>
+        <v>0.182073</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188281</v>
+        <v>0.183564</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152431</v>
+        <v>0.152423</v>
       </c>
       <c r="C69" t="n">
-        <v>0.186914</v>
+        <v>0.18097</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18691</v>
+        <v>0.18209</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147891</v>
+        <v>0.14765</v>
       </c>
       <c r="C70" t="n">
-        <v>0.185609</v>
+        <v>0.179663</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185708</v>
+        <v>0.180809</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143071</v>
+        <v>0.143215</v>
       </c>
       <c r="C71" t="n">
-        <v>0.184285</v>
+        <v>0.178405</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184245</v>
+        <v>0.179375</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138262</v>
+        <v>0.13837</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182972</v>
+        <v>0.177248</v>
       </c>
       <c r="D72" t="n">
-        <v>0.183121</v>
+        <v>0.178065</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133284</v>
+        <v>0.133283</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181927</v>
+        <v>0.176224</v>
       </c>
       <c r="D73" t="n">
-        <v>0.181908</v>
+        <v>0.176729</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128361</v>
+        <v>0.128231</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180723</v>
+        <v>0.175046</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1806</v>
+        <v>0.175384</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123528</v>
+        <v>0.123482</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179615</v>
+        <v>0.173956</v>
       </c>
       <c r="D75" t="n">
-        <v>0.179284</v>
+        <v>0.17415</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118544</v>
+        <v>0.118198</v>
       </c>
       <c r="C76" t="n">
-        <v>0.178372</v>
+        <v>0.17295</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178093</v>
+        <v>0.17307</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113689</v>
+        <v>0.113706</v>
       </c>
       <c r="C77" t="n">
-        <v>0.177409</v>
+        <v>0.172094</v>
       </c>
       <c r="D77" t="n">
-        <v>0.177031</v>
+        <v>0.171911</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108759</v>
+        <v>0.108609</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176202</v>
+        <v>0.171247</v>
       </c>
       <c r="D78" t="n">
-        <v>0.175759</v>
+        <v>0.170738</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103831</v>
+        <v>0.103689</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175077</v>
+        <v>0.169931</v>
       </c>
       <c r="D79" t="n">
-        <v>0.174415</v>
+        <v>0.169467</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0989805</v>
+        <v>0.0988617</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17399</v>
+        <v>0.168857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.191999</v>
+        <v>0.187192</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161654</v>
+        <v>0.161421</v>
       </c>
       <c r="C81" t="n">
-        <v>0.190346</v>
+        <v>0.184018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.190437</v>
+        <v>0.185726</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157699</v>
+        <v>0.157754</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18878</v>
+        <v>0.182597</v>
       </c>
       <c r="D82" t="n">
-        <v>0.188909</v>
+        <v>0.184181</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153341</v>
+        <v>0.153464</v>
       </c>
       <c r="C83" t="n">
-        <v>0.187623</v>
+        <v>0.181283</v>
       </c>
       <c r="D83" t="n">
-        <v>0.187431</v>
+        <v>0.182684</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148705</v>
+        <v>0.149061</v>
       </c>
       <c r="C84" t="n">
-        <v>0.186122</v>
+        <v>0.180145</v>
       </c>
       <c r="D84" t="n">
-        <v>0.186086</v>
+        <v>0.181262</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.14397</v>
+        <v>0.143939</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18492</v>
+        <v>0.178935</v>
       </c>
       <c r="D85" t="n">
-        <v>0.184646</v>
+        <v>0.179846</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13906</v>
+        <v>0.13922</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183655</v>
+        <v>0.177834</v>
       </c>
       <c r="D86" t="n">
-        <v>0.183401</v>
+        <v>0.178552</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133987</v>
+        <v>0.134339</v>
       </c>
       <c r="C87" t="n">
-        <v>0.182399</v>
+        <v>0.176473</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182071</v>
+        <v>0.177275</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129034</v>
+        <v>0.129306</v>
       </c>
       <c r="C88" t="n">
-        <v>0.181305</v>
+        <v>0.175455</v>
       </c>
       <c r="D88" t="n">
-        <v>0.180909</v>
+        <v>0.176087</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124005</v>
+        <v>0.124217</v>
       </c>
       <c r="C89" t="n">
-        <v>0.180154</v>
+        <v>0.174303</v>
       </c>
       <c r="D89" t="n">
-        <v>0.179719</v>
+        <v>0.174826</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119081</v>
+        <v>0.119261</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178977</v>
+        <v>0.173274</v>
       </c>
       <c r="D90" t="n">
-        <v>0.178489</v>
+        <v>0.173809</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114159</v>
+        <v>0.114362</v>
       </c>
       <c r="C91" t="n">
-        <v>0.177897</v>
+        <v>0.172165</v>
       </c>
       <c r="D91" t="n">
-        <v>0.177298</v>
+        <v>0.172512</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109284</v>
+        <v>0.109327</v>
       </c>
       <c r="C92" t="n">
-        <v>0.176674</v>
+        <v>0.171159</v>
       </c>
       <c r="D92" t="n">
-        <v>0.176008</v>
+        <v>0.171257</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104399</v>
+        <v>0.104355</v>
       </c>
       <c r="C93" t="n">
-        <v>0.175489</v>
+        <v>0.170162</v>
       </c>
       <c r="D93" t="n">
-        <v>0.174728</v>
+        <v>0.170015</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994096</v>
+        <v>0.0995263</v>
       </c>
       <c r="C94" t="n">
-        <v>0.174254</v>
+        <v>0.16904</v>
       </c>
       <c r="D94" t="n">
-        <v>0.192204</v>
+        <v>0.187647</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162416</v>
+        <v>0.162873</v>
       </c>
       <c r="C95" t="n">
-        <v>0.19072</v>
+        <v>0.184634</v>
       </c>
       <c r="D95" t="n">
-        <v>0.190654</v>
+        <v>0.185984</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.15881</v>
+        <v>0.158945</v>
       </c>
       <c r="C96" t="n">
-        <v>0.189304</v>
+        <v>0.183054</v>
       </c>
       <c r="D96" t="n">
-        <v>0.18919</v>
+        <v>0.1845</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154113</v>
+        <v>0.154707</v>
       </c>
       <c r="C97" t="n">
-        <v>0.188009</v>
+        <v>0.181828</v>
       </c>
       <c r="D97" t="n">
-        <v>0.187589</v>
+        <v>0.183061</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149646</v>
+        <v>0.149752</v>
       </c>
       <c r="C98" t="n">
-        <v>0.186816</v>
+        <v>0.180539</v>
       </c>
       <c r="D98" t="n">
-        <v>0.186347</v>
+        <v>0.181638</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145077</v>
+        <v>0.144996</v>
       </c>
       <c r="C99" t="n">
-        <v>0.18554</v>
+        <v>0.179301</v>
       </c>
       <c r="D99" t="n">
-        <v>0.185001</v>
+        <v>0.180279</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140173</v>
+        <v>0.140086</v>
       </c>
       <c r="C100" t="n">
-        <v>0.184287</v>
+        <v>0.178056</v>
       </c>
       <c r="D100" t="n">
-        <v>0.183641</v>
+        <v>0.179014</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135007</v>
+        <v>0.13495</v>
       </c>
       <c r="C101" t="n">
-        <v>0.183096</v>
+        <v>0.176955</v>
       </c>
       <c r="D101" t="n">
-        <v>0.18232</v>
+        <v>0.177731</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130196</v>
+        <v>0.129861</v>
       </c>
       <c r="C102" t="n">
-        <v>0.181761</v>
+        <v>0.175818</v>
       </c>
       <c r="D102" t="n">
-        <v>0.181177</v>
+        <v>0.176442</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125312</v>
+        <v>0.125088</v>
       </c>
       <c r="C103" t="n">
-        <v>0.180478</v>
+        <v>0.174645</v>
       </c>
       <c r="D103" t="n">
-        <v>0.179861</v>
+        <v>0.175186</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120048</v>
+        <v>0.120172</v>
       </c>
       <c r="C104" t="n">
-        <v>0.179312</v>
+        <v>0.173613</v>
       </c>
       <c r="D104" t="n">
-        <v>0.178711</v>
+        <v>0.173963</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115259</v>
+        <v>0.115253</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178086</v>
+        <v>0.172468</v>
       </c>
       <c r="D105" t="n">
-        <v>0.177495</v>
+        <v>0.172728</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110319</v>
+        <v>0.110304</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17696</v>
+        <v>0.171372</v>
       </c>
       <c r="D106" t="n">
-        <v>0.176232</v>
+        <v>0.17157</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105344</v>
+        <v>0.105418</v>
       </c>
       <c r="C107" t="n">
-        <v>0.175773</v>
+        <v>0.170332</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17503</v>
+        <v>0.17025</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100388</v>
+        <v>0.10058</v>
       </c>
       <c r="C108" t="n">
-        <v>0.17449</v>
+        <v>0.169256</v>
       </c>
       <c r="D108" t="n">
-        <v>0.192815</v>
+        <v>0.188047</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955889</v>
+        <v>0.0956336</v>
       </c>
       <c r="C109" t="n">
-        <v>0.173313</v>
+        <v>0.168102</v>
       </c>
       <c r="D109" t="n">
-        <v>0.191194</v>
+        <v>0.186311</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159812</v>
+        <v>0.159754</v>
       </c>
       <c r="C110" t="n">
-        <v>0.190079</v>
+        <v>0.183443</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189668</v>
+        <v>0.184865</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155307</v>
+        <v>0.155588</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18861</v>
+        <v>0.182153</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188136</v>
+        <v>0.183388</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150939</v>
+        <v>0.151103</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18719</v>
+        <v>0.180815</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186738</v>
+        <v>0.181921</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146451</v>
+        <v>0.146476</v>
       </c>
       <c r="C113" t="n">
-        <v>0.185747</v>
+        <v>0.179614</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185329</v>
+        <v>0.18061</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14137</v>
+        <v>0.141025</v>
       </c>
       <c r="C114" t="n">
-        <v>0.184437</v>
+        <v>0.178379</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184001</v>
+        <v>0.179207</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136048</v>
+        <v>0.136002</v>
       </c>
       <c r="C115" t="n">
-        <v>0.18317</v>
+        <v>0.17724</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1827</v>
+        <v>0.17804</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131113</v>
+        <v>0.130978</v>
       </c>
       <c r="C116" t="n">
-        <v>0.18199</v>
+        <v>0.175981</v>
       </c>
       <c r="D116" t="n">
-        <v>0.181451</v>
+        <v>0.176688</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126111</v>
+        <v>0.126167</v>
       </c>
       <c r="C117" t="n">
-        <v>0.180808</v>
+        <v>0.174777</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180171</v>
+        <v>0.175331</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121131</v>
+        <v>0.120988</v>
       </c>
       <c r="C118" t="n">
-        <v>0.179643</v>
+        <v>0.173699</v>
       </c>
       <c r="D118" t="n">
-        <v>0.179029</v>
+        <v>0.174121</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116364</v>
+        <v>0.11601</v>
       </c>
       <c r="C119" t="n">
-        <v>0.178414</v>
+        <v>0.172562</v>
       </c>
       <c r="D119" t="n">
-        <v>0.177692</v>
+        <v>0.172862</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111265</v>
+        <v>0.111103</v>
       </c>
       <c r="C120" t="n">
-        <v>0.177209</v>
+        <v>0.171507</v>
       </c>
       <c r="D120" t="n">
-        <v>0.176543</v>
+        <v>0.171647</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106372</v>
+        <v>0.106142</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175997</v>
+        <v>0.170465</v>
       </c>
       <c r="D121" t="n">
-        <v>0.175268</v>
+        <v>0.170445</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101559</v>
+        <v>0.101377</v>
       </c>
       <c r="C122" t="n">
-        <v>0.174808</v>
+        <v>0.169483</v>
       </c>
       <c r="D122" t="n">
-        <v>0.174032</v>
+        <v>0.169275</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0966255</v>
+        <v>0.0965337</v>
       </c>
       <c r="C123" t="n">
-        <v>0.173586</v>
+        <v>0.168425</v>
       </c>
       <c r="D123" t="n">
-        <v>0.191777</v>
+        <v>0.186634</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169883</v>
+        <v>0.170005</v>
       </c>
       <c r="C124" t="n">
-        <v>0.190263</v>
+        <v>0.184109</v>
       </c>
       <c r="D124" t="n">
-        <v>0.190015</v>
+        <v>0.185102</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165224</v>
+        <v>0.165097</v>
       </c>
       <c r="C125" t="n">
-        <v>0.188817</v>
+        <v>0.182414</v>
       </c>
       <c r="D125" t="n">
-        <v>0.18854</v>
+        <v>0.183726</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160063</v>
+        <v>0.160268</v>
       </c>
       <c r="C126" t="n">
-        <v>0.187411</v>
+        <v>0.181192</v>
       </c>
       <c r="D126" t="n">
-        <v>0.186988</v>
+        <v>0.182192</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154862</v>
+        <v>0.155171</v>
       </c>
       <c r="C127" t="n">
-        <v>0.186009</v>
+        <v>0.1799</v>
       </c>
       <c r="D127" t="n">
-        <v>0.185627</v>
+        <v>0.18085</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149637</v>
+        <v>0.149802</v>
       </c>
       <c r="C128" t="n">
-        <v>0.184741</v>
+        <v>0.178648</v>
       </c>
       <c r="D128" t="n">
-        <v>0.184241</v>
+        <v>0.179492</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144147</v>
+        <v>0.144599</v>
       </c>
       <c r="C129" t="n">
-        <v>0.183451</v>
+        <v>0.177505</v>
       </c>
       <c r="D129" t="n">
-        <v>0.183001</v>
+        <v>0.178224</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138873</v>
+        <v>0.139198</v>
       </c>
       <c r="C130" t="n">
-        <v>0.182196</v>
+        <v>0.176324</v>
       </c>
       <c r="D130" t="n">
-        <v>0.181755</v>
+        <v>0.176941</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133506</v>
+        <v>0.133823</v>
       </c>
       <c r="C131" t="n">
-        <v>0.181009</v>
+        <v>0.175143</v>
       </c>
       <c r="D131" t="n">
-        <v>0.180434</v>
+        <v>0.175713</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128305</v>
+        <v>0.128447</v>
       </c>
       <c r="C132" t="n">
-        <v>0.179866</v>
+        <v>0.174096</v>
       </c>
       <c r="D132" t="n">
-        <v>0.179254</v>
+        <v>0.174507</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123176</v>
+        <v>0.123416</v>
       </c>
       <c r="C133" t="n">
-        <v>0.178691</v>
+        <v>0.172998</v>
       </c>
       <c r="D133" t="n">
-        <v>0.17807</v>
+        <v>0.173277</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.117996</v>
+        <v>0.118443</v>
       </c>
       <c r="C134" t="n">
-        <v>0.177439</v>
+        <v>0.17192</v>
       </c>
       <c r="D134" t="n">
-        <v>0.176805</v>
+        <v>0.172058</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.112992</v>
+        <v>0.113165</v>
       </c>
       <c r="C135" t="n">
-        <v>0.176255</v>
+        <v>0.170812</v>
       </c>
       <c r="D135" t="n">
-        <v>0.17561</v>
+        <v>0.170829</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107892</v>
+        <v>0.108024</v>
       </c>
       <c r="C136" t="n">
-        <v>0.174983</v>
+        <v>0.169796</v>
       </c>
       <c r="D136" t="n">
-        <v>0.174271</v>
+        <v>0.169531</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102841</v>
+        <v>0.102768</v>
       </c>
       <c r="C137" t="n">
-        <v>0.173768</v>
+        <v>0.168713</v>
       </c>
       <c r="D137" t="n">
-        <v>0.201255</v>
+        <v>0.196358</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.17047</v>
+        <v>0.170302</v>
       </c>
       <c r="C138" t="n">
-        <v>0.200795</v>
+        <v>0.194344</v>
       </c>
       <c r="D138" t="n">
-        <v>0.199204</v>
+        <v>0.194285</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166072</v>
+        <v>0.166254</v>
       </c>
       <c r="C139" t="n">
-        <v>0.198554</v>
+        <v>0.192206</v>
       </c>
       <c r="D139" t="n">
-        <v>0.197228</v>
+        <v>0.192438</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161427</v>
+        <v>0.16116</v>
       </c>
       <c r="C140" t="n">
-        <v>0.196048</v>
+        <v>0.190305</v>
       </c>
       <c r="D140" t="n">
-        <v>0.194583</v>
+        <v>0.19057</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.157747</v>
+        <v>0.156491</v>
       </c>
       <c r="C141" t="n">
-        <v>0.192626</v>
+        <v>0.188535</v>
       </c>
       <c r="D141" t="n">
-        <v>0.191907</v>
+        <v>0.188942</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.14892</v>
+        <v>0.151182</v>
       </c>
       <c r="C142" t="n">
-        <v>0.192767</v>
+        <v>0.186959</v>
       </c>
       <c r="D142" t="n">
-        <v>0.191128</v>
+        <v>0.187283</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14364</v>
+        <v>0.145775</v>
       </c>
       <c r="C143" t="n">
-        <v>0.191069</v>
+        <v>0.185429</v>
       </c>
       <c r="D143" t="n">
-        <v>0.189786</v>
+        <v>0.185628</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0691726</v>
+        <v>0.07045360000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157348</v>
+        <v>0.157262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164565</v>
+        <v>0.16474</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07133050000000001</v>
+        <v>0.07070419999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.158306</v>
+        <v>0.157496</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164514</v>
+        <v>0.16507</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0712338</v>
+        <v>0.0714682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158537</v>
+        <v>0.158821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.165333</v>
+        <v>0.164896</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0704921</v>
+        <v>0.0702752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158974</v>
+        <v>0.158324</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164241</v>
+        <v>0.164392</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07027310000000001</v>
+        <v>0.06993770000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159149</v>
+        <v>0.158998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163865</v>
+        <v>0.163231</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06935769999999999</v>
+        <v>0.06905749999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158858</v>
+        <v>0.159242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162742</v>
+        <v>0.162999</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0690036</v>
+        <v>0.0683986</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159067</v>
+        <v>0.159326</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162019</v>
+        <v>0.162081</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0687596</v>
+        <v>0.0685336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15939</v>
+        <v>0.159352</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176877</v>
+        <v>0.177535</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.118799</v>
+        <v>0.115316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164413</v>
+        <v>0.164987</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17707</v>
+        <v>0.176899</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.117913</v>
+        <v>0.119411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165737</v>
+        <v>0.165332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17663</v>
+        <v>0.176957</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117473</v>
+        <v>0.117095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164833</v>
+        <v>0.164942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175492</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.11446</v>
+        <v>0.117579</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164788</v>
+        <v>0.164505</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174759</v>
+        <v>0.175155</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.113608</v>
+        <v>0.113298</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164817</v>
+        <v>0.165047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173832</v>
+        <v>0.173942</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.110998</v>
+        <v>0.110648</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165419</v>
+        <v>0.164699</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173208</v>
+        <v>0.173511</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.107845</v>
+        <v>0.107531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165253</v>
+        <v>0.165026</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172758</v>
+        <v>0.172467</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1061</v>
+        <v>0.106314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164929</v>
+        <v>0.165357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171943</v>
+        <v>0.172035</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.103778</v>
+        <v>0.101676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164408</v>
+        <v>0.165443</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171416</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09948559999999999</v>
+        <v>0.09934510000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164909</v>
+        <v>0.164658</v>
       </c>
       <c r="D19" t="n">
-        <v>0.169816</v>
+        <v>0.169571</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0945087</v>
+        <v>0.0963671</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165619</v>
+        <v>0.165435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169068</v>
+        <v>0.169643</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0936669</v>
+        <v>0.0935897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167244</v>
+        <v>0.166551</v>
       </c>
       <c r="D21" t="n">
-        <v>0.167629</v>
+        <v>0.168041</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0901576</v>
+        <v>0.0898</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167112</v>
+        <v>0.167331</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166175</v>
+        <v>0.166923</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0865134</v>
+        <v>0.0861418</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165086</v>
+        <v>0.165852</v>
       </c>
       <c r="D23" t="n">
-        <v>0.184583</v>
+        <v>0.184497</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.147336</v>
+        <v>0.148727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.178577</v>
+        <v>0.177962</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184414</v>
+        <v>0.183583</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.144618</v>
+        <v>0.14574</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175807</v>
+        <v>0.175541</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182657</v>
+        <v>0.181978</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141783</v>
+        <v>0.143445</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176924</v>
+        <v>0.175855</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180929</v>
+        <v>0.180895</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138568</v>
+        <v>0.138795</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175625</v>
+        <v>0.175527</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180277</v>
+        <v>0.179993</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135049</v>
+        <v>0.134099</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174155</v>
+        <v>0.174575</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178848</v>
+        <v>0.178555</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.130719</v>
+        <v>0.131255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174387</v>
+        <v>0.173497</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17802</v>
+        <v>0.177541</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126883</v>
+        <v>0.126817</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173315</v>
+        <v>0.173699</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175958</v>
+        <v>0.175989</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122694</v>
+        <v>0.123236</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172481</v>
+        <v>0.17262</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174697</v>
+        <v>0.174779</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118608</v>
+        <v>0.11866</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172209</v>
+        <v>0.171362</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173525</v>
+        <v>0.173597</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114304</v>
+        <v>0.114599</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171245</v>
+        <v>0.17041</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172408</v>
+        <v>0.172099</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109528</v>
+        <v>0.110335</v>
       </c>
       <c r="C34" t="n">
-        <v>0.173254</v>
+        <v>0.170704</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170873</v>
+        <v>0.170942</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105415</v>
+        <v>0.105838</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169681</v>
+        <v>0.169536</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170792</v>
+        <v>0.169423</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.099745</v>
+        <v>0.099839</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168394</v>
+        <v>0.168354</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168822</v>
+        <v>0.168092</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09459190000000001</v>
+        <v>0.0949001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167518</v>
+        <v>0.168591</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187209</v>
+        <v>0.186675</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157473</v>
+        <v>0.157181</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182184</v>
+        <v>0.182842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18573</v>
+        <v>0.184816</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154532</v>
+        <v>0.154047</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181103</v>
+        <v>0.181012</v>
       </c>
       <c r="D39" t="n">
-        <v>0.18369</v>
+        <v>0.183996</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150725</v>
+        <v>0.150474</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180506</v>
+        <v>0.179975</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182628</v>
+        <v>0.182802</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146382</v>
+        <v>0.146426</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178539</v>
+        <v>0.179007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181183</v>
+        <v>0.181224</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142457</v>
+        <v>0.141816</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178312</v>
+        <v>0.177786</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179778</v>
+        <v>0.179733</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.138083</v>
+        <v>0.13727</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176876</v>
+        <v>0.177217</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178443</v>
+        <v>0.178297</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133424</v>
+        <v>0.132586</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175697</v>
+        <v>0.175348</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177202</v>
+        <v>0.177125</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128663</v>
+        <v>0.127782</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174831</v>
+        <v>0.175112</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175963</v>
+        <v>0.175925</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123853</v>
+        <v>0.123437</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173732</v>
+        <v>0.173971</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174715</v>
+        <v>0.174607</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.119051</v>
+        <v>0.118637</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172822</v>
+        <v>0.173139</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17324</v>
+        <v>0.173171</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114172</v>
+        <v>0.113957</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172004</v>
+        <v>0.172069</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171974</v>
+        <v>0.171835</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109457</v>
+        <v>0.109179</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171207</v>
+        <v>0.171092</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170868</v>
+        <v>0.170392</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104645</v>
+        <v>0.104356</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170025</v>
+        <v>0.169994</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168861</v>
+        <v>0.16883</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.099402</v>
+        <v>0.0991161</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169521</v>
+        <v>0.169382</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187679</v>
+        <v>0.187595</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0941143</v>
+        <v>0.0939878</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167645</v>
+        <v>0.167791</v>
       </c>
       <c r="D52" t="n">
-        <v>0.186219</v>
+        <v>0.186221</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158165</v>
+        <v>0.157821</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18242</v>
+        <v>0.182607</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184681</v>
+        <v>0.184661</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154393</v>
+        <v>0.1545</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181461</v>
+        <v>0.181295</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183026</v>
+        <v>0.183055</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149987</v>
+        <v>0.150362</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180336</v>
+        <v>0.180228</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181733</v>
+        <v>0.181771</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145756</v>
+        <v>0.145962</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179125</v>
+        <v>0.179085</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180262</v>
+        <v>0.180473</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141425</v>
+        <v>0.141208</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177842</v>
+        <v>0.177965</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179046</v>
+        <v>0.179118</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1364</v>
+        <v>0.13628</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176988</v>
+        <v>0.176828</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177812</v>
+        <v>0.177744</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1314</v>
+        <v>0.13158</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17576</v>
+        <v>0.175927</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176407</v>
+        <v>0.176383</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126589</v>
+        <v>0.126478</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174784</v>
+        <v>0.174717</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175123</v>
+        <v>0.175055</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121574</v>
+        <v>0.12165</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173761</v>
+        <v>0.173554</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173668</v>
+        <v>0.173665</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116746</v>
+        <v>0.116714</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172979</v>
+        <v>0.172597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172306</v>
+        <v>0.17236</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111853</v>
+        <v>0.111783</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17149</v>
+        <v>0.171511</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170936</v>
+        <v>0.1709</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106753</v>
+        <v>0.106784</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170394</v>
+        <v>0.170638</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169735</v>
+        <v>0.169629</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101812</v>
+        <v>0.101753</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169524</v>
+        <v>0.169463</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168268</v>
+        <v>0.168417</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0968706</v>
+        <v>0.0970312</v>
       </c>
       <c r="C66" t="n">
-        <v>0.16801</v>
+        <v>0.1683</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186607</v>
+        <v>0.186704</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160267</v>
+        <v>0.160122</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183318</v>
+        <v>0.183257</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185036</v>
+        <v>0.185108</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156292</v>
+        <v>0.156211</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182073</v>
+        <v>0.182153</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183564</v>
+        <v>0.183662</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152423</v>
+        <v>0.151976</v>
       </c>
       <c r="C69" t="n">
-        <v>0.18097</v>
+        <v>0.180837</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18209</v>
+        <v>0.182171</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.14765</v>
+        <v>0.147576</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179663</v>
+        <v>0.179706</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180809</v>
+        <v>0.180802</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143215</v>
+        <v>0.14303</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178405</v>
+        <v>0.178514</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179375</v>
+        <v>0.179594</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.13837</v>
+        <v>0.13817</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177248</v>
+        <v>0.177458</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178065</v>
+        <v>0.178321</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133283</v>
+        <v>0.132883</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176224</v>
+        <v>0.176461</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176729</v>
+        <v>0.176962</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128231</v>
+        <v>0.12812</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175046</v>
+        <v>0.175261</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175384</v>
+        <v>0.175648</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123482</v>
+        <v>0.123306</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173956</v>
+        <v>0.174177</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17415</v>
+        <v>0.174374</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118198</v>
+        <v>0.1184</v>
       </c>
       <c r="C76" t="n">
-        <v>0.17295</v>
+        <v>0.17318</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17307</v>
+        <v>0.173182</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113706</v>
+        <v>0.11366</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172094</v>
+        <v>0.17219</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171911</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108609</v>
+        <v>0.108842</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171247</v>
+        <v>0.171127</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170738</v>
+        <v>0.170612</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103689</v>
+        <v>0.103776</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169931</v>
+        <v>0.170025</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169467</v>
+        <v>0.16939</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0988617</v>
+        <v>0.0990593</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168857</v>
+        <v>0.168936</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187192</v>
+        <v>0.187345</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161421</v>
+        <v>0.161547</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184018</v>
+        <v>0.183887</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185726</v>
+        <v>0.185764</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157754</v>
+        <v>0.157626</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182597</v>
+        <v>0.18253</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184181</v>
+        <v>0.184223</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153464</v>
+        <v>0.153261</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181283</v>
+        <v>0.181302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182684</v>
+        <v>0.182805</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.149061</v>
+        <v>0.148564</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180145</v>
+        <v>0.180042</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181262</v>
+        <v>0.181314</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143939</v>
+        <v>0.143654</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178935</v>
+        <v>0.178817</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179846</v>
+        <v>0.179996</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13922</v>
+        <v>0.138818</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177834</v>
+        <v>0.177687</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178552</v>
+        <v>0.178685</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134339</v>
+        <v>0.133951</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176473</v>
+        <v>0.176564</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177275</v>
+        <v>0.177381</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129306</v>
+        <v>0.129021</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175455</v>
+        <v>0.175397</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176087</v>
+        <v>0.176093</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124217</v>
+        <v>0.124199</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174303</v>
+        <v>0.174295</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174826</v>
+        <v>0.174903</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119261</v>
+        <v>0.119123</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173274</v>
+        <v>0.17318</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173809</v>
+        <v>0.173829</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114362</v>
+        <v>0.114184</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172165</v>
+        <v>0.172175</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172512</v>
+        <v>0.172577</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109327</v>
+        <v>0.109331</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171159</v>
+        <v>0.17119</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171257</v>
+        <v>0.171235</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104355</v>
+        <v>0.104352</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170162</v>
+        <v>0.170088</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170015</v>
+        <v>0.169962</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0995263</v>
+        <v>0.0995288</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16904</v>
+        <v>0.168981</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187647</v>
+        <v>0.187648</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162873</v>
+        <v>0.162453</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184634</v>
+        <v>0.184513</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185984</v>
+        <v>0.186074</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158945</v>
+        <v>0.158536</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183054</v>
+        <v>0.18312</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1845</v>
+        <v>0.18452</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154707</v>
+        <v>0.154346</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181828</v>
+        <v>0.181793</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183061</v>
+        <v>0.183056</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149752</v>
+        <v>0.15029</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180539</v>
+        <v>0.18059</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181638</v>
+        <v>0.181683</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144996</v>
+        <v>0.145357</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179301</v>
+        <v>0.1793</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180279</v>
+        <v>0.180334</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140086</v>
+        <v>0.140154</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178056</v>
+        <v>0.178059</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179014</v>
+        <v>0.178972</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13495</v>
+        <v>0.135191</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176955</v>
+        <v>0.176962</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177731</v>
+        <v>0.177737</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129861</v>
+        <v>0.130378</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175818</v>
+        <v>0.175738</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176442</v>
+        <v>0.176475</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125088</v>
+        <v>0.125272</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174645</v>
+        <v>0.174676</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175186</v>
+        <v>0.175272</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120172</v>
+        <v>0.120269</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173613</v>
+        <v>0.173513</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173963</v>
+        <v>0.174102</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115253</v>
+        <v>0.115091</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172468</v>
+        <v>0.172455</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172728</v>
+        <v>0.17284</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110304</v>
+        <v>0.110241</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171372</v>
+        <v>0.17145</v>
       </c>
       <c r="D106" t="n">
-        <v>0.17157</v>
+        <v>0.171565</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105418</v>
+        <v>0.105371</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170332</v>
+        <v>0.170313</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17025</v>
+        <v>0.170415</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.10058</v>
+        <v>0.100485</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169256</v>
+        <v>0.169298</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188047</v>
+        <v>0.188082</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0956336</v>
+        <v>0.0955014</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168102</v>
+        <v>0.168238</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186311</v>
+        <v>0.186417</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159754</v>
+        <v>0.159364</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183443</v>
+        <v>0.1835</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184865</v>
+        <v>0.184908</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155588</v>
+        <v>0.155406</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182153</v>
+        <v>0.182182</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183388</v>
+        <v>0.183442</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.151103</v>
+        <v>0.150898</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180815</v>
+        <v>0.180952</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181921</v>
+        <v>0.182046</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146476</v>
+        <v>0.146342</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179614</v>
+        <v>0.179643</v>
       </c>
       <c r="D113" t="n">
-        <v>0.18061</v>
+        <v>0.180598</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141025</v>
+        <v>0.14098</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178379</v>
+        <v>0.178424</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179207</v>
+        <v>0.17931</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136002</v>
+        <v>0.135995</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17724</v>
+        <v>0.177209</v>
       </c>
       <c r="D115" t="n">
-        <v>0.17804</v>
+        <v>0.177966</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130978</v>
+        <v>0.131134</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175981</v>
+        <v>0.176045</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176688</v>
+        <v>0.176718</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126167</v>
+        <v>0.12603</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174777</v>
+        <v>0.17491</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175331</v>
+        <v>0.175411</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120988</v>
+        <v>0.120929</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173699</v>
+        <v>0.173675</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174121</v>
+        <v>0.174118</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11601</v>
+        <v>0.11602</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172562</v>
+        <v>0.172586</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172862</v>
+        <v>0.172858</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111103</v>
+        <v>0.111122</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171507</v>
+        <v>0.171535</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171647</v>
+        <v>0.171691</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106142</v>
+        <v>0.106285</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170465</v>
+        <v>0.170565</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170445</v>
+        <v>0.170592</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101377</v>
+        <v>0.101438</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169483</v>
+        <v>0.169568</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169275</v>
+        <v>0.169238</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965337</v>
+        <v>0.0965409</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168425</v>
+        <v>0.16847</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186634</v>
+        <v>0.186697</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170005</v>
+        <v>0.169567</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184109</v>
+        <v>0.183884</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185102</v>
+        <v>0.185143</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165097</v>
+        <v>0.165455</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182414</v>
+        <v>0.182461</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183726</v>
+        <v>0.18374</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160268</v>
+        <v>0.160391</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181192</v>
+        <v>0.18121</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182192</v>
+        <v>0.182212</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155171</v>
+        <v>0.155318</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1799</v>
+        <v>0.179857</v>
       </c>
       <c r="D127" t="n">
-        <v>0.18085</v>
+        <v>0.180853</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149802</v>
+        <v>0.150064</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178648</v>
+        <v>0.178639</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179492</v>
+        <v>0.179489</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144599</v>
+        <v>0.14457</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177505</v>
+        <v>0.177457</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178224</v>
+        <v>0.178297</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139198</v>
+        <v>0.139271</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176324</v>
+        <v>0.176323</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176941</v>
+        <v>0.17695</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133823</v>
+        <v>0.13363</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175143</v>
+        <v>0.175166</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175713</v>
+        <v>0.175757</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128447</v>
+        <v>0.1284</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174096</v>
+        <v>0.174045</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174507</v>
+        <v>0.174554</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123416</v>
+        <v>0.123231</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172998</v>
+        <v>0.173021</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173277</v>
+        <v>0.173253</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118443</v>
+        <v>0.118072</v>
       </c>
       <c r="C134" t="n">
-        <v>0.17192</v>
+        <v>0.171997</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172058</v>
+        <v>0.172094</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113165</v>
+        <v>0.113181</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170812</v>
+        <v>0.17075</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170829</v>
+        <v>0.170879</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.108024</v>
+        <v>0.107958</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169796</v>
+        <v>0.16979</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169531</v>
+        <v>0.169548</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102768</v>
+        <v>0.102867</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168713</v>
+        <v>0.168639</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196358</v>
+        <v>0.196501</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170302</v>
+        <v>0.170566</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194344</v>
+        <v>0.194265</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194285</v>
+        <v>0.19435</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166254</v>
+        <v>0.16614</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192206</v>
+        <v>0.192237</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192438</v>
+        <v>0.192526</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16116</v>
+        <v>0.161461</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190305</v>
+        <v>0.190251</v>
       </c>
       <c r="D140" t="n">
-        <v>0.19057</v>
+        <v>0.19072</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156491</v>
+        <v>0.15606</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188535</v>
+        <v>0.188583</v>
       </c>
       <c r="D141" t="n">
-        <v>0.188942</v>
+        <v>0.188948</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151182</v>
+        <v>0.151199</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186959</v>
+        <v>0.187018</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187283</v>
+        <v>0.187167</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145775</v>
+        <v>0.145753</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185429</v>
+        <v>0.185435</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185628</v>
+        <v>0.185734</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07045360000000001</v>
+        <v>0.07077899999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157262</v>
+        <v>0.157595</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16474</v>
+        <v>0.164275</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07070419999999999</v>
+        <v>0.07113129999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157496</v>
+        <v>0.157603</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16507</v>
+        <v>0.164877</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0714682</v>
+        <v>0.0704023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158821</v>
+        <v>0.158588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164896</v>
+        <v>0.164888</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0702752</v>
+        <v>0.070294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158324</v>
+        <v>0.15889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164392</v>
+        <v>0.164042</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06993770000000001</v>
+        <v>0.0694813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158998</v>
+        <v>0.158202</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163231</v>
+        <v>0.163904</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06905749999999999</v>
+        <v>0.06888569999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159242</v>
+        <v>0.159038</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162999</v>
+        <v>0.163192</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0683986</v>
+        <v>0.0696403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159326</v>
+        <v>0.159221</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162081</v>
+        <v>0.16233</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0685336</v>
+        <v>0.0688865</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159352</v>
+        <v>0.159248</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177535</v>
+        <v>0.17759</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.115316</v>
+        <v>0.120712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164987</v>
+        <v>0.164726</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176899</v>
+        <v>0.176595</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.119411</v>
+        <v>0.119225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165332</v>
+        <v>0.165221</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176957</v>
+        <v>0.176336</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117095</v>
+        <v>0.117734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164942</v>
+        <v>0.165461</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175678</v>
+        <v>0.175402</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.117579</v>
+        <v>0.113973</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164505</v>
+        <v>0.164814</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175155</v>
+        <v>0.175354</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.113298</v>
+        <v>0.112684</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165047</v>
+        <v>0.165262</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173942</v>
+        <v>0.173853</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.110648</v>
+        <v>0.110578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164699</v>
+        <v>0.164375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173511</v>
+        <v>0.173328</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.107531</v>
+        <v>0.107071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165026</v>
+        <v>0.165585</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172467</v>
+        <v>0.172559</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.106314</v>
+        <v>0.104354</v>
       </c>
       <c r="C17" t="n">
-        <v>0.165357</v>
+        <v>0.164987</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172035</v>
+        <v>0.17166</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.101676</v>
+        <v>0.101941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.165443</v>
+        <v>0.163844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1707</v>
+        <v>0.170713</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09934510000000001</v>
+        <v>0.0995833</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164658</v>
+        <v>0.164889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.169571</v>
+        <v>0.171522</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0963671</v>
+        <v>0.094261</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165435</v>
+        <v>0.165269</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169643</v>
+        <v>0.170409</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0935897</v>
+        <v>0.0940481</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166551</v>
+        <v>0.167852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168041</v>
+        <v>0.168527</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0898</v>
+        <v>0.09053410000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167331</v>
+        <v>0.167112</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166923</v>
+        <v>0.167849</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0861418</v>
+        <v>0.084346</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165852</v>
+        <v>0.166701</v>
       </c>
       <c r="D23" t="n">
-        <v>0.184497</v>
+        <v>0.186192</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.148727</v>
+        <v>0.149115</v>
       </c>
       <c r="C24" t="n">
-        <v>0.177962</v>
+        <v>0.177585</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183583</v>
+        <v>0.183454</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.14574</v>
+        <v>0.146234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175541</v>
+        <v>0.177471</v>
       </c>
       <c r="D25" t="n">
-        <v>0.181978</v>
+        <v>0.182335</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.143445</v>
+        <v>0.142463</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175855</v>
+        <v>0.176464</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180895</v>
+        <v>0.18195</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138795</v>
+        <v>0.138149</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175527</v>
+        <v>0.175864</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179993</v>
+        <v>0.180029</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134099</v>
+        <v>0.134322</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174575</v>
+        <v>0.175017</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178555</v>
+        <v>0.178823</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.131255</v>
+        <v>0.130146</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173497</v>
+        <v>0.174103</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177541</v>
+        <v>0.177265</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126817</v>
+        <v>0.126229</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173699</v>
+        <v>0.173018</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175989</v>
+        <v>0.175846</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.123236</v>
+        <v>0.122246</v>
       </c>
       <c r="C31" t="n">
-        <v>0.17262</v>
+        <v>0.172087</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174779</v>
+        <v>0.174962</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.11866</v>
+        <v>0.118275</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171362</v>
+        <v>0.171834</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173597</v>
+        <v>0.174047</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114599</v>
+        <v>0.113975</v>
       </c>
       <c r="C33" t="n">
-        <v>0.17041</v>
+        <v>0.170911</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172099</v>
+        <v>0.172169</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.110335</v>
+        <v>0.109801</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170704</v>
+        <v>0.170041</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170942</v>
+        <v>0.171452</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105838</v>
+        <v>0.105068</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169536</v>
+        <v>0.169891</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169423</v>
+        <v>0.169789</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.099839</v>
+        <v>0.100117</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168354</v>
+        <v>0.169057</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168092</v>
+        <v>0.167963</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0949001</v>
+        <v>0.0945597</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168591</v>
+        <v>0.168482</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186675</v>
+        <v>0.187387</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157181</v>
+        <v>0.157538</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182842</v>
+        <v>0.182456</v>
       </c>
       <c r="D38" t="n">
-        <v>0.184816</v>
+        <v>0.185543</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154047</v>
+        <v>0.154122</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181012</v>
+        <v>0.180549</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183996</v>
+        <v>0.183881</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150474</v>
+        <v>0.150409</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179975</v>
+        <v>0.179631</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182802</v>
+        <v>0.182301</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146426</v>
+        <v>0.146163</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179007</v>
+        <v>0.178602</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181224</v>
+        <v>0.181182</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.141816</v>
+        <v>0.142085</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177786</v>
+        <v>0.177419</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179733</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.13727</v>
+        <v>0.137657</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177217</v>
+        <v>0.176901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178297</v>
+        <v>0.17831</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.132586</v>
+        <v>0.133388</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175348</v>
+        <v>0.17574</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177125</v>
+        <v>0.177336</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.127782</v>
+        <v>0.128742</v>
       </c>
       <c r="C45" t="n">
-        <v>0.175112</v>
+        <v>0.174408</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175925</v>
+        <v>0.175972</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123437</v>
+        <v>0.123487</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173971</v>
+        <v>0.173815</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174607</v>
+        <v>0.174631</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118637</v>
+        <v>0.118946</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173139</v>
+        <v>0.172676</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173171</v>
+        <v>0.17325</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113957</v>
+        <v>0.114018</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172069</v>
+        <v>0.171924</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171835</v>
+        <v>0.171847</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109179</v>
+        <v>0.109057</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171092</v>
+        <v>0.171111</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170392</v>
+        <v>0.17031</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104356</v>
+        <v>0.104417</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169994</v>
+        <v>0.169987</v>
       </c>
       <c r="D50" t="n">
-        <v>0.16883</v>
+        <v>0.169199</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0991161</v>
+        <v>0.0991128</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169382</v>
+        <v>0.169272</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187595</v>
+        <v>0.187613</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0939878</v>
+        <v>0.0937684</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167791</v>
+        <v>0.167371</v>
       </c>
       <c r="D52" t="n">
-        <v>0.186221</v>
+        <v>0.186292</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.157821</v>
+        <v>0.157607</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182607</v>
+        <v>0.182728</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184661</v>
+        <v>0.184656</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1545</v>
+        <v>0.154173</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181295</v>
+        <v>0.1815</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183055</v>
+        <v>0.183091</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150362</v>
+        <v>0.149949</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180228</v>
+        <v>0.180161</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181771</v>
+        <v>0.181829</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145962</v>
+        <v>0.145246</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179085</v>
+        <v>0.17888</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180473</v>
+        <v>0.180376</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141208</v>
+        <v>0.140479</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177965</v>
+        <v>0.177707</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179118</v>
+        <v>0.178852</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.13628</v>
+        <v>0.135592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176828</v>
+        <v>0.176763</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177744</v>
+        <v>0.177506</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13158</v>
+        <v>0.131067</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175927</v>
+        <v>0.175635</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176383</v>
+        <v>0.176134</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126478</v>
+        <v>0.125971</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174717</v>
+        <v>0.17426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175055</v>
+        <v>0.175012</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.12165</v>
+        <v>0.12137</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173554</v>
+        <v>0.17362</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173665</v>
+        <v>0.173643</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116714</v>
+        <v>0.116612</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172597</v>
+        <v>0.172797</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17236</v>
+        <v>0.17235</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111783</v>
+        <v>0.11165</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171511</v>
+        <v>0.17202</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1709</v>
+        <v>0.17104</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106784</v>
+        <v>0.106609</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170638</v>
+        <v>0.170482</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169629</v>
+        <v>0.169759</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101753</v>
+        <v>0.101806</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169463</v>
+        <v>0.169772</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168417</v>
+        <v>0.168435</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0970312</v>
+        <v>0.09680759999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1683</v>
+        <v>0.168421</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186704</v>
+        <v>0.186792</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160122</v>
+        <v>0.160542</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183257</v>
+        <v>0.183709</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185108</v>
+        <v>0.185398</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156211</v>
+        <v>0.156437</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182153</v>
+        <v>0.182276</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183662</v>
+        <v>0.183872</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151976</v>
+        <v>0.1527</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180837</v>
+        <v>0.181059</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182171</v>
+        <v>0.18245</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147576</v>
+        <v>0.148034</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179706</v>
+        <v>0.179888</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180802</v>
+        <v>0.180991</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14303</v>
+        <v>0.143522</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178514</v>
+        <v>0.17867</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179594</v>
+        <v>0.179681</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.13817</v>
+        <v>0.138642</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177458</v>
+        <v>0.177477</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178321</v>
+        <v>0.178265</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132883</v>
+        <v>0.133681</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176461</v>
+        <v>0.176258</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176962</v>
+        <v>0.17689</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.12812</v>
+        <v>0.12863</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175261</v>
+        <v>0.175142</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175648</v>
+        <v>0.175546</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123306</v>
+        <v>0.123675</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174177</v>
+        <v>0.174169</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174374</v>
+        <v>0.174376</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1184</v>
+        <v>0.118635</v>
       </c>
       <c r="C76" t="n">
-        <v>0.17318</v>
+        <v>0.173185</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173182</v>
+        <v>0.173206</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.11366</v>
+        <v>0.113679</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17219</v>
+        <v>0.172017</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171918</v>
+        <v>0.171956</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108842</v>
+        <v>0.108603</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171127</v>
+        <v>0.170937</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170612</v>
+        <v>0.170672</v>
       </c>
     </row>
     <row r="79">
@@ -4330,10 +4330,10 @@
         <v>0.103776</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170025</v>
+        <v>0.169985</v>
       </c>
       <c r="D79" t="n">
-        <v>0.16939</v>
+        <v>0.169481</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0990593</v>
+        <v>0.09886200000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168936</v>
+        <v>0.169</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187345</v>
+        <v>0.187192</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161547</v>
+        <v>0.161533</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183887</v>
+        <v>0.184009</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185764</v>
+        <v>0.18567</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157626</v>
+        <v>0.157395</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18253</v>
+        <v>0.182696</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184223</v>
+        <v>0.184245</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153261</v>
+        <v>0.153239</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181302</v>
+        <v>0.181344</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182805</v>
+        <v>0.182744</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148564</v>
+        <v>0.148803</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180042</v>
+        <v>0.180098</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181314</v>
+        <v>0.181297</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143654</v>
+        <v>0.144137</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178817</v>
+        <v>0.178816</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179996</v>
+        <v>0.180016</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138818</v>
+        <v>0.138932</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177687</v>
+        <v>0.177677</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178685</v>
+        <v>0.178655</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133951</v>
+        <v>0.133991</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176564</v>
+        <v>0.176506</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177381</v>
+        <v>0.177332</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129021</v>
+        <v>0.128876</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175397</v>
+        <v>0.17539</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176093</v>
+        <v>0.176121</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124199</v>
+        <v>0.124077</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174295</v>
+        <v>0.17434</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174903</v>
+        <v>0.174895</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119123</v>
+        <v>0.119084</v>
       </c>
       <c r="C90" t="n">
-        <v>0.17318</v>
+        <v>0.173255</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173829</v>
+        <v>0.173813</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114184</v>
+        <v>0.114041</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172175</v>
+        <v>0.172159</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172577</v>
+        <v>0.17257</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109331</v>
+        <v>0.109299</v>
       </c>
       <c r="C92" t="n">
-        <v>0.17119</v>
+        <v>0.171169</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171235</v>
+        <v>0.17128</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104352</v>
+        <v>0.104437</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170088</v>
+        <v>0.170118</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169962</v>
+        <v>0.170012</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0995288</v>
+        <v>0.09952800000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168981</v>
+        <v>0.169055</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187648</v>
+        <v>0.187531</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162453</v>
+        <v>0.162508</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184513</v>
+        <v>0.184425</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186074</v>
+        <v>0.186032</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158536</v>
+        <v>0.158604</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18312</v>
+        <v>0.183167</v>
       </c>
       <c r="D96" t="n">
-        <v>0.18452</v>
+        <v>0.184528</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154346</v>
+        <v>0.154427</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181793</v>
+        <v>0.181777</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183056</v>
+        <v>0.183058</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.15029</v>
+        <v>0.149784</v>
       </c>
       <c r="C98" t="n">
-        <v>0.18059</v>
+        <v>0.180554</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181683</v>
+        <v>0.181634</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145357</v>
+        <v>0.14495</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1793</v>
+        <v>0.179339</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180334</v>
+        <v>0.180306</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140154</v>
+        <v>0.139979</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178059</v>
+        <v>0.178051</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178972</v>
+        <v>0.178955</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135191</v>
+        <v>0.135076</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176962</v>
+        <v>0.176915</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177737</v>
+        <v>0.177649</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130378</v>
+        <v>0.129968</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175738</v>
+        <v>0.175728</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176475</v>
+        <v>0.176421</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125272</v>
+        <v>0.124929</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174676</v>
+        <v>0.174658</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175272</v>
+        <v>0.175201</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120269</v>
+        <v>0.120071</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173513</v>
+        <v>0.173589</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174102</v>
+        <v>0.174051</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115091</v>
+        <v>0.115044</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172455</v>
+        <v>0.172472</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17284</v>
+        <v>0.172777</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110241</v>
+        <v>0.110153</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17145</v>
+        <v>0.17141</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171565</v>
+        <v>0.171615</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105371</v>
+        <v>0.105405</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170313</v>
+        <v>0.17041</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170415</v>
+        <v>0.170284</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100485</v>
+        <v>0.100463</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169298</v>
+        <v>0.16924</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188082</v>
+        <v>0.188029</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955014</v>
+        <v>0.09553830000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168238</v>
+        <v>0.16799</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186417</v>
+        <v>0.186206</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159364</v>
+        <v>0.159134</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1835</v>
+        <v>0.183335</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184908</v>
+        <v>0.184687</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155406</v>
+        <v>0.154903</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182182</v>
+        <v>0.181986</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183442</v>
+        <v>0.183207</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150898</v>
+        <v>0.150566</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180952</v>
+        <v>0.180653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182046</v>
+        <v>0.181782</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146342</v>
+        <v>0.145901</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179643</v>
+        <v>0.179462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180598</v>
+        <v>0.180419</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14098</v>
+        <v>0.141185</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178424</v>
+        <v>0.178286</v>
       </c>
       <c r="D114" t="n">
-        <v>0.17931</v>
+        <v>0.179247</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135995</v>
+        <v>0.136123</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177209</v>
+        <v>0.177264</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177966</v>
+        <v>0.177938</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131134</v>
+        <v>0.131112</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176045</v>
+        <v>0.176077</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176718</v>
+        <v>0.176804</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12603</v>
+        <v>0.125893</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17491</v>
+        <v>0.174955</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175411</v>
+        <v>0.175548</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120929</v>
+        <v>0.120948</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173675</v>
+        <v>0.173838</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174118</v>
+        <v>0.17426</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11602</v>
+        <v>0.116033</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172586</v>
+        <v>0.1728</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172858</v>
+        <v>0.172997</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111122</v>
+        <v>0.111256</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171535</v>
+        <v>0.171664</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171691</v>
+        <v>0.17174</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106285</v>
+        <v>0.10639</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170565</v>
+        <v>0.170593</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170592</v>
+        <v>0.170516</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101438</v>
+        <v>0.101447</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169568</v>
+        <v>0.169563</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169238</v>
+        <v>0.169263</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965409</v>
+        <v>0.09658269999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.16847</v>
+        <v>0.168448</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186697</v>
+        <v>0.186729</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169567</v>
+        <v>0.169886</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183884</v>
+        <v>0.183863</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185143</v>
+        <v>0.185077</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165455</v>
+        <v>0.165037</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182461</v>
+        <v>0.182417</v>
       </c>
       <c r="D125" t="n">
-        <v>0.18374</v>
+        <v>0.183634</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160391</v>
+        <v>0.160517</v>
       </c>
       <c r="C126" t="n">
-        <v>0.18121</v>
+        <v>0.181149</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182212</v>
+        <v>0.182201</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155318</v>
+        <v>0.155313</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179857</v>
+        <v>0.17989</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180853</v>
+        <v>0.180917</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.150064</v>
+        <v>0.150286</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178639</v>
+        <v>0.178635</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179489</v>
+        <v>0.179529</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14457</v>
+        <v>0.144699</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177457</v>
+        <v>0.177471</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178297</v>
+        <v>0.178256</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139271</v>
+        <v>0.139137</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176323</v>
+        <v>0.176334</v>
       </c>
       <c r="D130" t="n">
-        <v>0.17695</v>
+        <v>0.177021</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13363</v>
+        <v>0.133817</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175166</v>
+        <v>0.175229</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175757</v>
+        <v>0.175771</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1284</v>
+        <v>0.128599</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174045</v>
+        <v>0.17411</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174554</v>
+        <v>0.174484</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123231</v>
+        <v>0.123247</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173021</v>
+        <v>0.173004</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173253</v>
+        <v>0.173291</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118072</v>
+        <v>0.118188</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171997</v>
+        <v>0.171996</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172094</v>
+        <v>0.172106</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113181</v>
+        <v>0.113138</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17075</v>
+        <v>0.170848</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170879</v>
+        <v>0.17078</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107958</v>
+        <v>0.107918</v>
       </c>
       <c r="C136" t="n">
-        <v>0.16979</v>
+        <v>0.169751</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169548</v>
+        <v>0.169563</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102867</v>
+        <v>0.102854</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168639</v>
+        <v>0.168623</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196501</v>
+        <v>0.196441</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170566</v>
+        <v>0.170579</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194265</v>
+        <v>0.194313</v>
       </c>
       <c r="D138" t="n">
-        <v>0.19435</v>
+        <v>0.194122</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16614</v>
+        <v>0.166426</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192237</v>
+        <v>0.192149</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192526</v>
+        <v>0.192371</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161461</v>
+        <v>0.161807</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190251</v>
+        <v>0.190228</v>
       </c>
       <c r="D140" t="n">
-        <v>0.19072</v>
+        <v>0.190481</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15606</v>
+        <v>0.156596</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188583</v>
+        <v>0.188538</v>
       </c>
       <c r="D141" t="n">
-        <v>0.188948</v>
+        <v>0.188845</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151199</v>
+        <v>0.151241</v>
       </c>
       <c r="C142" t="n">
-        <v>0.187018</v>
+        <v>0.186911</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187167</v>
+        <v>0.187146</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145753</v>
+        <v>0.145589</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185435</v>
+        <v>0.185468</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185734</v>
+        <v>0.185632</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07077899999999999</v>
+        <v>0.0645949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157595</v>
+        <v>0.157141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164275</v>
+        <v>0.162325</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07113129999999999</v>
+        <v>0.0646557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157603</v>
+        <v>0.157335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164877</v>
+        <v>0.162401</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0704023</v>
+        <v>0.06428540000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158588</v>
+        <v>0.158993</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164888</v>
+        <v>0.163097</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.070294</v>
+        <v>0.0642614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15889</v>
+        <v>0.158974</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164042</v>
+        <v>0.162281</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0694813</v>
+        <v>0.06450599999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158202</v>
+        <v>0.158664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163904</v>
+        <v>0.162544</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06888569999999999</v>
+        <v>0.064799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159038</v>
+        <v>0.158266</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163192</v>
+        <v>0.162877</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0696403</v>
+        <v>0.0653407</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159221</v>
+        <v>0.158477</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16233</v>
+        <v>0.162291</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0688865</v>
+        <v>0.0659107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159248</v>
+        <v>0.158152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17759</v>
+        <v>0.161381</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.120712</v>
+        <v>0.0916153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164726</v>
+        <v>0.165111</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176595</v>
+        <v>0.17446</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.119225</v>
+        <v>0.0915971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165221</v>
+        <v>0.164859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176336</v>
+        <v>0.17444</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117734</v>
+        <v>0.09094919999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165461</v>
+        <v>0.164975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175402</v>
+        <v>0.173542</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.113973</v>
+        <v>0.0909866</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164814</v>
+        <v>0.164939</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175354</v>
+        <v>0.172928</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.112684</v>
+        <v>0.09112580000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165262</v>
+        <v>0.165007</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173853</v>
+        <v>0.172528</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.110578</v>
+        <v>0.0894943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164375</v>
+        <v>0.164794</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173328</v>
+        <v>0.172193</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.107071</v>
+        <v>0.0878082</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165585</v>
+        <v>0.164925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172559</v>
+        <v>0.171851</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.104354</v>
+        <v>0.08768529999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164987</v>
+        <v>0.164288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.17166</v>
+        <v>0.171017</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.101941</v>
+        <v>0.0862192</v>
       </c>
       <c r="C18" t="n">
-        <v>0.163844</v>
+        <v>0.16475</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170713</v>
+        <v>0.170463</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0995833</v>
+        <v>0.0863247</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164889</v>
+        <v>0.165535</v>
       </c>
       <c r="D19" t="n">
-        <v>0.171522</v>
+        <v>0.170737</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.094261</v>
+        <v>0.0860609</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165269</v>
+        <v>0.165471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.170409</v>
+        <v>0.17092</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0940481</v>
+        <v>0.0834217</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167852</v>
+        <v>0.166002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168527</v>
+        <v>0.170118</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09053410000000001</v>
+        <v>0.0817696</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167112</v>
+        <v>0.166087</v>
       </c>
       <c r="D22" t="n">
-        <v>0.167849</v>
+        <v>0.168518</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.084346</v>
+        <v>0.0800017</v>
       </c>
       <c r="C23" t="n">
-        <v>0.166701</v>
+        <v>0.164157</v>
       </c>
       <c r="D23" t="n">
-        <v>0.186192</v>
+        <v>0.167236</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.149115</v>
+        <v>0.135561</v>
       </c>
       <c r="C24" t="n">
-        <v>0.177585</v>
+        <v>0.177786</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183454</v>
+        <v>0.183476</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.146234</v>
+        <v>0.133448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177471</v>
+        <v>0.177046</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182335</v>
+        <v>0.182464</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142463</v>
+        <v>0.129313</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176464</v>
+        <v>0.176164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.18195</v>
+        <v>0.18112</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138149</v>
+        <v>0.125882</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175864</v>
+        <v>0.176861</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180029</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134322</v>
+        <v>0.12271</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175017</v>
+        <v>0.174618</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178823</v>
+        <v>0.179661</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.130146</v>
+        <v>0.12015</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174103</v>
+        <v>0.175957</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177265</v>
+        <v>0.17808</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126229</v>
+        <v>0.117548</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173018</v>
+        <v>0.175169</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175846</v>
+        <v>0.176698</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122246</v>
+        <v>0.114303</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172087</v>
+        <v>0.172985</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174962</v>
+        <v>0.175187</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118275</v>
+        <v>0.11148</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171834</v>
+        <v>0.171911</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174047</v>
+        <v>0.174597</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.113975</v>
+        <v>0.107939</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170911</v>
+        <v>0.170955</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172169</v>
+        <v>0.173436</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109801</v>
+        <v>0.104333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170041</v>
+        <v>0.171234</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171452</v>
+        <v>0.172469</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105068</v>
+        <v>0.0995138</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169891</v>
+        <v>0.170083</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169789</v>
+        <v>0.170744</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100117</v>
+        <v>0.0948341</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169057</v>
+        <v>0.168168</v>
       </c>
       <c r="D36" t="n">
-        <v>0.167963</v>
+        <v>0.170005</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0945597</v>
+        <v>0.0906212</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168482</v>
+        <v>0.168522</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187387</v>
+        <v>0.168158</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157538</v>
+        <v>0.153831</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182456</v>
+        <v>0.182013</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185543</v>
+        <v>0.18485</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154122</v>
+        <v>0.150369</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180549</v>
+        <v>0.180855</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183881</v>
+        <v>0.183383</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150409</v>
+        <v>0.146624</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179631</v>
+        <v>0.179402</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182301</v>
+        <v>0.18193</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146163</v>
+        <v>0.142983</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178602</v>
+        <v>0.17917</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181182</v>
+        <v>0.180779</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142085</v>
+        <v>0.13919</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177419</v>
+        <v>0.178268</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179626</v>
+        <v>0.182545</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137657</v>
+        <v>0.139206</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176901</v>
+        <v>0.182657</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17831</v>
+        <v>0.185084</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133388</v>
+        <v>0.135686</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17574</v>
+        <v>0.181695</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177336</v>
+        <v>0.177362</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128742</v>
+        <v>0.126613</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174408</v>
+        <v>0.174202</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175972</v>
+        <v>0.176227</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123487</v>
+        <v>0.121812</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173815</v>
+        <v>0.174083</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174631</v>
+        <v>0.17504</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118946</v>
+        <v>0.11694</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172676</v>
+        <v>0.172583</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17325</v>
+        <v>0.173793</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114018</v>
+        <v>0.112329</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171924</v>
+        <v>0.171931</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171847</v>
+        <v>0.172656</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109057</v>
+        <v>0.107631</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171111</v>
+        <v>0.171215</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17031</v>
+        <v>0.17142</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104417</v>
+        <v>0.102954</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169987</v>
+        <v>0.169998</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169199</v>
+        <v>0.170534</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0991128</v>
+        <v>0.0982022</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169272</v>
+        <v>0.169071</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187613</v>
+        <v>0.169065</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0937684</v>
+        <v>0.0932909</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167371</v>
+        <v>0.167671</v>
       </c>
       <c r="D52" t="n">
-        <v>0.186292</v>
+        <v>0.167906</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.157607</v>
+        <v>0.156507</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182728</v>
+        <v>0.18275</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184656</v>
+        <v>0.184527</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154173</v>
+        <v>0.152369</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1815</v>
+        <v>0.181306</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183091</v>
+        <v>0.183244</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149949</v>
+        <v>0.148652</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180161</v>
+        <v>0.180097</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181829</v>
+        <v>0.182008</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145246</v>
+        <v>0.144343</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17888</v>
+        <v>0.178599</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180376</v>
+        <v>0.180657</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140479</v>
+        <v>0.139908</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177707</v>
+        <v>0.17783</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178852</v>
+        <v>0.179369</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135592</v>
+        <v>0.134946</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176763</v>
+        <v>0.176773</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177506</v>
+        <v>0.177964</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131067</v>
+        <v>0.130446</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175635</v>
+        <v>0.175657</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176134</v>
+        <v>0.176811</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125971</v>
+        <v>0.12554</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17426</v>
+        <v>0.174661</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175012</v>
+        <v>0.175493</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.12137</v>
+        <v>0.120696</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17362</v>
+        <v>0.173588</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173643</v>
+        <v>0.174326</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116612</v>
+        <v>0.115743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172797</v>
+        <v>0.172741</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17235</v>
+        <v>0.173123</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11165</v>
+        <v>0.110916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17202</v>
+        <v>0.171749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.17104</v>
+        <v>0.172149</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106609</v>
+        <v>0.106064</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170482</v>
+        <v>0.170586</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169759</v>
+        <v>0.170892</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101806</v>
+        <v>0.101212</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169772</v>
+        <v>0.169447</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168435</v>
+        <v>0.169669</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09680759999999999</v>
+        <v>0.0965969</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168421</v>
+        <v>0.168531</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186792</v>
+        <v>0.168723</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160542</v>
+        <v>0.16091</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183709</v>
+        <v>0.183437</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185398</v>
+        <v>0.185428</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156437</v>
+        <v>0.157028</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182276</v>
+        <v>0.1825</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183872</v>
+        <v>0.183986</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1527</v>
+        <v>0.15241</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181059</v>
+        <v>0.181122</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18245</v>
+        <v>0.182479</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.148034</v>
+        <v>0.147991</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179888</v>
+        <v>0.18005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180991</v>
+        <v>0.181181</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143522</v>
+        <v>0.143902</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17867</v>
+        <v>0.178882</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179681</v>
+        <v>0.179796</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138642</v>
+        <v>0.137833</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177477</v>
+        <v>0.177559</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178265</v>
+        <v>0.178527</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133681</v>
+        <v>0.133127</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176258</v>
+        <v>0.176466</v>
       </c>
       <c r="D73" t="n">
-        <v>0.17689</v>
+        <v>0.177365</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.12863</v>
+        <v>0.128266</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175142</v>
+        <v>0.17532</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175546</v>
+        <v>0.176137</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123675</v>
+        <v>0.123459</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174169</v>
+        <v>0.174321</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174376</v>
+        <v>0.174804</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118635</v>
+        <v>0.118628</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173185</v>
+        <v>0.173135</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173206</v>
+        <v>0.173655</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113679</v>
+        <v>0.113788</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172017</v>
+        <v>0.172196</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171956</v>
+        <v>0.172399</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108603</v>
+        <v>0.108873</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170937</v>
+        <v>0.171292</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170672</v>
+        <v>0.171251</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103776</v>
+        <v>0.10389</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169985</v>
+        <v>0.170135</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169481</v>
+        <v>0.170049</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09886200000000001</v>
+        <v>0.09908110000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169</v>
+        <v>0.169088</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187192</v>
+        <v>0.168794</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161533</v>
+        <v>0.161445</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184009</v>
+        <v>0.184025</v>
       </c>
       <c r="D81" t="n">
-        <v>0.18567</v>
+        <v>0.185567</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157395</v>
+        <v>0.157736</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182696</v>
+        <v>0.182664</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184245</v>
+        <v>0.183944</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153239</v>
+        <v>0.153261</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181344</v>
+        <v>0.181429</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182744</v>
+        <v>0.182755</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148803</v>
+        <v>0.148644</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180098</v>
+        <v>0.180202</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181297</v>
+        <v>0.181308</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144137</v>
+        <v>0.143864</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178816</v>
+        <v>0.178921</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180016</v>
+        <v>0.179958</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138932</v>
+        <v>0.139166</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177677</v>
+        <v>0.177729</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178655</v>
+        <v>0.178663</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133991</v>
+        <v>0.134094</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176506</v>
+        <v>0.176601</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177332</v>
+        <v>0.177461</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128876</v>
+        <v>0.129024</v>
       </c>
       <c r="C88" t="n">
-        <v>0.17539</v>
+        <v>0.175485</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176121</v>
+        <v>0.176212</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124077</v>
+        <v>0.124032</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17434</v>
+        <v>0.174385</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174895</v>
+        <v>0.174965</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119084</v>
+        <v>0.119052</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173255</v>
+        <v>0.173328</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173813</v>
+        <v>0.173777</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114041</v>
+        <v>0.113945</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172159</v>
+        <v>0.172234</v>
       </c>
       <c r="D91" t="n">
-        <v>0.17257</v>
+        <v>0.172703</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109299</v>
+        <v>0.109293</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171169</v>
+        <v>0.171128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.17128</v>
+        <v>0.171293</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104437</v>
+        <v>0.104193</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170118</v>
+        <v>0.170007</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170012</v>
+        <v>0.169903</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09952800000000001</v>
+        <v>0.0991713</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169055</v>
+        <v>0.168903</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187531</v>
+        <v>0.168667</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162508</v>
+        <v>0.162192</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184425</v>
+        <v>0.184305</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186032</v>
+        <v>0.185834</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158604</v>
+        <v>0.159797</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183167</v>
+        <v>0.190322</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184528</v>
+        <v>0.192212</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154427</v>
+        <v>0.161445</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181777</v>
+        <v>0.189997</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183058</v>
+        <v>0.191161</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149784</v>
+        <v>0.156711</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180554</v>
+        <v>0.188496</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181634</v>
+        <v>0.18704</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14495</v>
+        <v>0.14493</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179339</v>
+        <v>0.179321</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180306</v>
+        <v>0.1803</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139979</v>
+        <v>0.1402</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178051</v>
+        <v>0.178202</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178955</v>
+        <v>0.179073</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135076</v>
+        <v>0.134989</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176915</v>
+        <v>0.176976</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177649</v>
+        <v>0.177804</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129968</v>
+        <v>0.130167</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175728</v>
+        <v>0.175879</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176421</v>
+        <v>0.17655</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124929</v>
+        <v>0.125077</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174658</v>
+        <v>0.175189</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175201</v>
+        <v>0.175387</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120071</v>
+        <v>0.120189</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173589</v>
+        <v>0.173632</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174051</v>
+        <v>0.174078</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115044</v>
+        <v>0.115333</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172472</v>
+        <v>0.172597</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172777</v>
+        <v>0.17283</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110153</v>
+        <v>0.110288</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17141</v>
+        <v>0.171479</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171615</v>
+        <v>0.171663</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105405</v>
+        <v>0.105424</v>
       </c>
       <c r="C107" t="n">
-        <v>0.17041</v>
+        <v>0.170469</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170284</v>
+        <v>0.170413</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100463</v>
+        <v>0.100465</v>
       </c>
       <c r="C108" t="n">
-        <v>0.16924</v>
+        <v>0.169417</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188029</v>
+        <v>0.169174</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09553830000000001</v>
+        <v>0.0955459</v>
       </c>
       <c r="C109" t="n">
-        <v>0.16799</v>
+        <v>0.168253</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186206</v>
+        <v>0.167875</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159134</v>
+        <v>0.159779</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183335</v>
+        <v>0.183576</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184687</v>
+        <v>0.184796</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.154903</v>
+        <v>0.155385</v>
       </c>
       <c r="C111" t="n">
-        <v>0.181986</v>
+        <v>0.182161</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183207</v>
+        <v>0.183406</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150566</v>
+        <v>0.150683</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180653</v>
+        <v>0.18091</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181782</v>
+        <v>0.182038</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145901</v>
+        <v>0.146066</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179462</v>
+        <v>0.179697</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180419</v>
+        <v>0.180587</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141185</v>
+        <v>0.14116</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178286</v>
+        <v>0.178517</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179247</v>
+        <v>0.179279</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136123</v>
+        <v>0.136001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177264</v>
+        <v>0.177381</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177938</v>
+        <v>0.178064</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131112</v>
+        <v>0.131077</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176077</v>
+        <v>0.176156</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176804</v>
+        <v>0.17672</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125893</v>
+        <v>0.126098</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174955</v>
+        <v>0.175011</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175548</v>
+        <v>0.175492</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120948</v>
+        <v>0.121183</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173838</v>
+        <v>0.173958</v>
       </c>
       <c r="D118" t="n">
-        <v>0.17426</v>
+        <v>0.174367</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116033</v>
+        <v>0.116169</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1728</v>
+        <v>0.172818</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172997</v>
+        <v>0.173163</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111256</v>
+        <v>0.111168</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171664</v>
+        <v>0.171831</v>
       </c>
       <c r="D120" t="n">
-        <v>0.17174</v>
+        <v>0.171977</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10639</v>
+        <v>0.106345</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170593</v>
+        <v>0.170777</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170516</v>
+        <v>0.170655</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101447</v>
+        <v>0.101492</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169563</v>
+        <v>0.169626</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169263</v>
+        <v>0.169478</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09658269999999999</v>
+        <v>0.0966017</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168448</v>
+        <v>0.168583</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186729</v>
+        <v>0.168154</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169886</v>
+        <v>0.160544</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183863</v>
+        <v>0.183951</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185077</v>
+        <v>0.18522</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165037</v>
+        <v>0.156546</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182417</v>
+        <v>0.182592</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183634</v>
+        <v>0.183794</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160517</v>
+        <v>0.152074</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181149</v>
+        <v>0.181218</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182201</v>
+        <v>0.182248</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155313</v>
+        <v>0.147169</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17989</v>
+        <v>0.179995</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180917</v>
+        <v>0.180936</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.150286</v>
+        <v>0.142333</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178635</v>
+        <v>0.178653</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179529</v>
+        <v>0.179567</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144699</v>
+        <v>0.137447</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177471</v>
+        <v>0.17753</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178256</v>
+        <v>0.178294</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139137</v>
+        <v>0.1324</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176334</v>
+        <v>0.176399</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177021</v>
+        <v>0.177064</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133817</v>
+        <v>0.127386</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175229</v>
+        <v>0.175309</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175771</v>
+        <v>0.175844</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128599</v>
+        <v>0.122169</v>
       </c>
       <c r="C132" t="n">
-        <v>0.17411</v>
+        <v>0.174156</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174484</v>
+        <v>0.174608</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123247</v>
+        <v>0.117291</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173004</v>
+        <v>0.173078</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173291</v>
+        <v>0.173368</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118188</v>
+        <v>0.112337</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171996</v>
+        <v>0.172044</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172106</v>
+        <v>0.172133</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113138</v>
+        <v>0.107407</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170848</v>
+        <v>0.17094</v>
       </c>
       <c r="D135" t="n">
-        <v>0.17078</v>
+        <v>0.17098</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107918</v>
+        <v>0.102416</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169751</v>
+        <v>0.169924</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169563</v>
+        <v>0.169672</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102854</v>
+        <v>0.0974979</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168623</v>
+        <v>0.168776</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196441</v>
+        <v>0.168491</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170579</v>
+        <v>0.161419</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194313</v>
+        <v>0.184189</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194122</v>
+        <v>0.185419</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166426</v>
+        <v>0.173678</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192149</v>
+        <v>0.199232</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192371</v>
+        <v>0.205391</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161807</v>
+        <v>0.168098</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190228</v>
+        <v>0.199757</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190481</v>
+        <v>0.200691</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156596</v>
+        <v>0.160652</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188538</v>
+        <v>0.197381</v>
       </c>
       <c r="D141" t="n">
-        <v>0.188845</v>
+        <v>0.193458</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151241</v>
+        <v>0.156052</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186911</v>
+        <v>0.188445</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187146</v>
+        <v>0.196328</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145589</v>
+        <v>0.14707</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185468</v>
+        <v>0.184845</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185632</v>
+        <v>0.182955</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0645949</v>
+        <v>0.06442920000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157141</v>
+        <v>0.157558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.162325</v>
+        <v>0.162712</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0646557</v>
+        <v>0.0641737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157335</v>
+        <v>0.157463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.162401</v>
+        <v>0.162163</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06428540000000001</v>
+        <v>0.0637839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158993</v>
+        <v>0.158343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.163097</v>
+        <v>0.162668</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0642614</v>
+        <v>0.0640896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158974</v>
+        <v>0.158411</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162281</v>
+        <v>0.16213</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06450599999999999</v>
+        <v>0.0643333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158664</v>
+        <v>0.157977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162544</v>
+        <v>0.162501</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.064799</v>
+        <v>0.0643606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158266</v>
+        <v>0.158917</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162877</v>
+        <v>0.162648</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0653407</v>
+        <v>0.064706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158477</v>
+        <v>0.158685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162291</v>
+        <v>0.162497</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0659107</v>
+        <v>0.0655708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158152</v>
+        <v>0.158246</v>
       </c>
       <c r="D9" t="n">
-        <v>0.161381</v>
+        <v>0.161324</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0916153</v>
+        <v>0.0922818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.165111</v>
+        <v>0.164757</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17446</v>
+        <v>0.174273</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0915971</v>
+        <v>0.0918007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164859</v>
+        <v>0.165861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17444</v>
+        <v>0.173932</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09094919999999999</v>
+        <v>0.090667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164975</v>
+        <v>0.165202</v>
       </c>
       <c r="D12" t="n">
-        <v>0.173542</v>
+        <v>0.173607</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0909866</v>
+        <v>0.09116440000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164939</v>
+        <v>0.165122</v>
       </c>
       <c r="D13" t="n">
-        <v>0.172928</v>
+        <v>0.173202</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09112580000000001</v>
+        <v>0.0912309</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165007</v>
+        <v>0.164645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.172528</v>
+        <v>0.172477</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0894943</v>
+        <v>0.0895905</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164794</v>
+        <v>0.164633</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172193</v>
+        <v>0.172297</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0878082</v>
+        <v>0.08970400000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164925</v>
+        <v>0.164908</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171851</v>
+        <v>0.17182</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08768529999999999</v>
+        <v>0.0877481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164288</v>
+        <v>0.164106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171017</v>
+        <v>0.171245</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0862192</v>
+        <v>0.0866832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.16475</v>
+        <v>0.164554</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170463</v>
+        <v>0.170791</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0863247</v>
+        <v>0.0850901</v>
       </c>
       <c r="C19" t="n">
-        <v>0.165535</v>
+        <v>0.164044</v>
       </c>
       <c r="D19" t="n">
-        <v>0.170737</v>
+        <v>0.169797</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0860609</v>
+        <v>0.0847903</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165471</v>
+        <v>0.166426</v>
       </c>
       <c r="D20" t="n">
-        <v>0.17092</v>
+        <v>0.169378</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0834217</v>
+        <v>0.0831892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166002</v>
+        <v>0.166118</v>
       </c>
       <c r="D21" t="n">
-        <v>0.170118</v>
+        <v>0.16981</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0817696</v>
+        <v>0.0815034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166087</v>
+        <v>0.16598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.168518</v>
+        <v>0.168495</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0800017</v>
+        <v>0.07914119999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164157</v>
+        <v>0.165711</v>
       </c>
       <c r="D23" t="n">
-        <v>0.167236</v>
+        <v>0.167717</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135561</v>
+        <v>0.136693</v>
       </c>
       <c r="C24" t="n">
-        <v>0.177786</v>
+        <v>0.179233</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183476</v>
+        <v>0.182782</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133448</v>
+        <v>0.133224</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177046</v>
+        <v>0.176976</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182464</v>
+        <v>0.183194</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.129313</v>
+        <v>0.13096</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176164</v>
+        <v>0.174592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.18112</v>
+        <v>0.180571</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.125882</v>
+        <v>0.126657</v>
       </c>
       <c r="C27" t="n">
-        <v>0.176861</v>
+        <v>0.176684</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1809</v>
+        <v>0.17971</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.12271</v>
+        <v>0.124104</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174618</v>
+        <v>0.173994</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179661</v>
+        <v>0.178529</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.12015</v>
+        <v>0.120223</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175957</v>
+        <v>0.174822</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17808</v>
+        <v>0.178006</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117548</v>
+        <v>0.117914</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175169</v>
+        <v>0.175158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176698</v>
+        <v>0.175897</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114303</v>
+        <v>0.11483</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172985</v>
+        <v>0.174017</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175187</v>
+        <v>0.175658</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.11148</v>
+        <v>0.111268</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171911</v>
+        <v>0.171184</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174597</v>
+        <v>0.174661</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107939</v>
+        <v>0.108254</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170955</v>
+        <v>0.172087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173436</v>
+        <v>0.173322</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104333</v>
+        <v>0.10456</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171234</v>
+        <v>0.170957</v>
       </c>
       <c r="D34" t="n">
-        <v>0.172469</v>
+        <v>0.172018</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0995138</v>
+        <v>0.0999501</v>
       </c>
       <c r="C35" t="n">
-        <v>0.170083</v>
+        <v>0.16961</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170744</v>
+        <v>0.171249</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0948341</v>
+        <v>0.09532160000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168168</v>
+        <v>0.16912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.170005</v>
+        <v>0.169727</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0906212</v>
+        <v>0.09111379999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168522</v>
+        <v>0.167867</v>
       </c>
       <c r="D37" t="n">
-        <v>0.168158</v>
+        <v>0.168894</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.153831</v>
+        <v>0.153934</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182013</v>
+        <v>0.182143</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18485</v>
+        <v>0.185082</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150369</v>
+        <v>0.151044</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180855</v>
+        <v>0.181245</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183383</v>
+        <v>0.183724</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146624</v>
+        <v>0.147507</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179402</v>
+        <v>0.180155</v>
       </c>
       <c r="D40" t="n">
-        <v>0.18193</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142983</v>
+        <v>0.143246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17917</v>
+        <v>0.178718</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180779</v>
+        <v>0.181114</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.13919</v>
+        <v>0.13976</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178268</v>
+        <v>0.177915</v>
       </c>
       <c r="D42" t="n">
-        <v>0.182545</v>
+        <v>0.180359</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.139206</v>
+        <v>0.134999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.182657</v>
+        <v>0.177315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.185084</v>
+        <v>0.178669</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.135686</v>
+        <v>0.131271</v>
       </c>
       <c r="C44" t="n">
-        <v>0.181695</v>
+        <v>0.17576</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177362</v>
+        <v>0.177777</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126613</v>
+        <v>0.126827</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174202</v>
+        <v>0.175061</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176227</v>
+        <v>0.176355</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121812</v>
+        <v>0.122009</v>
       </c>
       <c r="C46" t="n">
-        <v>0.174083</v>
+        <v>0.173724</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17504</v>
+        <v>0.17519</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11694</v>
+        <v>0.117368</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172583</v>
+        <v>0.172792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173793</v>
+        <v>0.173895</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112329</v>
+        <v>0.112658</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171931</v>
+        <v>0.172064</v>
       </c>
       <c r="D48" t="n">
-        <v>0.172656</v>
+        <v>0.172955</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107631</v>
+        <v>0.107853</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171215</v>
+        <v>0.170763</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17142</v>
+        <v>0.171969</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102954</v>
+        <v>0.103321</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169998</v>
+        <v>0.170046</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170534</v>
+        <v>0.170389</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0982022</v>
+        <v>0.0983236</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169071</v>
+        <v>0.169052</v>
       </c>
       <c r="D51" t="n">
-        <v>0.169065</v>
+        <v>0.16898</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0932909</v>
+        <v>0.0934517</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167671</v>
+        <v>0.167786</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167906</v>
+        <v>0.167758</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156507</v>
+        <v>0.156681</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18275</v>
+        <v>0.18251</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184527</v>
+        <v>0.184345</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152369</v>
+        <v>0.152458</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181306</v>
+        <v>0.181017</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183244</v>
+        <v>0.18294</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148652</v>
+        <v>0.148809</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180097</v>
+        <v>0.180137</v>
       </c>
       <c r="D55" t="n">
-        <v>0.182008</v>
+        <v>0.181617</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144343</v>
+        <v>0.144144</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178599</v>
+        <v>0.178601</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180657</v>
+        <v>0.180444</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139908</v>
+        <v>0.139756</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17783</v>
+        <v>0.17774</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179369</v>
+        <v>0.178953</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134946</v>
+        <v>0.135385</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176773</v>
+        <v>0.176482</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177964</v>
+        <v>0.17768</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130446</v>
+        <v>0.130282</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175657</v>
+        <v>0.175429</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176811</v>
+        <v>0.176738</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12554</v>
+        <v>0.125662</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174661</v>
+        <v>0.174519</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175493</v>
+        <v>0.1755</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120696</v>
+        <v>0.120654</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173588</v>
+        <v>0.173604</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174326</v>
+        <v>0.174502</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115743</v>
+        <v>0.115974</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172741</v>
+        <v>0.172719</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173123</v>
+        <v>0.173334</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110916</v>
+        <v>0.111187</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171749</v>
+        <v>0.171648</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172149</v>
+        <v>0.172128</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106064</v>
+        <v>0.106207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170586</v>
+        <v>0.17064</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170892</v>
+        <v>0.170882</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101212</v>
+        <v>0.101382</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169447</v>
+        <v>0.169607</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169669</v>
+        <v>0.169707</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0965969</v>
+        <v>0.09665899999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168531</v>
+        <v>0.168545</v>
       </c>
       <c r="D66" t="n">
-        <v>0.168723</v>
+        <v>0.168293</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.16091</v>
+        <v>0.160381</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183437</v>
+        <v>0.183859</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185428</v>
+        <v>0.18639</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.157028</v>
+        <v>0.1566</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1825</v>
+        <v>0.182419</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183986</v>
+        <v>0.183829</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.15241</v>
+        <v>0.152362</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181122</v>
+        <v>0.181213</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182479</v>
+        <v>0.182536</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147991</v>
+        <v>0.147703</v>
       </c>
       <c r="C70" t="n">
-        <v>0.18005</v>
+        <v>0.179842</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181181</v>
+        <v>0.181058</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143902</v>
+        <v>0.143248</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178882</v>
+        <v>0.178724</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179796</v>
+        <v>0.179822</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137833</v>
+        <v>0.138127</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177559</v>
+        <v>0.177541</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178527</v>
+        <v>0.17851</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133127</v>
+        <v>0.133152</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176466</v>
+        <v>0.176413</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177365</v>
+        <v>0.177444</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128266</v>
+        <v>0.128445</v>
       </c>
       <c r="C74" t="n">
-        <v>0.17532</v>
+        <v>0.175345</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176137</v>
+        <v>0.176096</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123459</v>
+        <v>0.123455</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174321</v>
+        <v>0.174278</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174804</v>
+        <v>0.175001</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118628</v>
+        <v>0.118657</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173135</v>
+        <v>0.173238</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173655</v>
+        <v>0.173582</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113788</v>
+        <v>0.113622</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172196</v>
+        <v>0.172211</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172399</v>
+        <v>0.172501</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108873</v>
+        <v>0.108724</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171292</v>
+        <v>0.171126</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171251</v>
+        <v>0.17122</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10389</v>
+        <v>0.103812</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170135</v>
+        <v>0.170084</v>
       </c>
       <c r="D79" t="n">
-        <v>0.170049</v>
+        <v>0.170043</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09908110000000001</v>
+        <v>0.0989434</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169088</v>
+        <v>0.169024</v>
       </c>
       <c r="D80" t="n">
-        <v>0.168794</v>
+        <v>0.168822</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161445</v>
+        <v>0.161155</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184025</v>
+        <v>0.184061</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185567</v>
+        <v>0.185548</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157736</v>
+        <v>0.157375</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182664</v>
+        <v>0.182632</v>
       </c>
       <c r="D82" t="n">
-        <v>0.183944</v>
+        <v>0.184017</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153261</v>
+        <v>0.153033</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181429</v>
+        <v>0.181391</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182755</v>
+        <v>0.182756</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148644</v>
+        <v>0.148441</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180202</v>
+        <v>0.180133</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181308</v>
+        <v>0.181314</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143864</v>
+        <v>0.14367</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178921</v>
+        <v>0.178965</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179958</v>
+        <v>0.179944</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139166</v>
+        <v>0.138858</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177729</v>
+        <v>0.177852</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178663</v>
+        <v>0.178693</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134094</v>
+        <v>0.134004</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176601</v>
+        <v>0.176668</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177461</v>
+        <v>0.177489</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129024</v>
+        <v>0.129025</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175485</v>
+        <v>0.175564</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176212</v>
+        <v>0.176258</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124032</v>
+        <v>0.123886</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174385</v>
+        <v>0.17445</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174965</v>
+        <v>0.175044</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119052</v>
+        <v>0.119078</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173328</v>
+        <v>0.173326</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173777</v>
+        <v>0.173796</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.113945</v>
+        <v>0.114134</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172234</v>
+        <v>0.172307</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172703</v>
+        <v>0.172635</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109293</v>
+        <v>0.109208</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171128</v>
+        <v>0.171256</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171293</v>
+        <v>0.171351</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104193</v>
+        <v>0.104352</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170007</v>
+        <v>0.170152</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169903</v>
+        <v>0.170143</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0991713</v>
+        <v>0.09940400000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168903</v>
+        <v>0.169129</v>
       </c>
       <c r="D94" t="n">
-        <v>0.168667</v>
+        <v>0.168867</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162192</v>
+        <v>0.162788</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184305</v>
+        <v>0.184563</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185834</v>
+        <v>0.185942</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.159797</v>
+        <v>0.159829</v>
       </c>
       <c r="C96" t="n">
-        <v>0.190322</v>
+        <v>0.183262</v>
       </c>
       <c r="D96" t="n">
-        <v>0.192212</v>
+        <v>0.184527</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.161445</v>
+        <v>0.154454</v>
       </c>
       <c r="C97" t="n">
-        <v>0.189997</v>
+        <v>0.18188</v>
       </c>
       <c r="D97" t="n">
-        <v>0.191161</v>
+        <v>0.183107</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.156711</v>
+        <v>0.149931</v>
       </c>
       <c r="C98" t="n">
-        <v>0.188496</v>
+        <v>0.180599</v>
       </c>
       <c r="D98" t="n">
-        <v>0.18704</v>
+        <v>0.18166</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14493</v>
+        <v>0.144997</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179321</v>
+        <v>0.179387</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1803</v>
+        <v>0.180359</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1402</v>
+        <v>0.140173</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178202</v>
+        <v>0.178196</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179073</v>
+        <v>0.179148</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134989</v>
+        <v>0.135305</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176976</v>
+        <v>0.177013</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177804</v>
+        <v>0.177759</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130167</v>
+        <v>0.130321</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175879</v>
+        <v>0.17586</v>
       </c>
       <c r="D102" t="n">
-        <v>0.17655</v>
+        <v>0.176512</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125077</v>
+        <v>0.125276</v>
       </c>
       <c r="C103" t="n">
-        <v>0.175189</v>
+        <v>0.174772</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175387</v>
+        <v>0.175325</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120189</v>
+        <v>0.120082</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173632</v>
+        <v>0.173727</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174078</v>
+        <v>0.174151</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115333</v>
+        <v>0.115174</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172597</v>
+        <v>0.17246</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17283</v>
+        <v>0.172728</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110288</v>
+        <v>0.110107</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171479</v>
+        <v>0.17136</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171663</v>
+        <v>0.171509</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105424</v>
+        <v>0.105205</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170469</v>
+        <v>0.17029</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170413</v>
+        <v>0.170263</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100465</v>
+        <v>0.100239</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169417</v>
+        <v>0.169212</v>
       </c>
       <c r="D108" t="n">
-        <v>0.169174</v>
+        <v>0.169044</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955459</v>
+        <v>0.095377</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168253</v>
+        <v>0.168138</v>
       </c>
       <c r="D109" t="n">
-        <v>0.167875</v>
+        <v>0.167782</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159779</v>
+        <v>0.159333</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183576</v>
+        <v>0.183539</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184796</v>
+        <v>0.184799</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155385</v>
+        <v>0.155198</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182161</v>
+        <v>0.18226</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183406</v>
+        <v>0.183376</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150683</v>
+        <v>0.150739</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18091</v>
+        <v>0.180913</v>
       </c>
       <c r="D112" t="n">
-        <v>0.182038</v>
+        <v>0.181963</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146066</v>
+        <v>0.145663</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179697</v>
+        <v>0.179675</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180587</v>
+        <v>0.180563</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14116</v>
+        <v>0.141322</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178517</v>
+        <v>0.178577</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179279</v>
+        <v>0.179292</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136001</v>
+        <v>0.136273</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177381</v>
+        <v>0.177333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178064</v>
+        <v>0.178103</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131077</v>
+        <v>0.131243</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176156</v>
+        <v>0.176224</v>
       </c>
       <c r="D116" t="n">
-        <v>0.17672</v>
+        <v>0.176786</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126098</v>
+        <v>0.125934</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175011</v>
+        <v>0.175062</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175492</v>
+        <v>0.175508</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121183</v>
+        <v>0.120947</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173958</v>
+        <v>0.173953</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174367</v>
+        <v>0.174355</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116169</v>
+        <v>0.116196</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172818</v>
+        <v>0.172852</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173163</v>
+        <v>0.173065</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111168</v>
+        <v>0.11117</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171831</v>
+        <v>0.171895</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171977</v>
+        <v>0.171923</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106345</v>
+        <v>0.106258</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170777</v>
+        <v>0.170793</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170655</v>
+        <v>0.170697</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101492</v>
+        <v>0.101387</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169626</v>
+        <v>0.169659</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169478</v>
+        <v>0.169489</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0966017</v>
+        <v>0.0964117</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168583</v>
+        <v>0.168551</v>
       </c>
       <c r="D123" t="n">
-        <v>0.168154</v>
+        <v>0.168177</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160544</v>
+        <v>0.169903</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183951</v>
+        <v>0.183991</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18522</v>
+        <v>0.185155</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.156546</v>
+        <v>0.165355</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182592</v>
+        <v>0.182541</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183794</v>
+        <v>0.183667</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.152074</v>
+        <v>0.160892</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181218</v>
+        <v>0.181202</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182248</v>
+        <v>0.182294</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.147169</v>
+        <v>0.155415</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179995</v>
+        <v>0.179967</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180936</v>
+        <v>0.180917</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.142333</v>
+        <v>0.150006</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178653</v>
+        <v>0.178717</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179567</v>
+        <v>0.179552</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.137447</v>
+        <v>0.144622</v>
       </c>
       <c r="C129" t="n">
-        <v>0.17753</v>
+        <v>0.177526</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178294</v>
+        <v>0.178284</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1324</v>
+        <v>0.138926</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176399</v>
+        <v>0.176392</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177064</v>
+        <v>0.177115</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127386</v>
+        <v>0.133769</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175309</v>
+        <v>0.175276</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175844</v>
+        <v>0.175792</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.122169</v>
+        <v>0.128458</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174156</v>
+        <v>0.174181</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174608</v>
+        <v>0.174615</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117291</v>
+        <v>0.123231</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173078</v>
+        <v>0.173036</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173368</v>
+        <v>0.173381</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112337</v>
+        <v>0.118072</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172044</v>
+        <v>0.172008</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172133</v>
+        <v>0.172244</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107407</v>
+        <v>0.11296</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17094</v>
+        <v>0.17091</v>
       </c>
       <c r="D135" t="n">
-        <v>0.17098</v>
+        <v>0.170911</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102416</v>
+        <v>0.10792</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169924</v>
+        <v>0.169853</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169672</v>
+        <v>0.169758</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0974979</v>
+        <v>0.102788</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168776</v>
+        <v>0.168765</v>
       </c>
       <c r="D137" t="n">
-        <v>0.168491</v>
+        <v>0.168458</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161419</v>
+        <v>0.171014</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184189</v>
+        <v>0.194371</v>
       </c>
       <c r="D138" t="n">
-        <v>0.185419</v>
+        <v>0.195553</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173678</v>
+        <v>0.166573</v>
       </c>
       <c r="C139" t="n">
-        <v>0.199232</v>
+        <v>0.192314</v>
       </c>
       <c r="D139" t="n">
-        <v>0.205391</v>
+        <v>0.193445</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.168098</v>
+        <v>0.161893</v>
       </c>
       <c r="C140" t="n">
-        <v>0.199757</v>
+        <v>0.190431</v>
       </c>
       <c r="D140" t="n">
-        <v>0.200691</v>
+        <v>0.191486</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.160652</v>
+        <v>0.156632</v>
       </c>
       <c r="C141" t="n">
-        <v>0.197381</v>
+        <v>0.188587</v>
       </c>
       <c r="D141" t="n">
-        <v>0.193458</v>
+        <v>0.189631</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.156052</v>
+        <v>0.151113</v>
       </c>
       <c r="C142" t="n">
-        <v>0.188445</v>
+        <v>0.187114</v>
       </c>
       <c r="D142" t="n">
-        <v>0.196328</v>
+        <v>0.188022</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14707</v>
+        <v>0.146042</v>
       </c>
       <c r="C143" t="n">
-        <v>0.184845</v>
+        <v>0.185412</v>
       </c>
       <c r="D143" t="n">
-        <v>0.182955</v>
+        <v>0.18622</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06442920000000001</v>
+        <v>0.0644175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157558</v>
+        <v>0.157386</v>
       </c>
       <c r="D2" t="n">
-        <v>0.162712</v>
+        <v>0.160937</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641737</v>
+        <v>0.0637537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157463</v>
+        <v>0.157742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.162163</v>
+        <v>0.16224</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0637839</v>
+        <v>0.06338199999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158343</v>
+        <v>0.158388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.162668</v>
+        <v>0.162266</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0640896</v>
+        <v>0.064086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158411</v>
+        <v>0.158391</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16213</v>
+        <v>0.162129</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0643333</v>
+        <v>0.06405660000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.157977</v>
+        <v>0.158522</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162501</v>
+        <v>0.163519</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0643606</v>
+        <v>0.0644919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158917</v>
+        <v>0.15808</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162648</v>
+        <v>0.16217</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.064706</v>
+        <v>0.0651685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158685</v>
+        <v>0.158695</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162497</v>
+        <v>0.162286</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0655708</v>
+        <v>0.0654487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158246</v>
+        <v>0.158312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.161324</v>
+        <v>0.161645</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0922818</v>
+        <v>0.09141349999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164757</v>
+        <v>0.164722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.174273</v>
+        <v>0.174008</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0918007</v>
+        <v>0.0912106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165861</v>
+        <v>0.164986</v>
       </c>
       <c r="D11" t="n">
-        <v>0.173932</v>
+        <v>0.174041</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.090667</v>
+        <v>0.0919094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165202</v>
+        <v>0.164391</v>
       </c>
       <c r="D12" t="n">
-        <v>0.173607</v>
+        <v>0.173169</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09116440000000001</v>
+        <v>0.09058819999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165122</v>
+        <v>0.164772</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173202</v>
+        <v>0.172834</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0912309</v>
+        <v>0.08967169999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164645</v>
+        <v>0.164701</v>
       </c>
       <c r="D14" t="n">
-        <v>0.172477</v>
+        <v>0.172689</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0895905</v>
+        <v>0.0881406</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164633</v>
+        <v>0.16498</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172297</v>
+        <v>0.172064</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08970400000000001</v>
+        <v>0.08739180000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164908</v>
+        <v>0.164998</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17182</v>
+        <v>0.171863</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0877481</v>
+        <v>0.0869938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164106</v>
+        <v>0.16495</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171245</v>
+        <v>0.171387</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0866832</v>
+        <v>0.0845952</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164554</v>
+        <v>0.164537</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170791</v>
+        <v>0.170633</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0850901</v>
+        <v>0.0856064</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164044</v>
+        <v>0.166098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.169797</v>
+        <v>0.172001</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0847903</v>
+        <v>0.08444649999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.166426</v>
+        <v>0.16663</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169378</v>
+        <v>0.171167</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0831892</v>
+        <v>0.08239489999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166118</v>
+        <v>0.16579</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16981</v>
+        <v>0.168864</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0815034</v>
+        <v>0.08114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16598</v>
+        <v>0.163938</v>
       </c>
       <c r="D22" t="n">
-        <v>0.168495</v>
+        <v>0.168294</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07914119999999999</v>
+        <v>0.07915700000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165711</v>
+        <v>0.166608</v>
       </c>
       <c r="D23" t="n">
-        <v>0.167717</v>
+        <v>0.166498</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136693</v>
+        <v>0.135243</v>
       </c>
       <c r="C24" t="n">
-        <v>0.179233</v>
+        <v>0.176959</v>
       </c>
       <c r="D24" t="n">
-        <v>0.182782</v>
+        <v>0.184448</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133224</v>
+        <v>0.131772</v>
       </c>
       <c r="C25" t="n">
-        <v>0.176976</v>
+        <v>0.177135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.183194</v>
+        <v>0.182689</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13096</v>
+        <v>0.129422</v>
       </c>
       <c r="C26" t="n">
-        <v>0.174592</v>
+        <v>0.175298</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180571</v>
+        <v>0.18089</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.126657</v>
+        <v>0.127134</v>
       </c>
       <c r="C27" t="n">
-        <v>0.176684</v>
+        <v>0.175855</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17971</v>
+        <v>0.178782</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.124104</v>
+        <v>0.122555</v>
       </c>
       <c r="C28" t="n">
-        <v>0.173994</v>
+        <v>0.173218</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178529</v>
+        <v>0.179361</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120223</v>
+        <v>0.120871</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174822</v>
+        <v>0.174748</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178006</v>
+        <v>0.176856</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117914</v>
+        <v>0.117859</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175158</v>
+        <v>0.174178</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175897</v>
+        <v>0.176253</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11483</v>
+        <v>0.114741</v>
       </c>
       <c r="C31" t="n">
-        <v>0.174017</v>
+        <v>0.173999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175658</v>
+        <v>0.175559</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111268</v>
+        <v>0.111396</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171184</v>
+        <v>0.172411</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174661</v>
+        <v>0.174362</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.108254</v>
+        <v>0.108858</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172087</v>
+        <v>0.171724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173322</v>
+        <v>0.173374</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.10456</v>
+        <v>0.104586</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170957</v>
+        <v>0.170616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.172018</v>
+        <v>0.171799</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0999501</v>
+        <v>0.0997273</v>
       </c>
       <c r="C35" t="n">
-        <v>0.16961</v>
+        <v>0.169956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171249</v>
+        <v>0.170728</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09532160000000001</v>
+        <v>0.0954618</v>
       </c>
       <c r="C36" t="n">
-        <v>0.16912</v>
+        <v>0.168381</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169727</v>
+        <v>0.17017</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09111379999999999</v>
+        <v>0.0906325</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167867</v>
+        <v>0.168249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.168894</v>
+        <v>0.168548</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.153934</v>
+        <v>0.153754</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182143</v>
+        <v>0.182675</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185082</v>
+        <v>0.185733</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151044</v>
+        <v>0.150821</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181245</v>
+        <v>0.181494</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183724</v>
+        <v>0.183964</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147507</v>
+        <v>0.146568</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180155</v>
+        <v>0.179974</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1827</v>
+        <v>0.182497</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.143246</v>
+        <v>0.143055</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178718</v>
+        <v>0.179261</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181114</v>
+        <v>0.18076</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.13976</v>
+        <v>0.138889</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177915</v>
+        <v>0.178071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.180359</v>
+        <v>0.17995</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134999</v>
+        <v>0.134813</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177315</v>
+        <v>0.177114</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178669</v>
+        <v>0.178586</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131271</v>
+        <v>0.130593</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17576</v>
+        <v>0.17559</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177777</v>
+        <v>0.177627</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126827</v>
+        <v>0.126123</v>
       </c>
       <c r="C45" t="n">
-        <v>0.175061</v>
+        <v>0.174882</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176355</v>
+        <v>0.176118</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122009</v>
+        <v>0.121667</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173724</v>
+        <v>0.173911</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17519</v>
+        <v>0.175112</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.117368</v>
+        <v>0.117057</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172792</v>
+        <v>0.173109</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173895</v>
+        <v>0.174228</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112658</v>
+        <v>0.11226</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172064</v>
+        <v>0.172139</v>
       </c>
       <c r="D48" t="n">
-        <v>0.172955</v>
+        <v>0.173157</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107853</v>
+        <v>0.107445</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170763</v>
+        <v>0.170962</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171969</v>
+        <v>0.172005</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103321</v>
+        <v>0.102794</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170046</v>
+        <v>0.169938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170389</v>
+        <v>0.170384</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0983236</v>
+        <v>0.0977903</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169052</v>
+        <v>0.169545</v>
       </c>
       <c r="D51" t="n">
-        <v>0.16898</v>
+        <v>0.169045</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0934517</v>
+        <v>0.0930716</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167786</v>
+        <v>0.167703</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167758</v>
+        <v>0.167919</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156681</v>
+        <v>0.156552</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18251</v>
+        <v>0.182553</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184345</v>
+        <v>0.184829</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152458</v>
+        <v>0.152966</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181017</v>
+        <v>0.181311</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18294</v>
+        <v>0.18326</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148809</v>
+        <v>0.148701</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180137</v>
+        <v>0.180294</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181617</v>
+        <v>0.182049</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144144</v>
+        <v>0.144315</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178601</v>
+        <v>0.179156</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180444</v>
+        <v>0.180697</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139756</v>
+        <v>0.139914</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17774</v>
+        <v>0.177942</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178953</v>
+        <v>0.179171</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135385</v>
+        <v>0.135156</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176482</v>
+        <v>0.176871</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17768</v>
+        <v>0.178004</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130282</v>
+        <v>0.130599</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175429</v>
+        <v>0.175791</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176738</v>
+        <v>0.176953</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125662</v>
+        <v>0.125676</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174519</v>
+        <v>0.174818</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1755</v>
+        <v>0.175707</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120654</v>
+        <v>0.120723</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173604</v>
+        <v>0.173701</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174502</v>
+        <v>0.174418</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115974</v>
+        <v>0.11597</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172719</v>
+        <v>0.172771</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173334</v>
+        <v>0.173172</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111187</v>
+        <v>0.110989</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171648</v>
+        <v>0.171655</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172128</v>
+        <v>0.172145</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106207</v>
+        <v>0.106237</v>
       </c>
       <c r="C64" t="n">
-        <v>0.17064</v>
+        <v>0.17072</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170882</v>
+        <v>0.170959</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101382</v>
+        <v>0.101449</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169607</v>
+        <v>0.169626</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169707</v>
+        <v>0.169836</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09665899999999999</v>
+        <v>0.0965835</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168545</v>
+        <v>0.168586</v>
       </c>
       <c r="D66" t="n">
-        <v>0.168293</v>
+        <v>0.16834</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160381</v>
+        <v>0.159803</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183859</v>
+        <v>0.183642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.18639</v>
+        <v>0.185335</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1566</v>
+        <v>0.155988</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182419</v>
+        <v>0.182562</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183829</v>
+        <v>0.183929</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152362</v>
+        <v>0.151772</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181213</v>
+        <v>0.181102</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182536</v>
+        <v>0.182498</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147703</v>
+        <v>0.147151</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179842</v>
+        <v>0.179881</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181058</v>
+        <v>0.181113</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143248</v>
+        <v>0.142591</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178724</v>
+        <v>0.178765</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179822</v>
+        <v>0.179843</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138127</v>
+        <v>0.137531</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177541</v>
+        <v>0.177529</v>
       </c>
       <c r="D72" t="n">
-        <v>0.17851</v>
+        <v>0.178454</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133152</v>
+        <v>0.132789</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176413</v>
+        <v>0.176471</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177444</v>
+        <v>0.17726</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128445</v>
+        <v>0.127741</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175345</v>
+        <v>0.175209</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176096</v>
+        <v>0.176239</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123455</v>
+        <v>0.122912</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174278</v>
+        <v>0.174299</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175001</v>
+        <v>0.17494</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118657</v>
+        <v>0.118108</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173238</v>
+        <v>0.173147</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173582</v>
+        <v>0.173605</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113622</v>
+        <v>0.113231</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172211</v>
+        <v>0.171995</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172501</v>
+        <v>0.172194</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108724</v>
+        <v>0.108418</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171126</v>
+        <v>0.170922</v>
       </c>
       <c r="D78" t="n">
-        <v>0.17122</v>
+        <v>0.17109</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103812</v>
+        <v>0.103639</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170084</v>
+        <v>0.169944</v>
       </c>
       <c r="D79" t="n">
-        <v>0.170043</v>
+        <v>0.169811</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0989434</v>
+        <v>0.09856860000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169024</v>
+        <v>0.168735</v>
       </c>
       <c r="D80" t="n">
-        <v>0.168822</v>
+        <v>0.168681</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161155</v>
+        <v>0.16149</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184061</v>
+        <v>0.183771</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185548</v>
+        <v>0.185299</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157375</v>
+        <v>0.157345</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182632</v>
+        <v>0.182468</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184017</v>
+        <v>0.183907</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153033</v>
+        <v>0.153375</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181391</v>
+        <v>0.181373</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182756</v>
+        <v>0.182728</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148441</v>
+        <v>0.148719</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180133</v>
+        <v>0.180054</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181314</v>
+        <v>0.181551</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.14367</v>
+        <v>0.144131</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178965</v>
+        <v>0.178969</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179944</v>
+        <v>0.180007</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138858</v>
+        <v>0.138645</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177852</v>
+        <v>0.177742</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178693</v>
+        <v>0.178643</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134004</v>
+        <v>0.133894</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176668</v>
+        <v>0.176726</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177489</v>
+        <v>0.17743</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129025</v>
+        <v>0.128954</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175564</v>
+        <v>0.175577</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176258</v>
+        <v>0.176153</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123886</v>
+        <v>0.123993</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17445</v>
+        <v>0.174442</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175044</v>
+        <v>0.174963</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119078</v>
+        <v>0.119154</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173326</v>
+        <v>0.173341</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173796</v>
+        <v>0.173744</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114134</v>
+        <v>0.114173</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172307</v>
+        <v>0.172329</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172635</v>
+        <v>0.172629</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109208</v>
+        <v>0.109155</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171256</v>
+        <v>0.171222</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171351</v>
+        <v>0.171403</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104352</v>
+        <v>0.104295</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170152</v>
+        <v>0.170189</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170143</v>
+        <v>0.170139</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09940400000000001</v>
+        <v>0.0994332</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169129</v>
+        <v>0.169007</v>
       </c>
       <c r="D94" t="n">
-        <v>0.168867</v>
+        <v>0.168914</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162788</v>
+        <v>0.162312</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184563</v>
+        <v>0.184578</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185942</v>
+        <v>0.185972</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.159829</v>
+        <v>0.158764</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183262</v>
+        <v>0.183195</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184527</v>
+        <v>0.184514</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154454</v>
+        <v>0.154817</v>
       </c>
       <c r="C97" t="n">
-        <v>0.18188</v>
+        <v>0.181824</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183107</v>
+        <v>0.183201</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149931</v>
+        <v>0.150128</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180599</v>
+        <v>0.180597</v>
       </c>
       <c r="D98" t="n">
-        <v>0.18166</v>
+        <v>0.181744</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144997</v>
+        <v>0.145202</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179387</v>
+        <v>0.179424</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180359</v>
+        <v>0.180327</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140173</v>
+        <v>0.140428</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178196</v>
+        <v>0.178279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179148</v>
+        <v>0.178989</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135305</v>
+        <v>0.13516</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177013</v>
+        <v>0.17708</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177759</v>
+        <v>0.177714</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130321</v>
+        <v>0.130118</v>
       </c>
       <c r="C102" t="n">
-        <v>0.17586</v>
+        <v>0.17583</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176512</v>
+        <v>0.176515</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125276</v>
+        <v>0.125166</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174772</v>
+        <v>0.174725</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175325</v>
+        <v>0.175277</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120082</v>
+        <v>0.120372</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173727</v>
+        <v>0.173657</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174151</v>
+        <v>0.174055</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115174</v>
+        <v>0.115235</v>
       </c>
       <c r="C105" t="n">
-        <v>0.17246</v>
+        <v>0.172573</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172728</v>
+        <v>0.172901</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110107</v>
+        <v>0.110307</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17136</v>
+        <v>0.171471</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171509</v>
+        <v>0.171705</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105205</v>
+        <v>0.105351</v>
       </c>
       <c r="C107" t="n">
-        <v>0.17029</v>
+        <v>0.170533</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170263</v>
+        <v>0.170465</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100239</v>
+        <v>0.100424</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169212</v>
+        <v>0.169446</v>
       </c>
       <c r="D108" t="n">
-        <v>0.169044</v>
+        <v>0.169155</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.095377</v>
+        <v>0.0954985</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168138</v>
+        <v>0.168301</v>
       </c>
       <c r="D109" t="n">
-        <v>0.167782</v>
+        <v>0.167837</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159333</v>
+        <v>0.159342</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183539</v>
+        <v>0.18353</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184799</v>
+        <v>0.184822</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155198</v>
+        <v>0.155445</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18226</v>
+        <v>0.182203</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183376</v>
+        <v>0.183392</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150739</v>
+        <v>0.150563</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180913</v>
+        <v>0.180935</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181963</v>
+        <v>0.181979</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145663</v>
+        <v>0.146035</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179675</v>
+        <v>0.17965</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180563</v>
+        <v>0.180554</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141322</v>
+        <v>0.141225</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178577</v>
+        <v>0.178506</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179292</v>
+        <v>0.179256</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136273</v>
+        <v>0.136358</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177333</v>
+        <v>0.177245</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178103</v>
+        <v>0.178054</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131243</v>
+        <v>0.13129</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176224</v>
+        <v>0.176214</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176786</v>
+        <v>0.176763</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125934</v>
+        <v>0.126011</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175062</v>
+        <v>0.175014</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175508</v>
+        <v>0.175507</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120947</v>
+        <v>0.120922</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173953</v>
+        <v>0.173966</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174355</v>
+        <v>0.174333</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116196</v>
+        <v>0.116065</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172852</v>
+        <v>0.172859</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173065</v>
+        <v>0.17311</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11117</v>
+        <v>0.111148</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171895</v>
+        <v>0.171771</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171923</v>
+        <v>0.171888</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106258</v>
+        <v>0.106284</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170793</v>
+        <v>0.170784</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170697</v>
+        <v>0.170677</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101387</v>
+        <v>0.101364</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169659</v>
+        <v>0.169679</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169489</v>
+        <v>0.169431</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0964117</v>
+        <v>0.0965047</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168551</v>
+        <v>0.168583</v>
       </c>
       <c r="D123" t="n">
-        <v>0.168177</v>
+        <v>0.168133</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169903</v>
+        <v>0.169542</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183991</v>
+        <v>0.184022</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185155</v>
+        <v>0.185177</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165355</v>
+        <v>0.1654</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182541</v>
+        <v>0.182574</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183667</v>
+        <v>0.183675</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160892</v>
+        <v>0.157786</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181202</v>
+        <v>0.181644</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182294</v>
+        <v>0.18216</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155415</v>
+        <v>0.154619</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179967</v>
+        <v>0.179788</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180917</v>
+        <v>0.180788</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.150006</v>
+        <v>0.14906</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178717</v>
+        <v>0.178554</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179552</v>
+        <v>0.179483</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144622</v>
+        <v>0.144373</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177526</v>
+        <v>0.177606</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178284</v>
+        <v>0.178276</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138926</v>
+        <v>0.138828</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176392</v>
+        <v>0.176417</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177115</v>
+        <v>0.177076</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133769</v>
+        <v>0.133432</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175276</v>
+        <v>0.175259</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175792</v>
+        <v>0.175818</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128458</v>
+        <v>0.127914</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174181</v>
+        <v>0.174248</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174615</v>
+        <v>0.174563</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123231</v>
+        <v>0.122847</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173036</v>
+        <v>0.173029</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173381</v>
+        <v>0.173376</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118072</v>
+        <v>0.117729</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172008</v>
+        <v>0.172039</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172244</v>
+        <v>0.172088</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.11296</v>
+        <v>0.112673</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17091</v>
+        <v>0.170937</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170911</v>
+        <v>0.170938</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10792</v>
+        <v>0.107507</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169853</v>
+        <v>0.169865</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169758</v>
+        <v>0.169727</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102788</v>
+        <v>0.102322</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168765</v>
+        <v>0.168747</v>
       </c>
       <c r="D137" t="n">
-        <v>0.168458</v>
+        <v>0.168421</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171014</v>
+        <v>0.170738</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194371</v>
+        <v>0.194367</v>
       </c>
       <c r="D138" t="n">
-        <v>0.195553</v>
+        <v>0.195528</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166573</v>
+        <v>0.166396</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192314</v>
+        <v>0.192183</v>
       </c>
       <c r="D139" t="n">
-        <v>0.193445</v>
+        <v>0.193491</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161893</v>
+        <v>0.161259</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190431</v>
+        <v>0.190367</v>
       </c>
       <c r="D140" t="n">
-        <v>0.191486</v>
+        <v>0.191405</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156632</v>
+        <v>0.156149</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188587</v>
+        <v>0.188571</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189631</v>
+        <v>0.18955</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151113</v>
+        <v>0.150987</v>
       </c>
       <c r="C142" t="n">
-        <v>0.187114</v>
+        <v>0.187039</v>
       </c>
       <c r="D142" t="n">
-        <v>0.188022</v>
+        <v>0.187934</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.146042</v>
+        <v>0.14554</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185412</v>
+        <v>0.185336</v>
       </c>
       <c r="D143" t="n">
-        <v>0.18622</v>
+        <v>0.186209</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0644175</v>
+        <v>0.0646803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157386</v>
+        <v>0.15743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160937</v>
+        <v>0.161396</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0637537</v>
+        <v>0.0641699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157742</v>
+        <v>0.158016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16224</v>
+        <v>0.162215</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06338199999999999</v>
+        <v>0.06392639999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158388</v>
+        <v>0.158202</v>
       </c>
       <c r="D4" t="n">
-        <v>0.162266</v>
+        <v>0.162263</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.064086</v>
+        <v>0.0639686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158391</v>
+        <v>0.158287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162129</v>
+        <v>0.162212</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06405660000000001</v>
+        <v>0.06424299999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158522</v>
+        <v>0.158051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163519</v>
+        <v>0.162168</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0644919</v>
+        <v>0.0644769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15808</v>
+        <v>0.158659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16217</v>
+        <v>0.162457</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0651685</v>
+        <v>0.065077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158695</v>
+        <v>0.158703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162286</v>
+        <v>0.162199</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0654487</v>
+        <v>0.0657263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158312</v>
+        <v>0.158208</v>
       </c>
       <c r="D9" t="n">
-        <v>0.161645</v>
+        <v>0.161611</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09141349999999999</v>
+        <v>0.0908129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164722</v>
+        <v>0.164819</v>
       </c>
       <c r="D10" t="n">
-        <v>0.174008</v>
+        <v>0.175107</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0912106</v>
+        <v>0.09217110000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164986</v>
+        <v>0.165131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.174041</v>
+        <v>0.174227</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0919094</v>
+        <v>0.0910048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164391</v>
+        <v>0.165054</v>
       </c>
       <c r="D12" t="n">
-        <v>0.173169</v>
+        <v>0.17354</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09058819999999999</v>
+        <v>0.0907466</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164772</v>
+        <v>0.164879</v>
       </c>
       <c r="D13" t="n">
-        <v>0.172834</v>
+        <v>0.173215</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08967169999999999</v>
+        <v>0.0894664</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164701</v>
+        <v>0.164924</v>
       </c>
       <c r="D14" t="n">
-        <v>0.172689</v>
+        <v>0.172626</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0881406</v>
+        <v>0.0892686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16498</v>
+        <v>0.164861</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172064</v>
+        <v>0.172564</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08739180000000001</v>
+        <v>0.0881565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164998</v>
+        <v>0.165612</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171863</v>
+        <v>0.172153</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0869938</v>
+        <v>0.0866498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.16495</v>
+        <v>0.16427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171387</v>
+        <v>0.171178</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0845952</v>
+        <v>0.0851198</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164537</v>
+        <v>0.164468</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170633</v>
+        <v>0.170796</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0856064</v>
+        <v>0.0833685</v>
       </c>
       <c r="C19" t="n">
-        <v>0.166098</v>
+        <v>0.163832</v>
       </c>
       <c r="D19" t="n">
-        <v>0.172001</v>
+        <v>0.16943</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08444649999999999</v>
+        <v>0.08340259999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.16663</v>
+        <v>0.165683</v>
       </c>
       <c r="D20" t="n">
-        <v>0.171167</v>
+        <v>0.16935</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08239489999999999</v>
+        <v>0.0834979</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16579</v>
+        <v>0.166936</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168864</v>
+        <v>0.170418</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08114</v>
+        <v>0.0811217</v>
       </c>
       <c r="C22" t="n">
-        <v>0.163938</v>
+        <v>0.163461</v>
       </c>
       <c r="D22" t="n">
-        <v>0.168294</v>
+        <v>0.167919</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07915700000000001</v>
+        <v>0.07942</v>
       </c>
       <c r="C23" t="n">
-        <v>0.166608</v>
+        <v>0.164579</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166498</v>
+        <v>0.166941</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135243</v>
+        <v>0.136377</v>
       </c>
       <c r="C24" t="n">
-        <v>0.176959</v>
+        <v>0.177154</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184448</v>
+        <v>0.184014</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131772</v>
+        <v>0.132257</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177135</v>
+        <v>0.175841</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182689</v>
+        <v>0.181631</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.129422</v>
+        <v>0.12951</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175298</v>
+        <v>0.174137</v>
       </c>
       <c r="D26" t="n">
-        <v>0.18089</v>
+        <v>0.179789</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127134</v>
+        <v>0.126051</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175855</v>
+        <v>0.174906</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178782</v>
+        <v>0.179819</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122555</v>
+        <v>0.122081</v>
       </c>
       <c r="C28" t="n">
-        <v>0.173218</v>
+        <v>0.175649</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179361</v>
+        <v>0.17735</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120871</v>
+        <v>0.119532</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174748</v>
+        <v>0.174083</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176856</v>
+        <v>0.177161</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117859</v>
+        <v>0.117212</v>
       </c>
       <c r="C30" t="n">
-        <v>0.174178</v>
+        <v>0.174117</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176253</v>
+        <v>0.176167</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114741</v>
+        <v>0.113463</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173999</v>
+        <v>0.171703</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175559</v>
+        <v>0.174863</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111396</v>
+        <v>0.110505</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172411</v>
+        <v>0.170767</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174362</v>
+        <v>0.173772</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.108858</v>
+        <v>0.107764</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171724</v>
+        <v>0.170942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173374</v>
+        <v>0.172992</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104586</v>
+        <v>0.103771</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170616</v>
+        <v>0.170009</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171799</v>
+        <v>0.171778</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0997273</v>
+        <v>0.0989546</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169956</v>
+        <v>0.169626</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170728</v>
+        <v>0.170306</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0954618</v>
+        <v>0.0949931</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168381</v>
+        <v>0.168159</v>
       </c>
       <c r="D36" t="n">
-        <v>0.17017</v>
+        <v>0.170066</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0906325</v>
+        <v>0.0906628</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168249</v>
+        <v>0.168463</v>
       </c>
       <c r="D37" t="n">
-        <v>0.168548</v>
+        <v>0.168178</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.153754</v>
+        <v>0.153285</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182675</v>
+        <v>0.18263</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185733</v>
+        <v>0.185386</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150821</v>
+        <v>0.150248</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181494</v>
+        <v>0.181742</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183964</v>
+        <v>0.183991</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146568</v>
+        <v>0.146725</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179974</v>
+        <v>0.18004</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182497</v>
+        <v>0.182667</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.143055</v>
+        <v>0.142875</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179261</v>
+        <v>0.17933</v>
       </c>
       <c r="D41" t="n">
-        <v>0.18076</v>
+        <v>0.180871</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138889</v>
+        <v>0.1391</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178071</v>
+        <v>0.178229</v>
       </c>
       <c r="D42" t="n">
-        <v>0.17995</v>
+        <v>0.180226</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134813</v>
+        <v>0.134878</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177114</v>
+        <v>0.177085</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178586</v>
+        <v>0.178687</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130593</v>
+        <v>0.130584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17559</v>
+        <v>0.176227</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177627</v>
+        <v>0.177518</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126123</v>
+        <v>0.126218</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174882</v>
+        <v>0.17514</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176118</v>
+        <v>0.176283</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121667</v>
+        <v>0.121995</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173911</v>
+        <v>0.174061</v>
       </c>
       <c r="D46" t="n">
-        <v>0.175112</v>
+        <v>0.17529</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.117057</v>
+        <v>0.117112</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173109</v>
+        <v>0.172374</v>
       </c>
       <c r="D47" t="n">
-        <v>0.174228</v>
+        <v>0.174028</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.11226</v>
+        <v>0.112537</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172139</v>
+        <v>0.172052</v>
       </c>
       <c r="D48" t="n">
-        <v>0.173157</v>
+        <v>0.173013</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107445</v>
+        <v>0.107995</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170962</v>
+        <v>0.17063</v>
       </c>
       <c r="D49" t="n">
-        <v>0.172005</v>
+        <v>0.171646</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102794</v>
+        <v>0.103069</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169938</v>
+        <v>0.170095</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170384</v>
+        <v>0.170291</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0977903</v>
+        <v>0.09826550000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169545</v>
+        <v>0.168855</v>
       </c>
       <c r="D51" t="n">
-        <v>0.169045</v>
+        <v>0.169713</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0930716</v>
+        <v>0.0930961</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167703</v>
+        <v>0.16804</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167919</v>
+        <v>0.168389</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156552</v>
+        <v>0.156639</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182553</v>
+        <v>0.182832</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184829</v>
+        <v>0.184707</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152966</v>
+        <v>0.153118</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181311</v>
+        <v>0.181367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18326</v>
+        <v>0.183385</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148701</v>
+        <v>0.1488</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180294</v>
+        <v>0.180208</v>
       </c>
       <c r="D55" t="n">
-        <v>0.182049</v>
+        <v>0.181973</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144315</v>
+        <v>0.14462</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179156</v>
+        <v>0.179175</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180697</v>
+        <v>0.180701</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139914</v>
+        <v>0.139923</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177942</v>
+        <v>0.178006</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179171</v>
+        <v>0.179383</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135156</v>
+        <v>0.13519</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176871</v>
+        <v>0.176906</v>
       </c>
       <c r="D58" t="n">
-        <v>0.178004</v>
+        <v>0.177955</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130599</v>
+        <v>0.130296</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175791</v>
+        <v>0.175821</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176953</v>
+        <v>0.176853</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125676</v>
+        <v>0.125419</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174818</v>
+        <v>0.174572</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175707</v>
+        <v>0.175592</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120723</v>
+        <v>0.1206</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173701</v>
+        <v>0.17375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174418</v>
+        <v>0.174352</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11597</v>
+        <v>0.11573</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172771</v>
+        <v>0.172716</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173172</v>
+        <v>0.173276</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110989</v>
+        <v>0.110719</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171655</v>
+        <v>0.171749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172145</v>
+        <v>0.172037</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106237</v>
+        <v>0.106032</v>
       </c>
       <c r="C64" t="n">
-        <v>0.17072</v>
+        <v>0.17061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170959</v>
+        <v>0.170942</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101449</v>
+        <v>0.101198</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169626</v>
+        <v>0.169557</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169836</v>
+        <v>0.169638</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0965835</v>
+        <v>0.0964763</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168586</v>
+        <v>0.168454</v>
       </c>
       <c r="D66" t="n">
-        <v>0.16834</v>
+        <v>0.168447</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159803</v>
+        <v>0.160029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183642</v>
+        <v>0.183715</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185335</v>
+        <v>0.185488</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.155988</v>
+        <v>0.15632</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182562</v>
+        <v>0.182328</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183929</v>
+        <v>0.183937</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151772</v>
+        <v>0.151935</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181102</v>
+        <v>0.181137</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182498</v>
+        <v>0.182391</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147151</v>
+        <v>0.147269</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179881</v>
+        <v>0.179934</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181113</v>
+        <v>0.18105</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142591</v>
+        <v>0.142981</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178765</v>
+        <v>0.178762</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179843</v>
+        <v>0.179941</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137531</v>
+        <v>0.138009</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177529</v>
+        <v>0.177592</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178454</v>
+        <v>0.178553</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132789</v>
+        <v>0.133067</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176471</v>
+        <v>0.176433</v>
       </c>
       <c r="D73" t="n">
-        <v>0.17726</v>
+        <v>0.177338</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127741</v>
+        <v>0.128273</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175209</v>
+        <v>0.175413</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176239</v>
+        <v>0.176099</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.122912</v>
+        <v>0.123282</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174299</v>
+        <v>0.174399</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17494</v>
+        <v>0.174783</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118108</v>
+        <v>0.118439</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173147</v>
+        <v>0.173311</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173605</v>
+        <v>0.173515</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113231</v>
+        <v>0.113352</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171995</v>
+        <v>0.172132</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172194</v>
+        <v>0.172424</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108418</v>
+        <v>0.108575</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170922</v>
+        <v>0.171195</v>
       </c>
       <c r="D78" t="n">
-        <v>0.17109</v>
+        <v>0.171167</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103639</v>
+        <v>0.103557</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169944</v>
+        <v>0.169974</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169811</v>
+        <v>0.169895</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09856860000000001</v>
+        <v>0.09838810000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168735</v>
+        <v>0.168931</v>
       </c>
       <c r="D80" t="n">
-        <v>0.168681</v>
+        <v>0.168514</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.16149</v>
+        <v>0.161316</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183771</v>
+        <v>0.183807</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185299</v>
+        <v>0.185289</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157345</v>
+        <v>0.157288</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182468</v>
+        <v>0.182403</v>
       </c>
       <c r="D82" t="n">
-        <v>0.183907</v>
+        <v>0.183891</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153375</v>
+        <v>0.15297</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181373</v>
+        <v>0.181246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182728</v>
+        <v>0.182497</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148719</v>
+        <v>0.148226</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180054</v>
+        <v>0.179975</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181551</v>
+        <v>0.181121</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144131</v>
+        <v>0.143595</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178969</v>
+        <v>0.178839</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180007</v>
+        <v>0.179956</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138645</v>
+        <v>0.139084</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177742</v>
+        <v>0.177783</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178643</v>
+        <v>0.178749</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133894</v>
+        <v>0.134105</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176726</v>
+        <v>0.176667</v>
       </c>
       <c r="D87" t="n">
-        <v>0.17743</v>
+        <v>0.17739</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128954</v>
+        <v>0.128874</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175577</v>
+        <v>0.175584</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176153</v>
+        <v>0.176234</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123993</v>
+        <v>0.123987</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174442</v>
+        <v>0.174414</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174963</v>
+        <v>0.174985</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119154</v>
+        <v>0.119047</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173341</v>
+        <v>0.173339</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173744</v>
+        <v>0.173773</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114173</v>
+        <v>0.11413</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172329</v>
+        <v>0.172248</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172629</v>
+        <v>0.172561</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109155</v>
+        <v>0.10922</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171222</v>
+        <v>0.17128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171403</v>
+        <v>0.171362</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104295</v>
+        <v>0.10427</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170189</v>
+        <v>0.170206</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170139</v>
+        <v>0.170119</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994332</v>
+        <v>0.0993371</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169007</v>
+        <v>0.169102</v>
       </c>
       <c r="D94" t="n">
-        <v>0.168914</v>
+        <v>0.168874</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162312</v>
+        <v>0.162616</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184578</v>
+        <v>0.184614</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185972</v>
+        <v>0.186018</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158764</v>
+        <v>0.158715</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183195</v>
+        <v>0.18322</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184514</v>
+        <v>0.184535</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154817</v>
+        <v>0.154217</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181824</v>
+        <v>0.181832</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183201</v>
+        <v>0.183072</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150128</v>
+        <v>0.14968</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180597</v>
+        <v>0.180552</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181744</v>
+        <v>0.181733</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145202</v>
+        <v>0.144796</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179424</v>
+        <v>0.179375</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180327</v>
+        <v>0.180483</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140428</v>
+        <v>0.140039</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178279</v>
+        <v>0.178187</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178989</v>
+        <v>0.179025</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13516</v>
+        <v>0.135205</v>
       </c>
       <c r="C101" t="n">
-        <v>0.17708</v>
+        <v>0.177023</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177714</v>
+        <v>0.177787</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130118</v>
+        <v>0.130001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.17583</v>
+        <v>0.175916</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176515</v>
+        <v>0.176459</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125166</v>
+        <v>0.124978</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174725</v>
+        <v>0.17472</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175277</v>
+        <v>0.175282</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120372</v>
+        <v>0.120027</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173657</v>
+        <v>0.173672</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174055</v>
+        <v>0.174053</v>
       </c>
     </row>
     <row r="105">
@@ -4694,10 +4694,10 @@
         <v>0.115235</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172573</v>
+        <v>0.172584</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172901</v>
+        <v>0.172895</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110307</v>
+        <v>0.11035</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171471</v>
+        <v>0.171552</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171705</v>
+        <v>0.171653</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105351</v>
+        <v>0.105268</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170533</v>
+        <v>0.170517</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170465</v>
+        <v>0.170389</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100424</v>
+        <v>0.100401</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169446</v>
+        <v>0.169451</v>
       </c>
       <c r="D108" t="n">
-        <v>0.169155</v>
+        <v>0.16914</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0954985</v>
+        <v>0.0955061</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168301</v>
+        <v>0.168249</v>
       </c>
       <c r="D109" t="n">
-        <v>0.167837</v>
+        <v>0.167858</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159342</v>
+        <v>0.159606</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18353</v>
+        <v>0.183614</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184822</v>
+        <v>0.18489</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155445</v>
+        <v>0.155349</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182203</v>
+        <v>0.182248</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183392</v>
+        <v>0.183354</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150563</v>
+        <v>0.150836</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180935</v>
+        <v>0.18096</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181979</v>
+        <v>0.181935</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146035</v>
+        <v>0.146074</v>
       </c>
       <c r="C113" t="n">
-        <v>0.17965</v>
+        <v>0.179668</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180554</v>
+        <v>0.180607</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141225</v>
+        <v>0.141128</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178506</v>
+        <v>0.178522</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179256</v>
+        <v>0.179334</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136358</v>
+        <v>0.136325</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177245</v>
+        <v>0.177266</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178054</v>
+        <v>0.177984</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.13129</v>
+        <v>0.131242</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176214</v>
+        <v>0.176139</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176763</v>
+        <v>0.176754</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126011</v>
+        <v>0.126203</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175014</v>
+        <v>0.175061</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175507</v>
+        <v>0.175536</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120922</v>
+        <v>0.121176</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173966</v>
+        <v>0.173978</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174333</v>
+        <v>0.174313</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116065</v>
+        <v>0.116131</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172859</v>
+        <v>0.172869</v>
       </c>
       <c r="D119" t="n">
-        <v>0.17311</v>
+        <v>0.173105</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111148</v>
+        <v>0.111244</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171771</v>
+        <v>0.171913</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171888</v>
+        <v>0.171942</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106284</v>
+        <v>0.106366</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170784</v>
+        <v>0.170745</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170677</v>
+        <v>0.170697</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101364</v>
+        <v>0.101468</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169679</v>
+        <v>0.169656</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169431</v>
+        <v>0.169577</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965047</v>
+        <v>0.09654890000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168583</v>
+        <v>0.16857</v>
       </c>
       <c r="D123" t="n">
-        <v>0.168133</v>
+        <v>0.168138</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169542</v>
+        <v>0.169832</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184022</v>
+        <v>0.184016</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185177</v>
+        <v>0.18518</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1654</v>
+        <v>0.165221</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182574</v>
+        <v>0.182547</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183675</v>
+        <v>0.183652</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.157786</v>
+        <v>0.160099</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181644</v>
+        <v>0.181256</v>
       </c>
       <c r="D126" t="n">
-        <v>0.18216</v>
+        <v>0.182271</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154619</v>
+        <v>0.1552</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179788</v>
+        <v>0.179996</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180788</v>
+        <v>0.180896</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14906</v>
+        <v>0.14885</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178554</v>
+        <v>0.178542</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179483</v>
+        <v>0.179489</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144373</v>
+        <v>0.142051</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177606</v>
+        <v>0.177392</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178276</v>
+        <v>0.178151</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138828</v>
+        <v>0.138661</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176417</v>
+        <v>0.176231</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177076</v>
+        <v>0.176873</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133432</v>
+        <v>0.135086</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175259</v>
+        <v>0.175276</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175818</v>
+        <v>0.175796</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.127914</v>
+        <v>0.128451</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174248</v>
+        <v>0.174134</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174563</v>
+        <v>0.174617</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.122847</v>
+        <v>0.123129</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173029</v>
+        <v>0.173119</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173376</v>
+        <v>0.173388</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.117729</v>
+        <v>0.118003</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172039</v>
+        <v>0.172035</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172088</v>
+        <v>0.172229</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.112673</v>
+        <v>0.113014</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170937</v>
+        <v>0.170947</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170938</v>
+        <v>0.170949</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107507</v>
+        <v>0.107885</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169865</v>
+        <v>0.16987</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169727</v>
+        <v>0.169729</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102322</v>
+        <v>0.102763</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168747</v>
+        <v>0.168812</v>
       </c>
       <c r="D137" t="n">
-        <v>0.168421</v>
+        <v>0.168463</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170738</v>
+        <v>0.170729</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194367</v>
+        <v>0.194366</v>
       </c>
       <c r="D138" t="n">
-        <v>0.195528</v>
+        <v>0.195648</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166396</v>
+        <v>0.166121</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192183</v>
+        <v>0.192194</v>
       </c>
       <c r="D139" t="n">
-        <v>0.193491</v>
+        <v>0.193301</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161259</v>
+        <v>0.161242</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190367</v>
+        <v>0.190371</v>
       </c>
       <c r="D140" t="n">
-        <v>0.191405</v>
+        <v>0.191532</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156149</v>
+        <v>0.156075</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188571</v>
+        <v>0.188629</v>
       </c>
       <c r="D141" t="n">
-        <v>0.18955</v>
+        <v>0.189554</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150987</v>
+        <v>0.150751</v>
       </c>
       <c r="C142" t="n">
-        <v>0.187039</v>
+        <v>0.186977</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187934</v>
+        <v>0.187885</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14554</v>
+        <v>0.145626</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185336</v>
+        <v>0.185412</v>
       </c>
       <c r="D143" t="n">
-        <v>0.186209</v>
+        <v>0.186135</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0646803</v>
+        <v>0.0645099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15743</v>
+        <v>0.157441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161396</v>
+        <v>0.164523</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641699</v>
+        <v>0.0644353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.158016</v>
+        <v>0.15798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.162215</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06392639999999999</v>
+        <v>0.0644337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158202</v>
+        <v>0.158415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.162263</v>
+        <v>0.164883</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0639686</v>
+        <v>0.0645908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158287</v>
+        <v>0.15862</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162212</v>
+        <v>0.16391</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06424299999999999</v>
+        <v>0.0644844</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158051</v>
+        <v>0.158977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162168</v>
+        <v>0.163368</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0644769</v>
+        <v>0.0650355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158659</v>
+        <v>0.158909</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162457</v>
+        <v>0.16282</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.065077</v>
+        <v>0.0657895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158703</v>
+        <v>0.159545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162199</v>
+        <v>0.162234</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0657263</v>
+        <v>0.06640459999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158208</v>
+        <v>0.159288</v>
       </c>
       <c r="D9" t="n">
-        <v>0.161611</v>
+        <v>0.177282</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0908129</v>
+        <v>0.09325079999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164819</v>
+        <v>0.163832</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175107</v>
+        <v>0.176826</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09217110000000001</v>
+        <v>0.092448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165131</v>
+        <v>0.164794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.174227</v>
+        <v>0.175851</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0910048</v>
+        <v>0.0926497</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165054</v>
+        <v>0.16516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17354</v>
+        <v>0.175489</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0907466</v>
+        <v>0.0913667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164879</v>
+        <v>0.164307</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173215</v>
+        <v>0.174568</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0894664</v>
+        <v>0.09178500000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164924</v>
+        <v>0.165377</v>
       </c>
       <c r="D14" t="n">
-        <v>0.172626</v>
+        <v>0.173819</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0892686</v>
+        <v>0.0906047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164861</v>
+        <v>0.16456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172564</v>
+        <v>0.173471</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0881565</v>
+        <v>0.0893665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165612</v>
+        <v>0.164602</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172153</v>
+        <v>0.172602</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0866498</v>
+        <v>0.0901647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.16427</v>
+        <v>0.164292</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171178</v>
+        <v>0.171963</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0851198</v>
+        <v>0.0882995</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164468</v>
+        <v>0.164171</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170796</v>
+        <v>0.170879</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0833685</v>
+        <v>0.087107</v>
       </c>
       <c r="C19" t="n">
-        <v>0.163832</v>
+        <v>0.164846</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16943</v>
+        <v>0.170366</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08340259999999999</v>
+        <v>0.08603470000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165683</v>
+        <v>0.165615</v>
       </c>
       <c r="D20" t="n">
-        <v>0.16935</v>
+        <v>0.168508</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0834979</v>
+        <v>0.0806524</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166936</v>
+        <v>0.163947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.170418</v>
+        <v>0.167128</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0811217</v>
+        <v>0.0789625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.163461</v>
+        <v>0.163372</v>
       </c>
       <c r="D22" t="n">
-        <v>0.167919</v>
+        <v>0.165721</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07942</v>
+        <v>0.0809232</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164579</v>
+        <v>0.164506</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166941</v>
+        <v>0.185657</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136377</v>
+        <v>0.134221</v>
       </c>
       <c r="C24" t="n">
-        <v>0.177154</v>
+        <v>0.179678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184014</v>
+        <v>0.184282</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132257</v>
+        <v>0.131604</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175841</v>
+        <v>0.177588</v>
       </c>
       <c r="D25" t="n">
-        <v>0.181631</v>
+        <v>0.183108</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.12951</v>
+        <v>0.12896</v>
       </c>
       <c r="C26" t="n">
-        <v>0.174137</v>
+        <v>0.177142</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179789</v>
+        <v>0.180874</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.126051</v>
+        <v>0.126008</v>
       </c>
       <c r="C27" t="n">
-        <v>0.174906</v>
+        <v>0.176059</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179819</v>
+        <v>0.180171</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122081</v>
+        <v>0.122944</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175649</v>
+        <v>0.172838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17735</v>
+        <v>0.178108</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.119532</v>
+        <v>0.120562</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174083</v>
+        <v>0.172911</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177161</v>
+        <v>0.176858</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117212</v>
+        <v>0.117659</v>
       </c>
       <c r="C30" t="n">
-        <v>0.174117</v>
+        <v>0.171344</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176167</v>
+        <v>0.175805</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113463</v>
+        <v>0.11376</v>
       </c>
       <c r="C31" t="n">
-        <v>0.171703</v>
+        <v>0.172249</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174863</v>
+        <v>0.175162</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110505</v>
+        <v>0.111355</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170767</v>
+        <v>0.171638</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173772</v>
+        <v>0.174133</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107764</v>
+        <v>0.107286</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170942</v>
+        <v>0.170531</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172992</v>
+        <v>0.172461</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103771</v>
+        <v>0.104068</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170009</v>
+        <v>0.171265</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171778</v>
+        <v>0.170989</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0989546</v>
+        <v>0.09901409999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169626</v>
+        <v>0.169633</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170306</v>
+        <v>0.170001</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0949931</v>
+        <v>0.09449689999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168159</v>
+        <v>0.168826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.170066</v>
+        <v>0.168853</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0906628</v>
+        <v>0.090165</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168463</v>
+        <v>0.167175</v>
       </c>
       <c r="D37" t="n">
-        <v>0.168178</v>
+        <v>0.186815</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.153285</v>
+        <v>0.152721</v>
       </c>
       <c r="C38" t="n">
-        <v>0.18263</v>
+        <v>0.182457</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185386</v>
+        <v>0.185788</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150248</v>
+        <v>0.149771</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181742</v>
+        <v>0.181666</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183991</v>
+        <v>0.183712</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146725</v>
+        <v>0.146595</v>
       </c>
       <c r="C40" t="n">
-        <v>0.18004</v>
+        <v>0.180197</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182667</v>
+        <v>0.18226</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142875</v>
+        <v>0.142619</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17933</v>
+        <v>0.179014</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180871</v>
+        <v>0.181388</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1391</v>
+        <v>0.139745</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178229</v>
+        <v>0.177777</v>
       </c>
       <c r="D42" t="n">
-        <v>0.180226</v>
+        <v>0.180086</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134878</v>
+        <v>0.134951</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177085</v>
+        <v>0.176685</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178687</v>
+        <v>0.178693</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130584</v>
+        <v>0.13113</v>
       </c>
       <c r="C44" t="n">
-        <v>0.176227</v>
+        <v>0.175797</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177518</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126218</v>
+        <v>0.126291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17514</v>
+        <v>0.174354</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176283</v>
+        <v>0.176064</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121995</v>
+        <v>0.12205</v>
       </c>
       <c r="C46" t="n">
-        <v>0.174061</v>
+        <v>0.173926</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17529</v>
+        <v>0.174626</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.117112</v>
+        <v>0.11727</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172374</v>
+        <v>0.172406</v>
       </c>
       <c r="D47" t="n">
-        <v>0.174028</v>
+        <v>0.173559</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112537</v>
+        <v>0.112835</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172052</v>
+        <v>0.172189</v>
       </c>
       <c r="D48" t="n">
-        <v>0.173013</v>
+        <v>0.171932</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107995</v>
+        <v>0.108024</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17063</v>
+        <v>0.171042</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171646</v>
+        <v>0.170374</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103069</v>
+        <v>0.103271</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170095</v>
+        <v>0.170376</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170291</v>
+        <v>0.168856</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09826550000000001</v>
+        <v>0.0975599</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168855</v>
+        <v>0.169196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.169713</v>
+        <v>0.187795</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0930961</v>
+        <v>0.09294819999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16804</v>
+        <v>0.167768</v>
       </c>
       <c r="D52" t="n">
-        <v>0.168389</v>
+        <v>0.1861</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156639</v>
+        <v>0.15676</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182832</v>
+        <v>0.182647</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184707</v>
+        <v>0.184743</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153118</v>
+        <v>0.153157</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181367</v>
+        <v>0.181212</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183385</v>
+        <v>0.183069</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1488</v>
+        <v>0.148926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180208</v>
+        <v>0.180014</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181973</v>
+        <v>0.181844</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.14462</v>
+        <v>0.144496</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179175</v>
+        <v>0.179127</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180701</v>
+        <v>0.180332</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139923</v>
+        <v>0.139884</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178006</v>
+        <v>0.177943</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179383</v>
+        <v>0.179109</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.13519</v>
+        <v>0.135077</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176906</v>
+        <v>0.17656</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177955</v>
+        <v>0.177632</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130296</v>
+        <v>0.130195</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175821</v>
+        <v>0.175557</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176853</v>
+        <v>0.176192</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125419</v>
+        <v>0.125296</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174572</v>
+        <v>0.174283</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175592</v>
+        <v>0.174812</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1206</v>
+        <v>0.120714</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17375</v>
+        <v>0.173558</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174352</v>
+        <v>0.173411</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11573</v>
+        <v>0.115963</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172716</v>
+        <v>0.172513</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173276</v>
+        <v>0.172095</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110719</v>
+        <v>0.111113</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171749</v>
+        <v>0.170901</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172037</v>
+        <v>0.170854</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106032</v>
+        <v>0.106037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.17061</v>
+        <v>0.170315</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170942</v>
+        <v>0.169586</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101198</v>
+        <v>0.10128</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169557</v>
+        <v>0.169537</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169638</v>
+        <v>0.168547</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0964763</v>
+        <v>0.09665899999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168454</v>
+        <v>0.168466</v>
       </c>
       <c r="D66" t="n">
-        <v>0.168447</v>
+        <v>0.186762</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160029</v>
+        <v>0.160596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183715</v>
+        <v>0.1836</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185488</v>
+        <v>0.185353</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.15632</v>
+        <v>0.156696</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182328</v>
+        <v>0.182474</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183937</v>
+        <v>0.183808</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151935</v>
+        <v>0.152085</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181137</v>
+        <v>0.181054</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182391</v>
+        <v>0.18235</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147269</v>
+        <v>0.14788</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179934</v>
+        <v>0.179824</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18105</v>
+        <v>0.180996</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142981</v>
+        <v>0.142844</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178762</v>
+        <v>0.178718</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179941</v>
+        <v>0.17957</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138009</v>
+        <v>0.138144</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177592</v>
+        <v>0.17748</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178553</v>
+        <v>0.178252</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133067</v>
+        <v>0.133224</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176433</v>
+        <v>0.176436</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177338</v>
+        <v>0.176849</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128273</v>
+        <v>0.12846</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175413</v>
+        <v>0.175292</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176099</v>
+        <v>0.175628</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123282</v>
+        <v>0.123413</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174399</v>
+        <v>0.174113</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174783</v>
+        <v>0.174359</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118439</v>
+        <v>0.118247</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173311</v>
+        <v>0.173177</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173515</v>
+        <v>0.173091</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113352</v>
+        <v>0.113636</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172132</v>
+        <v>0.172285</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172424</v>
+        <v>0.17198</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108575</v>
+        <v>0.108811</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171195</v>
+        <v>0.171056</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171167</v>
+        <v>0.170771</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103557</v>
+        <v>0.103893</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169974</v>
+        <v>0.169955</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169895</v>
+        <v>0.169413</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09838810000000001</v>
+        <v>0.09895230000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168931</v>
+        <v>0.168893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.168514</v>
+        <v>0.187166</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161316</v>
+        <v>0.161575</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183807</v>
+        <v>0.183897</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185289</v>
+        <v>0.185639</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157288</v>
+        <v>0.157455</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182403</v>
+        <v>0.182574</v>
       </c>
       <c r="D82" t="n">
-        <v>0.183891</v>
+        <v>0.184172</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.15297</v>
+        <v>0.152908</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181246</v>
+        <v>0.181334</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182497</v>
+        <v>0.182757</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148226</v>
+        <v>0.148373</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179975</v>
+        <v>0.180067</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181121</v>
+        <v>0.181324</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143595</v>
+        <v>0.143742</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178839</v>
+        <v>0.178859</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179956</v>
+        <v>0.179926</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139084</v>
+        <v>0.138841</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177783</v>
+        <v>0.17778</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178749</v>
+        <v>0.178642</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134105</v>
+        <v>0.133944</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176667</v>
+        <v>0.176563</v>
       </c>
       <c r="D87" t="n">
-        <v>0.17739</v>
+        <v>0.177332</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128874</v>
+        <v>0.129118</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175584</v>
+        <v>0.175362</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176234</v>
+        <v>0.176093</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123987</v>
+        <v>0.124048</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174414</v>
+        <v>0.174302</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174985</v>
+        <v>0.174844</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119047</v>
+        <v>0.118872</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173339</v>
+        <v>0.173191</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173773</v>
+        <v>0.173822</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.11413</v>
+        <v>0.114153</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172248</v>
+        <v>0.172205</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172561</v>
+        <v>0.172546</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10922</v>
+        <v>0.10916</v>
       </c>
       <c r="C92" t="n">
-        <v>0.17128</v>
+        <v>0.171141</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171362</v>
+        <v>0.171232</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10427</v>
+        <v>0.104225</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170206</v>
+        <v>0.170162</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170119</v>
+        <v>0.169981</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993371</v>
+        <v>0.0993153</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169102</v>
+        <v>0.169041</v>
       </c>
       <c r="D94" t="n">
-        <v>0.168874</v>
+        <v>0.187555</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162616</v>
+        <v>0.162502</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184614</v>
+        <v>0.184456</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186018</v>
+        <v>0.185966</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158715</v>
+        <v>0.158428</v>
       </c>
       <c r="C96" t="n">
         <v>0.18322</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184535</v>
+        <v>0.184548</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154217</v>
+        <v>0.154258</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181832</v>
+        <v>0.181768</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183072</v>
+        <v>0.183059</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14968</v>
+        <v>0.14996</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180552</v>
+        <v>0.180575</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181733</v>
+        <v>0.18161</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144796</v>
+        <v>0.145195</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179375</v>
+        <v>0.179269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180483</v>
+        <v>0.18033</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140039</v>
+        <v>0.140145</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178187</v>
+        <v>0.178088</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179025</v>
+        <v>0.178973</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135205</v>
+        <v>0.13539</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177023</v>
+        <v>0.176993</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177787</v>
+        <v>0.177723</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130001</v>
+        <v>0.130274</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175916</v>
+        <v>0.17569</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176459</v>
+        <v>0.176469</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124978</v>
+        <v>0.125091</v>
       </c>
       <c r="C103" t="n">
-        <v>0.17472</v>
+        <v>0.174669</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175282</v>
+        <v>0.175243</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120027</v>
+        <v>0.120212</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173672</v>
+        <v>0.173595</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174053</v>
+        <v>0.174089</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115235</v>
+        <v>0.11518</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172584</v>
+        <v>0.172438</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172895</v>
+        <v>0.172824</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.11035</v>
+        <v>0.110328</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171552</v>
+        <v>0.171399</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171653</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105268</v>
+        <v>0.105407</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170517</v>
+        <v>0.170286</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170389</v>
+        <v>0.170338</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100401</v>
+        <v>0.100549</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169451</v>
+        <v>0.169229</v>
       </c>
       <c r="D108" t="n">
-        <v>0.16914</v>
+        <v>0.187906</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955061</v>
+        <v>0.0955585</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168249</v>
+        <v>0.168136</v>
       </c>
       <c r="D109" t="n">
-        <v>0.167858</v>
+        <v>0.186363</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159606</v>
+        <v>0.159586</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183614</v>
+        <v>0.183489</v>
       </c>
       <c r="D110" t="n">
-        <v>0.18489</v>
+        <v>0.184815</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155349</v>
+        <v>0.155309</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182248</v>
+        <v>0.182095</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183354</v>
+        <v>0.183289</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150836</v>
+        <v>0.150634</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18096</v>
+        <v>0.180831</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181935</v>
+        <v>0.18195</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146074</v>
+        <v>0.14588</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179668</v>
+        <v>0.179573</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180607</v>
+        <v>0.180581</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141128</v>
+        <v>0.141292</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178522</v>
+        <v>0.178365</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179334</v>
+        <v>0.179286</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136325</v>
+        <v>0.136344</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177266</v>
+        <v>0.177215</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177984</v>
+        <v>0.178392</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131242</v>
+        <v>0.133538</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176139</v>
+        <v>0.181375</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176754</v>
+        <v>0.182705</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126203</v>
+        <v>0.130941</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175061</v>
+        <v>0.1789</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175536</v>
+        <v>0.175655</v>
       </c>
     </row>
     <row r="118">
@@ -4873,10 +4873,10 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121176</v>
+        <v>0.121102</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173978</v>
+        <v>0.173837</v>
       </c>
       <c r="D118" t="n">
         <v>0.174313</v>
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116131</v>
+        <v>0.116216</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172869</v>
+        <v>0.172791</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173105</v>
+        <v>0.173043</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111244</v>
+        <v>0.111245</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171913</v>
+        <v>0.171754</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171942</v>
+        <v>0.171832</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106366</v>
+        <v>0.106359</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170745</v>
+        <v>0.170609</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170697</v>
+        <v>0.170582</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101468</v>
+        <v>0.10151</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169656</v>
+        <v>0.169583</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169577</v>
+        <v>0.169294</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09654890000000001</v>
+        <v>0.0965777</v>
       </c>
       <c r="C123" t="n">
-        <v>0.16857</v>
+        <v>0.168424</v>
       </c>
       <c r="D123" t="n">
-        <v>0.168138</v>
+        <v>0.186759</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169832</v>
+        <v>0.164109</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184016</v>
+        <v>0.183896</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18518</v>
+        <v>0.18512</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165221</v>
+        <v>0.165374</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182547</v>
+        <v>0.182428</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183652</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160099</v>
+        <v>0.160533</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181256</v>
+        <v>0.181121</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182271</v>
+        <v>0.182223</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1552</v>
+        <v>0.15551</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179996</v>
+        <v>0.179901</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180896</v>
+        <v>0.180842</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14885</v>
+        <v>0.150093</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178542</v>
+        <v>0.178636</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179489</v>
+        <v>0.179544</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.142051</v>
+        <v>0.144796</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177392</v>
+        <v>0.177442</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178151</v>
+        <v>0.178208</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138661</v>
+        <v>0.138918</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176231</v>
+        <v>0.176326</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176873</v>
+        <v>0.177065</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.135086</v>
+        <v>0.13365</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175276</v>
+        <v>0.175171</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175796</v>
+        <v>0.175745</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128451</v>
+        <v>0.12853</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174134</v>
+        <v>0.174047</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174617</v>
+        <v>0.174489</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123129</v>
+        <v>0.123495</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173119</v>
+        <v>0.172961</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173388</v>
+        <v>0.173279</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118003</v>
+        <v>0.118221</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172035</v>
+        <v>0.171992</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172229</v>
+        <v>0.17207</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113014</v>
+        <v>0.113038</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170947</v>
+        <v>0.170876</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170949</v>
+        <v>0.170782</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107885</v>
+        <v>0.108044</v>
       </c>
       <c r="C136" t="n">
-        <v>0.16987</v>
+        <v>0.169727</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169729</v>
+        <v>0.169637</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102763</v>
+        <v>0.102822</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168812</v>
+        <v>0.168615</v>
       </c>
       <c r="D137" t="n">
-        <v>0.168463</v>
+        <v>0.196404</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170729</v>
+        <v>0.170602</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194366</v>
+        <v>0.194123</v>
       </c>
       <c r="D138" t="n">
-        <v>0.195648</v>
+        <v>0.19438</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166121</v>
+        <v>0.166122</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192194</v>
+        <v>0.192306</v>
       </c>
       <c r="D139" t="n">
-        <v>0.193301</v>
+        <v>0.192366</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161242</v>
+        <v>0.161526</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190371</v>
+        <v>0.190271</v>
       </c>
       <c r="D140" t="n">
-        <v>0.191532</v>
+        <v>0.190632</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156075</v>
+        <v>0.156743</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188629</v>
+        <v>0.188538</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189554</v>
+        <v>0.188947</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150751</v>
+        <v>0.151413</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186977</v>
+        <v>0.186928</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187885</v>
+        <v>0.187199</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145626</v>
+        <v>0.145826</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185412</v>
+        <v>0.185336</v>
       </c>
       <c r="D143" t="n">
-        <v>0.186135</v>
+        <v>0.185598</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0645099</v>
+        <v>0.0648379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157441</v>
+        <v>0.157261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164523</v>
+        <v>0.164503</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0644353</v>
+        <v>0.0644931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15798</v>
+        <v>0.157391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164658</v>
+        <v>0.165742</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0644337</v>
+        <v>0.0644979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158415</v>
+        <v>0.15866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164883</v>
+        <v>0.16521</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0645908</v>
+        <v>0.06483800000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15862</v>
+        <v>0.158664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16391</v>
+        <v>0.164806</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0644844</v>
+        <v>0.064486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158977</v>
+        <v>0.158877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163368</v>
+        <v>0.163824</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0650355</v>
+        <v>0.0648309</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158909</v>
+        <v>0.158765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16282</v>
+        <v>0.16316</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0657895</v>
+        <v>0.0655081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159545</v>
+        <v>0.159179</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162234</v>
+        <v>0.162655</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06640459999999999</v>
+        <v>0.0660697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159288</v>
+        <v>0.159252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177282</v>
+        <v>0.177565</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09325079999999999</v>
+        <v>0.09148050000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.163832</v>
+        <v>0.164074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176826</v>
+        <v>0.177096</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.092448</v>
+        <v>0.09264029999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164794</v>
+        <v>0.164943</v>
       </c>
       <c r="D11" t="n">
-        <v>0.175851</v>
+        <v>0.176344</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0926497</v>
+        <v>0.0925421</v>
       </c>
       <c r="C12" t="n">
-        <v>0.16516</v>
+        <v>0.164274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175489</v>
+        <v>0.175612</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0913667</v>
+        <v>0.0922791</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164307</v>
+        <v>0.165782</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174568</v>
+        <v>0.175235</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09178500000000001</v>
+        <v>0.0920589</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165377</v>
+        <v>0.164435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173819</v>
+        <v>0.173627</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0906047</v>
+        <v>0.0912854</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16456</v>
+        <v>0.165496</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173471</v>
+        <v>0.173415</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0893665</v>
+        <v>0.0886642</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164602</v>
+        <v>0.165171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172602</v>
+        <v>0.172759</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0901647</v>
+        <v>0.08949699999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164292</v>
+        <v>0.164492</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171963</v>
+        <v>0.171736</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0882995</v>
+        <v>0.088367</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164171</v>
+        <v>0.164247</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170879</v>
+        <v>0.170681</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.087107</v>
+        <v>0.0897621</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164846</v>
+        <v>0.167545</v>
       </c>
       <c r="D19" t="n">
-        <v>0.170366</v>
+        <v>0.17109</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08603470000000001</v>
+        <v>0.0871857</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165615</v>
+        <v>0.167485</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168508</v>
+        <v>0.170296</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0806524</v>
+        <v>0.0847339</v>
       </c>
       <c r="C21" t="n">
-        <v>0.163947</v>
+        <v>0.165492</v>
       </c>
       <c r="D21" t="n">
-        <v>0.167128</v>
+        <v>0.168815</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0789625</v>
+        <v>0.0831977</v>
       </c>
       <c r="C22" t="n">
-        <v>0.163372</v>
+        <v>0.164344</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165721</v>
+        <v>0.166355</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0809232</v>
+        <v>0.08132929999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164506</v>
+        <v>0.164048</v>
       </c>
       <c r="D23" t="n">
-        <v>0.185657</v>
+        <v>0.185779</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134221</v>
+        <v>0.133873</v>
       </c>
       <c r="C24" t="n">
-        <v>0.179678</v>
+        <v>0.17761</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184282</v>
+        <v>0.184672</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131604</v>
+        <v>0.132056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177588</v>
+        <v>0.176045</v>
       </c>
       <c r="D25" t="n">
-        <v>0.183108</v>
+        <v>0.182695</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.12896</v>
+        <v>0.12954</v>
       </c>
       <c r="C26" t="n">
-        <v>0.177142</v>
+        <v>0.175619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180874</v>
+        <v>0.181862</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.126008</v>
+        <v>0.126636</v>
       </c>
       <c r="C27" t="n">
-        <v>0.176059</v>
+        <v>0.175733</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180171</v>
+        <v>0.179161</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122944</v>
+        <v>0.123682</v>
       </c>
       <c r="C28" t="n">
-        <v>0.172838</v>
+        <v>0.172652</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178108</v>
+        <v>0.178039</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120562</v>
+        <v>0.120428</v>
       </c>
       <c r="C29" t="n">
-        <v>0.172911</v>
+        <v>0.172704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176858</v>
+        <v>0.177426</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117659</v>
+        <v>0.116944</v>
       </c>
       <c r="C30" t="n">
-        <v>0.171344</v>
+        <v>0.173197</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175805</v>
+        <v>0.175274</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11376</v>
+        <v>0.114097</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172249</v>
+        <v>0.170939</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175162</v>
+        <v>0.174906</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111355</v>
+        <v>0.111636</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171638</v>
+        <v>0.172239</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174133</v>
+        <v>0.172998</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107286</v>
+        <v>0.107379</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170531</v>
+        <v>0.171079</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172461</v>
+        <v>0.172197</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104068</v>
+        <v>0.104227</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171265</v>
+        <v>0.170033</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170989</v>
+        <v>0.171488</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09901409999999999</v>
+        <v>0.09924379999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169633</v>
+        <v>0.168906</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170001</v>
+        <v>0.169418</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09449689999999999</v>
+        <v>0.09461120000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168826</v>
+        <v>0.167715</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168853</v>
+        <v>0.168189</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.090165</v>
+        <v>0.0900705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167175</v>
+        <v>0.167059</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186815</v>
+        <v>0.186825</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152721</v>
+        <v>0.151958</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182457</v>
+        <v>0.182727</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185788</v>
+        <v>0.185148</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149771</v>
+        <v>0.148594</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181666</v>
+        <v>0.180813</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183712</v>
+        <v>0.183468</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146595</v>
+        <v>0.14556</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180197</v>
+        <v>0.179894</v>
       </c>
       <c r="D40" t="n">
-        <v>0.18226</v>
+        <v>0.181895</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142619</v>
+        <v>0.142017</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179014</v>
+        <v>0.178537</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181388</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.139745</v>
+        <v>0.138259</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177777</v>
+        <v>0.178233</v>
       </c>
       <c r="D42" t="n">
-        <v>0.180086</v>
+        <v>0.179388</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134951</v>
+        <v>0.134406</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176685</v>
+        <v>0.176084</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178693</v>
+        <v>0.178514</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.13113</v>
+        <v>0.130219</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175797</v>
+        <v>0.175629</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1774</v>
+        <v>0.177357</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126291</v>
+        <v>0.126184</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174354</v>
+        <v>0.17501</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176064</v>
+        <v>0.175813</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12205</v>
+        <v>0.121844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173926</v>
+        <v>0.173497</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174626</v>
+        <v>0.174667</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11727</v>
+        <v>0.11711</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172406</v>
+        <v>0.172835</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173559</v>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112835</v>
+        <v>0.112556</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172189</v>
+        <v>0.171924</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171932</v>
+        <v>0.171939</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108024</v>
+        <v>0.108181</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171042</v>
+        <v>0.170918</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170374</v>
+        <v>0.170331</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103271</v>
+        <v>0.103245</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170376</v>
+        <v>0.170422</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168856</v>
+        <v>0.16888</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0975599</v>
+        <v>0.0981566</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169196</v>
+        <v>0.168833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187795</v>
+        <v>0.187763</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09294819999999999</v>
+        <v>0.092649</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167768</v>
+        <v>0.168026</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1861</v>
+        <v>0.18594</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15676</v>
+        <v>0.15627</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182647</v>
+        <v>0.182643</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184743</v>
+        <v>0.184583</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153157</v>
+        <v>0.152776</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181212</v>
+        <v>0.181457</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183069</v>
+        <v>0.18312</v>
       </c>
     </row>
     <row r="55">
@@ -3991,10 +3991,10 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148926</v>
+        <v>0.148567</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180014</v>
+        <v>0.180107</v>
       </c>
       <c r="D55" t="n">
         <v>0.181844</v>
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144496</v>
+        <v>0.144146</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179127</v>
+        <v>0.17916</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180332</v>
+        <v>0.180454</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139884</v>
+        <v>0.139776</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177943</v>
+        <v>0.177999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179109</v>
+        <v>0.179066</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135077</v>
+        <v>0.135391</v>
       </c>
       <c r="C58" t="n">
-        <v>0.17656</v>
+        <v>0.176743</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177632</v>
+        <v>0.177808</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130195</v>
+        <v>0.130381</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175557</v>
+        <v>0.175843</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176192</v>
+        <v>0.176494</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125296</v>
+        <v>0.125583</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174283</v>
+        <v>0.174728</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174812</v>
+        <v>0.175139</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120714</v>
+        <v>0.120916</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173558</v>
+        <v>0.173764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173411</v>
+        <v>0.173711</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115963</v>
+        <v>0.115993</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172513</v>
+        <v>0.17263</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172095</v>
+        <v>0.172315</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111113</v>
+        <v>0.111263</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170901</v>
+        <v>0.17155</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170854</v>
+        <v>0.170949</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106037</v>
+        <v>0.106164</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170315</v>
+        <v>0.170607</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169586</v>
+        <v>0.16976</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.10128</v>
+        <v>0.101447</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169537</v>
+        <v>0.169373</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168547</v>
+        <v>0.168539</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09665899999999999</v>
+        <v>0.09650839999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168466</v>
+        <v>0.168427</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186762</v>
+        <v>0.186931</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160596</v>
+        <v>0.159911</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1836</v>
+        <v>0.183711</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185353</v>
+        <v>0.185418</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156696</v>
+        <v>0.15615</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182474</v>
+        <v>0.182448</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183808</v>
+        <v>0.18397</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152085</v>
+        <v>0.151784</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181054</v>
+        <v>0.180986</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18235</v>
+        <v>0.182406</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.14788</v>
+        <v>0.147072</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179824</v>
+        <v>0.179749</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180996</v>
+        <v>0.181009</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142844</v>
+        <v>0.142747</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178718</v>
+        <v>0.178608</v>
       </c>
       <c r="D71" t="n">
-        <v>0.17957</v>
+        <v>0.179621</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138144</v>
+        <v>0.13783</v>
       </c>
       <c r="C72" t="n">
-        <v>0.17748</v>
+        <v>0.177555</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178252</v>
+        <v>0.17834</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133224</v>
+        <v>0.133021</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176436</v>
+        <v>0.176398</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176849</v>
+        <v>0.176962</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.12846</v>
+        <v>0.128113</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175292</v>
+        <v>0.175298</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175628</v>
+        <v>0.17558</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123413</v>
+        <v>0.123147</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174113</v>
+        <v>0.174112</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174359</v>
+        <v>0.174372</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118247</v>
+        <v>0.118372</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173177</v>
+        <v>0.173146</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173091</v>
+        <v>0.173169</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113636</v>
+        <v>0.113452</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172285</v>
+        <v>0.172192</v>
       </c>
       <c r="D77" t="n">
-        <v>0.17198</v>
+        <v>0.171947</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108811</v>
+        <v>0.10868</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171056</v>
+        <v>0.171003</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170771</v>
+        <v>0.170753</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103893</v>
+        <v>0.10373</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169955</v>
+        <v>0.170109</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169413</v>
+        <v>0.169545</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09895230000000001</v>
+        <v>0.0989503</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168893</v>
+        <v>0.169082</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187166</v>
+        <v>0.187012</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161575</v>
+        <v>0.161159</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183897</v>
+        <v>0.183855</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185639</v>
+        <v>0.185496</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157455</v>
+        <v>0.157114</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182574</v>
+        <v>0.182481</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184172</v>
+        <v>0.183975</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.152908</v>
+        <v>0.15293</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181334</v>
+        <v>0.181171</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182757</v>
+        <v>0.182485</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148373</v>
+        <v>0.14866</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180067</v>
+        <v>0.179831</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181324</v>
+        <v>0.18112</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143742</v>
+        <v>0.143622</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178859</v>
+        <v>0.178748</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179926</v>
+        <v>0.179721</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138841</v>
+        <v>0.138835</v>
       </c>
       <c r="C86" t="n">
-        <v>0.17778</v>
+        <v>0.177661</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178642</v>
+        <v>0.178606</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133944</v>
+        <v>0.133879</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176563</v>
+        <v>0.176592</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177332</v>
+        <v>0.177293</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129118</v>
+        <v>0.129012</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175362</v>
+        <v>0.17543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176093</v>
+        <v>0.176128</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124048</v>
+        <v>0.123932</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174302</v>
+        <v>0.174256</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174844</v>
+        <v>0.174867</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.118872</v>
+        <v>0.119054</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173191</v>
+        <v>0.173333</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173822</v>
+        <v>0.173839</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114153</v>
+        <v>0.114247</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172205</v>
+        <v>0.17226</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172546</v>
+        <v>0.172598</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10916</v>
+        <v>0.109276</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171141</v>
+        <v>0.171158</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171232</v>
+        <v>0.171411</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104225</v>
+        <v>0.104413</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170162</v>
+        <v>0.170114</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169981</v>
+        <v>0.169948</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993153</v>
+        <v>0.0994379</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169041</v>
+        <v>0.168994</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187555</v>
+        <v>0.187577</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162502</v>
+        <v>0.162453</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184456</v>
+        <v>0.184475</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185966</v>
+        <v>0.186044</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158428</v>
+        <v>0.158674</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18322</v>
+        <v>0.183047</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184548</v>
+        <v>0.184447</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154258</v>
+        <v>0.154254</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181768</v>
+        <v>0.181749</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183059</v>
+        <v>0.183063</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14996</v>
+        <v>0.149943</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180575</v>
+        <v>0.180504</v>
       </c>
       <c r="D98" t="n">
-        <v>0.18161</v>
+        <v>0.181667</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145195</v>
+        <v>0.14498</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179269</v>
+        <v>0.180119</v>
       </c>
       <c r="D99" t="n">
-        <v>0.18033</v>
+        <v>0.180354</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140145</v>
+        <v>0.14003</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178088</v>
+        <v>0.178124</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178973</v>
+        <v>0.178954</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13539</v>
+        <v>0.134879</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176993</v>
+        <v>0.176897</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177723</v>
+        <v>0.177707</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130274</v>
+        <v>0.129856</v>
       </c>
       <c r="C102" t="n">
-        <v>0.17569</v>
+        <v>0.175716</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176469</v>
+        <v>0.176466</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125091</v>
+        <v>0.125018</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174669</v>
+        <v>0.174695</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175243</v>
+        <v>0.175198</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120212</v>
+        <v>0.119989</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173595</v>
+        <v>0.173609</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174089</v>
+        <v>0.174005</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11518</v>
+        <v>0.115082</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172438</v>
+        <v>0.172478</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172824</v>
+        <v>0.172737</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110328</v>
+        <v>0.110311</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171399</v>
+        <v>0.171432</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1716</v>
+        <v>0.171595</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105407</v>
+        <v>0.105392</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170286</v>
+        <v>0.170285</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170338</v>
+        <v>0.170343</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100549</v>
+        <v>0.100411</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169229</v>
+        <v>0.169278</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187906</v>
+        <v>0.187983</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955585</v>
+        <v>0.0955135</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168136</v>
+        <v>0.168228</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186363</v>
+        <v>0.186327</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159586</v>
+        <v>0.159308</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183489</v>
+        <v>0.183508</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184815</v>
+        <v>0.184836</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155309</v>
+        <v>0.155063</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182095</v>
+        <v>0.182142</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183289</v>
+        <v>0.183381</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150634</v>
+        <v>0.150782</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180831</v>
+        <v>0.180836</v>
       </c>
       <c r="D112" t="n">
-        <v>0.18195</v>
+        <v>0.181973</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14588</v>
+        <v>0.146028</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179573</v>
+        <v>0.179603</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180581</v>
+        <v>0.180548</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141292</v>
+        <v>0.14129</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178365</v>
+        <v>0.178374</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179286</v>
+        <v>0.179296</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136344</v>
+        <v>0.135935</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177215</v>
+        <v>0.177238</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178392</v>
+        <v>0.17795</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133538</v>
+        <v>0.131124</v>
       </c>
       <c r="C116" t="n">
-        <v>0.181375</v>
+        <v>0.17598</v>
       </c>
       <c r="D116" t="n">
-        <v>0.182705</v>
+        <v>0.176692</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.130941</v>
+        <v>0.126227</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1789</v>
+        <v>0.17499</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175655</v>
+        <v>0.175485</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121102</v>
+        <v>0.121227</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173837</v>
+        <v>0.17384</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174313</v>
+        <v>0.174311</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116216</v>
+        <v>0.116204</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172791</v>
+        <v>0.172721</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173043</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111245</v>
+        <v>0.111265</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171754</v>
+        <v>0.171764</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171832</v>
+        <v>0.17186</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106359</v>
+        <v>0.106362</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170609</v>
+        <v>0.170625</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170582</v>
+        <v>0.170554</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.10151</v>
+        <v>0.101481</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169583</v>
+        <v>0.169483</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169294</v>
+        <v>0.169273</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965777</v>
+        <v>0.09652959999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168424</v>
+        <v>0.168471</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186759</v>
+        <v>0.18669</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.164109</v>
+        <v>0.169738</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183896</v>
+        <v>0.183937</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18512</v>
+        <v>0.185057</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165374</v>
+        <v>0.165329</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182428</v>
+        <v>0.182489</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1837</v>
+        <v>0.183607</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160533</v>
+        <v>0.160216</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181121</v>
+        <v>0.181218</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182223</v>
+        <v>0.182316</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15551</v>
+        <v>0.155149</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179901</v>
+        <v>0.179966</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180842</v>
+        <v>0.180879</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.150093</v>
+        <v>0.149753</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178636</v>
+        <v>0.17862</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179544</v>
+        <v>0.179479</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144796</v>
+        <v>0.144536</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177442</v>
+        <v>0.177469</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178208</v>
+        <v>0.178214</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138918</v>
+        <v>0.137747</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176326</v>
+        <v>0.176295</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177065</v>
+        <v>0.176877</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13365</v>
+        <v>0.131643</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175171</v>
+        <v>0.175015</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175745</v>
+        <v>0.17561</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.12853</v>
+        <v>0.128006</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174047</v>
+        <v>0.17391</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174489</v>
+        <v>0.174362</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123495</v>
+        <v>0.122829</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172961</v>
+        <v>0.172819</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173279</v>
+        <v>0.173113</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118221</v>
+        <v>0.116274</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171992</v>
+        <v>0.17184</v>
       </c>
       <c r="D134" t="n">
-        <v>0.17207</v>
+        <v>0.172019</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113038</v>
+        <v>0.107356</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170876</v>
+        <v>0.170804</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170782</v>
+        <v>0.170847</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.108044</v>
+        <v>0.102441</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169727</v>
+        <v>0.169776</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169637</v>
+        <v>0.169499</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102822</v>
+        <v>0.0975975</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168615</v>
+        <v>0.168621</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196404</v>
+        <v>0.188171</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170602</v>
+        <v>0.164587</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194123</v>
+        <v>0.186903</v>
       </c>
       <c r="D138" t="n">
-        <v>0.19438</v>
+        <v>0.186599</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166122</v>
+        <v>0.160318</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192306</v>
+        <v>0.184979</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192366</v>
+        <v>0.184876</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161526</v>
+        <v>0.156032</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190271</v>
+        <v>0.183506</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190632</v>
+        <v>0.183463</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156743</v>
+        <v>0.151074</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188538</v>
+        <v>0.182171</v>
       </c>
       <c r="D141" t="n">
-        <v>0.188947</v>
+        <v>0.1821</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151413</v>
+        <v>0.145839</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186928</v>
+        <v>0.180813</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187199</v>
+        <v>0.180721</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145826</v>
+        <v>0.140607</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185336</v>
+        <v>0.179481</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185598</v>
+        <v>0.179313</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0648379</v>
+        <v>0.0649458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157261</v>
+        <v>0.157046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164503</v>
+        <v>0.164595</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0644931</v>
+        <v>0.0650104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157391</v>
+        <v>0.158333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.165742</v>
+        <v>0.164306</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0644979</v>
+        <v>0.0645606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15866</v>
+        <v>0.158667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16521</v>
+        <v>0.16456</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06483800000000001</v>
+        <v>0.06475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158664</v>
+        <v>0.158419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164806</v>
+        <v>0.163869</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.064486</v>
+        <v>0.06476220000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158877</v>
+        <v>0.158631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163824</v>
+        <v>0.16324</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0648309</v>
+        <v>0.06514590000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158765</v>
+        <v>0.158864</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16316</v>
+        <v>0.163078</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0655081</v>
+        <v>0.06561790000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159179</v>
+        <v>0.159254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162655</v>
+        <v>0.162032</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0660697</v>
+        <v>0.0664387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159252</v>
+        <v>0.159276</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177565</v>
+        <v>0.178025</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09148050000000001</v>
+        <v>0.0936744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164074</v>
+        <v>0.164568</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177096</v>
+        <v>0.176917</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09264029999999999</v>
+        <v>0.093059</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164943</v>
+        <v>0.165776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176344</v>
+        <v>0.176255</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0925421</v>
+        <v>0.092367</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164274</v>
+        <v>0.165115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175612</v>
+        <v>0.175436</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0922791</v>
+        <v>0.0916604</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165782</v>
+        <v>0.165261</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175235</v>
+        <v>0.174649</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0920589</v>
+        <v>0.0913119</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164435</v>
+        <v>0.165071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173627</v>
+        <v>0.173769</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0912854</v>
+        <v>0.08994050000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165496</v>
+        <v>0.16524</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173415</v>
+        <v>0.173619</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0886642</v>
+        <v>0.08930929999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165171</v>
+        <v>0.164919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172759</v>
+        <v>0.172488</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08949699999999999</v>
+        <v>0.0892097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164492</v>
+        <v>0.16506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171736</v>
+        <v>0.171518</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.088367</v>
+        <v>0.08901009999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164247</v>
+        <v>0.164702</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170681</v>
+        <v>0.170755</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0897621</v>
+        <v>0.086571</v>
       </c>
       <c r="C19" t="n">
-        <v>0.167545</v>
+        <v>0.168314</v>
       </c>
       <c r="D19" t="n">
-        <v>0.17109</v>
+        <v>0.171424</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0871857</v>
+        <v>0.08582770000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167485</v>
+        <v>0.165516</v>
       </c>
       <c r="D20" t="n">
-        <v>0.170296</v>
+        <v>0.169337</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0847339</v>
+        <v>0.0836731</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165492</v>
+        <v>0.166364</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168815</v>
+        <v>0.169096</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0831977</v>
+        <v>0.081578</v>
       </c>
       <c r="C22" t="n">
-        <v>0.164344</v>
+        <v>0.164894</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166355</v>
+        <v>0.167143</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08132929999999999</v>
+        <v>0.08117870000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164048</v>
+        <v>0.165383</v>
       </c>
       <c r="D23" t="n">
-        <v>0.185779</v>
+        <v>0.185373</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133873</v>
+        <v>0.134282</v>
       </c>
       <c r="C24" t="n">
-        <v>0.17761</v>
+        <v>0.178625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184672</v>
+        <v>0.18413</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132056</v>
+        <v>0.131432</v>
       </c>
       <c r="C25" t="n">
-        <v>0.176045</v>
+        <v>0.176881</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182695</v>
+        <v>0.183239</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.12954</v>
+        <v>0.129015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175619</v>
+        <v>0.175273</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181862</v>
+        <v>0.181677</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.126636</v>
+        <v>0.125479</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175733</v>
+        <v>0.175934</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179161</v>
+        <v>0.180124</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.123682</v>
+        <v>0.123302</v>
       </c>
       <c r="C28" t="n">
-        <v>0.172652</v>
+        <v>0.175105</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178039</v>
+        <v>0.178826</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120428</v>
+        <v>0.119822</v>
       </c>
       <c r="C29" t="n">
-        <v>0.172704</v>
+        <v>0.174486</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177426</v>
+        <v>0.178116</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116944</v>
+        <v>0.117283</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173197</v>
+        <v>0.173746</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175274</v>
+        <v>0.176208</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114097</v>
+        <v>0.113922</v>
       </c>
       <c r="C31" t="n">
-        <v>0.170939</v>
+        <v>0.173734</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174906</v>
+        <v>0.17534</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111636</v>
+        <v>0.110917</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172239</v>
+        <v>0.172312</v>
       </c>
       <c r="D32" t="n">
-        <v>0.172998</v>
+        <v>0.174017</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107379</v>
+        <v>0.1073</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171079</v>
+        <v>0.171426</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172197</v>
+        <v>0.172247</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104227</v>
+        <v>0.104243</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170033</v>
+        <v>0.170127</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171488</v>
+        <v>0.1708</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09924379999999999</v>
+        <v>0.098427</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168906</v>
+        <v>0.169972</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169418</v>
+        <v>0.169776</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09461120000000001</v>
+        <v>0.0944714</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167715</v>
+        <v>0.169569</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168189</v>
+        <v>0.168316</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0900705</v>
+        <v>0.0903939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167059</v>
+        <v>0.167979</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186825</v>
+        <v>0.186766</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.151958</v>
+        <v>0.153296</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182727</v>
+        <v>0.182919</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185148</v>
+        <v>0.185033</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148594</v>
+        <v>0.150021</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180813</v>
+        <v>0.181587</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183468</v>
+        <v>0.183888</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14556</v>
+        <v>0.146669</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179894</v>
+        <v>0.17984</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181895</v>
+        <v>0.182354</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142017</v>
+        <v>0.141929</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178537</v>
+        <v>0.178499</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1812</v>
+        <v>0.180667</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138259</v>
+        <v>0.138586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178233</v>
+        <v>0.176969</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179388</v>
+        <v>0.179415</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134406</v>
+        <v>0.134226</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176084</v>
+        <v>0.1766</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178514</v>
+        <v>0.178204</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130219</v>
+        <v>0.130367</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175629</v>
+        <v>0.175812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177357</v>
+        <v>0.176811</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126184</v>
+        <v>0.125865</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17501</v>
+        <v>0.174241</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175813</v>
+        <v>0.175422</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121844</v>
+        <v>0.121306</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173497</v>
+        <v>0.173658</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174667</v>
+        <v>0.174419</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11711</v>
+        <v>0.116878</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172835</v>
+        <v>0.172598</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1732</v>
+        <v>0.173292</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112556</v>
+        <v>0.112226</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171924</v>
+        <v>0.171596</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171939</v>
+        <v>0.171817</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108181</v>
+        <v>0.107636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170918</v>
+        <v>0.171006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170331</v>
+        <v>0.170513</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103245</v>
+        <v>0.103198</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170422</v>
+        <v>0.169911</v>
       </c>
       <c r="D50" t="n">
-        <v>0.16888</v>
+        <v>0.169022</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0981566</v>
+        <v>0.09788239999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168833</v>
+        <v>0.168886</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187763</v>
+        <v>0.187724</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.092649</v>
+        <v>0.0921989</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168026</v>
+        <v>0.16799</v>
       </c>
       <c r="D52" t="n">
-        <v>0.18594</v>
+        <v>0.185975</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15627</v>
+        <v>0.156676</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182643</v>
+        <v>0.182738</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184583</v>
+        <v>0.184501</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152776</v>
+        <v>0.152911</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181457</v>
+        <v>0.181599</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18312</v>
+        <v>0.183011</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148567</v>
+        <v>0.14885</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180107</v>
+        <v>0.180364</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181844</v>
+        <v>0.18184</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144146</v>
+        <v>0.144684</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17916</v>
+        <v>0.178974</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180454</v>
+        <v>0.180359</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139776</v>
+        <v>0.140062</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177999</v>
+        <v>0.178181</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179066</v>
+        <v>0.178937</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135391</v>
+        <v>0.135135</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176743</v>
+        <v>0.176983</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177808</v>
+        <v>0.17772</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130381</v>
+        <v>0.130438</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175843</v>
+        <v>0.17583</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176494</v>
+        <v>0.176338</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125583</v>
+        <v>0.125501</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174728</v>
+        <v>0.174747</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175139</v>
+        <v>0.175016</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120916</v>
+        <v>0.120647</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173764</v>
+        <v>0.17373</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173711</v>
+        <v>0.17358</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115993</v>
+        <v>0.115986</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17263</v>
+        <v>0.172722</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172315</v>
+        <v>0.17225</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111263</v>
+        <v>0.111012</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17155</v>
+        <v>0.171623</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170949</v>
+        <v>0.170869</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106164</v>
+        <v>0.106193</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170607</v>
+        <v>0.170479</v>
       </c>
       <c r="D64" t="n">
-        <v>0.16976</v>
+        <v>0.169766</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101447</v>
+        <v>0.101532</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169373</v>
+        <v>0.169618</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168539</v>
+        <v>0.168711</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09650839999999999</v>
+        <v>0.0964733</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168427</v>
+        <v>0.168629</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186931</v>
+        <v>0.186653</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159911</v>
+        <v>0.160605</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183711</v>
+        <v>0.183706</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185418</v>
+        <v>0.185286</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.15615</v>
+        <v>0.156472</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182448</v>
+        <v>0.182432</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18397</v>
+        <v>0.183709</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151784</v>
+        <v>0.152283</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180986</v>
+        <v>0.181179</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182406</v>
+        <v>0.182253</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147072</v>
+        <v>0.147635</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179749</v>
+        <v>0.179929</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181009</v>
+        <v>0.180893</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142747</v>
+        <v>0.142724</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178608</v>
+        <v>0.178739</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179621</v>
+        <v>0.179559</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.13783</v>
+        <v>0.137961</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177555</v>
+        <v>0.177537</v>
       </c>
       <c r="D72" t="n">
-        <v>0.17834</v>
+        <v>0.178154</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133021</v>
+        <v>0.133023</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176398</v>
+        <v>0.176535</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176962</v>
+        <v>0.176869</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128113</v>
+        <v>0.128044</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175298</v>
+        <v>0.175412</v>
       </c>
       <c r="D74" t="n">
-        <v>0.17558</v>
+        <v>0.175489</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123147</v>
+        <v>0.123217</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174112</v>
+        <v>0.174487</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174372</v>
+        <v>0.174416</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118372</v>
+        <v>0.118415</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173146</v>
+        <v>0.173246</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173169</v>
+        <v>0.173233</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113452</v>
+        <v>0.113492</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172192</v>
+        <v>0.172166</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171947</v>
+        <v>0.171912</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.10868</v>
+        <v>0.108588</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171003</v>
+        <v>0.1712</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170753</v>
+        <v>0.170805</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10373</v>
+        <v>0.103824</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170109</v>
+        <v>0.170056</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169545</v>
+        <v>0.169492</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0989503</v>
+        <v>0.0988942</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169082</v>
+        <v>0.169021</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187012</v>
+        <v>0.187131</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161159</v>
+        <v>0.161491</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183855</v>
+        <v>0.184094</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185496</v>
+        <v>0.185527</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157114</v>
+        <v>0.157565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182481</v>
+        <v>0.182649</v>
       </c>
       <c r="D82" t="n">
-        <v>0.183975</v>
+        <v>0.184131</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.15293</v>
+        <v>0.153036</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181171</v>
+        <v>0.181381</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182485</v>
+        <v>0.182626</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14866</v>
+        <v>0.148718</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179831</v>
+        <v>0.180194</v>
       </c>
       <c r="D84" t="n">
-        <v>0.18112</v>
+        <v>0.181237</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143622</v>
+        <v>0.144014</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178748</v>
+        <v>0.178929</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179721</v>
+        <v>0.179878</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138835</v>
+        <v>0.138942</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177661</v>
+        <v>0.177825</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178606</v>
+        <v>0.178551</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133879</v>
+        <v>0.133857</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176592</v>
+        <v>0.176609</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177293</v>
+        <v>0.177342</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129012</v>
+        <v>0.12879</v>
       </c>
       <c r="C88" t="n">
-        <v>0.17543</v>
+        <v>0.175552</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176128</v>
+        <v>0.176115</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123932</v>
+        <v>0.123986</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174256</v>
+        <v>0.174425</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174867</v>
+        <v>0.174871</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119054</v>
+        <v>0.119125</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173333</v>
+        <v>0.1733</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173839</v>
+        <v>0.17371</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114247</v>
+        <v>0.114039</v>
       </c>
       <c r="C91" t="n">
-        <v>0.17226</v>
+        <v>0.172322</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172598</v>
+        <v>0.172551</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109276</v>
+        <v>0.109282</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171158</v>
+        <v>0.171257</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171411</v>
+        <v>0.171309</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104413</v>
+        <v>0.104332</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170114</v>
+        <v>0.170171</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169948</v>
+        <v>0.17002</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994379</v>
+        <v>0.0993801</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168994</v>
+        <v>0.169038</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187577</v>
+        <v>0.187244</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162453</v>
+        <v>0.162173</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184475</v>
+        <v>0.184419</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186044</v>
+        <v>0.185751</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158674</v>
+        <v>0.158222</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183047</v>
+        <v>0.183046</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184447</v>
+        <v>0.184245</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154254</v>
+        <v>0.154364</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181749</v>
+        <v>0.181691</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183063</v>
+        <v>0.182813</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149943</v>
+        <v>0.149527</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180504</v>
+        <v>0.180415</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181667</v>
+        <v>0.181391</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14498</v>
+        <v>0.144635</v>
       </c>
       <c r="C99" t="n">
-        <v>0.180119</v>
+        <v>0.179177</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180354</v>
+        <v>0.1801</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14003</v>
+        <v>0.140155</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178124</v>
+        <v>0.178164</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178954</v>
+        <v>0.17891</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134879</v>
+        <v>0.135222</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176897</v>
+        <v>0.176998</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177707</v>
+        <v>0.177719</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129856</v>
+        <v>0.130098</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175716</v>
+        <v>0.175805</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176466</v>
+        <v>0.176432</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125018</v>
+        <v>0.124939</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174695</v>
+        <v>0.174788</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175198</v>
+        <v>0.175205</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119989</v>
+        <v>0.120006</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173609</v>
+        <v>0.173702</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174005</v>
+        <v>0.173982</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115082</v>
+        <v>0.115149</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172478</v>
+        <v>0.172585</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172737</v>
+        <v>0.172757</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110311</v>
+        <v>0.110242</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171432</v>
+        <v>0.171464</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171595</v>
+        <v>0.171537</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105392</v>
+        <v>0.105306</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170285</v>
+        <v>0.170467</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170343</v>
+        <v>0.17037</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100411</v>
+        <v>0.10038</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169278</v>
+        <v>0.169334</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187983</v>
+        <v>0.187912</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955135</v>
+        <v>0.0954087</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168228</v>
+        <v>0.168261</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186327</v>
+        <v>0.18631</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159308</v>
+        <v>0.159461</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183508</v>
+        <v>0.183518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184836</v>
+        <v>0.184742</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155063</v>
+        <v>0.155152</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182142</v>
+        <v>0.182198</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183381</v>
+        <v>0.183283</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150782</v>
+        <v>0.150641</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180836</v>
+        <v>0.180948</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181973</v>
+        <v>0.181916</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146028</v>
+        <v>0.145944</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179603</v>
+        <v>0.179714</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180548</v>
+        <v>0.180545</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14129</v>
+        <v>0.141365</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178374</v>
+        <v>0.17849</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179296</v>
+        <v>0.179207</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135935</v>
+        <v>0.136169</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177238</v>
+        <v>0.17734</v>
       </c>
       <c r="D115" t="n">
-        <v>0.17795</v>
+        <v>0.177982</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131124</v>
+        <v>0.131065</v>
       </c>
       <c r="C116" t="n">
-        <v>0.17598</v>
+        <v>0.176198</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176692</v>
+        <v>0.176577</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126227</v>
+        <v>0.126142</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17499</v>
+        <v>0.175071</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175485</v>
+        <v>0.175367</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121227</v>
+        <v>0.121064</v>
       </c>
       <c r="C118" t="n">
-        <v>0.17384</v>
+        <v>0.173984</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174311</v>
+        <v>0.174228</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116204</v>
+        <v>0.116055</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172721</v>
+        <v>0.172845</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1731</v>
+        <v>0.172972</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111265</v>
+        <v>0.111185</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171764</v>
+        <v>0.171876</v>
       </c>
       <c r="D120" t="n">
-        <v>0.17186</v>
+        <v>0.171826</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106362</v>
+        <v>0.10634</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170625</v>
+        <v>0.170739</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170554</v>
+        <v>0.170565</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101481</v>
+        <v>0.101467</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169483</v>
+        <v>0.169612</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169273</v>
+        <v>0.169231</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09652959999999999</v>
+        <v>0.0965381</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168471</v>
+        <v>0.168562</v>
       </c>
       <c r="D123" t="n">
-        <v>0.18669</v>
+        <v>0.186629</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169738</v>
+        <v>0.169548</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183937</v>
+        <v>0.183993</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185057</v>
+        <v>0.185013</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165329</v>
+        <v>0.165185</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182489</v>
+        <v>0.182525</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183607</v>
+        <v>0.183598</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160216</v>
+        <v>0.160222</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181218</v>
+        <v>0.181305</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182316</v>
+        <v>0.18214</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155149</v>
+        <v>0.155653</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179966</v>
+        <v>0.180003</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180879</v>
+        <v>0.180813</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149753</v>
+        <v>0.150129</v>
       </c>
       <c r="C128" t="n">
-        <v>0.17862</v>
+        <v>0.17878</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179479</v>
+        <v>0.179527</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144536</v>
+        <v>0.14487</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177469</v>
+        <v>0.177536</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178214</v>
+        <v>0.178186</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137747</v>
+        <v>0.139334</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176295</v>
+        <v>0.176386</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176877</v>
+        <v>0.176926</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.131643</v>
+        <v>0.13391</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175015</v>
+        <v>0.175323</v>
       </c>
       <c r="D131" t="n">
-        <v>0.17561</v>
+        <v>0.175722</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128006</v>
+        <v>0.128651</v>
       </c>
       <c r="C132" t="n">
-        <v>0.17391</v>
+        <v>0.174296</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174362</v>
+        <v>0.174419</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.122829</v>
+        <v>0.123273</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172819</v>
+        <v>0.173102</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173113</v>
+        <v>0.173249</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.116274</v>
+        <v>0.118179</v>
       </c>
       <c r="C134" t="n">
-        <v>0.17184</v>
+        <v>0.172064</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172019</v>
+        <v>0.172082</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107356</v>
+        <v>0.112946</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170804</v>
+        <v>0.170974</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170847</v>
+        <v>0.170782</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102441</v>
+        <v>0.108173</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169776</v>
+        <v>0.169873</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169499</v>
+        <v>0.169591</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0975975</v>
+        <v>0.102758</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168621</v>
+        <v>0.168791</v>
       </c>
       <c r="D137" t="n">
-        <v>0.188171</v>
+        <v>0.196304</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.164587</v>
+        <v>0.17026</v>
       </c>
       <c r="C138" t="n">
-        <v>0.186903</v>
+        <v>0.194251</v>
       </c>
       <c r="D138" t="n">
-        <v>0.186599</v>
+        <v>0.194222</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.160318</v>
+        <v>0.165996</v>
       </c>
       <c r="C139" t="n">
-        <v>0.184979</v>
+        <v>0.192181</v>
       </c>
       <c r="D139" t="n">
-        <v>0.184876</v>
+        <v>0.192576</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.156032</v>
+        <v>0.161595</v>
       </c>
       <c r="C140" t="n">
-        <v>0.183506</v>
+        <v>0.189759</v>
       </c>
       <c r="D140" t="n">
-        <v>0.183463</v>
+        <v>0.189533</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.151074</v>
+        <v>0.154605</v>
       </c>
       <c r="C141" t="n">
-        <v>0.182171</v>
+        <v>0.184332</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1821</v>
+        <v>0.184406</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.145839</v>
+        <v>0.146022</v>
       </c>
       <c r="C142" t="n">
-        <v>0.180813</v>
+        <v>0.181239</v>
       </c>
       <c r="D142" t="n">
-        <v>0.180721</v>
+        <v>0.180998</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.140607</v>
+        <v>0.140832</v>
       </c>
       <c r="C143" t="n">
-        <v>0.179481</v>
+        <v>0.179965</v>
       </c>
       <c r="D143" t="n">
-        <v>0.179313</v>
+        <v>0.179981</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0641531</v>
+        <v>0.064898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0575077</v>
+        <v>0.0592945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.157822</v>
+        <v>0.159865</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641417</v>
+        <v>0.06479459999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0598211</v>
+        <v>0.062335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158856</v>
+        <v>0.160719</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0639055</v>
+        <v>0.0648209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0649882</v>
+        <v>0.07118670000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159729</v>
+        <v>0.16065</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0642133</v>
+        <v>0.0647789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07328460000000001</v>
+        <v>0.08594350000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15887</v>
+        <v>0.160468</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06474820000000001</v>
+        <v>0.0648936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09369329999999999</v>
+        <v>0.110603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160271</v>
+        <v>0.160586</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06536599999999999</v>
+        <v>0.0649153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111546</v>
+        <v>0.140355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159772</v>
+        <v>0.160143</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0651717</v>
+        <v>0.0652235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06318840000000001</v>
+        <v>0.0623857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159948</v>
+        <v>0.159886</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06583840000000001</v>
+        <v>0.0658774</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06369279999999999</v>
+        <v>0.0642495</v>
       </c>
       <c r="D9" t="n">
-        <v>0.164801</v>
+        <v>0.167294</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0890715</v>
+        <v>0.0887204</v>
       </c>
       <c r="C10" t="n">
-        <v>0.064666</v>
+        <v>0.06584189999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.165641</v>
+        <v>0.16726</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0891439</v>
+        <v>0.0911207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0662118</v>
+        <v>0.06910669999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.165795</v>
+        <v>0.167138</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.088877</v>
+        <v>0.09188590000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0703285</v>
+        <v>0.0740722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.166284</v>
+        <v>0.167412</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0889416</v>
+        <v>0.091248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0767543</v>
+        <v>0.0827141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166196</v>
+        <v>0.166793</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0880235</v>
+        <v>0.0907998</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0847386</v>
+        <v>0.0895712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166822</v>
+        <v>0.165741</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0873052</v>
+        <v>0.0890222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0924473</v>
+        <v>0.09936490000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16633</v>
+        <v>0.166038</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08651929999999999</v>
+        <v>0.0887561</v>
       </c>
       <c r="C16" t="n">
-        <v>0.103137</v>
+        <v>0.112326</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166022</v>
+        <v>0.165565</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08555</v>
+        <v>0.0882313</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117766</v>
+        <v>0.132702</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165367</v>
+        <v>0.165225</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08422979999999999</v>
+        <v>0.0872279</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138113</v>
+        <v>0.14087</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165413</v>
+        <v>0.164615</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08232540000000001</v>
+        <v>0.0861591</v>
       </c>
       <c r="C19" t="n">
-        <v>0.157701</v>
+        <v>0.156649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165358</v>
+        <v>0.163923</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0812894</v>
+        <v>0.08434899999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.183703</v>
+        <v>0.187813</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165959</v>
+        <v>0.164449</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0828969</v>
+        <v>0.0843831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.219332</v>
+        <v>0.245</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165915</v>
+        <v>0.163937</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08242620000000001</v>
+        <v>0.08248759999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0967408</v>
+        <v>0.113217</v>
       </c>
       <c r="D22" t="n">
-        <v>0.167046</v>
+        <v>0.162973</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0803682</v>
+        <v>0.0803082</v>
       </c>
       <c r="C23" t="n">
-        <v>0.101705</v>
+        <v>0.105435</v>
       </c>
       <c r="D23" t="n">
-        <v>0.182004</v>
+        <v>0.173621</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.130945</v>
+        <v>0.132987</v>
       </c>
       <c r="C24" t="n">
-        <v>0.110323</v>
+        <v>0.111833</v>
       </c>
       <c r="D24" t="n">
-        <v>0.179886</v>
+        <v>0.172507</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13039</v>
+        <v>0.130357</v>
       </c>
       <c r="C25" t="n">
-        <v>0.118336</v>
+        <v>0.116063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.176643</v>
+        <v>0.171334</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.128396</v>
+        <v>0.128324</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125077</v>
+        <v>0.127462</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176678</v>
+        <v>0.171092</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.126</v>
+        <v>0.126078</v>
       </c>
       <c r="C27" t="n">
-        <v>0.131743</v>
+        <v>0.135133</v>
       </c>
       <c r="D27" t="n">
-        <v>0.175759</v>
+        <v>0.175235</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122747</v>
+        <v>0.12312</v>
       </c>
       <c r="C28" t="n">
-        <v>0.136642</v>
+        <v>0.152194</v>
       </c>
       <c r="D28" t="n">
-        <v>0.175754</v>
+        <v>0.169881</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120164</v>
+        <v>0.11948</v>
       </c>
       <c r="C29" t="n">
-        <v>0.159372</v>
+        <v>0.150389</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176854</v>
+        <v>0.169077</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117158</v>
+        <v>0.117214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.164708</v>
+        <v>0.165536</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175894</v>
+        <v>0.169063</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114482</v>
+        <v>0.113811</v>
       </c>
       <c r="C31" t="n">
-        <v>0.180538</v>
+        <v>0.187783</v>
       </c>
       <c r="D31" t="n">
-        <v>0.172402</v>
+        <v>0.168478</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110654</v>
+        <v>0.110996</v>
       </c>
       <c r="C32" t="n">
-        <v>0.189276</v>
+        <v>0.190407</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17302</v>
+        <v>0.166985</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106787</v>
+        <v>0.107915</v>
       </c>
       <c r="C33" t="n">
-        <v>0.205969</v>
+        <v>0.206185</v>
       </c>
       <c r="D33" t="n">
-        <v>0.17105</v>
+        <v>0.168394</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.10302</v>
+        <v>0.10453</v>
       </c>
       <c r="C34" t="n">
-        <v>0.226981</v>
+        <v>0.229042</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170195</v>
+        <v>0.166366</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09905659999999999</v>
+        <v>0.101033</v>
       </c>
       <c r="C35" t="n">
-        <v>0.25275</v>
+        <v>0.248197</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169719</v>
+        <v>0.167429</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0947708</v>
+        <v>0.0961885</v>
       </c>
       <c r="C36" t="n">
-        <v>0.280765</v>
+        <v>0.280744</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168159</v>
+        <v>0.16476</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0912707</v>
+        <v>0.0916032</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125211</v>
+        <v>0.125066</v>
       </c>
       <c r="D37" t="n">
-        <v>0.184916</v>
+        <v>0.183008</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.15299</v>
+        <v>0.151969</v>
       </c>
       <c r="C38" t="n">
-        <v>0.128879</v>
+        <v>0.130451</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183052</v>
+        <v>0.178443</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149699</v>
+        <v>0.148621</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139033</v>
+        <v>0.135812</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182508</v>
+        <v>0.177514</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145819</v>
+        <v>0.145751</v>
       </c>
       <c r="C40" t="n">
-        <v>0.143689</v>
+        <v>0.143881</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181083</v>
+        <v>0.17763</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142408</v>
+        <v>0.141368</v>
       </c>
       <c r="C41" t="n">
-        <v>0.153829</v>
+        <v>0.156015</v>
       </c>
       <c r="D41" t="n">
-        <v>0.17982</v>
+        <v>0.176759</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138561</v>
+        <v>0.138202</v>
       </c>
       <c r="C42" t="n">
-        <v>0.162005</v>
+        <v>0.15843</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178386</v>
+        <v>0.175025</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134735</v>
+        <v>0.134049</v>
       </c>
       <c r="C43" t="n">
-        <v>0.17317</v>
+        <v>0.167917</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178092</v>
+        <v>0.174161</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.13049</v>
+        <v>0.130099</v>
       </c>
       <c r="C44" t="n">
-        <v>0.180018</v>
+        <v>0.17826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176222</v>
+        <v>0.175383</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126237</v>
+        <v>0.125902</v>
       </c>
       <c r="C45" t="n">
-        <v>0.189111</v>
+        <v>0.190745</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175981</v>
+        <v>0.171597</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121969</v>
+        <v>0.12134</v>
       </c>
       <c r="C46" t="n">
-        <v>0.20117</v>
+        <v>0.204726</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174595</v>
+        <v>0.171308</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.117384</v>
+        <v>0.116983</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218393</v>
+        <v>0.221914</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173326</v>
+        <v>0.170414</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112872</v>
+        <v>0.112347</v>
       </c>
       <c r="C48" t="n">
-        <v>0.234699</v>
+        <v>0.235446</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171569</v>
+        <v>0.169809</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107687</v>
+        <v>0.107696</v>
       </c>
       <c r="C49" t="n">
-        <v>0.256116</v>
+        <v>0.255035</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171515</v>
+        <v>0.168722</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102518</v>
+        <v>0.103293</v>
       </c>
       <c r="C50" t="n">
-        <v>0.28101</v>
+        <v>0.280185</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169954</v>
+        <v>0.168261</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.097793</v>
+        <v>0.09813139999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.134014</v>
+        <v>0.134001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.186997</v>
+        <v>0.18555</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0929044</v>
+        <v>0.09313200000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.138441</v>
+        <v>0.138803</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185308</v>
+        <v>0.183733</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156627</v>
+        <v>0.156307</v>
       </c>
       <c r="C53" t="n">
-        <v>0.144747</v>
+        <v>0.14453</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183876</v>
+        <v>0.182242</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152789</v>
+        <v>0.152381</v>
       </c>
       <c r="C54" t="n">
-        <v>0.151243</v>
+        <v>0.150891</v>
       </c>
       <c r="D54" t="n">
-        <v>0.182684</v>
+        <v>0.181452</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148886</v>
+        <v>0.148479</v>
       </c>
       <c r="C55" t="n">
-        <v>0.158688</v>
+        <v>0.157764</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181455</v>
+        <v>0.179935</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.14427</v>
+        <v>0.144279</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168342</v>
+        <v>0.168055</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180231</v>
+        <v>0.17921</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139987</v>
+        <v>0.139257</v>
       </c>
       <c r="C57" t="n">
-        <v>0.174264</v>
+        <v>0.17417</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179365</v>
+        <v>0.177778</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135316</v>
+        <v>0.135028</v>
       </c>
       <c r="C58" t="n">
-        <v>0.18304</v>
+        <v>0.183582</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177796</v>
+        <v>0.176713</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130625</v>
+        <v>0.130185</v>
       </c>
       <c r="C59" t="n">
-        <v>0.195721</v>
+        <v>0.194491</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176715</v>
+        <v>0.175382</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125715</v>
+        <v>0.125272</v>
       </c>
       <c r="C60" t="n">
-        <v>0.209809</v>
+        <v>0.207515</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175502</v>
+        <v>0.174119</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120655</v>
+        <v>0.120737</v>
       </c>
       <c r="C61" t="n">
-        <v>0.221223</v>
+        <v>0.220585</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174353</v>
+        <v>0.173323</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115997</v>
+        <v>0.115942</v>
       </c>
       <c r="C62" t="n">
-        <v>0.238103</v>
+        <v>0.23759</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173807</v>
+        <v>0.171828</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11107</v>
+        <v>0.11111</v>
       </c>
       <c r="C63" t="n">
-        <v>0.256781</v>
+        <v>0.256851</v>
       </c>
       <c r="D63" t="n">
-        <v>0.17214</v>
+        <v>0.170667</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.105984</v>
+        <v>0.106305</v>
       </c>
       <c r="C64" t="n">
-        <v>0.278367</v>
+        <v>0.280828</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170786</v>
+        <v>0.169546</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101445</v>
+        <v>0.101472</v>
       </c>
       <c r="C65" t="n">
-        <v>0.142277</v>
+        <v>0.143079</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169619</v>
+        <v>0.168461</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0964059</v>
+        <v>0.0965949</v>
       </c>
       <c r="C66" t="n">
         <v>0.147209</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186654</v>
+        <v>0.186228</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160513</v>
+        <v>0.160139</v>
       </c>
       <c r="C67" t="n">
-        <v>0.153107</v>
+        <v>0.152765</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185313</v>
+        <v>0.184495</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156502</v>
+        <v>0.156618</v>
       </c>
       <c r="C68" t="n">
-        <v>0.15876</v>
+        <v>0.158897</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183854</v>
+        <v>0.183234</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152045</v>
+        <v>0.152105</v>
       </c>
       <c r="C69" t="n">
-        <v>0.165429</v>
+        <v>0.166251</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182476</v>
+        <v>0.181805</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147806</v>
+        <v>0.147167</v>
       </c>
       <c r="C70" t="n">
-        <v>0.172505</v>
+        <v>0.17337</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181164</v>
+        <v>0.180554</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143057</v>
+        <v>0.142437</v>
       </c>
       <c r="C71" t="n">
-        <v>0.180261</v>
+        <v>0.182032</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179912</v>
+        <v>0.179256</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138315</v>
+        <v>0.137918</v>
       </c>
       <c r="C72" t="n">
-        <v>0.189204</v>
+        <v>0.191433</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178749</v>
+        <v>0.177886</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133812</v>
+        <v>0.132841</v>
       </c>
       <c r="C73" t="n">
-        <v>0.200303</v>
+        <v>0.202329</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177311</v>
+        <v>0.176626</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1287</v>
+        <v>0.127839</v>
       </c>
       <c r="C74" t="n">
-        <v>0.212441</v>
+        <v>0.213221</v>
       </c>
       <c r="D74" t="n">
-        <v>0.176193</v>
+        <v>0.175356</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123811</v>
+        <v>0.122937</v>
       </c>
       <c r="C75" t="n">
-        <v>0.227473</v>
+        <v>0.226329</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174878</v>
+        <v>0.174266</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118628</v>
+        <v>0.118251</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24306</v>
+        <v>0.242493</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173741</v>
+        <v>0.173005</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.11366</v>
+        <v>0.113362</v>
       </c>
       <c r="C77" t="n">
-        <v>0.261431</v>
+        <v>0.261495</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172506</v>
+        <v>0.171912</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108714</v>
+        <v>0.108606</v>
       </c>
       <c r="C78" t="n">
-        <v>0.283264</v>
+        <v>0.284046</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171313</v>
+        <v>0.170493</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1037</v>
+        <v>0.103689</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170899</v>
+        <v>0.170618</v>
       </c>
       <c r="D79" t="n">
-        <v>0.170248</v>
+        <v>0.169274</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0989589</v>
+        <v>0.0988836</v>
       </c>
       <c r="C80" t="n">
-        <v>0.176969</v>
+        <v>0.176982</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187436</v>
+        <v>0.186947</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.16153</v>
+        <v>0.161163</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182018</v>
+        <v>0.182394</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185778</v>
+        <v>0.185365</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157354</v>
+        <v>0.157293</v>
       </c>
       <c r="C82" t="n">
-        <v>0.187372</v>
+        <v>0.187543</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184273</v>
+        <v>0.183816</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153056</v>
+        <v>0.153491</v>
       </c>
       <c r="C83" t="n">
-        <v>0.194064</v>
+        <v>0.194285</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182842</v>
+        <v>0.182299</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148496</v>
+        <v>0.148632</v>
       </c>
       <c r="C84" t="n">
-        <v>0.200521</v>
+        <v>0.200578</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181428</v>
+        <v>0.180943</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143805</v>
+        <v>0.14379</v>
       </c>
       <c r="C85" t="n">
-        <v>0.208855</v>
+        <v>0.208787</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180248</v>
+        <v>0.179616</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138941</v>
+        <v>0.139211</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217776</v>
+        <v>0.219063</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17884</v>
+        <v>0.178322</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134036</v>
+        <v>0.13412</v>
       </c>
       <c r="C87" t="n">
-        <v>0.228866</v>
+        <v>0.228235</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177651</v>
+        <v>0.177102</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.12898</v>
+        <v>0.129317</v>
       </c>
       <c r="C88" t="n">
-        <v>0.241842</v>
+        <v>0.240831</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176506</v>
+        <v>0.175793</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124047</v>
+        <v>0.124347</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253365</v>
+        <v>0.255028</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175158</v>
+        <v>0.174676</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119119</v>
+        <v>0.119282</v>
       </c>
       <c r="C90" t="n">
-        <v>0.270187</v>
+        <v>0.271935</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17393</v>
+        <v>0.173448</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114214</v>
+        <v>0.114397</v>
       </c>
       <c r="C91" t="n">
-        <v>0.291567</v>
+        <v>0.291603</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172921</v>
+        <v>0.172298</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109355</v>
+        <v>0.109474</v>
       </c>
       <c r="C92" t="n">
-        <v>0.313726</v>
+        <v>0.315418</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171658</v>
+        <v>0.171099</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104326</v>
+        <v>0.104528</v>
       </c>
       <c r="C93" t="n">
-        <v>0.340231</v>
+        <v>0.340677</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170365</v>
+        <v>0.169821</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0995196</v>
+        <v>0.0994845</v>
       </c>
       <c r="C94" t="n">
-        <v>0.247908</v>
+        <v>0.249332</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187853</v>
+        <v>0.187477</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162541</v>
+        <v>0.162675</v>
       </c>
       <c r="C95" t="n">
-        <v>0.254082</v>
+        <v>0.255369</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186208</v>
+        <v>0.185882</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158578</v>
+        <v>0.158638</v>
       </c>
       <c r="C96" t="n">
-        <v>0.259408</v>
+        <v>0.263215</v>
       </c>
       <c r="D96" t="n">
-        <v>0.18493</v>
+        <v>0.184237</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154191</v>
+        <v>0.154342</v>
       </c>
       <c r="C97" t="n">
-        <v>0.265515</v>
+        <v>0.267811</v>
       </c>
       <c r="D97" t="n">
-        <v>0.183349</v>
+        <v>0.182852</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149705</v>
+        <v>0.149633</v>
       </c>
       <c r="C98" t="n">
-        <v>0.271721</v>
+        <v>0.272385</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181904</v>
+        <v>0.181431</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144991</v>
+        <v>0.145332</v>
       </c>
       <c r="C99" t="n">
-        <v>0.280084</v>
+        <v>0.281976</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180677</v>
+        <v>0.180094</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140036</v>
+        <v>0.140069</v>
       </c>
       <c r="C100" t="n">
-        <v>0.290491</v>
+        <v>0.290052</v>
       </c>
       <c r="D100" t="n">
-        <v>0.17923</v>
+        <v>0.178829</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135058</v>
+        <v>0.134947</v>
       </c>
       <c r="C101" t="n">
-        <v>0.300365</v>
+        <v>0.301917</v>
       </c>
       <c r="D101" t="n">
-        <v>0.178029</v>
+        <v>0.177554</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130142</v>
+        <v>0.130111</v>
       </c>
       <c r="C102" t="n">
-        <v>0.313845</v>
+        <v>0.314706</v>
       </c>
       <c r="D102" t="n">
-        <v>0.17673</v>
+        <v>0.176265</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.12503</v>
+        <v>0.12526</v>
       </c>
       <c r="C103" t="n">
-        <v>0.32929</v>
+        <v>0.334692</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175554</v>
+        <v>0.175228</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120231</v>
+        <v>0.12011</v>
       </c>
       <c r="C104" t="n">
-        <v>0.348304</v>
+        <v>0.349191</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174295</v>
+        <v>0.173942</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115215</v>
+        <v>0.11516</v>
       </c>
       <c r="C105" t="n">
-        <v>0.371064</v>
+        <v>0.372585</v>
       </c>
       <c r="D105" t="n">
-        <v>0.173194</v>
+        <v>0.172719</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110352</v>
+        <v>0.110303</v>
       </c>
       <c r="C106" t="n">
-        <v>0.399163</v>
+        <v>0.399546</v>
       </c>
       <c r="D106" t="n">
-        <v>0.17194</v>
+        <v>0.171441</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105395</v>
+        <v>0.10535</v>
       </c>
       <c r="C107" t="n">
-        <v>0.429455</v>
+        <v>0.43066</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170673</v>
+        <v>0.170224</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100493</v>
+        <v>0.100492</v>
       </c>
       <c r="C108" t="n">
-        <v>0.346596</v>
+        <v>0.351363</v>
       </c>
       <c r="D108" t="n">
-        <v>0.18821</v>
+        <v>0.188001</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955453</v>
+        <v>0.0955551</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351235</v>
+        <v>0.359793</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18648</v>
+        <v>0.18631</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159334</v>
+        <v>0.159471</v>
       </c>
       <c r="C110" t="n">
-        <v>0.354989</v>
+        <v>0.364061</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185181</v>
+        <v>0.184867</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155161</v>
+        <v>0.15537</v>
       </c>
       <c r="C111" t="n">
-        <v>0.36553</v>
+        <v>0.366308</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183927</v>
+        <v>0.18347</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150658</v>
+        <v>0.150759</v>
       </c>
       <c r="C112" t="n">
-        <v>0.367381</v>
+        <v>0.3745</v>
       </c>
       <c r="D112" t="n">
-        <v>0.18249</v>
+        <v>0.182076</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145997</v>
+        <v>0.146108</v>
       </c>
       <c r="C113" t="n">
-        <v>0.377436</v>
+        <v>0.382255</v>
       </c>
       <c r="D113" t="n">
-        <v>0.18114</v>
+        <v>0.180581</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141009</v>
+        <v>0.141119</v>
       </c>
       <c r="C114" t="n">
-        <v>0.385652</v>
+        <v>0.395769</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179757</v>
+        <v>0.179237</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136065</v>
+        <v>0.136093</v>
       </c>
       <c r="C115" t="n">
-        <v>0.39901</v>
+        <v>0.400585</v>
       </c>
       <c r="D115" t="n">
-        <v>0.178537</v>
+        <v>0.177916</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131067</v>
+        <v>0.1312</v>
       </c>
       <c r="C116" t="n">
-        <v>0.414407</v>
+        <v>0.423316</v>
       </c>
       <c r="D116" t="n">
-        <v>0.177269</v>
+        <v>0.176666</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126055</v>
+        <v>0.126129</v>
       </c>
       <c r="C117" t="n">
-        <v>0.432204</v>
+        <v>0.435113</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175893</v>
+        <v>0.175397</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121106</v>
+        <v>0.121014</v>
       </c>
       <c r="C118" t="n">
-        <v>0.460297</v>
+        <v>0.467481</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174715</v>
+        <v>0.174182</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116169</v>
+        <v>0.116027</v>
       </c>
       <c r="C119" t="n">
-        <v>0.491839</v>
+        <v>0.49503</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173489</v>
+        <v>0.172943</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11124</v>
+        <v>0.111178</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5331669999999999</v>
+        <v>0.542088</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172158</v>
+        <v>0.171685</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106338</v>
+        <v>0.106273</v>
       </c>
       <c r="C121" t="n">
-        <v>0.583111</v>
+        <v>0.584492</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170948</v>
+        <v>0.170461</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.10148</v>
+        <v>0.101458</v>
       </c>
       <c r="C122" t="n">
-        <v>0.423701</v>
+        <v>0.431288</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169715</v>
+        <v>0.169153</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0966804</v>
+        <v>0.09648130000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.425895</v>
+        <v>0.43412</v>
       </c>
       <c r="D123" t="n">
-        <v>0.187153</v>
+        <v>0.186787</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.162912</v>
+        <v>0.169656</v>
       </c>
       <c r="C124" t="n">
-        <v>0.42969</v>
+        <v>0.437254</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185547</v>
+        <v>0.185124</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.158517</v>
+        <v>0.165266</v>
       </c>
       <c r="C125" t="n">
-        <v>0.434953</v>
+        <v>0.441817</v>
       </c>
       <c r="D125" t="n">
-        <v>0.184049</v>
+        <v>0.183707</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1538</v>
+        <v>0.160478</v>
       </c>
       <c r="C126" t="n">
-        <v>0.442049</v>
+        <v>0.447986</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182769</v>
+        <v>0.18229</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.148946</v>
+        <v>0.155367</v>
       </c>
       <c r="C127" t="n">
-        <v>0.449396</v>
+        <v>0.462356</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181451</v>
+        <v>0.180945</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149784</v>
+        <v>0.149947</v>
       </c>
       <c r="C128" t="n">
-        <v>0.461779</v>
+        <v>0.464485</v>
       </c>
       <c r="D128" t="n">
-        <v>0.180103</v>
+        <v>0.179543</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144275</v>
+        <v>0.144739</v>
       </c>
       <c r="C129" t="n">
-        <v>0.47465</v>
+        <v>0.477426</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178785</v>
+        <v>0.178271</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138341</v>
+        <v>0.139408</v>
       </c>
       <c r="C130" t="n">
-        <v>0.495717</v>
+        <v>0.492736</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177335</v>
+        <v>0.17694</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133876</v>
+        <v>0.133985</v>
       </c>
       <c r="C131" t="n">
-        <v>0.512256</v>
+        <v>0.513577</v>
       </c>
       <c r="D131" t="n">
-        <v>0.176054</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.127861</v>
+        <v>0.128638</v>
       </c>
       <c r="C132" t="n">
-        <v>0.54552</v>
+        <v>0.54193</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174854</v>
+        <v>0.174493</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123254</v>
+        <v>0.123333</v>
       </c>
       <c r="C133" t="n">
-        <v>0.582205</v>
+        <v>0.580867</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173636</v>
+        <v>0.173231</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118096</v>
+        <v>0.118283</v>
       </c>
       <c r="C134" t="n">
-        <v>0.630783</v>
+        <v>0.630789</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172385</v>
+        <v>0.171973</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.112946</v>
+        <v>0.11314</v>
       </c>
       <c r="C135" t="n">
-        <v>0.693116</v>
+        <v>0.69138</v>
       </c>
       <c r="D135" t="n">
-        <v>0.171224</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107887</v>
+        <v>0.107954</v>
       </c>
       <c r="C136" t="n">
-        <v>0.478361</v>
+        <v>0.485627</v>
       </c>
       <c r="D136" t="n">
-        <v>0.170001</v>
+        <v>0.169411</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.10276</v>
+        <v>0.10281</v>
       </c>
       <c r="C137" t="n">
-        <v>0.479962</v>
+        <v>0.487572</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196784</v>
+        <v>0.19538</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170386</v>
+        <v>0.17075</v>
       </c>
       <c r="C138" t="n">
-        <v>0.483763</v>
+        <v>0.489389</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194704</v>
+        <v>0.194276</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165981</v>
+        <v>0.166221</v>
       </c>
       <c r="C139" t="n">
-        <v>0.488763</v>
+        <v>0.494085</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192719</v>
+        <v>0.192478</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161275</v>
+        <v>0.161428</v>
       </c>
       <c r="C140" t="n">
-        <v>0.490947</v>
+        <v>0.498859</v>
       </c>
       <c r="D140" t="n">
-        <v>0.191072</v>
+        <v>0.190574</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1562</v>
+        <v>0.156538</v>
       </c>
       <c r="C141" t="n">
-        <v>0.518307</v>
+        <v>0.524383</v>
       </c>
       <c r="D141" t="n">
-        <v>0.189256</v>
+        <v>0.18883</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150804</v>
+        <v>0.151248</v>
       </c>
       <c r="C142" t="n">
-        <v>0.52015</v>
+        <v>0.530373</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187704</v>
+        <v>0.187189</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.145563</v>
+        <v>0.145803</v>
       </c>
       <c r="C143" t="n">
-        <v>0.53886</v>
+        <v>0.543853</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185987</v>
+        <v>0.185555</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0649458</v>
+        <v>0.0646931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157046</v>
+        <v>0.157671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164595</v>
+        <v>0.164977</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0650104</v>
+        <v>0.064428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.158333</v>
+        <v>0.157301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164306</v>
+        <v>0.164169</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0645606</v>
+        <v>0.0643852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158667</v>
+        <v>0.15859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16456</v>
+        <v>0.164575</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06475</v>
+        <v>0.0650411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158419</v>
+        <v>0.159076</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163869</v>
+        <v>0.164431</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06476220000000001</v>
+        <v>0.0647421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158631</v>
+        <v>0.159049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16324</v>
+        <v>0.163611</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06514590000000001</v>
+        <v>0.06537220000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158864</v>
+        <v>0.159469</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163078</v>
+        <v>0.162767</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06561790000000001</v>
+        <v>0.0656911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159254</v>
+        <v>0.159219</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162032</v>
+        <v>0.162532</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0664387</v>
+        <v>0.0665776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159276</v>
+        <v>0.159067</v>
       </c>
       <c r="D9" t="n">
-        <v>0.178025</v>
+        <v>0.176656</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0936744</v>
+        <v>0.0920955</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164568</v>
+        <v>0.163612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176917</v>
+        <v>0.176807</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.093059</v>
+        <v>0.0935873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165776</v>
+        <v>0.164571</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176255</v>
+        <v>0.176494</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.092367</v>
+        <v>0.09303740000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165115</v>
+        <v>0.165288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175436</v>
+        <v>0.175586</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0916604</v>
+        <v>0.0922738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165261</v>
+        <v>0.165177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174649</v>
+        <v>0.175255</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0913119</v>
+        <v>0.0916796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165071</v>
+        <v>0.165778</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173769</v>
+        <v>0.17437</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08994050000000001</v>
+        <v>0.09125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16524</v>
+        <v>0.165617</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173619</v>
+        <v>0.173089</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08930929999999999</v>
+        <v>0.08978559999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164919</v>
+        <v>0.164839</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172488</v>
+        <v>0.172844</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0892097</v>
+        <v>0.0898258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.16506</v>
+        <v>0.164119</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171518</v>
+        <v>0.172036</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08901009999999999</v>
+        <v>0.0893911</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164702</v>
+        <v>0.16464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170755</v>
+        <v>0.170882</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.086571</v>
+        <v>0.08819390000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.168314</v>
+        <v>0.164017</v>
       </c>
       <c r="D19" t="n">
-        <v>0.171424</v>
+        <v>0.16934</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08582770000000001</v>
+        <v>0.08666939999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165516</v>
+        <v>0.166886</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169337</v>
+        <v>0.169107</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0836731</v>
+        <v>0.0845905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166364</v>
+        <v>0.16429</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169096</v>
+        <v>0.168229</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.081578</v>
+        <v>0.08249910000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.164894</v>
+        <v>0.164148</v>
       </c>
       <c r="D22" t="n">
-        <v>0.167143</v>
+        <v>0.166926</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08117870000000001</v>
+        <v>0.08188429999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165383</v>
+        <v>0.164068</v>
       </c>
       <c r="D23" t="n">
-        <v>0.185373</v>
+        <v>0.186354</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134282</v>
+        <v>0.133236</v>
       </c>
       <c r="C24" t="n">
-        <v>0.178625</v>
+        <v>0.177424</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18413</v>
+        <v>0.184224</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131432</v>
+        <v>0.130643</v>
       </c>
       <c r="C25" t="n">
-        <v>0.176881</v>
+        <v>0.174858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.183239</v>
+        <v>0.182815</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.129015</v>
+        <v>0.127763</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175273</v>
+        <v>0.175591</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181677</v>
+        <v>0.180774</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.125479</v>
+        <v>0.12525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175934</v>
+        <v>0.175278</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180124</v>
+        <v>0.17949</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.123302</v>
+        <v>0.123011</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175105</v>
+        <v>0.17362</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178826</v>
+        <v>0.179267</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.119822</v>
+        <v>0.119844</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174486</v>
+        <v>0.17253</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178116</v>
+        <v>0.177745</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117283</v>
+        <v>0.117109</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173746</v>
+        <v>0.172354</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176208</v>
+        <v>0.176725</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113922</v>
+        <v>0.113878</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173734</v>
+        <v>0.173332</v>
       </c>
       <c r="D31" t="n">
-        <v>0.17534</v>
+        <v>0.175337</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110917</v>
+        <v>0.110878</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172312</v>
+        <v>0.172507</v>
       </c>
       <c r="D32" t="n">
-        <v>0.174017</v>
+        <v>0.173401</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1073</v>
+        <v>0.107738</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171426</v>
+        <v>0.170984</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172247</v>
+        <v>0.172358</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104243</v>
+        <v>0.103885</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170127</v>
+        <v>0.17112</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1708</v>
+        <v>0.171771</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.098427</v>
+        <v>0.0996297</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169972</v>
+        <v>0.17016</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169776</v>
+        <v>0.169886</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0944714</v>
+        <v>0.09477679999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169569</v>
+        <v>0.169744</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168316</v>
+        <v>0.167641</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0903939</v>
+        <v>0.0906135</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167979</v>
+        <v>0.167466</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186766</v>
+        <v>0.186915</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.153296</v>
+        <v>0.152466</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182919</v>
+        <v>0.182322</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185033</v>
+        <v>0.18559</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150021</v>
+        <v>0.149103</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181587</v>
+        <v>0.18087</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183888</v>
+        <v>0.184119</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146669</v>
+        <v>0.145397</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17984</v>
+        <v>0.180137</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182354</v>
+        <v>0.182219</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.141929</v>
+        <v>0.142059</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178499</v>
+        <v>0.178372</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180667</v>
+        <v>0.181217</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138586</v>
+        <v>0.137884</v>
       </c>
       <c r="C42" t="n">
-        <v>0.176969</v>
+        <v>0.177581</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179415</v>
+        <v>0.179991</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134226</v>
+        <v>0.133723</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1766</v>
+        <v>0.176498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178204</v>
+        <v>0.178746</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130367</v>
+        <v>0.129722</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175812</v>
+        <v>0.174947</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176811</v>
+        <v>0.177309</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125865</v>
+        <v>0.125448</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174241</v>
+        <v>0.175048</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175422</v>
+        <v>0.17594</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121306</v>
+        <v>0.12136</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173658</v>
+        <v>0.173984</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174419</v>
+        <v>0.174575</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116878</v>
+        <v>0.116691</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172598</v>
+        <v>0.172593</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173292</v>
+        <v>0.173288</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112226</v>
+        <v>0.112084</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171596</v>
+        <v>0.172196</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171817</v>
+        <v>0.171842</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107636</v>
+        <v>0.107444</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171006</v>
+        <v>0.171112</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170513</v>
+        <v>0.170421</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103198</v>
+        <v>0.103096</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169911</v>
+        <v>0.170127</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169022</v>
+        <v>0.169112</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09788239999999999</v>
+        <v>0.0974805</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168886</v>
+        <v>0.169805</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187724</v>
+        <v>0.187591</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0921989</v>
+        <v>0.0926138</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16799</v>
+        <v>0.16768</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185975</v>
+        <v>0.186079</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156676</v>
+        <v>0.156325</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182738</v>
+        <v>0.182768</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184501</v>
+        <v>0.184636</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152911</v>
+        <v>0.152557</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181599</v>
+        <v>0.181279</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183011</v>
+        <v>0.18326</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14885</v>
+        <v>0.14884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180364</v>
+        <v>0.180222</v>
       </c>
       <c r="D55" t="n">
-        <v>0.18184</v>
+        <v>0.181806</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144684</v>
+        <v>0.144166</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178974</v>
+        <v>0.178933</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180359</v>
+        <v>0.180473</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140062</v>
+        <v>0.140058</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178181</v>
+        <v>0.177999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178937</v>
+        <v>0.179132</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135135</v>
+        <v>0.135105</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176983</v>
+        <v>0.176829</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17772</v>
+        <v>0.177846</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130438</v>
+        <v>0.130264</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17583</v>
+        <v>0.175523</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176338</v>
+        <v>0.176485</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125501</v>
+        <v>0.125553</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174747</v>
+        <v>0.174445</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175016</v>
+        <v>0.175038</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120647</v>
+        <v>0.1205</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17373</v>
+        <v>0.173658</v>
       </c>
       <c r="D61" t="n">
-        <v>0.17358</v>
+        <v>0.173612</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115986</v>
+        <v>0.115744</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172722</v>
+        <v>0.17248</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17225</v>
+        <v>0.172296</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111012</v>
+        <v>0.110908</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171623</v>
+        <v>0.171497</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170869</v>
+        <v>0.170989</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106193</v>
+        <v>0.106052</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170479</v>
+        <v>0.170258</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169766</v>
+        <v>0.169442</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101532</v>
+        <v>0.101205</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169618</v>
+        <v>0.169181</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168711</v>
+        <v>0.168385</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0964733</v>
+        <v>0.09622699999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168629</v>
+        <v>0.168337</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186653</v>
+        <v>0.186523</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160605</v>
+        <v>0.159938</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183706</v>
+        <v>0.183399</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185286</v>
+        <v>0.184996</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156472</v>
+        <v>0.156134</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182432</v>
+        <v>0.182134</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183709</v>
+        <v>0.183601</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152283</v>
+        <v>0.151774</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181179</v>
+        <v>0.180942</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182253</v>
+        <v>0.182224</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147635</v>
+        <v>0.147148</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179929</v>
+        <v>0.179616</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180893</v>
+        <v>0.180782</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142724</v>
+        <v>0.142451</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178739</v>
+        <v>0.178458</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179559</v>
+        <v>0.179365</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137961</v>
+        <v>0.137423</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177537</v>
+        <v>0.177286</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178154</v>
+        <v>0.178235</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133023</v>
+        <v>0.132838</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176535</v>
+        <v>0.176401</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176869</v>
+        <v>0.176956</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128044</v>
+        <v>0.127947</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175412</v>
+        <v>0.175214</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175489</v>
+        <v>0.175608</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123217</v>
+        <v>0.123106</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174487</v>
+        <v>0.174171</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174416</v>
+        <v>0.174492</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118415</v>
+        <v>0.118127</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173246</v>
+        <v>0.173079</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173233</v>
+        <v>0.173161</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113492</v>
+        <v>0.113185</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172166</v>
+        <v>0.171936</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171912</v>
+        <v>0.17185</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108588</v>
+        <v>0.108307</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1712</v>
+        <v>0.170969</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170805</v>
+        <v>0.170728</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103824</v>
+        <v>0.103557</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170056</v>
+        <v>0.169994</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169492</v>
+        <v>0.169329</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0988942</v>
+        <v>0.0985885</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169021</v>
+        <v>0.168904</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187131</v>
+        <v>0.187158</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161491</v>
+        <v>0.161565</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184094</v>
+        <v>0.183974</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185527</v>
+        <v>0.185679</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157565</v>
+        <v>0.157806</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182649</v>
+        <v>0.182513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184131</v>
+        <v>0.184175</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153036</v>
+        <v>0.153572</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181381</v>
+        <v>0.181363</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182626</v>
+        <v>0.182766</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148718</v>
+        <v>0.148753</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180194</v>
+        <v>0.180124</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181237</v>
+        <v>0.18127</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144014</v>
+        <v>0.144019</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178929</v>
+        <v>0.178922</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179878</v>
+        <v>0.179861</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138942</v>
+        <v>0.138893</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177825</v>
+        <v>0.177736</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178551</v>
+        <v>0.178643</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133857</v>
+        <v>0.134073</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176609</v>
+        <v>0.176543</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177342</v>
+        <v>0.177357</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.12879</v>
+        <v>0.129127</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175552</v>
+        <v>0.175439</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176115</v>
+        <v>0.176172</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123986</v>
+        <v>0.124277</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174425</v>
+        <v>0.174339</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174871</v>
+        <v>0.174883</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119125</v>
+        <v>0.119151</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1733</v>
+        <v>0.173201</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17371</v>
+        <v>0.173691</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114039</v>
+        <v>0.114073</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172322</v>
+        <v>0.172169</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172551</v>
+        <v>0.172535</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109282</v>
+        <v>0.109157</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171257</v>
+        <v>0.171082</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171309</v>
+        <v>0.171207</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104332</v>
+        <v>0.104258</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170171</v>
+        <v>0.170133</v>
       </c>
       <c r="D93" t="n">
-        <v>0.17002</v>
+        <v>0.169981</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993801</v>
+        <v>0.0994592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169038</v>
+        <v>0.168986</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187244</v>
+        <v>0.18771</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162173</v>
+        <v>0.162458</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184419</v>
+        <v>0.184485</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185751</v>
+        <v>0.186067</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158222</v>
+        <v>0.158778</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183046</v>
+        <v>0.183173</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184245</v>
+        <v>0.184554</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154364</v>
+        <v>0.154563</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181691</v>
+        <v>0.181747</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182813</v>
+        <v>0.18306</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149527</v>
+        <v>0.149929</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180415</v>
+        <v>0.180532</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181391</v>
+        <v>0.181636</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144635</v>
+        <v>0.145003</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179177</v>
+        <v>0.179327</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1801</v>
+        <v>0.180322</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140155</v>
+        <v>0.140136</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178164</v>
+        <v>0.178099</v>
       </c>
       <c r="D100" t="n">
-        <v>0.17891</v>
+        <v>0.179003</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135222</v>
+        <v>0.135086</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176998</v>
+        <v>0.176919</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177719</v>
+        <v>0.17776</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130098</v>
+        <v>0.130206</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175805</v>
+        <v>0.175804</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176432</v>
+        <v>0.176447</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124939</v>
+        <v>0.12526</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174788</v>
+        <v>0.174652</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175205</v>
+        <v>0.175231</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120006</v>
+        <v>0.120341</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173702</v>
+        <v>0.173568</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173982</v>
+        <v>0.174057</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115149</v>
+        <v>0.115205</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172585</v>
+        <v>0.172431</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172757</v>
+        <v>0.172744</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110242</v>
+        <v>0.110201</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171464</v>
+        <v>0.171409</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171537</v>
+        <v>0.171562</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105306</v>
+        <v>0.105248</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170467</v>
+        <v>0.170271</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17037</v>
+        <v>0.170389</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.10038</v>
+        <v>0.100385</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169334</v>
+        <v>0.169329</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187912</v>
+        <v>0.188034</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0954087</v>
+        <v>0.09541529999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168261</v>
+        <v>0.168178</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18631</v>
+        <v>0.186322</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159461</v>
+        <v>0.159355</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183518</v>
+        <v>0.183499</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184742</v>
+        <v>0.184854</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155152</v>
+        <v>0.155224</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182198</v>
+        <v>0.182155</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183283</v>
+        <v>0.183414</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150641</v>
+        <v>0.150855</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180948</v>
+        <v>0.180817</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181916</v>
+        <v>0.181996</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145944</v>
+        <v>0.146107</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179714</v>
+        <v>0.179639</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180545</v>
+        <v>0.180563</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141365</v>
+        <v>0.140838</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17849</v>
+        <v>0.17832</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179207</v>
+        <v>0.179112</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136169</v>
+        <v>0.135707</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17734</v>
+        <v>0.177047</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177982</v>
+        <v>0.177815</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131065</v>
+        <v>0.130714</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176198</v>
+        <v>0.175921</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176577</v>
+        <v>0.176559</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126142</v>
+        <v>0.125728</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175071</v>
+        <v>0.174764</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175367</v>
+        <v>0.175315</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121064</v>
+        <v>0.120844</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173984</v>
+        <v>0.173669</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174228</v>
+        <v>0.174198</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116055</v>
+        <v>0.116004</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172845</v>
+        <v>0.172716</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172972</v>
+        <v>0.173048</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111185</v>
+        <v>0.111153</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171876</v>
+        <v>0.171757</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171826</v>
+        <v>0.171775</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10634</v>
+        <v>0.106345</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170739</v>
+        <v>0.170608</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170565</v>
+        <v>0.170501</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101467</v>
+        <v>0.101378</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169612</v>
+        <v>0.16955</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169231</v>
+        <v>0.169266</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965381</v>
+        <v>0.0965492</v>
       </c>
       <c r="C123" t="n">
-        <v>0.168562</v>
+        <v>0.16842</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186629</v>
+        <v>0.186672</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169548</v>
+        <v>0.160193</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183993</v>
+        <v>0.183848</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185013</v>
+        <v>0.185074</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165185</v>
+        <v>0.157089</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182525</v>
+        <v>0.182412</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183598</v>
+        <v>0.183707</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160222</v>
+        <v>0.152885</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181305</v>
+        <v>0.181118</v>
       </c>
       <c r="D126" t="n">
-        <v>0.18214</v>
+        <v>0.182236</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155653</v>
+        <v>0.147891</v>
       </c>
       <c r="C127" t="n">
-        <v>0.180003</v>
+        <v>0.179852</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180813</v>
+        <v>0.180796</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.150129</v>
+        <v>0.142977</v>
       </c>
       <c r="C128" t="n">
-        <v>0.17878</v>
+        <v>0.178635</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179527</v>
+        <v>0.179525</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14487</v>
+        <v>0.138145</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177536</v>
+        <v>0.177446</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178186</v>
+        <v>0.178284</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139334</v>
+        <v>0.133369</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176386</v>
+        <v>0.17631</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176926</v>
+        <v>0.177003</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13391</v>
+        <v>0.128327</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175323</v>
+        <v>0.175216</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175722</v>
+        <v>0.175701</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128651</v>
+        <v>0.123544</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174296</v>
+        <v>0.174164</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174419</v>
+        <v>0.174479</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123273</v>
+        <v>0.118751</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173102</v>
+        <v>0.172955</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173249</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118179</v>
+        <v>0.113458</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172064</v>
+        <v>0.171862</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172082</v>
+        <v>0.172016</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.112946</v>
+        <v>0.108522</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170974</v>
+        <v>0.170826</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170782</v>
+        <v>0.170814</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.108173</v>
+        <v>0.103717</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169873</v>
+        <v>0.169793</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169591</v>
+        <v>0.169624</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102758</v>
+        <v>0.0987731</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168791</v>
+        <v>0.168685</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196304</v>
+        <v>0.19612</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.17026</v>
+        <v>0.169412</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194251</v>
+        <v>0.194205</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194222</v>
+        <v>0.194208</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165996</v>
+        <v>0.165509</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192181</v>
+        <v>0.192081</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192576</v>
+        <v>0.192195</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161595</v>
+        <v>0.160426</v>
       </c>
       <c r="C140" t="n">
-        <v>0.189759</v>
+        <v>0.190285</v>
       </c>
       <c r="D140" t="n">
-        <v>0.189533</v>
+        <v>0.190554</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.154605</v>
+        <v>0.155541</v>
       </c>
       <c r="C141" t="n">
-        <v>0.184332</v>
+        <v>0.188592</v>
       </c>
       <c r="D141" t="n">
-        <v>0.184406</v>
+        <v>0.18862</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.146022</v>
+        <v>0.149855</v>
       </c>
       <c r="C142" t="n">
-        <v>0.181239</v>
+        <v>0.186922</v>
       </c>
       <c r="D142" t="n">
-        <v>0.180998</v>
+        <v>0.187132</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.140832</v>
+        <v>0.144724</v>
       </c>
       <c r="C143" t="n">
-        <v>0.179965</v>
+        <v>0.185315</v>
       </c>
       <c r="D143" t="n">
-        <v>0.179981</v>
+        <v>0.185326</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0646931</v>
+        <v>0.06463869999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157671</v>
+        <v>0.157181</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164977</v>
+        <v>0.164548</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.064428</v>
+        <v>0.0649188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157301</v>
+        <v>0.157366</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164169</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0643852</v>
+        <v>0.0646911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15859</v>
+        <v>0.158281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164575</v>
+        <v>0.164865</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0650411</v>
+        <v>0.0646523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159076</v>
+        <v>0.158363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164431</v>
+        <v>0.163697</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0647421</v>
+        <v>0.0647281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159049</v>
+        <v>0.159283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163611</v>
+        <v>0.163728</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06537220000000001</v>
+        <v>0.0648802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159469</v>
+        <v>0.15868</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162767</v>
+        <v>0.163514</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0656911</v>
+        <v>0.0653637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159219</v>
+        <v>0.159164</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162532</v>
+        <v>0.162723</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0665776</v>
+        <v>0.0659768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159067</v>
+        <v>0.159092</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176656</v>
+        <v>0.17773</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0920955</v>
+        <v>0.09214600000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.163612</v>
+        <v>0.164964</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176807</v>
+        <v>0.177486</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0935873</v>
+        <v>0.0916193</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164571</v>
+        <v>0.164699</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176494</v>
+        <v>0.176572</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09303740000000001</v>
+        <v>0.0919978</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165288</v>
+        <v>0.164528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175586</v>
+        <v>0.175739</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0922738</v>
+        <v>0.0911061</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165177</v>
+        <v>0.16522</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175255</v>
+        <v>0.174824</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0916796</v>
+        <v>0.09163930000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165778</v>
+        <v>0.165118</v>
       </c>
       <c r="D14" t="n">
-        <v>0.17437</v>
+        <v>0.173853</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09125</v>
+        <v>0.0900311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165617</v>
+        <v>0.16512</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173089</v>
+        <v>0.173476</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08978559999999999</v>
+        <v>0.08780839999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164839</v>
+        <v>0.164901</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172844</v>
+        <v>0.172403</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0898258</v>
+        <v>0.0889148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164119</v>
+        <v>0.164988</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172036</v>
+        <v>0.171852</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0893911</v>
+        <v>0.0868744</v>
       </c>
       <c r="C18" t="n">
-        <v>0.16464</v>
+        <v>0.164784</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170882</v>
+        <v>0.170556</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08819390000000001</v>
+        <v>0.0888046</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164017</v>
+        <v>0.171097</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16934</v>
+        <v>0.170934</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08666939999999999</v>
+        <v>0.08737449999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.166886</v>
+        <v>0.165615</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169107</v>
+        <v>0.17008</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0845905</v>
+        <v>0.08424769999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16429</v>
+        <v>0.165582</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168229</v>
+        <v>0.168466</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08249910000000001</v>
+        <v>0.0826115</v>
       </c>
       <c r="C22" t="n">
-        <v>0.164148</v>
+        <v>0.16727</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166926</v>
+        <v>0.166674</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08188429999999999</v>
+        <v>0.081053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164068</v>
+        <v>0.164355</v>
       </c>
       <c r="D23" t="n">
-        <v>0.186354</v>
+        <v>0.185354</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133236</v>
+        <v>0.133322</v>
       </c>
       <c r="C24" t="n">
-        <v>0.177424</v>
+        <v>0.181118</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184224</v>
+        <v>0.183611</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.130643</v>
+        <v>0.131096</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174858</v>
+        <v>0.175652</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182815</v>
+        <v>0.183098</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127763</v>
+        <v>0.128302</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175591</v>
+        <v>0.175026</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180774</v>
+        <v>0.181638</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.12525</v>
+        <v>0.126156</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175278</v>
+        <v>0.176444</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17949</v>
+        <v>0.180154</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.123011</v>
+        <v>0.123081</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17362</v>
+        <v>0.172493</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179267</v>
+        <v>0.177834</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.119844</v>
+        <v>0.119745</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17253</v>
+        <v>0.175166</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177745</v>
+        <v>0.177956</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117109</v>
+        <v>0.116732</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172354</v>
+        <v>0.174114</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176725</v>
+        <v>0.175631</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113878</v>
+        <v>0.113825</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173332</v>
+        <v>0.173162</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175337</v>
+        <v>0.174331</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110878</v>
+        <v>0.111176</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172507</v>
+        <v>0.171975</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173401</v>
+        <v>0.173633</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107738</v>
+        <v>0.108114</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170984</v>
+        <v>0.171085</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172358</v>
+        <v>0.172321</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103885</v>
+        <v>0.104552</v>
       </c>
       <c r="C34" t="n">
-        <v>0.17112</v>
+        <v>0.170766</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171771</v>
+        <v>0.170927</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0996297</v>
+        <v>0.099772</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17016</v>
+        <v>0.169411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169886</v>
+        <v>0.169644</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09477679999999999</v>
+        <v>0.0950988</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169744</v>
+        <v>0.169215</v>
       </c>
       <c r="D36" t="n">
-        <v>0.167641</v>
+        <v>0.168105</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0906135</v>
+        <v>0.0908465</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167466</v>
+        <v>0.167702</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186915</v>
+        <v>0.186921</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152466</v>
+        <v>0.152738</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182322</v>
+        <v>0.182369</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18559</v>
+        <v>0.185222</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149103</v>
+        <v>0.14919</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18087</v>
+        <v>0.181214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.184119</v>
+        <v>0.184251</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145397</v>
+        <v>0.145947</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180137</v>
+        <v>0.18038</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182219</v>
+        <v>0.182466</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142059</v>
+        <v>0.142146</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178372</v>
+        <v>0.179053</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181217</v>
+        <v>0.181184</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.137884</v>
+        <v>0.138166</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177581</v>
+        <v>0.178135</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179991</v>
+        <v>0.179982</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133723</v>
+        <v>0.13396</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176498</v>
+        <v>0.177032</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178746</v>
+        <v>0.17855</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129722</v>
+        <v>0.129862</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174947</v>
+        <v>0.17618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177309</v>
+        <v>0.17717</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125448</v>
+        <v>0.125453</v>
       </c>
       <c r="C45" t="n">
-        <v>0.175048</v>
+        <v>0.175153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17594</v>
+        <v>0.175831</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12136</v>
+        <v>0.121459</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173984</v>
+        <v>0.173612</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174575</v>
+        <v>0.174781</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116691</v>
+        <v>0.117041</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172593</v>
+        <v>0.172513</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173288</v>
+        <v>0.173485</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112084</v>
+        <v>0.112513</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172196</v>
+        <v>0.171637</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171842</v>
+        <v>0.172115</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107444</v>
+        <v>0.107973</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171112</v>
+        <v>0.17105</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170421</v>
+        <v>0.170211</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103096</v>
+        <v>0.103329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170127</v>
+        <v>0.169453</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169112</v>
+        <v>0.169052</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0974805</v>
+        <v>0.0978155</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169805</v>
+        <v>0.169228</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187591</v>
+        <v>0.187518</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0926138</v>
+        <v>0.0929536</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16768</v>
+        <v>0.168124</v>
       </c>
       <c r="D52" t="n">
-        <v>0.186079</v>
+        <v>0.185992</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156325</v>
+        <v>0.156618</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182768</v>
+        <v>0.182693</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184636</v>
+        <v>0.184643</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152557</v>
+        <v>0.153058</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181279</v>
+        <v>0.181347</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18326</v>
+        <v>0.183156</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14884</v>
+        <v>0.148954</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180222</v>
+        <v>0.180312</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181806</v>
+        <v>0.181792</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144166</v>
+        <v>0.144318</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178933</v>
+        <v>0.17902</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180473</v>
+        <v>0.180501</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140058</v>
+        <v>0.140294</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177999</v>
+        <v>0.178089</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179132</v>
+        <v>0.179117</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135105</v>
+        <v>0.134966</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176829</v>
+        <v>0.177003</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177846</v>
+        <v>0.177873</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130264</v>
+        <v>0.130764</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175523</v>
+        <v>0.17594</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176485</v>
+        <v>0.176428</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125553</v>
+        <v>0.125644</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174445</v>
+        <v>0.174806</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175038</v>
+        <v>0.175081</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1205</v>
+        <v>0.120859</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173658</v>
+        <v>0.173501</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173612</v>
+        <v>0.173661</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115744</v>
+        <v>0.115969</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17248</v>
+        <v>0.172692</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172296</v>
+        <v>0.172423</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110908</v>
+        <v>0.110958</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171497</v>
+        <v>0.171554</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170989</v>
+        <v>0.171015</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106052</v>
+        <v>0.106201</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170258</v>
+        <v>0.170483</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169442</v>
+        <v>0.169621</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101205</v>
+        <v>0.101422</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169181</v>
+        <v>0.169451</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168385</v>
+        <v>0.168519</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09622699999999999</v>
+        <v>0.0965681</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168337</v>
+        <v>0.168542</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186523</v>
+        <v>0.186878</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.159938</v>
+        <v>0.160094</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183399</v>
+        <v>0.183605</v>
       </c>
       <c r="D67" t="n">
-        <v>0.184996</v>
+        <v>0.185374</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156134</v>
+        <v>0.156293</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182134</v>
+        <v>0.182251</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183601</v>
+        <v>0.183857</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151774</v>
+        <v>0.152141</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180942</v>
+        <v>0.181052</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182224</v>
+        <v>0.182378</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147148</v>
+        <v>0.147509</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179616</v>
+        <v>0.179991</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180782</v>
+        <v>0.180974</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142451</v>
+        <v>0.142999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178458</v>
+        <v>0.178562</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179365</v>
+        <v>0.179598</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137423</v>
+        <v>0.138209</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177286</v>
+        <v>0.177461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178235</v>
+        <v>0.178323</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132838</v>
+        <v>0.133539</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176401</v>
+        <v>0.176356</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176956</v>
+        <v>0.176957</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127947</v>
+        <v>0.128205</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175214</v>
+        <v>0.175243</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175608</v>
+        <v>0.175568</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123106</v>
+        <v>0.12342</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174171</v>
+        <v>0.174062</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174492</v>
+        <v>0.174229</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118127</v>
+        <v>0.118326</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173079</v>
+        <v>0.172934</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173161</v>
+        <v>0.172923</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113185</v>
+        <v>0.113346</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171936</v>
+        <v>0.171933</v>
       </c>
       <c r="D77" t="n">
-        <v>0.17185</v>
+        <v>0.171794</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108307</v>
+        <v>0.108536</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170969</v>
+        <v>0.170805</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170728</v>
+        <v>0.170444</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103557</v>
+        <v>0.103753</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169994</v>
+        <v>0.169803</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169329</v>
+        <v>0.169155</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0985885</v>
+        <v>0.0986841</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168904</v>
+        <v>0.168751</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187158</v>
+        <v>0.186978</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161565</v>
+        <v>0.161129</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183974</v>
+        <v>0.183887</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185679</v>
+        <v>0.185635</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157806</v>
+        <v>0.157725</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182513</v>
+        <v>0.182617</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184175</v>
+        <v>0.184233</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153572</v>
+        <v>0.153431</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181363</v>
+        <v>0.181343</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182766</v>
+        <v>0.182682</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148753</v>
+        <v>0.148589</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180124</v>
+        <v>0.180093</v>
       </c>
       <c r="D84" t="n">
-        <v>0.18127</v>
+        <v>0.181302</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144019</v>
+        <v>0.143953</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178922</v>
+        <v>0.178857</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179861</v>
+        <v>0.179896</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138893</v>
+        <v>0.13907</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177736</v>
+        <v>0.177674</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178643</v>
+        <v>0.178613</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134073</v>
+        <v>0.134032</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176543</v>
+        <v>0.17653</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177357</v>
+        <v>0.177288</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129127</v>
+        <v>0.129193</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175439</v>
+        <v>0.175363</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176172</v>
+        <v>0.176122</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124277</v>
+        <v>0.124031</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174339</v>
+        <v>0.174325</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174883</v>
+        <v>0.174924</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119151</v>
+        <v>0.118997</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173201</v>
+        <v>0.173297</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173691</v>
+        <v>0.17382</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114073</v>
+        <v>0.114178</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172169</v>
+        <v>0.172182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172535</v>
+        <v>0.172606</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109157</v>
+        <v>0.109113</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171082</v>
+        <v>0.171141</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171207</v>
+        <v>0.171276</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104258</v>
+        <v>0.104208</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170133</v>
+        <v>0.170062</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169981</v>
+        <v>0.170035</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994592</v>
+        <v>0.0992246</v>
       </c>
       <c r="C94" t="n">
         <v>0.168986</v>
       </c>
       <c r="D94" t="n">
-        <v>0.18771</v>
+        <v>0.187523</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162458</v>
+        <v>0.1623</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184485</v>
+        <v>0.184511</v>
       </c>
       <c r="D95" t="n">
-        <v>0.186067</v>
+        <v>0.185996</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158778</v>
+        <v>0.158593</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183173</v>
+        <v>0.18308</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184554</v>
+        <v>0.184518</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154563</v>
+        <v>0.154167</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181747</v>
+        <v>0.181785</v>
       </c>
       <c r="D97" t="n">
-        <v>0.18306</v>
+        <v>0.18311</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149929</v>
+        <v>0.149762</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180532</v>
+        <v>0.180455</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181636</v>
+        <v>0.181632</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145003</v>
+        <v>0.144709</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179327</v>
+        <v>0.179381</v>
       </c>
       <c r="D99" t="n">
-        <v>0.180322</v>
+        <v>0.18026</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140136</v>
+        <v>0.139967</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178099</v>
+        <v>0.178058</v>
       </c>
       <c r="D100" t="n">
-        <v>0.179003</v>
+        <v>0.178947</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135086</v>
+        <v>0.13486</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176919</v>
+        <v>0.176859</v>
       </c>
       <c r="D101" t="n">
-        <v>0.17776</v>
+        <v>0.177675</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130206</v>
+        <v>0.130097</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175804</v>
+        <v>0.175703</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176447</v>
+        <v>0.176468</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.12526</v>
+        <v>0.125073</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174652</v>
+        <v>0.174673</v>
       </c>
       <c r="D103" t="n">
-        <v>0.175231</v>
+        <v>0.17521</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120341</v>
+        <v>0.120144</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173568</v>
+        <v>0.17353</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174057</v>
+        <v>0.173962</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115205</v>
+        <v>0.115218</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172431</v>
+        <v>0.172407</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172744</v>
+        <v>0.172781</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110201</v>
+        <v>0.110353</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171409</v>
+        <v>0.17135</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171562</v>
+        <v>0.171599</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105248</v>
+        <v>0.105344</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170271</v>
+        <v>0.170307</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170389</v>
+        <v>0.170352</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100385</v>
+        <v>0.10036</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169329</v>
+        <v>0.169258</v>
       </c>
       <c r="D108" t="n">
-        <v>0.188034</v>
+        <v>0.187984</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09541529999999999</v>
+        <v>0.095458</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168178</v>
+        <v>0.168119</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186322</v>
+        <v>0.186398</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159355</v>
+        <v>0.159304</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183499</v>
+        <v>0.183476</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184854</v>
+        <v>0.184864</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155224</v>
+        <v>0.155239</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182155</v>
+        <v>0.182107</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183414</v>
+        <v>0.183367</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150855</v>
+        <v>0.150564</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180817</v>
+        <v>0.180874</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181996</v>
+        <v>0.181945</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146107</v>
+        <v>0.14579</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179639</v>
+        <v>0.179663</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180563</v>
+        <v>0.180598</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140838</v>
+        <v>0.141058</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17832</v>
+        <v>0.178375</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179112</v>
+        <v>0.179245</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135707</v>
+        <v>0.136161</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177047</v>
+        <v>0.177155</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177815</v>
+        <v>0.17799</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130714</v>
+        <v>0.131068</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175921</v>
+        <v>0.176083</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176559</v>
+        <v>0.176726</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125728</v>
+        <v>0.126198</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174764</v>
+        <v>0.174906</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175315</v>
+        <v>0.175472</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120844</v>
+        <v>0.12102</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173669</v>
+        <v>0.173833</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174198</v>
+        <v>0.174335</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116004</v>
+        <v>0.116116</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172716</v>
+        <v>0.172719</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173048</v>
+        <v>0.173114</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111153</v>
+        <v>0.111268</v>
       </c>
       <c r="C120" t="n">
+        <v>0.171642</v>
+      </c>
+      <c r="D120" t="n">
         <v>0.171757</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.171775</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106345</v>
+        <v>0.106317</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170608</v>
+        <v>0.170627</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170501</v>
+        <v>0.170524</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101378</v>
+        <v>0.101459</v>
       </c>
       <c r="C122" t="n">
         <v>0.16955</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169266</v>
+        <v>0.169355</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965492</v>
+        <v>0.096583</v>
       </c>
       <c r="C123" t="n">
-        <v>0.16842</v>
+        <v>0.16844</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186672</v>
+        <v>0.186626</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160193</v>
+        <v>0.169381</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183848</v>
+        <v>0.183927</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185074</v>
+        <v>0.18513</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.157089</v>
+        <v>0.162326</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182412</v>
+        <v>0.182369</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183707</v>
+        <v>0.183583</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.152885</v>
+        <v>0.151421</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181118</v>
+        <v>0.181</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182236</v>
+        <v>0.182068</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.147891</v>
+        <v>0.146841</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179852</v>
+        <v>0.179705</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180796</v>
+        <v>0.180681</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.142977</v>
+        <v>0.141914</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178635</v>
+        <v>0.178454</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179525</v>
+        <v>0.179391</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.138145</v>
+        <v>0.139394</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177446</v>
+        <v>0.177294</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178284</v>
+        <v>0.178135</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.133369</v>
+        <v>0.132255</v>
       </c>
       <c r="C130" t="n">
-        <v>0.17631</v>
+        <v>0.176327</v>
       </c>
       <c r="D130" t="n">
-        <v>0.177003</v>
+        <v>0.176942</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128327</v>
+        <v>0.127218</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175216</v>
+        <v>0.175269</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175701</v>
+        <v>0.175745</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.123544</v>
+        <v>0.12228</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174164</v>
+        <v>0.174062</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174479</v>
+        <v>0.174564</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.118751</v>
+        <v>0.117225</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172955</v>
+        <v>0.173006</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1733</v>
+        <v>0.173285</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.113458</v>
+        <v>0.112159</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171862</v>
+        <v>0.172006</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172016</v>
+        <v>0.1721</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.108522</v>
+        <v>0.107342</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170826</v>
+        <v>0.170861</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170814</v>
+        <v>0.170837</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.103717</v>
+        <v>0.102449</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169793</v>
+        <v>0.169791</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169624</v>
+        <v>0.169514</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0987731</v>
+        <v>0.0975237</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168685</v>
+        <v>0.168675</v>
       </c>
       <c r="D137" t="n">
-        <v>0.19612</v>
+        <v>0.186981</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169412</v>
+        <v>0.161168</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194205</v>
+        <v>0.18407</v>
       </c>
       <c r="D138" t="n">
-        <v>0.194208</v>
+        <v>0.185511</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165509</v>
+        <v>0.15717</v>
       </c>
       <c r="C139" t="n">
-        <v>0.192081</v>
+        <v>0.182675</v>
       </c>
       <c r="D139" t="n">
-        <v>0.192195</v>
+        <v>0.183917</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.160426</v>
+        <v>0.15278</v>
       </c>
       <c r="C140" t="n">
-        <v>0.190285</v>
+        <v>0.181447</v>
       </c>
       <c r="D140" t="n">
-        <v>0.190554</v>
+        <v>0.182485</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.155541</v>
+        <v>0.147963</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188592</v>
+        <v>0.180174</v>
       </c>
       <c r="D141" t="n">
-        <v>0.18862</v>
+        <v>0.181156</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.149855</v>
+        <v>0.143214</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186922</v>
+        <v>0.178926</v>
       </c>
       <c r="D142" t="n">
-        <v>0.187132</v>
+        <v>0.179755</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.144724</v>
+        <v>0.138022</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185315</v>
+        <v>0.177723</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185326</v>
+        <v>0.178452</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06463869999999999</v>
+        <v>0.0758843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157181</v>
+        <v>0.161517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164548</v>
+        <v>0.160011</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0649188</v>
+        <v>0.0735374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157366</v>
+        <v>0.161284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1641</v>
+        <v>0.159645</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0646911</v>
+        <v>0.0747241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158281</v>
+        <v>0.161565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164865</v>
+        <v>0.160429</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0646523</v>
+        <v>0.0728557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158363</v>
+        <v>0.161071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163697</v>
+        <v>0.16075</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0647281</v>
+        <v>0.0725507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159283</v>
+        <v>0.160359</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163728</v>
+        <v>0.160315</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0648802</v>
+        <v>0.0714322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15868</v>
+        <v>0.160506</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163514</v>
+        <v>0.159973</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0653637</v>
+        <v>0.0708246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159164</v>
+        <v>0.15986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162723</v>
+        <v>0.160079</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0659768</v>
+        <v>0.0693053</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159092</v>
+        <v>0.159816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17773</v>
+        <v>0.168025</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09214600000000001</v>
+        <v>0.124614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164964</v>
+        <v>0.168688</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177486</v>
+        <v>0.168796</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0916193</v>
+        <v>0.123047</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164699</v>
+        <v>0.169131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176572</v>
+        <v>0.167658</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0919978</v>
+        <v>0.122218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164528</v>
+        <v>0.168269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175739</v>
+        <v>0.168587</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0911061</v>
+        <v>0.118435</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16522</v>
+        <v>0.167974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174824</v>
+        <v>0.167476</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09163930000000001</v>
+        <v>0.116689</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165118</v>
+        <v>0.166866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173853</v>
+        <v>0.167025</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0900311</v>
+        <v>0.115717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16512</v>
+        <v>0.165758</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173476</v>
+        <v>0.166834</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08780839999999999</v>
+        <v>0.109993</v>
       </c>
       <c r="C16" t="n">
-        <v>0.164901</v>
+        <v>0.165987</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172403</v>
+        <v>0.166437</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0889148</v>
+        <v>0.107112</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164988</v>
+        <v>0.165494</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171852</v>
+        <v>0.165414</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0868744</v>
+        <v>0.105066</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164784</v>
+        <v>0.16521</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170556</v>
+        <v>0.165111</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0888046</v>
+        <v>0.09945279999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.171097</v>
+        <v>0.164933</v>
       </c>
       <c r="D19" t="n">
-        <v>0.170934</v>
+        <v>0.165088</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08737449999999999</v>
+        <v>0.096415</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165615</v>
+        <v>0.165109</v>
       </c>
       <c r="D20" t="n">
-        <v>0.17008</v>
+        <v>0.165158</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08424769999999999</v>
+        <v>0.095169</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165582</v>
+        <v>0.164374</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168466</v>
+        <v>0.165465</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0826115</v>
+        <v>0.0909674</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16727</v>
+        <v>0.16526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166674</v>
+        <v>0.163999</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.081053</v>
+        <v>0.0868884</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164355</v>
+        <v>0.16427</v>
       </c>
       <c r="D23" t="n">
-        <v>0.185354</v>
+        <v>0.183329</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133322</v>
+        <v>0.151432</v>
       </c>
       <c r="C24" t="n">
-        <v>0.181118</v>
+        <v>0.178874</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183611</v>
+        <v>0.179675</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131096</v>
+        <v>0.147713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175652</v>
+        <v>0.177374</v>
       </c>
       <c r="D25" t="n">
-        <v>0.183098</v>
+        <v>0.178149</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.128302</v>
+        <v>0.144473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175026</v>
+        <v>0.174788</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181638</v>
+        <v>0.177462</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.126156</v>
+        <v>0.139768</v>
       </c>
       <c r="C27" t="n">
-        <v>0.176444</v>
+        <v>0.175042</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180154</v>
+        <v>0.17597</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.123081</v>
+        <v>0.136365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.172493</v>
+        <v>0.173708</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177834</v>
+        <v>0.175113</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.119745</v>
+        <v>0.132397</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175166</v>
+        <v>0.172923</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177956</v>
+        <v>0.174344</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116732</v>
+        <v>0.128003</v>
       </c>
       <c r="C30" t="n">
-        <v>0.174114</v>
+        <v>0.171732</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175631</v>
+        <v>0.173993</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113825</v>
+        <v>0.123668</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173162</v>
+        <v>0.171195</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174331</v>
+        <v>0.171814</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111176</v>
+        <v>0.11902</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171975</v>
+        <v>0.170385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173633</v>
+        <v>0.170931</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.108114</v>
+        <v>0.114459</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171085</v>
+        <v>0.16947</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172321</v>
+        <v>0.170148</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104552</v>
+        <v>0.110177</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170766</v>
+        <v>0.169146</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170927</v>
+        <v>0.169615</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.099772</v>
+        <v>0.105099</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169411</v>
+        <v>0.167972</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169644</v>
+        <v>0.168269</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0950988</v>
+        <v>0.100138</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169215</v>
+        <v>0.167047</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168105</v>
+        <v>0.16735</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0908465</v>
+        <v>0.0948865</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167702</v>
+        <v>0.166171</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186921</v>
+        <v>0.184032</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152738</v>
+        <v>0.159129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182369</v>
+        <v>0.182408</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185222</v>
+        <v>0.182749</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14919</v>
+        <v>0.155682</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181214</v>
+        <v>0.180152</v>
       </c>
       <c r="D39" t="n">
-        <v>0.184251</v>
+        <v>0.181447</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145947</v>
+        <v>0.151681</v>
       </c>
       <c r="C40" t="n">
-        <v>0.18038</v>
+        <v>0.179135</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182466</v>
+        <v>0.179598</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142146</v>
+        <v>0.147442</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179053</v>
+        <v>0.177671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181184</v>
+        <v>0.178697</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138166</v>
+        <v>0.142735</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178135</v>
+        <v>0.176913</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179982</v>
+        <v>0.177654</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.13396</v>
+        <v>0.138002</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177032</v>
+        <v>0.175601</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17855</v>
+        <v>0.176255</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129862</v>
+        <v>0.13371</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17618</v>
+        <v>0.175113</v>
       </c>
       <c r="D44" t="n">
-        <v>0.17717</v>
+        <v>0.175428</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125453</v>
+        <v>0.128795</v>
       </c>
       <c r="C45" t="n">
-        <v>0.175153</v>
+        <v>0.173758</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175831</v>
+        <v>0.17424</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121459</v>
+        <v>0.124254</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173612</v>
+        <v>0.172944</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174781</v>
+        <v>0.172949</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.117041</v>
+        <v>0.119526</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172513</v>
+        <v>0.172182</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173485</v>
+        <v>0.171806</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112513</v>
+        <v>0.114363</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171637</v>
+        <v>0.170881</v>
       </c>
       <c r="D48" t="n">
-        <v>0.172115</v>
+        <v>0.170594</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107973</v>
+        <v>0.109704</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17105</v>
+        <v>0.170105</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170211</v>
+        <v>0.170093</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103329</v>
+        <v>0.104862</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169453</v>
+        <v>0.169022</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169052</v>
+        <v>0.168872</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0978155</v>
+        <v>0.09999089999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169228</v>
+        <v>0.167998</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187518</v>
+        <v>0.185726</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0929536</v>
+        <v>0.0946162</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168124</v>
+        <v>0.166696</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185992</v>
+        <v>0.183999</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156618</v>
+        <v>0.15835</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182693</v>
+        <v>0.182395</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184643</v>
+        <v>0.182938</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153058</v>
+        <v>0.15497</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181347</v>
+        <v>0.181008</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183156</v>
+        <v>0.181135</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.148954</v>
+        <v>0.150224</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180312</v>
+        <v>0.179806</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181792</v>
+        <v>0.179973</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144318</v>
+        <v>0.146313</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17902</v>
+        <v>0.17875</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180501</v>
+        <v>0.178698</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140294</v>
+        <v>0.141574</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178089</v>
+        <v>0.177572</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179117</v>
+        <v>0.177695</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134966</v>
+        <v>0.136479</v>
       </c>
       <c r="C58" t="n">
-        <v>0.177003</v>
+        <v>0.176431</v>
       </c>
       <c r="D58" t="n">
-        <v>0.177873</v>
+        <v>0.176204</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130764</v>
+        <v>0.131705</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17594</v>
+        <v>0.175317</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176428</v>
+        <v>0.175252</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125644</v>
+        <v>0.126692</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174806</v>
+        <v>0.174244</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175081</v>
+        <v>0.174049</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120859</v>
+        <v>0.121648</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173501</v>
+        <v>0.173258</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173661</v>
+        <v>0.172976</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115969</v>
+        <v>0.117033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172692</v>
+        <v>0.172136</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172423</v>
+        <v>0.171947</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110958</v>
+        <v>0.11206</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171554</v>
+        <v>0.171204</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171015</v>
+        <v>0.170843</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106201</v>
+        <v>0.106931</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170483</v>
+        <v>0.1701</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169621</v>
+        <v>0.169567</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101422</v>
+        <v>0.102032</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169451</v>
+        <v>0.168996</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168519</v>
+        <v>0.168423</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0965681</v>
+        <v>0.09696100000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168542</v>
+        <v>0.167839</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186878</v>
+        <v>0.18501</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160094</v>
+        <v>0.160578</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183605</v>
+        <v>0.183252</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185374</v>
+        <v>0.183444</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156293</v>
+        <v>0.156625</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182251</v>
+        <v>0.181965</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183857</v>
+        <v>0.182209</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152141</v>
+        <v>0.152507</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181052</v>
+        <v>0.1809</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182378</v>
+        <v>0.180939</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147509</v>
+        <v>0.147923</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179991</v>
+        <v>0.17956</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180974</v>
+        <v>0.179538</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142999</v>
+        <v>0.143473</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178562</v>
+        <v>0.178444</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179598</v>
+        <v>0.178374</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138209</v>
+        <v>0.13856</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177461</v>
+        <v>0.177204</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178323</v>
+        <v>0.177105</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133539</v>
+        <v>0.133469</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176356</v>
+        <v>0.176229</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176957</v>
+        <v>0.176068</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128205</v>
+        <v>0.128556</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175243</v>
+        <v>0.175094</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175568</v>
+        <v>0.17492</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.12342</v>
+        <v>0.12351</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174062</v>
+        <v>0.173923</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174229</v>
+        <v>0.173763</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118326</v>
+        <v>0.118643</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172934</v>
+        <v>0.172914</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172923</v>
+        <v>0.172585</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113346</v>
+        <v>0.113741</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171933</v>
+        <v>0.171849</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171794</v>
+        <v>0.171417</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108536</v>
+        <v>0.108914</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170805</v>
+        <v>0.170806</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170444</v>
+        <v>0.170196</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103753</v>
+        <v>0.10394</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169803</v>
+        <v>0.169616</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169155</v>
+        <v>0.168965</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0986841</v>
+        <v>0.0991664</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168751</v>
+        <v>0.168566</v>
       </c>
       <c r="D80" t="n">
-        <v>0.186978</v>
+        <v>0.185483</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161129</v>
+        <v>0.161075</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183887</v>
+        <v>0.183672</v>
       </c>
       <c r="D81" t="n">
-        <v>0.185635</v>
+        <v>0.184099</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157725</v>
+        <v>0.157541</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182617</v>
+        <v>0.182468</v>
       </c>
       <c r="D82" t="n">
-        <v>0.184233</v>
+        <v>0.182697</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153431</v>
+        <v>0.153279</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181343</v>
+        <v>0.181136</v>
       </c>
       <c r="D83" t="n">
-        <v>0.182682</v>
+        <v>0.181365</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148589</v>
+        <v>0.148419</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180093</v>
+        <v>0.179973</v>
       </c>
       <c r="D84" t="n">
-        <v>0.181302</v>
+        <v>0.180176</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143953</v>
+        <v>0.143563</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178857</v>
+        <v>0.178796</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179896</v>
+        <v>0.178976</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13907</v>
+        <v>0.138814</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177674</v>
+        <v>0.177617</v>
       </c>
       <c r="D86" t="n">
-        <v>0.178613</v>
+        <v>0.177749</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134032</v>
+        <v>0.134187</v>
       </c>
       <c r="C87" t="n">
-        <v>0.17653</v>
+        <v>0.176429</v>
       </c>
       <c r="D87" t="n">
-        <v>0.177288</v>
+        <v>0.176552</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129193</v>
+        <v>0.129007</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175363</v>
+        <v>0.17535</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176122</v>
+        <v>0.175408</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124031</v>
+        <v>0.12419</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174325</v>
+        <v>0.174264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174924</v>
+        <v>0.174248</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.118997</v>
+        <v>0.11903</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173297</v>
+        <v>0.173141</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17382</v>
+        <v>0.172985</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114178</v>
+        <v>0.114376</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172182</v>
+        <v>0.172009</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172606</v>
+        <v>0.171824</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109113</v>
+        <v>0.109255</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171141</v>
+        <v>0.17091</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171276</v>
+        <v>0.170566</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104208</v>
+        <v>0.104203</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170062</v>
+        <v>0.169647</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170035</v>
+        <v>0.169184</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0992246</v>
+        <v>0.0994004</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168986</v>
+        <v>0.168518</v>
       </c>
       <c r="D94" t="n">
-        <v>0.187523</v>
+        <v>0.185985</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1623</v>
+        <v>0.162128</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184511</v>
+        <v>0.184283</v>
       </c>
       <c r="D95" t="n">
-        <v>0.185996</v>
+        <v>0.184496</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158593</v>
+        <v>0.158397</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18308</v>
+        <v>0.182809</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184518</v>
+        <v>0.183031</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154167</v>
+        <v>0.154147</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181785</v>
+        <v>0.181471</v>
       </c>
       <c r="D97" t="n">
-        <v>0.18311</v>
+        <v>0.181718</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149762</v>
+        <v>0.14983</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180455</v>
+        <v>0.18041</v>
       </c>
       <c r="D98" t="n">
-        <v>0.181632</v>
+        <v>0.180566</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144709</v>
+        <v>0.144916</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179381</v>
+        <v>0.179197</v>
       </c>
       <c r="D99" t="n">
-        <v>0.18026</v>
+        <v>0.179185</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139967</v>
+        <v>0.140152</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178058</v>
+        <v>0.177969</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178947</v>
+        <v>0.177916</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13486</v>
+        <v>0.134967</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176859</v>
+        <v>0.176773</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177675</v>
+        <v>0.176813</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130097</v>
+        <v>0.13013</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175703</v>
+        <v>0.175576</v>
       </c>
       <c r="D102" t="n">
-        <v>0.176468</v>
+        <v>0.175551</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125073</v>
+        <v>0.125065</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174673</v>
+        <v>0.174482</v>
       </c>
       <c r="D103" t="n">
-        <v>0.17521</v>
+        <v>0.174353</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120144</v>
+        <v>0.120187</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17353</v>
+        <v>0.173485</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173962</v>
+        <v>0.173202</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115218</v>
+        <v>0.11521</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172407</v>
+        <v>0.172365</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172781</v>
+        <v>0.171937</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110353</v>
+        <v>0.110418</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17135</v>
+        <v>0.171213</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171599</v>
+        <v>0.17075</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105344</v>
+        <v>0.105437</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170307</v>
+        <v>0.170121</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170352</v>
+        <v>0.169515</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.10036</v>
+        <v>0.100497</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169258</v>
+        <v>0.168956</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187984</v>
+        <v>0.186463</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.095458</v>
+        <v>0.0955758</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168119</v>
+        <v>0.167807</v>
       </c>
       <c r="D109" t="n">
-        <v>0.186398</v>
+        <v>0.184955</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159304</v>
+        <v>0.159347</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183476</v>
+        <v>0.183413</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184864</v>
+        <v>0.18356</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155239</v>
+        <v>0.155292</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182107</v>
+        <v>0.181973</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183367</v>
+        <v>0.182079</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150564</v>
+        <v>0.150618</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180874</v>
+        <v>0.180669</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181945</v>
+        <v>0.180726</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14579</v>
+        <v>0.145909</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179663</v>
+        <v>0.17938</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180598</v>
+        <v>0.17949</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141058</v>
+        <v>0.140882</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178375</v>
+        <v>0.178213</v>
       </c>
       <c r="D114" t="n">
-        <v>0.179245</v>
+        <v>0.178267</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136161</v>
+        <v>0.135883</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177155</v>
+        <v>0.177024</v>
       </c>
       <c r="D115" t="n">
-        <v>0.17799</v>
+        <v>0.177074</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131068</v>
+        <v>0.130815</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176083</v>
+        <v>0.1759</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176726</v>
+        <v>0.175816</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126198</v>
+        <v>0.125838</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174906</v>
+        <v>0.174756</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175472</v>
+        <v>0.174614</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12102</v>
+        <v>0.121049</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173833</v>
+        <v>0.173618</v>
       </c>
       <c r="D118" t="n">
-        <v>0.174335</v>
+        <v>0.173493</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116116</v>
+        <v>0.115996</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172719</v>
+        <v>0.172618</v>
       </c>
       <c r="D119" t="n">
-        <v>0.173114</v>
+        <v>0.172224</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111268</v>
+        <v>0.111038</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171642</v>
+        <v>0.171472</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171757</v>
+        <v>0.171118</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106317</v>
+        <v>0.106266</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170627</v>
+        <v>0.170374</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170524</v>
+        <v>0.169817</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101459</v>
+        <v>0.101484</v>
       </c>
       <c r="C122" t="n">
-        <v>0.16955</v>
+        <v>0.169252</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169355</v>
+        <v>0.168563</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.096583</v>
+        <v>0.0965124</v>
       </c>
       <c r="C123" t="n">
-        <v>0.16844</v>
+        <v>0.167996</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186626</v>
+        <v>0.18529</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169381</v>
+        <v>0.16875</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183927</v>
+        <v>0.183665</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18513</v>
+        <v>0.183782</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.162326</v>
+        <v>0.165253</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182369</v>
+        <v>0.182248</v>
       </c>
       <c r="D125" t="n">
-        <v>0.183583</v>
+        <v>0.182436</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151421</v>
+        <v>0.160171</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181</v>
+        <v>0.180916</v>
       </c>
       <c r="D126" t="n">
-        <v>0.182068</v>
+        <v>0.181045</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146841</v>
+        <v>0.155079</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179705</v>
+        <v>0.179671</v>
       </c>
       <c r="D127" t="n">
-        <v>0.180681</v>
+        <v>0.17969</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141914</v>
+        <v>0.150172</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178454</v>
+        <v>0.178468</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179391</v>
+        <v>0.178501</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.139394</v>
+        <v>0.144364</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177294</v>
+        <v>0.177247</v>
       </c>
       <c r="D129" t="n">
-        <v>0.178135</v>
+        <v>0.177279</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.132255</v>
+        <v>0.13909</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176327</v>
+        <v>0.176109</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176942</v>
+        <v>0.176081</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127218</v>
+        <v>0.133975</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175269</v>
+        <v>0.174977</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175745</v>
+        <v>0.174818</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.12228</v>
+        <v>0.128653</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174062</v>
+        <v>0.173851</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174564</v>
+        <v>0.173736</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117225</v>
+        <v>0.123312</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173006</v>
+        <v>0.172825</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173285</v>
+        <v>0.1725</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112159</v>
+        <v>0.118196</v>
       </c>
       <c r="C134" t="n">
-        <v>0.172006</v>
+        <v>0.171717</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1721</v>
+        <v>0.17131</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107342</v>
+        <v>0.113081</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170861</v>
+        <v>0.170493</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170837</v>
+        <v>0.170121</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102449</v>
+        <v>0.107936</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169791</v>
+        <v>0.16948</v>
       </c>
       <c r="D136" t="n">
-        <v>0.169514</v>
+        <v>0.168793</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0975237</v>
+        <v>0.102763</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168675</v>
+        <v>0.168276</v>
       </c>
       <c r="D137" t="n">
-        <v>0.186981</v>
+        <v>0.194838</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161168</v>
+        <v>0.170695</v>
       </c>
       <c r="C138" t="n">
-        <v>0.18407</v>
+        <v>0.194016</v>
       </c>
       <c r="D138" t="n">
-        <v>0.185511</v>
+        <v>0.192446</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15717</v>
+        <v>0.16605</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182675</v>
+        <v>0.191328</v>
       </c>
       <c r="D139" t="n">
-        <v>0.183917</v>
+        <v>0.189943</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15278</v>
+        <v>0.159252</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181447</v>
+        <v>0.189598</v>
       </c>
       <c r="D140" t="n">
-        <v>0.182485</v>
+        <v>0.188461</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.147963</v>
+        <v>0.154279</v>
       </c>
       <c r="C141" t="n">
-        <v>0.180174</v>
+        <v>0.188097</v>
       </c>
       <c r="D141" t="n">
-        <v>0.181156</v>
+        <v>0.187379</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143214</v>
+        <v>0.149255</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178926</v>
+        <v>0.186404</v>
       </c>
       <c r="D142" t="n">
-        <v>0.179755</v>
+        <v>0.18564</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.138022</v>
+        <v>0.143908</v>
       </c>
       <c r="C143" t="n">
-        <v>0.177723</v>
+        <v>0.18492</v>
       </c>
       <c r="D143" t="n">
-        <v>0.178452</v>
+        <v>0.184108</v>
       </c>
     </row>
   </sheetData>
